--- a/config_debug/shoping_config_cjj.xlsx
+++ b/config_debug/shoping_config_cjj.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'gift_bag|礼包'!$A$1:$AM$322</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'jing_bi|购买鲸币'!$A$1:$AC$25</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3549" uniqueCount="1553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3549" uniqueCount="1552">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6595,10 +6595,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>9830000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>51300000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -6770,6 +6766,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6786,6 +6783,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6802,6 +6800,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7726,7 +7725,7 @@
         <v>16</v>
       </c>
       <c r="F1" s="59" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1348</v>
@@ -9656,11 +9655,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM424"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H397" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="Q56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K427" sqref="K427"/>
+      <selection pane="bottomRight" activeCell="Q70" sqref="Q70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -13643,7 +13642,7 @@
         <v>90</v>
       </c>
       <c r="Q70" s="40" t="s">
-        <v>1511</v>
+        <v>722</v>
       </c>
       <c r="V70" s="19" t="s">
         <v>550</v>
@@ -13699,7 +13698,7 @@
         <v>90</v>
       </c>
       <c r="Q71" s="40" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="V71" s="19" t="s">
         <v>550</v>
@@ -17068,7 +17067,7 @@
         <v>90</v>
       </c>
       <c r="Q128" s="40" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="V128" s="19" t="s">
         <v>550</v>
@@ -17124,7 +17123,7 @@
         <v>90</v>
       </c>
       <c r="Q129" s="40" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="V129" s="19" t="s">
         <v>550</v>
@@ -26409,7 +26408,7 @@
         <v>90</v>
       </c>
       <c r="Q273" s="10" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="V273" s="5" t="s">
         <v>550</v>
@@ -35899,10 +35898,10 @@
         <v>1</v>
       </c>
       <c r="G415" s="65" t="s">
+        <v>1516</v>
+      </c>
+      <c r="H415" s="65" t="s">
         <v>1517</v>
-      </c>
-      <c r="H415" s="65" t="s">
-        <v>1518</v>
       </c>
       <c r="I415" s="65" t="s">
         <v>1259</v>
@@ -35923,10 +35922,10 @@
         <v>600</v>
       </c>
       <c r="P415" s="65" t="s">
+        <v>1518</v>
+      </c>
+      <c r="Q415" s="66" t="s">
         <v>1519</v>
-      </c>
-      <c r="Q415" s="66" t="s">
-        <v>1520</v>
       </c>
       <c r="V415" s="65" t="s">
         <v>564</v>
@@ -35967,13 +35966,13 @@
         <v>1</v>
       </c>
       <c r="G416" s="65" t="s">
+        <v>1520</v>
+      </c>
+      <c r="H416" s="65" t="s">
         <v>1521</v>
       </c>
-      <c r="H416" s="65" t="s">
+      <c r="I416" s="65" t="s">
         <v>1522</v>
-      </c>
-      <c r="I416" s="65" t="s">
-        <v>1523</v>
       </c>
       <c r="K416" s="65">
         <v>-31</v>
@@ -35994,10 +35993,10 @@
         <v>1268</v>
       </c>
       <c r="Q416" s="66" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="V416" s="65" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="W416" s="67" t="s">
         <v>121</v>
@@ -36038,10 +36037,10 @@
         <v>1297</v>
       </c>
       <c r="H417" s="65" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="I417" s="65" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="K417" s="65">
         <v>-31</v>
@@ -36106,10 +36105,10 @@
         <v>1287</v>
       </c>
       <c r="H418" s="65" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="I418" s="65" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="K418" s="65">
         <v>-31</v>
@@ -36174,10 +36173,10 @@
         <v>1289</v>
       </c>
       <c r="H419" s="65" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="I419" s="65" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="K419" s="65">
         <v>-31</v>
@@ -36242,10 +36241,10 @@
         <v>1297</v>
       </c>
       <c r="H420" s="65" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="I420" s="65" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="K420" s="65">
         <v>-31</v>
@@ -36266,7 +36265,7 @@
         <v>1272</v>
       </c>
       <c r="Q420" s="66" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="V420" s="65" t="s">
         <v>1276</v>
@@ -36307,10 +36306,10 @@
         <v>1</v>
       </c>
       <c r="G421" s="65" t="s">
+        <v>1526</v>
+      </c>
+      <c r="I421" s="65" t="s">
         <v>1527</v>
-      </c>
-      <c r="I421" s="65" t="s">
-        <v>1528</v>
       </c>
       <c r="K421" s="65">
         <v>-31</v>
@@ -36331,10 +36330,10 @@
         <v>505</v>
       </c>
       <c r="Q421" s="66" t="s">
+        <v>1528</v>
+      </c>
+      <c r="V421" s="65" t="s">
         <v>1529</v>
-      </c>
-      <c r="V421" s="65" t="s">
-        <v>1530</v>
       </c>
       <c r="W421" s="65">
         <v>9999999</v>
@@ -36346,10 +36345,10 @@
         <v>2552233600</v>
       </c>
       <c r="AA421" s="65" t="s">
+        <v>1530</v>
+      </c>
+      <c r="AB421" s="65" t="s">
         <v>1531</v>
-      </c>
-      <c r="AB421" s="65" t="s">
-        <v>1532</v>
       </c>
       <c r="AG421" s="65">
         <v>1</v>
@@ -36375,13 +36374,13 @@
         <v>1</v>
       </c>
       <c r="G422" s="65" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="H422" s="65" t="s">
+        <v>1534</v>
+      </c>
+      <c r="I422" s="65" t="s">
         <v>1535</v>
-      </c>
-      <c r="I422" s="65" t="s">
-        <v>1536</v>
       </c>
       <c r="K422" s="65">
         <v>-31</v>
@@ -36399,10 +36398,10 @@
         <v>2000</v>
       </c>
       <c r="P422" s="65" t="s">
+        <v>1536</v>
+      </c>
+      <c r="Q422" s="66" t="s">
         <v>1537</v>
-      </c>
-      <c r="Q422" s="66" t="s">
-        <v>1538</v>
       </c>
       <c r="V422" s="65" t="s">
         <v>1156</v>
@@ -36420,10 +36419,10 @@
         <v>51</v>
       </c>
       <c r="AA422" s="65" t="s">
+        <v>1538</v>
+      </c>
+      <c r="AB422" s="65" t="s">
         <v>1539</v>
-      </c>
-      <c r="AB422" s="65" t="s">
-        <v>1540</v>
       </c>
       <c r="AG422" s="65">
         <v>1</v>
@@ -36449,13 +36448,13 @@
         <v>1</v>
       </c>
       <c r="G423" s="65" t="s">
+        <v>1540</v>
+      </c>
+      <c r="H423" s="65" t="s">
+        <v>1534</v>
+      </c>
+      <c r="I423" s="65" t="s">
         <v>1541</v>
-      </c>
-      <c r="H423" s="65" t="s">
-        <v>1535</v>
-      </c>
-      <c r="I423" s="65" t="s">
-        <v>1542</v>
       </c>
       <c r="K423" s="65">
         <v>-31</v>
@@ -36473,13 +36472,13 @@
         <v>5800</v>
       </c>
       <c r="P423" s="65" t="s">
+        <v>1542</v>
+      </c>
+      <c r="Q423" s="66" t="s">
         <v>1543</v>
       </c>
-      <c r="Q423" s="66" t="s">
-        <v>1544</v>
-      </c>
       <c r="V423" s="65" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="W423" s="65">
         <v>99999999</v>
@@ -36497,7 +36496,7 @@
         <v>461</v>
       </c>
       <c r="AB423" s="65" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="AG423" s="65">
         <v>1</v>
@@ -36523,13 +36522,13 @@
         <v>1</v>
       </c>
       <c r="G424" s="65" t="s">
+        <v>1545</v>
+      </c>
+      <c r="H424" s="65" t="s">
+        <v>1533</v>
+      </c>
+      <c r="I424" s="65" t="s">
         <v>1546</v>
-      </c>
-      <c r="H424" s="65" t="s">
-        <v>1534</v>
-      </c>
-      <c r="I424" s="65" t="s">
-        <v>1547</v>
       </c>
       <c r="K424" s="65">
         <v>-31</v>
@@ -36547,10 +36546,10 @@
         <v>12800</v>
       </c>
       <c r="P424" s="65" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="Q424" s="66" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="V424" s="65" t="s">
         <v>1156</v>
@@ -36568,10 +36567,10 @@
         <v>51</v>
       </c>
       <c r="AA424" s="65" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="AB424" s="65" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="AG424" s="65">
         <v>1</v>
@@ -36598,7 +36597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
@@ -37318,7 +37317,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="69" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="C50" s="68">
         <v>1</v>
@@ -37332,7 +37331,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="69" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="C51" s="68">
         <v>1</v>
@@ -37346,7 +37345,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="69" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="C52" s="68">
         <v>1</v>

--- a/config_debug/shoping_config_cjj.xlsx
+++ b/config_debug/shoping_config_cjj.xlsx
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'gift_bag|礼包'!$A$1:$AM$322</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'jing_bi|购买鲸币'!$A$1:$AC$25</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3549" uniqueCount="1552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3494" uniqueCount="1525">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6615,138 +6615,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>白银宝箱</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>（v1-v3）及小额、免费</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_cjlb_1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金宝箱</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>（v1-v3）及小额、免费</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"鲸币宝箱抽奖券",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,3,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>（v4-v10）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>（v4-v10）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP1直通礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"100万金币","5话费碎片","30～1000福卡",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000000,5,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9999999999,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_gold_sum",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{40,50,100},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手宝箱</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>新人专享</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>新人专享</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"200万金币","冰冻*5","锁定*5",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_fish_frozen","prop_fish_lock",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000000,5,5,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{100000,140000,100},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级宝箱</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"580万金币","冰冻*10","锁定*10",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_fish_frozen","prop_fish_lock",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5800000,10,10,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{300000,400000,100},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>豪华宝箱</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1280万金币","冰冻*15","锁定*15",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>12800000,15,15,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{650000,850000,100},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>{type="permission_class",class_value = "</t>
     </r>
@@ -6807,6 +6675,25 @@
       <t>" }</t>
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包-冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"10万金币","10万金币","玩具锤*1",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_hammer_1",</t>
+  </si>
+  <si>
+    <t>"30万金币","20万金币","玩具锤*2",</t>
+  </si>
+  <si>
+    <t>"60万金币","30万金币","玩具锤*3",</t>
+  </si>
+  <si>
+    <t>"60万金币","20万金币","玩具锤*3",</t>
   </si>
 </sst>
 </file>
@@ -6999,7 +6886,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7194,15 +7081,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="13" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -9653,13 +9531,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM424"/>
+  <dimension ref="A1:AM418"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="Q56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="Q413" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q70" sqref="Q70"/>
+      <selection pane="bottomRight" activeCell="A419" sqref="A419:XFD424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -35887,701 +35765,275 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:38" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A415" s="65">
+    <row r="415" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A415" s="5">
         <v>414</v>
       </c>
-      <c r="B415" s="65">
+      <c r="B415" s="19">
         <v>10331</v>
       </c>
-      <c r="F415" s="65">
-        <v>1</v>
-      </c>
-      <c r="G415" s="65" t="s">
-        <v>1516</v>
-      </c>
-      <c r="H415" s="65" t="s">
-        <v>1517</v>
-      </c>
-      <c r="I415" s="65" t="s">
-        <v>1259</v>
-      </c>
-      <c r="K415" s="65">
-        <v>-31</v>
-      </c>
-      <c r="L415" s="65">
-        <v>0</v>
-      </c>
-      <c r="M415" s="65">
-        <v>0</v>
-      </c>
-      <c r="N415" s="65" t="s">
+      <c r="F415" s="19">
+        <v>1</v>
+      </c>
+      <c r="G415" s="19" t="s">
+        <v>1519</v>
+      </c>
+      <c r="H415" s="19" t="s">
+        <v>536</v>
+      </c>
+      <c r="I415" s="19" t="s">
+        <v>1520</v>
+      </c>
+      <c r="K415" s="19">
+        <v>-28</v>
+      </c>
+      <c r="L415" s="19">
+        <v>0</v>
+      </c>
+      <c r="M415" s="19">
+        <v>0</v>
+      </c>
+      <c r="N415" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="O415" s="65">
+      <c r="O415" s="19">
+        <v>100</v>
+      </c>
+      <c r="P415" s="19" t="s">
+        <v>1521</v>
+      </c>
+      <c r="Q415" s="40" t="s">
+        <v>746</v>
+      </c>
+      <c r="V415" s="19" t="s">
+        <v>597</v>
+      </c>
+      <c r="W415" s="19">
+        <v>9999999</v>
+      </c>
+      <c r="X415" s="19">
+        <v>1581377400</v>
+      </c>
+      <c r="Y415" s="19">
+        <v>2552233600</v>
+      </c>
+      <c r="Z415" s="19">
+        <v>14</v>
+      </c>
+      <c r="AG415" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH415" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK415" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL415" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A416" s="5">
+        <v>415</v>
+      </c>
+      <c r="B416" s="19">
+        <v>10332</v>
+      </c>
+      <c r="F416" s="19">
+        <v>1</v>
+      </c>
+      <c r="G416" s="19" t="s">
+        <v>1519</v>
+      </c>
+      <c r="H416" s="19" t="s">
+        <v>1301</v>
+      </c>
+      <c r="I416" s="19" t="s">
+        <v>1522</v>
+      </c>
+      <c r="K416" s="19">
+        <v>-28</v>
+      </c>
+      <c r="L416" s="19">
+        <v>0</v>
+      </c>
+      <c r="M416" s="19">
+        <v>0</v>
+      </c>
+      <c r="N416" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="O416" s="19">
+        <v>300</v>
+      </c>
+      <c r="P416" s="19" t="s">
+        <v>1521</v>
+      </c>
+      <c r="Q416" s="40" t="s">
+        <v>772</v>
+      </c>
+      <c r="V416" s="19" t="s">
+        <v>553</v>
+      </c>
+      <c r="W416" s="19">
+        <v>9999999</v>
+      </c>
+      <c r="X416" s="19">
+        <v>1581377400</v>
+      </c>
+      <c r="Y416" s="19">
+        <v>2552233600</v>
+      </c>
+      <c r="Z416" s="19">
+        <v>14</v>
+      </c>
+      <c r="AG416" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH416" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK416" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL416" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A417" s="5">
+        <v>416</v>
+      </c>
+      <c r="B417" s="19">
+        <v>10333</v>
+      </c>
+      <c r="F417" s="19">
+        <v>1</v>
+      </c>
+      <c r="G417" s="19" t="s">
+        <v>1519</v>
+      </c>
+      <c r="H417" s="19" t="s">
+        <v>1302</v>
+      </c>
+      <c r="I417" s="19" t="s">
+        <v>1523</v>
+      </c>
+      <c r="K417" s="19">
+        <v>-28</v>
+      </c>
+      <c r="L417" s="19">
+        <v>0</v>
+      </c>
+      <c r="M417" s="19">
+        <v>0</v>
+      </c>
+      <c r="N417" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="O417" s="19">
         <v>600</v>
       </c>
-      <c r="P415" s="65" t="s">
-        <v>1518</v>
-      </c>
-      <c r="Q415" s="66" t="s">
+      <c r="P417" s="19" t="s">
+        <v>1521</v>
+      </c>
+      <c r="Q417" s="40" t="s">
+        <v>773</v>
+      </c>
+      <c r="V417" s="19" t="s">
+        <v>553</v>
+      </c>
+      <c r="W417" s="19">
+        <v>9999999</v>
+      </c>
+      <c r="X417" s="19">
+        <v>1581377400</v>
+      </c>
+      <c r="Y417" s="19">
+        <v>2552233600</v>
+      </c>
+      <c r="Z417" s="19">
+        <v>14</v>
+      </c>
+      <c r="AG417" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH417" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK417" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL417" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A418" s="5">
+        <v>417</v>
+      </c>
+      <c r="B418" s="19">
+        <v>10334</v>
+      </c>
+      <c r="F418" s="19">
+        <v>1</v>
+      </c>
+      <c r="G418" s="19" t="s">
         <v>1519</v>
       </c>
-      <c r="V415" s="65" t="s">
-        <v>564</v>
-      </c>
-      <c r="W415" s="67" t="s">
-        <v>121</v>
-      </c>
-      <c r="X415" s="65">
-        <v>1603756800</v>
-      </c>
-      <c r="Y415" s="65">
-        <v>1604332799</v>
-      </c>
-      <c r="Z415" s="65">
-        <v>49</v>
-      </c>
-      <c r="AG415" s="65">
-        <v>1</v>
-      </c>
-      <c r="AH415" s="65">
-        <v>1</v>
-      </c>
-      <c r="AK415" s="65">
-        <v>1</v>
-      </c>
-      <c r="AL415" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="416" spans="1:38" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A416" s="65">
-        <v>415</v>
-      </c>
-      <c r="B416" s="65">
-        <v>10332</v>
-      </c>
-      <c r="F416" s="65">
-        <v>1</v>
-      </c>
-      <c r="G416" s="65" t="s">
-        <v>1520</v>
-      </c>
-      <c r="H416" s="65" t="s">
+      <c r="H418" s="19" t="s">
+        <v>1304</v>
+      </c>
+      <c r="I418" s="19" t="s">
+        <v>1524</v>
+      </c>
+      <c r="K418" s="19">
+        <v>-28</v>
+      </c>
+      <c r="L418" s="19">
+        <v>0</v>
+      </c>
+      <c r="M418" s="19">
+        <v>0</v>
+      </c>
+      <c r="N418" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="O418" s="19">
+        <v>600</v>
+      </c>
+      <c r="P418" s="19" t="s">
         <v>1521</v>
       </c>
-      <c r="I416" s="65" t="s">
-        <v>1522</v>
-      </c>
-      <c r="K416" s="65">
-        <v>-31</v>
-      </c>
-      <c r="L416" s="65">
-        <v>0</v>
-      </c>
-      <c r="M416" s="65">
-        <v>0</v>
-      </c>
-      <c r="N416" s="65" t="s">
-        <v>113</v>
-      </c>
-      <c r="O416" s="65">
-        <v>1800</v>
-      </c>
-      <c r="P416" s="65" t="s">
-        <v>1268</v>
-      </c>
-      <c r="Q416" s="66" t="s">
-        <v>1519</v>
-      </c>
-      <c r="V416" s="65" t="s">
-        <v>1523</v>
-      </c>
-      <c r="W416" s="67" t="s">
-        <v>121</v>
-      </c>
-      <c r="X416" s="65">
-        <v>1603756800</v>
-      </c>
-      <c r="Y416" s="65">
-        <v>1604332799</v>
-      </c>
-      <c r="Z416" s="65">
-        <v>49</v>
-      </c>
-      <c r="AG416" s="65">
-        <v>1</v>
-      </c>
-      <c r="AH416" s="65">
-        <v>1</v>
-      </c>
-      <c r="AK416" s="65">
-        <v>1</v>
-      </c>
-      <c r="AL416" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="417" spans="1:38" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A417" s="65">
-        <v>416</v>
-      </c>
-      <c r="B417" s="65">
-        <v>10333</v>
-      </c>
-      <c r="F417" s="65">
-        <v>1</v>
-      </c>
-      <c r="G417" s="65" t="s">
-        <v>1297</v>
-      </c>
-      <c r="H417" s="65" t="s">
-        <v>1517</v>
-      </c>
-      <c r="I417" s="65" t="s">
-        <v>1522</v>
-      </c>
-      <c r="K417" s="65">
-        <v>-31</v>
-      </c>
-      <c r="L417" s="65">
-        <v>0</v>
-      </c>
-      <c r="M417" s="65">
-        <v>0</v>
-      </c>
-      <c r="N417" s="65" t="s">
-        <v>113</v>
-      </c>
-      <c r="O417" s="65">
-        <v>4800</v>
-      </c>
-      <c r="P417" s="65" t="s">
-        <v>1269</v>
-      </c>
-      <c r="Q417" s="66" t="s">
-        <v>1260</v>
-      </c>
-      <c r="V417" s="65" t="s">
-        <v>1276</v>
-      </c>
-      <c r="W417" s="67" t="s">
-        <v>121</v>
-      </c>
-      <c r="X417" s="65">
-        <v>1603756800</v>
-      </c>
-      <c r="Y417" s="65">
-        <v>1604332799</v>
-      </c>
-      <c r="Z417" s="65">
-        <v>49</v>
-      </c>
-      <c r="AG417" s="65">
-        <v>1</v>
-      </c>
-      <c r="AH417" s="65">
-        <v>1</v>
-      </c>
-      <c r="AK417" s="65">
-        <v>1</v>
-      </c>
-      <c r="AL417" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="418" spans="1:38" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A418" s="65">
-        <v>417</v>
-      </c>
-      <c r="B418" s="65">
-        <v>10334</v>
-      </c>
-      <c r="F418" s="65">
-        <v>1</v>
-      </c>
-      <c r="G418" s="65" t="s">
-        <v>1287</v>
-      </c>
-      <c r="H418" s="65" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I418" s="65" t="s">
-        <v>1522</v>
-      </c>
-      <c r="K418" s="65">
-        <v>-31</v>
-      </c>
-      <c r="L418" s="65">
-        <v>0</v>
-      </c>
-      <c r="M418" s="65">
-        <v>0</v>
-      </c>
-      <c r="N418" s="65" t="s">
-        <v>113</v>
-      </c>
-      <c r="O418" s="65">
-        <v>9800</v>
-      </c>
-      <c r="P418" s="65" t="s">
-        <v>1270</v>
-      </c>
-      <c r="Q418" s="66" t="s">
-        <v>1260</v>
-      </c>
-      <c r="V418" s="65" t="s">
-        <v>1276</v>
-      </c>
-      <c r="W418" s="67" t="s">
-        <v>121</v>
-      </c>
-      <c r="X418" s="65">
-        <v>1603756800</v>
-      </c>
-      <c r="Y418" s="65">
-        <v>1604332799</v>
-      </c>
-      <c r="Z418" s="65">
-        <v>50</v>
-      </c>
-      <c r="AG418" s="65">
-        <v>1</v>
-      </c>
-      <c r="AH418" s="65">
-        <v>1</v>
-      </c>
-      <c r="AK418" s="65">
-        <v>1</v>
-      </c>
-      <c r="AL418" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="419" spans="1:38" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A419" s="65">
-        <v>418</v>
-      </c>
-      <c r="B419" s="65">
-        <v>10335</v>
-      </c>
-      <c r="F419" s="65">
-        <v>1</v>
-      </c>
-      <c r="G419" s="65" t="s">
-        <v>1289</v>
-      </c>
-      <c r="H419" s="65" t="s">
-        <v>1525</v>
-      </c>
-      <c r="I419" s="65" t="s">
-        <v>1522</v>
-      </c>
-      <c r="K419" s="65">
-        <v>-31</v>
-      </c>
-      <c r="L419" s="65">
-        <v>0</v>
-      </c>
-      <c r="M419" s="65">
-        <v>0</v>
-      </c>
-      <c r="N419" s="65" t="s">
-        <v>113</v>
-      </c>
-      <c r="O419" s="65">
-        <v>19800</v>
-      </c>
-      <c r="P419" s="65" t="s">
-        <v>1271</v>
-      </c>
-      <c r="Q419" s="66" t="s">
-        <v>1260</v>
-      </c>
-      <c r="V419" s="65" t="s">
-        <v>1276</v>
-      </c>
-      <c r="W419" s="67" t="s">
-        <v>121</v>
-      </c>
-      <c r="X419" s="65">
-        <v>1603756800</v>
-      </c>
-      <c r="Y419" s="65">
-        <v>1604332799</v>
-      </c>
-      <c r="Z419" s="65">
-        <v>50</v>
-      </c>
-      <c r="AG419" s="65">
-        <v>1</v>
-      </c>
-      <c r="AH419" s="65">
-        <v>1</v>
-      </c>
-      <c r="AK419" s="65">
-        <v>1</v>
-      </c>
-      <c r="AL419" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="420" spans="1:38" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A420" s="65">
-        <v>419</v>
-      </c>
-      <c r="B420" s="65">
-        <v>10336</v>
-      </c>
-      <c r="F420" s="65">
-        <v>1</v>
-      </c>
-      <c r="G420" s="65" t="s">
-        <v>1297</v>
-      </c>
-      <c r="H420" s="65" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I420" s="65" t="s">
-        <v>1522</v>
-      </c>
-      <c r="K420" s="65">
-        <v>-31</v>
-      </c>
-      <c r="L420" s="65">
-        <v>0</v>
-      </c>
-      <c r="M420" s="65">
-        <v>0</v>
-      </c>
-      <c r="N420" s="65" t="s">
-        <v>113</v>
-      </c>
-      <c r="O420" s="65">
-        <v>49800</v>
-      </c>
-      <c r="P420" s="65" t="s">
-        <v>1272</v>
-      </c>
-      <c r="Q420" s="66" t="s">
-        <v>1519</v>
-      </c>
-      <c r="V420" s="65" t="s">
-        <v>1276</v>
-      </c>
-      <c r="W420" s="67" t="s">
-        <v>121</v>
-      </c>
-      <c r="X420" s="65">
-        <v>1603756800</v>
-      </c>
-      <c r="Y420" s="65">
-        <v>1604332799</v>
-      </c>
-      <c r="Z420" s="65">
-        <v>50</v>
-      </c>
-      <c r="AG420" s="65">
-        <v>1</v>
-      </c>
-      <c r="AH420" s="65">
-        <v>1</v>
-      </c>
-      <c r="AK420" s="65">
-        <v>1</v>
-      </c>
-      <c r="AL420" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="421" spans="1:38" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A421" s="65">
-        <v>420</v>
-      </c>
-      <c r="B421" s="65">
-        <v>10337</v>
-      </c>
-      <c r="F421" s="65">
-        <v>1</v>
-      </c>
-      <c r="G421" s="65" t="s">
-        <v>1526</v>
-      </c>
-      <c r="I421" s="65" t="s">
-        <v>1527</v>
-      </c>
-      <c r="K421" s="65">
-        <v>-31</v>
-      </c>
-      <c r="L421" s="65">
-        <v>0</v>
-      </c>
-      <c r="M421" s="65">
-        <v>0</v>
-      </c>
-      <c r="N421" s="65" t="s">
-        <v>513</v>
-      </c>
-      <c r="O421" s="65">
-        <v>1000</v>
-      </c>
-      <c r="P421" s="65" t="s">
-        <v>505</v>
-      </c>
-      <c r="Q421" s="66" t="s">
-        <v>1528</v>
-      </c>
-      <c r="V421" s="65" t="s">
-        <v>1529</v>
-      </c>
-      <c r="W421" s="65">
+      <c r="Q418" s="40" t="s">
+        <v>774</v>
+      </c>
+      <c r="V418" s="19" t="s">
+        <v>553</v>
+      </c>
+      <c r="W418" s="19">
         <v>9999999</v>
       </c>
-      <c r="X421" s="65">
-        <v>1585609200</v>
-      </c>
-      <c r="Y421" s="65">
+      <c r="X418" s="19">
+        <v>1581377400</v>
+      </c>
+      <c r="Y418" s="19">
         <v>2552233600</v>
       </c>
-      <c r="AA421" s="65" t="s">
-        <v>1530</v>
-      </c>
-      <c r="AB421" s="65" t="s">
-        <v>1531</v>
-      </c>
-      <c r="AG421" s="65">
-        <v>1</v>
-      </c>
-      <c r="AH421" s="65">
-        <v>1</v>
-      </c>
-      <c r="AK421" s="65">
-        <v>1</v>
-      </c>
-      <c r="AL421" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="422" spans="1:38" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A422" s="65">
-        <v>421</v>
-      </c>
-      <c r="B422" s="65">
-        <v>10338</v>
-      </c>
-      <c r="F422" s="65">
-        <v>1</v>
-      </c>
-      <c r="G422" s="65" t="s">
-        <v>1532</v>
-      </c>
-      <c r="H422" s="65" t="s">
-        <v>1534</v>
-      </c>
-      <c r="I422" s="65" t="s">
-        <v>1535</v>
-      </c>
-      <c r="K422" s="65">
-        <v>-31</v>
-      </c>
-      <c r="L422" s="65">
-        <v>0</v>
-      </c>
-      <c r="M422" s="65">
-        <v>0</v>
-      </c>
-      <c r="N422" s="65" t="s">
-        <v>113</v>
-      </c>
-      <c r="O422" s="65">
-        <v>2000</v>
-      </c>
-      <c r="P422" s="65" t="s">
-        <v>1536</v>
-      </c>
-      <c r="Q422" s="66" t="s">
-        <v>1537</v>
-      </c>
-      <c r="V422" s="65" t="s">
-        <v>1156</v>
-      </c>
-      <c r="W422" s="65">
-        <v>99999999</v>
-      </c>
-      <c r="X422" s="65">
-        <v>1603756800</v>
-      </c>
-      <c r="Y422" s="65">
-        <v>0</v>
-      </c>
-      <c r="Z422" s="65">
-        <v>51</v>
-      </c>
-      <c r="AA422" s="65" t="s">
-        <v>1538</v>
-      </c>
-      <c r="AB422" s="65" t="s">
-        <v>1539</v>
-      </c>
-      <c r="AG422" s="65">
-        <v>1</v>
-      </c>
-      <c r="AH422" s="65">
-        <v>1</v>
-      </c>
-      <c r="AK422" s="65">
-        <v>1</v>
-      </c>
-      <c r="AL422" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="423" spans="1:38" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A423" s="65">
-        <v>422</v>
-      </c>
-      <c r="B423" s="65">
-        <v>10339</v>
-      </c>
-      <c r="F423" s="65">
-        <v>1</v>
-      </c>
-      <c r="G423" s="65" t="s">
-        <v>1540</v>
-      </c>
-      <c r="H423" s="65" t="s">
-        <v>1534</v>
-      </c>
-      <c r="I423" s="65" t="s">
-        <v>1541</v>
-      </c>
-      <c r="K423" s="65">
-        <v>-31</v>
-      </c>
-      <c r="L423" s="65">
-        <v>0</v>
-      </c>
-      <c r="M423" s="65">
-        <v>0</v>
-      </c>
-      <c r="N423" s="65" t="s">
-        <v>113</v>
-      </c>
-      <c r="O423" s="65">
-        <v>5800</v>
-      </c>
-      <c r="P423" s="65" t="s">
-        <v>1542</v>
-      </c>
-      <c r="Q423" s="66" t="s">
-        <v>1543</v>
-      </c>
-      <c r="V423" s="65" t="s">
-        <v>1529</v>
-      </c>
-      <c r="W423" s="65">
-        <v>99999999</v>
-      </c>
-      <c r="X423" s="65">
-        <v>1603756800</v>
-      </c>
-      <c r="Y423" s="65">
-        <v>0</v>
-      </c>
-      <c r="Z423" s="65">
-        <v>51</v>
-      </c>
-      <c r="AA423" s="65" t="s">
-        <v>461</v>
-      </c>
-      <c r="AB423" s="65" t="s">
-        <v>1544</v>
-      </c>
-      <c r="AG423" s="65">
-        <v>1</v>
-      </c>
-      <c r="AH423" s="65">
-        <v>1</v>
-      </c>
-      <c r="AK423" s="65">
-        <v>1</v>
-      </c>
-      <c r="AL423" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="424" spans="1:38" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A424" s="65">
-        <v>423</v>
-      </c>
-      <c r="B424" s="65">
-        <v>10340</v>
-      </c>
-      <c r="F424" s="65">
-        <v>1</v>
-      </c>
-      <c r="G424" s="65" t="s">
-        <v>1545</v>
-      </c>
-      <c r="H424" s="65" t="s">
-        <v>1533</v>
-      </c>
-      <c r="I424" s="65" t="s">
-        <v>1546</v>
-      </c>
-      <c r="K424" s="65">
-        <v>-31</v>
-      </c>
-      <c r="L424" s="65">
-        <v>0</v>
-      </c>
-      <c r="M424" s="65">
-        <v>0</v>
-      </c>
-      <c r="N424" s="65" t="s">
-        <v>113</v>
-      </c>
-      <c r="O424" s="65">
-        <v>12800</v>
-      </c>
-      <c r="P424" s="65" t="s">
-        <v>1536</v>
-      </c>
-      <c r="Q424" s="66" t="s">
-        <v>1547</v>
-      </c>
-      <c r="V424" s="65" t="s">
-        <v>1156</v>
-      </c>
-      <c r="W424" s="65">
-        <v>99999999</v>
-      </c>
-      <c r="X424" s="65">
-        <v>1603756800</v>
-      </c>
-      <c r="Y424" s="65">
-        <v>0</v>
-      </c>
-      <c r="Z424" s="65">
-        <v>51</v>
-      </c>
-      <c r="AA424" s="65" t="s">
-        <v>1538</v>
-      </c>
-      <c r="AB424" s="65" t="s">
-        <v>1548</v>
-      </c>
-      <c r="AG424" s="65">
-        <v>1</v>
-      </c>
-      <c r="AH424" s="65">
-        <v>1</v>
-      </c>
-      <c r="AK424" s="65">
-        <v>1</v>
-      </c>
-      <c r="AL424" s="65">
+      <c r="Z418" s="19">
+        <v>14</v>
+      </c>
+      <c r="AG418" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH418" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK418" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL418" s="19">
         <v>1</v>
       </c>
     </row>
@@ -37312,45 +36764,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="68">
+    <row r="50" spans="1:4" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="65">
         <v>49</v>
       </c>
-      <c r="B50" s="69" t="s">
-        <v>1549</v>
-      </c>
-      <c r="C50" s="68">
-        <v>1</v>
-      </c>
-      <c r="D50" s="68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="68">
+      <c r="B50" s="66" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C50" s="65">
+        <v>1</v>
+      </c>
+      <c r="D50" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="65">
         <v>50</v>
       </c>
-      <c r="B51" s="69" t="s">
-        <v>1550</v>
-      </c>
-      <c r="C51" s="68">
-        <v>1</v>
-      </c>
-      <c r="D51" s="68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="68">
+      <c r="B51" s="66" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C51" s="65">
+        <v>1</v>
+      </c>
+      <c r="D51" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="65">
         <v>51</v>
       </c>
-      <c r="B52" s="69" t="s">
-        <v>1551</v>
-      </c>
-      <c r="C52" s="68">
-        <v>1</v>
-      </c>
-      <c r="D52" s="68">
+      <c r="B52" s="66" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C52" s="65">
+        <v>1</v>
+      </c>
+      <c r="D52" s="65">
         <v>0</v>
       </c>
     </row>

--- a/config_debug/shoping_config_cjj.xlsx
+++ b/config_debug/shoping_config_cjj.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_cjj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3463" uniqueCount="1517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3549" uniqueCount="1553">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6616,6 +6616,197 @@
   </si>
   <si>
     <t>gift_id|首冲对应购买的礼包的id</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>白银宝箱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（v1-v3）及小额、免费</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_cjlb_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金宝箱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（v1-v3）及小额、免费</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"鲸币宝箱抽奖券",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,3,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（v4-v10）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（v4-v10）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP1直通礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"100万金币","5话费碎片","30～1000福卡",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{40,50,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手宝箱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人专享</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人专享</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200万金币","冰冻*5","锁定*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_fish_frozen","prop_fish_lock",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,5,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{100000,140000,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级宝箱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"580万金币","冰冻*10","锁定*10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_fish_frozen","prop_fish_lock",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5800000,10,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{300000,400000,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>豪华宝箱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1280万金币","冰冻*15","锁定*15",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>12800000,15,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{650000,850000,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{type="permission_class",class_value = "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wsj_v1v3_040</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" }</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{type="permission_class",class_value = "wsj_v4v10_040</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" }</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{type="permission_class",class_value = "xrzx_040</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" }</t>
+    </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -6687,7 +6878,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6760,6 +6951,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -6803,7 +7000,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6997,6 +7194,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="13" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9442,13 +9654,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM414"/>
+  <dimension ref="A1:AM424"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H400" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H397" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A415" sqref="A415:XFD415"/>
+      <selection pane="bottomRight" activeCell="K427" sqref="K427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -35676,6 +35888,704 @@
         <v>1</v>
       </c>
     </row>
+    <row r="415" spans="1:38" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A415" s="65">
+        <v>414</v>
+      </c>
+      <c r="B415" s="65">
+        <v>10331</v>
+      </c>
+      <c r="F415" s="65">
+        <v>1</v>
+      </c>
+      <c r="G415" s="65" t="s">
+        <v>1517</v>
+      </c>
+      <c r="H415" s="65" t="s">
+        <v>1518</v>
+      </c>
+      <c r="I415" s="65" t="s">
+        <v>1259</v>
+      </c>
+      <c r="K415" s="65">
+        <v>-31</v>
+      </c>
+      <c r="L415" s="65">
+        <v>0</v>
+      </c>
+      <c r="M415" s="65">
+        <v>0</v>
+      </c>
+      <c r="N415" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="O415" s="65">
+        <v>600</v>
+      </c>
+      <c r="P415" s="65" t="s">
+        <v>1519</v>
+      </c>
+      <c r="Q415" s="66" t="s">
+        <v>1520</v>
+      </c>
+      <c r="V415" s="65" t="s">
+        <v>564</v>
+      </c>
+      <c r="W415" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="X415" s="65">
+        <v>1603756800</v>
+      </c>
+      <c r="Y415" s="65">
+        <v>1604332799</v>
+      </c>
+      <c r="Z415" s="65">
+        <v>49</v>
+      </c>
+      <c r="AG415" s="65">
+        <v>1</v>
+      </c>
+      <c r="AH415" s="65">
+        <v>1</v>
+      </c>
+      <c r="AK415" s="65">
+        <v>1</v>
+      </c>
+      <c r="AL415" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:38" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A416" s="65">
+        <v>415</v>
+      </c>
+      <c r="B416" s="65">
+        <v>10332</v>
+      </c>
+      <c r="F416" s="65">
+        <v>1</v>
+      </c>
+      <c r="G416" s="65" t="s">
+        <v>1521</v>
+      </c>
+      <c r="H416" s="65" t="s">
+        <v>1522</v>
+      </c>
+      <c r="I416" s="65" t="s">
+        <v>1523</v>
+      </c>
+      <c r="K416" s="65">
+        <v>-31</v>
+      </c>
+      <c r="L416" s="65">
+        <v>0</v>
+      </c>
+      <c r="M416" s="65">
+        <v>0</v>
+      </c>
+      <c r="N416" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="O416" s="65">
+        <v>1800</v>
+      </c>
+      <c r="P416" s="65" t="s">
+        <v>1268</v>
+      </c>
+      <c r="Q416" s="66" t="s">
+        <v>1520</v>
+      </c>
+      <c r="V416" s="65" t="s">
+        <v>1524</v>
+      </c>
+      <c r="W416" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="X416" s="65">
+        <v>1603756800</v>
+      </c>
+      <c r="Y416" s="65">
+        <v>1604332799</v>
+      </c>
+      <c r="Z416" s="65">
+        <v>49</v>
+      </c>
+      <c r="AG416" s="65">
+        <v>1</v>
+      </c>
+      <c r="AH416" s="65">
+        <v>1</v>
+      </c>
+      <c r="AK416" s="65">
+        <v>1</v>
+      </c>
+      <c r="AL416" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:38" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A417" s="65">
+        <v>416</v>
+      </c>
+      <c r="B417" s="65">
+        <v>10333</v>
+      </c>
+      <c r="F417" s="65">
+        <v>1</v>
+      </c>
+      <c r="G417" s="65" t="s">
+        <v>1297</v>
+      </c>
+      <c r="H417" s="65" t="s">
+        <v>1518</v>
+      </c>
+      <c r="I417" s="65" t="s">
+        <v>1523</v>
+      </c>
+      <c r="K417" s="65">
+        <v>-31</v>
+      </c>
+      <c r="L417" s="65">
+        <v>0</v>
+      </c>
+      <c r="M417" s="65">
+        <v>0</v>
+      </c>
+      <c r="N417" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="O417" s="65">
+        <v>4800</v>
+      </c>
+      <c r="P417" s="65" t="s">
+        <v>1269</v>
+      </c>
+      <c r="Q417" s="66" t="s">
+        <v>1260</v>
+      </c>
+      <c r="V417" s="65" t="s">
+        <v>1276</v>
+      </c>
+      <c r="W417" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="X417" s="65">
+        <v>1603756800</v>
+      </c>
+      <c r="Y417" s="65">
+        <v>1604332799</v>
+      </c>
+      <c r="Z417" s="65">
+        <v>49</v>
+      </c>
+      <c r="AG417" s="65">
+        <v>1</v>
+      </c>
+      <c r="AH417" s="65">
+        <v>1</v>
+      </c>
+      <c r="AK417" s="65">
+        <v>1</v>
+      </c>
+      <c r="AL417" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:38" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A418" s="65">
+        <v>417</v>
+      </c>
+      <c r="B418" s="65">
+        <v>10334</v>
+      </c>
+      <c r="F418" s="65">
+        <v>1</v>
+      </c>
+      <c r="G418" s="65" t="s">
+        <v>1287</v>
+      </c>
+      <c r="H418" s="65" t="s">
+        <v>1525</v>
+      </c>
+      <c r="I418" s="65" t="s">
+        <v>1523</v>
+      </c>
+      <c r="K418" s="65">
+        <v>-31</v>
+      </c>
+      <c r="L418" s="65">
+        <v>0</v>
+      </c>
+      <c r="M418" s="65">
+        <v>0</v>
+      </c>
+      <c r="N418" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="O418" s="65">
+        <v>9800</v>
+      </c>
+      <c r="P418" s="65" t="s">
+        <v>1270</v>
+      </c>
+      <c r="Q418" s="66" t="s">
+        <v>1260</v>
+      </c>
+      <c r="V418" s="65" t="s">
+        <v>1276</v>
+      </c>
+      <c r="W418" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="X418" s="65">
+        <v>1603756800</v>
+      </c>
+      <c r="Y418" s="65">
+        <v>1604332799</v>
+      </c>
+      <c r="Z418" s="65">
+        <v>50</v>
+      </c>
+      <c r="AG418" s="65">
+        <v>1</v>
+      </c>
+      <c r="AH418" s="65">
+        <v>1</v>
+      </c>
+      <c r="AK418" s="65">
+        <v>1</v>
+      </c>
+      <c r="AL418" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:38" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A419" s="65">
+        <v>418</v>
+      </c>
+      <c r="B419" s="65">
+        <v>10335</v>
+      </c>
+      <c r="F419" s="65">
+        <v>1</v>
+      </c>
+      <c r="G419" s="65" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H419" s="65" t="s">
+        <v>1526</v>
+      </c>
+      <c r="I419" s="65" t="s">
+        <v>1523</v>
+      </c>
+      <c r="K419" s="65">
+        <v>-31</v>
+      </c>
+      <c r="L419" s="65">
+        <v>0</v>
+      </c>
+      <c r="M419" s="65">
+        <v>0</v>
+      </c>
+      <c r="N419" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="O419" s="65">
+        <v>19800</v>
+      </c>
+      <c r="P419" s="65" t="s">
+        <v>1271</v>
+      </c>
+      <c r="Q419" s="66" t="s">
+        <v>1260</v>
+      </c>
+      <c r="V419" s="65" t="s">
+        <v>1276</v>
+      </c>
+      <c r="W419" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="X419" s="65">
+        <v>1603756800</v>
+      </c>
+      <c r="Y419" s="65">
+        <v>1604332799</v>
+      </c>
+      <c r="Z419" s="65">
+        <v>50</v>
+      </c>
+      <c r="AG419" s="65">
+        <v>1</v>
+      </c>
+      <c r="AH419" s="65">
+        <v>1</v>
+      </c>
+      <c r="AK419" s="65">
+        <v>1</v>
+      </c>
+      <c r="AL419" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:38" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A420" s="65">
+        <v>419</v>
+      </c>
+      <c r="B420" s="65">
+        <v>10336</v>
+      </c>
+      <c r="F420" s="65">
+        <v>1</v>
+      </c>
+      <c r="G420" s="65" t="s">
+        <v>1297</v>
+      </c>
+      <c r="H420" s="65" t="s">
+        <v>1525</v>
+      </c>
+      <c r="I420" s="65" t="s">
+        <v>1523</v>
+      </c>
+      <c r="K420" s="65">
+        <v>-31</v>
+      </c>
+      <c r="L420" s="65">
+        <v>0</v>
+      </c>
+      <c r="M420" s="65">
+        <v>0</v>
+      </c>
+      <c r="N420" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="O420" s="65">
+        <v>49800</v>
+      </c>
+      <c r="P420" s="65" t="s">
+        <v>1272</v>
+      </c>
+      <c r="Q420" s="66" t="s">
+        <v>1520</v>
+      </c>
+      <c r="V420" s="65" t="s">
+        <v>1276</v>
+      </c>
+      <c r="W420" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="X420" s="65">
+        <v>1603756800</v>
+      </c>
+      <c r="Y420" s="65">
+        <v>1604332799</v>
+      </c>
+      <c r="Z420" s="65">
+        <v>50</v>
+      </c>
+      <c r="AG420" s="65">
+        <v>1</v>
+      </c>
+      <c r="AH420" s="65">
+        <v>1</v>
+      </c>
+      <c r="AK420" s="65">
+        <v>1</v>
+      </c>
+      <c r="AL420" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:38" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A421" s="65">
+        <v>420</v>
+      </c>
+      <c r="B421" s="65">
+        <v>10337</v>
+      </c>
+      <c r="F421" s="65">
+        <v>1</v>
+      </c>
+      <c r="G421" s="65" t="s">
+        <v>1527</v>
+      </c>
+      <c r="I421" s="65" t="s">
+        <v>1528</v>
+      </c>
+      <c r="K421" s="65">
+        <v>-31</v>
+      </c>
+      <c r="L421" s="65">
+        <v>0</v>
+      </c>
+      <c r="M421" s="65">
+        <v>0</v>
+      </c>
+      <c r="N421" s="65" t="s">
+        <v>513</v>
+      </c>
+      <c r="O421" s="65">
+        <v>1000</v>
+      </c>
+      <c r="P421" s="65" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q421" s="66" t="s">
+        <v>1529</v>
+      </c>
+      <c r="V421" s="65" t="s">
+        <v>1530</v>
+      </c>
+      <c r="W421" s="65">
+        <v>9999999</v>
+      </c>
+      <c r="X421" s="65">
+        <v>1585609200</v>
+      </c>
+      <c r="Y421" s="65">
+        <v>2552233600</v>
+      </c>
+      <c r="AA421" s="65" t="s">
+        <v>1531</v>
+      </c>
+      <c r="AB421" s="65" t="s">
+        <v>1532</v>
+      </c>
+      <c r="AG421" s="65">
+        <v>1</v>
+      </c>
+      <c r="AH421" s="65">
+        <v>1</v>
+      </c>
+      <c r="AK421" s="65">
+        <v>1</v>
+      </c>
+      <c r="AL421" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:38" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A422" s="65">
+        <v>421</v>
+      </c>
+      <c r="B422" s="65">
+        <v>10338</v>
+      </c>
+      <c r="F422" s="65">
+        <v>1</v>
+      </c>
+      <c r="G422" s="65" t="s">
+        <v>1533</v>
+      </c>
+      <c r="H422" s="65" t="s">
+        <v>1535</v>
+      </c>
+      <c r="I422" s="65" t="s">
+        <v>1536</v>
+      </c>
+      <c r="K422" s="65">
+        <v>-31</v>
+      </c>
+      <c r="L422" s="65">
+        <v>0</v>
+      </c>
+      <c r="M422" s="65">
+        <v>0</v>
+      </c>
+      <c r="N422" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="O422" s="65">
+        <v>2000</v>
+      </c>
+      <c r="P422" s="65" t="s">
+        <v>1537</v>
+      </c>
+      <c r="Q422" s="66" t="s">
+        <v>1538</v>
+      </c>
+      <c r="V422" s="65" t="s">
+        <v>1156</v>
+      </c>
+      <c r="W422" s="65">
+        <v>99999999</v>
+      </c>
+      <c r="X422" s="65">
+        <v>1603756800</v>
+      </c>
+      <c r="Y422" s="65">
+        <v>0</v>
+      </c>
+      <c r="Z422" s="65">
+        <v>51</v>
+      </c>
+      <c r="AA422" s="65" t="s">
+        <v>1539</v>
+      </c>
+      <c r="AB422" s="65" t="s">
+        <v>1540</v>
+      </c>
+      <c r="AG422" s="65">
+        <v>1</v>
+      </c>
+      <c r="AH422" s="65">
+        <v>1</v>
+      </c>
+      <c r="AK422" s="65">
+        <v>1</v>
+      </c>
+      <c r="AL422" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:38" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A423" s="65">
+        <v>422</v>
+      </c>
+      <c r="B423" s="65">
+        <v>10339</v>
+      </c>
+      <c r="F423" s="65">
+        <v>1</v>
+      </c>
+      <c r="G423" s="65" t="s">
+        <v>1541</v>
+      </c>
+      <c r="H423" s="65" t="s">
+        <v>1535</v>
+      </c>
+      <c r="I423" s="65" t="s">
+        <v>1542</v>
+      </c>
+      <c r="K423" s="65">
+        <v>-31</v>
+      </c>
+      <c r="L423" s="65">
+        <v>0</v>
+      </c>
+      <c r="M423" s="65">
+        <v>0</v>
+      </c>
+      <c r="N423" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="O423" s="65">
+        <v>5800</v>
+      </c>
+      <c r="P423" s="65" t="s">
+        <v>1543</v>
+      </c>
+      <c r="Q423" s="66" t="s">
+        <v>1544</v>
+      </c>
+      <c r="V423" s="65" t="s">
+        <v>1530</v>
+      </c>
+      <c r="W423" s="65">
+        <v>99999999</v>
+      </c>
+      <c r="X423" s="65">
+        <v>1603756800</v>
+      </c>
+      <c r="Y423" s="65">
+        <v>0</v>
+      </c>
+      <c r="Z423" s="65">
+        <v>51</v>
+      </c>
+      <c r="AA423" s="65" t="s">
+        <v>461</v>
+      </c>
+      <c r="AB423" s="65" t="s">
+        <v>1545</v>
+      </c>
+      <c r="AG423" s="65">
+        <v>1</v>
+      </c>
+      <c r="AH423" s="65">
+        <v>1</v>
+      </c>
+      <c r="AK423" s="65">
+        <v>1</v>
+      </c>
+      <c r="AL423" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:38" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A424" s="65">
+        <v>423</v>
+      </c>
+      <c r="B424" s="65">
+        <v>10340</v>
+      </c>
+      <c r="F424" s="65">
+        <v>1</v>
+      </c>
+      <c r="G424" s="65" t="s">
+        <v>1546</v>
+      </c>
+      <c r="H424" s="65" t="s">
+        <v>1534</v>
+      </c>
+      <c r="I424" s="65" t="s">
+        <v>1547</v>
+      </c>
+      <c r="K424" s="65">
+        <v>-31</v>
+      </c>
+      <c r="L424" s="65">
+        <v>0</v>
+      </c>
+      <c r="M424" s="65">
+        <v>0</v>
+      </c>
+      <c r="N424" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="O424" s="65">
+        <v>12800</v>
+      </c>
+      <c r="P424" s="65" t="s">
+        <v>1537</v>
+      </c>
+      <c r="Q424" s="66" t="s">
+        <v>1548</v>
+      </c>
+      <c r="V424" s="65" t="s">
+        <v>1156</v>
+      </c>
+      <c r="W424" s="65">
+        <v>99999999</v>
+      </c>
+      <c r="X424" s="65">
+        <v>1603756800</v>
+      </c>
+      <c r="Y424" s="65">
+        <v>0</v>
+      </c>
+      <c r="Z424" s="65">
+        <v>51</v>
+      </c>
+      <c r="AA424" s="65" t="s">
+        <v>1539</v>
+      </c>
+      <c r="AB424" s="65" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AG424" s="65">
+        <v>1</v>
+      </c>
+      <c r="AH424" s="65">
+        <v>1</v>
+      </c>
+      <c r="AK424" s="65">
+        <v>1</v>
+      </c>
+      <c r="AL424" s="65">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35686,10 +36596,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -36400,6 +37310,48 @@
         <v>1</v>
       </c>
       <c r="D49" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="68" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="68">
+        <v>49</v>
+      </c>
+      <c r="B50" s="69" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C50" s="68">
+        <v>1</v>
+      </c>
+      <c r="D50" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="68" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="68">
+        <v>50</v>
+      </c>
+      <c r="B51" s="69" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C51" s="68">
+        <v>1</v>
+      </c>
+      <c r="D51" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="68" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="68">
+        <v>51</v>
+      </c>
+      <c r="B52" s="69" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C52" s="68">
+        <v>1</v>
+      </c>
+      <c r="D52" s="68">
         <v>0</v>
       </c>
     </row>

--- a/config_debug/shoping_config_cjj.xlsx
+++ b/config_debug/shoping_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.24\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3903" uniqueCount="1741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3931" uniqueCount="1768">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -5067,10 +5067,6 @@
     <t>VIP4礼包</t>
   </si>
   <si>
-    <t>VIP1礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>VIP5礼包</t>
   </si>
   <si>
@@ -5092,81 +5088,7 @@
     <t>"50万金币",</t>
   </si>
   <si>
-    <t>"75万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"318万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"538万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1108万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2218万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"3288万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"4388万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"5488万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"6488万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"7688万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_3d_fish_summon_fish","prop_3d_fish_lock",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>750000,1,1,</t>
-  </si>
-  <si>
-    <t>3180000,5,5,</t>
-  </si>
-  <si>
-    <t>22180000,40,40,</t>
-  </si>
-  <si>
-    <t>32880000,68,60,</t>
-  </si>
-  <si>
-    <t>54880000,110,100,</t>
-  </si>
-  <si>
-    <t>64880000,148,100,</t>
-  </si>
-  <si>
-    <t>76880000,158,100,</t>
-  </si>
-  <si>
-    <t>5380000,10,10,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>11080000,20,20,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>43880000,88,80,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>9999999999,1,0</t>
@@ -5453,10 +5375,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi","prop_3d_fish_summon_fish","prop_3d_fish_lock",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>600000,1,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7203,6 +7121,10 @@
     <t>"980万金币","58.8万金币","9.8万",</t>
   </si>
   <si>
+    <t>10478000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>聚划算198元-1</t>
   </si>
   <si>
@@ -7450,6 +7372,14 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>"2.4亿金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>249800000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>{next=10365,trigger="start_trigger",reset_time=0}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7506,15 +7436,199 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"2.5亿金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>250000000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>10486000,</t>
+    <t>VIP1礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"75万金币","水滴*1","玩具锤*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"318万金币","水滴*2","玩具锤*2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3180000,2,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"538万金币","水滴*3","玩具锤*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5380000,3,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1108万金币","水滴*4","玩具锤*4",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>11080000,4,4,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2218万金币","水滴*5","玩具锤*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>22180000,5,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3288万金币","水滴*6","玩具锤*6",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>32880000,6,6,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4388万金币","水滴*7","玩具锤*7",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>43880000,7,7,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5488万金币","水滴*8","玩具锤*8",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>54880000,8,8,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"6488万金币","水滴*10","玩具锤*10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>64880000,10,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"7688万金币","水滴*20","玩具锤*20",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>76880000,20,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>498元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","40万鱼币","传说宝箱*15",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin","prop_gej_cs",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,400000,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>198元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","30万鱼币","传说宝箱*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,300000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>98元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","20万鱼币","史诗宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin","prop_gej_ss",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,200000,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>48元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","10万鱼币","稀有宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin","prop_gej_xy",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,100000,3,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -7586,7 +7700,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7689,6 +7803,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -7732,7 +7858,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7972,6 +8098,45 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="19" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="19" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -8437,7 +8602,7 @@
   <dimension ref="A1:AG24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8488,10 +8653,10 @@
         <v>16</v>
       </c>
       <c r="F1" s="59" t="s">
-        <v>1515</v>
+        <v>1493</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1348</v>
+        <v>1326</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>18</v>
@@ -8509,7 +8674,7 @@
         <v>22</v>
       </c>
       <c r="M1" s="45" t="s">
-        <v>1478</v>
+        <v>1456</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>24</v>
@@ -8585,9 +8750,6 @@
       <c r="D2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="60">
-        <v>10330</v>
-      </c>
       <c r="G2" s="2">
         <v>10330</v>
       </c>
@@ -8607,7 +8769,7 @@
         <v>46</v>
       </c>
       <c r="M2" s="58" t="s">
-        <v>1473</v>
+        <v>1451</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>9</v>
@@ -8668,9 +8830,6 @@
       <c r="D3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="60">
-        <v>85</v>
-      </c>
       <c r="G3" s="2">
         <v>85</v>
       </c>
@@ -8690,7 +8849,7 @@
         <v>46</v>
       </c>
       <c r="M3" s="58" t="s">
-        <v>1474</v>
+        <v>1452</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>9</v>
@@ -8751,9 +8910,6 @@
       <c r="D4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="60">
-        <v>86</v>
-      </c>
       <c r="G4" s="2">
         <v>86</v>
       </c>
@@ -8773,7 +8929,7 @@
         <v>46</v>
       </c>
       <c r="M4" s="58" t="s">
-        <v>1474</v>
+        <v>1452</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>9</v>
@@ -8834,9 +8990,6 @@
       <c r="D5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="60">
-        <v>87</v>
-      </c>
       <c r="G5" s="2">
         <v>87</v>
       </c>
@@ -8917,9 +9070,6 @@
       <c r="D6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="60">
-        <v>88</v>
-      </c>
       <c r="G6" s="2">
         <v>88</v>
       </c>
@@ -9000,9 +9150,6 @@
       <c r="D7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="60">
-        <v>89</v>
-      </c>
       <c r="G7" s="2">
         <v>89</v>
       </c>
@@ -9083,9 +9230,6 @@
       <c r="D8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="60">
-        <v>109</v>
-      </c>
       <c r="G8" s="2">
         <v>109</v>
       </c>
@@ -9166,9 +9310,6 @@
       <c r="D9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="60">
-        <v>10044</v>
-      </c>
       <c r="G9" s="2">
         <v>10044</v>
       </c>
@@ -9250,9 +9391,7 @@
         <v>43</v>
       </c>
       <c r="E10" s="23"/>
-      <c r="F10" s="60">
-        <v>10045</v>
-      </c>
+      <c r="F10" s="60"/>
       <c r="G10" s="11">
         <v>10045</v>
       </c>
@@ -9272,7 +9411,7 @@
         <v>46</v>
       </c>
       <c r="M10" s="58" t="s">
-        <v>1475</v>
+        <v>1453</v>
       </c>
       <c r="N10" s="11" t="s">
         <v>9</v>
@@ -9336,9 +9475,7 @@
       <c r="E11" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="60">
-        <v>90</v>
-      </c>
+      <c r="F11" s="60"/>
       <c r="G11" s="11">
         <v>90</v>
       </c>
@@ -9601,7 +9738,7 @@
         <v>46</v>
       </c>
       <c r="M14" s="58" t="s">
-        <v>1475</v>
+        <v>1453</v>
       </c>
       <c r="N14" s="11" t="s">
         <v>9</v>
@@ -9763,7 +9900,7 @@
         <v>46</v>
       </c>
       <c r="M16" s="58" t="s">
-        <v>1476</v>
+        <v>1454</v>
       </c>
       <c r="N16" s="11" t="s">
         <v>9</v>
@@ -9982,7 +10119,7 @@
         <v>46</v>
       </c>
       <c r="M19" s="58" t="s">
-        <v>1475</v>
+        <v>1453</v>
       </c>
       <c r="N19" s="11" t="s">
         <v>11</v>
@@ -10128,7 +10265,7 @@
         <v>46</v>
       </c>
       <c r="M21" s="58" t="s">
-        <v>1477</v>
+        <v>1455</v>
       </c>
       <c r="N21" s="11" t="s">
         <v>11</v>
@@ -10274,7 +10411,7 @@
         <v>46</v>
       </c>
       <c r="M23" s="58" t="s">
-        <v>1475</v>
+        <v>1453</v>
       </c>
       <c r="N23" s="11" t="s">
         <v>11</v>
@@ -10336,9 +10473,7 @@
         <v>43</v>
       </c>
       <c r="E24" s="23"/>
-      <c r="F24" s="60">
-        <v>10189</v>
-      </c>
+      <c r="F24" s="60"/>
       <c r="G24" s="11">
         <v>10189</v>
       </c>
@@ -10352,13 +10487,13 @@
         <v>45</v>
       </c>
       <c r="K24" s="34" t="s">
-        <v>1160</v>
+        <v>1139</v>
       </c>
       <c r="L24" s="11" t="s">
         <v>46</v>
       </c>
       <c r="M24" s="58" t="s">
-        <v>1475</v>
+        <v>1453</v>
       </c>
       <c r="N24" s="11" t="s">
         <v>9</v>
@@ -10416,13 +10551,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM475"/>
+  <dimension ref="A1:AM479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="Q440" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q455" sqref="Q455"/>
+      <selection pane="bottomRight" activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -10487,7 +10622,7 @@
         <v>506</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1286</v>
+        <v>1264</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>95</v>
@@ -10817,7 +10952,7 @@
         <v>122</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>1171</v>
+        <v>1150</v>
       </c>
       <c r="AG5" s="5">
         <v>1</v>
@@ -14202,283 +14337,283 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="19">
+    <row r="67" spans="1:34" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="82">
         <v>66</v>
       </c>
-      <c r="B67" s="19">
+      <c r="B67" s="82">
         <v>85</v>
       </c>
-      <c r="D67" s="19">
+      <c r="D67" s="82">
         <v>2</v>
       </c>
-      <c r="F67" s="19">
-        <v>1</v>
-      </c>
-      <c r="G67" s="19" t="s">
+      <c r="F67" s="82">
+        <v>0</v>
+      </c>
+      <c r="G67" s="82" t="s">
         <v>235</v>
       </c>
-      <c r="K67" s="19">
+      <c r="K67" s="82">
         <v>-4</v>
       </c>
-      <c r="L67" s="19">
-        <v>0</v>
-      </c>
-      <c r="M67" s="19">
-        <v>0</v>
-      </c>
-      <c r="N67" s="19" t="s">
+      <c r="L67" s="82">
+        <v>0</v>
+      </c>
+      <c r="M67" s="82">
+        <v>0</v>
+      </c>
+      <c r="N67" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="O67" s="19">
+      <c r="O67" s="82">
         <v>1500</v>
       </c>
-      <c r="P67" s="19" t="s">
+      <c r="P67" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="Q67" s="40" t="s">
-        <v>1509</v>
-      </c>
-      <c r="V67" s="19" t="s">
+      <c r="Q67" s="83" t="s">
+        <v>1487</v>
+      </c>
+      <c r="V67" s="82" t="s">
         <v>550</v>
       </c>
-      <c r="W67" s="38" t="s">
+      <c r="W67" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="X67" s="39">
-        <v>0</v>
-      </c>
-      <c r="Y67" s="19">
+      <c r="X67" s="85">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="82">
         <v>2552233600</v>
       </c>
-      <c r="AG67" s="19">
-        <v>1</v>
-      </c>
-      <c r="AH67" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="19">
+      <c r="AG67" s="82">
+        <v>1</v>
+      </c>
+      <c r="AH67" s="82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:34" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="82">
         <v>67</v>
       </c>
-      <c r="B68" s="19">
+      <c r="B68" s="82">
         <v>86</v>
       </c>
-      <c r="D68" s="19">
+      <c r="D68" s="82">
         <v>3</v>
       </c>
-      <c r="F68" s="19">
-        <v>1</v>
-      </c>
-      <c r="G68" s="19" t="s">
+      <c r="F68" s="82">
+        <v>0</v>
+      </c>
+      <c r="G68" s="82" t="s">
         <v>237</v>
       </c>
-      <c r="K68" s="19">
+      <c r="K68" s="82">
         <v>-4</v>
       </c>
-      <c r="L68" s="19">
-        <v>0</v>
-      </c>
-      <c r="M68" s="19">
-        <v>0</v>
-      </c>
-      <c r="N68" s="19" t="s">
+      <c r="L68" s="82">
+        <v>0</v>
+      </c>
+      <c r="M68" s="82">
+        <v>0</v>
+      </c>
+      <c r="N68" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="O68" s="19">
+      <c r="O68" s="82">
         <v>3000</v>
       </c>
-      <c r="P68" s="19" t="s">
+      <c r="P68" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="Q68" s="40" t="s">
-        <v>1510</v>
-      </c>
-      <c r="V68" s="19" t="s">
+      <c r="Q68" s="83" t="s">
+        <v>1488</v>
+      </c>
+      <c r="V68" s="82" t="s">
         <v>550</v>
       </c>
-      <c r="W68" s="38" t="s">
+      <c r="W68" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="X68" s="39">
-        <v>0</v>
-      </c>
-      <c r="Y68" s="19">
+      <c r="X68" s="85">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="82">
         <v>2552233600</v>
       </c>
-      <c r="AG68" s="19">
-        <v>1</v>
-      </c>
-      <c r="AH68" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="19">
+      <c r="AG68" s="82">
+        <v>1</v>
+      </c>
+      <c r="AH68" s="82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:34" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="82">
         <v>68</v>
       </c>
-      <c r="B69" s="19">
+      <c r="B69" s="82">
         <v>87</v>
       </c>
-      <c r="D69" s="19">
+      <c r="D69" s="82">
         <v>4</v>
       </c>
-      <c r="F69" s="19">
-        <v>1</v>
-      </c>
-      <c r="G69" s="19" t="s">
+      <c r="F69" s="82">
+        <v>0</v>
+      </c>
+      <c r="G69" s="82" t="s">
         <v>239</v>
       </c>
-      <c r="K69" s="19">
+      <c r="K69" s="82">
         <v>-4</v>
       </c>
-      <c r="L69" s="19">
-        <v>0</v>
-      </c>
-      <c r="M69" s="19">
-        <v>0</v>
-      </c>
-      <c r="N69" s="19" t="s">
+      <c r="L69" s="82">
+        <v>0</v>
+      </c>
+      <c r="M69" s="82">
+        <v>0</v>
+      </c>
+      <c r="N69" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="O69" s="19">
+      <c r="O69" s="82">
         <v>5000</v>
       </c>
-      <c r="P69" s="19" t="s">
+      <c r="P69" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="Q69" s="40" t="s">
+      <c r="Q69" s="83" t="s">
         <v>721</v>
       </c>
-      <c r="V69" s="19" t="s">
+      <c r="V69" s="82" t="s">
         <v>550</v>
       </c>
-      <c r="W69" s="38" t="s">
+      <c r="W69" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="X69" s="39">
-        <v>0</v>
-      </c>
-      <c r="Y69" s="19">
+      <c r="X69" s="85">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="82">
         <v>2552233600</v>
       </c>
-      <c r="AG69" s="19">
-        <v>1</v>
-      </c>
-      <c r="AH69" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="19">
+      <c r="AG69" s="82">
+        <v>1</v>
+      </c>
+      <c r="AH69" s="82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:34" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="82">
         <v>69</v>
       </c>
-      <c r="B70" s="19">
+      <c r="B70" s="82">
         <v>88</v>
       </c>
-      <c r="D70" s="19">
+      <c r="D70" s="82">
         <v>5</v>
       </c>
-      <c r="F70" s="19">
-        <v>1</v>
-      </c>
-      <c r="G70" s="19" t="s">
+      <c r="F70" s="82">
+        <v>0</v>
+      </c>
+      <c r="G70" s="82" t="s">
         <v>241</v>
       </c>
-      <c r="K70" s="19">
+      <c r="K70" s="82">
         <v>-4</v>
       </c>
-      <c r="L70" s="19">
-        <v>0</v>
-      </c>
-      <c r="M70" s="19">
-        <v>0</v>
-      </c>
-      <c r="N70" s="19" t="s">
+      <c r="L70" s="82">
+        <v>0</v>
+      </c>
+      <c r="M70" s="82">
+        <v>0</v>
+      </c>
+      <c r="N70" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="O70" s="19">
+      <c r="O70" s="82">
         <v>9800</v>
       </c>
-      <c r="P70" s="19" t="s">
+      <c r="P70" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="Q70" s="40" t="s">
+      <c r="Q70" s="83" t="s">
         <v>722</v>
       </c>
-      <c r="V70" s="19" t="s">
+      <c r="V70" s="82" t="s">
         <v>550</v>
       </c>
-      <c r="W70" s="38" t="s">
+      <c r="W70" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="X70" s="39">
-        <v>0</v>
-      </c>
-      <c r="Y70" s="19">
+      <c r="X70" s="85">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="82">
         <v>2552233600</v>
       </c>
-      <c r="AG70" s="19">
-        <v>1</v>
-      </c>
-      <c r="AH70" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="19">
+      <c r="AG70" s="82">
+        <v>1</v>
+      </c>
+      <c r="AH70" s="82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:34" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="82">
         <v>70</v>
       </c>
-      <c r="B71" s="19">
+      <c r="B71" s="82">
         <v>89</v>
       </c>
-      <c r="D71" s="19">
+      <c r="D71" s="82">
         <v>6</v>
       </c>
-      <c r="F71" s="19">
-        <v>1</v>
-      </c>
-      <c r="G71" s="19" t="s">
+      <c r="F71" s="82">
+        <v>0</v>
+      </c>
+      <c r="G71" s="82" t="s">
         <v>242</v>
       </c>
-      <c r="K71" s="19">
+      <c r="K71" s="82">
         <v>-4</v>
       </c>
-      <c r="L71" s="19">
-        <v>0</v>
-      </c>
-      <c r="M71" s="19">
-        <v>0</v>
-      </c>
-      <c r="N71" s="19" t="s">
+      <c r="L71" s="82">
+        <v>0</v>
+      </c>
+      <c r="M71" s="82">
+        <v>0</v>
+      </c>
+      <c r="N71" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="O71" s="19">
+      <c r="O71" s="82">
         <v>49800</v>
       </c>
-      <c r="P71" s="19" t="s">
+      <c r="P71" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="Q71" s="40" t="s">
-        <v>1511</v>
-      </c>
-      <c r="V71" s="19" t="s">
+      <c r="Q71" s="83" t="s">
+        <v>1489</v>
+      </c>
+      <c r="V71" s="82" t="s">
         <v>550</v>
       </c>
-      <c r="W71" s="38" t="s">
+      <c r="W71" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="X71" s="39">
-        <v>0</v>
-      </c>
-      <c r="Y71" s="19">
+      <c r="X71" s="85">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="82">
         <v>2552233600</v>
       </c>
-      <c r="AG71" s="19">
-        <v>1</v>
-      </c>
-      <c r="AH71" s="19">
+      <c r="AG71" s="82">
+        <v>1</v>
+      </c>
+      <c r="AH71" s="82">
         <v>1</v>
       </c>
     </row>
@@ -14795,7 +14930,7 @@
         <v>248</v>
       </c>
       <c r="I77" s="19" t="s">
-        <v>1505</v>
+        <v>1483</v>
       </c>
       <c r="K77" s="19">
         <v>-20</v>
@@ -14813,10 +14948,10 @@
         <v>100</v>
       </c>
       <c r="P77" s="19" t="s">
-        <v>1442</v>
+        <v>1420</v>
       </c>
       <c r="Q77" s="40" t="s">
-        <v>1506</v>
+        <v>1484</v>
       </c>
       <c r="V77" s="19" t="s">
         <v>550</v>
@@ -14851,7 +14986,7 @@
         <v>249</v>
       </c>
       <c r="I78" s="19" t="s">
-        <v>1504</v>
+        <v>1482</v>
       </c>
       <c r="K78" s="19">
         <v>-20</v>
@@ -14872,7 +15007,7 @@
         <v>505</v>
       </c>
       <c r="Q78" s="40" t="s">
-        <v>1360</v>
+        <v>1338</v>
       </c>
       <c r="V78" s="19" t="s">
         <v>550</v>
@@ -15185,7 +15320,7 @@
         <v>4800</v>
       </c>
       <c r="P83" s="5" t="s">
-        <v>1191</v>
+        <v>1170</v>
       </c>
       <c r="Q83" s="10" t="s">
         <v>737</v>
@@ -15297,10 +15432,10 @@
         <v>4800</v>
       </c>
       <c r="P85" s="5" t="s">
-        <v>1192</v>
+        <v>1171</v>
       </c>
       <c r="Q85" s="10" t="s">
-        <v>1193</v>
+        <v>1172</v>
       </c>
       <c r="V85" s="5" t="s">
         <v>552</v>
@@ -15404,10 +15539,10 @@
         <v>9600</v>
       </c>
       <c r="P87" s="5" t="s">
-        <v>1192</v>
+        <v>1171</v>
       </c>
       <c r="Q87" s="10" t="s">
-        <v>1194</v>
+        <v>1173</v>
       </c>
       <c r="V87" s="5" t="s">
         <v>552</v>
@@ -15764,56 +15899,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="5">
+    <row r="94" spans="1:34" s="86" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="86">
         <v>93</v>
       </c>
-      <c r="B94" s="5">
+      <c r="B94" s="86">
         <v>109</v>
       </c>
-      <c r="F94" s="5">
-        <v>1</v>
-      </c>
-      <c r="G94" s="5" t="s">
+      <c r="F94" s="86">
+        <v>0</v>
+      </c>
+      <c r="G94" s="86" t="s">
         <v>266</v>
       </c>
-      <c r="K94" s="5">
+      <c r="K94" s="86">
         <v>-4</v>
       </c>
-      <c r="L94" s="5">
-        <v>0</v>
-      </c>
-      <c r="M94" s="5">
-        <v>0</v>
-      </c>
-      <c r="N94" s="5" t="s">
+      <c r="L94" s="86">
+        <v>0</v>
+      </c>
+      <c r="M94" s="86">
+        <v>0</v>
+      </c>
+      <c r="N94" s="86" t="s">
         <v>113</v>
       </c>
-      <c r="O94" s="5">
+      <c r="O94" s="86">
         <v>100000</v>
       </c>
-      <c r="P94" s="5" t="s">
+      <c r="P94" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="Q94" s="10" t="s">
+      <c r="Q94" s="87" t="s">
         <v>744</v>
       </c>
-      <c r="V94" s="5" t="s">
+      <c r="V94" s="86" t="s">
         <v>550</v>
       </c>
-      <c r="W94" s="14" t="s">
+      <c r="W94" s="88" t="s">
         <v>121</v>
       </c>
-      <c r="X94" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y94" s="5">
+      <c r="X94" s="86">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="86">
         <v>2552233600</v>
       </c>
-      <c r="AG94" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH94" s="5">
+      <c r="AG94" s="86">
+        <v>1</v>
+      </c>
+      <c r="AH94" s="86">
         <v>1</v>
       </c>
     </row>
@@ -17795,115 +17930,115 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="19">
+    <row r="128" spans="1:34" s="86" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="86">
         <v>127</v>
       </c>
-      <c r="B128" s="19">
+      <c r="B128" s="86">
         <v>10044</v>
       </c>
-      <c r="D128" s="19">
+      <c r="D128" s="86">
         <v>108</v>
       </c>
-      <c r="F128" s="19">
-        <v>1</v>
-      </c>
-      <c r="G128" s="19" t="s">
+      <c r="F128" s="86">
+        <v>0</v>
+      </c>
+      <c r="G128" s="86" t="s">
         <v>332</v>
       </c>
-      <c r="K128" s="19">
+      <c r="K128" s="86">
         <v>-10</v>
       </c>
-      <c r="L128" s="19">
-        <v>0</v>
-      </c>
-      <c r="M128" s="19">
-        <v>0</v>
-      </c>
-      <c r="N128" s="19" t="s">
+      <c r="L128" s="86">
+        <v>0</v>
+      </c>
+      <c r="M128" s="86">
+        <v>0</v>
+      </c>
+      <c r="N128" s="86" t="s">
         <v>113</v>
       </c>
-      <c r="O128" s="19">
+      <c r="O128" s="86">
         <v>99800</v>
       </c>
-      <c r="P128" s="19" t="s">
+      <c r="P128" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="Q128" s="40" t="s">
-        <v>1512</v>
-      </c>
-      <c r="V128" s="19" t="s">
+      <c r="Q128" s="87" t="s">
+        <v>1490</v>
+      </c>
+      <c r="V128" s="86" t="s">
         <v>550</v>
       </c>
-      <c r="W128" s="38" t="s">
+      <c r="W128" s="88" t="s">
         <v>121</v>
       </c>
-      <c r="X128" s="39">
-        <v>0</v>
-      </c>
-      <c r="Y128" s="19">
+      <c r="X128" s="89">
+        <v>0</v>
+      </c>
+      <c r="Y128" s="86">
         <v>2552233600</v>
       </c>
-      <c r="AG128" s="19">
-        <v>1</v>
-      </c>
-      <c r="AH128" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="19">
+      <c r="AG128" s="86">
+        <v>1</v>
+      </c>
+      <c r="AH128" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:38" s="86" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="86">
         <v>128</v>
       </c>
-      <c r="B129" s="19">
+      <c r="B129" s="86">
         <v>10045</v>
       </c>
-      <c r="D129" s="19">
+      <c r="D129" s="86">
         <v>110</v>
       </c>
-      <c r="F129" s="19">
-        <v>1</v>
-      </c>
-      <c r="G129" s="19" t="s">
+      <c r="F129" s="86">
+        <v>0</v>
+      </c>
+      <c r="G129" s="86" t="s">
         <v>540</v>
       </c>
-      <c r="K129" s="19">
+      <c r="K129" s="86">
         <v>-11</v>
       </c>
-      <c r="L129" s="19">
-        <v>0</v>
-      </c>
-      <c r="M129" s="19">
-        <v>0</v>
-      </c>
-      <c r="N129" s="19" t="s">
+      <c r="L129" s="86">
+        <v>0</v>
+      </c>
+      <c r="M129" s="86">
+        <v>0</v>
+      </c>
+      <c r="N129" s="86" t="s">
         <v>113</v>
       </c>
-      <c r="O129" s="19">
+      <c r="O129" s="86">
         <v>249800</v>
       </c>
-      <c r="P129" s="19" t="s">
+      <c r="P129" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="Q129" s="40" t="s">
-        <v>1513</v>
-      </c>
-      <c r="V129" s="19" t="s">
+      <c r="Q129" s="87" t="s">
+        <v>1491</v>
+      </c>
+      <c r="V129" s="86" t="s">
         <v>550</v>
       </c>
-      <c r="W129" s="38" t="s">
+      <c r="W129" s="88" t="s">
         <v>121</v>
       </c>
-      <c r="X129" s="39">
-        <v>0</v>
-      </c>
-      <c r="Y129" s="19">
+      <c r="X129" s="89">
+        <v>0</v>
+      </c>
+      <c r="Y129" s="86">
         <v>2552233600</v>
       </c>
-      <c r="AG129" s="19">
-        <v>1</v>
-      </c>
-      <c r="AH129" s="19">
+      <c r="AG129" s="86">
+        <v>1</v>
+      </c>
+      <c r="AH129" s="86">
         <v>1</v>
       </c>
     </row>
@@ -20288,7 +20423,7 @@
         <v>372</v>
       </c>
       <c r="I168" s="19" t="s">
-        <v>1161</v>
+        <v>1140</v>
       </c>
       <c r="K168" s="19">
         <v>-28</v>
@@ -20306,10 +20441,10 @@
         <v>600</v>
       </c>
       <c r="P168" s="19" t="s">
-        <v>1164</v>
+        <v>1143</v>
       </c>
       <c r="Q168" s="40" t="s">
-        <v>1165</v>
+        <v>1144</v>
       </c>
       <c r="V168" s="19" t="s">
         <v>550</v>
@@ -20353,7 +20488,7 @@
         <v>483</v>
       </c>
       <c r="I169" s="19" t="s">
-        <v>1162</v>
+        <v>1141</v>
       </c>
       <c r="K169" s="19">
         <v>-28</v>
@@ -20371,10 +20506,10 @@
         <v>3000</v>
       </c>
       <c r="P169" s="19" t="s">
-        <v>1164</v>
+        <v>1143</v>
       </c>
       <c r="Q169" s="40" t="s">
-        <v>1166</v>
+        <v>1145</v>
       </c>
       <c r="V169" s="19" t="s">
         <v>629</v>
@@ -20415,7 +20550,7 @@
         <v>373</v>
       </c>
       <c r="I170" s="19" t="s">
-        <v>1163</v>
+        <v>1142</v>
       </c>
       <c r="K170" s="19">
         <v>-28</v>
@@ -20433,10 +20568,10 @@
         <v>19800</v>
       </c>
       <c r="P170" s="19" t="s">
-        <v>1164</v>
+        <v>1143</v>
       </c>
       <c r="Q170" s="40" t="s">
-        <v>1167</v>
+        <v>1146</v>
       </c>
       <c r="V170" s="19" t="s">
         <v>629</v>
@@ -20474,10 +20609,10 @@
         <v>1</v>
       </c>
       <c r="G171" s="19" t="s">
-        <v>1298</v>
+        <v>1276</v>
       </c>
       <c r="H171" s="19" t="s">
-        <v>1299</v>
+        <v>1277</v>
       </c>
       <c r="I171" s="19" t="s">
         <v>1085</v>
@@ -20542,10 +20677,10 @@
         <v>1</v>
       </c>
       <c r="G172" s="19" t="s">
-        <v>1300</v>
+        <v>1278</v>
       </c>
       <c r="H172" s="19" t="s">
-        <v>1301</v>
+        <v>1279</v>
       </c>
       <c r="I172" s="19" t="s">
         <v>1086</v>
@@ -20610,10 +20745,10 @@
         <v>1</v>
       </c>
       <c r="G173" s="19" t="s">
-        <v>1298</v>
+        <v>1276</v>
       </c>
       <c r="H173" s="19" t="s">
-        <v>1302</v>
+        <v>1280</v>
       </c>
       <c r="I173" s="19" t="s">
         <v>1087</v>
@@ -20678,10 +20813,10 @@
         <v>1</v>
       </c>
       <c r="G174" s="19" t="s">
-        <v>1303</v>
+        <v>1281</v>
       </c>
       <c r="H174" s="19" t="s">
-        <v>1304</v>
+        <v>1282</v>
       </c>
       <c r="I174" s="19" t="s">
         <v>1088</v>
@@ -20746,10 +20881,10 @@
         <v>1</v>
       </c>
       <c r="G175" s="19" t="s">
-        <v>1300</v>
+        <v>1278</v>
       </c>
       <c r="H175" s="19" t="s">
-        <v>1305</v>
+        <v>1283</v>
       </c>
       <c r="I175" s="19" t="s">
         <v>1099</v>
@@ -20814,10 +20949,10 @@
         <v>1</v>
       </c>
       <c r="G176" s="19" t="s">
-        <v>1300</v>
+        <v>1278</v>
       </c>
       <c r="H176" s="19" t="s">
-        <v>1306</v>
+        <v>1284</v>
       </c>
       <c r="I176" s="19" t="s">
         <v>1100</v>
@@ -20882,10 +21017,10 @@
         <v>1</v>
       </c>
       <c r="G177" s="19" t="s">
-        <v>1300</v>
+        <v>1278</v>
       </c>
       <c r="H177" s="19" t="s">
-        <v>1307</v>
+        <v>1285</v>
       </c>
       <c r="I177" s="19" t="s">
         <v>1101</v>
@@ -20906,7 +21041,7 @@
         <v>1800</v>
       </c>
       <c r="P177" s="19" t="s">
-        <v>1433</v>
+        <v>1411</v>
       </c>
       <c r="Q177" s="40" t="s">
         <v>776</v>
@@ -20950,10 +21085,10 @@
         <v>1</v>
       </c>
       <c r="G178" s="19" t="s">
-        <v>1300</v>
+        <v>1278</v>
       </c>
       <c r="H178" s="19" t="s">
-        <v>1308</v>
+        <v>1286</v>
       </c>
       <c r="I178" s="19" t="s">
         <v>1102</v>
@@ -21018,10 +21153,10 @@
         <v>1</v>
       </c>
       <c r="G179" s="19" t="s">
-        <v>1300</v>
+        <v>1278</v>
       </c>
       <c r="H179" s="19" t="s">
-        <v>1309</v>
+        <v>1287</v>
       </c>
       <c r="I179" s="19" t="s">
         <v>1103</v>
@@ -21086,10 +21221,10 @@
         <v>1</v>
       </c>
       <c r="G180" s="19" t="s">
-        <v>1310</v>
+        <v>1288</v>
       </c>
       <c r="H180" s="19" t="s">
-        <v>1311</v>
+        <v>1289</v>
       </c>
       <c r="I180" s="19" t="s">
         <v>1093</v>
@@ -21154,10 +21289,10 @@
         <v>1</v>
       </c>
       <c r="G181" s="19" t="s">
-        <v>1300</v>
+        <v>1278</v>
       </c>
       <c r="H181" s="19" t="s">
-        <v>1312</v>
+        <v>1290</v>
       </c>
       <c r="I181" s="19" t="s">
         <v>1104</v>
@@ -21222,10 +21357,10 @@
         <v>1</v>
       </c>
       <c r="G182" s="19" t="s">
-        <v>1300</v>
+        <v>1278</v>
       </c>
       <c r="H182" s="19" t="s">
-        <v>1313</v>
+        <v>1291</v>
       </c>
       <c r="I182" s="19" t="s">
         <v>1105</v>
@@ -21290,10 +21425,10 @@
         <v>1</v>
       </c>
       <c r="G183" s="19" t="s">
-        <v>1300</v>
+        <v>1278</v>
       </c>
       <c r="H183" s="19" t="s">
-        <v>1314</v>
+        <v>1292</v>
       </c>
       <c r="I183" s="19" t="s">
         <v>1106</v>
@@ -21358,10 +21493,10 @@
         <v>1</v>
       </c>
       <c r="G184" s="19" t="s">
-        <v>1300</v>
+        <v>1278</v>
       </c>
       <c r="H184" s="19" t="s">
-        <v>1315</v>
+        <v>1293</v>
       </c>
       <c r="I184" s="19" t="s">
         <v>1105</v>
@@ -21426,10 +21561,10 @@
         <v>1</v>
       </c>
       <c r="G185" s="19" t="s">
-        <v>1316</v>
+        <v>1294</v>
       </c>
       <c r="H185" s="19" t="s">
-        <v>1317</v>
+        <v>1295</v>
       </c>
       <c r="I185" s="19" t="s">
         <v>1107</v>
@@ -25738,7 +25873,7 @@
         <v>600</v>
       </c>
       <c r="P251" s="5" t="s">
-        <v>1182</v>
+        <v>1161</v>
       </c>
       <c r="Q251" s="10" t="s">
         <v>832</v>
@@ -25868,7 +26003,7 @@
         <v>100</v>
       </c>
       <c r="P253" s="5" t="s">
-        <v>1442</v>
+        <v>1420</v>
       </c>
       <c r="Q253" s="10" t="s">
         <v>833</v>
@@ -27136,59 +27271,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A273" s="5">
+    <row r="273" spans="1:39" s="86" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A273" s="86">
         <v>272</v>
       </c>
-      <c r="B273" s="5">
+      <c r="B273" s="86">
         <v>10189</v>
       </c>
-      <c r="D273" s="11">
+      <c r="D273" s="92">
         <v>111</v>
       </c>
-      <c r="F273" s="5">
-        <v>1</v>
-      </c>
-      <c r="G273" s="5" t="s">
+      <c r="F273" s="86">
+        <v>0</v>
+      </c>
+      <c r="G273" s="86" t="s">
         <v>543</v>
       </c>
-      <c r="K273" s="5">
+      <c r="K273" s="86">
         <v>-10</v>
       </c>
-      <c r="L273" s="5">
-        <v>0</v>
-      </c>
-      <c r="M273" s="5">
-        <v>0</v>
-      </c>
-      <c r="N273" s="5" t="s">
+      <c r="L273" s="86">
+        <v>0</v>
+      </c>
+      <c r="M273" s="86">
+        <v>0</v>
+      </c>
+      <c r="N273" s="86" t="s">
         <v>113</v>
       </c>
-      <c r="O273" s="5">
+      <c r="O273" s="86">
         <v>19800</v>
       </c>
-      <c r="P273" s="5" t="s">
+      <c r="P273" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="Q273" s="10" t="s">
-        <v>1514</v>
-      </c>
-      <c r="V273" s="5" t="s">
+      <c r="Q273" s="87" t="s">
+        <v>1492</v>
+      </c>
+      <c r="V273" s="86" t="s">
         <v>550</v>
       </c>
-      <c r="W273" s="14" t="s">
+      <c r="W273" s="88" t="s">
         <v>121</v>
       </c>
-      <c r="X273" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y273" s="5">
+      <c r="X273" s="89">
+        <v>0</v>
+      </c>
+      <c r="Y273" s="86">
         <v>2552233600</v>
       </c>
-      <c r="AG273" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH273" s="5">
+      <c r="AG273" s="86">
+        <v>1</v>
+      </c>
+      <c r="AH273" s="86">
         <v>1</v>
       </c>
     </row>
@@ -30061,7 +30196,7 @@
         <v>651</v>
       </c>
       <c r="Q319" s="10" t="s">
-        <v>1196</v>
+        <v>1175</v>
       </c>
       <c r="V319" s="5" t="s">
         <v>552</v>
@@ -30096,7 +30231,7 @@
         <v>650</v>
       </c>
       <c r="I320" s="5" t="s">
-        <v>1195</v>
+        <v>1174</v>
       </c>
       <c r="K320" s="5">
         <v>-25</v>
@@ -30309,7 +30444,7 @@
       <c r="T323" s="19"/>
       <c r="U323" s="19"/>
       <c r="V323" s="19" t="s">
-        <v>1254</v>
+        <v>1232</v>
       </c>
       <c r="W323" s="19">
         <v>9999999</v>
@@ -30544,7 +30679,7 @@
       </c>
       <c r="Q326" s="42"/>
       <c r="V326" s="41" t="s">
-        <v>1156</v>
+        <v>1135</v>
       </c>
       <c r="W326" s="41">
         <v>9999999</v>
@@ -30585,7 +30720,7 @@
         <v>1120</v>
       </c>
       <c r="I327" s="44" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="K327" s="44">
         <v>-31</v>
@@ -30606,7 +30741,7 @@
         <v>1122</v>
       </c>
       <c r="Q327" s="48" t="s">
-        <v>1158</v>
+        <v>1137</v>
       </c>
       <c r="V327" s="44" t="s">
         <v>1123</v>
@@ -30647,11 +30782,11 @@
         <v>1</v>
       </c>
       <c r="G328" s="44" t="s">
-        <v>1127</v>
+        <v>1719</v>
       </c>
       <c r="H328" s="44"/>
       <c r="I328" s="44" t="s">
-        <v>1135</v>
+        <v>1720</v>
       </c>
       <c r="J328" s="44"/>
       <c r="K328" s="44">
@@ -30664,23 +30799,23 @@
         <v>0</v>
       </c>
       <c r="N328" s="44" t="s">
-        <v>1111</v>
+        <v>1721</v>
       </c>
       <c r="O328" s="44">
         <v>600</v>
       </c>
       <c r="P328" s="44" t="s">
-        <v>1221</v>
+        <v>1722</v>
       </c>
       <c r="Q328" s="48" t="s">
-        <v>1146</v>
+        <v>1134</v>
       </c>
       <c r="R328" s="44"/>
       <c r="S328" s="44"/>
       <c r="T328" s="44"/>
       <c r="U328" s="44"/>
       <c r="V328" s="44" t="s">
-        <v>1156</v>
+        <v>1723</v>
       </c>
       <c r="W328" s="44">
         <v>99999999</v>
@@ -30733,7 +30868,7 @@
       </c>
       <c r="H329" s="44"/>
       <c r="I329" s="44" t="s">
-        <v>1136</v>
+        <v>1724</v>
       </c>
       <c r="J329" s="44"/>
       <c r="K329" s="44">
@@ -30746,23 +30881,23 @@
         <v>0</v>
       </c>
       <c r="N329" s="44" t="s">
-        <v>1111</v>
+        <v>1721</v>
       </c>
       <c r="O329" s="44">
         <v>2800</v>
       </c>
       <c r="P329" s="44" t="s">
-        <v>1145</v>
+        <v>1725</v>
       </c>
       <c r="Q329" s="48" t="s">
-        <v>1147</v>
+        <v>1726</v>
       </c>
       <c r="R329" s="44"/>
       <c r="S329" s="44"/>
       <c r="T329" s="44"/>
       <c r="U329" s="44"/>
       <c r="V329" s="44" t="s">
-        <v>1156</v>
+        <v>1727</v>
       </c>
       <c r="W329" s="44">
         <v>99999999</v>
@@ -30815,7 +30950,7 @@
       </c>
       <c r="H330" s="44"/>
       <c r="I330" s="44" t="s">
-        <v>1137</v>
+        <v>1728</v>
       </c>
       <c r="J330" s="44"/>
       <c r="K330" s="44">
@@ -30828,23 +30963,23 @@
         <v>0</v>
       </c>
       <c r="N330" s="44" t="s">
-        <v>1111</v>
+        <v>1729</v>
       </c>
       <c r="O330" s="44">
         <v>4800</v>
       </c>
       <c r="P330" s="44" t="s">
-        <v>1145</v>
+        <v>1722</v>
       </c>
       <c r="Q330" s="48" t="s">
-        <v>1153</v>
+        <v>1730</v>
       </c>
       <c r="R330" s="44"/>
       <c r="S330" s="44"/>
       <c r="T330" s="44"/>
       <c r="U330" s="44"/>
       <c r="V330" s="44" t="s">
-        <v>1156</v>
+        <v>1727</v>
       </c>
       <c r="W330" s="44">
         <v>99999999</v>
@@ -30897,7 +31032,7 @@
       </c>
       <c r="H331" s="44"/>
       <c r="I331" s="44" t="s">
-        <v>1138</v>
+        <v>1731</v>
       </c>
       <c r="J331" s="44"/>
       <c r="K331" s="44">
@@ -30910,23 +31045,23 @@
         <v>0</v>
       </c>
       <c r="N331" s="44" t="s">
-        <v>1111</v>
+        <v>1721</v>
       </c>
       <c r="O331" s="44">
         <v>9900</v>
       </c>
       <c r="P331" s="44" t="s">
-        <v>1145</v>
+        <v>1725</v>
       </c>
       <c r="Q331" s="48" t="s">
-        <v>1154</v>
+        <v>1732</v>
       </c>
       <c r="R331" s="44"/>
       <c r="S331" s="44"/>
       <c r="T331" s="44"/>
       <c r="U331" s="44"/>
       <c r="V331" s="44" t="s">
-        <v>1156</v>
+        <v>1723</v>
       </c>
       <c r="W331" s="44">
         <v>99999999</v>
@@ -30975,11 +31110,11 @@
         <v>1</v>
       </c>
       <c r="G332" s="44" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="H332" s="44"/>
       <c r="I332" s="44" t="s">
-        <v>1139</v>
+        <v>1733</v>
       </c>
       <c r="J332" s="44"/>
       <c r="K332" s="44">
@@ -30992,23 +31127,23 @@
         <v>0</v>
       </c>
       <c r="N332" s="44" t="s">
-        <v>1111</v>
+        <v>1729</v>
       </c>
       <c r="O332" s="44">
         <v>19800</v>
       </c>
       <c r="P332" s="44" t="s">
-        <v>1145</v>
+        <v>1725</v>
       </c>
       <c r="Q332" s="48" t="s">
-        <v>1148</v>
+        <v>1734</v>
       </c>
       <c r="R332" s="44"/>
       <c r="S332" s="44"/>
       <c r="T332" s="44"/>
       <c r="U332" s="44"/>
       <c r="V332" s="44" t="s">
-        <v>1156</v>
+        <v>1723</v>
       </c>
       <c r="W332" s="44">
         <v>99999999</v>
@@ -31057,11 +31192,11 @@
         <v>1</v>
       </c>
       <c r="G333" s="44" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="H333" s="44"/>
       <c r="I333" s="44" t="s">
-        <v>1140</v>
+        <v>1735</v>
       </c>
       <c r="J333" s="44"/>
       <c r="K333" s="44">
@@ -31074,23 +31209,23 @@
         <v>0</v>
       </c>
       <c r="N333" s="44" t="s">
-        <v>1111</v>
+        <v>1721</v>
       </c>
       <c r="O333" s="44">
         <v>29800</v>
       </c>
       <c r="P333" s="44" t="s">
-        <v>1145</v>
+        <v>1725</v>
       </c>
       <c r="Q333" s="48" t="s">
-        <v>1149</v>
+        <v>1736</v>
       </c>
       <c r="R333" s="44"/>
       <c r="S333" s="44"/>
       <c r="T333" s="44"/>
       <c r="U333" s="44"/>
       <c r="V333" s="44" t="s">
-        <v>1156</v>
+        <v>1737</v>
       </c>
       <c r="W333" s="44">
         <v>99999999</v>
@@ -31139,11 +31274,11 @@
         <v>1</v>
       </c>
       <c r="G334" s="44" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="H334" s="44"/>
       <c r="I334" s="44" t="s">
-        <v>1141</v>
+        <v>1738</v>
       </c>
       <c r="J334" s="44"/>
       <c r="K334" s="44">
@@ -31156,23 +31291,23 @@
         <v>0</v>
       </c>
       <c r="N334" s="44" t="s">
-        <v>1111</v>
+        <v>1739</v>
       </c>
       <c r="O334" s="44">
         <v>39800</v>
       </c>
       <c r="P334" s="44" t="s">
-        <v>1145</v>
+        <v>1740</v>
       </c>
       <c r="Q334" s="48" t="s">
-        <v>1155</v>
+        <v>1741</v>
       </c>
       <c r="R334" s="44"/>
       <c r="S334" s="44"/>
       <c r="T334" s="44"/>
       <c r="U334" s="44"/>
       <c r="V334" s="44" t="s">
-        <v>1156</v>
+        <v>1737</v>
       </c>
       <c r="W334" s="44">
         <v>99999999</v>
@@ -31221,11 +31356,11 @@
         <v>1</v>
       </c>
       <c r="G335" s="44" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="H335" s="44"/>
       <c r="I335" s="44" t="s">
-        <v>1142</v>
+        <v>1742</v>
       </c>
       <c r="J335" s="44"/>
       <c r="K335" s="44">
@@ -31238,23 +31373,23 @@
         <v>0</v>
       </c>
       <c r="N335" s="44" t="s">
-        <v>1111</v>
+        <v>1739</v>
       </c>
       <c r="O335" s="44">
         <v>49800</v>
       </c>
       <c r="P335" s="44" t="s">
-        <v>1145</v>
+        <v>1740</v>
       </c>
       <c r="Q335" s="48" t="s">
-        <v>1150</v>
+        <v>1743</v>
       </c>
       <c r="R335" s="44"/>
       <c r="S335" s="44"/>
       <c r="T335" s="44"/>
       <c r="U335" s="44"/>
       <c r="V335" s="44" t="s">
-        <v>1156</v>
+        <v>1737</v>
       </c>
       <c r="W335" s="44">
         <v>99999999</v>
@@ -31303,11 +31438,11 @@
         <v>1</v>
       </c>
       <c r="G336" s="44" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="H336" s="44"/>
       <c r="I336" s="44" t="s">
-        <v>1143</v>
+        <v>1744</v>
       </c>
       <c r="J336" s="44"/>
       <c r="K336" s="44">
@@ -31320,23 +31455,23 @@
         <v>0</v>
       </c>
       <c r="N336" s="44" t="s">
-        <v>1111</v>
+        <v>1739</v>
       </c>
       <c r="O336" s="44">
         <v>59800</v>
       </c>
       <c r="P336" s="44" t="s">
-        <v>1145</v>
+        <v>1740</v>
       </c>
       <c r="Q336" s="48" t="s">
-        <v>1151</v>
+        <v>1745</v>
       </c>
       <c r="R336" s="44"/>
       <c r="S336" s="44"/>
       <c r="T336" s="44"/>
       <c r="U336" s="44"/>
       <c r="V336" s="44" t="s">
-        <v>1156</v>
+        <v>1746</v>
       </c>
       <c r="W336" s="44">
         <v>99999999</v>
@@ -31385,11 +31520,11 @@
         <v>1</v>
       </c>
       <c r="G337" s="44" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="H337" s="44"/>
       <c r="I337" s="44" t="s">
-        <v>1144</v>
+        <v>1747</v>
       </c>
       <c r="J337" s="44"/>
       <c r="K337" s="44">
@@ -31402,23 +31537,23 @@
         <v>0</v>
       </c>
       <c r="N337" s="44" t="s">
-        <v>1111</v>
+        <v>1739</v>
       </c>
       <c r="O337" s="44">
         <v>69800</v>
       </c>
       <c r="P337" s="44" t="s">
-        <v>1145</v>
+        <v>1748</v>
       </c>
       <c r="Q337" s="48" t="s">
-        <v>1152</v>
+        <v>1749</v>
       </c>
       <c r="R337" s="44"/>
       <c r="S337" s="44"/>
       <c r="T337" s="44"/>
       <c r="U337" s="44"/>
       <c r="V337" s="44" t="s">
-        <v>1156</v>
+        <v>1737</v>
       </c>
       <c r="W337" s="44">
         <v>99999999</v>
@@ -31464,10 +31599,10 @@
         <v>1</v>
       </c>
       <c r="G338" s="19" t="s">
-        <v>1174</v>
+        <v>1153</v>
       </c>
       <c r="I338" s="19" t="s">
-        <v>1176</v>
+        <v>1155</v>
       </c>
       <c r="K338" s="19">
         <v>-31</v>
@@ -31485,10 +31620,10 @@
         <v>19800</v>
       </c>
       <c r="P338" s="19" t="s">
-        <v>1172</v>
+        <v>1151</v>
       </c>
       <c r="Q338" s="40" t="s">
-        <v>1180</v>
+        <v>1159</v>
       </c>
       <c r="V338" s="19" t="s">
         <v>550</v>
@@ -31503,10 +31638,10 @@
         <v>2552233600</v>
       </c>
       <c r="AA338" s="19" t="s">
-        <v>1173</v>
+        <v>1152</v>
       </c>
       <c r="AB338" s="19" t="s">
-        <v>1183</v>
+        <v>1162</v>
       </c>
       <c r="AG338" s="19">
         <v>1</v>
@@ -31539,7 +31674,7 @@
       </c>
       <c r="H339" s="19"/>
       <c r="I339" s="19" t="s">
-        <v>1178</v>
+        <v>1157</v>
       </c>
       <c r="J339" s="19"/>
       <c r="K339" s="19">
@@ -31558,10 +31693,10 @@
         <v>30000</v>
       </c>
       <c r="P339" s="19" t="s">
-        <v>1172</v>
+        <v>1151</v>
       </c>
       <c r="Q339" s="40" t="s">
-        <v>1181</v>
+        <v>1160</v>
       </c>
       <c r="R339" s="19"/>
       <c r="S339" s="19"/>
@@ -31581,10 +31716,10 @@
       </c>
       <c r="Z339" s="19"/>
       <c r="AA339" s="19" t="s">
-        <v>1173</v>
+        <v>1152</v>
       </c>
       <c r="AB339" s="19" t="s">
-        <v>1184</v>
+        <v>1163</v>
       </c>
       <c r="AC339" s="19"/>
       <c r="AD339" s="19"/>
@@ -31619,11 +31754,11 @@
         <v>1</v>
       </c>
       <c r="G340" s="19" t="s">
-        <v>1175</v>
+        <v>1154</v>
       </c>
       <c r="H340" s="19"/>
       <c r="I340" s="19" t="s">
-        <v>1177</v>
+        <v>1156</v>
       </c>
       <c r="J340" s="19"/>
       <c r="K340" s="19">
@@ -31642,10 +31777,10 @@
         <v>78000</v>
       </c>
       <c r="P340" s="19" t="s">
-        <v>1172</v>
+        <v>1151</v>
       </c>
       <c r="Q340" s="40" t="s">
-        <v>1179</v>
+        <v>1158</v>
       </c>
       <c r="R340" s="19"/>
       <c r="S340" s="19"/>
@@ -31665,10 +31800,10 @@
       </c>
       <c r="Z340" s="19"/>
       <c r="AA340" s="19" t="s">
-        <v>1173</v>
+        <v>1152</v>
       </c>
       <c r="AB340" s="19" t="s">
-        <v>1185</v>
+        <v>1164</v>
       </c>
       <c r="AC340" s="19"/>
       <c r="AD340" s="19"/>
@@ -31700,11 +31835,11 @@
         <v>1</v>
       </c>
       <c r="G341" s="6" t="s">
-        <v>1197</v>
+        <v>1176</v>
       </c>
       <c r="H341" s="6"/>
       <c r="I341" s="5" t="s">
-        <v>1209</v>
+        <v>1188</v>
       </c>
       <c r="K341" s="5">
         <v>-31</v>
@@ -31725,10 +31860,10 @@
         <v>1089</v>
       </c>
       <c r="Q341" s="10" t="s">
-        <v>1222</v>
+        <v>1200</v>
       </c>
       <c r="V341" s="5" t="s">
-        <v>1254</v>
+        <v>1232</v>
       </c>
       <c r="W341" s="5">
         <v>9999999</v>
@@ -31746,7 +31881,7 @@
         <v>461</v>
       </c>
       <c r="AB341" s="5" t="s">
-        <v>1234</v>
+        <v>1212</v>
       </c>
       <c r="AG341" s="5">
         <v>1</v>
@@ -31772,10 +31907,10 @@
         <v>1</v>
       </c>
       <c r="G342" s="6" t="s">
-        <v>1198</v>
+        <v>1177</v>
       </c>
       <c r="I342" s="5" t="s">
-        <v>1210</v>
+        <v>1189</v>
       </c>
       <c r="K342" s="5">
         <v>-31</v>
@@ -31796,10 +31931,10 @@
         <v>1089</v>
       </c>
       <c r="Q342" s="10" t="s">
-        <v>1223</v>
+        <v>1201</v>
       </c>
       <c r="V342" s="5" t="s">
-        <v>1254</v>
+        <v>1232</v>
       </c>
       <c r="W342" s="5">
         <v>9999999</v>
@@ -31817,7 +31952,7 @@
         <v>461</v>
       </c>
       <c r="AB342" s="5" t="s">
-        <v>1235</v>
+        <v>1213</v>
       </c>
       <c r="AG342" s="5">
         <v>1</v>
@@ -31843,10 +31978,10 @@
         <v>1</v>
       </c>
       <c r="G343" s="6" t="s">
-        <v>1199</v>
+        <v>1178</v>
       </c>
       <c r="I343" s="5" t="s">
-        <v>1211</v>
+        <v>1190</v>
       </c>
       <c r="K343" s="5">
         <v>-31</v>
@@ -31867,10 +32002,10 @@
         <v>1089</v>
       </c>
       <c r="Q343" s="10" t="s">
-        <v>1224</v>
+        <v>1202</v>
       </c>
       <c r="V343" s="5" t="s">
-        <v>1254</v>
+        <v>1232</v>
       </c>
       <c r="W343" s="5">
         <v>9999999</v>
@@ -31888,7 +32023,7 @@
         <v>461</v>
       </c>
       <c r="AB343" s="5" t="s">
-        <v>1236</v>
+        <v>1214</v>
       </c>
       <c r="AG343" s="5">
         <v>1</v>
@@ -31914,10 +32049,10 @@
         <v>1</v>
       </c>
       <c r="G344" s="6" t="s">
-        <v>1200</v>
+        <v>1179</v>
       </c>
       <c r="I344" s="5" t="s">
-        <v>1212</v>
+        <v>1191</v>
       </c>
       <c r="K344" s="5">
         <v>-31</v>
@@ -31938,10 +32073,10 @@
         <v>1089</v>
       </c>
       <c r="Q344" s="10" t="s">
-        <v>1225</v>
+        <v>1203</v>
       </c>
       <c r="V344" s="5" t="s">
-        <v>1254</v>
+        <v>1232</v>
       </c>
       <c r="W344" s="5">
         <v>9999999</v>
@@ -31959,7 +32094,7 @@
         <v>461</v>
       </c>
       <c r="AB344" s="5" t="s">
-        <v>1237</v>
+        <v>1215</v>
       </c>
       <c r="AG344" s="5">
         <v>1</v>
@@ -31985,10 +32120,10 @@
         <v>1</v>
       </c>
       <c r="G345" s="6" t="s">
-        <v>1201</v>
+        <v>1180</v>
       </c>
       <c r="I345" s="5" t="s">
-        <v>1213</v>
+        <v>1192</v>
       </c>
       <c r="K345" s="5">
         <v>-31</v>
@@ -32009,10 +32144,10 @@
         <v>1089</v>
       </c>
       <c r="Q345" s="10" t="s">
-        <v>1226</v>
+        <v>1204</v>
       </c>
       <c r="V345" s="5" t="s">
-        <v>1254</v>
+        <v>1232</v>
       </c>
       <c r="W345" s="5">
         <v>9999999</v>
@@ -32030,7 +32165,7 @@
         <v>461</v>
       </c>
       <c r="AB345" s="5" t="s">
-        <v>1238</v>
+        <v>1216</v>
       </c>
       <c r="AG345" s="5">
         <v>1</v>
@@ -32056,10 +32191,10 @@
         <v>1</v>
       </c>
       <c r="G346" s="6" t="s">
-        <v>1202</v>
+        <v>1181</v>
       </c>
       <c r="I346" s="5" t="s">
-        <v>1214</v>
+        <v>1193</v>
       </c>
       <c r="K346" s="5">
         <v>-31</v>
@@ -32080,10 +32215,10 @@
         <v>1089</v>
       </c>
       <c r="Q346" s="10" t="s">
-        <v>1227</v>
+        <v>1205</v>
       </c>
       <c r="V346" s="5" t="s">
-        <v>1254</v>
+        <v>1232</v>
       </c>
       <c r="W346" s="5">
         <v>9999999</v>
@@ -32101,7 +32236,7 @@
         <v>461</v>
       </c>
       <c r="AB346" s="5" t="s">
-        <v>1239</v>
+        <v>1217</v>
       </c>
       <c r="AG346" s="5">
         <v>1</v>
@@ -32127,10 +32262,10 @@
         <v>1</v>
       </c>
       <c r="G347" s="6" t="s">
-        <v>1203</v>
+        <v>1182</v>
       </c>
       <c r="I347" s="5" t="s">
-        <v>1215</v>
+        <v>1194</v>
       </c>
       <c r="K347" s="5">
         <v>-31</v>
@@ -32151,10 +32286,10 @@
         <v>1089</v>
       </c>
       <c r="Q347" s="10" t="s">
-        <v>1229</v>
+        <v>1207</v>
       </c>
       <c r="V347" s="5" t="s">
-        <v>1254</v>
+        <v>1232</v>
       </c>
       <c r="W347" s="5">
         <v>9999999</v>
@@ -32172,7 +32307,7 @@
         <v>461</v>
       </c>
       <c r="AB347" s="5" t="s">
-        <v>1240</v>
+        <v>1218</v>
       </c>
       <c r="AG347" s="5">
         <v>1</v>
@@ -32198,10 +32333,10 @@
         <v>1</v>
       </c>
       <c r="G348" s="6" t="s">
-        <v>1204</v>
+        <v>1183</v>
       </c>
       <c r="I348" s="5" t="s">
-        <v>1216</v>
+        <v>1195</v>
       </c>
       <c r="K348" s="5">
         <v>-31</v>
@@ -32222,10 +32357,10 @@
         <v>1089</v>
       </c>
       <c r="Q348" s="10" t="s">
-        <v>1230</v>
+        <v>1208</v>
       </c>
       <c r="V348" s="5" t="s">
-        <v>1254</v>
+        <v>1232</v>
       </c>
       <c r="W348" s="5">
         <v>9999999</v>
@@ -32243,7 +32378,7 @@
         <v>461</v>
       </c>
       <c r="AB348" s="5" t="s">
-        <v>1241</v>
+        <v>1219</v>
       </c>
       <c r="AG348" s="5">
         <v>1</v>
@@ -32269,10 +32404,10 @@
         <v>1</v>
       </c>
       <c r="G349" s="6" t="s">
-        <v>1205</v>
+        <v>1184</v>
       </c>
       <c r="I349" s="5" t="s">
-        <v>1217</v>
+        <v>1196</v>
       </c>
       <c r="K349" s="5">
         <v>-31</v>
@@ -32293,10 +32428,10 @@
         <v>1089</v>
       </c>
       <c r="Q349" s="10" t="s">
-        <v>1228</v>
+        <v>1206</v>
       </c>
       <c r="V349" s="5" t="s">
-        <v>1254</v>
+        <v>1232</v>
       </c>
       <c r="W349" s="5">
         <v>9999999</v>
@@ -32314,7 +32449,7 @@
         <v>461</v>
       </c>
       <c r="AB349" s="5" t="s">
-        <v>1242</v>
+        <v>1220</v>
       </c>
       <c r="AG349" s="5">
         <v>1</v>
@@ -32340,10 +32475,10 @@
         <v>1</v>
       </c>
       <c r="G350" s="6" t="s">
-        <v>1206</v>
+        <v>1185</v>
       </c>
       <c r="I350" s="5" t="s">
-        <v>1218</v>
+        <v>1197</v>
       </c>
       <c r="K350" s="5">
         <v>-31</v>
@@ -32364,10 +32499,10 @@
         <v>1089</v>
       </c>
       <c r="Q350" s="10" t="s">
-        <v>1231</v>
+        <v>1209</v>
       </c>
       <c r="V350" s="5" t="s">
-        <v>1254</v>
+        <v>1232</v>
       </c>
       <c r="W350" s="5">
         <v>9999999</v>
@@ -32385,7 +32520,7 @@
         <v>461</v>
       </c>
       <c r="AB350" s="5" t="s">
-        <v>1243</v>
+        <v>1221</v>
       </c>
       <c r="AG350" s="5">
         <v>1</v>
@@ -32411,10 +32546,10 @@
         <v>1</v>
       </c>
       <c r="G351" s="6" t="s">
-        <v>1207</v>
+        <v>1186</v>
       </c>
       <c r="I351" s="5" t="s">
-        <v>1219</v>
+        <v>1198</v>
       </c>
       <c r="K351" s="5">
         <v>-31</v>
@@ -32435,10 +32570,10 @@
         <v>1089</v>
       </c>
       <c r="Q351" s="10" t="s">
+        <v>1210</v>
+      </c>
+      <c r="V351" s="5" t="s">
         <v>1232</v>
-      </c>
-      <c r="V351" s="5" t="s">
-        <v>1254</v>
       </c>
       <c r="W351" s="5">
         <v>9999999</v>
@@ -32456,7 +32591,7 @@
         <v>461</v>
       </c>
       <c r="AB351" s="5" t="s">
-        <v>1244</v>
+        <v>1222</v>
       </c>
       <c r="AG351" s="5">
         <v>1</v>
@@ -32482,10 +32617,10 @@
         <v>1</v>
       </c>
       <c r="G352" s="6" t="s">
-        <v>1208</v>
+        <v>1187</v>
       </c>
       <c r="I352" s="5" t="s">
-        <v>1220</v>
+        <v>1199</v>
       </c>
       <c r="K352" s="5">
         <v>-31</v>
@@ -32506,10 +32641,10 @@
         <v>1089</v>
       </c>
       <c r="Q352" s="10" t="s">
-        <v>1233</v>
+        <v>1211</v>
       </c>
       <c r="V352" s="5" t="s">
-        <v>1262</v>
+        <v>1240</v>
       </c>
       <c r="W352" s="5">
         <v>9999999</v>
@@ -32527,7 +32662,7 @@
         <v>461</v>
       </c>
       <c r="AB352" s="5" t="s">
-        <v>1245</v>
+        <v>1223</v>
       </c>
       <c r="AG352" s="5">
         <v>1</v>
@@ -32553,13 +32688,13 @@
         <v>0</v>
       </c>
       <c r="G353" s="5" t="s">
-        <v>1287</v>
+        <v>1265</v>
       </c>
       <c r="H353" s="5" t="s">
-        <v>1288</v>
+        <v>1266</v>
       </c>
       <c r="I353" s="5" t="s">
-        <v>1259</v>
+        <v>1237</v>
       </c>
       <c r="K353" s="5">
         <v>-31</v>
@@ -32571,16 +32706,16 @@
         <v>0</v>
       </c>
       <c r="N353" s="5" t="s">
-        <v>1263</v>
+        <v>1241</v>
       </c>
       <c r="O353" s="5">
         <v>600</v>
       </c>
       <c r="P353" s="5" t="s">
-        <v>1267</v>
+        <v>1245</v>
       </c>
       <c r="Q353" s="10" t="s">
-        <v>1260</v>
+        <v>1238</v>
       </c>
       <c r="V353" s="5" t="s">
         <v>564</v>
@@ -32621,13 +32756,13 @@
         <v>0</v>
       </c>
       <c r="G354" s="5" t="s">
-        <v>1289</v>
+        <v>1267</v>
       </c>
       <c r="H354" s="5" t="s">
-        <v>1290</v>
+        <v>1268</v>
       </c>
       <c r="I354" s="5" t="s">
-        <v>1259</v>
+        <v>1237</v>
       </c>
       <c r="K354" s="5">
         <v>-31</v>
@@ -32645,10 +32780,10 @@
         <v>1200</v>
       </c>
       <c r="P354" s="5" t="s">
-        <v>1268</v>
+        <v>1246</v>
       </c>
       <c r="Q354" s="10" t="s">
-        <v>1261</v>
+        <v>1239</v>
       </c>
       <c r="V354" s="5" t="s">
         <v>564</v>
@@ -32689,13 +32824,13 @@
         <v>0</v>
       </c>
       <c r="G355" s="5" t="s">
-        <v>1294</v>
+        <v>1272</v>
       </c>
       <c r="H355" s="5" t="s">
-        <v>1290</v>
+        <v>1268</v>
       </c>
       <c r="I355" s="5" t="s">
-        <v>1259</v>
+        <v>1237</v>
       </c>
       <c r="K355" s="5">
         <v>-31</v>
@@ -32713,13 +32848,13 @@
         <v>1800</v>
       </c>
       <c r="P355" s="5" t="s">
-        <v>1269</v>
+        <v>1247</v>
       </c>
       <c r="Q355" s="10" t="s">
-        <v>1260</v>
+        <v>1238</v>
       </c>
       <c r="V355" s="5" t="s">
-        <v>1283</v>
+        <v>1261</v>
       </c>
       <c r="W355" s="5">
         <v>9999999</v>
@@ -32757,13 +32892,13 @@
         <v>0</v>
       </c>
       <c r="G356" s="5" t="s">
-        <v>1295</v>
+        <v>1273</v>
       </c>
       <c r="H356" s="5" t="s">
-        <v>1291</v>
+        <v>1269</v>
       </c>
       <c r="I356" s="5" t="s">
-        <v>1259</v>
+        <v>1237</v>
       </c>
       <c r="K356" s="5">
         <v>-31</v>
@@ -32781,13 +32916,13 @@
         <v>4800</v>
       </c>
       <c r="P356" s="5" t="s">
-        <v>1270</v>
+        <v>1248</v>
       </c>
       <c r="Q356" s="10" t="s">
         <v>284</v>
       </c>
       <c r="V356" s="5" t="s">
-        <v>1276</v>
+        <v>1254</v>
       </c>
       <c r="W356" s="5">
         <v>9999999</v>
@@ -32825,13 +32960,13 @@
         <v>0</v>
       </c>
       <c r="G357" s="5" t="s">
-        <v>1296</v>
+        <v>1274</v>
       </c>
       <c r="H357" s="5" t="s">
-        <v>1291</v>
+        <v>1269</v>
       </c>
       <c r="I357" s="5" t="s">
-        <v>1259</v>
+        <v>1237</v>
       </c>
       <c r="K357" s="5">
         <v>-31</v>
@@ -32849,13 +32984,13 @@
         <v>9800</v>
       </c>
       <c r="P357" s="5" t="s">
-        <v>1271</v>
+        <v>1249</v>
       </c>
       <c r="Q357" s="10" t="s">
         <v>284</v>
       </c>
       <c r="V357" s="5" t="s">
-        <v>1276</v>
+        <v>1254</v>
       </c>
       <c r="W357" s="5">
         <v>9999999</v>
@@ -32893,13 +33028,13 @@
         <v>0</v>
       </c>
       <c r="G358" s="5" t="s">
-        <v>1294</v>
+        <v>1272</v>
       </c>
       <c r="H358" s="5" t="s">
-        <v>1291</v>
+        <v>1269</v>
       </c>
       <c r="I358" s="5" t="s">
-        <v>1259</v>
+        <v>1237</v>
       </c>
       <c r="K358" s="5">
         <v>-31</v>
@@ -32917,13 +33052,13 @@
         <v>19800</v>
       </c>
       <c r="P358" s="5" t="s">
-        <v>1272</v>
+        <v>1250</v>
       </c>
       <c r="Q358" s="10" t="s">
         <v>284</v>
       </c>
       <c r="V358" s="5" t="s">
-        <v>1283</v>
+        <v>1261</v>
       </c>
       <c r="W358" s="5">
         <v>9999999</v>
@@ -32961,13 +33096,13 @@
         <v>0</v>
       </c>
       <c r="G359" s="5" t="s">
-        <v>1295</v>
+        <v>1273</v>
       </c>
       <c r="H359" s="5" t="s">
-        <v>1292</v>
+        <v>1270</v>
       </c>
       <c r="I359" s="5" t="s">
-        <v>1259</v>
+        <v>1237</v>
       </c>
       <c r="K359" s="5">
         <v>-31</v>
@@ -32985,13 +33120,13 @@
         <v>9800</v>
       </c>
       <c r="P359" s="5" t="s">
-        <v>1273</v>
+        <v>1251</v>
       </c>
       <c r="Q359" s="10" t="s">
         <v>284</v>
       </c>
       <c r="V359" s="5" t="s">
-        <v>1276</v>
+        <v>1254</v>
       </c>
       <c r="W359" s="5">
         <v>9999999</v>
@@ -33029,13 +33164,13 @@
         <v>0</v>
       </c>
       <c r="G360" s="5" t="s">
-        <v>1289</v>
+        <v>1267</v>
       </c>
       <c r="H360" s="5" t="s">
-        <v>1292</v>
+        <v>1270</v>
       </c>
       <c r="I360" s="5" t="s">
-        <v>1259</v>
+        <v>1237</v>
       </c>
       <c r="K360" s="5">
         <v>-31</v>
@@ -33053,13 +33188,13 @@
         <v>19800</v>
       </c>
       <c r="P360" s="5" t="s">
-        <v>1274</v>
+        <v>1252</v>
       </c>
       <c r="Q360" s="10" t="s">
         <v>284</v>
       </c>
       <c r="V360" s="5" t="s">
-        <v>1276</v>
+        <v>1254</v>
       </c>
       <c r="W360" s="5">
         <v>9999999</v>
@@ -33097,13 +33232,13 @@
         <v>0</v>
       </c>
       <c r="G361" s="5" t="s">
-        <v>1294</v>
+        <v>1272</v>
       </c>
       <c r="H361" s="5" t="s">
-        <v>1292</v>
+        <v>1270</v>
       </c>
       <c r="I361" s="5" t="s">
-        <v>1259</v>
+        <v>1237</v>
       </c>
       <c r="K361" s="5">
         <v>-31</v>
@@ -33121,13 +33256,13 @@
         <v>49800</v>
       </c>
       <c r="P361" s="5" t="s">
-        <v>1275</v>
+        <v>1253</v>
       </c>
       <c r="Q361" s="10" t="s">
         <v>284</v>
       </c>
       <c r="V361" s="5" t="s">
-        <v>1284</v>
+        <v>1262</v>
       </c>
       <c r="W361" s="5">
         <v>9999999</v>
@@ -33165,13 +33300,13 @@
         <v>0</v>
       </c>
       <c r="G362" s="5" t="s">
-        <v>1294</v>
+        <v>1272</v>
       </c>
       <c r="H362" s="5" t="s">
-        <v>1290</v>
+        <v>1268</v>
       </c>
       <c r="I362" s="5" t="s">
-        <v>1259</v>
+        <v>1237</v>
       </c>
       <c r="K362" s="5">
         <v>-31</v>
@@ -33189,13 +33324,13 @@
         <v>1800</v>
       </c>
       <c r="P362" s="5" t="s">
-        <v>1269</v>
+        <v>1247</v>
       </c>
       <c r="Q362" s="10" t="s">
+        <v>1238</v>
+      </c>
+      <c r="V362" s="5" t="s">
         <v>1260</v>
-      </c>
-      <c r="V362" s="5" t="s">
-        <v>1282</v>
       </c>
       <c r="W362" s="5">
         <v>9999999</v>
@@ -33210,10 +33345,10 @@
         <v>38</v>
       </c>
       <c r="AA362" s="5" t="s">
-        <v>1278</v>
+        <v>1256</v>
       </c>
       <c r="AB362" s="5" t="s">
-        <v>1285</v>
+        <v>1263</v>
       </c>
       <c r="AG362" s="5">
         <v>1</v>
@@ -33239,13 +33374,13 @@
         <v>0</v>
       </c>
       <c r="G363" s="5" t="s">
-        <v>1294</v>
+        <v>1272</v>
       </c>
       <c r="H363" s="5" t="s">
-        <v>1293</v>
+        <v>1271</v>
       </c>
       <c r="I363" s="5" t="s">
-        <v>1259</v>
+        <v>1237</v>
       </c>
       <c r="K363" s="5">
         <v>-31</v>
@@ -33263,13 +33398,13 @@
         <v>19800</v>
       </c>
       <c r="P363" s="5" t="s">
-        <v>1272</v>
+        <v>1250</v>
       </c>
       <c r="Q363" s="10" t="s">
         <v>284</v>
       </c>
       <c r="V363" s="5" t="s">
-        <v>1281</v>
+        <v>1259</v>
       </c>
       <c r="W363" s="5">
         <v>9999999</v>
@@ -33284,10 +33419,10 @@
         <v>39</v>
       </c>
       <c r="AA363" s="5" t="s">
-        <v>1277</v>
+        <v>1255</v>
       </c>
       <c r="AB363" s="5" t="s">
-        <v>1279</v>
+        <v>1257</v>
       </c>
       <c r="AG363" s="5">
         <v>1</v>
@@ -33313,13 +33448,13 @@
         <v>0</v>
       </c>
       <c r="G364" s="5" t="s">
-        <v>1297</v>
+        <v>1275</v>
       </c>
       <c r="H364" s="5" t="s">
-        <v>1292</v>
+        <v>1270</v>
       </c>
       <c r="I364" s="5" t="s">
-        <v>1259</v>
+        <v>1237</v>
       </c>
       <c r="K364" s="5">
         <v>-31</v>
@@ -33337,13 +33472,13 @@
         <v>49800</v>
       </c>
       <c r="P364" s="5" t="s">
-        <v>1275</v>
+        <v>1253</v>
       </c>
       <c r="Q364" s="10" t="s">
         <v>284</v>
       </c>
       <c r="V364" s="5" t="s">
-        <v>1281</v>
+        <v>1259</v>
       </c>
       <c r="W364" s="5">
         <v>9999999</v>
@@ -33358,10 +33493,10 @@
         <v>40</v>
       </c>
       <c r="AA364" s="5" t="s">
-        <v>1277</v>
+        <v>1255</v>
       </c>
       <c r="AB364" s="5" t="s">
-        <v>1280</v>
+        <v>1258</v>
       </c>
       <c r="AG364" s="5">
         <v>1</v>
@@ -33387,10 +33522,10 @@
         <v>0</v>
       </c>
       <c r="G365" s="5" t="s">
-        <v>1318</v>
+        <v>1296</v>
       </c>
       <c r="I365" s="5" t="s">
-        <v>1324</v>
+        <v>1302</v>
       </c>
       <c r="K365" s="5">
         <v>-31</v>
@@ -33408,10 +33543,10 @@
         <v>131400</v>
       </c>
       <c r="P365" s="5" t="s">
-        <v>1329</v>
+        <v>1307</v>
       </c>
       <c r="Q365" s="10" t="s">
-        <v>1330</v>
+        <v>1308</v>
       </c>
       <c r="V365" s="5" t="s">
         <v>597</v>
@@ -33452,10 +33587,10 @@
         <v>0</v>
       </c>
       <c r="G366" s="5" t="s">
-        <v>1320</v>
+        <v>1298</v>
       </c>
       <c r="I366" s="5" t="s">
-        <v>1325</v>
+        <v>1303</v>
       </c>
       <c r="K366" s="5">
         <v>-31</v>
@@ -33473,10 +33608,10 @@
         <v>52000</v>
       </c>
       <c r="P366" s="5" t="s">
-        <v>1329</v>
+        <v>1307</v>
       </c>
       <c r="Q366" s="10" t="s">
-        <v>1331</v>
+        <v>1309</v>
       </c>
       <c r="V366" s="5" t="s">
         <v>597</v>
@@ -33517,10 +33652,10 @@
         <v>0</v>
       </c>
       <c r="G367" s="5" t="s">
-        <v>1319</v>
+        <v>1297</v>
       </c>
       <c r="I367" s="5" t="s">
-        <v>1326</v>
+        <v>1304</v>
       </c>
       <c r="K367" s="5">
         <v>-31</v>
@@ -33538,10 +33673,10 @@
         <v>25800</v>
       </c>
       <c r="P367" s="5" t="s">
-        <v>1329</v>
+        <v>1307</v>
       </c>
       <c r="Q367" s="10" t="s">
-        <v>1332</v>
+        <v>1310</v>
       </c>
       <c r="V367" s="5" t="s">
         <v>597</v>
@@ -33582,10 +33717,10 @@
         <v>0</v>
       </c>
       <c r="G368" s="5" t="s">
-        <v>1321</v>
+        <v>1299</v>
       </c>
       <c r="I368" s="5" t="s">
-        <v>1327</v>
+        <v>1305</v>
       </c>
       <c r="K368" s="5">
         <v>-31</v>
@@ -33603,10 +33738,10 @@
         <v>14700</v>
       </c>
       <c r="P368" s="5" t="s">
-        <v>1329</v>
+        <v>1307</v>
       </c>
       <c r="Q368" s="10" t="s">
-        <v>1333</v>
+        <v>1311</v>
       </c>
       <c r="V368" s="5" t="s">
         <v>597</v>
@@ -33647,10 +33782,10 @@
         <v>0</v>
       </c>
       <c r="G369" s="5" t="s">
-        <v>1322</v>
+        <v>1300</v>
       </c>
       <c r="I369" s="5" t="s">
-        <v>1328</v>
+        <v>1306</v>
       </c>
       <c r="K369" s="5">
         <v>-31</v>
@@ -33668,10 +33803,10 @@
         <v>5200</v>
       </c>
       <c r="P369" s="5" t="s">
-        <v>1358</v>
+        <v>1336</v>
       </c>
       <c r="Q369" s="10" t="s">
-        <v>1334</v>
+        <v>1312</v>
       </c>
       <c r="V369" s="5" t="s">
         <v>597</v>
@@ -33712,10 +33847,10 @@
         <v>0</v>
       </c>
       <c r="G370" s="5" t="s">
-        <v>1335</v>
+        <v>1313</v>
       </c>
       <c r="I370" s="5" t="s">
-        <v>1339</v>
+        <v>1317</v>
       </c>
       <c r="K370" s="5">
         <v>-31</v>
@@ -33733,10 +33868,10 @@
         <v>1800</v>
       </c>
       <c r="P370" s="5" t="s">
-        <v>1349</v>
+        <v>1327</v>
       </c>
       <c r="Q370" s="10" t="s">
-        <v>1343</v>
+        <v>1321</v>
       </c>
       <c r="V370" s="5" t="s">
         <v>597</v>
@@ -33774,10 +33909,10 @@
         <v>0</v>
       </c>
       <c r="G371" s="5" t="s">
-        <v>1336</v>
+        <v>1314</v>
       </c>
       <c r="I371" s="5" t="s">
-        <v>1340</v>
+        <v>1318</v>
       </c>
       <c r="K371" s="5">
         <v>-31</v>
@@ -33795,10 +33930,10 @@
         <v>4800</v>
       </c>
       <c r="P371" s="5" t="s">
-        <v>1349</v>
+        <v>1327</v>
       </c>
       <c r="Q371" s="10" t="s">
-        <v>1344</v>
+        <v>1322</v>
       </c>
       <c r="V371" s="5" t="s">
         <v>564</v>
@@ -33836,10 +33971,10 @@
         <v>0</v>
       </c>
       <c r="G372" s="5" t="s">
-        <v>1337</v>
+        <v>1315</v>
       </c>
       <c r="I372" s="5" t="s">
-        <v>1341</v>
+        <v>1319</v>
       </c>
       <c r="K372" s="5">
         <v>-31</v>
@@ -33857,13 +33992,13 @@
         <v>9800</v>
       </c>
       <c r="P372" s="5" t="s">
-        <v>1349</v>
+        <v>1327</v>
       </c>
       <c r="Q372" s="10" t="s">
-        <v>1345</v>
+        <v>1323</v>
       </c>
       <c r="V372" s="5" t="s">
-        <v>1347</v>
+        <v>1325</v>
       </c>
       <c r="W372" s="5">
         <v>9999999</v>
@@ -33898,10 +34033,10 @@
         <v>0</v>
       </c>
       <c r="G373" s="5" t="s">
-        <v>1338</v>
+        <v>1316</v>
       </c>
       <c r="I373" s="5" t="s">
-        <v>1342</v>
+        <v>1320</v>
       </c>
       <c r="K373" s="5">
         <v>-31</v>
@@ -33919,10 +34054,10 @@
         <v>19800</v>
       </c>
       <c r="P373" s="5" t="s">
-        <v>1349</v>
+        <v>1327</v>
       </c>
       <c r="Q373" s="10" t="s">
-        <v>1346</v>
+        <v>1324</v>
       </c>
       <c r="V373" s="5" t="s">
         <v>566</v>
@@ -33960,10 +34095,10 @@
         <v>1</v>
       </c>
       <c r="G374" s="5" t="s">
-        <v>1351</v>
+        <v>1329</v>
       </c>
       <c r="H374" s="5" t="s">
-        <v>1352</v>
+        <v>1330</v>
       </c>
       <c r="I374" s="5" t="s">
         <v>1117</v>
@@ -33984,13 +34119,13 @@
         <v>600</v>
       </c>
       <c r="P374" s="5" t="s">
-        <v>1359</v>
+        <v>1337</v>
       </c>
       <c r="Q374" s="10" t="s">
-        <v>1503</v>
+        <v>1481</v>
       </c>
       <c r="V374" s="5" t="s">
-        <v>1354</v>
+        <v>1332</v>
       </c>
       <c r="W374" s="5">
         <v>9999999</v>
@@ -34028,13 +34163,13 @@
         <v>1</v>
       </c>
       <c r="G375" s="5" t="s">
-        <v>1355</v>
+        <v>1333</v>
       </c>
       <c r="H375" s="5" t="s">
-        <v>1356</v>
+        <v>1334</v>
       </c>
       <c r="I375" s="5" t="s">
-        <v>1357</v>
+        <v>1335</v>
       </c>
       <c r="K375" s="5">
         <v>-31</v>
@@ -34052,10 +34187,10 @@
         <v>300</v>
       </c>
       <c r="P375" s="5" t="s">
-        <v>1359</v>
+        <v>1337</v>
       </c>
       <c r="Q375" s="10" t="s">
-        <v>1353</v>
+        <v>1331</v>
       </c>
       <c r="V375" s="5" t="s">
         <v>597</v>
@@ -34096,13 +34231,13 @@
         <v>1</v>
       </c>
       <c r="G376" s="5" t="s">
-        <v>1362</v>
+        <v>1340</v>
       </c>
       <c r="H376" s="5" t="s">
-        <v>1386</v>
+        <v>1364</v>
       </c>
       <c r="I376" s="5" t="s">
-        <v>1364</v>
+        <v>1342</v>
       </c>
       <c r="K376" s="5">
         <v>-31</v>
@@ -34114,19 +34249,19 @@
         <v>0</v>
       </c>
       <c r="N376" s="5" t="s">
-        <v>1365</v>
+        <v>1343</v>
       </c>
       <c r="O376" s="5">
         <v>0</v>
       </c>
       <c r="P376" s="5" t="s">
-        <v>1381</v>
+        <v>1359</v>
       </c>
       <c r="Q376" s="10" t="s">
         <v>791</v>
       </c>
       <c r="V376" s="5" t="s">
-        <v>1366</v>
+        <v>1344</v>
       </c>
       <c r="W376" s="5">
         <v>9999999</v>
@@ -34164,13 +34299,13 @@
         <v>0</v>
       </c>
       <c r="G377" s="5" t="s">
-        <v>1362</v>
+        <v>1340</v>
       </c>
       <c r="H377" s="5" t="s">
-        <v>1363</v>
+        <v>1341</v>
       </c>
       <c r="I377" s="5" t="s">
-        <v>1367</v>
+        <v>1345</v>
       </c>
       <c r="K377" s="5">
         <v>-31</v>
@@ -34182,19 +34317,19 @@
         <v>0</v>
       </c>
       <c r="N377" s="5" t="s">
-        <v>1365</v>
+        <v>1343</v>
       </c>
       <c r="O377" s="5">
         <v>300</v>
       </c>
       <c r="P377" s="5" t="s">
-        <v>1381</v>
+        <v>1359</v>
       </c>
       <c r="Q377" s="10" t="s">
         <v>792</v>
       </c>
       <c r="V377" s="5" t="s">
-        <v>1368</v>
+        <v>1346</v>
       </c>
       <c r="W377" s="5">
         <v>9999999</v>
@@ -34232,13 +34367,13 @@
         <v>0</v>
       </c>
       <c r="G378" s="5" t="s">
-        <v>1362</v>
+        <v>1340</v>
       </c>
       <c r="H378" s="5" t="s">
-        <v>1369</v>
+        <v>1347</v>
       </c>
       <c r="I378" s="5" t="s">
-        <v>1370</v>
+        <v>1348</v>
       </c>
       <c r="K378" s="5">
         <v>-31</v>
@@ -34256,13 +34391,13 @@
         <v>600</v>
       </c>
       <c r="P378" s="5" t="s">
-        <v>1381</v>
+        <v>1359</v>
       </c>
       <c r="Q378" s="10" t="s">
-        <v>1382</v>
+        <v>1360</v>
       </c>
       <c r="V378" s="5" t="s">
-        <v>1371</v>
+        <v>1349</v>
       </c>
       <c r="W378" s="5">
         <v>9999999</v>
@@ -34300,10 +34435,10 @@
         <v>0</v>
       </c>
       <c r="G379" s="5" t="s">
-        <v>1361</v>
+        <v>1339</v>
       </c>
       <c r="H379" s="5" t="s">
-        <v>1369</v>
+        <v>1347</v>
       </c>
       <c r="I379" s="5" t="s">
         <v>947</v>
@@ -34318,19 +34453,19 @@
         <v>0</v>
       </c>
       <c r="N379" s="5" t="s">
-        <v>1365</v>
+        <v>1343</v>
       </c>
       <c r="O379" s="5">
         <v>1800</v>
       </c>
       <c r="P379" s="5" t="s">
-        <v>1381</v>
+        <v>1359</v>
       </c>
       <c r="Q379" s="10" t="s">
         <v>794</v>
       </c>
       <c r="V379" s="5" t="s">
-        <v>1347</v>
+        <v>1325</v>
       </c>
       <c r="W379" s="5">
         <v>9999999</v>
@@ -34368,10 +34503,10 @@
         <v>0</v>
       </c>
       <c r="G380" s="5" t="s">
-        <v>1362</v>
+        <v>1340</v>
       </c>
       <c r="H380" s="5" t="s">
-        <v>1369</v>
+        <v>1347</v>
       </c>
       <c r="I380" s="5" t="s">
         <v>948</v>
@@ -34386,19 +34521,19 @@
         <v>0</v>
       </c>
       <c r="N380" s="5" t="s">
-        <v>1365</v>
+        <v>1343</v>
       </c>
       <c r="O380" s="5">
         <v>4800</v>
       </c>
       <c r="P380" s="5" t="s">
-        <v>1381</v>
+        <v>1359</v>
       </c>
       <c r="Q380" s="10" t="s">
         <v>795</v>
       </c>
       <c r="V380" s="5" t="s">
-        <v>1372</v>
+        <v>1350</v>
       </c>
       <c r="W380" s="5">
         <v>9999999</v>
@@ -34436,13 +34571,13 @@
         <v>0</v>
       </c>
       <c r="G381" s="5" t="s">
-        <v>1361</v>
+        <v>1339</v>
       </c>
       <c r="H381" s="5" t="s">
-        <v>1373</v>
+        <v>1351</v>
       </c>
       <c r="I381" s="5" t="s">
-        <v>1374</v>
+        <v>1352</v>
       </c>
       <c r="K381" s="5">
         <v>-31</v>
@@ -34460,13 +34595,13 @@
         <v>0</v>
       </c>
       <c r="P381" s="5" t="s">
-        <v>1381</v>
+        <v>1359</v>
       </c>
       <c r="Q381" s="10" t="s">
         <v>791</v>
       </c>
       <c r="V381" s="5" t="s">
-        <v>1366</v>
+        <v>1344</v>
       </c>
       <c r="W381" s="5">
         <v>9999999</v>
@@ -34504,13 +34639,13 @@
         <v>0</v>
       </c>
       <c r="G382" s="5" t="s">
-        <v>1361</v>
+        <v>1339</v>
       </c>
       <c r="H382" s="5" t="s">
-        <v>1373</v>
+        <v>1351</v>
       </c>
       <c r="I382" s="5" t="s">
-        <v>1375</v>
+        <v>1353</v>
       </c>
       <c r="K382" s="5">
         <v>-31</v>
@@ -34522,19 +34657,19 @@
         <v>0</v>
       </c>
       <c r="N382" s="5" t="s">
-        <v>1365</v>
+        <v>1343</v>
       </c>
       <c r="O382" s="5">
         <v>1800</v>
       </c>
       <c r="P382" s="5" t="s">
-        <v>1381</v>
+        <v>1359</v>
       </c>
       <c r="Q382" s="10" t="s">
         <v>794</v>
       </c>
       <c r="V382" s="5" t="s">
-        <v>1368</v>
+        <v>1346</v>
       </c>
       <c r="W382" s="5">
         <v>9999999</v>
@@ -34572,13 +34707,13 @@
         <v>0</v>
       </c>
       <c r="G383" s="5" t="s">
-        <v>1362</v>
+        <v>1340</v>
       </c>
       <c r="H383" s="5" t="s">
-        <v>1373</v>
+        <v>1351</v>
       </c>
       <c r="I383" s="5" t="s">
-        <v>1340</v>
+        <v>1318</v>
       </c>
       <c r="K383" s="5">
         <v>-31</v>
@@ -34590,19 +34725,19 @@
         <v>0</v>
       </c>
       <c r="N383" s="5" t="s">
-        <v>1365</v>
+        <v>1343</v>
       </c>
       <c r="O383" s="5">
         <v>4800</v>
       </c>
       <c r="P383" s="5" t="s">
-        <v>1381</v>
+        <v>1359</v>
       </c>
       <c r="Q383" s="10" t="s">
         <v>795</v>
       </c>
       <c r="V383" s="5" t="s">
-        <v>1418</v>
+        <v>1396</v>
       </c>
       <c r="W383" s="5">
         <v>9999999</v>
@@ -34640,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="G384" s="5" t="s">
-        <v>1361</v>
+        <v>1339</v>
       </c>
       <c r="H384" s="5" t="s">
-        <v>1376</v>
+        <v>1354</v>
       </c>
       <c r="I384" s="5" t="s">
-        <v>1341</v>
+        <v>1319</v>
       </c>
       <c r="K384" s="5">
         <v>-31</v>
@@ -34658,19 +34793,19 @@
         <v>0</v>
       </c>
       <c r="N384" s="5" t="s">
-        <v>1365</v>
+        <v>1343</v>
       </c>
       <c r="O384" s="5">
         <v>9800</v>
       </c>
       <c r="P384" s="5" t="s">
-        <v>1381</v>
+        <v>1359</v>
       </c>
       <c r="Q384" s="10" t="s">
         <v>798</v>
       </c>
       <c r="V384" s="5" t="s">
-        <v>1377</v>
+        <v>1355</v>
       </c>
       <c r="W384" s="5">
         <v>9999999</v>
@@ -34708,13 +34843,13 @@
         <v>0</v>
       </c>
       <c r="G385" s="5" t="s">
-        <v>1361</v>
+        <v>1339</v>
       </c>
       <c r="H385" s="5" t="s">
-        <v>1373</v>
+        <v>1351</v>
       </c>
       <c r="I385" s="5" t="s">
-        <v>1378</v>
+        <v>1356</v>
       </c>
       <c r="K385" s="5">
         <v>-31</v>
@@ -34726,19 +34861,19 @@
         <v>0</v>
       </c>
       <c r="N385" s="5" t="s">
-        <v>1365</v>
+        <v>1343</v>
       </c>
       <c r="O385" s="5">
         <v>19800</v>
       </c>
       <c r="P385" s="5" t="s">
-        <v>1381</v>
+        <v>1359</v>
       </c>
       <c r="Q385" s="10" t="s">
         <v>799</v>
       </c>
       <c r="V385" s="5" t="s">
-        <v>1372</v>
+        <v>1350</v>
       </c>
       <c r="W385" s="5">
         <v>9999999</v>
@@ -34776,13 +34911,13 @@
         <v>1</v>
       </c>
       <c r="G386" s="19" t="s">
-        <v>1383</v>
+        <v>1361</v>
       </c>
       <c r="H386" s="19" t="s">
-        <v>1387</v>
+        <v>1365</v>
       </c>
       <c r="I386" s="19" t="s">
-        <v>1390</v>
+        <v>1368</v>
       </c>
       <c r="K386" s="19">
         <v>-31</v>
@@ -34794,19 +34929,19 @@
         <v>0</v>
       </c>
       <c r="N386" s="19" t="s">
-        <v>1399</v>
+        <v>1377</v>
       </c>
       <c r="O386" s="19">
         <v>1800</v>
       </c>
       <c r="P386" s="19" t="s">
-        <v>1400</v>
+        <v>1378</v>
       </c>
       <c r="Q386" s="40" t="s">
-        <v>1409</v>
+        <v>1387</v>
       </c>
       <c r="V386" s="19" t="s">
-        <v>1419</v>
+        <v>1397</v>
       </c>
       <c r="W386" s="19">
         <v>9999999</v>
@@ -34844,13 +34979,13 @@
         <v>1</v>
       </c>
       <c r="G387" s="19" t="s">
-        <v>1384</v>
+        <v>1362</v>
       </c>
       <c r="H387" s="19" t="s">
-        <v>1387</v>
+        <v>1365</v>
       </c>
       <c r="I387" s="19" t="s">
-        <v>1391</v>
+        <v>1369</v>
       </c>
       <c r="K387" s="19">
         <v>-31</v>
@@ -34862,19 +34997,19 @@
         <v>0</v>
       </c>
       <c r="N387" s="19" t="s">
-        <v>1399</v>
+        <v>1377</v>
       </c>
       <c r="O387" s="19">
         <v>3000</v>
       </c>
       <c r="P387" s="19" t="s">
-        <v>1402</v>
+        <v>1380</v>
       </c>
       <c r="Q387" s="40" t="s">
-        <v>1410</v>
+        <v>1388</v>
       </c>
       <c r="V387" s="19" t="s">
-        <v>1419</v>
+        <v>1397</v>
       </c>
       <c r="W387" s="19">
         <v>9999999</v>
@@ -34912,13 +35047,13 @@
         <v>1</v>
       </c>
       <c r="G388" s="19" t="s">
-        <v>1385</v>
+        <v>1363</v>
       </c>
       <c r="H388" s="19" t="s">
-        <v>1387</v>
+        <v>1365</v>
       </c>
       <c r="I388" s="19" t="s">
-        <v>1392</v>
+        <v>1370</v>
       </c>
       <c r="K388" s="19">
         <v>-31</v>
@@ -34930,19 +35065,19 @@
         <v>0</v>
       </c>
       <c r="N388" s="19" t="s">
-        <v>1399</v>
+        <v>1377</v>
       </c>
       <c r="O388" s="19">
         <v>4800</v>
       </c>
       <c r="P388" s="19" t="s">
-        <v>1403</v>
+        <v>1381</v>
       </c>
       <c r="Q388" s="40" t="s">
-        <v>1411</v>
+        <v>1389</v>
       </c>
       <c r="V388" s="19" t="s">
-        <v>1419</v>
+        <v>1397</v>
       </c>
       <c r="W388" s="19">
         <v>9999999</v>
@@ -34980,13 +35115,13 @@
         <v>1</v>
       </c>
       <c r="G389" s="19" t="s">
-        <v>1383</v>
+        <v>1361</v>
       </c>
       <c r="H389" s="19" t="s">
-        <v>1388</v>
+        <v>1366</v>
       </c>
       <c r="I389" s="19" t="s">
-        <v>1393</v>
+        <v>1371</v>
       </c>
       <c r="K389" s="19">
         <v>-31</v>
@@ -34998,19 +35133,19 @@
         <v>0</v>
       </c>
       <c r="N389" s="19" t="s">
-        <v>1399</v>
+        <v>1377</v>
       </c>
       <c r="O389" s="19">
         <v>4800</v>
       </c>
       <c r="P389" s="19" t="s">
-        <v>1404</v>
+        <v>1382</v>
       </c>
       <c r="Q389" s="40" t="s">
-        <v>1412</v>
+        <v>1390</v>
       </c>
       <c r="V389" s="19" t="s">
-        <v>1419</v>
+        <v>1397</v>
       </c>
       <c r="W389" s="19">
         <v>9999999</v>
@@ -35048,13 +35183,13 @@
         <v>1</v>
       </c>
       <c r="G390" s="19" t="s">
-        <v>1384</v>
+        <v>1362</v>
       </c>
       <c r="H390" s="19" t="s">
-        <v>1388</v>
+        <v>1366</v>
       </c>
       <c r="I390" s="19" t="s">
-        <v>1394</v>
+        <v>1372</v>
       </c>
       <c r="K390" s="19">
         <v>-31</v>
@@ -35066,19 +35201,19 @@
         <v>0</v>
       </c>
       <c r="N390" s="19" t="s">
-        <v>1399</v>
+        <v>1377</v>
       </c>
       <c r="O390" s="19">
         <v>9800</v>
       </c>
       <c r="P390" s="19" t="s">
-        <v>1405</v>
+        <v>1383</v>
       </c>
       <c r="Q390" s="40" t="s">
-        <v>1413</v>
+        <v>1391</v>
       </c>
       <c r="V390" s="19" t="s">
-        <v>1419</v>
+        <v>1397</v>
       </c>
       <c r="W390" s="19">
         <v>9999999</v>
@@ -35116,13 +35251,13 @@
         <v>1</v>
       </c>
       <c r="G391" s="19" t="s">
-        <v>1385</v>
+        <v>1363</v>
       </c>
       <c r="H391" s="19" t="s">
-        <v>1388</v>
+        <v>1366</v>
       </c>
       <c r="I391" s="19" t="s">
-        <v>1395</v>
+        <v>1373</v>
       </c>
       <c r="K391" s="19">
         <v>-31</v>
@@ -35134,19 +35269,19 @@
         <v>0</v>
       </c>
       <c r="N391" s="19" t="s">
-        <v>1399</v>
+        <v>1377</v>
       </c>
       <c r="O391" s="19">
         <v>19800</v>
       </c>
       <c r="P391" s="19" t="s">
-        <v>1406</v>
+        <v>1384</v>
       </c>
       <c r="Q391" s="40" t="s">
-        <v>1414</v>
+        <v>1392</v>
       </c>
       <c r="V391" s="19" t="s">
-        <v>1419</v>
+        <v>1397</v>
       </c>
       <c r="W391" s="19">
         <v>9999999</v>
@@ -35184,13 +35319,13 @@
         <v>1</v>
       </c>
       <c r="G392" s="19" t="s">
-        <v>1383</v>
+        <v>1361</v>
       </c>
       <c r="H392" s="19" t="s">
-        <v>1389</v>
+        <v>1367</v>
       </c>
       <c r="I392" s="19" t="s">
-        <v>1396</v>
+        <v>1374</v>
       </c>
       <c r="K392" s="19">
         <v>-31</v>
@@ -35202,19 +35337,19 @@
         <v>0</v>
       </c>
       <c r="N392" s="19" t="s">
-        <v>1399</v>
+        <v>1377</v>
       </c>
       <c r="O392" s="19">
         <v>9800</v>
       </c>
       <c r="P392" s="19" t="s">
-        <v>1401</v>
+        <v>1379</v>
       </c>
       <c r="Q392" s="40" t="s">
-        <v>1415</v>
+        <v>1393</v>
       </c>
       <c r="V392" s="19" t="s">
-        <v>1419</v>
+        <v>1397</v>
       </c>
       <c r="W392" s="19">
         <v>9999999</v>
@@ -35252,13 +35387,13 @@
         <v>1</v>
       </c>
       <c r="G393" s="19" t="s">
-        <v>1384</v>
+        <v>1362</v>
       </c>
       <c r="H393" s="19" t="s">
-        <v>1389</v>
+        <v>1367</v>
       </c>
       <c r="I393" s="19" t="s">
-        <v>1397</v>
+        <v>1375</v>
       </c>
       <c r="K393" s="19">
         <v>-31</v>
@@ -35270,19 +35405,19 @@
         <v>0</v>
       </c>
       <c r="N393" s="19" t="s">
-        <v>1399</v>
+        <v>1377</v>
       </c>
       <c r="O393" s="19">
         <v>19800</v>
       </c>
       <c r="P393" s="19" t="s">
-        <v>1407</v>
+        <v>1385</v>
       </c>
       <c r="Q393" s="40" t="s">
-        <v>1417</v>
+        <v>1395</v>
       </c>
       <c r="V393" s="19" t="s">
-        <v>1419</v>
+        <v>1397</v>
       </c>
       <c r="W393" s="19">
         <v>9999999</v>
@@ -35320,13 +35455,13 @@
         <v>1</v>
       </c>
       <c r="G394" s="19" t="s">
-        <v>1385</v>
+        <v>1363</v>
       </c>
       <c r="H394" s="19" t="s">
-        <v>1389</v>
+        <v>1367</v>
       </c>
       <c r="I394" s="19" t="s">
-        <v>1398</v>
+        <v>1376</v>
       </c>
       <c r="K394" s="19">
         <v>-31</v>
@@ -35338,19 +35473,19 @@
         <v>0</v>
       </c>
       <c r="N394" s="19" t="s">
-        <v>1399</v>
+        <v>1377</v>
       </c>
       <c r="O394" s="19">
         <v>49800</v>
       </c>
       <c r="P394" s="19" t="s">
-        <v>1408</v>
+        <v>1386</v>
       </c>
       <c r="Q394" s="40" t="s">
-        <v>1416</v>
+        <v>1394</v>
       </c>
       <c r="V394" s="19" t="s">
-        <v>1419</v>
+        <v>1397</v>
       </c>
       <c r="W394" s="19">
         <v>9999999</v>
@@ -35388,10 +35523,10 @@
         <v>1</v>
       </c>
       <c r="G395" s="52" t="s">
-        <v>1423</v>
+        <v>1401</v>
       </c>
       <c r="I395" s="52" t="s">
-        <v>1427</v>
+        <v>1405</v>
       </c>
       <c r="K395" s="52">
         <v>-31</v>
@@ -35409,10 +35544,10 @@
         <v>600</v>
       </c>
       <c r="P395" s="52" t="s">
-        <v>1441</v>
+        <v>1419</v>
       </c>
       <c r="Q395" s="53" t="s">
-        <v>1435</v>
+        <v>1413</v>
       </c>
       <c r="V395" s="52" t="s">
         <v>553</v>
@@ -35450,10 +35585,10 @@
         <v>1</v>
       </c>
       <c r="G396" s="52" t="s">
-        <v>1424</v>
+        <v>1402</v>
       </c>
       <c r="I396" s="52" t="s">
-        <v>1428</v>
+        <v>1406</v>
       </c>
       <c r="K396" s="52">
         <v>-31</v>
@@ -35471,10 +35606,10 @@
         <v>2000</v>
       </c>
       <c r="P396" s="52" t="s">
-        <v>1434</v>
+        <v>1412</v>
       </c>
       <c r="Q396" s="53" t="s">
-        <v>1440</v>
+        <v>1418</v>
       </c>
       <c r="V396" s="52" t="s">
         <v>553</v>
@@ -35515,7 +35650,7 @@
         <v>301</v>
       </c>
       <c r="I397" s="52" t="s">
-        <v>1429</v>
+        <v>1407</v>
       </c>
       <c r="K397" s="52">
         <v>-31</v>
@@ -35533,10 +35668,10 @@
         <v>4800</v>
       </c>
       <c r="P397" s="52" t="s">
-        <v>1434</v>
+        <v>1412</v>
       </c>
       <c r="Q397" s="53" t="s">
-        <v>1439</v>
+        <v>1417</v>
       </c>
       <c r="V397" s="52" t="s">
         <v>553</v>
@@ -35577,7 +35712,7 @@
         <v>304</v>
       </c>
       <c r="I398" s="52" t="s">
-        <v>1430</v>
+        <v>1408</v>
       </c>
       <c r="K398" s="52">
         <v>-31</v>
@@ -35595,10 +35730,10 @@
         <v>9800</v>
       </c>
       <c r="P398" s="52" t="s">
-        <v>1434</v>
+        <v>1412</v>
       </c>
       <c r="Q398" s="53" t="s">
-        <v>1438</v>
+        <v>1416</v>
       </c>
       <c r="V398" s="52" t="s">
         <v>553</v>
@@ -35636,10 +35771,10 @@
         <v>1</v>
       </c>
       <c r="G399" s="52" t="s">
-        <v>1425</v>
+        <v>1403</v>
       </c>
       <c r="I399" s="52" t="s">
-        <v>1431</v>
+        <v>1409</v>
       </c>
       <c r="K399" s="52">
         <v>-31</v>
@@ -35657,10 +35792,10 @@
         <v>19800</v>
       </c>
       <c r="P399" s="52" t="s">
-        <v>1434</v>
+        <v>1412</v>
       </c>
       <c r="Q399" s="53" t="s">
-        <v>1437</v>
+        <v>1415</v>
       </c>
       <c r="V399" s="52" t="s">
         <v>553</v>
@@ -35698,10 +35833,10 @@
         <v>1</v>
       </c>
       <c r="G400" s="52" t="s">
-        <v>1426</v>
+        <v>1404</v>
       </c>
       <c r="I400" s="52" t="s">
-        <v>1432</v>
+        <v>1410</v>
       </c>
       <c r="K400" s="52">
         <v>-31</v>
@@ -35719,10 +35854,10 @@
         <v>49800</v>
       </c>
       <c r="P400" s="52" t="s">
-        <v>1434</v>
+        <v>1412</v>
       </c>
       <c r="Q400" s="53" t="s">
-        <v>1436</v>
+        <v>1414</v>
       </c>
       <c r="V400" s="52" t="s">
         <v>553</v>
@@ -35760,10 +35895,10 @@
         <v>1</v>
       </c>
       <c r="G401" s="54" t="s">
-        <v>1443</v>
+        <v>1421</v>
       </c>
       <c r="I401" s="54" t="s">
-        <v>1458</v>
+        <v>1436</v>
       </c>
       <c r="K401" s="54">
         <v>-31</v>
@@ -35775,19 +35910,19 @@
         <v>0</v>
       </c>
       <c r="N401" s="54" t="s">
-        <v>1444</v>
+        <v>1422</v>
       </c>
       <c r="O401" s="54">
         <v>1800</v>
       </c>
       <c r="P401" s="54" t="s">
-        <v>1445</v>
+        <v>1423</v>
       </c>
       <c r="Q401" s="54" t="s">
-        <v>1470</v>
+        <v>1448</v>
       </c>
       <c r="V401" s="54" t="s">
-        <v>1446</v>
+        <v>1424</v>
       </c>
       <c r="W401" s="54">
         <v>99999999</v>
@@ -35825,10 +35960,10 @@
         <v>1</v>
       </c>
       <c r="G402" s="54" t="s">
-        <v>1447</v>
+        <v>1425</v>
       </c>
       <c r="I402" s="54" t="s">
-        <v>1459</v>
+        <v>1437</v>
       </c>
       <c r="K402" s="54">
         <v>-31</v>
@@ -35840,19 +35975,19 @@
         <v>0</v>
       </c>
       <c r="N402" s="54" t="s">
-        <v>1444</v>
+        <v>1422</v>
       </c>
       <c r="O402" s="54">
         <v>4800</v>
       </c>
       <c r="P402" s="54" t="s">
-        <v>1445</v>
+        <v>1423</v>
       </c>
       <c r="Q402" s="54" t="s">
-        <v>1466</v>
+        <v>1444</v>
       </c>
       <c r="V402" s="54" t="s">
-        <v>1446</v>
+        <v>1424</v>
       </c>
       <c r="W402" s="54">
         <v>99999999</v>
@@ -35890,10 +36025,10 @@
         <v>1</v>
       </c>
       <c r="G403" s="54" t="s">
-        <v>1448</v>
+        <v>1426</v>
       </c>
       <c r="I403" s="54" t="s">
-        <v>1460</v>
+        <v>1438</v>
       </c>
       <c r="K403" s="54">
         <v>-31</v>
@@ -35905,19 +36040,19 @@
         <v>0</v>
       </c>
       <c r="N403" s="54" t="s">
-        <v>1449</v>
+        <v>1427</v>
       </c>
       <c r="O403" s="54">
         <v>9800</v>
       </c>
       <c r="P403" s="54" t="s">
-        <v>1450</v>
+        <v>1428</v>
       </c>
       <c r="Q403" s="54" t="s">
-        <v>1471</v>
+        <v>1449</v>
       </c>
       <c r="V403" s="54" t="s">
-        <v>1446</v>
+        <v>1424</v>
       </c>
       <c r="W403" s="54">
         <v>99999999</v>
@@ -35955,10 +36090,10 @@
         <v>1</v>
       </c>
       <c r="G404" s="54" t="s">
-        <v>1451</v>
+        <v>1429</v>
       </c>
       <c r="I404" s="54" t="s">
-        <v>1461</v>
+        <v>1439</v>
       </c>
       <c r="K404" s="54">
         <v>-31</v>
@@ -35970,19 +36105,19 @@
         <v>0</v>
       </c>
       <c r="N404" s="54" t="s">
-        <v>1444</v>
+        <v>1422</v>
       </c>
       <c r="O404" s="54">
         <v>19800</v>
       </c>
       <c r="P404" s="54" t="s">
-        <v>1452</v>
+        <v>1430</v>
       </c>
       <c r="Q404" s="54" t="s">
-        <v>1465</v>
+        <v>1443</v>
       </c>
       <c r="V404" s="54" t="s">
-        <v>1446</v>
+        <v>1424</v>
       </c>
       <c r="W404" s="54">
         <v>99999999</v>
@@ -36020,10 +36155,10 @@
         <v>1</v>
       </c>
       <c r="G405" s="54" t="s">
-        <v>1453</v>
+        <v>1431</v>
       </c>
       <c r="I405" s="54" t="s">
-        <v>1462</v>
+        <v>1440</v>
       </c>
       <c r="K405" s="54">
         <v>-31</v>
@@ -36035,19 +36170,19 @@
         <v>0</v>
       </c>
       <c r="N405" s="54" t="s">
-        <v>1449</v>
+        <v>1427</v>
       </c>
       <c r="O405" s="54">
         <v>29800</v>
       </c>
       <c r="P405" s="54" t="s">
-        <v>1452</v>
+        <v>1430</v>
       </c>
       <c r="Q405" s="54" t="s">
-        <v>1472</v>
+        <v>1450</v>
       </c>
       <c r="V405" s="54" t="s">
-        <v>1446</v>
+        <v>1424</v>
       </c>
       <c r="W405" s="54">
         <v>99999999</v>
@@ -36085,10 +36220,10 @@
         <v>1</v>
       </c>
       <c r="G406" s="54" t="s">
-        <v>1454</v>
+        <v>1432</v>
       </c>
       <c r="I406" s="54" t="s">
-        <v>1463</v>
+        <v>1441</v>
       </c>
       <c r="K406" s="54">
         <v>-31</v>
@@ -36100,19 +36235,19 @@
         <v>0</v>
       </c>
       <c r="N406" s="54" t="s">
-        <v>1449</v>
+        <v>1427</v>
       </c>
       <c r="O406" s="54">
         <v>49800</v>
       </c>
       <c r="P406" s="54" t="s">
-        <v>1455</v>
+        <v>1433</v>
       </c>
       <c r="Q406" s="54" t="s">
-        <v>1467</v>
+        <v>1445</v>
       </c>
       <c r="V406" s="54" t="s">
-        <v>1446</v>
+        <v>1424</v>
       </c>
       <c r="W406" s="54">
         <v>99999999</v>
@@ -36150,10 +36285,10 @@
         <v>1</v>
       </c>
       <c r="G407" s="54" t="s">
-        <v>1456</v>
+        <v>1434</v>
       </c>
       <c r="I407" s="54" t="s">
-        <v>1464</v>
+        <v>1442</v>
       </c>
       <c r="K407" s="54">
         <v>-31</v>
@@ -36165,19 +36300,19 @@
         <v>0</v>
       </c>
       <c r="N407" s="54" t="s">
-        <v>1449</v>
+        <v>1427</v>
       </c>
       <c r="O407" s="54">
         <v>99800</v>
       </c>
       <c r="P407" s="54" t="s">
-        <v>1457</v>
+        <v>1435</v>
       </c>
       <c r="Q407" s="54" t="s">
-        <v>1468</v>
+        <v>1446</v>
       </c>
       <c r="V407" s="54" t="s">
-        <v>1446</v>
+        <v>1424</v>
       </c>
       <c r="W407" s="54">
         <v>99999999</v>
@@ -36215,10 +36350,10 @@
         <v>1</v>
       </c>
       <c r="G408" s="61" t="s">
-        <v>1479</v>
+        <v>1457</v>
       </c>
       <c r="I408" s="61" t="s">
-        <v>1485</v>
+        <v>1463</v>
       </c>
       <c r="K408" s="61">
         <v>-31</v>
@@ -36236,13 +36371,13 @@
         <v>600</v>
       </c>
       <c r="P408" s="61" t="s">
-        <v>1491</v>
+        <v>1469</v>
       </c>
       <c r="Q408" s="62" t="s">
-        <v>1492</v>
+        <v>1470</v>
       </c>
       <c r="V408" s="61" t="s">
-        <v>1498</v>
+        <v>1476</v>
       </c>
       <c r="W408" s="61">
         <v>99999999</v>
@@ -36280,10 +36415,10 @@
         <v>1</v>
       </c>
       <c r="G409" s="61" t="s">
-        <v>1480</v>
+        <v>1458</v>
       </c>
       <c r="I409" s="61" t="s">
-        <v>1486</v>
+        <v>1464</v>
       </c>
       <c r="K409" s="61">
         <v>-31</v>
@@ -36301,13 +36436,13 @@
         <v>2000</v>
       </c>
       <c r="P409" s="61" t="s">
-        <v>1491</v>
+        <v>1469</v>
       </c>
       <c r="Q409" s="62" t="s">
-        <v>1493</v>
+        <v>1471</v>
       </c>
       <c r="V409" s="61" t="s">
-        <v>1499</v>
+        <v>1477</v>
       </c>
       <c r="W409" s="61">
         <v>99999999</v>
@@ -36345,10 +36480,10 @@
         <v>1</v>
       </c>
       <c r="G410" s="61" t="s">
-        <v>1481</v>
+        <v>1459</v>
       </c>
       <c r="I410" s="61" t="s">
-        <v>1487</v>
+        <v>1465</v>
       </c>
       <c r="K410" s="61">
         <v>-31</v>
@@ -36366,13 +36501,13 @@
         <v>4800</v>
       </c>
       <c r="P410" s="61" t="s">
-        <v>1491</v>
+        <v>1469</v>
       </c>
       <c r="Q410" s="62" t="s">
-        <v>1494</v>
+        <v>1472</v>
       </c>
       <c r="V410" s="61" t="s">
-        <v>1499</v>
+        <v>1477</v>
       </c>
       <c r="W410" s="61">
         <v>99999999</v>
@@ -36410,10 +36545,10 @@
         <v>1</v>
       </c>
       <c r="G411" s="61" t="s">
-        <v>1482</v>
+        <v>1460</v>
       </c>
       <c r="I411" s="61" t="s">
-        <v>1488</v>
+        <v>1466</v>
       </c>
       <c r="K411" s="61">
         <v>-31</v>
@@ -36431,13 +36566,13 @@
         <v>9800</v>
       </c>
       <c r="P411" s="61" t="s">
-        <v>1491</v>
+        <v>1469</v>
       </c>
       <c r="Q411" s="62" t="s">
-        <v>1495</v>
+        <v>1473</v>
       </c>
       <c r="V411" s="61" t="s">
-        <v>1500</v>
+        <v>1478</v>
       </c>
       <c r="W411" s="61">
         <v>99999999</v>
@@ -36475,10 +36610,10 @@
         <v>1</v>
       </c>
       <c r="G412" s="61" t="s">
-        <v>1483</v>
+        <v>1461</v>
       </c>
       <c r="I412" s="61" t="s">
-        <v>1490</v>
+        <v>1468</v>
       </c>
       <c r="K412" s="61">
         <v>-31</v>
@@ -36496,13 +36631,13 @@
         <v>19800</v>
       </c>
       <c r="P412" s="61" t="s">
-        <v>1491</v>
+        <v>1469</v>
       </c>
       <c r="Q412" s="62" t="s">
-        <v>1496</v>
+        <v>1474</v>
       </c>
       <c r="V412" s="61" t="s">
-        <v>1501</v>
+        <v>1479</v>
       </c>
       <c r="W412" s="61">
         <v>99999999</v>
@@ -36540,10 +36675,10 @@
         <v>1</v>
       </c>
       <c r="G413" s="61" t="s">
-        <v>1484</v>
+        <v>1462</v>
       </c>
       <c r="I413" s="61" t="s">
-        <v>1489</v>
+        <v>1467</v>
       </c>
       <c r="K413" s="61">
         <v>-31</v>
@@ -36561,13 +36696,13 @@
         <v>49800</v>
       </c>
       <c r="P413" s="61" t="s">
-        <v>1491</v>
+        <v>1469</v>
       </c>
       <c r="Q413" s="62" t="s">
-        <v>1497</v>
+        <v>1475</v>
       </c>
       <c r="V413" s="61" t="s">
-        <v>1499</v>
+        <v>1477</v>
       </c>
       <c r="W413" s="61">
         <v>99999999</v>
@@ -36594,59 +36729,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A414" s="5">
+    <row r="414" spans="1:38" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A414" s="82">
         <v>413</v>
       </c>
-      <c r="B414" s="5">
+      <c r="B414" s="82">
         <v>10330</v>
       </c>
-      <c r="D414" s="5">
-        <v>1</v>
-      </c>
-      <c r="F414" s="5">
-        <v>1</v>
-      </c>
-      <c r="G414" s="5" t="s">
-        <v>1507</v>
-      </c>
-      <c r="K414" s="5">
+      <c r="D414" s="82">
+        <v>1</v>
+      </c>
+      <c r="F414" s="82">
+        <v>0</v>
+      </c>
+      <c r="G414" s="82" t="s">
+        <v>1485</v>
+      </c>
+      <c r="K414" s="82">
         <v>-4</v>
       </c>
-      <c r="L414" s="5">
-        <v>0</v>
-      </c>
-      <c r="M414" s="5">
-        <v>0</v>
-      </c>
-      <c r="N414" s="5" t="s">
+      <c r="L414" s="82">
+        <v>0</v>
+      </c>
+      <c r="M414" s="82">
+        <v>0</v>
+      </c>
+      <c r="N414" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="O414" s="5">
+      <c r="O414" s="82">
         <v>600</v>
       </c>
-      <c r="P414" s="5" t="s">
+      <c r="P414" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="Q414" s="10" t="s">
-        <v>1508</v>
-      </c>
-      <c r="V414" s="5" t="s">
+      <c r="Q414" s="83" t="s">
+        <v>1486</v>
+      </c>
+      <c r="V414" s="82" t="s">
         <v>550</v>
       </c>
-      <c r="W414" s="14" t="s">
+      <c r="W414" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="X414" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y414" s="5">
+      <c r="X414" s="85">
+        <v>0</v>
+      </c>
+      <c r="Y414" s="82">
         <v>2552233600</v>
       </c>
-      <c r="AG414" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH414" s="5">
+      <c r="AG414" s="82">
+        <v>1</v>
+      </c>
+      <c r="AH414" s="82">
         <v>1</v>
       </c>
     </row>
@@ -36661,13 +36796,13 @@
         <v>1</v>
       </c>
       <c r="G415" s="6" t="s">
-        <v>1524</v>
+        <v>1502</v>
       </c>
       <c r="H415" s="6" t="s">
-        <v>1525</v>
+        <v>1503</v>
       </c>
       <c r="I415" s="6" t="s">
-        <v>1534</v>
+        <v>1512</v>
       </c>
       <c r="K415" s="6">
         <v>-31</v>
@@ -36685,13 +36820,13 @@
         <v>600</v>
       </c>
       <c r="P415" s="5" t="s">
-        <v>1535</v>
+        <v>1513</v>
       </c>
       <c r="Q415" s="49" t="s">
-        <v>1536</v>
+        <v>1514</v>
       </c>
       <c r="V415" s="6" t="s">
-        <v>1537</v>
+        <v>1515</v>
       </c>
       <c r="W415" s="14" t="s">
         <v>121</v>
@@ -36729,13 +36864,13 @@
         <v>1</v>
       </c>
       <c r="G416" s="6" t="s">
-        <v>1538</v>
+        <v>1516</v>
       </c>
       <c r="H416" s="6" t="s">
-        <v>1539</v>
+        <v>1517</v>
       </c>
       <c r="I416" s="6" t="s">
-        <v>1526</v>
+        <v>1504</v>
       </c>
       <c r="K416" s="6">
         <v>-31</v>
@@ -36753,13 +36888,13 @@
         <v>1800</v>
       </c>
       <c r="P416" s="5" t="s">
-        <v>1540</v>
+        <v>1518</v>
       </c>
       <c r="Q416" s="49" t="s">
-        <v>1527</v>
+        <v>1505</v>
       </c>
       <c r="V416" s="6" t="s">
-        <v>1537</v>
+        <v>1515</v>
       </c>
       <c r="W416" s="14" t="s">
         <v>121</v>
@@ -36793,17 +36928,19 @@
       <c r="B417" s="5">
         <v>10333</v>
       </c>
+      <c r="D417" s="91"/>
+      <c r="E417" s="90"/>
       <c r="F417" s="5">
         <v>1</v>
       </c>
       <c r="G417" s="6" t="s">
-        <v>1541</v>
+        <v>1519</v>
       </c>
       <c r="H417" s="6" t="s">
-        <v>1539</v>
+        <v>1517</v>
       </c>
       <c r="I417" s="6" t="s">
-        <v>1534</v>
+        <v>1512</v>
       </c>
       <c r="K417" s="6">
         <v>-31</v>
@@ -36821,13 +36958,13 @@
         <v>4800</v>
       </c>
       <c r="P417" s="5" t="s">
-        <v>1269</v>
+        <v>1247</v>
       </c>
       <c r="Q417" s="49" t="s">
-        <v>1527</v>
+        <v>1505</v>
       </c>
       <c r="V417" s="6" t="s">
-        <v>1276</v>
+        <v>1254</v>
       </c>
       <c r="W417" s="14" t="s">
         <v>121</v>
@@ -36861,17 +36998,19 @@
       <c r="B418" s="5">
         <v>10334</v>
       </c>
+      <c r="D418" s="91"/>
+      <c r="E418" s="90"/>
       <c r="F418" s="5">
         <v>1</v>
       </c>
       <c r="G418" s="6" t="s">
-        <v>1542</v>
+        <v>1520</v>
       </c>
       <c r="H418" s="6" t="s">
-        <v>1529</v>
+        <v>1507</v>
       </c>
       <c r="I418" s="6" t="s">
-        <v>1534</v>
+        <v>1512</v>
       </c>
       <c r="K418" s="6">
         <v>-31</v>
@@ -36889,13 +37028,13 @@
         <v>9800</v>
       </c>
       <c r="P418" s="5" t="s">
-        <v>1270</v>
+        <v>1248</v>
       </c>
       <c r="Q418" s="49" t="s">
-        <v>1536</v>
+        <v>1514</v>
       </c>
       <c r="V418" s="6" t="s">
-        <v>1276</v>
+        <v>1254</v>
       </c>
       <c r="W418" s="14" t="s">
         <v>121</v>
@@ -36933,13 +37072,13 @@
         <v>1</v>
       </c>
       <c r="G419" s="6" t="s">
-        <v>1538</v>
+        <v>1516</v>
       </c>
       <c r="H419" s="6" t="s">
-        <v>1543</v>
+        <v>1521</v>
       </c>
       <c r="I419" s="6" t="s">
-        <v>1526</v>
+        <v>1504</v>
       </c>
       <c r="K419" s="6">
         <v>-31</v>
@@ -36957,13 +37096,13 @@
         <v>19800</v>
       </c>
       <c r="P419" s="5" t="s">
-        <v>1271</v>
+        <v>1249</v>
       </c>
       <c r="Q419" s="49" t="s">
-        <v>1536</v>
+        <v>1514</v>
       </c>
       <c r="V419" s="6" t="s">
-        <v>1276</v>
+        <v>1254</v>
       </c>
       <c r="W419" s="14" t="s">
         <v>121</v>
@@ -37001,13 +37140,13 @@
         <v>1</v>
       </c>
       <c r="G420" s="6" t="s">
-        <v>1528</v>
+        <v>1506</v>
       </c>
       <c r="H420" s="6" t="s">
-        <v>1529</v>
+        <v>1507</v>
       </c>
       <c r="I420" s="6" t="s">
-        <v>1534</v>
+        <v>1512</v>
       </c>
       <c r="K420" s="6">
         <v>-31</v>
@@ -37025,13 +37164,13 @@
         <v>49800</v>
       </c>
       <c r="P420" s="5" t="s">
-        <v>1272</v>
+        <v>1250</v>
       </c>
       <c r="Q420" s="49" t="s">
-        <v>1536</v>
+        <v>1514</v>
       </c>
       <c r="V420" s="6" t="s">
-        <v>1276</v>
+        <v>1254</v>
       </c>
       <c r="W420" s="14" t="s">
         <v>121</v>
@@ -37069,10 +37208,10 @@
         <v>1</v>
       </c>
       <c r="G421" s="19" t="s">
-        <v>1544</v>
+        <v>1522</v>
       </c>
       <c r="I421" s="19" t="s">
-        <v>1545</v>
+        <v>1523</v>
       </c>
       <c r="K421" s="19">
         <v>-31</v>
@@ -37084,19 +37223,19 @@
         <v>0</v>
       </c>
       <c r="N421" s="19" t="s">
-        <v>1546</v>
+        <v>1524</v>
       </c>
       <c r="O421" s="19">
         <v>1000</v>
       </c>
       <c r="P421" s="19" t="s">
-        <v>1547</v>
+        <v>1525</v>
       </c>
       <c r="Q421" s="40" t="s">
-        <v>1548</v>
+        <v>1526</v>
       </c>
       <c r="V421" s="19" t="s">
-        <v>1530</v>
+        <v>1508</v>
       </c>
       <c r="W421" s="19">
         <v>9999999</v>
@@ -37108,10 +37247,10 @@
         <v>2552233600</v>
       </c>
       <c r="AA421" s="19" t="s">
-        <v>1549</v>
+        <v>1527</v>
       </c>
       <c r="AB421" s="19" t="s">
-        <v>1550</v>
+        <v>1528</v>
       </c>
       <c r="AG421" s="19">
         <v>1</v>
@@ -37137,13 +37276,13 @@
         <v>1</v>
       </c>
       <c r="G422" s="67" t="s">
-        <v>1551</v>
+        <v>1529</v>
       </c>
       <c r="H422" s="67" t="s">
-        <v>1552</v>
+        <v>1530</v>
       </c>
       <c r="I422" s="67" t="s">
-        <v>1553</v>
+        <v>1531</v>
       </c>
       <c r="K422" s="67">
         <v>-31</v>
@@ -37161,13 +37300,13 @@
         <v>2000</v>
       </c>
       <c r="P422" s="67" t="s">
-        <v>1554</v>
+        <v>1532</v>
       </c>
       <c r="Q422" s="68" t="s">
-        <v>1555</v>
+        <v>1533</v>
       </c>
       <c r="V422" s="67" t="s">
-        <v>1530</v>
+        <v>1508</v>
       </c>
       <c r="W422" s="67">
         <v>99999999</v>
@@ -37205,13 +37344,13 @@
         <v>1</v>
       </c>
       <c r="G423" s="67" t="s">
-        <v>1556</v>
+        <v>1534</v>
       </c>
       <c r="H423" s="67" t="s">
-        <v>1552</v>
+        <v>1530</v>
       </c>
       <c r="I423" s="67" t="s">
-        <v>1557</v>
+        <v>1535</v>
       </c>
       <c r="K423" s="67">
         <v>-31</v>
@@ -37229,13 +37368,13 @@
         <v>5800</v>
       </c>
       <c r="P423" s="67" t="s">
-        <v>1558</v>
+        <v>1536</v>
       </c>
       <c r="Q423" s="68" t="s">
-        <v>1559</v>
+        <v>1537</v>
       </c>
       <c r="V423" s="67" t="s">
-        <v>1560</v>
+        <v>1538</v>
       </c>
       <c r="W423" s="67">
         <v>99999999</v>
@@ -37273,13 +37412,13 @@
         <v>1</v>
       </c>
       <c r="G424" s="67" t="s">
-        <v>1561</v>
+        <v>1539</v>
       </c>
       <c r="H424" s="67" t="s">
-        <v>1552</v>
+        <v>1530</v>
       </c>
       <c r="I424" s="67" t="s">
-        <v>1562</v>
+        <v>1540</v>
       </c>
       <c r="K424" s="67">
         <v>-31</v>
@@ -37297,13 +37436,13 @@
         <v>12800</v>
       </c>
       <c r="P424" s="67" t="s">
-        <v>1563</v>
+        <v>1541</v>
       </c>
       <c r="Q424" s="68" t="s">
-        <v>1564</v>
+        <v>1542</v>
       </c>
       <c r="V424" s="67" t="s">
-        <v>1560</v>
+        <v>1538</v>
       </c>
       <c r="W424" s="67">
         <v>99999999</v>
@@ -37341,10 +37480,10 @@
         <v>1</v>
       </c>
       <c r="G425" s="6" t="s">
-        <v>1565</v>
+        <v>1543</v>
       </c>
       <c r="I425" s="6" t="s">
-        <v>1566</v>
+        <v>1544</v>
       </c>
       <c r="K425" s="6">
         <v>-31</v>
@@ -37362,13 +37501,13 @@
         <v>49800</v>
       </c>
       <c r="P425" s="6" t="s">
-        <v>1531</v>
+        <v>1509</v>
       </c>
       <c r="Q425" s="49" t="s">
-        <v>1567</v>
+        <v>1545</v>
       </c>
       <c r="V425" s="6" t="s">
-        <v>1560</v>
+        <v>1538</v>
       </c>
       <c r="W425" s="6">
         <v>9999999</v>
@@ -37397,10 +37536,10 @@
         <v>1</v>
       </c>
       <c r="G426" s="6" t="s">
-        <v>1568</v>
+        <v>1546</v>
       </c>
       <c r="I426" s="6" t="s">
-        <v>1569</v>
+        <v>1547</v>
       </c>
       <c r="K426" s="6">
         <v>-31</v>
@@ -37418,13 +37557,13 @@
         <v>19800</v>
       </c>
       <c r="P426" s="6" t="s">
-        <v>1570</v>
+        <v>1548</v>
       </c>
       <c r="Q426" s="49" t="s">
-        <v>1532</v>
+        <v>1510</v>
       </c>
       <c r="V426" s="6" t="s">
-        <v>1560</v>
+        <v>1538</v>
       </c>
       <c r="W426" s="6">
         <v>9999999</v>
@@ -37453,10 +37592,10 @@
         <v>1</v>
       </c>
       <c r="G427" s="6" t="s">
-        <v>1571</v>
+        <v>1549</v>
       </c>
       <c r="I427" s="6" t="s">
-        <v>1572</v>
+        <v>1550</v>
       </c>
       <c r="K427" s="6">
         <v>-31</v>
@@ -37474,13 +37613,13 @@
         <v>9800</v>
       </c>
       <c r="P427" s="6" t="s">
-        <v>1573</v>
+        <v>1551</v>
       </c>
       <c r="Q427" s="49" t="s">
-        <v>1567</v>
+        <v>1545</v>
       </c>
       <c r="V427" s="6" t="s">
-        <v>1560</v>
+        <v>1538</v>
       </c>
       <c r="W427" s="6">
         <v>9999999</v>
@@ -37509,10 +37648,10 @@
         <v>1</v>
       </c>
       <c r="G428" s="6" t="s">
-        <v>1574</v>
+        <v>1552</v>
       </c>
       <c r="I428" s="6" t="s">
-        <v>1575</v>
+        <v>1553</v>
       </c>
       <c r="K428" s="6">
         <v>-31</v>
@@ -37530,13 +37669,13 @@
         <v>9800</v>
       </c>
       <c r="P428" s="6" t="s">
-        <v>1576</v>
+        <v>1554</v>
       </c>
       <c r="Q428" s="49" t="s">
-        <v>1532</v>
+        <v>1510</v>
       </c>
       <c r="V428" s="6" t="s">
-        <v>1560</v>
+        <v>1538</v>
       </c>
       <c r="W428" s="6">
         <v>9999999</v>
@@ -37565,10 +37704,10 @@
         <v>1</v>
       </c>
       <c r="G429" s="6" t="s">
-        <v>1577</v>
+        <v>1555</v>
       </c>
       <c r="I429" s="6" t="s">
-        <v>1578</v>
+        <v>1556</v>
       </c>
       <c r="K429" s="6">
         <v>-31</v>
@@ -37586,13 +37725,13 @@
         <v>4800</v>
       </c>
       <c r="P429" s="6" t="s">
-        <v>1579</v>
+        <v>1557</v>
       </c>
       <c r="Q429" s="49" t="s">
-        <v>1532</v>
+        <v>1510</v>
       </c>
       <c r="V429" s="6" t="s">
-        <v>1560</v>
+        <v>1538</v>
       </c>
       <c r="W429" s="6">
         <v>9999999</v>
@@ -37621,13 +37760,13 @@
         <v>1</v>
       </c>
       <c r="G430" s="19" t="s">
-        <v>1580</v>
+        <v>1558</v>
       </c>
       <c r="H430" s="19" t="s">
-        <v>1581</v>
+        <v>1559</v>
       </c>
       <c r="I430" s="19" t="s">
-        <v>1519</v>
+        <v>1497</v>
       </c>
       <c r="K430" s="19">
         <v>-28</v>
@@ -37645,13 +37784,13 @@
         <v>100</v>
       </c>
       <c r="P430" s="19" t="s">
-        <v>1520</v>
+        <v>1498</v>
       </c>
       <c r="Q430" s="40" t="s">
-        <v>1582</v>
+        <v>1560</v>
       </c>
       <c r="V430" s="19" t="s">
-        <v>1583</v>
+        <v>1561</v>
       </c>
       <c r="W430" s="19">
         <v>9999999</v>
@@ -37689,13 +37828,13 @@
         <v>1</v>
       </c>
       <c r="G431" s="19" t="s">
-        <v>1580</v>
+        <v>1558</v>
       </c>
       <c r="H431" s="19" t="s">
-        <v>1584</v>
+        <v>1562</v>
       </c>
       <c r="I431" s="19" t="s">
-        <v>1521</v>
+        <v>1499</v>
       </c>
       <c r="K431" s="19">
         <v>-28</v>
@@ -37713,10 +37852,10 @@
         <v>300</v>
       </c>
       <c r="P431" s="19" t="s">
-        <v>1520</v>
+        <v>1498</v>
       </c>
       <c r="Q431" s="40" t="s">
-        <v>1585</v>
+        <v>1563</v>
       </c>
       <c r="V431" s="19" t="s">
         <v>553</v>
@@ -37757,13 +37896,13 @@
         <v>1</v>
       </c>
       <c r="G432" s="19" t="s">
-        <v>1580</v>
+        <v>1558</v>
       </c>
       <c r="H432" s="19" t="s">
-        <v>1586</v>
+        <v>1564</v>
       </c>
       <c r="I432" s="19" t="s">
-        <v>1522</v>
+        <v>1500</v>
       </c>
       <c r="K432" s="19">
         <v>-28</v>
@@ -37781,7 +37920,7 @@
         <v>600</v>
       </c>
       <c r="P432" s="19" t="s">
-        <v>1520</v>
+        <v>1498</v>
       </c>
       <c r="Q432" s="40" t="s">
         <v>773</v>
@@ -37825,13 +37964,13 @@
         <v>1</v>
       </c>
       <c r="G433" s="19" t="s">
-        <v>1580</v>
+        <v>1558</v>
       </c>
       <c r="H433" s="19" t="s">
-        <v>1533</v>
+        <v>1511</v>
       </c>
       <c r="I433" s="19" t="s">
-        <v>1523</v>
+        <v>1501</v>
       </c>
       <c r="K433" s="19">
         <v>-28</v>
@@ -37849,10 +37988,10 @@
         <v>600</v>
       </c>
       <c r="P433" s="19" t="s">
-        <v>1520</v>
+        <v>1498</v>
       </c>
       <c r="Q433" s="40" t="s">
-        <v>1587</v>
+        <v>1565</v>
       </c>
       <c r="V433" s="19" t="s">
         <v>553</v>
@@ -37893,13 +38032,13 @@
         <v>0</v>
       </c>
       <c r="G434" s="5" t="s">
-        <v>1588</v>
+        <v>1566</v>
       </c>
       <c r="H434" s="5" t="s">
-        <v>1589</v>
+        <v>1567</v>
       </c>
       <c r="I434" s="5" t="s">
-        <v>1590</v>
+        <v>1568</v>
       </c>
       <c r="K434" s="5">
         <v>-31</v>
@@ -37917,10 +38056,10 @@
         <v>1800</v>
       </c>
       <c r="P434" s="5" t="s">
-        <v>1591</v>
+        <v>1569</v>
       </c>
       <c r="Q434" s="10" t="s">
-        <v>1470</v>
+        <v>1448</v>
       </c>
       <c r="V434" s="5" t="s">
         <v>553</v>
@@ -37958,13 +38097,13 @@
         <v>0</v>
       </c>
       <c r="G435" s="5" t="s">
-        <v>1592</v>
+        <v>1570</v>
       </c>
       <c r="H435" s="5" t="s">
-        <v>1589</v>
+        <v>1567</v>
       </c>
       <c r="I435" s="5" t="s">
-        <v>1593</v>
+        <v>1571</v>
       </c>
       <c r="K435" s="5">
         <v>-31</v>
@@ -37982,10 +38121,10 @@
         <v>4800</v>
       </c>
       <c r="P435" s="5" t="s">
-        <v>1591</v>
+        <v>1569</v>
       </c>
       <c r="Q435" s="10" t="s">
-        <v>1466</v>
+        <v>1444</v>
       </c>
       <c r="V435" s="5" t="s">
         <v>553</v>
@@ -38023,13 +38162,13 @@
         <v>0</v>
       </c>
       <c r="G436" s="5" t="s">
-        <v>1448</v>
+        <v>1426</v>
       </c>
       <c r="H436" s="5" t="s">
-        <v>1589</v>
+        <v>1567</v>
       </c>
       <c r="I436" s="5" t="s">
-        <v>1594</v>
+        <v>1572</v>
       </c>
       <c r="K436" s="5">
         <v>-31</v>
@@ -38047,10 +38186,10 @@
         <v>9800</v>
       </c>
       <c r="P436" s="5" t="s">
-        <v>1595</v>
+        <v>1573</v>
       </c>
       <c r="Q436" s="10" t="s">
-        <v>1596</v>
+        <v>1574</v>
       </c>
       <c r="V436" s="5" t="s">
         <v>553</v>
@@ -38088,13 +38227,13 @@
         <v>0</v>
       </c>
       <c r="G437" s="5" t="s">
-        <v>1451</v>
+        <v>1429</v>
       </c>
       <c r="H437" s="5" t="s">
-        <v>1589</v>
+        <v>1567</v>
       </c>
       <c r="I437" s="5" t="s">
-        <v>1597</v>
+        <v>1575</v>
       </c>
       <c r="K437" s="5">
         <v>-31</v>
@@ -38112,10 +38251,10 @@
         <v>19800</v>
       </c>
       <c r="P437" s="5" t="s">
-        <v>1595</v>
+        <v>1573</v>
       </c>
       <c r="Q437" s="10" t="s">
-        <v>1465</v>
+        <v>1443</v>
       </c>
       <c r="V437" s="5" t="s">
         <v>553</v>
@@ -38153,13 +38292,13 @@
         <v>0</v>
       </c>
       <c r="G438" s="5" t="s">
-        <v>1453</v>
+        <v>1431</v>
       </c>
       <c r="H438" s="5" t="s">
-        <v>1589</v>
+        <v>1567</v>
       </c>
       <c r="I438" s="5" t="s">
-        <v>1598</v>
+        <v>1576</v>
       </c>
       <c r="K438" s="5">
         <v>-31</v>
@@ -38177,10 +38316,10 @@
         <v>29800</v>
       </c>
       <c r="P438" s="5" t="s">
-        <v>1595</v>
+        <v>1573</v>
       </c>
       <c r="Q438" s="10" t="s">
-        <v>1472</v>
+        <v>1450</v>
       </c>
       <c r="V438" s="5" t="s">
         <v>553</v>
@@ -38218,13 +38357,13 @@
         <v>0</v>
       </c>
       <c r="G439" s="5" t="s">
-        <v>1454</v>
+        <v>1432</v>
       </c>
       <c r="H439" s="5" t="s">
-        <v>1589</v>
+        <v>1567</v>
       </c>
       <c r="I439" s="5" t="s">
-        <v>1599</v>
+        <v>1577</v>
       </c>
       <c r="K439" s="5">
         <v>-31</v>
@@ -38242,10 +38381,10 @@
         <v>49800</v>
       </c>
       <c r="P439" s="5" t="s">
-        <v>1600</v>
+        <v>1578</v>
       </c>
       <c r="Q439" s="10" t="s">
-        <v>1467</v>
+        <v>1445</v>
       </c>
       <c r="V439" s="5" t="s">
         <v>553</v>
@@ -38283,13 +38422,13 @@
         <v>0</v>
       </c>
       <c r="G440" s="5" t="s">
-        <v>1456</v>
+        <v>1434</v>
       </c>
       <c r="H440" s="5" t="s">
-        <v>1589</v>
+        <v>1567</v>
       </c>
       <c r="I440" s="5" t="s">
-        <v>1601</v>
+        <v>1579</v>
       </c>
       <c r="K440" s="5">
         <v>-31</v>
@@ -38307,10 +38446,10 @@
         <v>99800</v>
       </c>
       <c r="P440" s="5" t="s">
-        <v>1600</v>
+        <v>1578</v>
       </c>
       <c r="Q440" s="10" t="s">
-        <v>1468</v>
+        <v>1446</v>
       </c>
       <c r="V440" s="5" t="s">
         <v>597</v>
@@ -38348,10 +38487,10 @@
         <v>0</v>
       </c>
       <c r="G441" s="5" t="s">
-        <v>1602</v>
+        <v>1580</v>
       </c>
       <c r="I441" s="5" t="s">
-        <v>1603</v>
+        <v>1581</v>
       </c>
       <c r="K441" s="5">
         <v>-31</v>
@@ -38369,13 +38508,13 @@
         <v>49800</v>
       </c>
       <c r="P441" s="5" t="s">
-        <v>1604</v>
+        <v>1582</v>
       </c>
       <c r="Q441" s="10" t="s">
-        <v>1605</v>
+        <v>1583</v>
       </c>
       <c r="V441" s="5" t="s">
-        <v>1606</v>
+        <v>1584</v>
       </c>
       <c r="W441" s="5">
         <v>9999999</v>
@@ -38410,10 +38549,10 @@
         <v>0</v>
       </c>
       <c r="G442" s="5" t="s">
-        <v>1607</v>
+        <v>1585</v>
       </c>
       <c r="I442" s="5" t="s">
-        <v>1608</v>
+        <v>1586</v>
       </c>
       <c r="K442" s="5">
         <v>-31</v>
@@ -38431,13 +38570,13 @@
         <v>19800</v>
       </c>
       <c r="P442" s="5" t="s">
-        <v>1604</v>
+        <v>1582</v>
       </c>
       <c r="Q442" s="10" t="s">
-        <v>1609</v>
+        <v>1587</v>
       </c>
       <c r="V442" s="5" t="s">
-        <v>1606</v>
+        <v>1584</v>
       </c>
       <c r="W442" s="5">
         <v>9999999</v>
@@ -38472,10 +38611,10 @@
         <v>0</v>
       </c>
       <c r="G443" s="5" t="s">
-        <v>1610</v>
+        <v>1588</v>
       </c>
       <c r="I443" s="5" t="s">
-        <v>1611</v>
+        <v>1589</v>
       </c>
       <c r="K443" s="5">
         <v>-31</v>
@@ -38493,13 +38632,13 @@
         <v>9800</v>
       </c>
       <c r="P443" s="5" t="s">
-        <v>1604</v>
+        <v>1582</v>
       </c>
       <c r="Q443" s="10" t="s">
-        <v>1612</v>
+        <v>1590</v>
       </c>
       <c r="V443" s="5" t="s">
-        <v>1606</v>
+        <v>1584</v>
       </c>
       <c r="W443" s="5">
         <v>9999999</v>
@@ -38534,10 +38673,10 @@
         <v>0</v>
       </c>
       <c r="G444" s="5" t="s">
-        <v>1613</v>
+        <v>1591</v>
       </c>
       <c r="I444" s="5" t="s">
-        <v>1614</v>
+        <v>1592</v>
       </c>
       <c r="K444" s="5">
         <v>-31</v>
@@ -38555,13 +38694,13 @@
         <v>4800</v>
       </c>
       <c r="P444" s="5" t="s">
-        <v>1604</v>
+        <v>1582</v>
       </c>
       <c r="Q444" s="10" t="s">
-        <v>1615</v>
+        <v>1593</v>
       </c>
       <c r="V444" s="5" t="s">
-        <v>1606</v>
+        <v>1584</v>
       </c>
       <c r="W444" s="5">
         <v>9999999</v>
@@ -38596,10 +38735,10 @@
         <v>0</v>
       </c>
       <c r="G445" s="5" t="s">
-        <v>1616</v>
+        <v>1594</v>
       </c>
       <c r="I445" s="5" t="s">
-        <v>1617</v>
+        <v>1595</v>
       </c>
       <c r="K445" s="5">
         <v>-31</v>
@@ -38617,10 +38756,10 @@
         <v>2000</v>
       </c>
       <c r="P445" s="5" t="s">
-        <v>1604</v>
+        <v>1582</v>
       </c>
       <c r="Q445" s="10" t="s">
-        <v>1618</v>
+        <v>1596</v>
       </c>
       <c r="V445" s="5" t="s">
         <v>597</v>
@@ -38658,10 +38797,10 @@
         <v>0</v>
       </c>
       <c r="G446" s="5" t="s">
-        <v>1619</v>
+        <v>1597</v>
       </c>
       <c r="I446" s="5" t="s">
-        <v>1620</v>
+        <v>1598</v>
       </c>
       <c r="K446" s="5">
         <v>-31</v>
@@ -38679,10 +38818,10 @@
         <v>600</v>
       </c>
       <c r="P446" s="5" t="s">
-        <v>1604</v>
+        <v>1582</v>
       </c>
       <c r="Q446" s="10" t="s">
-        <v>1435</v>
+        <v>1413</v>
       </c>
       <c r="V446" s="5" t="s">
         <v>597</v>
@@ -38720,13 +38859,13 @@
         <v>1</v>
       </c>
       <c r="G447" s="69" t="s">
-        <v>1621</v>
+        <v>1599</v>
       </c>
       <c r="H447" s="69" t="s">
-        <v>1622</v>
+        <v>1600</v>
       </c>
       <c r="I447" s="69" t="s">
-        <v>1623</v>
+        <v>1601</v>
       </c>
       <c r="K447" s="69">
         <v>-31</v>
@@ -38747,7 +38886,7 @@
         <v>461</v>
       </c>
       <c r="Q447" s="70" t="s">
-        <v>1624</v>
+        <v>1602</v>
       </c>
       <c r="V447" s="5" t="s">
         <v>597</v>
@@ -38788,13 +38927,13 @@
         <v>1</v>
       </c>
       <c r="G448" s="69" t="s">
-        <v>1625</v>
+        <v>1603</v>
       </c>
       <c r="H448" s="69" t="s">
-        <v>1626</v>
+        <v>1604</v>
       </c>
       <c r="I448" s="69" t="s">
-        <v>1627</v>
+        <v>1605</v>
       </c>
       <c r="K448" s="69">
         <v>-31</v>
@@ -38815,7 +38954,7 @@
         <v>461</v>
       </c>
       <c r="Q448" s="70" t="s">
-        <v>1628</v>
+        <v>1606</v>
       </c>
       <c r="V448" s="5" t="s">
         <v>597</v>
@@ -38853,13 +38992,13 @@
         <v>1</v>
       </c>
       <c r="G449" s="69" t="s">
-        <v>1629</v>
+        <v>1607</v>
       </c>
       <c r="H449" s="69" t="s">
-        <v>1630</v>
+        <v>1608</v>
       </c>
       <c r="I449" s="69" t="s">
-        <v>1631</v>
+        <v>1609</v>
       </c>
       <c r="K449" s="69">
         <v>-31</v>
@@ -38880,7 +39019,7 @@
         <v>461</v>
       </c>
       <c r="Q449" s="70" t="s">
-        <v>1632</v>
+        <v>1610</v>
       </c>
       <c r="V449" s="5" t="s">
         <v>553</v>
@@ -38921,13 +39060,13 @@
         <v>1</v>
       </c>
       <c r="G450" s="71" t="s">
-        <v>1633</v>
+        <v>1611</v>
       </c>
       <c r="H450" s="71" t="s">
-        <v>1634</v>
+        <v>1612</v>
       </c>
       <c r="I450" s="71" t="s">
-        <v>1635</v>
+        <v>1613</v>
       </c>
       <c r="K450" s="71">
         <v>-31</v>
@@ -38948,7 +39087,7 @@
         <v>461</v>
       </c>
       <c r="Q450" s="72" t="s">
-        <v>1636</v>
+        <v>1614</v>
       </c>
       <c r="V450" s="5" t="s">
         <v>553</v>
@@ -38989,13 +39128,13 @@
         <v>1</v>
       </c>
       <c r="G451" s="71" t="s">
-        <v>1637</v>
+        <v>1615</v>
       </c>
       <c r="H451" s="71" t="s">
-        <v>1638</v>
+        <v>1616</v>
       </c>
       <c r="I451" s="71" t="s">
-        <v>1639</v>
+        <v>1617</v>
       </c>
       <c r="K451" s="71">
         <v>-31</v>
@@ -39016,7 +39155,7 @@
         <v>461</v>
       </c>
       <c r="Q451" s="72" t="s">
-        <v>1640</v>
+        <v>1618</v>
       </c>
       <c r="V451" s="5" t="s">
         <v>553</v>
@@ -39054,13 +39193,13 @@
         <v>1</v>
       </c>
       <c r="G452" s="71" t="s">
-        <v>1641</v>
+        <v>1619</v>
       </c>
       <c r="H452" s="71" t="s">
-        <v>1642</v>
+        <v>1620</v>
       </c>
       <c r="I452" s="71" t="s">
-        <v>1643</v>
+        <v>1621</v>
       </c>
       <c r="K452" s="71">
         <v>-31</v>
@@ -39081,7 +39220,7 @@
         <v>461</v>
       </c>
       <c r="Q452" s="72" t="s">
-        <v>1644</v>
+        <v>1622</v>
       </c>
       <c r="V452" s="5" t="s">
         <v>553</v>
@@ -39122,13 +39261,13 @@
         <v>1</v>
       </c>
       <c r="G453" s="69" t="s">
-        <v>1645</v>
+        <v>1623</v>
       </c>
       <c r="H453" s="69" t="s">
-        <v>1646</v>
+        <v>1624</v>
       </c>
       <c r="I453" s="69" t="s">
-        <v>1647</v>
+        <v>1625</v>
       </c>
       <c r="K453" s="69">
         <v>-31</v>
@@ -39149,7 +39288,7 @@
         <v>461</v>
       </c>
       <c r="Q453" s="70" t="s">
-        <v>1648</v>
+        <v>1626</v>
       </c>
       <c r="V453" s="5" t="s">
         <v>553</v>
@@ -39190,13 +39329,13 @@
         <v>1</v>
       </c>
       <c r="G454" s="69" t="s">
-        <v>1649</v>
+        <v>1627</v>
       </c>
       <c r="H454" s="69" t="s">
-        <v>1650</v>
+        <v>1628</v>
       </c>
       <c r="I454" s="69" t="s">
-        <v>1651</v>
+        <v>1629</v>
       </c>
       <c r="K454" s="69">
         <v>-31</v>
@@ -39217,7 +39356,7 @@
         <v>461</v>
       </c>
       <c r="Q454" s="70" t="s">
-        <v>1652</v>
+        <v>1630</v>
       </c>
       <c r="V454" s="5" t="s">
         <v>553</v>
@@ -39255,13 +39394,13 @@
         <v>1</v>
       </c>
       <c r="G455" s="69" t="s">
-        <v>1653</v>
+        <v>1631</v>
       </c>
       <c r="H455" s="69" t="s">
-        <v>1654</v>
+        <v>1632</v>
       </c>
       <c r="I455" s="69" t="s">
-        <v>1655</v>
+        <v>1633</v>
       </c>
       <c r="K455" s="69">
         <v>-31</v>
@@ -39282,7 +39421,7 @@
         <v>461</v>
       </c>
       <c r="Q455" s="70" t="s">
-        <v>1740</v>
+        <v>1634</v>
       </c>
       <c r="V455" s="5" t="s">
         <v>553</v>
@@ -39323,13 +39462,13 @@
         <v>1</v>
       </c>
       <c r="G456" s="71" t="s">
-        <v>1656</v>
+        <v>1635</v>
       </c>
       <c r="H456" s="71" t="s">
-        <v>1657</v>
+        <v>1636</v>
       </c>
       <c r="I456" s="71" t="s">
-        <v>1658</v>
+        <v>1637</v>
       </c>
       <c r="K456" s="71">
         <v>-31</v>
@@ -39350,7 +39489,7 @@
         <v>461</v>
       </c>
       <c r="Q456" s="72" t="s">
-        <v>1659</v>
+        <v>1638</v>
       </c>
       <c r="V456" s="5" t="s">
         <v>553</v>
@@ -39391,13 +39530,13 @@
         <v>1</v>
       </c>
       <c r="G457" s="71" t="s">
-        <v>1660</v>
+        <v>1639</v>
       </c>
       <c r="H457" s="71" t="s">
-        <v>1661</v>
+        <v>1640</v>
       </c>
       <c r="I457" s="71" t="s">
-        <v>1662</v>
+        <v>1641</v>
       </c>
       <c r="K457" s="71">
         <v>-31</v>
@@ -39418,7 +39557,7 @@
         <v>461</v>
       </c>
       <c r="Q457" s="72" t="s">
-        <v>1663</v>
+        <v>1642</v>
       </c>
       <c r="V457" s="5" t="s">
         <v>553</v>
@@ -39456,13 +39595,13 @@
         <v>1</v>
       </c>
       <c r="G458" s="71" t="s">
-        <v>1664</v>
+        <v>1643</v>
       </c>
       <c r="H458" s="71" t="s">
-        <v>1665</v>
+        <v>1644</v>
       </c>
       <c r="I458" s="71" t="s">
-        <v>1666</v>
+        <v>1645</v>
       </c>
       <c r="K458" s="71">
         <v>-31</v>
@@ -39483,7 +39622,7 @@
         <v>461</v>
       </c>
       <c r="Q458" s="72" t="s">
-        <v>1667</v>
+        <v>1646</v>
       </c>
       <c r="V458" s="5" t="s">
         <v>553</v>
@@ -39524,13 +39663,13 @@
         <v>1</v>
       </c>
       <c r="G459" s="69" t="s">
-        <v>1668</v>
+        <v>1647</v>
       </c>
       <c r="H459" s="69" t="s">
-        <v>1669</v>
+        <v>1648</v>
       </c>
       <c r="I459" s="69" t="s">
-        <v>1670</v>
+        <v>1649</v>
       </c>
       <c r="K459" s="69">
         <v>-31</v>
@@ -39551,7 +39690,7 @@
         <v>461</v>
       </c>
       <c r="Q459" s="70" t="s">
-        <v>1671</v>
+        <v>1650</v>
       </c>
       <c r="V459" s="5" t="s">
         <v>553</v>
@@ -39592,13 +39731,13 @@
         <v>1</v>
       </c>
       <c r="G460" s="69" t="s">
-        <v>1672</v>
+        <v>1651</v>
       </c>
       <c r="H460" s="69" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="I460" s="69" t="s">
-        <v>1674</v>
+        <v>1653</v>
       </c>
       <c r="K460" s="69">
         <v>-31</v>
@@ -39619,7 +39758,7 @@
         <v>461</v>
       </c>
       <c r="Q460" s="70" t="s">
-        <v>1675</v>
+        <v>1654</v>
       </c>
       <c r="V460" s="5" t="s">
         <v>553</v>
@@ -39657,13 +39796,13 @@
         <v>1</v>
       </c>
       <c r="G461" s="69" t="s">
-        <v>1676</v>
+        <v>1655</v>
       </c>
       <c r="H461" s="69" t="s">
-        <v>1677</v>
+        <v>1656</v>
       </c>
       <c r="I461" s="69" t="s">
-        <v>1678</v>
+        <v>1657</v>
       </c>
       <c r="K461" s="69">
         <v>-31</v>
@@ -39684,7 +39823,7 @@
         <v>461</v>
       </c>
       <c r="Q461" s="70" t="s">
-        <v>1679</v>
+        <v>1658</v>
       </c>
       <c r="V461" s="5" t="s">
         <v>553</v>
@@ -39725,13 +39864,13 @@
         <v>1</v>
       </c>
       <c r="G462" s="71" t="s">
-        <v>1680</v>
+        <v>1659</v>
       </c>
       <c r="H462" s="71" t="s">
-        <v>1681</v>
+        <v>1660</v>
       </c>
       <c r="I462" s="71" t="s">
-        <v>1682</v>
+        <v>1661</v>
       </c>
       <c r="K462" s="71">
         <v>-31</v>
@@ -39752,7 +39891,7 @@
         <v>461</v>
       </c>
       <c r="Q462" s="72" t="s">
-        <v>1683</v>
+        <v>1662</v>
       </c>
       <c r="V462" s="5" t="s">
         <v>553</v>
@@ -39793,13 +39932,13 @@
         <v>1</v>
       </c>
       <c r="G463" s="71" t="s">
-        <v>1684</v>
+        <v>1663</v>
       </c>
       <c r="H463" s="71" t="s">
-        <v>1685</v>
+        <v>1664</v>
       </c>
       <c r="I463" s="71" t="s">
-        <v>1686</v>
+        <v>1665</v>
       </c>
       <c r="K463" s="71">
         <v>-31</v>
@@ -39820,7 +39959,7 @@
         <v>461</v>
       </c>
       <c r="Q463" s="72" t="s">
-        <v>1687</v>
+        <v>1666</v>
       </c>
       <c r="V463" s="5" t="s">
         <v>553</v>
@@ -39858,13 +39997,13 @@
         <v>1</v>
       </c>
       <c r="G464" s="71" t="s">
-        <v>1688</v>
+        <v>1667</v>
       </c>
       <c r="H464" s="71" t="s">
-        <v>1689</v>
+        <v>1668</v>
       </c>
       <c r="I464" s="71" t="s">
-        <v>1690</v>
+        <v>1669</v>
       </c>
       <c r="K464" s="71">
         <v>-31</v>
@@ -39885,7 +40024,7 @@
         <v>461</v>
       </c>
       <c r="Q464" s="72" t="s">
-        <v>1691</v>
+        <v>1670</v>
       </c>
       <c r="V464" s="5" t="s">
         <v>553</v>
@@ -39926,13 +40065,13 @@
         <v>1</v>
       </c>
       <c r="G465" s="69" t="s">
-        <v>1692</v>
+        <v>1671</v>
       </c>
       <c r="H465" s="69" t="s">
-        <v>1693</v>
+        <v>1672</v>
       </c>
       <c r="I465" s="69" t="s">
-        <v>1694</v>
+        <v>1673</v>
       </c>
       <c r="K465" s="69">
         <v>-31</v>
@@ -39953,7 +40092,7 @@
         <v>461</v>
       </c>
       <c r="Q465" s="70" t="s">
-        <v>1695</v>
+        <v>1674</v>
       </c>
       <c r="V465" s="5" t="s">
         <v>553</v>
@@ -39994,13 +40133,13 @@
         <v>1</v>
       </c>
       <c r="G466" s="69" t="s">
-        <v>1696</v>
+        <v>1675</v>
       </c>
       <c r="H466" s="69" t="s">
-        <v>1697</v>
+        <v>1676</v>
       </c>
       <c r="I466" s="69" t="s">
-        <v>1698</v>
+        <v>1677</v>
       </c>
       <c r="K466" s="69">
         <v>-31</v>
@@ -40021,7 +40160,7 @@
         <v>461</v>
       </c>
       <c r="Q466" s="70" t="s">
-        <v>1699</v>
+        <v>1678</v>
       </c>
       <c r="V466" s="5" t="s">
         <v>553</v>
@@ -40059,13 +40198,13 @@
         <v>1</v>
       </c>
       <c r="G467" s="69" t="s">
-        <v>1700</v>
+        <v>1679</v>
       </c>
       <c r="H467" s="69" t="s">
-        <v>1701</v>
+        <v>1680</v>
       </c>
       <c r="I467" s="69" t="s">
-        <v>1702</v>
+        <v>1681</v>
       </c>
       <c r="K467" s="69">
         <v>-31</v>
@@ -40086,7 +40225,7 @@
         <v>461</v>
       </c>
       <c r="Q467" s="70" t="s">
-        <v>1703</v>
+        <v>1682</v>
       </c>
       <c r="V467" s="5" t="s">
         <v>553</v>
@@ -40127,10 +40266,10 @@
         <v>1</v>
       </c>
       <c r="G468" s="73" t="s">
-        <v>1704</v>
+        <v>1683</v>
       </c>
       <c r="H468" s="73" t="s">
-        <v>1705</v>
+        <v>1684</v>
       </c>
       <c r="I468" s="73" t="s">
         <v>1117</v>
@@ -40157,7 +40296,7 @@
         <v>1118</v>
       </c>
       <c r="V468" s="73" t="s">
-        <v>1706</v>
+        <v>1685</v>
       </c>
       <c r="W468" s="73">
         <v>9999999</v>
@@ -40192,13 +40331,13 @@
         <v>1</v>
       </c>
       <c r="G469" s="73" t="s">
-        <v>1707</v>
+        <v>1686</v>
       </c>
       <c r="H469" s="73" t="s">
-        <v>1705</v>
+        <v>1684</v>
       </c>
       <c r="I469" s="73" t="s">
-        <v>1708</v>
+        <v>1687</v>
       </c>
       <c r="K469" s="73">
         <v>-31</v>
@@ -40219,10 +40358,10 @@
         <v>461</v>
       </c>
       <c r="Q469" s="74" t="s">
-        <v>1709</v>
+        <v>1688</v>
       </c>
       <c r="V469" s="73" t="s">
-        <v>1706</v>
+        <v>1685</v>
       </c>
       <c r="W469" s="73">
         <v>9999999</v>
@@ -40257,13 +40396,13 @@
         <v>1</v>
       </c>
       <c r="G470" s="73" t="s">
-        <v>1710</v>
+        <v>1689</v>
       </c>
       <c r="H470" s="73" t="s">
-        <v>1705</v>
+        <v>1684</v>
       </c>
       <c r="I470" s="73" t="s">
-        <v>1340</v>
+        <v>1318</v>
       </c>
       <c r="K470" s="73">
         <v>-31</v>
@@ -40287,7 +40426,7 @@
         <v>857</v>
       </c>
       <c r="V470" s="73" t="s">
-        <v>1706</v>
+        <v>1685</v>
       </c>
       <c r="W470" s="73">
         <v>9999999</v>
@@ -40322,13 +40461,13 @@
         <v>1</v>
       </c>
       <c r="G471" s="73" t="s">
-        <v>1711</v>
+        <v>1690</v>
       </c>
       <c r="H471" s="73" t="s">
-        <v>1705</v>
+        <v>1684</v>
       </c>
       <c r="I471" s="73" t="s">
-        <v>1712</v>
+        <v>1691</v>
       </c>
       <c r="K471" s="73">
         <v>-31</v>
@@ -40349,10 +40488,10 @@
         <v>461</v>
       </c>
       <c r="Q471" s="74" t="s">
-        <v>1713</v>
+        <v>1692</v>
       </c>
       <c r="V471" s="73" t="s">
-        <v>1714</v>
+        <v>1693</v>
       </c>
       <c r="W471" s="73">
         <v>9999999</v>
@@ -40387,13 +40526,13 @@
         <v>1</v>
       </c>
       <c r="G472" s="73" t="s">
-        <v>1715</v>
+        <v>1694</v>
       </c>
       <c r="H472" s="73" t="s">
-        <v>1705</v>
+        <v>1684</v>
       </c>
       <c r="I472" s="73" t="s">
-        <v>1716</v>
+        <v>1695</v>
       </c>
       <c r="K472" s="73">
         <v>-31</v>
@@ -40417,7 +40556,7 @@
         <v>858</v>
       </c>
       <c r="V472" s="73" t="s">
-        <v>1714</v>
+        <v>1693</v>
       </c>
       <c r="W472" s="73">
         <v>9999999</v>
@@ -40452,13 +40591,13 @@
         <v>1</v>
       </c>
       <c r="G473" s="73" t="s">
-        <v>1717</v>
+        <v>1696</v>
       </c>
       <c r="H473" s="73" t="s">
-        <v>1705</v>
+        <v>1684</v>
       </c>
       <c r="I473" s="73" t="s">
-        <v>1718</v>
+        <v>1697</v>
       </c>
       <c r="K473" s="73">
         <v>-31</v>
@@ -40479,10 +40618,10 @@
         <v>461</v>
       </c>
       <c r="Q473" s="74" t="s">
-        <v>1719</v>
+        <v>1698</v>
       </c>
       <c r="V473" s="73" t="s">
-        <v>1714</v>
+        <v>1693</v>
       </c>
       <c r="W473" s="73">
         <v>9999999</v>
@@ -40517,13 +40656,13 @@
         <v>1</v>
       </c>
       <c r="G474" s="75" t="s">
-        <v>1720</v>
+        <v>1699</v>
       </c>
       <c r="H474" s="75" t="s">
-        <v>1705</v>
+        <v>1684</v>
       </c>
       <c r="I474" s="75" t="s">
-        <v>1721</v>
+        <v>1700</v>
       </c>
       <c r="K474" s="75">
         <v>-31</v>
@@ -40544,10 +40683,10 @@
         <v>461</v>
       </c>
       <c r="Q474" s="76" t="s">
-        <v>1722</v>
+        <v>1701</v>
       </c>
       <c r="V474" s="73" t="s">
-        <v>1714</v>
+        <v>1693</v>
       </c>
       <c r="W474" s="75">
         <v>9999999</v>
@@ -40582,13 +40721,13 @@
         <v>1</v>
       </c>
       <c r="G475" s="75" t="s">
-        <v>1723</v>
+        <v>1702</v>
       </c>
       <c r="H475" s="75" t="s">
-        <v>1705</v>
+        <v>1684</v>
       </c>
       <c r="I475" s="75" t="s">
-        <v>1738</v>
+        <v>1703</v>
       </c>
       <c r="K475" s="75">
         <v>-31</v>
@@ -40609,10 +40748,10 @@
         <v>461</v>
       </c>
       <c r="Q475" s="76" t="s">
-        <v>1739</v>
+        <v>1704</v>
       </c>
       <c r="V475" s="73" t="s">
-        <v>1714</v>
+        <v>1693</v>
       </c>
       <c r="W475" s="75">
         <v>9999999</v>
@@ -40633,6 +40772,266 @@
         <v>1</v>
       </c>
       <c r="AL475" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:38" s="80" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A476" s="80">
+        <v>475</v>
+      </c>
+      <c r="B476" s="80">
+        <v>10392</v>
+      </c>
+      <c r="F476" s="80">
+        <v>1</v>
+      </c>
+      <c r="G476" s="80" t="s">
+        <v>1750</v>
+      </c>
+      <c r="H476" s="80" t="s">
+        <v>1751</v>
+      </c>
+      <c r="I476" s="80" t="s">
+        <v>1752</v>
+      </c>
+      <c r="K476" s="80">
+        <v>-31</v>
+      </c>
+      <c r="L476" s="80">
+        <v>0</v>
+      </c>
+      <c r="M476" s="80">
+        <v>0</v>
+      </c>
+      <c r="N476" s="80" t="s">
+        <v>1753</v>
+      </c>
+      <c r="O476" s="80">
+        <v>49800</v>
+      </c>
+      <c r="P476" s="80" t="s">
+        <v>1754</v>
+      </c>
+      <c r="Q476" s="81" t="s">
+        <v>1755</v>
+      </c>
+      <c r="V476" s="80" t="s">
+        <v>1756</v>
+      </c>
+      <c r="W476" s="80">
+        <v>9999999</v>
+      </c>
+      <c r="X476" s="80">
+        <v>1606176000</v>
+      </c>
+      <c r="Y476" s="80">
+        <v>1606751999</v>
+      </c>
+      <c r="AG476" s="80">
+        <v>1</v>
+      </c>
+      <c r="AH476" s="80">
+        <v>1</v>
+      </c>
+      <c r="AK476" s="80">
+        <v>1</v>
+      </c>
+      <c r="AL476" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:38" s="80" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A477" s="80">
+        <v>476</v>
+      </c>
+      <c r="B477" s="80">
+        <v>10393</v>
+      </c>
+      <c r="F477" s="80">
+        <v>1</v>
+      </c>
+      <c r="G477" s="80" t="s">
+        <v>1750</v>
+      </c>
+      <c r="H477" s="80" t="s">
+        <v>1757</v>
+      </c>
+      <c r="I477" s="80" t="s">
+        <v>1758</v>
+      </c>
+      <c r="K477" s="80">
+        <v>-31</v>
+      </c>
+      <c r="L477" s="80">
+        <v>0</v>
+      </c>
+      <c r="M477" s="80">
+        <v>0</v>
+      </c>
+      <c r="N477" s="80" t="s">
+        <v>1753</v>
+      </c>
+      <c r="O477" s="80">
+        <v>19800</v>
+      </c>
+      <c r="P477" s="80" t="s">
+        <v>1754</v>
+      </c>
+      <c r="Q477" s="81" t="s">
+        <v>1759</v>
+      </c>
+      <c r="V477" s="80" t="s">
+        <v>1756</v>
+      </c>
+      <c r="W477" s="80">
+        <v>9999999</v>
+      </c>
+      <c r="X477" s="80">
+        <v>1606176000</v>
+      </c>
+      <c r="Y477" s="80">
+        <v>1606751999</v>
+      </c>
+      <c r="AG477" s="80">
+        <v>1</v>
+      </c>
+      <c r="AH477" s="80">
+        <v>1</v>
+      </c>
+      <c r="AK477" s="80">
+        <v>1</v>
+      </c>
+      <c r="AL477" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:38" s="80" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A478" s="80">
+        <v>477</v>
+      </c>
+      <c r="B478" s="80">
+        <v>10394</v>
+      </c>
+      <c r="F478" s="80">
+        <v>1</v>
+      </c>
+      <c r="G478" s="80" t="s">
+        <v>1750</v>
+      </c>
+      <c r="H478" s="80" t="s">
+        <v>1760</v>
+      </c>
+      <c r="I478" s="80" t="s">
+        <v>1761</v>
+      </c>
+      <c r="K478" s="80">
+        <v>-31</v>
+      </c>
+      <c r="L478" s="80">
+        <v>0</v>
+      </c>
+      <c r="M478" s="80">
+        <v>0</v>
+      </c>
+      <c r="N478" s="80" t="s">
+        <v>1753</v>
+      </c>
+      <c r="O478" s="80">
+        <v>9800</v>
+      </c>
+      <c r="P478" s="80" t="s">
+        <v>1762</v>
+      </c>
+      <c r="Q478" s="81" t="s">
+        <v>1763</v>
+      </c>
+      <c r="V478" s="80" t="s">
+        <v>553</v>
+      </c>
+      <c r="W478" s="80">
+        <v>9999999</v>
+      </c>
+      <c r="X478" s="80">
+        <v>1606176000</v>
+      </c>
+      <c r="Y478" s="80">
+        <v>1606751999</v>
+      </c>
+      <c r="AG478" s="80">
+        <v>1</v>
+      </c>
+      <c r="AH478" s="80">
+        <v>1</v>
+      </c>
+      <c r="AK478" s="80">
+        <v>1</v>
+      </c>
+      <c r="AL478" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:38" s="80" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A479" s="80">
+        <v>478</v>
+      </c>
+      <c r="B479" s="80">
+        <v>10395</v>
+      </c>
+      <c r="F479" s="80">
+        <v>1</v>
+      </c>
+      <c r="G479" s="80" t="s">
+        <v>1750</v>
+      </c>
+      <c r="H479" s="80" t="s">
+        <v>1764</v>
+      </c>
+      <c r="I479" s="80" t="s">
+        <v>1765</v>
+      </c>
+      <c r="K479" s="80">
+        <v>-31</v>
+      </c>
+      <c r="L479" s="80">
+        <v>0</v>
+      </c>
+      <c r="M479" s="80">
+        <v>0</v>
+      </c>
+      <c r="N479" s="80" t="s">
+        <v>1753</v>
+      </c>
+      <c r="O479" s="80">
+        <v>4800</v>
+      </c>
+      <c r="P479" s="80" t="s">
+        <v>1766</v>
+      </c>
+      <c r="Q479" s="81" t="s">
+        <v>1767</v>
+      </c>
+      <c r="V479" s="80" t="s">
+        <v>1756</v>
+      </c>
+      <c r="W479" s="80">
+        <v>9999999</v>
+      </c>
+      <c r="X479" s="80">
+        <v>1606176000</v>
+      </c>
+      <c r="Y479" s="80">
+        <v>1606751999</v>
+      </c>
+      <c r="AG479" s="80">
+        <v>1</v>
+      </c>
+      <c r="AH479" s="80">
+        <v>1</v>
+      </c>
+      <c r="AK479" s="80">
+        <v>1</v>
+      </c>
+      <c r="AL479" s="80">
         <v>1</v>
       </c>
     </row>
@@ -40664,7 +41063,7 @@
         <v>402</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1157</v>
+        <v>1136</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>403</v>
@@ -40681,7 +41080,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1186</v>
+        <v>1165</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -40698,7 +41097,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1187</v>
+        <v>1166</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -40712,7 +41111,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1188</v>
+        <v>1167</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -40726,7 +41125,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1189</v>
+        <v>1168</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -40880,7 +41279,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1190</v>
+        <v>1169</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -41034,7 +41433,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>1255</v>
+        <v>1233</v>
       </c>
       <c r="C27" s="12">
         <v>1</v>
@@ -41049,7 +41448,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>1246</v>
+        <v>1224</v>
       </c>
       <c r="C28" s="12">
         <v>1</v>
@@ -41064,7 +41463,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>1247</v>
+        <v>1225</v>
       </c>
       <c r="C29" s="12">
         <v>1</v>
@@ -41079,7 +41478,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>1256</v>
+        <v>1234</v>
       </c>
       <c r="C30" s="12">
         <v>1</v>
@@ -41094,7 +41493,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>1248</v>
+        <v>1226</v>
       </c>
       <c r="C31" s="12">
         <v>1</v>
@@ -41109,7 +41508,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>1249</v>
+        <v>1227</v>
       </c>
       <c r="C32" s="12">
         <v>1</v>
@@ -41124,7 +41523,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>1257</v>
+        <v>1235</v>
       </c>
       <c r="C33" s="12">
         <v>1</v>
@@ -41139,7 +41538,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>1250</v>
+        <v>1228</v>
       </c>
       <c r="C34" s="12">
         <v>1</v>
@@ -41154,7 +41553,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>1251</v>
+        <v>1229</v>
       </c>
       <c r="C35" s="12">
         <v>1</v>
@@ -41169,7 +41568,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>1258</v>
+        <v>1236</v>
       </c>
       <c r="C36" s="12">
         <v>1</v>
@@ -41184,7 +41583,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>1252</v>
+        <v>1230</v>
       </c>
       <c r="C37" s="12">
         <v>1</v>
@@ -41199,7 +41598,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>1253</v>
+        <v>1231</v>
       </c>
       <c r="C38" s="12">
         <v>1</v>
@@ -41214,7 +41613,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>1266</v>
+        <v>1244</v>
       </c>
       <c r="C39" s="12">
         <v>1</v>
@@ -41228,7 +41627,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>1264</v>
+        <v>1242</v>
       </c>
       <c r="C40" s="12">
         <v>1</v>
@@ -41242,7 +41641,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>1265</v>
+        <v>1243</v>
       </c>
       <c r="C41" s="12">
         <v>1</v>
@@ -41256,7 +41655,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>1323</v>
+        <v>1301</v>
       </c>
       <c r="C42" s="12">
         <v>1</v>
@@ -41270,7 +41669,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>1379</v>
+        <v>1357</v>
       </c>
       <c r="C43" s="12">
         <v>1</v>
@@ -41284,7 +41683,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>1380</v>
+        <v>1358</v>
       </c>
       <c r="C44" s="12">
         <v>1</v>
@@ -41298,7 +41697,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="51" t="s">
-        <v>1420</v>
+        <v>1398</v>
       </c>
       <c r="C45" s="50">
         <v>1</v>
@@ -41312,7 +41711,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="51" t="s">
-        <v>1421</v>
+        <v>1399</v>
       </c>
       <c r="C46" s="50">
         <v>1</v>
@@ -41326,7 +41725,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="51" t="s">
-        <v>1422</v>
+        <v>1400</v>
       </c>
       <c r="C47" s="50">
         <v>1</v>
@@ -41340,7 +41739,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="56" t="s">
-        <v>1469</v>
+        <v>1447</v>
       </c>
       <c r="C48" s="55">
         <v>1</v>
@@ -41354,7 +41753,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="64" t="s">
-        <v>1502</v>
+        <v>1480</v>
       </c>
       <c r="C49" s="63">
         <v>1</v>
@@ -41368,7 +41767,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="66" t="s">
-        <v>1516</v>
+        <v>1494</v>
       </c>
       <c r="C50" s="65">
         <v>1</v>
@@ -41382,7 +41781,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="66" t="s">
-        <v>1517</v>
+        <v>1495</v>
       </c>
       <c r="C51" s="65">
         <v>1</v>
@@ -41396,7 +41795,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="66" t="s">
-        <v>1518</v>
+        <v>1496</v>
       </c>
       <c r="C52" s="65">
         <v>1</v>
@@ -41410,7 +41809,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="79" t="s">
-        <v>1724</v>
+        <v>1705</v>
       </c>
       <c r="C53" s="78">
         <v>1</v>
@@ -41424,7 +41823,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="79" t="s">
-        <v>1725</v>
+        <v>1706</v>
       </c>
       <c r="C54" s="78">
         <v>1</v>
@@ -41438,7 +41837,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="79" t="s">
-        <v>1726</v>
+        <v>1707</v>
       </c>
       <c r="C55" s="78">
         <v>1</v>
@@ -41452,7 +41851,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="79" t="s">
-        <v>1727</v>
+        <v>1708</v>
       </c>
       <c r="C56" s="78">
         <v>1</v>
@@ -41466,7 +41865,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="79" t="s">
-        <v>1728</v>
+        <v>1709</v>
       </c>
       <c r="C57" s="78">
         <v>1</v>
@@ -41480,7 +41879,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="79" t="s">
-        <v>1729</v>
+        <v>1710</v>
       </c>
       <c r="C58" s="78">
         <v>1</v>
@@ -41494,7 +41893,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="79" t="s">
-        <v>1730</v>
+        <v>1711</v>
       </c>
       <c r="C59" s="78">
         <v>1</v>
@@ -41508,7 +41907,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="79" t="s">
-        <v>1731</v>
+        <v>1712</v>
       </c>
       <c r="C60" s="78">
         <v>1</v>
@@ -41522,7 +41921,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="79" t="s">
-        <v>1732</v>
+        <v>1713</v>
       </c>
       <c r="C61" s="78">
         <v>1</v>
@@ -41536,7 +41935,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="79" t="s">
-        <v>1733</v>
+        <v>1714</v>
       </c>
       <c r="C62" s="78">
         <v>1</v>
@@ -41550,7 +41949,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="79" t="s">
-        <v>1734</v>
+        <v>1715</v>
       </c>
       <c r="C63" s="78">
         <v>1</v>
@@ -41564,7 +41963,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="79" t="s">
-        <v>1735</v>
+        <v>1716</v>
       </c>
       <c r="C64" s="78">
         <v>1</v>
@@ -41578,7 +41977,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="79" t="s">
-        <v>1736</v>
+        <v>1717</v>
       </c>
       <c r="C65" s="78">
         <v>1</v>
@@ -41592,7 +41991,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="79" t="s">
-        <v>1737</v>
+        <v>1718</v>
       </c>
       <c r="C66" s="78">
         <v>1</v>
@@ -41657,7 +42056,7 @@
         <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1350</v>
+        <v>1328</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>414</v>
@@ -43255,7 +43654,7 @@
         <v>111</v>
       </c>
       <c r="G25" s="34" t="s">
-        <v>1159</v>
+        <v>1138</v>
       </c>
       <c r="H25" s="11">
         <v>19800</v>
@@ -43941,7 +44340,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>1168</v>
+        <v>1147</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>488</v>
@@ -43988,7 +44387,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>1169</v>
+        <v>1148</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>488</v>
@@ -44035,7 +44434,7 @@
         <v>21</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>1170</v>
+        <v>1149</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>492</v>

--- a/config_debug/shoping_config_cjj.xlsx
+++ b/config_debug/shoping_config_cjj.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -7454,14 +7454,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"2.4亿金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>249800000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>{next=10365,trigger="start_trigger",reset_time=0}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7515,6 +7507,14 @@
   </si>
   <si>
     <t>{last=10381,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2.5亿金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>250000000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -10418,11 +10418,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM475"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="V374" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="Q455" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z392" sqref="Z392"/>
+      <selection pane="bottomRight" activeCell="Q475" sqref="Q475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -40588,7 +40588,7 @@
         <v>1706</v>
       </c>
       <c r="I475" s="75" t="s">
-        <v>1725</v>
+        <v>1739</v>
       </c>
       <c r="K475" s="75">
         <v>-31</v>
@@ -40609,7 +40609,7 @@
         <v>461</v>
       </c>
       <c r="Q475" s="76" t="s">
-        <v>1726</v>
+        <v>1740</v>
       </c>
       <c r="V475" s="73" t="s">
         <v>1715</v>
@@ -40648,7 +40648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
@@ -41410,7 +41410,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="79" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="C53" s="78">
         <v>1</v>
@@ -41424,7 +41424,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="79" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="C54" s="78">
         <v>1</v>
@@ -41438,7 +41438,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="79" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="C55" s="78">
         <v>1</v>
@@ -41452,7 +41452,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="79" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="C56" s="78">
         <v>1</v>
@@ -41466,7 +41466,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="79" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="C57" s="78">
         <v>1</v>
@@ -41480,7 +41480,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="79" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="C58" s="78">
         <v>1</v>
@@ -41494,7 +41494,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="79" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="C59" s="78">
         <v>1</v>
@@ -41508,7 +41508,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="79" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="C60" s="78">
         <v>1</v>
@@ -41522,7 +41522,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="79" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="C61" s="78">
         <v>1</v>
@@ -41536,7 +41536,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="79" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="C62" s="78">
         <v>1</v>
@@ -41550,7 +41550,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="79" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="C63" s="78">
         <v>1</v>
@@ -41564,7 +41564,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="79" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="C64" s="78">
         <v>1</v>
@@ -41578,7 +41578,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="79" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="C65" s="78">
         <v>1</v>
@@ -41592,7 +41592,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="79" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="C66" s="78">
         <v>1</v>

--- a/config_debug/shoping_config_cjj.xlsx
+++ b/config_debug/shoping_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3931" uniqueCount="1768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3931" uniqueCount="1772">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6878,10 +6878,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_sd",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>二龙腾飞</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -6914,10 +6910,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_cz",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"9980万金币","300万小游戏币","铁锹*5",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7121,10 +7113,6 @@
     <t>"980万金币","58.8万金币","9.8万",</t>
   </si>
   <si>
-    <t>10478000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>聚划算198元-1</t>
   </si>
   <si>
@@ -7629,6 +7617,34 @@
   </si>
   <si>
     <t>4800000,100000,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10486000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -10554,10 +10570,10 @@
   <dimension ref="A1:AM479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="P430" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G67" sqref="G67"/>
+      <selection pane="bottomRight" activeCell="P447" sqref="P447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -30782,11 +30798,11 @@
         <v>1</v>
       </c>
       <c r="G328" s="44" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
       <c r="H328" s="44"/>
       <c r="I328" s="44" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="J328" s="44"/>
       <c r="K328" s="44">
@@ -30799,13 +30815,13 @@
         <v>0</v>
       </c>
       <c r="N328" s="44" t="s">
-        <v>1721</v>
+        <v>1718</v>
       </c>
       <c r="O328" s="44">
         <v>600</v>
       </c>
       <c r="P328" s="44" t="s">
-        <v>1722</v>
+        <v>1719</v>
       </c>
       <c r="Q328" s="48" t="s">
         <v>1134</v>
@@ -30815,7 +30831,7 @@
       <c r="T328" s="44"/>
       <c r="U328" s="44"/>
       <c r="V328" s="44" t="s">
-        <v>1723</v>
+        <v>1720</v>
       </c>
       <c r="W328" s="44">
         <v>99999999</v>
@@ -30868,7 +30884,7 @@
       </c>
       <c r="H329" s="44"/>
       <c r="I329" s="44" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
       <c r="J329" s="44"/>
       <c r="K329" s="44">
@@ -30881,23 +30897,23 @@
         <v>0</v>
       </c>
       <c r="N329" s="44" t="s">
-        <v>1721</v>
+        <v>1718</v>
       </c>
       <c r="O329" s="44">
         <v>2800</v>
       </c>
       <c r="P329" s="44" t="s">
-        <v>1725</v>
+        <v>1722</v>
       </c>
       <c r="Q329" s="48" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
       <c r="R329" s="44"/>
       <c r="S329" s="44"/>
       <c r="T329" s="44"/>
       <c r="U329" s="44"/>
       <c r="V329" s="44" t="s">
-        <v>1727</v>
+        <v>1724</v>
       </c>
       <c r="W329" s="44">
         <v>99999999</v>
@@ -30950,7 +30966,7 @@
       </c>
       <c r="H330" s="44"/>
       <c r="I330" s="44" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
       <c r="J330" s="44"/>
       <c r="K330" s="44">
@@ -30963,23 +30979,23 @@
         <v>0</v>
       </c>
       <c r="N330" s="44" t="s">
-        <v>1729</v>
+        <v>1726</v>
       </c>
       <c r="O330" s="44">
         <v>4800</v>
       </c>
       <c r="P330" s="44" t="s">
-        <v>1722</v>
+        <v>1719</v>
       </c>
       <c r="Q330" s="48" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
       <c r="R330" s="44"/>
       <c r="S330" s="44"/>
       <c r="T330" s="44"/>
       <c r="U330" s="44"/>
       <c r="V330" s="44" t="s">
-        <v>1727</v>
+        <v>1724</v>
       </c>
       <c r="W330" s="44">
         <v>99999999</v>
@@ -31032,7 +31048,7 @@
       </c>
       <c r="H331" s="44"/>
       <c r="I331" s="44" t="s">
-        <v>1731</v>
+        <v>1728</v>
       </c>
       <c r="J331" s="44"/>
       <c r="K331" s="44">
@@ -31045,23 +31061,23 @@
         <v>0</v>
       </c>
       <c r="N331" s="44" t="s">
-        <v>1721</v>
+        <v>1718</v>
       </c>
       <c r="O331" s="44">
         <v>9900</v>
       </c>
       <c r="P331" s="44" t="s">
-        <v>1725</v>
+        <v>1722</v>
       </c>
       <c r="Q331" s="48" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="R331" s="44"/>
       <c r="S331" s="44"/>
       <c r="T331" s="44"/>
       <c r="U331" s="44"/>
       <c r="V331" s="44" t="s">
-        <v>1723</v>
+        <v>1720</v>
       </c>
       <c r="W331" s="44">
         <v>99999999</v>
@@ -31114,7 +31130,7 @@
       </c>
       <c r="H332" s="44"/>
       <c r="I332" s="44" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="J332" s="44"/>
       <c r="K332" s="44">
@@ -31127,23 +31143,23 @@
         <v>0</v>
       </c>
       <c r="N332" s="44" t="s">
-        <v>1729</v>
+        <v>1726</v>
       </c>
       <c r="O332" s="44">
         <v>19800</v>
       </c>
       <c r="P332" s="44" t="s">
-        <v>1725</v>
+        <v>1722</v>
       </c>
       <c r="Q332" s="48" t="s">
-        <v>1734</v>
+        <v>1731</v>
       </c>
       <c r="R332" s="44"/>
       <c r="S332" s="44"/>
       <c r="T332" s="44"/>
       <c r="U332" s="44"/>
       <c r="V332" s="44" t="s">
-        <v>1723</v>
+        <v>1720</v>
       </c>
       <c r="W332" s="44">
         <v>99999999</v>
@@ -31196,7 +31212,7 @@
       </c>
       <c r="H333" s="44"/>
       <c r="I333" s="44" t="s">
-        <v>1735</v>
+        <v>1732</v>
       </c>
       <c r="J333" s="44"/>
       <c r="K333" s="44">
@@ -31209,23 +31225,23 @@
         <v>0</v>
       </c>
       <c r="N333" s="44" t="s">
-        <v>1721</v>
+        <v>1718</v>
       </c>
       <c r="O333" s="44">
         <v>29800</v>
       </c>
       <c r="P333" s="44" t="s">
-        <v>1725</v>
+        <v>1722</v>
       </c>
       <c r="Q333" s="48" t="s">
-        <v>1736</v>
+        <v>1733</v>
       </c>
       <c r="R333" s="44"/>
       <c r="S333" s="44"/>
       <c r="T333" s="44"/>
       <c r="U333" s="44"/>
       <c r="V333" s="44" t="s">
-        <v>1737</v>
+        <v>1734</v>
       </c>
       <c r="W333" s="44">
         <v>99999999</v>
@@ -31278,7 +31294,7 @@
       </c>
       <c r="H334" s="44"/>
       <c r="I334" s="44" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
       <c r="J334" s="44"/>
       <c r="K334" s="44">
@@ -31291,23 +31307,23 @@
         <v>0</v>
       </c>
       <c r="N334" s="44" t="s">
-        <v>1739</v>
+        <v>1736</v>
       </c>
       <c r="O334" s="44">
         <v>39800</v>
       </c>
       <c r="P334" s="44" t="s">
-        <v>1740</v>
+        <v>1737</v>
       </c>
       <c r="Q334" s="48" t="s">
-        <v>1741</v>
+        <v>1738</v>
       </c>
       <c r="R334" s="44"/>
       <c r="S334" s="44"/>
       <c r="T334" s="44"/>
       <c r="U334" s="44"/>
       <c r="V334" s="44" t="s">
-        <v>1737</v>
+        <v>1734</v>
       </c>
       <c r="W334" s="44">
         <v>99999999</v>
@@ -31360,7 +31376,7 @@
       </c>
       <c r="H335" s="44"/>
       <c r="I335" s="44" t="s">
-        <v>1742</v>
+        <v>1739</v>
       </c>
       <c r="J335" s="44"/>
       <c r="K335" s="44">
@@ -31373,23 +31389,23 @@
         <v>0</v>
       </c>
       <c r="N335" s="44" t="s">
-        <v>1739</v>
+        <v>1736</v>
       </c>
       <c r="O335" s="44">
         <v>49800</v>
       </c>
       <c r="P335" s="44" t="s">
+        <v>1737</v>
+      </c>
+      <c r="Q335" s="48" t="s">
         <v>1740</v>
-      </c>
-      <c r="Q335" s="48" t="s">
-        <v>1743</v>
       </c>
       <c r="R335" s="44"/>
       <c r="S335" s="44"/>
       <c r="T335" s="44"/>
       <c r="U335" s="44"/>
       <c r="V335" s="44" t="s">
-        <v>1737</v>
+        <v>1734</v>
       </c>
       <c r="W335" s="44">
         <v>99999999</v>
@@ -31442,7 +31458,7 @@
       </c>
       <c r="H336" s="44"/>
       <c r="I336" s="44" t="s">
-        <v>1744</v>
+        <v>1741</v>
       </c>
       <c r="J336" s="44"/>
       <c r="K336" s="44">
@@ -31455,23 +31471,23 @@
         <v>0</v>
       </c>
       <c r="N336" s="44" t="s">
-        <v>1739</v>
+        <v>1736</v>
       </c>
       <c r="O336" s="44">
         <v>59800</v>
       </c>
       <c r="P336" s="44" t="s">
-        <v>1740</v>
+        <v>1737</v>
       </c>
       <c r="Q336" s="48" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
       <c r="R336" s="44"/>
       <c r="S336" s="44"/>
       <c r="T336" s="44"/>
       <c r="U336" s="44"/>
       <c r="V336" s="44" t="s">
-        <v>1746</v>
+        <v>1743</v>
       </c>
       <c r="W336" s="44">
         <v>99999999</v>
@@ -31524,7 +31540,7 @@
       </c>
       <c r="H337" s="44"/>
       <c r="I337" s="44" t="s">
-        <v>1747</v>
+        <v>1744</v>
       </c>
       <c r="J337" s="44"/>
       <c r="K337" s="44">
@@ -31537,23 +31553,23 @@
         <v>0</v>
       </c>
       <c r="N337" s="44" t="s">
-        <v>1739</v>
+        <v>1736</v>
       </c>
       <c r="O337" s="44">
         <v>69800</v>
       </c>
       <c r="P337" s="44" t="s">
-        <v>1748</v>
+        <v>1745</v>
       </c>
       <c r="Q337" s="48" t="s">
-        <v>1749</v>
+        <v>1746</v>
       </c>
       <c r="R337" s="44"/>
       <c r="S337" s="44"/>
       <c r="T337" s="44"/>
       <c r="U337" s="44"/>
       <c r="V337" s="44" t="s">
-        <v>1737</v>
+        <v>1734</v>
       </c>
       <c r="W337" s="44">
         <v>99999999</v>
@@ -38056,7 +38072,7 @@
         <v>1800</v>
       </c>
       <c r="P434" s="5" t="s">
-        <v>1569</v>
+        <v>1765</v>
       </c>
       <c r="Q434" s="10" t="s">
         <v>1448</v>
@@ -38097,13 +38113,13 @@
         <v>0</v>
       </c>
       <c r="G435" s="5" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="H435" s="5" t="s">
         <v>1567</v>
       </c>
       <c r="I435" s="5" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="K435" s="5">
         <v>-31</v>
@@ -38121,7 +38137,7 @@
         <v>4800</v>
       </c>
       <c r="P435" s="5" t="s">
-        <v>1569</v>
+        <v>1766</v>
       </c>
       <c r="Q435" s="10" t="s">
         <v>1444</v>
@@ -38168,7 +38184,7 @@
         <v>1567</v>
       </c>
       <c r="I436" s="5" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="K436" s="5">
         <v>-31</v>
@@ -38186,10 +38202,10 @@
         <v>9800</v>
       </c>
       <c r="P436" s="5" t="s">
+        <v>1572</v>
+      </c>
+      <c r="Q436" s="10" t="s">
         <v>1573</v>
-      </c>
-      <c r="Q436" s="10" t="s">
-        <v>1574</v>
       </c>
       <c r="V436" s="5" t="s">
         <v>553</v>
@@ -38233,7 +38249,7 @@
         <v>1567</v>
       </c>
       <c r="I437" s="5" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="K437" s="5">
         <v>-31</v>
@@ -38251,7 +38267,7 @@
         <v>19800</v>
       </c>
       <c r="P437" s="5" t="s">
-        <v>1573</v>
+        <v>1767</v>
       </c>
       <c r="Q437" s="10" t="s">
         <v>1443</v>
@@ -38298,7 +38314,7 @@
         <v>1567</v>
       </c>
       <c r="I438" s="5" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="K438" s="5">
         <v>-31</v>
@@ -38316,7 +38332,7 @@
         <v>29800</v>
       </c>
       <c r="P438" s="5" t="s">
-        <v>1573</v>
+        <v>1768</v>
       </c>
       <c r="Q438" s="10" t="s">
         <v>1450</v>
@@ -38363,7 +38379,7 @@
         <v>1567</v>
       </c>
       <c r="I439" s="5" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="K439" s="5">
         <v>-31</v>
@@ -38381,7 +38397,7 @@
         <v>49800</v>
       </c>
       <c r="P439" s="5" t="s">
-        <v>1578</v>
+        <v>1769</v>
       </c>
       <c r="Q439" s="10" t="s">
         <v>1445</v>
@@ -38428,7 +38444,7 @@
         <v>1567</v>
       </c>
       <c r="I440" s="5" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="K440" s="5">
         <v>-31</v>
@@ -38446,7 +38462,7 @@
         <v>99800</v>
       </c>
       <c r="P440" s="5" t="s">
-        <v>1578</v>
+        <v>1770</v>
       </c>
       <c r="Q440" s="10" t="s">
         <v>1446</v>
@@ -38487,10 +38503,10 @@
         <v>0</v>
       </c>
       <c r="G441" s="5" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="I441" s="5" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="K441" s="5">
         <v>-31</v>
@@ -38508,13 +38524,13 @@
         <v>49800</v>
       </c>
       <c r="P441" s="5" t="s">
+        <v>1580</v>
+      </c>
+      <c r="Q441" s="10" t="s">
+        <v>1581</v>
+      </c>
+      <c r="V441" s="5" t="s">
         <v>1582</v>
-      </c>
-      <c r="Q441" s="10" t="s">
-        <v>1583</v>
-      </c>
-      <c r="V441" s="5" t="s">
-        <v>1584</v>
       </c>
       <c r="W441" s="5">
         <v>9999999</v>
@@ -38549,10 +38565,10 @@
         <v>0</v>
       </c>
       <c r="G442" s="5" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="I442" s="5" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="K442" s="5">
         <v>-31</v>
@@ -38570,13 +38586,13 @@
         <v>19800</v>
       </c>
       <c r="P442" s="5" t="s">
+        <v>1580</v>
+      </c>
+      <c r="Q442" s="10" t="s">
+        <v>1585</v>
+      </c>
+      <c r="V442" s="5" t="s">
         <v>1582</v>
-      </c>
-      <c r="Q442" s="10" t="s">
-        <v>1587</v>
-      </c>
-      <c r="V442" s="5" t="s">
-        <v>1584</v>
       </c>
       <c r="W442" s="5">
         <v>9999999</v>
@@ -38611,10 +38627,10 @@
         <v>0</v>
       </c>
       <c r="G443" s="5" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="I443" s="5" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="K443" s="5">
         <v>-31</v>
@@ -38632,13 +38648,13 @@
         <v>9800</v>
       </c>
       <c r="P443" s="5" t="s">
+        <v>1580</v>
+      </c>
+      <c r="Q443" s="10" t="s">
+        <v>1588</v>
+      </c>
+      <c r="V443" s="5" t="s">
         <v>1582</v>
-      </c>
-      <c r="Q443" s="10" t="s">
-        <v>1590</v>
-      </c>
-      <c r="V443" s="5" t="s">
-        <v>1584</v>
       </c>
       <c r="W443" s="5">
         <v>9999999</v>
@@ -38673,10 +38689,10 @@
         <v>0</v>
       </c>
       <c r="G444" s="5" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="I444" s="5" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="K444" s="5">
         <v>-31</v>
@@ -38694,13 +38710,13 @@
         <v>4800</v>
       </c>
       <c r="P444" s="5" t="s">
+        <v>1580</v>
+      </c>
+      <c r="Q444" s="10" t="s">
+        <v>1591</v>
+      </c>
+      <c r="V444" s="5" t="s">
         <v>1582</v>
-      </c>
-      <c r="Q444" s="10" t="s">
-        <v>1593</v>
-      </c>
-      <c r="V444" s="5" t="s">
-        <v>1584</v>
       </c>
       <c r="W444" s="5">
         <v>9999999</v>
@@ -38735,10 +38751,10 @@
         <v>0</v>
       </c>
       <c r="G445" s="5" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="I445" s="5" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="K445" s="5">
         <v>-31</v>
@@ -38756,10 +38772,10 @@
         <v>2000</v>
       </c>
       <c r="P445" s="5" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="Q445" s="10" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="V445" s="5" t="s">
         <v>597</v>
@@ -38797,10 +38813,10 @@
         <v>0</v>
       </c>
       <c r="G446" s="5" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="I446" s="5" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="K446" s="5">
         <v>-31</v>
@@ -38818,7 +38834,7 @@
         <v>600</v>
       </c>
       <c r="P446" s="5" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="Q446" s="10" t="s">
         <v>1413</v>
@@ -38859,13 +38875,13 @@
         <v>1</v>
       </c>
       <c r="G447" s="69" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H447" s="69" t="s">
+        <v>1598</v>
+      </c>
+      <c r="I447" s="69" t="s">
         <v>1599</v>
-      </c>
-      <c r="H447" s="69" t="s">
-        <v>1600</v>
-      </c>
-      <c r="I447" s="69" t="s">
-        <v>1601</v>
       </c>
       <c r="K447" s="69">
         <v>-31</v>
@@ -38886,7 +38902,7 @@
         <v>461</v>
       </c>
       <c r="Q447" s="70" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="V447" s="5" t="s">
         <v>597</v>
@@ -38927,13 +38943,13 @@
         <v>1</v>
       </c>
       <c r="G448" s="69" t="s">
+        <v>1601</v>
+      </c>
+      <c r="H448" s="69" t="s">
+        <v>1602</v>
+      </c>
+      <c r="I448" s="69" t="s">
         <v>1603</v>
-      </c>
-      <c r="H448" s="69" t="s">
-        <v>1604</v>
-      </c>
-      <c r="I448" s="69" t="s">
-        <v>1605</v>
       </c>
       <c r="K448" s="69">
         <v>-31</v>
@@ -38954,7 +38970,7 @@
         <v>461</v>
       </c>
       <c r="Q448" s="70" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="V448" s="5" t="s">
         <v>597</v>
@@ -38992,13 +39008,13 @@
         <v>1</v>
       </c>
       <c r="G449" s="69" t="s">
+        <v>1605</v>
+      </c>
+      <c r="H449" s="69" t="s">
+        <v>1606</v>
+      </c>
+      <c r="I449" s="69" t="s">
         <v>1607</v>
-      </c>
-      <c r="H449" s="69" t="s">
-        <v>1608</v>
-      </c>
-      <c r="I449" s="69" t="s">
-        <v>1609</v>
       </c>
       <c r="K449" s="69">
         <v>-31</v>
@@ -39019,7 +39035,7 @@
         <v>461</v>
       </c>
       <c r="Q449" s="70" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="V449" s="5" t="s">
         <v>553</v>
@@ -39060,13 +39076,13 @@
         <v>1</v>
       </c>
       <c r="G450" s="71" t="s">
+        <v>1609</v>
+      </c>
+      <c r="H450" s="71" t="s">
+        <v>1610</v>
+      </c>
+      <c r="I450" s="71" t="s">
         <v>1611</v>
-      </c>
-      <c r="H450" s="71" t="s">
-        <v>1612</v>
-      </c>
-      <c r="I450" s="71" t="s">
-        <v>1613</v>
       </c>
       <c r="K450" s="71">
         <v>-31</v>
@@ -39087,7 +39103,7 @@
         <v>461</v>
       </c>
       <c r="Q450" s="72" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="V450" s="5" t="s">
         <v>553</v>
@@ -39128,13 +39144,13 @@
         <v>1</v>
       </c>
       <c r="G451" s="71" t="s">
+        <v>1613</v>
+      </c>
+      <c r="H451" s="71" t="s">
+        <v>1614</v>
+      </c>
+      <c r="I451" s="71" t="s">
         <v>1615</v>
-      </c>
-      <c r="H451" s="71" t="s">
-        <v>1616</v>
-      </c>
-      <c r="I451" s="71" t="s">
-        <v>1617</v>
       </c>
       <c r="K451" s="71">
         <v>-31</v>
@@ -39155,7 +39171,7 @@
         <v>461</v>
       </c>
       <c r="Q451" s="72" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="V451" s="5" t="s">
         <v>553</v>
@@ -39193,13 +39209,13 @@
         <v>1</v>
       </c>
       <c r="G452" s="71" t="s">
+        <v>1617</v>
+      </c>
+      <c r="H452" s="71" t="s">
+        <v>1618</v>
+      </c>
+      <c r="I452" s="71" t="s">
         <v>1619</v>
-      </c>
-      <c r="H452" s="71" t="s">
-        <v>1620</v>
-      </c>
-      <c r="I452" s="71" t="s">
-        <v>1621</v>
       </c>
       <c r="K452" s="71">
         <v>-31</v>
@@ -39220,7 +39236,7 @@
         <v>461</v>
       </c>
       <c r="Q452" s="72" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="V452" s="5" t="s">
         <v>553</v>
@@ -39261,13 +39277,13 @@
         <v>1</v>
       </c>
       <c r="G453" s="69" t="s">
+        <v>1621</v>
+      </c>
+      <c r="H453" s="69" t="s">
+        <v>1622</v>
+      </c>
+      <c r="I453" s="69" t="s">
         <v>1623</v>
-      </c>
-      <c r="H453" s="69" t="s">
-        <v>1624</v>
-      </c>
-      <c r="I453" s="69" t="s">
-        <v>1625</v>
       </c>
       <c r="K453" s="69">
         <v>-31</v>
@@ -39288,7 +39304,7 @@
         <v>461</v>
       </c>
       <c r="Q453" s="70" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="V453" s="5" t="s">
         <v>553</v>
@@ -39329,13 +39345,13 @@
         <v>1</v>
       </c>
       <c r="G454" s="69" t="s">
+        <v>1625</v>
+      </c>
+      <c r="H454" s="69" t="s">
+        <v>1626</v>
+      </c>
+      <c r="I454" s="69" t="s">
         <v>1627</v>
-      </c>
-      <c r="H454" s="69" t="s">
-        <v>1628</v>
-      </c>
-      <c r="I454" s="69" t="s">
-        <v>1629</v>
       </c>
       <c r="K454" s="69">
         <v>-31</v>
@@ -39356,7 +39372,7 @@
         <v>461</v>
       </c>
       <c r="Q454" s="70" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="V454" s="5" t="s">
         <v>553</v>
@@ -39394,13 +39410,13 @@
         <v>1</v>
       </c>
       <c r="G455" s="69" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H455" s="69" t="s">
+        <v>1630</v>
+      </c>
+      <c r="I455" s="69" t="s">
         <v>1631</v>
-      </c>
-      <c r="H455" s="69" t="s">
-        <v>1632</v>
-      </c>
-      <c r="I455" s="69" t="s">
-        <v>1633</v>
       </c>
       <c r="K455" s="69">
         <v>-31</v>
@@ -39421,7 +39437,7 @@
         <v>461</v>
       </c>
       <c r="Q455" s="70" t="s">
-        <v>1634</v>
+        <v>1771</v>
       </c>
       <c r="V455" s="5" t="s">
         <v>553</v>
@@ -39462,13 +39478,13 @@
         <v>1</v>
       </c>
       <c r="G456" s="71" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
       <c r="H456" s="71" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
       <c r="I456" s="71" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
       <c r="K456" s="71">
         <v>-31</v>
@@ -39489,7 +39505,7 @@
         <v>461</v>
       </c>
       <c r="Q456" s="72" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="V456" s="5" t="s">
         <v>553</v>
@@ -39530,13 +39546,13 @@
         <v>1</v>
       </c>
       <c r="G457" s="71" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="H457" s="71" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
       <c r="I457" s="71" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="K457" s="71">
         <v>-31</v>
@@ -39557,7 +39573,7 @@
         <v>461</v>
       </c>
       <c r="Q457" s="72" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
       <c r="V457" s="5" t="s">
         <v>553</v>
@@ -39595,13 +39611,13 @@
         <v>1</v>
       </c>
       <c r="G458" s="71" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
       <c r="H458" s="71" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
       <c r="I458" s="71" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
       <c r="K458" s="71">
         <v>-31</v>
@@ -39622,7 +39638,7 @@
         <v>461</v>
       </c>
       <c r="Q458" s="72" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
       <c r="V458" s="5" t="s">
         <v>553</v>
@@ -39663,13 +39679,13 @@
         <v>1</v>
       </c>
       <c r="G459" s="69" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="H459" s="69" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
       <c r="I459" s="69" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
       <c r="K459" s="69">
         <v>-31</v>
@@ -39690,7 +39706,7 @@
         <v>461</v>
       </c>
       <c r="Q459" s="70" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
       <c r="V459" s="5" t="s">
         <v>553</v>
@@ -39731,13 +39747,13 @@
         <v>1</v>
       </c>
       <c r="G460" s="69" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="H460" s="69" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
       <c r="I460" s="69" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
       <c r="K460" s="69">
         <v>-31</v>
@@ -39758,7 +39774,7 @@
         <v>461</v>
       </c>
       <c r="Q460" s="70" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
       <c r="V460" s="5" t="s">
         <v>553</v>
@@ -39796,13 +39812,13 @@
         <v>1</v>
       </c>
       <c r="G461" s="69" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="H461" s="69" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="I461" s="69" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="K461" s="69">
         <v>-31</v>
@@ -39823,7 +39839,7 @@
         <v>461</v>
       </c>
       <c r="Q461" s="70" t="s">
-        <v>1658</v>
+        <v>1655</v>
       </c>
       <c r="V461" s="5" t="s">
         <v>553</v>
@@ -39864,13 +39880,13 @@
         <v>1</v>
       </c>
       <c r="G462" s="71" t="s">
-        <v>1659</v>
+        <v>1656</v>
       </c>
       <c r="H462" s="71" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
       <c r="I462" s="71" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
       <c r="K462" s="71">
         <v>-31</v>
@@ -39891,7 +39907,7 @@
         <v>461</v>
       </c>
       <c r="Q462" s="72" t="s">
-        <v>1662</v>
+        <v>1659</v>
       </c>
       <c r="V462" s="5" t="s">
         <v>553</v>
@@ -39932,13 +39948,13 @@
         <v>1</v>
       </c>
       <c r="G463" s="71" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="H463" s="71" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
       <c r="I463" s="71" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
       <c r="K463" s="71">
         <v>-31</v>
@@ -39959,7 +39975,7 @@
         <v>461</v>
       </c>
       <c r="Q463" s="72" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="V463" s="5" t="s">
         <v>553</v>
@@ -39997,13 +40013,13 @@
         <v>1</v>
       </c>
       <c r="G464" s="71" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
       <c r="H464" s="71" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
       <c r="I464" s="71" t="s">
-        <v>1669</v>
+        <v>1666</v>
       </c>
       <c r="K464" s="71">
         <v>-31</v>
@@ -40024,7 +40040,7 @@
         <v>461</v>
       </c>
       <c r="Q464" s="72" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
       <c r="V464" s="5" t="s">
         <v>553</v>
@@ -40065,13 +40081,13 @@
         <v>1</v>
       </c>
       <c r="G465" s="69" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
       <c r="H465" s="69" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="I465" s="69" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="K465" s="69">
         <v>-31</v>
@@ -40092,7 +40108,7 @@
         <v>461</v>
       </c>
       <c r="Q465" s="70" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="V465" s="5" t="s">
         <v>553</v>
@@ -40133,13 +40149,13 @@
         <v>1</v>
       </c>
       <c r="G466" s="69" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="H466" s="69" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="I466" s="69" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="K466" s="69">
         <v>-31</v>
@@ -40160,7 +40176,7 @@
         <v>461</v>
       </c>
       <c r="Q466" s="70" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="V466" s="5" t="s">
         <v>553</v>
@@ -40198,13 +40214,13 @@
         <v>1</v>
       </c>
       <c r="G467" s="69" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="H467" s="69" t="s">
-        <v>1680</v>
+        <v>1677</v>
       </c>
       <c r="I467" s="69" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="K467" s="69">
         <v>-31</v>
@@ -40225,7 +40241,7 @@
         <v>461</v>
       </c>
       <c r="Q467" s="70" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
       <c r="V467" s="5" t="s">
         <v>553</v>
@@ -40266,10 +40282,10 @@
         <v>1</v>
       </c>
       <c r="G468" s="73" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
       <c r="H468" s="73" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="I468" s="73" t="s">
         <v>1117</v>
@@ -40296,7 +40312,7 @@
         <v>1118</v>
       </c>
       <c r="V468" s="73" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
       <c r="W468" s="73">
         <v>9999999</v>
@@ -40331,13 +40347,13 @@
         <v>1</v>
       </c>
       <c r="G469" s="73" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
       <c r="H469" s="73" t="s">
+        <v>1681</v>
+      </c>
+      <c r="I469" s="73" t="s">
         <v>1684</v>
-      </c>
-      <c r="I469" s="73" t="s">
-        <v>1687</v>
       </c>
       <c r="K469" s="73">
         <v>-31</v>
@@ -40358,10 +40374,10 @@
         <v>461</v>
       </c>
       <c r="Q469" s="74" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="V469" s="73" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
       <c r="W469" s="73">
         <v>9999999</v>
@@ -40396,10 +40412,10 @@
         <v>1</v>
       </c>
       <c r="G470" s="73" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="H470" s="73" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="I470" s="73" t="s">
         <v>1318</v>
@@ -40426,7 +40442,7 @@
         <v>857</v>
       </c>
       <c r="V470" s="73" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
       <c r="W470" s="73">
         <v>9999999</v>
@@ -40461,13 +40477,13 @@
         <v>1</v>
       </c>
       <c r="G471" s="73" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
       <c r="H471" s="73" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="I471" s="73" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="K471" s="73">
         <v>-31</v>
@@ -40488,10 +40504,10 @@
         <v>461</v>
       </c>
       <c r="Q471" s="74" t="s">
-        <v>1692</v>
+        <v>1689</v>
       </c>
       <c r="V471" s="73" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="W471" s="73">
         <v>9999999</v>
@@ -40526,13 +40542,13 @@
         <v>1</v>
       </c>
       <c r="G472" s="73" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
       <c r="H472" s="73" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="I472" s="73" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="K472" s="73">
         <v>-31</v>
@@ -40556,7 +40572,7 @@
         <v>858</v>
       </c>
       <c r="V472" s="73" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="W472" s="73">
         <v>9999999</v>
@@ -40591,13 +40607,13 @@
         <v>1</v>
       </c>
       <c r="G473" s="73" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
       <c r="H473" s="73" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="I473" s="73" t="s">
-        <v>1697</v>
+        <v>1694</v>
       </c>
       <c r="K473" s="73">
         <v>-31</v>
@@ -40618,10 +40634,10 @@
         <v>461</v>
       </c>
       <c r="Q473" s="74" t="s">
-        <v>1698</v>
+        <v>1695</v>
       </c>
       <c r="V473" s="73" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="W473" s="73">
         <v>9999999</v>
@@ -40656,13 +40672,13 @@
         <v>1</v>
       </c>
       <c r="G474" s="75" t="s">
-        <v>1699</v>
+        <v>1696</v>
       </c>
       <c r="H474" s="75" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="I474" s="75" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="K474" s="75">
         <v>-31</v>
@@ -40683,10 +40699,10 @@
         <v>461</v>
       </c>
       <c r="Q474" s="76" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
       <c r="V474" s="73" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="W474" s="75">
         <v>9999999</v>
@@ -40721,13 +40737,13 @@
         <v>1</v>
       </c>
       <c r="G475" s="75" t="s">
-        <v>1702</v>
+        <v>1699</v>
       </c>
       <c r="H475" s="75" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="I475" s="75" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
       <c r="K475" s="75">
         <v>-31</v>
@@ -40748,10 +40764,10 @@
         <v>461</v>
       </c>
       <c r="Q475" s="76" t="s">
-        <v>1704</v>
+        <v>1701</v>
       </c>
       <c r="V475" s="73" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="W475" s="75">
         <v>9999999</v>
@@ -40786,13 +40802,13 @@
         <v>1</v>
       </c>
       <c r="G476" s="80" t="s">
-        <v>1750</v>
+        <v>1747</v>
       </c>
       <c r="H476" s="80" t="s">
-        <v>1751</v>
+        <v>1748</v>
       </c>
       <c r="I476" s="80" t="s">
-        <v>1752</v>
+        <v>1749</v>
       </c>
       <c r="K476" s="80">
         <v>-31</v>
@@ -40804,19 +40820,19 @@
         <v>0</v>
       </c>
       <c r="N476" s="80" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="O476" s="80">
         <v>49800</v>
       </c>
       <c r="P476" s="80" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
       <c r="Q476" s="81" t="s">
-        <v>1755</v>
+        <v>1752</v>
       </c>
       <c r="V476" s="80" t="s">
-        <v>1756</v>
+        <v>1753</v>
       </c>
       <c r="W476" s="80">
         <v>9999999</v>
@@ -40851,13 +40867,13 @@
         <v>1</v>
       </c>
       <c r="G477" s="80" t="s">
-        <v>1750</v>
+        <v>1747</v>
       </c>
       <c r="H477" s="80" t="s">
-        <v>1757</v>
+        <v>1754</v>
       </c>
       <c r="I477" s="80" t="s">
-        <v>1758</v>
+        <v>1755</v>
       </c>
       <c r="K477" s="80">
         <v>-31</v>
@@ -40869,19 +40885,19 @@
         <v>0</v>
       </c>
       <c r="N477" s="80" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="O477" s="80">
         <v>19800</v>
       </c>
       <c r="P477" s="80" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
       <c r="Q477" s="81" t="s">
-        <v>1759</v>
+        <v>1756</v>
       </c>
       <c r="V477" s="80" t="s">
-        <v>1756</v>
+        <v>1753</v>
       </c>
       <c r="W477" s="80">
         <v>9999999</v>
@@ -40916,13 +40932,13 @@
         <v>1</v>
       </c>
       <c r="G478" s="80" t="s">
-        <v>1750</v>
+        <v>1747</v>
       </c>
       <c r="H478" s="80" t="s">
-        <v>1760</v>
+        <v>1757</v>
       </c>
       <c r="I478" s="80" t="s">
-        <v>1761</v>
+        <v>1758</v>
       </c>
       <c r="K478" s="80">
         <v>-31</v>
@@ -40934,16 +40950,16 @@
         <v>0</v>
       </c>
       <c r="N478" s="80" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="O478" s="80">
         <v>9800</v>
       </c>
       <c r="P478" s="80" t="s">
-        <v>1762</v>
+        <v>1759</v>
       </c>
       <c r="Q478" s="81" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
       <c r="V478" s="80" t="s">
         <v>553</v>
@@ -40981,13 +40997,13 @@
         <v>1</v>
       </c>
       <c r="G479" s="80" t="s">
-        <v>1750</v>
+        <v>1747</v>
       </c>
       <c r="H479" s="80" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
       <c r="I479" s="80" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
       <c r="K479" s="80">
         <v>-31</v>
@@ -40999,19 +41015,19 @@
         <v>0</v>
       </c>
       <c r="N479" s="80" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="O479" s="80">
         <v>4800</v>
       </c>
       <c r="P479" s="80" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
       <c r="Q479" s="81" t="s">
-        <v>1767</v>
+        <v>1764</v>
       </c>
       <c r="V479" s="80" t="s">
-        <v>1756</v>
+        <v>1753</v>
       </c>
       <c r="W479" s="80">
         <v>9999999</v>
@@ -41809,7 +41825,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="79" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="C53" s="78">
         <v>1</v>
@@ -41823,7 +41839,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="79" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="C54" s="78">
         <v>1</v>
@@ -41837,7 +41853,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="79" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="C55" s="78">
         <v>1</v>
@@ -41851,7 +41867,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="79" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
       <c r="C56" s="78">
         <v>1</v>
@@ -41865,7 +41881,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="79" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="C57" s="78">
         <v>1</v>
@@ -41879,7 +41895,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="79" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="C58" s="78">
         <v>1</v>
@@ -41893,7 +41909,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="79" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
       <c r="C59" s="78">
         <v>1</v>
@@ -41907,7 +41923,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="79" t="s">
-        <v>1712</v>
+        <v>1709</v>
       </c>
       <c r="C60" s="78">
         <v>1</v>
@@ -41921,7 +41937,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="79" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="C61" s="78">
         <v>1</v>
@@ -41935,7 +41951,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="79" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="C62" s="78">
         <v>1</v>
@@ -41949,7 +41965,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="79" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
       <c r="C63" s="78">
         <v>1</v>
@@ -41963,7 +41979,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="79" t="s">
-        <v>1716</v>
+        <v>1713</v>
       </c>
       <c r="C64" s="78">
         <v>1</v>
@@ -41977,7 +41993,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="79" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="C65" s="78">
         <v>1</v>
@@ -41991,7 +42007,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="79" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="C66" s="78">
         <v>1</v>

--- a/config_debug/shoping_config_cjj.xlsx
+++ b/config_debug/shoping_config_cjj.xlsx
@@ -7203,10 +7203,6 @@
     <t>"980万金币","58.8万金币","9.8万",</t>
   </si>
   <si>
-    <t>10478000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>聚划算198元-1</t>
   </si>
   <si>
@@ -7515,6 +7511,10 @@
   </si>
   <si>
     <t>250000000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10486000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -10419,10 +10419,10 @@
   <dimension ref="A1:AM475"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="Q455" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="Q440" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q475" sqref="Q475"/>
+      <selection pane="bottomRight" activeCell="Q455" sqref="Q455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -39282,7 +39282,7 @@
         <v>461</v>
       </c>
       <c r="Q455" s="70" t="s">
-        <v>1656</v>
+        <v>1740</v>
       </c>
       <c r="V455" s="5" t="s">
         <v>553</v>
@@ -39323,13 +39323,13 @@
         <v>1</v>
       </c>
       <c r="G456" s="71" t="s">
+        <v>1656</v>
+      </c>
+      <c r="H456" s="71" t="s">
         <v>1657</v>
       </c>
-      <c r="H456" s="71" t="s">
+      <c r="I456" s="71" t="s">
         <v>1658</v>
-      </c>
-      <c r="I456" s="71" t="s">
-        <v>1659</v>
       </c>
       <c r="K456" s="71">
         <v>-31</v>
@@ -39350,7 +39350,7 @@
         <v>461</v>
       </c>
       <c r="Q456" s="72" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="V456" s="5" t="s">
         <v>553</v>
@@ -39391,13 +39391,13 @@
         <v>1</v>
       </c>
       <c r="G457" s="71" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H457" s="71" t="s">
         <v>1661</v>
       </c>
-      <c r="H457" s="71" t="s">
+      <c r="I457" s="71" t="s">
         <v>1662</v>
-      </c>
-      <c r="I457" s="71" t="s">
-        <v>1663</v>
       </c>
       <c r="K457" s="71">
         <v>-31</v>
@@ -39418,7 +39418,7 @@
         <v>461</v>
       </c>
       <c r="Q457" s="72" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="V457" s="5" t="s">
         <v>553</v>
@@ -39456,13 +39456,13 @@
         <v>1</v>
       </c>
       <c r="G458" s="71" t="s">
+        <v>1664</v>
+      </c>
+      <c r="H458" s="71" t="s">
         <v>1665</v>
       </c>
-      <c r="H458" s="71" t="s">
+      <c r="I458" s="71" t="s">
         <v>1666</v>
-      </c>
-      <c r="I458" s="71" t="s">
-        <v>1667</v>
       </c>
       <c r="K458" s="71">
         <v>-31</v>
@@ -39483,7 +39483,7 @@
         <v>461</v>
       </c>
       <c r="Q458" s="72" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="V458" s="5" t="s">
         <v>553</v>
@@ -39524,13 +39524,13 @@
         <v>1</v>
       </c>
       <c r="G459" s="69" t="s">
+        <v>1668</v>
+      </c>
+      <c r="H459" s="69" t="s">
         <v>1669</v>
       </c>
-      <c r="H459" s="69" t="s">
+      <c r="I459" s="69" t="s">
         <v>1670</v>
-      </c>
-      <c r="I459" s="69" t="s">
-        <v>1671</v>
       </c>
       <c r="K459" s="69">
         <v>-31</v>
@@ -39551,7 +39551,7 @@
         <v>461</v>
       </c>
       <c r="Q459" s="70" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="V459" s="5" t="s">
         <v>553</v>
@@ -39592,13 +39592,13 @@
         <v>1</v>
       </c>
       <c r="G460" s="69" t="s">
+        <v>1672</v>
+      </c>
+      <c r="H460" s="69" t="s">
         <v>1673</v>
       </c>
-      <c r="H460" s="69" t="s">
+      <c r="I460" s="69" t="s">
         <v>1674</v>
-      </c>
-      <c r="I460" s="69" t="s">
-        <v>1675</v>
       </c>
       <c r="K460" s="69">
         <v>-31</v>
@@ -39619,7 +39619,7 @@
         <v>461</v>
       </c>
       <c r="Q460" s="70" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="V460" s="5" t="s">
         <v>553</v>
@@ -39657,13 +39657,13 @@
         <v>1</v>
       </c>
       <c r="G461" s="69" t="s">
+        <v>1676</v>
+      </c>
+      <c r="H461" s="69" t="s">
         <v>1677</v>
       </c>
-      <c r="H461" s="69" t="s">
+      <c r="I461" s="69" t="s">
         <v>1678</v>
-      </c>
-      <c r="I461" s="69" t="s">
-        <v>1679</v>
       </c>
       <c r="K461" s="69">
         <v>-31</v>
@@ -39684,7 +39684,7 @@
         <v>461</v>
       </c>
       <c r="Q461" s="70" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="V461" s="5" t="s">
         <v>553</v>
@@ -39725,13 +39725,13 @@
         <v>1</v>
       </c>
       <c r="G462" s="71" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H462" s="71" t="s">
         <v>1681</v>
       </c>
-      <c r="H462" s="71" t="s">
+      <c r="I462" s="71" t="s">
         <v>1682</v>
-      </c>
-      <c r="I462" s="71" t="s">
-        <v>1683</v>
       </c>
       <c r="K462" s="71">
         <v>-31</v>
@@ -39752,7 +39752,7 @@
         <v>461</v>
       </c>
       <c r="Q462" s="72" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="V462" s="5" t="s">
         <v>553</v>
@@ -39793,13 +39793,13 @@
         <v>1</v>
       </c>
       <c r="G463" s="71" t="s">
+        <v>1684</v>
+      </c>
+      <c r="H463" s="71" t="s">
         <v>1685</v>
       </c>
-      <c r="H463" s="71" t="s">
+      <c r="I463" s="71" t="s">
         <v>1686</v>
-      </c>
-      <c r="I463" s="71" t="s">
-        <v>1687</v>
       </c>
       <c r="K463" s="71">
         <v>-31</v>
@@ -39820,7 +39820,7 @@
         <v>461</v>
       </c>
       <c r="Q463" s="72" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="V463" s="5" t="s">
         <v>553</v>
@@ -39858,13 +39858,13 @@
         <v>1</v>
       </c>
       <c r="G464" s="71" t="s">
+        <v>1688</v>
+      </c>
+      <c r="H464" s="71" t="s">
         <v>1689</v>
       </c>
-      <c r="H464" s="71" t="s">
+      <c r="I464" s="71" t="s">
         <v>1690</v>
-      </c>
-      <c r="I464" s="71" t="s">
-        <v>1691</v>
       </c>
       <c r="K464" s="71">
         <v>-31</v>
@@ -39885,7 +39885,7 @@
         <v>461</v>
       </c>
       <c r="Q464" s="72" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="V464" s="5" t="s">
         <v>553</v>
@@ -39926,13 +39926,13 @@
         <v>1</v>
       </c>
       <c r="G465" s="69" t="s">
+        <v>1692</v>
+      </c>
+      <c r="H465" s="69" t="s">
         <v>1693</v>
       </c>
-      <c r="H465" s="69" t="s">
+      <c r="I465" s="69" t="s">
         <v>1694</v>
-      </c>
-      <c r="I465" s="69" t="s">
-        <v>1695</v>
       </c>
       <c r="K465" s="69">
         <v>-31</v>
@@ -39953,7 +39953,7 @@
         <v>461</v>
       </c>
       <c r="Q465" s="70" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="V465" s="5" t="s">
         <v>553</v>
@@ -39994,13 +39994,13 @@
         <v>1</v>
       </c>
       <c r="G466" s="69" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H466" s="69" t="s">
         <v>1697</v>
       </c>
-      <c r="H466" s="69" t="s">
+      <c r="I466" s="69" t="s">
         <v>1698</v>
-      </c>
-      <c r="I466" s="69" t="s">
-        <v>1699</v>
       </c>
       <c r="K466" s="69">
         <v>-31</v>
@@ -40021,7 +40021,7 @@
         <v>461</v>
       </c>
       <c r="Q466" s="70" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="V466" s="5" t="s">
         <v>553</v>
@@ -40059,13 +40059,13 @@
         <v>1</v>
       </c>
       <c r="G467" s="69" t="s">
+        <v>1700</v>
+      </c>
+      <c r="H467" s="69" t="s">
         <v>1701</v>
       </c>
-      <c r="H467" s="69" t="s">
+      <c r="I467" s="69" t="s">
         <v>1702</v>
-      </c>
-      <c r="I467" s="69" t="s">
-        <v>1703</v>
       </c>
       <c r="K467" s="69">
         <v>-31</v>
@@ -40086,7 +40086,7 @@
         <v>461</v>
       </c>
       <c r="Q467" s="70" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="V467" s="5" t="s">
         <v>553</v>
@@ -40127,10 +40127,10 @@
         <v>1</v>
       </c>
       <c r="G468" s="73" t="s">
+        <v>1704</v>
+      </c>
+      <c r="H468" s="73" t="s">
         <v>1705</v>
-      </c>
-      <c r="H468" s="73" t="s">
-        <v>1706</v>
       </c>
       <c r="I468" s="73" t="s">
         <v>1117</v>
@@ -40157,7 +40157,7 @@
         <v>1118</v>
       </c>
       <c r="V468" s="73" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="W468" s="73">
         <v>9999999</v>
@@ -40192,13 +40192,13 @@
         <v>1</v>
       </c>
       <c r="G469" s="73" t="s">
+        <v>1707</v>
+      </c>
+      <c r="H469" s="73" t="s">
+        <v>1705</v>
+      </c>
+      <c r="I469" s="73" t="s">
         <v>1708</v>
-      </c>
-      <c r="H469" s="73" t="s">
-        <v>1706</v>
-      </c>
-      <c r="I469" s="73" t="s">
-        <v>1709</v>
       </c>
       <c r="K469" s="73">
         <v>-31</v>
@@ -40219,10 +40219,10 @@
         <v>461</v>
       </c>
       <c r="Q469" s="74" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="V469" s="73" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="W469" s="73">
         <v>9999999</v>
@@ -40257,10 +40257,10 @@
         <v>1</v>
       </c>
       <c r="G470" s="73" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="H470" s="73" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="I470" s="73" t="s">
         <v>1340</v>
@@ -40287,7 +40287,7 @@
         <v>857</v>
       </c>
       <c r="V470" s="73" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="W470" s="73">
         <v>9999999</v>
@@ -40322,13 +40322,13 @@
         <v>1</v>
       </c>
       <c r="G471" s="73" t="s">
+        <v>1711</v>
+      </c>
+      <c r="H471" s="73" t="s">
+        <v>1705</v>
+      </c>
+      <c r="I471" s="73" t="s">
         <v>1712</v>
-      </c>
-      <c r="H471" s="73" t="s">
-        <v>1706</v>
-      </c>
-      <c r="I471" s="73" t="s">
-        <v>1713</v>
       </c>
       <c r="K471" s="73">
         <v>-31</v>
@@ -40349,10 +40349,10 @@
         <v>461</v>
       </c>
       <c r="Q471" s="74" t="s">
+        <v>1713</v>
+      </c>
+      <c r="V471" s="73" t="s">
         <v>1714</v>
-      </c>
-      <c r="V471" s="73" t="s">
-        <v>1715</v>
       </c>
       <c r="W471" s="73">
         <v>9999999</v>
@@ -40387,13 +40387,13 @@
         <v>1</v>
       </c>
       <c r="G472" s="73" t="s">
+        <v>1715</v>
+      </c>
+      <c r="H472" s="73" t="s">
+        <v>1705</v>
+      </c>
+      <c r="I472" s="73" t="s">
         <v>1716</v>
-      </c>
-      <c r="H472" s="73" t="s">
-        <v>1706</v>
-      </c>
-      <c r="I472" s="73" t="s">
-        <v>1717</v>
       </c>
       <c r="K472" s="73">
         <v>-31</v>
@@ -40417,7 +40417,7 @@
         <v>858</v>
       </c>
       <c r="V472" s="73" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="W472" s="73">
         <v>9999999</v>
@@ -40452,13 +40452,13 @@
         <v>1</v>
       </c>
       <c r="G473" s="73" t="s">
+        <v>1717</v>
+      </c>
+      <c r="H473" s="73" t="s">
+        <v>1705</v>
+      </c>
+      <c r="I473" s="73" t="s">
         <v>1718</v>
-      </c>
-      <c r="H473" s="73" t="s">
-        <v>1706</v>
-      </c>
-      <c r="I473" s="73" t="s">
-        <v>1719</v>
       </c>
       <c r="K473" s="73">
         <v>-31</v>
@@ -40479,10 +40479,10 @@
         <v>461</v>
       </c>
       <c r="Q473" s="74" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="V473" s="73" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="W473" s="73">
         <v>9999999</v>
@@ -40517,13 +40517,13 @@
         <v>1</v>
       </c>
       <c r="G474" s="75" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H474" s="75" t="s">
+        <v>1705</v>
+      </c>
+      <c r="I474" s="75" t="s">
         <v>1721</v>
-      </c>
-      <c r="H474" s="75" t="s">
-        <v>1706</v>
-      </c>
-      <c r="I474" s="75" t="s">
-        <v>1722</v>
       </c>
       <c r="K474" s="75">
         <v>-31</v>
@@ -40544,10 +40544,10 @@
         <v>461</v>
       </c>
       <c r="Q474" s="76" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="V474" s="73" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="W474" s="75">
         <v>9999999</v>
@@ -40582,13 +40582,13 @@
         <v>1</v>
       </c>
       <c r="G475" s="75" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="H475" s="75" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="I475" s="75" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="K475" s="75">
         <v>-31</v>
@@ -40609,10 +40609,10 @@
         <v>461</v>
       </c>
       <c r="Q475" s="76" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="V475" s="73" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="W475" s="75">
         <v>9999999</v>
@@ -41410,7 +41410,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="79" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="C53" s="78">
         <v>1</v>
@@ -41424,7 +41424,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="79" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="C54" s="78">
         <v>1</v>
@@ -41438,7 +41438,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="79" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="C55" s="78">
         <v>1</v>
@@ -41452,7 +41452,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="79" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="C56" s="78">
         <v>1</v>
@@ -41466,7 +41466,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="79" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="C57" s="78">
         <v>1</v>
@@ -41480,7 +41480,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="79" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="C58" s="78">
         <v>1</v>
@@ -41494,7 +41494,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="79" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="C59" s="78">
         <v>1</v>
@@ -41508,7 +41508,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="79" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="C60" s="78">
         <v>1</v>
@@ -41522,7 +41522,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="79" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="C61" s="78">
         <v>1</v>
@@ -41536,7 +41536,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="79" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="C62" s="78">
         <v>1</v>
@@ -41550,7 +41550,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="79" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="C63" s="78">
         <v>1</v>
@@ -41564,7 +41564,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="79" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="C64" s="78">
         <v>1</v>
@@ -41578,7 +41578,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="79" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="C65" s="78">
         <v>1</v>
@@ -41592,7 +41592,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="79" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="C66" s="78">
         <v>1</v>

--- a/config_debug/shoping_config_cjj.xlsx
+++ b/config_debug/shoping_config_cjj.xlsx
@@ -7360,14 +7360,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"2.4亿金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>249800000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>{next=10365,trigger="start_trigger",reset_time=0}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7645,6 +7637,14 @@
   </si>
   <si>
     <t>10486000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2.5亿金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>250000000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -10570,10 +10570,10 @@
   <dimension ref="A1:AM479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="P430" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="S451" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P447" sqref="P447"/>
+      <selection pane="bottomRight" activeCell="V475" sqref="V475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -30798,11 +30798,11 @@
         <v>1</v>
       </c>
       <c r="G328" s="44" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="H328" s="44"/>
       <c r="I328" s="44" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="J328" s="44"/>
       <c r="K328" s="44">
@@ -30815,13 +30815,13 @@
         <v>0</v>
       </c>
       <c r="N328" s="44" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="O328" s="44">
         <v>600</v>
       </c>
       <c r="P328" s="44" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="Q328" s="48" t="s">
         <v>1134</v>
@@ -30831,7 +30831,7 @@
       <c r="T328" s="44"/>
       <c r="U328" s="44"/>
       <c r="V328" s="44" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="W328" s="44">
         <v>99999999</v>
@@ -30884,7 +30884,7 @@
       </c>
       <c r="H329" s="44"/>
       <c r="I329" s="44" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="J329" s="44"/>
       <c r="K329" s="44">
@@ -30897,23 +30897,23 @@
         <v>0</v>
       </c>
       <c r="N329" s="44" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="O329" s="44">
         <v>2800</v>
       </c>
       <c r="P329" s="44" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="Q329" s="48" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="R329" s="44"/>
       <c r="S329" s="44"/>
       <c r="T329" s="44"/>
       <c r="U329" s="44"/>
       <c r="V329" s="44" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="W329" s="44">
         <v>99999999</v>
@@ -30966,7 +30966,7 @@
       </c>
       <c r="H330" s="44"/>
       <c r="I330" s="44" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="J330" s="44"/>
       <c r="K330" s="44">
@@ -30979,23 +30979,23 @@
         <v>0</v>
       </c>
       <c r="N330" s="44" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="O330" s="44">
         <v>4800</v>
       </c>
       <c r="P330" s="44" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="Q330" s="48" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="R330" s="44"/>
       <c r="S330" s="44"/>
       <c r="T330" s="44"/>
       <c r="U330" s="44"/>
       <c r="V330" s="44" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="W330" s="44">
         <v>99999999</v>
@@ -31048,7 +31048,7 @@
       </c>
       <c r="H331" s="44"/>
       <c r="I331" s="44" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="J331" s="44"/>
       <c r="K331" s="44">
@@ -31061,23 +31061,23 @@
         <v>0</v>
       </c>
       <c r="N331" s="44" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="O331" s="44">
         <v>9900</v>
       </c>
       <c r="P331" s="44" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="Q331" s="48" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="R331" s="44"/>
       <c r="S331" s="44"/>
       <c r="T331" s="44"/>
       <c r="U331" s="44"/>
       <c r="V331" s="44" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="W331" s="44">
         <v>99999999</v>
@@ -31130,7 +31130,7 @@
       </c>
       <c r="H332" s="44"/>
       <c r="I332" s="44" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="J332" s="44"/>
       <c r="K332" s="44">
@@ -31143,23 +31143,23 @@
         <v>0</v>
       </c>
       <c r="N332" s="44" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="O332" s="44">
         <v>19800</v>
       </c>
       <c r="P332" s="44" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="Q332" s="48" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="R332" s="44"/>
       <c r="S332" s="44"/>
       <c r="T332" s="44"/>
       <c r="U332" s="44"/>
       <c r="V332" s="44" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="W332" s="44">
         <v>99999999</v>
@@ -31212,7 +31212,7 @@
       </c>
       <c r="H333" s="44"/>
       <c r="I333" s="44" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="J333" s="44"/>
       <c r="K333" s="44">
@@ -31225,23 +31225,23 @@
         <v>0</v>
       </c>
       <c r="N333" s="44" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="O333" s="44">
         <v>29800</v>
       </c>
       <c r="P333" s="44" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="Q333" s="48" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="R333" s="44"/>
       <c r="S333" s="44"/>
       <c r="T333" s="44"/>
       <c r="U333" s="44"/>
       <c r="V333" s="44" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="W333" s="44">
         <v>99999999</v>
@@ -31294,7 +31294,7 @@
       </c>
       <c r="H334" s="44"/>
       <c r="I334" s="44" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="J334" s="44"/>
       <c r="K334" s="44">
@@ -31307,23 +31307,23 @@
         <v>0</v>
       </c>
       <c r="N334" s="44" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="O334" s="44">
         <v>39800</v>
       </c>
       <c r="P334" s="44" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="Q334" s="48" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="R334" s="44"/>
       <c r="S334" s="44"/>
       <c r="T334" s="44"/>
       <c r="U334" s="44"/>
       <c r="V334" s="44" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="W334" s="44">
         <v>99999999</v>
@@ -31376,7 +31376,7 @@
       </c>
       <c r="H335" s="44"/>
       <c r="I335" s="44" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="J335" s="44"/>
       <c r="K335" s="44">
@@ -31389,23 +31389,23 @@
         <v>0</v>
       </c>
       <c r="N335" s="44" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="O335" s="44">
         <v>49800</v>
       </c>
       <c r="P335" s="44" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="Q335" s="48" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="R335" s="44"/>
       <c r="S335" s="44"/>
       <c r="T335" s="44"/>
       <c r="U335" s="44"/>
       <c r="V335" s="44" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="W335" s="44">
         <v>99999999</v>
@@ -31458,7 +31458,7 @@
       </c>
       <c r="H336" s="44"/>
       <c r="I336" s="44" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="J336" s="44"/>
       <c r="K336" s="44">
@@ -31471,23 +31471,23 @@
         <v>0</v>
       </c>
       <c r="N336" s="44" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="O336" s="44">
         <v>59800</v>
       </c>
       <c r="P336" s="44" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="Q336" s="48" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="R336" s="44"/>
       <c r="S336" s="44"/>
       <c r="T336" s="44"/>
       <c r="U336" s="44"/>
       <c r="V336" s="44" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="W336" s="44">
         <v>99999999</v>
@@ -31540,7 +31540,7 @@
       </c>
       <c r="H337" s="44"/>
       <c r="I337" s="44" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="J337" s="44"/>
       <c r="K337" s="44">
@@ -31553,23 +31553,23 @@
         <v>0</v>
       </c>
       <c r="N337" s="44" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="O337" s="44">
         <v>69800</v>
       </c>
       <c r="P337" s="44" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="Q337" s="48" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="R337" s="44"/>
       <c r="S337" s="44"/>
       <c r="T337" s="44"/>
       <c r="U337" s="44"/>
       <c r="V337" s="44" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="W337" s="44">
         <v>99999999</v>
@@ -38072,7 +38072,7 @@
         <v>1800</v>
       </c>
       <c r="P434" s="5" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="Q434" s="10" t="s">
         <v>1448</v>
@@ -38137,7 +38137,7 @@
         <v>4800</v>
       </c>
       <c r="P435" s="5" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="Q435" s="10" t="s">
         <v>1444</v>
@@ -38267,7 +38267,7 @@
         <v>19800</v>
       </c>
       <c r="P437" s="5" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="Q437" s="10" t="s">
         <v>1443</v>
@@ -38332,7 +38332,7 @@
         <v>29800</v>
       </c>
       <c r="P438" s="5" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="Q438" s="10" t="s">
         <v>1450</v>
@@ -38397,7 +38397,7 @@
         <v>49800</v>
       </c>
       <c r="P439" s="5" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="Q439" s="10" t="s">
         <v>1445</v>
@@ -38462,7 +38462,7 @@
         <v>99800</v>
       </c>
       <c r="P440" s="5" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="Q440" s="10" t="s">
         <v>1446</v>
@@ -39437,7 +39437,7 @@
         <v>461</v>
       </c>
       <c r="Q455" s="70" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="V455" s="5" t="s">
         <v>553</v>
@@ -40743,7 +40743,7 @@
         <v>1681</v>
       </c>
       <c r="I475" s="75" t="s">
-        <v>1700</v>
+        <v>1770</v>
       </c>
       <c r="K475" s="75">
         <v>-31</v>
@@ -40764,7 +40764,7 @@
         <v>461</v>
       </c>
       <c r="Q475" s="76" t="s">
-        <v>1701</v>
+        <v>1771</v>
       </c>
       <c r="V475" s="73" t="s">
         <v>1690</v>
@@ -40802,13 +40802,13 @@
         <v>1</v>
       </c>
       <c r="G476" s="80" t="s">
+        <v>1745</v>
+      </c>
+      <c r="H476" s="80" t="s">
+        <v>1746</v>
+      </c>
+      <c r="I476" s="80" t="s">
         <v>1747</v>
-      </c>
-      <c r="H476" s="80" t="s">
-        <v>1748</v>
-      </c>
-      <c r="I476" s="80" t="s">
-        <v>1749</v>
       </c>
       <c r="K476" s="80">
         <v>-31</v>
@@ -40820,19 +40820,19 @@
         <v>0</v>
       </c>
       <c r="N476" s="80" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="O476" s="80">
         <v>49800</v>
       </c>
       <c r="P476" s="80" t="s">
+        <v>1749</v>
+      </c>
+      <c r="Q476" s="81" t="s">
+        <v>1750</v>
+      </c>
+      <c r="V476" s="80" t="s">
         <v>1751</v>
-      </c>
-      <c r="Q476" s="81" t="s">
-        <v>1752</v>
-      </c>
-      <c r="V476" s="80" t="s">
-        <v>1753</v>
       </c>
       <c r="W476" s="80">
         <v>9999999</v>
@@ -40867,13 +40867,13 @@
         <v>1</v>
       </c>
       <c r="G477" s="80" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="H477" s="80" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="I477" s="80" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="K477" s="80">
         <v>-31</v>
@@ -40885,19 +40885,19 @@
         <v>0</v>
       </c>
       <c r="N477" s="80" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="O477" s="80">
         <v>19800</v>
       </c>
       <c r="P477" s="80" t="s">
+        <v>1749</v>
+      </c>
+      <c r="Q477" s="81" t="s">
+        <v>1754</v>
+      </c>
+      <c r="V477" s="80" t="s">
         <v>1751</v>
-      </c>
-      <c r="Q477" s="81" t="s">
-        <v>1756</v>
-      </c>
-      <c r="V477" s="80" t="s">
-        <v>1753</v>
       </c>
       <c r="W477" s="80">
         <v>9999999</v>
@@ -40932,13 +40932,13 @@
         <v>1</v>
       </c>
       <c r="G478" s="80" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="H478" s="80" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="I478" s="80" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="K478" s="80">
         <v>-31</v>
@@ -40950,16 +40950,16 @@
         <v>0</v>
       </c>
       <c r="N478" s="80" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="O478" s="80">
         <v>9800</v>
       </c>
       <c r="P478" s="80" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="Q478" s="81" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="V478" s="80" t="s">
         <v>553</v>
@@ -40997,13 +40997,13 @@
         <v>1</v>
       </c>
       <c r="G479" s="80" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="H479" s="80" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="I479" s="80" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="K479" s="80">
         <v>-31</v>
@@ -41015,19 +41015,19 @@
         <v>0</v>
       </c>
       <c r="N479" s="80" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="O479" s="80">
         <v>4800</v>
       </c>
       <c r="P479" s="80" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="Q479" s="81" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="V479" s="80" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="W479" s="80">
         <v>9999999</v>
@@ -41825,7 +41825,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="79" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="C53" s="78">
         <v>1</v>
@@ -41839,7 +41839,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="79" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="C54" s="78">
         <v>1</v>
@@ -41853,7 +41853,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="79" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="C55" s="78">
         <v>1</v>
@@ -41867,7 +41867,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="79" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="C56" s="78">
         <v>1</v>
@@ -41881,7 +41881,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="79" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="C57" s="78">
         <v>1</v>
@@ -41895,7 +41895,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="79" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="C58" s="78">
         <v>1</v>
@@ -41909,7 +41909,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="79" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="C59" s="78">
         <v>1</v>
@@ -41923,7 +41923,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="79" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="C60" s="78">
         <v>1</v>
@@ -41937,7 +41937,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="79" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="C61" s="78">
         <v>1</v>
@@ -41951,7 +41951,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="79" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="C62" s="78">
         <v>1</v>
@@ -41965,7 +41965,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="79" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="C63" s="78">
         <v>1</v>
@@ -41979,7 +41979,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="79" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="C64" s="78">
         <v>1</v>
@@ -41993,7 +41993,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="79" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="C65" s="78">
         <v>1</v>
@@ -42007,7 +42007,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="79" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="C66" s="78">
         <v>1</v>

--- a/config_debug/shoping_config_cjj.xlsx
+++ b/config_debug/shoping_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3931" uniqueCount="1768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3967" uniqueCount="1776">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7630,6 +7630,34 @@
   <si>
     <t>250000000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二498元礼包</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_12_12_cjq",</t>
+  </si>
+  <si>
+    <t>49800000,2000000,50,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万","50万小游戏币","抽奖券*30",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万","3万小游戏币","抽奖券*10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二20元礼包</t>
+  </si>
+  <si>
+    <t>"200万","1万小游戏币","抽奖券*4",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二6元礼包</t>
   </si>
 </sst>
 </file>
@@ -7858,7 +7886,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8136,6 +8164,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8602,7 +8633,7 @@
   <dimension ref="A1:AG24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="F2" sqref="F2:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8750,9 +8781,7 @@
       <c r="D2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="2">
-        <v>10330</v>
-      </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="2">
         <v>10330</v>
       </c>
@@ -8833,9 +8862,7 @@
       <c r="D3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="2">
-        <v>85</v>
-      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="2">
         <v>85</v>
       </c>
@@ -8916,9 +8943,7 @@
       <c r="D4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="2">
-        <v>86</v>
-      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="2">
         <v>86</v>
       </c>
@@ -8999,9 +9024,7 @@
       <c r="D5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="2">
-        <v>87</v>
-      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="2">
         <v>87</v>
       </c>
@@ -9082,9 +9105,7 @@
       <c r="D6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="2">
-        <v>88</v>
-      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2">
         <v>88</v>
       </c>
@@ -9165,9 +9186,7 @@
       <c r="D7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="2">
-        <v>89</v>
-      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2">
         <v>89</v>
       </c>
@@ -9248,9 +9267,7 @@
       <c r="D8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="2">
-        <v>109</v>
-      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="2">
         <v>109</v>
       </c>
@@ -9331,9 +9348,7 @@
       <c r="D9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="2">
-        <v>10044</v>
-      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="2">
         <v>10044</v>
       </c>
@@ -9415,9 +9430,6 @@
         <v>43</v>
       </c>
       <c r="E10" s="23"/>
-      <c r="F10" s="11">
-        <v>10045</v>
-      </c>
       <c r="G10" s="11">
         <v>10045</v>
       </c>
@@ -9501,9 +9513,6 @@
       <c r="E11" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="11">
-        <v>90</v>
-      </c>
       <c r="G11" s="11">
         <v>90</v>
       </c>
@@ -10489,9 +10498,6 @@
         <v>43</v>
       </c>
       <c r="E24" s="23"/>
-      <c r="F24" s="11">
-        <v>10189</v>
-      </c>
       <c r="G24" s="11">
         <v>10189</v>
       </c>
@@ -10569,13 +10575,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM479"/>
+  <dimension ref="A1:AM485"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="Q454" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="AG455" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q475" sqref="Q475"/>
+      <selection pane="bottomRight" activeCell="AM1" sqref="AM1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -14366,7 +14372,7 @@
         <v>2</v>
       </c>
       <c r="F67" s="82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" s="82" t="s">
         <v>235</v>
@@ -14422,7 +14428,7 @@
         <v>3</v>
       </c>
       <c r="F68" s="82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" s="82" t="s">
         <v>237</v>
@@ -14478,7 +14484,7 @@
         <v>4</v>
       </c>
       <c r="F69" s="82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" s="82" t="s">
         <v>239</v>
@@ -14534,7 +14540,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" s="82" t="s">
         <v>241</v>
@@ -14590,7 +14596,7 @@
         <v>6</v>
       </c>
       <c r="F71" s="82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" s="82" t="s">
         <v>242</v>
@@ -15925,7 +15931,7 @@
         <v>109</v>
       </c>
       <c r="F94" s="86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94" s="86" t="s">
         <v>266</v>
@@ -17959,7 +17965,7 @@
         <v>108</v>
       </c>
       <c r="F128" s="86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G128" s="86" t="s">
         <v>332</v>
@@ -18015,7 +18021,7 @@
         <v>110</v>
       </c>
       <c r="F129" s="86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G129" s="86" t="s">
         <v>540</v>
@@ -27300,7 +27306,7 @@
         <v>111</v>
       </c>
       <c r="F273" s="86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G273" s="86" t="s">
         <v>543</v>
@@ -36758,7 +36764,7 @@
         <v>1</v>
       </c>
       <c r="F414" s="82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G414" s="82" t="s">
         <v>1485</v>
@@ -41050,6 +41056,378 @@
         <v>1</v>
       </c>
       <c r="AL479" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:38" s="67" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A480" s="67">
+        <v>479</v>
+      </c>
+      <c r="B480" s="67">
+        <v>10396</v>
+      </c>
+      <c r="F480" s="67">
+        <v>1</v>
+      </c>
+      <c r="G480" s="67" t="s">
+        <v>1768</v>
+      </c>
+      <c r="I480" s="67" t="s">
+        <v>1578</v>
+      </c>
+      <c r="K480" s="67">
+        <v>-31</v>
+      </c>
+      <c r="L480" s="67">
+        <v>0</v>
+      </c>
+      <c r="M480" s="67">
+        <v>0</v>
+      </c>
+      <c r="N480" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="O480" s="67">
+        <v>49800</v>
+      </c>
+      <c r="P480" s="67" t="s">
+        <v>1769</v>
+      </c>
+      <c r="Q480" s="68" t="s">
+        <v>1770</v>
+      </c>
+      <c r="V480" s="67" t="s">
+        <v>1581</v>
+      </c>
+      <c r="W480" s="67">
+        <v>9999999</v>
+      </c>
+      <c r="X480" s="93">
+        <v>1607385600</v>
+      </c>
+      <c r="Y480" s="93">
+        <v>1607961599</v>
+      </c>
+      <c r="AG480" s="67">
+        <v>1</v>
+      </c>
+      <c r="AH480" s="67">
+        <v>1</v>
+      </c>
+      <c r="AK480" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL480" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:38" s="67" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A481" s="67">
+        <v>480</v>
+      </c>
+      <c r="B481" s="67">
+        <v>10397</v>
+      </c>
+      <c r="F481" s="67">
+        <v>1</v>
+      </c>
+      <c r="G481" s="67" t="s">
+        <v>368</v>
+      </c>
+      <c r="I481" s="67" t="s">
+        <v>1771</v>
+      </c>
+      <c r="K481" s="67">
+        <v>-31</v>
+      </c>
+      <c r="L481" s="67">
+        <v>0</v>
+      </c>
+      <c r="M481" s="67">
+        <v>0</v>
+      </c>
+      <c r="N481" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="O481" s="67">
+        <v>19800</v>
+      </c>
+      <c r="P481" s="67" t="s">
+        <v>1769</v>
+      </c>
+      <c r="Q481" s="68" t="s">
+        <v>1415</v>
+      </c>
+      <c r="V481" s="67" t="s">
+        <v>1581</v>
+      </c>
+      <c r="W481" s="67">
+        <v>9999999</v>
+      </c>
+      <c r="X481" s="93">
+        <v>1607385600</v>
+      </c>
+      <c r="Y481" s="93">
+        <v>1607961599</v>
+      </c>
+      <c r="AG481" s="67">
+        <v>1</v>
+      </c>
+      <c r="AH481" s="67">
+        <v>1</v>
+      </c>
+      <c r="AK481" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL481" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:38" s="67" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A482" s="67">
+        <v>481</v>
+      </c>
+      <c r="B482" s="67">
+        <v>10398</v>
+      </c>
+      <c r="F482" s="67">
+        <v>1</v>
+      </c>
+      <c r="G482" s="67" t="s">
+        <v>367</v>
+      </c>
+      <c r="I482" s="67" t="s">
+        <v>1586</v>
+      </c>
+      <c r="K482" s="67">
+        <v>-31</v>
+      </c>
+      <c r="L482" s="67">
+        <v>0</v>
+      </c>
+      <c r="M482" s="67">
+        <v>0</v>
+      </c>
+      <c r="N482" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="O482" s="67">
+        <v>9800</v>
+      </c>
+      <c r="P482" s="67" t="s">
+        <v>1769</v>
+      </c>
+      <c r="Q482" s="68" t="s">
+        <v>1416</v>
+      </c>
+      <c r="V482" s="67" t="s">
+        <v>1581</v>
+      </c>
+      <c r="W482" s="67">
+        <v>9999999</v>
+      </c>
+      <c r="X482" s="93">
+        <v>1607385600</v>
+      </c>
+      <c r="Y482" s="93">
+        <v>1607961599</v>
+      </c>
+      <c r="AG482" s="67">
+        <v>1</v>
+      </c>
+      <c r="AH482" s="67">
+        <v>1</v>
+      </c>
+      <c r="AK482" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL482" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:38" s="67" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A483" s="67">
+        <v>482</v>
+      </c>
+      <c r="B483" s="67">
+        <v>10399</v>
+      </c>
+      <c r="F483" s="67">
+        <v>1</v>
+      </c>
+      <c r="G483" s="67" t="s">
+        <v>366</v>
+      </c>
+      <c r="I483" s="67" t="s">
+        <v>1772</v>
+      </c>
+      <c r="K483" s="67">
+        <v>-31</v>
+      </c>
+      <c r="L483" s="67">
+        <v>0</v>
+      </c>
+      <c r="M483" s="67">
+        <v>0</v>
+      </c>
+      <c r="N483" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="O483" s="67">
+        <v>4800</v>
+      </c>
+      <c r="P483" s="67" t="s">
+        <v>1769</v>
+      </c>
+      <c r="Q483" s="68" t="s">
+        <v>1417</v>
+      </c>
+      <c r="V483" s="67" t="s">
+        <v>1581</v>
+      </c>
+      <c r="W483" s="67">
+        <v>9999999</v>
+      </c>
+      <c r="X483" s="93">
+        <v>1607385600</v>
+      </c>
+      <c r="Y483" s="93">
+        <v>1607961599</v>
+      </c>
+      <c r="AG483" s="67">
+        <v>1</v>
+      </c>
+      <c r="AH483" s="67">
+        <v>1</v>
+      </c>
+      <c r="AK483" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL483" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:38" s="67" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A484" s="67">
+        <v>483</v>
+      </c>
+      <c r="B484" s="67">
+        <v>10400</v>
+      </c>
+      <c r="F484" s="67">
+        <v>1</v>
+      </c>
+      <c r="G484" s="67" t="s">
+        <v>1773</v>
+      </c>
+      <c r="I484" s="67" t="s">
+        <v>1774</v>
+      </c>
+      <c r="K484" s="67">
+        <v>-31</v>
+      </c>
+      <c r="L484" s="67">
+        <v>0</v>
+      </c>
+      <c r="M484" s="67">
+        <v>0</v>
+      </c>
+      <c r="N484" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="O484" s="67">
+        <v>2000</v>
+      </c>
+      <c r="P484" s="67" t="s">
+        <v>1769</v>
+      </c>
+      <c r="Q484" s="68" t="s">
+        <v>1418</v>
+      </c>
+      <c r="V484" s="67" t="s">
+        <v>597</v>
+      </c>
+      <c r="W484" s="67">
+        <v>9999999</v>
+      </c>
+      <c r="X484" s="93">
+        <v>1607385600</v>
+      </c>
+      <c r="Y484" s="93">
+        <v>1607961599</v>
+      </c>
+      <c r="AG484" s="67">
+        <v>1</v>
+      </c>
+      <c r="AH484" s="67">
+        <v>1</v>
+      </c>
+      <c r="AK484" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL484" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:38" s="67" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A485" s="67">
+        <v>484</v>
+      </c>
+      <c r="B485" s="67">
+        <v>10401</v>
+      </c>
+      <c r="F485" s="67">
+        <v>1</v>
+      </c>
+      <c r="G485" s="67" t="s">
+        <v>1775</v>
+      </c>
+      <c r="I485" s="67" t="s">
+        <v>1595</v>
+      </c>
+      <c r="K485" s="67">
+        <v>-31</v>
+      </c>
+      <c r="L485" s="67">
+        <v>0</v>
+      </c>
+      <c r="M485" s="67">
+        <v>0</v>
+      </c>
+      <c r="N485" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="O485" s="67">
+        <v>600</v>
+      </c>
+      <c r="P485" s="67" t="s">
+        <v>1769</v>
+      </c>
+      <c r="Q485" s="68" t="s">
+        <v>1413</v>
+      </c>
+      <c r="V485" s="67" t="s">
+        <v>597</v>
+      </c>
+      <c r="W485" s="67">
+        <v>9999999</v>
+      </c>
+      <c r="X485" s="93">
+        <v>1607385600</v>
+      </c>
+      <c r="Y485" s="93">
+        <v>1607961599</v>
+      </c>
+      <c r="AG485" s="67">
+        <v>1</v>
+      </c>
+      <c r="AH485" s="67">
+        <v>1</v>
+      </c>
+      <c r="AK485" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL485" s="67">
         <v>1</v>
       </c>
     </row>

--- a/config_debug/shoping_config_cjj.xlsx
+++ b/config_debug/shoping_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3931" uniqueCount="1772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3931" uniqueCount="1768">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6890,745 +6890,729 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>9800000,300000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","60万小游戏币","阳光*8",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2980万金币","90万小游戏币","阳光*12",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","150万小游戏币","铁锹*2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9980万金币","300万小游戏币","铁锹*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一498元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万","200万小游戏币","抽奖券*50",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_11.11_cjq",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,2000000,50,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,100,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一198元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万","50万小游戏币","抽奖券*30",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,500000,30,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一98元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万","10万小游戏币","抽奖券*20",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,100000,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一48元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万","3万小游戏币","抽奖券*10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,30000,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一20元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200万","1万小游戏币","抽奖券*4",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,10000,4,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一6元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万","3000小游戏币","抽奖券*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算8元-1</t>
+  </si>
+  <si>
+    <t>聚划算8元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"80万金币","2.4万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>824000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算8元-2</t>
+  </si>
+  <si>
+    <t>聚划算8元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"80万金币","4.8万金币",</t>
+  </si>
+  <si>
+    <t>848000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算8元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算8元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"80万金币","4.8万金币","0.8万",</t>
+  </si>
+  <si>
+    <t>856000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算38元-1</t>
+  </si>
+  <si>
+    <t>聚划算38元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"380万金币","11万金币",</t>
+  </si>
+  <si>
+    <t>3910000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算38元-2</t>
+  </si>
+  <si>
+    <t>聚划算38元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"380万金币","22.8万金币",</t>
+  </si>
+  <si>
+    <t>4028000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算38元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算38元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"380万金币","22.8万金币","3.8万",</t>
+  </si>
+  <si>
+    <t>4066000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算98元-1</t>
+  </si>
+  <si>
+    <t>聚划算98元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","29万金币",</t>
+  </si>
+  <si>
+    <t>10090000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算98元-2</t>
+  </si>
+  <si>
+    <t>聚划算98元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","58.8万金币",</t>
+  </si>
+  <si>
+    <t>10388000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算98元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算98元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","58.8万金币","9.8万",</t>
+  </si>
+  <si>
+    <t>聚划算198元-1</t>
+  </si>
+  <si>
+    <t>聚划算198元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","59万金币",</t>
+  </si>
+  <si>
+    <t>20390000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算198元-2</t>
+  </si>
+  <si>
+    <t>聚划算198元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","118.8万金币",</t>
+  </si>
+  <si>
+    <t>20988000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算198元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算198元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","118.8万金币","19.8万",</t>
+  </si>
+  <si>
+    <t>21186000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算498元-1</t>
+  </si>
+  <si>
+    <t>聚划算498元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","149万金币",</t>
+  </si>
+  <si>
+    <t>51290000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算498元-2</t>
+  </si>
+  <si>
+    <t>聚划算498元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","298.8万金币",</t>
+  </si>
+  <si>
+    <t>52788000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算498元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算498元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","298.8万金币","49.8万",</t>
+  </si>
+  <si>
+    <t>53286000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算998元-1</t>
+  </si>
+  <si>
+    <t>聚划算998元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9980万金币","299万金币",</t>
+  </si>
+  <si>
+    <t>102790000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算998元-2</t>
+  </si>
+  <si>
+    <t>聚划算998元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9980万金币","598.8万金币",</t>
+  </si>
+  <si>
+    <t>105788000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算998元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算998元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9980万金币","598.8万金币","99.8万",</t>
+  </si>
+  <si>
+    <t>106786000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算2498元-1</t>
+  </si>
+  <si>
+    <t>聚划算2498元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"24980万金币","749万金币",</t>
+  </si>
+  <si>
+    <t>257290000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算2498元-2</t>
+  </si>
+  <si>
+    <t>聚划算2498元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"24980万金币","1498.8万金币",</t>
+  </si>
+  <si>
+    <t>264788000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算2498元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算2498元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"24980万金币","1498.8万金币","249.8万",</t>
+  </si>
+  <si>
+    <t>267286000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>青铜礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>一本万利</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>白银礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"300万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>铂金礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,1,0</t>
+  </si>
+  <si>
+    <t>钻石礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>星耀礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>王者礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9980万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>99800000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣耀礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10365,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10363,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10368,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10366,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10371,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10369,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10374,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10372,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10377,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10375,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10380,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10378,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10383,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10381,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP1礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"75万金币","水滴*1","玩具锤*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"318万金币","水滴*2","玩具锤*2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3180000,2,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"538万金币","水滴*3","玩具锤*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5380000,3,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1108万金币","水滴*4","玩具锤*4",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>11080000,4,4,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2218万金币","水滴*5","玩具锤*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>22180000,5,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3288万金币","水滴*6","玩具锤*6",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>32880000,6,6,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4388万金币","水滴*7","玩具锤*7",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>43880000,7,7,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5488万金币","水滴*8","玩具锤*8",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>54880000,8,8,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"6488万金币","水滴*10","玩具锤*10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>64880000,10,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"7688万金币","水滴*20","玩具锤*20",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>76880000,20,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>498元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","40万鱼币","传说宝箱*15",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin","prop_gej_cs",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,400000,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>198元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","30万鱼币","传说宝箱*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,300000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>98元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","20万鱼币","史诗宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin","prop_gej_ss",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,200000,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>48元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","10万鱼币","稀有宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin","prop_gej_xy",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,100000,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_2",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9800000,300000,5,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1980万金币","60万小游戏币","阳光*8",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2980万金币","90万小游戏币","阳光*12",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"4980万金币","150万小游戏币","铁锹*2",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"9980万金币","300万小游戏币","铁锹*5",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>双十一498元礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"4980万","200万小游戏币","抽奖券*50",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_11.11_cjq",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>49800000,2000000,50,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,100,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>双十一198元礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1980万","50万小游戏币","抽奖券*30",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>19800000,500000,30,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>双十一98元礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"980万","10万小游戏币","抽奖券*20",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9800000,100000,20,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>双十一48元礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"480万","3万小游戏币","抽奖券*10",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4800000,30000,10,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>双十一20元礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"200万","1万小游戏币","抽奖券*4",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000000,10000,4,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>双十一6元礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"60万","3000小游戏币","抽奖券*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算8元-1</t>
-  </si>
-  <si>
-    <t>聚划算8元1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"80万金币","2.4万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>824000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算8元-2</t>
-  </si>
-  <si>
-    <t>聚划算8元2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"80万金币","4.8万金币",</t>
-  </si>
-  <si>
-    <t>848000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算8元-2(10min)</t>
-  </si>
-  <si>
-    <t>聚划算8元2（10min）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"80万金币","4.8万金币","0.8万",</t>
-  </si>
-  <si>
-    <t>856000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算38元-1</t>
-  </si>
-  <si>
-    <t>聚划算38元1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"380万金币","11万金币",</t>
-  </si>
-  <si>
-    <t>3910000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算38元-2</t>
-  </si>
-  <si>
-    <t>聚划算38元2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"380万金币","22.8万金币",</t>
-  </si>
-  <si>
-    <t>4028000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算38元-2(10min)</t>
-  </si>
-  <si>
-    <t>聚划算38元2（10min）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"380万金币","22.8万金币","3.8万",</t>
-  </si>
-  <si>
-    <t>4066000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算98元-1</t>
-  </si>
-  <si>
-    <t>聚划算98元1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"980万金币","29万金币",</t>
-  </si>
-  <si>
-    <t>10090000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算98元-2</t>
-  </si>
-  <si>
-    <t>聚划算98元2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"980万金币","58.8万金币",</t>
-  </si>
-  <si>
-    <t>10388000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算98元-2(10min)</t>
-  </si>
-  <si>
-    <t>聚划算98元2（10min）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"980万金币","58.8万金币","9.8万",</t>
-  </si>
-  <si>
-    <t>聚划算198元-1</t>
-  </si>
-  <si>
-    <t>聚划算198元1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1980万金币","59万金币",</t>
-  </si>
-  <si>
-    <t>20390000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算198元-2</t>
-  </si>
-  <si>
-    <t>聚划算198元2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1980万金币","118.8万金币",</t>
-  </si>
-  <si>
-    <t>20988000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算198元-2(10min)</t>
-  </si>
-  <si>
-    <t>聚划算198元2（10min）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1980万金币","118.8万金币","19.8万",</t>
-  </si>
-  <si>
-    <t>21186000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算498元-1</t>
-  </si>
-  <si>
-    <t>聚划算498元1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"4980万金币","149万金币",</t>
-  </si>
-  <si>
-    <t>51290000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算498元-2</t>
-  </si>
-  <si>
-    <t>聚划算498元2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"4980万金币","298.8万金币",</t>
-  </si>
-  <si>
-    <t>52788000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算498元-2(10min)</t>
-  </si>
-  <si>
-    <t>聚划算498元2（10min）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"4980万金币","298.8万金币","49.8万",</t>
-  </si>
-  <si>
-    <t>53286000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算998元-1</t>
-  </si>
-  <si>
-    <t>聚划算998元1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"9980万金币","299万金币",</t>
-  </si>
-  <si>
-    <t>102790000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算998元-2</t>
-  </si>
-  <si>
-    <t>聚划算998元2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"9980万金币","598.8万金币",</t>
-  </si>
-  <si>
-    <t>105788000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算998元-2(10min)</t>
-  </si>
-  <si>
-    <t>聚划算998元2（10min）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"9980万金币","598.8万金币","99.8万",</t>
-  </si>
-  <si>
-    <t>106786000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算2498元-1</t>
-  </si>
-  <si>
-    <t>聚划算2498元1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"24980万金币","749万金币",</t>
-  </si>
-  <si>
-    <t>257290000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算2498元-2</t>
-  </si>
-  <si>
-    <t>聚划算2498元2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"24980万金币","1498.8万金币",</t>
-  </si>
-  <si>
-    <t>264788000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算2498元-2(10min)</t>
-  </si>
-  <si>
-    <t>聚划算2498元2（10min）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"24980万金币","1498.8万金币","249.8万",</t>
-  </si>
-  <si>
-    <t>267286000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>青铜礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>一本万利</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>白银礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"300万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>铂金礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"980万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9800000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,1,0</t>
-  </si>
-  <si>
-    <t>钻石礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1980万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>星耀礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"4980万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>49800000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>王者礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"9980万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>99800000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>荣耀礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{next=10365,trigger="start_trigger",reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{last=10363,reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{next=10368,trigger="start_trigger",reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{last=10366,reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{next=10371,trigger="start_trigger",reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{last=10369,reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{next=10374,trigger="start_trigger",reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{last=10372,reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{next=10377,trigger="start_trigger",reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{last=10375,reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{next=10380,trigger="start_trigger",reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{last=10378,reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{next=10383,trigger="start_trigger",reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{last=10381,reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP1礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"75万金币","水滴*1","玩具锤*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_bag</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_guess_apple_bet_1","prop_hammer_1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9999999999,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"318万金币","水滴*2","玩具锤*2",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_guess_apple_bet_1","prop_hammer_1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3180000,2,2,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9999999999,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"538万金币","水滴*3","玩具锤*3",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_bag</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5380000,3,3,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1108万金币","水滴*4","玩具锤*4",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>11080000,4,4,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2218万金币","水滴*5","玩具锤*5",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>22180000,5,5,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"3288万金币","水滴*6","玩具锤*6",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>32880000,6,6,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9999999999,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"4388万金币","水滴*7","玩具锤*7",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_bag</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_guess_apple_bet_1","prop_hammer_1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>43880000,7,7,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"5488万金币","水滴*8","玩具锤*8",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>54880000,8,8,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"6488万金币","水滴*10","玩具锤*10",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>64880000,10,10,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9999999999,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"7688万金币","水滴*20","玩具锤*20",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_guess_apple_bet_1","prop_hammer_1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>76880000,20,20,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>感恩礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>498元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"4980万金币","40万鱼币","传说宝箱*15",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_bag</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","fish_coin","prop_gej_cs",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>49800000,400000,15,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>198元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1980万金币","30万鱼币","传说宝箱*5",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>19800000,300000,5,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>98元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"980万金币","20万鱼币","史诗宝箱*3",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","fish_coin","prop_gej_ss",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9800000,200000,3,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>48元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"480万金币","10万鱼币","稀有宝箱*3",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","fish_coin","prop_gej_xy",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4800000,100000,3,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_2",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_2",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_3",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -8618,7 +8602,7 @@
   <dimension ref="A1:AG24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8766,6 +8750,9 @@
       <c r="D2" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="F2" s="2">
+        <v>10330</v>
+      </c>
       <c r="G2" s="2">
         <v>10330</v>
       </c>
@@ -8846,6 +8833,9 @@
       <c r="D3" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="F3" s="2">
+        <v>85</v>
+      </c>
       <c r="G3" s="2">
         <v>85</v>
       </c>
@@ -8926,6 +8916,9 @@
       <c r="D4" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="F4" s="2">
+        <v>86</v>
+      </c>
       <c r="G4" s="2">
         <v>86</v>
       </c>
@@ -9006,6 +8999,9 @@
       <c r="D5" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="F5" s="2">
+        <v>87</v>
+      </c>
       <c r="G5" s="2">
         <v>87</v>
       </c>
@@ -9086,6 +9082,9 @@
       <c r="D6" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="F6" s="2">
+        <v>88</v>
+      </c>
       <c r="G6" s="2">
         <v>88</v>
       </c>
@@ -9166,6 +9165,9 @@
       <c r="D7" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="F7" s="2">
+        <v>89</v>
+      </c>
       <c r="G7" s="2">
         <v>89</v>
       </c>
@@ -9246,6 +9248,9 @@
       <c r="D8" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="F8" s="2">
+        <v>109</v>
+      </c>
       <c r="G8" s="2">
         <v>109</v>
       </c>
@@ -9326,6 +9331,9 @@
       <c r="D9" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="F9" s="2">
+        <v>10044</v>
+      </c>
       <c r="G9" s="2">
         <v>10044</v>
       </c>
@@ -9407,7 +9415,9 @@
         <v>43</v>
       </c>
       <c r="E10" s="23"/>
-      <c r="F10" s="60"/>
+      <c r="F10" s="11">
+        <v>10045</v>
+      </c>
       <c r="G10" s="11">
         <v>10045</v>
       </c>
@@ -9491,7 +9501,9 @@
       <c r="E11" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="60"/>
+      <c r="F11" s="11">
+        <v>90</v>
+      </c>
       <c r="G11" s="11">
         <v>90</v>
       </c>
@@ -9575,7 +9587,6 @@
       <c r="E12" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="60"/>
       <c r="H12" s="11" t="s">
         <v>44</v>
       </c>
@@ -9656,7 +9667,6 @@
       <c r="E13" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="60"/>
       <c r="H13" s="11" t="s">
         <v>44</v>
       </c>
@@ -9737,7 +9747,6 @@
       <c r="E14" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="60"/>
       <c r="H14" s="11" t="s">
         <v>44</v>
       </c>
@@ -9818,7 +9827,6 @@
       <c r="E15" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="F15" s="60"/>
       <c r="H15" s="11" t="s">
         <v>44</v>
       </c>
@@ -9899,7 +9907,6 @@
       <c r="E16" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="60"/>
       <c r="H16" s="11" t="s">
         <v>44</v>
       </c>
@@ -9972,7 +9979,6 @@
         <v>22</v>
       </c>
       <c r="E17" s="23"/>
-      <c r="F17" s="60"/>
       <c r="H17" s="11" t="s">
         <v>44</v>
       </c>
@@ -10045,7 +10051,6 @@
         <v>23</v>
       </c>
       <c r="E18" s="23"/>
-      <c r="F18" s="60"/>
       <c r="H18" s="11" t="s">
         <v>44</v>
       </c>
@@ -10118,7 +10123,6 @@
         <v>24</v>
       </c>
       <c r="E19" s="23"/>
-      <c r="F19" s="60"/>
       <c r="H19" s="11" t="s">
         <v>44</v>
       </c>
@@ -10191,7 +10195,6 @@
         <v>25</v>
       </c>
       <c r="E20" s="23"/>
-      <c r="F20" s="60"/>
       <c r="H20" s="11" t="s">
         <v>44</v>
       </c>
@@ -10264,7 +10267,6 @@
         <v>26</v>
       </c>
       <c r="E21" s="23"/>
-      <c r="F21" s="60"/>
       <c r="H21" s="11" t="s">
         <v>44</v>
       </c>
@@ -10337,7 +10339,6 @@
         <v>27</v>
       </c>
       <c r="E22" s="23"/>
-      <c r="F22" s="60"/>
       <c r="H22" s="11" t="s">
         <v>44</v>
       </c>
@@ -10410,7 +10411,6 @@
         <v>34</v>
       </c>
       <c r="E23" s="23"/>
-      <c r="F23" s="60"/>
       <c r="H23" s="11" t="s">
         <v>44</v>
       </c>
@@ -10489,7 +10489,9 @@
         <v>43</v>
       </c>
       <c r="E24" s="23"/>
-      <c r="F24" s="60"/>
+      <c r="F24" s="11">
+        <v>10189</v>
+      </c>
       <c r="G24" s="11">
         <v>10189</v>
       </c>
@@ -10570,10 +10572,10 @@
   <dimension ref="A1:AM479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="S451" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="Q454" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V475" sqref="V475"/>
+      <selection pane="bottomRight" activeCell="Q475" sqref="Q475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -14364,7 +14366,7 @@
         <v>2</v>
       </c>
       <c r="F67" s="82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" s="82" t="s">
         <v>235</v>
@@ -14420,7 +14422,7 @@
         <v>3</v>
       </c>
       <c r="F68" s="82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" s="82" t="s">
         <v>237</v>
@@ -14476,7 +14478,7 @@
         <v>4</v>
       </c>
       <c r="F69" s="82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" s="82" t="s">
         <v>239</v>
@@ -14532,7 +14534,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" s="82" t="s">
         <v>241</v>
@@ -14588,7 +14590,7 @@
         <v>6</v>
       </c>
       <c r="F71" s="82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" s="82" t="s">
         <v>242</v>
@@ -15923,7 +15925,7 @@
         <v>109</v>
       </c>
       <c r="F94" s="86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" s="86" t="s">
         <v>266</v>
@@ -17957,7 +17959,7 @@
         <v>108</v>
       </c>
       <c r="F128" s="86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128" s="86" t="s">
         <v>332</v>
@@ -18013,7 +18015,7 @@
         <v>110</v>
       </c>
       <c r="F129" s="86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" s="86" t="s">
         <v>540</v>
@@ -27298,7 +27300,7 @@
         <v>111</v>
       </c>
       <c r="F273" s="86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G273" s="86" t="s">
         <v>543</v>
@@ -30798,11 +30800,11 @@
         <v>1</v>
       </c>
       <c r="G328" s="44" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="H328" s="44"/>
       <c r="I328" s="44" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="J328" s="44"/>
       <c r="K328" s="44">
@@ -30815,13 +30817,13 @@
         <v>0</v>
       </c>
       <c r="N328" s="44" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="O328" s="44">
         <v>600</v>
       </c>
       <c r="P328" s="44" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="Q328" s="48" t="s">
         <v>1134</v>
@@ -30831,7 +30833,7 @@
       <c r="T328" s="44"/>
       <c r="U328" s="44"/>
       <c r="V328" s="44" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="W328" s="44">
         <v>99999999</v>
@@ -30884,7 +30886,7 @@
       </c>
       <c r="H329" s="44"/>
       <c r="I329" s="44" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="J329" s="44"/>
       <c r="K329" s="44">
@@ -30897,23 +30899,23 @@
         <v>0</v>
       </c>
       <c r="N329" s="44" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="O329" s="44">
         <v>2800</v>
       </c>
       <c r="P329" s="44" t="s">
+        <v>1719</v>
+      </c>
+      <c r="Q329" s="48" t="s">
         <v>1720</v>
-      </c>
-      <c r="Q329" s="48" t="s">
-        <v>1721</v>
       </c>
       <c r="R329" s="44"/>
       <c r="S329" s="44"/>
       <c r="T329" s="44"/>
       <c r="U329" s="44"/>
       <c r="V329" s="44" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="W329" s="44">
         <v>99999999</v>
@@ -30966,7 +30968,7 @@
       </c>
       <c r="H330" s="44"/>
       <c r="I330" s="44" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="J330" s="44"/>
       <c r="K330" s="44">
@@ -30979,23 +30981,23 @@
         <v>0</v>
       </c>
       <c r="N330" s="44" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="O330" s="44">
         <v>4800</v>
       </c>
       <c r="P330" s="44" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="Q330" s="48" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="R330" s="44"/>
       <c r="S330" s="44"/>
       <c r="T330" s="44"/>
       <c r="U330" s="44"/>
       <c r="V330" s="44" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="W330" s="44">
         <v>99999999</v>
@@ -31048,7 +31050,7 @@
       </c>
       <c r="H331" s="44"/>
       <c r="I331" s="44" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="J331" s="44"/>
       <c r="K331" s="44">
@@ -31061,23 +31063,23 @@
         <v>0</v>
       </c>
       <c r="N331" s="44" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="O331" s="44">
         <v>9900</v>
       </c>
       <c r="P331" s="44" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="Q331" s="48" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="R331" s="44"/>
       <c r="S331" s="44"/>
       <c r="T331" s="44"/>
       <c r="U331" s="44"/>
       <c r="V331" s="44" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="W331" s="44">
         <v>99999999</v>
@@ -31130,7 +31132,7 @@
       </c>
       <c r="H332" s="44"/>
       <c r="I332" s="44" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="J332" s="44"/>
       <c r="K332" s="44">
@@ -31143,23 +31145,23 @@
         <v>0</v>
       </c>
       <c r="N332" s="44" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="O332" s="44">
         <v>19800</v>
       </c>
       <c r="P332" s="44" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="Q332" s="48" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="R332" s="44"/>
       <c r="S332" s="44"/>
       <c r="T332" s="44"/>
       <c r="U332" s="44"/>
       <c r="V332" s="44" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="W332" s="44">
         <v>99999999</v>
@@ -31212,7 +31214,7 @@
       </c>
       <c r="H333" s="44"/>
       <c r="I333" s="44" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="J333" s="44"/>
       <c r="K333" s="44">
@@ -31225,23 +31227,23 @@
         <v>0</v>
       </c>
       <c r="N333" s="44" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="O333" s="44">
         <v>29800</v>
       </c>
       <c r="P333" s="44" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="Q333" s="48" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="R333" s="44"/>
       <c r="S333" s="44"/>
       <c r="T333" s="44"/>
       <c r="U333" s="44"/>
       <c r="V333" s="44" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="W333" s="44">
         <v>99999999</v>
@@ -31294,7 +31296,7 @@
       </c>
       <c r="H334" s="44"/>
       <c r="I334" s="44" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="J334" s="44"/>
       <c r="K334" s="44">
@@ -31307,23 +31309,23 @@
         <v>0</v>
       </c>
       <c r="N334" s="44" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="O334" s="44">
         <v>39800</v>
       </c>
       <c r="P334" s="44" t="s">
+        <v>1734</v>
+      </c>
+      <c r="Q334" s="48" t="s">
         <v>1735</v>
-      </c>
-      <c r="Q334" s="48" t="s">
-        <v>1736</v>
       </c>
       <c r="R334" s="44"/>
       <c r="S334" s="44"/>
       <c r="T334" s="44"/>
       <c r="U334" s="44"/>
       <c r="V334" s="44" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="W334" s="44">
         <v>99999999</v>
@@ -31376,7 +31378,7 @@
       </c>
       <c r="H335" s="44"/>
       <c r="I335" s="44" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="J335" s="44"/>
       <c r="K335" s="44">
@@ -31389,23 +31391,23 @@
         <v>0</v>
       </c>
       <c r="N335" s="44" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="O335" s="44">
         <v>49800</v>
       </c>
       <c r="P335" s="44" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="Q335" s="48" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="R335" s="44"/>
       <c r="S335" s="44"/>
       <c r="T335" s="44"/>
       <c r="U335" s="44"/>
       <c r="V335" s="44" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="W335" s="44">
         <v>99999999</v>
@@ -31458,7 +31460,7 @@
       </c>
       <c r="H336" s="44"/>
       <c r="I336" s="44" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="J336" s="44"/>
       <c r="K336" s="44">
@@ -31471,23 +31473,23 @@
         <v>0</v>
       </c>
       <c r="N336" s="44" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="O336" s="44">
         <v>59800</v>
       </c>
       <c r="P336" s="44" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="Q336" s="48" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="R336" s="44"/>
       <c r="S336" s="44"/>
       <c r="T336" s="44"/>
       <c r="U336" s="44"/>
       <c r="V336" s="44" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="W336" s="44">
         <v>99999999</v>
@@ -31540,7 +31542,7 @@
       </c>
       <c r="H337" s="44"/>
       <c r="I337" s="44" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="J337" s="44"/>
       <c r="K337" s="44">
@@ -31553,23 +31555,23 @@
         <v>0</v>
       </c>
       <c r="N337" s="44" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="O337" s="44">
         <v>69800</v>
       </c>
       <c r="P337" s="44" t="s">
+        <v>1742</v>
+      </c>
+      <c r="Q337" s="48" t="s">
         <v>1743</v>
-      </c>
-      <c r="Q337" s="48" t="s">
-        <v>1744</v>
       </c>
       <c r="R337" s="44"/>
       <c r="S337" s="44"/>
       <c r="T337" s="44"/>
       <c r="U337" s="44"/>
       <c r="V337" s="44" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="W337" s="44">
         <v>99999999</v>
@@ -36756,7 +36758,7 @@
         <v>1</v>
       </c>
       <c r="F414" s="82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G414" s="82" t="s">
         <v>1485</v>
@@ -38072,7 +38074,7 @@
         <v>1800</v>
       </c>
       <c r="P434" s="5" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="Q434" s="10" t="s">
         <v>1448</v>
@@ -38137,7 +38139,7 @@
         <v>4800</v>
       </c>
       <c r="P435" s="5" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="Q435" s="10" t="s">
         <v>1444</v>
@@ -38202,10 +38204,10 @@
         <v>9800</v>
       </c>
       <c r="P436" s="5" t="s">
+        <v>1763</v>
+      </c>
+      <c r="Q436" s="10" t="s">
         <v>1572</v>
-      </c>
-      <c r="Q436" s="10" t="s">
-        <v>1573</v>
       </c>
       <c r="V436" s="5" t="s">
         <v>553</v>
@@ -38249,7 +38251,7 @@
         <v>1567</v>
       </c>
       <c r="I437" s="5" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="K437" s="5">
         <v>-31</v>
@@ -38267,7 +38269,7 @@
         <v>19800</v>
       </c>
       <c r="P437" s="5" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="Q437" s="10" t="s">
         <v>1443</v>
@@ -38314,7 +38316,7 @@
         <v>1567</v>
       </c>
       <c r="I438" s="5" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="K438" s="5">
         <v>-31</v>
@@ -38332,7 +38334,7 @@
         <v>29800</v>
       </c>
       <c r="P438" s="5" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
       <c r="Q438" s="10" t="s">
         <v>1450</v>
@@ -38379,7 +38381,7 @@
         <v>1567</v>
       </c>
       <c r="I439" s="5" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="K439" s="5">
         <v>-31</v>
@@ -38397,7 +38399,7 @@
         <v>49800</v>
       </c>
       <c r="P439" s="5" t="s">
-        <v>1767</v>
+        <v>1764</v>
       </c>
       <c r="Q439" s="10" t="s">
         <v>1445</v>
@@ -38444,7 +38446,7 @@
         <v>1567</v>
       </c>
       <c r="I440" s="5" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="K440" s="5">
         <v>-31</v>
@@ -38462,7 +38464,7 @@
         <v>99800</v>
       </c>
       <c r="P440" s="5" t="s">
-        <v>1768</v>
+        <v>1764</v>
       </c>
       <c r="Q440" s="10" t="s">
         <v>1446</v>
@@ -38503,10 +38505,10 @@
         <v>0</v>
       </c>
       <c r="G441" s="5" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I441" s="5" t="s">
         <v>1578</v>
-      </c>
-      <c r="I441" s="5" t="s">
-        <v>1579</v>
       </c>
       <c r="K441" s="5">
         <v>-31</v>
@@ -38524,13 +38526,13 @@
         <v>49800</v>
       </c>
       <c r="P441" s="5" t="s">
+        <v>1579</v>
+      </c>
+      <c r="Q441" s="10" t="s">
         <v>1580</v>
       </c>
-      <c r="Q441" s="10" t="s">
+      <c r="V441" s="5" t="s">
         <v>1581</v>
-      </c>
-      <c r="V441" s="5" t="s">
-        <v>1582</v>
       </c>
       <c r="W441" s="5">
         <v>9999999</v>
@@ -38565,10 +38567,10 @@
         <v>0</v>
       </c>
       <c r="G442" s="5" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I442" s="5" t="s">
         <v>1583</v>
-      </c>
-      <c r="I442" s="5" t="s">
-        <v>1584</v>
       </c>
       <c r="K442" s="5">
         <v>-31</v>
@@ -38586,13 +38588,13 @@
         <v>19800</v>
       </c>
       <c r="P442" s="5" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="Q442" s="10" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="V442" s="5" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="W442" s="5">
         <v>9999999</v>
@@ -38627,10 +38629,10 @@
         <v>0</v>
       </c>
       <c r="G443" s="5" t="s">
+        <v>1585</v>
+      </c>
+      <c r="I443" s="5" t="s">
         <v>1586</v>
-      </c>
-      <c r="I443" s="5" t="s">
-        <v>1587</v>
       </c>
       <c r="K443" s="5">
         <v>-31</v>
@@ -38648,13 +38650,13 @@
         <v>9800</v>
       </c>
       <c r="P443" s="5" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="Q443" s="10" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="V443" s="5" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="W443" s="5">
         <v>9999999</v>
@@ -38689,10 +38691,10 @@
         <v>0</v>
       </c>
       <c r="G444" s="5" t="s">
+        <v>1588</v>
+      </c>
+      <c r="I444" s="5" t="s">
         <v>1589</v>
-      </c>
-      <c r="I444" s="5" t="s">
-        <v>1590</v>
       </c>
       <c r="K444" s="5">
         <v>-31</v>
@@ -38710,13 +38712,13 @@
         <v>4800</v>
       </c>
       <c r="P444" s="5" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="Q444" s="10" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="V444" s="5" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="W444" s="5">
         <v>9999999</v>
@@ -38751,10 +38753,10 @@
         <v>0</v>
       </c>
       <c r="G445" s="5" t="s">
+        <v>1591</v>
+      </c>
+      <c r="I445" s="5" t="s">
         <v>1592</v>
-      </c>
-      <c r="I445" s="5" t="s">
-        <v>1593</v>
       </c>
       <c r="K445" s="5">
         <v>-31</v>
@@ -38772,10 +38774,10 @@
         <v>2000</v>
       </c>
       <c r="P445" s="5" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="Q445" s="10" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="V445" s="5" t="s">
         <v>597</v>
@@ -38813,10 +38815,10 @@
         <v>0</v>
       </c>
       <c r="G446" s="5" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I446" s="5" t="s">
         <v>1595</v>
-      </c>
-      <c r="I446" s="5" t="s">
-        <v>1596</v>
       </c>
       <c r="K446" s="5">
         <v>-31</v>
@@ -38834,7 +38836,7 @@
         <v>600</v>
       </c>
       <c r="P446" s="5" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="Q446" s="10" t="s">
         <v>1413</v>
@@ -38875,13 +38877,13 @@
         <v>1</v>
       </c>
       <c r="G447" s="69" t="s">
+        <v>1596</v>
+      </c>
+      <c r="H447" s="69" t="s">
         <v>1597</v>
       </c>
-      <c r="H447" s="69" t="s">
+      <c r="I447" s="69" t="s">
         <v>1598</v>
-      </c>
-      <c r="I447" s="69" t="s">
-        <v>1599</v>
       </c>
       <c r="K447" s="69">
         <v>-31</v>
@@ -38902,7 +38904,7 @@
         <v>461</v>
       </c>
       <c r="Q447" s="70" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="V447" s="5" t="s">
         <v>597</v>
@@ -38943,13 +38945,13 @@
         <v>1</v>
       </c>
       <c r="G448" s="69" t="s">
+        <v>1600</v>
+      </c>
+      <c r="H448" s="69" t="s">
         <v>1601</v>
       </c>
-      <c r="H448" s="69" t="s">
+      <c r="I448" s="69" t="s">
         <v>1602</v>
-      </c>
-      <c r="I448" s="69" t="s">
-        <v>1603</v>
       </c>
       <c r="K448" s="69">
         <v>-31</v>
@@ -38970,7 +38972,7 @@
         <v>461</v>
       </c>
       <c r="Q448" s="70" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="V448" s="5" t="s">
         <v>597</v>
@@ -39008,13 +39010,13 @@
         <v>1</v>
       </c>
       <c r="G449" s="69" t="s">
+        <v>1604</v>
+      </c>
+      <c r="H449" s="69" t="s">
         <v>1605</v>
       </c>
-      <c r="H449" s="69" t="s">
+      <c r="I449" s="69" t="s">
         <v>1606</v>
-      </c>
-      <c r="I449" s="69" t="s">
-        <v>1607</v>
       </c>
       <c r="K449" s="69">
         <v>-31</v>
@@ -39035,7 +39037,7 @@
         <v>461</v>
       </c>
       <c r="Q449" s="70" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="V449" s="5" t="s">
         <v>553</v>
@@ -39076,13 +39078,13 @@
         <v>1</v>
       </c>
       <c r="G450" s="71" t="s">
+        <v>1608</v>
+      </c>
+      <c r="H450" s="71" t="s">
         <v>1609</v>
       </c>
-      <c r="H450" s="71" t="s">
+      <c r="I450" s="71" t="s">
         <v>1610</v>
-      </c>
-      <c r="I450" s="71" t="s">
-        <v>1611</v>
       </c>
       <c r="K450" s="71">
         <v>-31</v>
@@ -39103,7 +39105,7 @@
         <v>461</v>
       </c>
       <c r="Q450" s="72" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="V450" s="5" t="s">
         <v>553</v>
@@ -39144,13 +39146,13 @@
         <v>1</v>
       </c>
       <c r="G451" s="71" t="s">
+        <v>1612</v>
+      </c>
+      <c r="H451" s="71" t="s">
         <v>1613</v>
       </c>
-      <c r="H451" s="71" t="s">
+      <c r="I451" s="71" t="s">
         <v>1614</v>
-      </c>
-      <c r="I451" s="71" t="s">
-        <v>1615</v>
       </c>
       <c r="K451" s="71">
         <v>-31</v>
@@ -39171,7 +39173,7 @@
         <v>461</v>
       </c>
       <c r="Q451" s="72" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="V451" s="5" t="s">
         <v>553</v>
@@ -39209,13 +39211,13 @@
         <v>1</v>
       </c>
       <c r="G452" s="71" t="s">
+        <v>1616</v>
+      </c>
+      <c r="H452" s="71" t="s">
         <v>1617</v>
       </c>
-      <c r="H452" s="71" t="s">
+      <c r="I452" s="71" t="s">
         <v>1618</v>
-      </c>
-      <c r="I452" s="71" t="s">
-        <v>1619</v>
       </c>
       <c r="K452" s="71">
         <v>-31</v>
@@ -39236,7 +39238,7 @@
         <v>461</v>
       </c>
       <c r="Q452" s="72" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="V452" s="5" t="s">
         <v>553</v>
@@ -39277,13 +39279,13 @@
         <v>1</v>
       </c>
       <c r="G453" s="69" t="s">
+        <v>1620</v>
+      </c>
+      <c r="H453" s="69" t="s">
         <v>1621</v>
       </c>
-      <c r="H453" s="69" t="s">
+      <c r="I453" s="69" t="s">
         <v>1622</v>
-      </c>
-      <c r="I453" s="69" t="s">
-        <v>1623</v>
       </c>
       <c r="K453" s="69">
         <v>-31</v>
@@ -39304,7 +39306,7 @@
         <v>461</v>
       </c>
       <c r="Q453" s="70" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="V453" s="5" t="s">
         <v>553</v>
@@ -39345,13 +39347,13 @@
         <v>1</v>
       </c>
       <c r="G454" s="69" t="s">
+        <v>1624</v>
+      </c>
+      <c r="H454" s="69" t="s">
         <v>1625</v>
       </c>
-      <c r="H454" s="69" t="s">
+      <c r="I454" s="69" t="s">
         <v>1626</v>
-      </c>
-      <c r="I454" s="69" t="s">
-        <v>1627</v>
       </c>
       <c r="K454" s="69">
         <v>-31</v>
@@ -39372,7 +39374,7 @@
         <v>461</v>
       </c>
       <c r="Q454" s="70" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="V454" s="5" t="s">
         <v>553</v>
@@ -39410,13 +39412,13 @@
         <v>1</v>
       </c>
       <c r="G455" s="69" t="s">
+        <v>1628</v>
+      </c>
+      <c r="H455" s="69" t="s">
         <v>1629</v>
       </c>
-      <c r="H455" s="69" t="s">
+      <c r="I455" s="69" t="s">
         <v>1630</v>
-      </c>
-      <c r="I455" s="69" t="s">
-        <v>1631</v>
       </c>
       <c r="K455" s="69">
         <v>-31</v>
@@ -39437,7 +39439,7 @@
         <v>461</v>
       </c>
       <c r="Q455" s="70" t="s">
-        <v>1769</v>
+        <v>1765</v>
       </c>
       <c r="V455" s="5" t="s">
         <v>553</v>
@@ -39478,13 +39480,13 @@
         <v>1</v>
       </c>
       <c r="G456" s="71" t="s">
+        <v>1631</v>
+      </c>
+      <c r="H456" s="71" t="s">
         <v>1632</v>
       </c>
-      <c r="H456" s="71" t="s">
+      <c r="I456" s="71" t="s">
         <v>1633</v>
-      </c>
-      <c r="I456" s="71" t="s">
-        <v>1634</v>
       </c>
       <c r="K456" s="71">
         <v>-31</v>
@@ -39505,7 +39507,7 @@
         <v>461</v>
       </c>
       <c r="Q456" s="72" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="V456" s="5" t="s">
         <v>553</v>
@@ -39546,13 +39548,13 @@
         <v>1</v>
       </c>
       <c r="G457" s="71" t="s">
+        <v>1635</v>
+      </c>
+      <c r="H457" s="71" t="s">
         <v>1636</v>
       </c>
-      <c r="H457" s="71" t="s">
+      <c r="I457" s="71" t="s">
         <v>1637</v>
-      </c>
-      <c r="I457" s="71" t="s">
-        <v>1638</v>
       </c>
       <c r="K457" s="71">
         <v>-31</v>
@@ -39573,7 +39575,7 @@
         <v>461</v>
       </c>
       <c r="Q457" s="72" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="V457" s="5" t="s">
         <v>553</v>
@@ -39611,13 +39613,13 @@
         <v>1</v>
       </c>
       <c r="G458" s="71" t="s">
+        <v>1639</v>
+      </c>
+      <c r="H458" s="71" t="s">
         <v>1640</v>
       </c>
-      <c r="H458" s="71" t="s">
+      <c r="I458" s="71" t="s">
         <v>1641</v>
-      </c>
-      <c r="I458" s="71" t="s">
-        <v>1642</v>
       </c>
       <c r="K458" s="71">
         <v>-31</v>
@@ -39638,7 +39640,7 @@
         <v>461</v>
       </c>
       <c r="Q458" s="72" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="V458" s="5" t="s">
         <v>553</v>
@@ -39679,13 +39681,13 @@
         <v>1</v>
       </c>
       <c r="G459" s="69" t="s">
+        <v>1643</v>
+      </c>
+      <c r="H459" s="69" t="s">
         <v>1644</v>
       </c>
-      <c r="H459" s="69" t="s">
+      <c r="I459" s="69" t="s">
         <v>1645</v>
-      </c>
-      <c r="I459" s="69" t="s">
-        <v>1646</v>
       </c>
       <c r="K459" s="69">
         <v>-31</v>
@@ -39706,7 +39708,7 @@
         <v>461</v>
       </c>
       <c r="Q459" s="70" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="V459" s="5" t="s">
         <v>553</v>
@@ -39747,13 +39749,13 @@
         <v>1</v>
       </c>
       <c r="G460" s="69" t="s">
+        <v>1647</v>
+      </c>
+      <c r="H460" s="69" t="s">
         <v>1648</v>
       </c>
-      <c r="H460" s="69" t="s">
+      <c r="I460" s="69" t="s">
         <v>1649</v>
-      </c>
-      <c r="I460" s="69" t="s">
-        <v>1650</v>
       </c>
       <c r="K460" s="69">
         <v>-31</v>
@@ -39774,7 +39776,7 @@
         <v>461</v>
       </c>
       <c r="Q460" s="70" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="V460" s="5" t="s">
         <v>553</v>
@@ -39812,13 +39814,13 @@
         <v>1</v>
       </c>
       <c r="G461" s="69" t="s">
+        <v>1651</v>
+      </c>
+      <c r="H461" s="69" t="s">
         <v>1652</v>
       </c>
-      <c r="H461" s="69" t="s">
+      <c r="I461" s="69" t="s">
         <v>1653</v>
-      </c>
-      <c r="I461" s="69" t="s">
-        <v>1654</v>
       </c>
       <c r="K461" s="69">
         <v>-31</v>
@@ -39839,7 +39841,7 @@
         <v>461</v>
       </c>
       <c r="Q461" s="70" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="V461" s="5" t="s">
         <v>553</v>
@@ -39880,13 +39882,13 @@
         <v>1</v>
       </c>
       <c r="G462" s="71" t="s">
+        <v>1655</v>
+      </c>
+      <c r="H462" s="71" t="s">
         <v>1656</v>
       </c>
-      <c r="H462" s="71" t="s">
+      <c r="I462" s="71" t="s">
         <v>1657</v>
-      </c>
-      <c r="I462" s="71" t="s">
-        <v>1658</v>
       </c>
       <c r="K462" s="71">
         <v>-31</v>
@@ -39907,7 +39909,7 @@
         <v>461</v>
       </c>
       <c r="Q462" s="72" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="V462" s="5" t="s">
         <v>553</v>
@@ -39948,13 +39950,13 @@
         <v>1</v>
       </c>
       <c r="G463" s="71" t="s">
+        <v>1659</v>
+      </c>
+      <c r="H463" s="71" t="s">
         <v>1660</v>
       </c>
-      <c r="H463" s="71" t="s">
+      <c r="I463" s="71" t="s">
         <v>1661</v>
-      </c>
-      <c r="I463" s="71" t="s">
-        <v>1662</v>
       </c>
       <c r="K463" s="71">
         <v>-31</v>
@@ -39975,7 +39977,7 @@
         <v>461</v>
       </c>
       <c r="Q463" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="V463" s="5" t="s">
         <v>553</v>
@@ -40013,13 +40015,13 @@
         <v>1</v>
       </c>
       <c r="G464" s="71" t="s">
+        <v>1663</v>
+      </c>
+      <c r="H464" s="71" t="s">
         <v>1664</v>
       </c>
-      <c r="H464" s="71" t="s">
+      <c r="I464" s="71" t="s">
         <v>1665</v>
-      </c>
-      <c r="I464" s="71" t="s">
-        <v>1666</v>
       </c>
       <c r="K464" s="71">
         <v>-31</v>
@@ -40040,7 +40042,7 @@
         <v>461</v>
       </c>
       <c r="Q464" s="72" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="V464" s="5" t="s">
         <v>553</v>
@@ -40081,13 +40083,13 @@
         <v>1</v>
       </c>
       <c r="G465" s="69" t="s">
+        <v>1667</v>
+      </c>
+      <c r="H465" s="69" t="s">
         <v>1668</v>
       </c>
-      <c r="H465" s="69" t="s">
+      <c r="I465" s="69" t="s">
         <v>1669</v>
-      </c>
-      <c r="I465" s="69" t="s">
-        <v>1670</v>
       </c>
       <c r="K465" s="69">
         <v>-31</v>
@@ -40108,7 +40110,7 @@
         <v>461</v>
       </c>
       <c r="Q465" s="70" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="V465" s="5" t="s">
         <v>553</v>
@@ -40149,13 +40151,13 @@
         <v>1</v>
       </c>
       <c r="G466" s="69" t="s">
+        <v>1671</v>
+      </c>
+      <c r="H466" s="69" t="s">
         <v>1672</v>
       </c>
-      <c r="H466" s="69" t="s">
+      <c r="I466" s="69" t="s">
         <v>1673</v>
-      </c>
-      <c r="I466" s="69" t="s">
-        <v>1674</v>
       </c>
       <c r="K466" s="69">
         <v>-31</v>
@@ -40176,7 +40178,7 @@
         <v>461</v>
       </c>
       <c r="Q466" s="70" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="V466" s="5" t="s">
         <v>553</v>
@@ -40214,13 +40216,13 @@
         <v>1</v>
       </c>
       <c r="G467" s="69" t="s">
+        <v>1675</v>
+      </c>
+      <c r="H467" s="69" t="s">
         <v>1676</v>
       </c>
-      <c r="H467" s="69" t="s">
+      <c r="I467" s="69" t="s">
         <v>1677</v>
-      </c>
-      <c r="I467" s="69" t="s">
-        <v>1678</v>
       </c>
       <c r="K467" s="69">
         <v>-31</v>
@@ -40241,7 +40243,7 @@
         <v>461</v>
       </c>
       <c r="Q467" s="70" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="V467" s="5" t="s">
         <v>553</v>
@@ -40282,10 +40284,10 @@
         <v>1</v>
       </c>
       <c r="G468" s="73" t="s">
+        <v>1679</v>
+      </c>
+      <c r="H468" s="73" t="s">
         <v>1680</v>
-      </c>
-      <c r="H468" s="73" t="s">
-        <v>1681</v>
       </c>
       <c r="I468" s="73" t="s">
         <v>1117</v>
@@ -40312,7 +40314,7 @@
         <v>1118</v>
       </c>
       <c r="V468" s="73" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="W468" s="73">
         <v>9999999</v>
@@ -40347,13 +40349,13 @@
         <v>1</v>
       </c>
       <c r="G469" s="73" t="s">
+        <v>1682</v>
+      </c>
+      <c r="H469" s="73" t="s">
+        <v>1680</v>
+      </c>
+      <c r="I469" s="73" t="s">
         <v>1683</v>
-      </c>
-      <c r="H469" s="73" t="s">
-        <v>1681</v>
-      </c>
-      <c r="I469" s="73" t="s">
-        <v>1684</v>
       </c>
       <c r="K469" s="73">
         <v>-31</v>
@@ -40374,10 +40376,10 @@
         <v>461</v>
       </c>
       <c r="Q469" s="74" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="V469" s="73" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="W469" s="73">
         <v>9999999</v>
@@ -40412,10 +40414,10 @@
         <v>1</v>
       </c>
       <c r="G470" s="73" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="H470" s="73" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="I470" s="73" t="s">
         <v>1318</v>
@@ -40442,7 +40444,7 @@
         <v>857</v>
       </c>
       <c r="V470" s="73" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="W470" s="73">
         <v>9999999</v>
@@ -40477,13 +40479,13 @@
         <v>1</v>
       </c>
       <c r="G471" s="73" t="s">
+        <v>1686</v>
+      </c>
+      <c r="H471" s="73" t="s">
+        <v>1680</v>
+      </c>
+      <c r="I471" s="73" t="s">
         <v>1687</v>
-      </c>
-      <c r="H471" s="73" t="s">
-        <v>1681</v>
-      </c>
-      <c r="I471" s="73" t="s">
-        <v>1688</v>
       </c>
       <c r="K471" s="73">
         <v>-31</v>
@@ -40504,10 +40506,10 @@
         <v>461</v>
       </c>
       <c r="Q471" s="74" t="s">
+        <v>1688</v>
+      </c>
+      <c r="V471" s="73" t="s">
         <v>1689</v>
-      </c>
-      <c r="V471" s="73" t="s">
-        <v>1690</v>
       </c>
       <c r="W471" s="73">
         <v>9999999</v>
@@ -40542,13 +40544,13 @@
         <v>1</v>
       </c>
       <c r="G472" s="73" t="s">
+        <v>1690</v>
+      </c>
+      <c r="H472" s="73" t="s">
+        <v>1680</v>
+      </c>
+      <c r="I472" s="73" t="s">
         <v>1691</v>
-      </c>
-      <c r="H472" s="73" t="s">
-        <v>1681</v>
-      </c>
-      <c r="I472" s="73" t="s">
-        <v>1692</v>
       </c>
       <c r="K472" s="73">
         <v>-31</v>
@@ -40572,7 +40574,7 @@
         <v>858</v>
       </c>
       <c r="V472" s="73" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="W472" s="73">
         <v>9999999</v>
@@ -40607,13 +40609,13 @@
         <v>1</v>
       </c>
       <c r="G473" s="73" t="s">
+        <v>1692</v>
+      </c>
+      <c r="H473" s="73" t="s">
+        <v>1680</v>
+      </c>
+      <c r="I473" s="73" t="s">
         <v>1693</v>
-      </c>
-      <c r="H473" s="73" t="s">
-        <v>1681</v>
-      </c>
-      <c r="I473" s="73" t="s">
-        <v>1694</v>
       </c>
       <c r="K473" s="73">
         <v>-31</v>
@@ -40634,10 +40636,10 @@
         <v>461</v>
       </c>
       <c r="Q473" s="74" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="V473" s="73" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="W473" s="73">
         <v>9999999</v>
@@ -40672,13 +40674,13 @@
         <v>1</v>
       </c>
       <c r="G474" s="75" t="s">
+        <v>1695</v>
+      </c>
+      <c r="H474" s="75" t="s">
+        <v>1680</v>
+      </c>
+      <c r="I474" s="75" t="s">
         <v>1696</v>
-      </c>
-      <c r="H474" s="75" t="s">
-        <v>1681</v>
-      </c>
-      <c r="I474" s="75" t="s">
-        <v>1697</v>
       </c>
       <c r="K474" s="75">
         <v>-31</v>
@@ -40699,10 +40701,10 @@
         <v>461</v>
       </c>
       <c r="Q474" s="76" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="V474" s="73" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="W474" s="75">
         <v>9999999</v>
@@ -40737,13 +40739,13 @@
         <v>1</v>
       </c>
       <c r="G475" s="75" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="H475" s="75" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="I475" s="75" t="s">
-        <v>1770</v>
+        <v>1766</v>
       </c>
       <c r="K475" s="75">
         <v>-31</v>
@@ -40764,10 +40766,10 @@
         <v>461</v>
       </c>
       <c r="Q475" s="76" t="s">
-        <v>1771</v>
+        <v>1767</v>
       </c>
       <c r="V475" s="73" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="W475" s="75">
         <v>9999999</v>
@@ -40802,13 +40804,13 @@
         <v>1</v>
       </c>
       <c r="G476" s="80" t="s">
+        <v>1744</v>
+      </c>
+      <c r="H476" s="80" t="s">
         <v>1745</v>
       </c>
-      <c r="H476" s="80" t="s">
+      <c r="I476" s="80" t="s">
         <v>1746</v>
-      </c>
-      <c r="I476" s="80" t="s">
-        <v>1747</v>
       </c>
       <c r="K476" s="80">
         <v>-31</v>
@@ -40820,19 +40822,19 @@
         <v>0</v>
       </c>
       <c r="N476" s="80" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="O476" s="80">
         <v>49800</v>
       </c>
       <c r="P476" s="80" t="s">
+        <v>1748</v>
+      </c>
+      <c r="Q476" s="81" t="s">
         <v>1749</v>
       </c>
-      <c r="Q476" s="81" t="s">
+      <c r="V476" s="80" t="s">
         <v>1750</v>
-      </c>
-      <c r="V476" s="80" t="s">
-        <v>1751</v>
       </c>
       <c r="W476" s="80">
         <v>9999999</v>
@@ -40867,13 +40869,13 @@
         <v>1</v>
       </c>
       <c r="G477" s="80" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="H477" s="80" t="s">
+        <v>1751</v>
+      </c>
+      <c r="I477" s="80" t="s">
         <v>1752</v>
-      </c>
-      <c r="I477" s="80" t="s">
-        <v>1753</v>
       </c>
       <c r="K477" s="80">
         <v>-31</v>
@@ -40885,19 +40887,19 @@
         <v>0</v>
       </c>
       <c r="N477" s="80" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="O477" s="80">
         <v>19800</v>
       </c>
       <c r="P477" s="80" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="Q477" s="81" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="V477" s="80" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="W477" s="80">
         <v>9999999</v>
@@ -40932,13 +40934,13 @@
         <v>1</v>
       </c>
       <c r="G478" s="80" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="H478" s="80" t="s">
+        <v>1754</v>
+      </c>
+      <c r="I478" s="80" t="s">
         <v>1755</v>
-      </c>
-      <c r="I478" s="80" t="s">
-        <v>1756</v>
       </c>
       <c r="K478" s="80">
         <v>-31</v>
@@ -40950,16 +40952,16 @@
         <v>0</v>
       </c>
       <c r="N478" s="80" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="O478" s="80">
         <v>9800</v>
       </c>
       <c r="P478" s="80" t="s">
+        <v>1756</v>
+      </c>
+      <c r="Q478" s="81" t="s">
         <v>1757</v>
-      </c>
-      <c r="Q478" s="81" t="s">
-        <v>1758</v>
       </c>
       <c r="V478" s="80" t="s">
         <v>553</v>
@@ -40997,13 +40999,13 @@
         <v>1</v>
       </c>
       <c r="G479" s="80" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="H479" s="80" t="s">
+        <v>1758</v>
+      </c>
+      <c r="I479" s="80" t="s">
         <v>1759</v>
-      </c>
-      <c r="I479" s="80" t="s">
-        <v>1760</v>
       </c>
       <c r="K479" s="80">
         <v>-31</v>
@@ -41015,19 +41017,19 @@
         <v>0</v>
       </c>
       <c r="N479" s="80" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="O479" s="80">
         <v>4800</v>
       </c>
       <c r="P479" s="80" t="s">
+        <v>1760</v>
+      </c>
+      <c r="Q479" s="81" t="s">
         <v>1761</v>
       </c>
-      <c r="Q479" s="81" t="s">
-        <v>1762</v>
-      </c>
       <c r="V479" s="80" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="W479" s="80">
         <v>9999999</v>
@@ -41825,7 +41827,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="79" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="C53" s="78">
         <v>1</v>
@@ -41839,7 +41841,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="79" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="C54" s="78">
         <v>1</v>
@@ -41853,7 +41855,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="79" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="C55" s="78">
         <v>1</v>
@@ -41867,7 +41869,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="79" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="C56" s="78">
         <v>1</v>
@@ -41881,7 +41883,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="79" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="C57" s="78">
         <v>1</v>
@@ -41895,7 +41897,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="79" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="C58" s="78">
         <v>1</v>
@@ -41909,7 +41911,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="79" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="C59" s="78">
         <v>1</v>
@@ -41923,7 +41925,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="79" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="C60" s="78">
         <v>1</v>
@@ -41937,7 +41939,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="79" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="C61" s="78">
         <v>1</v>
@@ -41951,7 +41953,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="79" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="C62" s="78">
         <v>1</v>
@@ -41965,7 +41967,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="79" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="C63" s="78">
         <v>1</v>
@@ -41979,7 +41981,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="79" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="C64" s="78">
         <v>1</v>
@@ -41993,7 +41995,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="79" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="C65" s="78">
         <v>1</v>
@@ -42007,7 +42009,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="79" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="C66" s="78">
         <v>1</v>

--- a/config_debug/shoping_config_cjj.xlsx
+++ b/config_debug/shoping_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4055" uniqueCount="1831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4055" uniqueCount="1830">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6623,10 +6623,6 @@
   </si>
   <si>
     <t>双十二6元礼包</t>
-  </si>
-  <si>
-    <t>"jing_bi","shop_gold_sum","prop_web_chip_huafei"</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{52000,56000,100},</t>
@@ -10828,10 +10824,10 @@
   <dimension ref="A1:AN492"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="Q471" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="O60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q496" sqref="Q496"/>
+      <selection pane="bottomRight" activeCell="Q77" sqref="Q77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -10897,7 +10893,7 @@
         <v>506</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1081</v>
@@ -14691,7 +14687,7 @@
         <v>235</v>
       </c>
       <c r="H67" s="85" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="L67" s="81">
         <v>-4</v>
@@ -14712,7 +14708,7 @@
         <v>90</v>
       </c>
       <c r="R67" s="86" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="W67" s="81" t="s">
         <v>541</v>
@@ -14750,7 +14746,7 @@
         <v>237</v>
       </c>
       <c r="H68" s="85" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="L68" s="81">
         <v>-4</v>
@@ -14771,7 +14767,7 @@
         <v>90</v>
       </c>
       <c r="R68" s="86" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="W68" s="81" t="s">
         <v>541</v>
@@ -14809,7 +14805,7 @@
         <v>239</v>
       </c>
       <c r="H69" s="85" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="L69" s="81">
         <v>-4</v>
@@ -14868,7 +14864,7 @@
         <v>241</v>
       </c>
       <c r="H70" s="85" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="L70" s="81">
         <v>-4</v>
@@ -14889,7 +14885,7 @@
         <v>90</v>
       </c>
       <c r="R70" s="86" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="W70" s="81" t="s">
         <v>541</v>
@@ -14927,7 +14923,7 @@
         <v>242</v>
       </c>
       <c r="H71" s="85" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="L71" s="81">
         <v>-4</v>
@@ -14948,7 +14944,7 @@
         <v>90</v>
       </c>
       <c r="R71" s="86" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="W71" s="81" t="s">
         <v>541</v>
@@ -15282,7 +15278,7 @@
         <v>248</v>
       </c>
       <c r="J77" s="19" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="L77" s="19">
         <v>-20</v>
@@ -15300,10 +15296,10 @@
         <v>100</v>
       </c>
       <c r="Q77" s="19" t="s">
-        <v>1512</v>
+        <v>505</v>
       </c>
       <c r="R77" s="40" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="W77" s="19" t="s">
         <v>541</v>
@@ -15321,10 +15317,10 @@
         <v>90</v>
       </c>
       <c r="AC77" s="19" t="s">
+        <v>1512</v>
+      </c>
+      <c r="AD77" s="40" t="s">
         <v>1513</v>
-      </c>
-      <c r="AD77" s="40" t="s">
-        <v>1514</v>
       </c>
       <c r="AH77" s="19">
         <v>1</v>
@@ -15347,7 +15343,7 @@
         <v>249</v>
       </c>
       <c r="J78" s="19" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="L78" s="19">
         <v>-20</v>
@@ -15365,10 +15361,10 @@
         <v>1000</v>
       </c>
       <c r="Q78" s="19" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="R78" s="40" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="W78" s="19" t="s">
         <v>541</v>
@@ -15386,10 +15382,10 @@
         <v>90</v>
       </c>
       <c r="AC78" s="19" t="s">
+        <v>1515</v>
+      </c>
+      <c r="AD78" s="40" t="s">
         <v>1516</v>
-      </c>
-      <c r="AD78" s="40" t="s">
-        <v>1517</v>
       </c>
       <c r="AH78" s="19">
         <v>1</v>
@@ -15433,7 +15429,7 @@
         <v>250</v>
       </c>
       <c r="R79" s="10" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="W79" s="5" t="s">
         <v>541</v>
@@ -15498,7 +15494,7 @@
         <v>250</v>
       </c>
       <c r="R80" s="10" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="W80" s="5" t="s">
         <v>541</v>
@@ -15545,7 +15541,7 @@
         <v>252</v>
       </c>
       <c r="J81" s="19" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="L81" s="19">
         <v>-20</v>
@@ -15563,10 +15559,10 @@
         <v>4800</v>
       </c>
       <c r="Q81" s="19" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="R81" s="40" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="W81" s="19" t="s">
         <v>541</v>
@@ -15584,10 +15580,10 @@
         <v>601</v>
       </c>
       <c r="AC81" s="19" t="s">
+        <v>1518</v>
+      </c>
+      <c r="AD81" s="40" t="s">
         <v>1519</v>
-      </c>
-      <c r="AD81" s="40" t="s">
-        <v>1520</v>
       </c>
       <c r="AH81" s="19">
         <v>1</v>
@@ -15631,7 +15627,7 @@
         <v>254</v>
       </c>
       <c r="R82" s="10" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="W82" s="5" t="s">
         <v>541</v>
@@ -15687,7 +15683,7 @@
         <v>1000</v>
       </c>
       <c r="R83" s="10" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="W83" s="5" t="s">
         <v>542</v>
@@ -15743,7 +15739,7 @@
         <v>934</v>
       </c>
       <c r="R84" s="10" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="W84" s="5" t="s">
         <v>542</v>
@@ -15799,7 +15795,7 @@
         <v>1001</v>
       </c>
       <c r="R85" s="10" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="W85" s="5" t="s">
         <v>543</v>
@@ -15906,7 +15902,7 @@
         <v>1001</v>
       </c>
       <c r="R87" s="10" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="W87" s="5" t="s">
         <v>543</v>
@@ -15962,7 +15958,7 @@
         <v>258</v>
       </c>
       <c r="R88" s="10" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="W88" s="5" t="s">
         <v>542</v>
@@ -16018,7 +16014,7 @@
         <v>129</v>
       </c>
       <c r="R89" s="10" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="W89" s="5" t="s">
         <v>542</v>
@@ -16074,7 +16070,7 @@
         <v>222</v>
       </c>
       <c r="R90" s="10" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="W90" s="5" t="s">
         <v>542</v>
@@ -16186,7 +16182,7 @@
         <v>934</v>
       </c>
       <c r="R92" s="10" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="W92" s="5" t="s">
         <v>542</v>
@@ -16242,7 +16238,7 @@
         <v>265</v>
       </c>
       <c r="R93" s="10" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="W93" s="5" t="s">
         <v>542</v>
@@ -16295,7 +16291,7 @@
         <v>90</v>
       </c>
       <c r="R94" s="86" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="W94" s="85" t="s">
         <v>541</v>
@@ -16351,7 +16347,7 @@
         <v>218</v>
       </c>
       <c r="R95" s="10" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="S95" s="7"/>
       <c r="U95" s="7"/>
@@ -16652,7 +16648,7 @@
         <v>582</v>
       </c>
       <c r="R100" s="40" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="W100" s="19" t="s">
         <v>542</v>
@@ -16715,7 +16711,7 @@
         <v>583</v>
       </c>
       <c r="R101" s="40" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="W101" s="19" t="s">
         <v>542</v>
@@ -16778,7 +16774,7 @@
         <v>583</v>
       </c>
       <c r="R102" s="40" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="W102" s="19" t="s">
         <v>542</v>
@@ -16841,7 +16837,7 @@
         <v>583</v>
       </c>
       <c r="R103" s="40" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="W103" s="19" t="s">
         <v>542</v>
@@ -16904,7 +16900,7 @@
         <v>583</v>
       </c>
       <c r="R104" s="40" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="W104" s="19" t="s">
         <v>542</v>
@@ -16967,7 +16963,7 @@
         <v>582</v>
       </c>
       <c r="R105" s="40" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="W105" s="19" t="s">
         <v>542</v>
@@ -17030,7 +17026,7 @@
         <v>583</v>
       </c>
       <c r="R106" s="40" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="W106" s="19" t="s">
         <v>542</v>
@@ -17093,7 +17089,7 @@
         <v>582</v>
       </c>
       <c r="R107" s="40" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="W107" s="19" t="s">
         <v>542</v>
@@ -17156,7 +17152,7 @@
         <v>583</v>
       </c>
       <c r="R108" s="40" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="W108" s="19" t="s">
         <v>542</v>
@@ -18311,7 +18307,7 @@
         <v>332</v>
       </c>
       <c r="H128" s="85" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="L128" s="85">
         <v>-10</v>
@@ -18332,7 +18328,7 @@
         <v>90</v>
       </c>
       <c r="R128" s="86" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="W128" s="85" t="s">
         <v>541</v>
@@ -18370,7 +18366,7 @@
         <v>531</v>
       </c>
       <c r="H129" s="85" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="L129" s="85">
         <v>-11</v>
@@ -18391,7 +18387,7 @@
         <v>90</v>
       </c>
       <c r="R129" s="86" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="W129" s="85" t="s">
         <v>541</v>
@@ -18633,7 +18629,7 @@
         <v>295</v>
       </c>
       <c r="R133" s="10" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="W133" s="5" t="s">
         <v>544</v>
@@ -18695,7 +18691,7 @@
         <v>308</v>
       </c>
       <c r="R134" s="10" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="W134" s="5" t="s">
         <v>544</v>
@@ -18757,7 +18753,7 @@
         <v>311</v>
       </c>
       <c r="R135" s="10" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="W135" s="5" t="s">
         <v>544</v>
@@ -18821,7 +18817,7 @@
         <v>160</v>
       </c>
       <c r="R136" s="10" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="W136" s="5" t="s">
         <v>544</v>
@@ -18882,7 +18878,7 @@
         <v>160</v>
       </c>
       <c r="R137" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="W137" s="5" t="s">
         <v>544</v>
@@ -18943,7 +18939,7 @@
         <v>160</v>
       </c>
       <c r="R138" s="10" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="W138" s="5" t="s">
         <v>544</v>
@@ -19004,7 +19000,7 @@
         <v>160</v>
       </c>
       <c r="R139" s="10" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="W139" s="5" t="s">
         <v>544</v>
@@ -19065,7 +19061,7 @@
         <v>160</v>
       </c>
       <c r="R140" s="10" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="W140" s="5" t="s">
         <v>544</v>
@@ -19126,7 +19122,7 @@
         <v>160</v>
       </c>
       <c r="R141" s="10" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="W141" s="5" t="s">
         <v>544</v>
@@ -19376,7 +19372,7 @@
         <v>348</v>
       </c>
       <c r="R145" s="10" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="T145" s="5" t="s">
         <v>90</v>
@@ -19443,7 +19439,7 @@
         <v>278</v>
       </c>
       <c r="R146" s="10" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="T146" s="5" t="s">
         <v>160</v>
@@ -19510,7 +19506,7 @@
         <v>278</v>
       </c>
       <c r="R147" s="10" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="T147" s="5" t="s">
         <v>160</v>
@@ -19577,7 +19573,7 @@
         <v>278</v>
       </c>
       <c r="R148" s="10" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="T148" s="5" t="s">
         <v>160</v>
@@ -19644,7 +19640,7 @@
         <v>278</v>
       </c>
       <c r="R149" s="10" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="T149" s="5" t="s">
         <v>160</v>
@@ -19892,7 +19888,7 @@
         <v>348</v>
       </c>
       <c r="R153" s="10" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="T153" s="5" t="s">
         <v>90</v>
@@ -19954,7 +19950,7 @@
         <v>348</v>
       </c>
       <c r="R154" s="10" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="T154" s="5" t="s">
         <v>90</v>
@@ -20016,7 +20012,7 @@
         <v>348</v>
       </c>
       <c r="R155" s="10" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="T155" s="5" t="s">
         <v>90</v>
@@ -20078,7 +20074,7 @@
         <v>348</v>
       </c>
       <c r="R156" s="10" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="T156" s="5" t="s">
         <v>90</v>
@@ -20140,7 +20136,7 @@
         <v>348</v>
       </c>
       <c r="R157" s="10" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="T157" s="5" t="s">
         <v>90</v>
@@ -20577,7 +20573,7 @@
         <v>220</v>
       </c>
       <c r="R164" s="10" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="W164" s="5" t="s">
         <v>541</v>
@@ -20825,7 +20821,7 @@
         <v>979</v>
       </c>
       <c r="R168" s="40" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W168" s="19" t="s">
         <v>541</v>
@@ -20890,7 +20886,7 @@
         <v>979</v>
       </c>
       <c r="R169" s="40" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W169" s="19" t="s">
         <v>617</v>
@@ -20952,7 +20948,7 @@
         <v>979</v>
       </c>
       <c r="R170" s="40" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="W170" s="19" t="s">
         <v>617</v>
@@ -20990,13 +20986,13 @@
         <v>1</v>
       </c>
       <c r="G171" s="44" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="I171" s="44" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="J171" s="44" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="L171" s="44">
         <v>-28</v>
@@ -21014,10 +21010,10 @@
         <v>100</v>
       </c>
       <c r="Q171" s="44" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="R171" s="48" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="W171" s="44" t="s">
         <v>1132</v>
@@ -21058,13 +21054,13 @@
         <v>1</v>
       </c>
       <c r="G172" s="44" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="I172" s="44" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="J172" s="44" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="L172" s="44">
         <v>-28</v>
@@ -21082,10 +21078,10 @@
         <v>300</v>
       </c>
       <c r="Q172" s="44" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="R172" s="48" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="W172" s="44" t="s">
         <v>544</v>
@@ -21126,13 +21122,13 @@
         <v>1</v>
       </c>
       <c r="G173" s="44" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="I173" s="44" t="s">
+        <v>1545</v>
+      </c>
+      <c r="J173" s="44" t="s">
         <v>1546</v>
-      </c>
-      <c r="J173" s="44" t="s">
-        <v>1547</v>
       </c>
       <c r="L173" s="44">
         <v>-28</v>
@@ -21150,10 +21146,10 @@
         <v>600</v>
       </c>
       <c r="Q173" s="44" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="R173" s="48" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="W173" s="44" t="s">
         <v>544</v>
@@ -21194,13 +21190,13 @@
         <v>1</v>
       </c>
       <c r="G174" s="44" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="I174" s="44" t="s">
+        <v>1547</v>
+      </c>
+      <c r="J174" s="44" t="s">
         <v>1548</v>
-      </c>
-      <c r="J174" s="44" t="s">
-        <v>1549</v>
       </c>
       <c r="L174" s="44">
         <v>-28</v>
@@ -21218,10 +21214,10 @@
         <v>600</v>
       </c>
       <c r="Q174" s="44" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="R174" s="48" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="W174" s="44" t="s">
         <v>544</v>
@@ -21262,13 +21258,13 @@
         <v>1</v>
       </c>
       <c r="G175" s="44" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="I175" s="44" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="J175" s="44" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="L175" s="44">
         <v>-28</v>
@@ -21286,10 +21282,10 @@
         <v>1000</v>
       </c>
       <c r="Q175" s="44" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="R175" s="48" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="W175" s="44" t="s">
         <v>544</v>
@@ -21330,13 +21326,13 @@
         <v>1</v>
       </c>
       <c r="G176" s="44" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="I176" s="44" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="J176" s="44" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="L176" s="44">
         <v>-28</v>
@@ -21354,10 +21350,10 @@
         <v>1800</v>
       </c>
       <c r="Q176" s="44" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="R176" s="48" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="W176" s="44" t="s">
         <v>544</v>
@@ -21398,13 +21394,13 @@
         <v>1</v>
       </c>
       <c r="G177" s="44" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="I177" s="44" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="J177" s="44" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="L177" s="44">
         <v>-28</v>
@@ -21422,10 +21418,10 @@
         <v>1800</v>
       </c>
       <c r="Q177" s="44" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="R177" s="48" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="W177" s="44" t="s">
         <v>544</v>
@@ -21466,13 +21462,13 @@
         <v>1</v>
       </c>
       <c r="G178" s="44" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="I178" s="44" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="J178" s="44" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="L178" s="44">
         <v>-28</v>
@@ -21490,10 +21486,10 @@
         <v>4800</v>
       </c>
       <c r="Q178" s="44" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="R178" s="48" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="W178" s="44" t="s">
         <v>544</v>
@@ -21534,13 +21530,13 @@
         <v>1</v>
       </c>
       <c r="G179" s="44" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="I179" s="44" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="J179" s="44" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="L179" s="44">
         <v>-28</v>
@@ -21558,10 +21554,10 @@
         <v>9800</v>
       </c>
       <c r="Q179" s="44" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="R179" s="48" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="W179" s="44" t="s">
         <v>544</v>
@@ -21602,13 +21598,13 @@
         <v>1</v>
       </c>
       <c r="G180" s="44" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="I180" s="44" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="J180" s="44" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="L180" s="44">
         <v>-28</v>
@@ -21626,10 +21622,10 @@
         <v>4800</v>
       </c>
       <c r="Q180" s="44" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="R180" s="48" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="W180" s="44" t="s">
         <v>544</v>
@@ -21670,13 +21666,13 @@
         <v>1</v>
       </c>
       <c r="G181" s="44" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="I181" s="44" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="J181" s="44" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="L181" s="44">
         <v>-28</v>
@@ -21694,10 +21690,10 @@
         <v>9800</v>
       </c>
       <c r="Q181" s="44" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="R181" s="48" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="W181" s="44" t="s">
         <v>544</v>
@@ -21738,13 +21734,13 @@
         <v>1</v>
       </c>
       <c r="G182" s="44" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="I182" s="44" t="s">
+        <v>1554</v>
+      </c>
+      <c r="J182" s="44" t="s">
         <v>1555</v>
-      </c>
-      <c r="J182" s="44" t="s">
-        <v>1556</v>
       </c>
       <c r="L182" s="44">
         <v>-28</v>
@@ -21762,10 +21758,10 @@
         <v>19800</v>
       </c>
       <c r="Q182" s="44" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="R182" s="48" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="W182" s="44" t="s">
         <v>544</v>
@@ -21806,13 +21802,13 @@
         <v>1</v>
       </c>
       <c r="G183" s="44" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="I183" s="44" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="J183" s="44" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="L183" s="44">
         <v>-28</v>
@@ -21830,10 +21826,10 @@
         <v>9800</v>
       </c>
       <c r="Q183" s="44" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="R183" s="48" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="W183" s="44" t="s">
         <v>544</v>
@@ -21874,13 +21870,13 @@
         <v>1</v>
       </c>
       <c r="G184" s="44" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="I184" s="44" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="J184" s="44" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="L184" s="44">
         <v>-28</v>
@@ -21898,10 +21894,10 @@
         <v>19800</v>
       </c>
       <c r="Q184" s="44" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="R184" s="48" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="W184" s="44" t="s">
         <v>544</v>
@@ -21942,13 +21938,13 @@
         <v>1</v>
       </c>
       <c r="G185" s="44" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="I185" s="44" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="J185" s="44" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="L185" s="44">
         <v>-28</v>
@@ -21966,10 +21962,10 @@
         <v>49800</v>
       </c>
       <c r="Q185" s="44" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="R185" s="48" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="W185" s="44" t="s">
         <v>544</v>
@@ -22034,7 +22030,7 @@
         <v>464</v>
       </c>
       <c r="R186" s="10" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="T186" s="5" t="s">
         <v>330</v>
@@ -25998,7 +25994,7 @@
         <v>160</v>
       </c>
       <c r="R247" s="10" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="W247" s="5" t="s">
         <v>544</v>
@@ -26065,7 +26061,7 @@
         <v>160</v>
       </c>
       <c r="R248" s="10" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="W248" s="5" t="s">
         <v>544</v>
@@ -26132,7 +26128,7 @@
         <v>160</v>
       </c>
       <c r="R249" s="10" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="W249" s="5" t="s">
         <v>544</v>
@@ -26199,7 +26195,7 @@
         <v>461</v>
       </c>
       <c r="R250" s="40" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="W250" s="19" t="s">
         <v>541</v>
@@ -26261,7 +26257,7 @@
         <v>991</v>
       </c>
       <c r="R251" s="10" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="T251" s="5" t="s">
         <v>330</v>
@@ -26329,7 +26325,7 @@
         <v>461</v>
       </c>
       <c r="R252" s="10" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="W252" s="5" t="s">
         <v>617</v>
@@ -26391,7 +26387,7 @@
         <v>1196</v>
       </c>
       <c r="R253" s="10" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="W253" s="5" t="s">
         <v>544</v>
@@ -26453,7 +26449,7 @@
         <v>503</v>
       </c>
       <c r="R254" s="10" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="W254" s="5" t="s">
         <v>544</v>
@@ -26518,7 +26514,7 @@
         <v>484</v>
       </c>
       <c r="R255" s="10" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="W255" s="5" t="s">
         <v>544</v>
@@ -26583,7 +26579,7 @@
         <v>514</v>
       </c>
       <c r="R256" s="10" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="W256" s="5" t="s">
         <v>544</v>
@@ -26648,7 +26644,7 @@
         <v>600</v>
       </c>
       <c r="R257" s="10" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="T257" s="5" t="s">
         <v>505</v>
@@ -26716,7 +26712,7 @@
         <v>514</v>
       </c>
       <c r="R258" s="10" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="W258" s="5" t="s">
         <v>544</v>
@@ -26781,7 +26777,7 @@
         <v>514</v>
       </c>
       <c r="R259" s="10" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="W259" s="5" t="s">
         <v>544</v>
@@ -26846,7 +26842,7 @@
         <v>514</v>
       </c>
       <c r="R260" s="10" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="W260" s="5" t="s">
         <v>544</v>
@@ -26911,7 +26907,7 @@
         <v>515</v>
       </c>
       <c r="R261" s="10" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="W261" s="5" t="s">
         <v>544</v>
@@ -26976,7 +26972,7 @@
         <v>514</v>
       </c>
       <c r="R262" s="10" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="W262" s="5" t="s">
         <v>544</v>
@@ -27041,7 +27037,7 @@
         <v>516</v>
       </c>
       <c r="R263" s="10" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="W263" s="5" t="s">
         <v>544</v>
@@ -27106,7 +27102,7 @@
         <v>517</v>
       </c>
       <c r="R264" s="10" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="W264" s="5" t="s">
         <v>544</v>
@@ -27171,7 +27167,7 @@
         <v>515</v>
       </c>
       <c r="R265" s="10" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="W265" s="5" t="s">
         <v>544</v>
@@ -27236,7 +27232,7 @@
         <v>521</v>
       </c>
       <c r="R266" s="10" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="W266" s="5" t="s">
         <v>544</v>
@@ -27301,7 +27297,7 @@
         <v>518</v>
       </c>
       <c r="R267" s="10" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="W267" s="5" t="s">
         <v>544</v>
@@ -27366,7 +27362,7 @@
         <v>517</v>
       </c>
       <c r="R268" s="10" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="W268" s="5" t="s">
         <v>544</v>
@@ -27431,7 +27427,7 @@
         <v>514</v>
       </c>
       <c r="R269" s="10" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="W269" s="5" t="s">
         <v>544</v>
@@ -27496,7 +27492,7 @@
         <v>519</v>
       </c>
       <c r="R270" s="10" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="W270" s="5" t="s">
         <v>544</v>
@@ -27561,7 +27557,7 @@
         <v>520</v>
       </c>
       <c r="R271" s="10" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="W271" s="5" t="s">
         <v>544</v>
@@ -27626,7 +27622,7 @@
         <v>514</v>
       </c>
       <c r="R272" s="10" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="W272" s="5" t="s">
         <v>544</v>
@@ -27673,7 +27669,7 @@
         <v>534</v>
       </c>
       <c r="H273" s="81" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="L273" s="85">
         <v>-10</v>
@@ -27694,7 +27690,7 @@
         <v>90</v>
       </c>
       <c r="R273" s="82" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="W273" s="85" t="s">
         <v>541</v>
@@ -27755,7 +27751,7 @@
         <v>540</v>
       </c>
       <c r="R274" s="10" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="S274" s="5"/>
       <c r="T274" s="5"/>
@@ -27827,7 +27823,7 @@
         <v>579</v>
       </c>
       <c r="R275" s="10" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="W275" s="5" t="s">
         <v>541</v>
@@ -27892,7 +27888,7 @@
         <v>558</v>
       </c>
       <c r="R276" s="10" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="W276" s="5" t="s">
         <v>544</v>
@@ -27957,7 +27953,7 @@
         <v>558</v>
       </c>
       <c r="R277" s="10" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="W277" s="5" t="s">
         <v>555</v>
@@ -28022,7 +28018,7 @@
         <v>558</v>
       </c>
       <c r="R278" s="10" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="W278" s="5" t="s">
         <v>556</v>
@@ -28087,7 +28083,7 @@
         <v>558</v>
       </c>
       <c r="R279" s="10" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="W279" s="5" t="s">
         <v>557</v>
@@ -28152,7 +28148,7 @@
         <v>558</v>
       </c>
       <c r="R280" s="10" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="W280" s="5" t="s">
         <v>541</v>
@@ -28217,7 +28213,7 @@
         <v>558</v>
       </c>
       <c r="R281" s="10" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="W281" s="5" t="s">
         <v>544</v>
@@ -28282,7 +28278,7 @@
         <v>558</v>
       </c>
       <c r="R282" s="10" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="W282" s="5" t="s">
         <v>555</v>
@@ -28347,7 +28343,7 @@
         <v>558</v>
       </c>
       <c r="R283" s="10" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="W283" s="5" t="s">
         <v>556</v>
@@ -28412,7 +28408,7 @@
         <v>558</v>
       </c>
       <c r="R284" s="10" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="W284" s="5" t="s">
         <v>557</v>
@@ -28477,7 +28473,7 @@
         <v>558</v>
       </c>
       <c r="R285" s="10" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="W285" s="5" t="s">
         <v>544</v>
@@ -28539,7 +28535,7 @@
         <v>558</v>
       </c>
       <c r="R286" s="10" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="W286" s="5" t="s">
         <v>544</v>
@@ -28601,7 +28597,7 @@
         <v>558</v>
       </c>
       <c r="R287" s="10" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="W287" s="5" t="s">
         <v>544</v>
@@ -28663,7 +28659,7 @@
         <v>558</v>
       </c>
       <c r="R288" s="10" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="W288" s="5" t="s">
         <v>544</v>
@@ -28725,7 +28721,7 @@
         <v>558</v>
       </c>
       <c r="R289" s="10" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="W289" s="5" t="s">
         <v>544</v>
@@ -28787,7 +28783,7 @@
         <v>558</v>
       </c>
       <c r="R290" s="10" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="W290" s="5" t="s">
         <v>544</v>
@@ -28849,7 +28845,7 @@
         <v>558</v>
       </c>
       <c r="R291" s="10" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="W291" s="5" t="s">
         <v>544</v>
@@ -28911,7 +28907,7 @@
         <v>558</v>
       </c>
       <c r="R292" s="10" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="W292" s="5" t="s">
         <v>544</v>
@@ -28973,7 +28969,7 @@
         <v>607</v>
       </c>
       <c r="R293" s="10" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="W293" s="5" t="s">
         <v>544</v>
@@ -29035,7 +29031,7 @@
         <v>599</v>
       </c>
       <c r="R294" s="10" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="W294" s="5" t="s">
         <v>544</v>
@@ -29097,7 +29093,7 @@
         <v>599</v>
       </c>
       <c r="R295" s="10" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="W295" s="5" t="s">
         <v>544</v>
@@ -29159,7 +29155,7 @@
         <v>599</v>
       </c>
       <c r="R296" s="10" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="W296" s="5" t="s">
         <v>544</v>
@@ -29221,7 +29217,7 @@
         <v>599</v>
       </c>
       <c r="R297" s="10" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="W297" s="5" t="s">
         <v>544</v>
@@ -29283,7 +29279,7 @@
         <v>598</v>
       </c>
       <c r="R298" s="10" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="W298" s="5" t="s">
         <v>544</v>
@@ -29345,7 +29341,7 @@
         <v>597</v>
       </c>
       <c r="R299" s="10" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="W299" s="5" t="s">
         <v>544</v>
@@ -29407,7 +29403,7 @@
         <v>597</v>
       </c>
       <c r="R300" s="10" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="W300" s="5" t="s">
         <v>544</v>
@@ -29469,7 +29465,7 @@
         <v>597</v>
       </c>
       <c r="R301" s="10" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="W301" s="5" t="s">
         <v>544</v>
@@ -29531,7 +29527,7 @@
         <v>597</v>
       </c>
       <c r="R302" s="10" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="W302" s="5" t="s">
         <v>544</v>
@@ -29593,7 +29589,7 @@
         <v>597</v>
       </c>
       <c r="R303" s="10" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="W303" s="5" t="s">
         <v>544</v>
@@ -29655,7 +29651,7 @@
         <v>597</v>
       </c>
       <c r="R304" s="10" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="W304" s="5" t="s">
         <v>544</v>
@@ -29717,7 +29713,7 @@
         <v>597</v>
       </c>
       <c r="R305" s="10" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="W305" s="5" t="s">
         <v>544</v>
@@ -29779,7 +29775,7 @@
         <v>597</v>
       </c>
       <c r="R306" s="10" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="W306" s="5" t="s">
         <v>544</v>
@@ -29841,7 +29837,7 @@
         <v>597</v>
       </c>
       <c r="R307" s="10" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="W307" s="5" t="s">
         <v>544</v>
@@ -29903,7 +29899,7 @@
         <v>603</v>
       </c>
       <c r="R308" s="10" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="W308" s="5" t="s">
         <v>544</v>
@@ -29965,7 +29961,7 @@
         <v>608</v>
       </c>
       <c r="R309" s="10" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="W309" s="5" t="s">
         <v>544</v>
@@ -30027,7 +30023,7 @@
         <v>609</v>
       </c>
       <c r="R310" s="10" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="W310" s="5" t="s">
         <v>544</v>
@@ -30089,7 +30085,7 @@
         <v>610</v>
       </c>
       <c r="R311" s="10" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="W311" s="5" t="s">
         <v>544</v>
@@ -30151,7 +30147,7 @@
         <v>610</v>
       </c>
       <c r="R312" s="10" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="W312" s="5" t="s">
         <v>614</v>
@@ -30213,7 +30209,7 @@
         <v>610</v>
       </c>
       <c r="R313" s="10" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="W313" s="5" t="s">
         <v>615</v>
@@ -30275,7 +30271,7 @@
         <v>609</v>
       </c>
       <c r="R314" s="10" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="W314" s="5" t="s">
         <v>616</v>
@@ -30337,7 +30333,7 @@
         <v>610</v>
       </c>
       <c r="R315" s="10" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="W315" s="5" t="s">
         <v>617</v>
@@ -30399,7 +30395,7 @@
         <v>611</v>
       </c>
       <c r="R316" s="10" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="W316" s="5" t="s">
         <v>617</v>
@@ -30461,7 +30457,7 @@
         <v>612</v>
       </c>
       <c r="R317" s="10" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="W317" s="5" t="s">
         <v>617</v>
@@ -30523,7 +30519,7 @@
         <v>613</v>
       </c>
       <c r="R318" s="10" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="W318" s="5" t="s">
         <v>617</v>
@@ -30585,7 +30581,7 @@
         <v>639</v>
       </c>
       <c r="R319" s="10" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="W319" s="5" t="s">
         <v>543</v>
@@ -30641,7 +30637,7 @@
         <v>640</v>
       </c>
       <c r="R320" s="10" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="W320" s="5" t="s">
         <v>543</v>
@@ -30697,7 +30693,7 @@
         <v>643</v>
       </c>
       <c r="R321" s="10" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="W321" s="5" t="s">
         <v>541</v>
@@ -30759,7 +30755,7 @@
         <v>646</v>
       </c>
       <c r="R322" s="10" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="W322" s="5" t="s">
         <v>541</v>
@@ -30797,10 +30793,10 @@
         <v>1</v>
       </c>
       <c r="G323" s="44" t="s">
+        <v>1558</v>
+      </c>
+      <c r="J323" s="44" t="s">
         <v>1559</v>
-      </c>
-      <c r="J323" s="44" t="s">
-        <v>1560</v>
       </c>
       <c r="L323" s="44">
         <v>-28</v>
@@ -30818,10 +30814,10 @@
         <v>600</v>
       </c>
       <c r="Q323" s="44" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="R323" s="48" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="W323" s="44" t="s">
         <v>1132</v>
@@ -30862,10 +30858,10 @@
         <v>1</v>
       </c>
       <c r="G324" s="44" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="J324" s="44" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="L324" s="44">
         <v>-28</v>
@@ -30883,10 +30879,10 @@
         <v>4800</v>
       </c>
       <c r="Q324" s="44" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="R324" s="48" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="W324" s="44" t="s">
         <v>544</v>
@@ -30927,10 +30923,10 @@
         <v>1</v>
       </c>
       <c r="G325" s="44" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="J325" s="44" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="L325" s="44">
         <v>-28</v>
@@ -30948,10 +30944,10 @@
         <v>9800</v>
       </c>
       <c r="Q325" s="44" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="R325" s="48" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="W325" s="44" t="s">
         <v>544</v>
@@ -31076,7 +31072,7 @@
         <v>959</v>
       </c>
       <c r="R327" s="48" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="W327" s="44" t="s">
         <v>960</v>
@@ -31227,7 +31223,7 @@
         <v>1464</v>
       </c>
       <c r="R329" s="48" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="S329" s="44"/>
       <c r="T329" s="44"/>
@@ -31310,7 +31306,7 @@
         <v>1461</v>
       </c>
       <c r="R330" s="48" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="S330" s="44"/>
       <c r="T330" s="44"/>
@@ -31393,7 +31389,7 @@
         <v>1464</v>
       </c>
       <c r="R331" s="48" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="S331" s="44"/>
       <c r="T331" s="44"/>
@@ -31476,7 +31472,7 @@
         <v>1464</v>
       </c>
       <c r="R332" s="48" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="S332" s="44"/>
       <c r="T332" s="44"/>
@@ -31559,7 +31555,7 @@
         <v>1464</v>
       </c>
       <c r="R333" s="48" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="S333" s="44"/>
       <c r="T333" s="44"/>
@@ -31642,7 +31638,7 @@
         <v>1474</v>
       </c>
       <c r="R334" s="48" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="S334" s="44"/>
       <c r="T334" s="44"/>
@@ -31725,7 +31721,7 @@
         <v>1474</v>
       </c>
       <c r="R335" s="48" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="S335" s="44"/>
       <c r="T335" s="44"/>
@@ -31808,7 +31804,7 @@
         <v>1474</v>
       </c>
       <c r="R336" s="48" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="S336" s="44"/>
       <c r="T336" s="44"/>
@@ -31891,7 +31887,7 @@
         <v>1479</v>
       </c>
       <c r="R337" s="48" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="S337" s="44"/>
       <c r="T337" s="44"/>
@@ -31968,7 +31964,7 @@
         <v>984</v>
       </c>
       <c r="R338" s="40" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="W338" s="19" t="s">
         <v>541</v>
@@ -32042,7 +32038,7 @@
         <v>984</v>
       </c>
       <c r="R339" s="40" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="S339" s="19"/>
       <c r="T339" s="19"/>
@@ -32127,7 +32123,7 @@
         <v>984</v>
       </c>
       <c r="R340" s="40" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="S340" s="19"/>
       <c r="T340" s="19"/>
@@ -32208,7 +32204,7 @@
         <v>947</v>
       </c>
       <c r="R341" s="10" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="W341" s="5" t="s">
         <v>1051</v>
@@ -32421,7 +32417,7 @@
         <v>947</v>
       </c>
       <c r="R344" s="10" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="W344" s="5" t="s">
         <v>1051</v>
@@ -32634,7 +32630,7 @@
         <v>947</v>
       </c>
       <c r="R347" s="10" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="W347" s="5" t="s">
         <v>1051</v>
@@ -32705,7 +32701,7 @@
         <v>947</v>
       </c>
       <c r="R348" s="10" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="W348" s="5" t="s">
         <v>1051</v>
@@ -32776,7 +32772,7 @@
         <v>947</v>
       </c>
       <c r="R349" s="10" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="W349" s="5" t="s">
         <v>1051</v>
@@ -32847,7 +32843,7 @@
         <v>947</v>
       </c>
       <c r="R350" s="10" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="W350" s="5" t="s">
         <v>1051</v>
@@ -32918,7 +32914,7 @@
         <v>947</v>
       </c>
       <c r="R351" s="10" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="W351" s="5" t="s">
         <v>1051</v>
@@ -32989,7 +32985,7 @@
         <v>947</v>
       </c>
       <c r="R352" s="10" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="W352" s="5" t="s">
         <v>1057</v>
@@ -33675,7 +33671,7 @@
         <v>1064</v>
       </c>
       <c r="R362" s="10" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="W362" s="5" t="s">
         <v>1077</v>
@@ -33894,7 +33890,7 @@
         <v>1104</v>
       </c>
       <c r="R365" s="10" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="W365" s="5" t="s">
         <v>588</v>
@@ -33959,7 +33955,7 @@
         <v>1104</v>
       </c>
       <c r="R366" s="10" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="W366" s="5" t="s">
         <v>588</v>
@@ -34024,7 +34020,7 @@
         <v>1104</v>
       </c>
       <c r="R367" s="10" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="W367" s="5" t="s">
         <v>588</v>
@@ -34089,7 +34085,7 @@
         <v>1104</v>
       </c>
       <c r="R368" s="10" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="W368" s="5" t="s">
         <v>588</v>
@@ -34154,7 +34150,7 @@
         <v>1123</v>
       </c>
       <c r="R369" s="10" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="W369" s="5" t="s">
         <v>588</v>
@@ -34219,7 +34215,7 @@
         <v>1115</v>
       </c>
       <c r="R370" s="10" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="W370" s="5" t="s">
         <v>588</v>
@@ -34281,7 +34277,7 @@
         <v>1115</v>
       </c>
       <c r="R371" s="10" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="W371" s="5" t="s">
         <v>555</v>
@@ -34343,7 +34339,7 @@
         <v>1115</v>
       </c>
       <c r="R372" s="10" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="W372" s="5" t="s">
         <v>1113</v>
@@ -34405,7 +34401,7 @@
         <v>1115</v>
       </c>
       <c r="R373" s="10" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="W373" s="5" t="s">
         <v>557</v>
@@ -34470,7 +34466,7 @@
         <v>1124</v>
       </c>
       <c r="R374" s="10" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="W374" s="5" t="s">
         <v>1119</v>
@@ -34538,7 +34534,7 @@
         <v>1124</v>
       </c>
       <c r="R375" s="10" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="W375" s="5" t="s">
         <v>588</v>
@@ -34606,7 +34602,7 @@
         <v>1145</v>
       </c>
       <c r="R376" s="10" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="W376" s="5" t="s">
         <v>1130</v>
@@ -34674,7 +34670,7 @@
         <v>1145</v>
       </c>
       <c r="R377" s="10" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="W377" s="5" t="s">
         <v>1132</v>
@@ -34742,7 +34738,7 @@
         <v>1145</v>
       </c>
       <c r="R378" s="10" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="W378" s="5" t="s">
         <v>1135</v>
@@ -34810,7 +34806,7 @@
         <v>1145</v>
       </c>
       <c r="R379" s="10" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="W379" s="5" t="s">
         <v>1113</v>
@@ -34878,7 +34874,7 @@
         <v>1145</v>
       </c>
       <c r="R380" s="10" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="W380" s="5" t="s">
         <v>1136</v>
@@ -34946,7 +34942,7 @@
         <v>1145</v>
       </c>
       <c r="R381" s="10" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="W381" s="5" t="s">
         <v>1130</v>
@@ -35014,7 +35010,7 @@
         <v>1145</v>
       </c>
       <c r="R382" s="10" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="W382" s="5" t="s">
         <v>1132</v>
@@ -35082,7 +35078,7 @@
         <v>1145</v>
       </c>
       <c r="R383" s="10" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="W383" s="5" t="s">
         <v>1174</v>
@@ -35150,7 +35146,7 @@
         <v>1145</v>
       </c>
       <c r="R384" s="10" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="W384" s="5" t="s">
         <v>1141</v>
@@ -35218,7 +35214,7 @@
         <v>1145</v>
       </c>
       <c r="R385" s="10" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="W385" s="5" t="s">
         <v>1136</v>
@@ -35287,7 +35283,7 @@
         <v>1163</v>
       </c>
       <c r="R386" s="61" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="W386" s="19" t="s">
         <v>1175</v>
@@ -35356,7 +35352,7 @@
         <v>1165</v>
       </c>
       <c r="R387" s="61" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="W387" s="19" t="s">
         <v>1175</v>
@@ -35494,7 +35490,7 @@
         <v>1167</v>
       </c>
       <c r="R389" s="94" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="W389" s="19" t="s">
         <v>1175</v>
@@ -35563,7 +35559,7 @@
         <v>1168</v>
       </c>
       <c r="R390" s="94" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="W390" s="19" t="s">
         <v>1175</v>
@@ -35632,7 +35628,7 @@
         <v>1169</v>
       </c>
       <c r="R391" s="94" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="W391" s="19" t="s">
         <v>1175</v>
@@ -35701,7 +35697,7 @@
         <v>1164</v>
       </c>
       <c r="R392" s="61" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="W392" s="19" t="s">
         <v>1175</v>
@@ -35839,7 +35835,7 @@
         <v>1171</v>
       </c>
       <c r="R394" s="61" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="W394" s="19" t="s">
         <v>1175</v>
@@ -35905,7 +35901,7 @@
         <v>1195</v>
       </c>
       <c r="R395" s="10" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="W395" s="52" t="s">
         <v>544</v>
@@ -35968,7 +35964,7 @@
         <v>1189</v>
       </c>
       <c r="R396" s="10" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="W396" s="52" t="s">
         <v>544</v>
@@ -36031,7 +36027,7 @@
         <v>1189</v>
       </c>
       <c r="R397" s="10" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="W397" s="52" t="s">
         <v>544</v>
@@ -36094,7 +36090,7 @@
         <v>1189</v>
       </c>
       <c r="R398" s="10" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="W398" s="52" t="s">
         <v>544</v>
@@ -36157,7 +36153,7 @@
         <v>1189</v>
       </c>
       <c r="R399" s="10" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="W399" s="52" t="s">
         <v>544</v>
@@ -36220,7 +36216,7 @@
         <v>1189</v>
       </c>
       <c r="R400" s="10" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="W400" s="52" t="s">
         <v>544</v>
@@ -36283,7 +36279,7 @@
         <v>1199</v>
       </c>
       <c r="R401" s="5" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="W401" s="53" t="s">
         <v>1200</v>
@@ -36349,7 +36345,7 @@
         <v>1199</v>
       </c>
       <c r="R402" s="5" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="W402" s="53" t="s">
         <v>1200</v>
@@ -36415,7 +36411,7 @@
         <v>1204</v>
       </c>
       <c r="R403" s="5" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="W403" s="53" t="s">
         <v>1200</v>
@@ -36481,7 +36477,7 @@
         <v>1206</v>
       </c>
       <c r="R404" s="5" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="W404" s="53" t="s">
         <v>1200</v>
@@ -36547,7 +36543,7 @@
         <v>1206</v>
       </c>
       <c r="R405" s="5" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="W405" s="53" t="s">
         <v>1200</v>
@@ -36613,7 +36609,7 @@
         <v>1209</v>
       </c>
       <c r="R406" s="5" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="W406" s="53" t="s">
         <v>1200</v>
@@ -36679,7 +36675,7 @@
         <v>1211</v>
       </c>
       <c r="R407" s="5" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="W407" s="53" t="s">
         <v>1200</v>
@@ -36745,7 +36741,7 @@
         <v>1244</v>
       </c>
       <c r="R408" s="10" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="W408" s="60" t="s">
         <v>1245</v>
@@ -36811,7 +36807,7 @@
         <v>1244</v>
       </c>
       <c r="R409" s="10" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="W409" s="60" t="s">
         <v>1246</v>
@@ -36877,7 +36873,7 @@
         <v>1244</v>
       </c>
       <c r="R410" s="10" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="W410" s="60" t="s">
         <v>1246</v>
@@ -36943,7 +36939,7 @@
         <v>1244</v>
       </c>
       <c r="R411" s="10" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="W411" s="60" t="s">
         <v>1247</v>
@@ -37009,7 +37005,7 @@
         <v>1244</v>
       </c>
       <c r="R412" s="10" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="W412" s="60" t="s">
         <v>1248</v>
@@ -37075,7 +37071,7 @@
         <v>1244</v>
       </c>
       <c r="R413" s="10" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="W413" s="60" t="s">
         <v>1246</v>
@@ -37122,7 +37118,7 @@
         <v>1250</v>
       </c>
       <c r="H414" s="5" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="L414" s="81">
         <v>-4</v>
@@ -37143,7 +37139,7 @@
         <v>90</v>
       </c>
       <c r="R414" s="86" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="W414" s="81" t="s">
         <v>541</v>
@@ -38142,13 +38138,13 @@
         <v>1</v>
       </c>
       <c r="G430" s="44" t="s">
+        <v>1565</v>
+      </c>
+      <c r="I430" s="44" t="s">
+        <v>1523</v>
+      </c>
+      <c r="J430" s="44" t="s">
         <v>1566</v>
-      </c>
-      <c r="I430" s="44" t="s">
-        <v>1524</v>
-      </c>
-      <c r="J430" s="44" t="s">
-        <v>1567</v>
       </c>
       <c r="L430" s="44">
         <v>-28</v>
@@ -38169,7 +38165,7 @@
         <v>1255</v>
       </c>
       <c r="R430" s="48" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="W430" s="44" t="s">
         <v>1132</v>
@@ -38210,13 +38206,13 @@
         <v>1</v>
       </c>
       <c r="G431" s="44" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="I431" s="44" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="J431" s="44" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="L431" s="44">
         <v>-28</v>
@@ -38237,7 +38233,7 @@
         <v>1255</v>
       </c>
       <c r="R431" s="48" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="W431" s="44" t="s">
         <v>544</v>
@@ -38278,13 +38274,13 @@
         <v>1</v>
       </c>
       <c r="G432" s="44" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="I432" s="44" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="J432" s="44" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="L432" s="44">
         <v>-28</v>
@@ -38305,7 +38301,7 @@
         <v>1255</v>
       </c>
       <c r="R432" s="48" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="W432" s="44" t="s">
         <v>544</v>
@@ -38346,13 +38342,13 @@
         <v>1</v>
       </c>
       <c r="G433" s="44" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="I433" s="44" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="J433" s="44" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="L433" s="44">
         <v>-28</v>
@@ -38370,10 +38366,10 @@
         <v>600</v>
       </c>
       <c r="Q433" s="44" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="R433" s="48" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="W433" s="44" t="s">
         <v>544</v>
@@ -41802,13 +41798,13 @@
         <v>1</v>
       </c>
       <c r="G486" s="19" t="s">
+        <v>1806</v>
+      </c>
+      <c r="I486" s="19" t="s">
         <v>1807</v>
       </c>
-      <c r="I486" s="19" t="s">
+      <c r="J486" s="19" t="s">
         <v>1808</v>
-      </c>
-      <c r="J486" s="19" t="s">
-        <v>1809</v>
       </c>
       <c r="L486" s="19">
         <v>-31</v>
@@ -41826,10 +41822,10 @@
         <v>1800</v>
       </c>
       <c r="Q486" s="19" t="s">
+        <v>1809</v>
+      </c>
+      <c r="R486" s="40" t="s">
         <v>1810</v>
-      </c>
-      <c r="R486" s="40" t="s">
-        <v>1811</v>
       </c>
       <c r="W486" s="19" t="s">
         <v>544</v>
@@ -41867,13 +41863,13 @@
         <v>1</v>
       </c>
       <c r="G487" s="19" t="s">
+        <v>1811</v>
+      </c>
+      <c r="I487" s="19" t="s">
+        <v>1807</v>
+      </c>
+      <c r="J487" s="19" t="s">
         <v>1812</v>
-      </c>
-      <c r="I487" s="19" t="s">
-        <v>1808</v>
-      </c>
-      <c r="J487" s="19" t="s">
-        <v>1813</v>
       </c>
       <c r="L487" s="19">
         <v>-31</v>
@@ -41891,10 +41887,10 @@
         <v>4800</v>
       </c>
       <c r="Q487" s="19" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="R487" s="40" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="W487" s="19" t="s">
         <v>544</v>
@@ -41932,13 +41928,13 @@
         <v>1</v>
       </c>
       <c r="G488" s="19" t="s">
+        <v>1814</v>
+      </c>
+      <c r="I488" s="19" t="s">
+        <v>1807</v>
+      </c>
+      <c r="J488" s="19" t="s">
         <v>1815</v>
-      </c>
-      <c r="I488" s="19" t="s">
-        <v>1808</v>
-      </c>
-      <c r="J488" s="19" t="s">
-        <v>1816</v>
       </c>
       <c r="L488" s="19">
         <v>-31</v>
@@ -41956,10 +41952,10 @@
         <v>9800</v>
       </c>
       <c r="Q488" s="19" t="s">
+        <v>1816</v>
+      </c>
+      <c r="R488" s="40" t="s">
         <v>1817</v>
-      </c>
-      <c r="R488" s="40" t="s">
-        <v>1818</v>
       </c>
       <c r="W488" s="19" t="s">
         <v>544</v>
@@ -41997,13 +41993,13 @@
         <v>1</v>
       </c>
       <c r="G489" s="19" t="s">
+        <v>1818</v>
+      </c>
+      <c r="I489" s="19" t="s">
+        <v>1807</v>
+      </c>
+      <c r="J489" s="19" t="s">
         <v>1819</v>
-      </c>
-      <c r="I489" s="19" t="s">
-        <v>1808</v>
-      </c>
-      <c r="J489" s="19" t="s">
-        <v>1820</v>
       </c>
       <c r="L489" s="19">
         <v>-31</v>
@@ -42021,10 +42017,10 @@
         <v>19800</v>
       </c>
       <c r="Q489" s="19" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="R489" s="40" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="W489" s="19" t="s">
         <v>544</v>
@@ -42065,10 +42061,10 @@
         <v>1202</v>
       </c>
       <c r="I490" s="19" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="J490" s="19" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="L490" s="19">
         <v>-31</v>
@@ -42086,10 +42082,10 @@
         <v>29800</v>
       </c>
       <c r="Q490" s="19" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="R490" s="40" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="W490" s="19" t="s">
         <v>544</v>
@@ -42127,13 +42123,13 @@
         <v>1</v>
       </c>
       <c r="G491" s="19" t="s">
+        <v>1823</v>
+      </c>
+      <c r="I491" s="19" t="s">
+        <v>1807</v>
+      </c>
+      <c r="J491" s="19" t="s">
         <v>1824</v>
-      </c>
-      <c r="I491" s="19" t="s">
-        <v>1808</v>
-      </c>
-      <c r="J491" s="19" t="s">
-        <v>1825</v>
       </c>
       <c r="L491" s="19">
         <v>-31</v>
@@ -42151,7 +42147,7 @@
         <v>49800</v>
       </c>
       <c r="Q491" s="19" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="R491" s="40" t="s">
         <v>1221</v>
@@ -42192,13 +42188,13 @@
         <v>1</v>
       </c>
       <c r="G492" s="19" t="s">
+        <v>1826</v>
+      </c>
+      <c r="I492" s="19" t="s">
+        <v>1807</v>
+      </c>
+      <c r="J492" s="19" t="s">
         <v>1827</v>
-      </c>
-      <c r="I492" s="19" t="s">
-        <v>1808</v>
-      </c>
-      <c r="J492" s="19" t="s">
-        <v>1828</v>
       </c>
       <c r="L492" s="19">
         <v>-31</v>
@@ -42210,19 +42206,19 @@
         <v>0</v>
       </c>
       <c r="O492" s="19" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="P492" s="19">
         <v>99800</v>
       </c>
       <c r="Q492" s="19" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="R492" s="40" t="s">
         <v>1222</v>
       </c>
       <c r="W492" s="19" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="X492" s="19">
         <v>9999999</v>
@@ -43306,7 +43302,7 @@
         <v>31</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>32</v>
@@ -43392,10 +43388,10 @@
         <v>3</v>
       </c>
       <c r="Q2" s="34" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="R2" s="34" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="T2" s="34" t="s">
         <v>912</v>
@@ -43463,10 +43459,10 @@
         <v>4</v>
       </c>
       <c r="Q3" s="34" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="R3" s="34" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="T3" s="34" t="s">
         <v>912</v>
@@ -43534,10 +43530,10 @@
         <v>5</v>
       </c>
       <c r="Q4" s="34" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="R4" s="34" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="T4" s="34" t="s">
         <v>913</v>
@@ -43605,10 +43601,10 @@
         <v>6</v>
       </c>
       <c r="Q5" s="34" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="R5" s="34" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="T5" s="34" t="s">
         <v>913</v>
@@ -43676,10 +43672,10 @@
         <v>7</v>
       </c>
       <c r="Q6" s="34" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="R6" s="34" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="T6" s="34" t="s">
         <v>913</v>
@@ -43747,10 +43743,10 @@
         <v>9</v>
       </c>
       <c r="Q7" s="34" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="R7" s="34" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="T7" s="34" t="s">
         <v>913</v>
@@ -43813,10 +43809,10 @@
         <v>0</v>
       </c>
       <c r="Q8" s="34" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="R8" s="34" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="T8" s="34" t="s">
         <v>914</v>
@@ -43879,10 +43875,10 @@
         <v>2</v>
       </c>
       <c r="Q9" s="34" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="R9" s="34" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="U9" s="11">
         <v>5000</v>
@@ -43945,10 +43941,10 @@
         <v>1</v>
       </c>
       <c r="Q10" s="34" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="R10" s="34" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="U10" s="11">
         <v>1000</v>
@@ -44011,10 +44007,10 @@
         <v>0</v>
       </c>
       <c r="Q11" s="34" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="R11" s="34" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="T11" s="34" t="s">
         <v>915</v>
@@ -44082,10 +44078,10 @@
         <v>9</v>
       </c>
       <c r="Q12" s="34" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="R12" s="34" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="T12" s="34" t="s">
         <v>913</v>
@@ -44153,10 +44149,10 @@
         <v>10</v>
       </c>
       <c r="Q13" s="34" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="R13" s="34" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="T13" s="34" t="s">
         <v>915</v>
@@ -44224,10 +44220,10 @@
         <v>11</v>
       </c>
       <c r="Q14" s="34" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="R14" s="34" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="T14" s="34" t="s">
         <v>916</v>
@@ -44293,10 +44289,10 @@
         <v>0</v>
       </c>
       <c r="Q15" s="34" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="R15" s="34" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="T15" s="34"/>
       <c r="U15" s="11">
@@ -44365,10 +44361,10 @@
         <v>3</v>
       </c>
       <c r="Q16" s="34" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="R16" s="34" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="T16" s="34" t="s">
         <v>917</v>
@@ -44431,10 +44427,10 @@
         <v>4</v>
       </c>
       <c r="Q17" s="34" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="R17" s="34" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="T17" s="34" t="s">
         <v>918</v>
@@ -44497,10 +44493,10 @@
         <v>5</v>
       </c>
       <c r="Q18" s="34" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="R18" s="34" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="T18" s="34" t="s">
         <v>915</v>
@@ -44563,10 +44559,10 @@
         <v>6</v>
       </c>
       <c r="Q19" s="34" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="R19" s="34" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="T19" s="34" t="s">
         <v>919</v>
@@ -44629,10 +44625,10 @@
         <v>7</v>
       </c>
       <c r="Q20" s="34" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="R20" s="34" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="T20" s="34" t="s">
         <v>913</v>
@@ -44695,10 +44691,10 @@
         <v>0</v>
       </c>
       <c r="Q21" s="36" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="R21" s="36" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="T21" s="36" t="s">
         <v>912</v>
@@ -44761,10 +44757,10 @@
         <v>2</v>
       </c>
       <c r="Q22" s="34" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="R22" s="34" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="T22" s="34"/>
       <c r="U22" s="11">
@@ -44825,10 +44821,10 @@
         <v>1</v>
       </c>
       <c r="Q23" s="34" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="R23" s="34" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="T23" s="34"/>
       <c r="U23" s="11">
@@ -44892,10 +44888,10 @@
         <v>0</v>
       </c>
       <c r="Q24" s="34" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="R24" s="34" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="T24" s="34"/>
       <c r="U24" s="11">
@@ -44964,10 +44960,10 @@
         <v>8</v>
       </c>
       <c r="Q25" s="34" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="R25" s="34" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="T25" s="34" t="s">
         <v>920</v>

--- a/config_debug/shoping_config_cjj.xlsx
+++ b/config_debug/shoping_config_cjj.xlsx
@@ -6885,10 +6885,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>首充加赠2460万</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>首充加赠5290万</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7894,6 +7890,10 @@
   </si>
   <si>
     <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>首充加赠2640万</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -7901,7 +7901,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7959,6 +7962,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -8122,14 +8133,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8415,11 +8429,15 @@
     <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 4" xfId="2"/>
+    <cellStyle name="货币" xfId="3" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -10824,10 +10842,10 @@
   <dimension ref="A1:AN492"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="O60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q77" sqref="Q77"/>
+      <selection pane="bottomRight" activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -14708,7 +14726,7 @@
         <v>90</v>
       </c>
       <c r="R67" s="86" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="W67" s="81" t="s">
         <v>541</v>
@@ -14767,7 +14785,7 @@
         <v>90</v>
       </c>
       <c r="R68" s="86" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="W68" s="81" t="s">
         <v>541</v>
@@ -14885,7 +14903,7 @@
         <v>90</v>
       </c>
       <c r="R70" s="86" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="W70" s="81" t="s">
         <v>541</v>
@@ -14923,7 +14941,7 @@
         <v>242</v>
       </c>
       <c r="H71" s="85" t="s">
-        <v>1577</v>
+        <v>1829</v>
       </c>
       <c r="L71" s="81">
         <v>-4</v>
@@ -14944,7 +14962,7 @@
         <v>90</v>
       </c>
       <c r="R71" s="86" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="W71" s="81" t="s">
         <v>541</v>
@@ -15295,11 +15313,11 @@
       <c r="P77" s="19">
         <v>100</v>
       </c>
-      <c r="Q77" s="19" t="s">
+      <c r="Q77" s="95" t="s">
         <v>505</v>
       </c>
       <c r="R77" s="40" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="W77" s="19" t="s">
         <v>541</v>
@@ -15364,7 +15382,7 @@
         <v>1514</v>
       </c>
       <c r="R78" s="40" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="W78" s="19" t="s">
         <v>541</v>
@@ -15429,7 +15447,7 @@
         <v>250</v>
       </c>
       <c r="R79" s="10" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="W79" s="5" t="s">
         <v>541</v>
@@ -15494,7 +15512,7 @@
         <v>250</v>
       </c>
       <c r="R80" s="10" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="W80" s="5" t="s">
         <v>541</v>
@@ -15562,7 +15580,7 @@
         <v>1514</v>
       </c>
       <c r="R81" s="40" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="W81" s="19" t="s">
         <v>541</v>
@@ -15627,7 +15645,7 @@
         <v>254</v>
       </c>
       <c r="R82" s="10" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="W82" s="5" t="s">
         <v>541</v>
@@ -15683,7 +15701,7 @@
         <v>1000</v>
       </c>
       <c r="R83" s="10" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="W83" s="5" t="s">
         <v>542</v>
@@ -15739,7 +15757,7 @@
         <v>934</v>
       </c>
       <c r="R84" s="10" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="W84" s="5" t="s">
         <v>542</v>
@@ -15795,7 +15813,7 @@
         <v>1001</v>
       </c>
       <c r="R85" s="10" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="W85" s="5" t="s">
         <v>543</v>
@@ -15902,7 +15920,7 @@
         <v>1001</v>
       </c>
       <c r="R87" s="10" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="W87" s="5" t="s">
         <v>543</v>
@@ -15958,7 +15976,7 @@
         <v>258</v>
       </c>
       <c r="R88" s="10" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="W88" s="5" t="s">
         <v>542</v>
@@ -16014,7 +16032,7 @@
         <v>129</v>
       </c>
       <c r="R89" s="10" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="W89" s="5" t="s">
         <v>542</v>
@@ -16070,7 +16088,7 @@
         <v>222</v>
       </c>
       <c r="R90" s="10" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="W90" s="5" t="s">
         <v>542</v>
@@ -16182,7 +16200,7 @@
         <v>934</v>
       </c>
       <c r="R92" s="10" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="W92" s="5" t="s">
         <v>542</v>
@@ -16238,7 +16256,7 @@
         <v>265</v>
       </c>
       <c r="R93" s="10" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="W93" s="5" t="s">
         <v>542</v>
@@ -16291,7 +16309,7 @@
         <v>90</v>
       </c>
       <c r="R94" s="86" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="W94" s="85" t="s">
         <v>541</v>
@@ -16347,7 +16365,7 @@
         <v>218</v>
       </c>
       <c r="R95" s="10" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="S95" s="7"/>
       <c r="U95" s="7"/>
@@ -16711,7 +16729,7 @@
         <v>583</v>
       </c>
       <c r="R101" s="40" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="W101" s="19" t="s">
         <v>542</v>
@@ -16774,7 +16792,7 @@
         <v>583</v>
       </c>
       <c r="R102" s="40" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="W102" s="19" t="s">
         <v>542</v>
@@ -16837,7 +16855,7 @@
         <v>583</v>
       </c>
       <c r="R103" s="40" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="W103" s="19" t="s">
         <v>542</v>
@@ -16900,7 +16918,7 @@
         <v>583</v>
       </c>
       <c r="R104" s="40" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="W104" s="19" t="s">
         <v>542</v>
@@ -16963,7 +16981,7 @@
         <v>582</v>
       </c>
       <c r="R105" s="40" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="W105" s="19" t="s">
         <v>542</v>
@@ -17026,7 +17044,7 @@
         <v>583</v>
       </c>
       <c r="R106" s="40" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="W106" s="19" t="s">
         <v>542</v>
@@ -17089,7 +17107,7 @@
         <v>582</v>
       </c>
       <c r="R107" s="40" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="W107" s="19" t="s">
         <v>542</v>
@@ -17152,7 +17170,7 @@
         <v>583</v>
       </c>
       <c r="R108" s="40" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="W108" s="19" t="s">
         <v>542</v>
@@ -18307,7 +18325,7 @@
         <v>332</v>
       </c>
       <c r="H128" s="85" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="L128" s="85">
         <v>-10</v>
@@ -18328,7 +18346,7 @@
         <v>90</v>
       </c>
       <c r="R128" s="86" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="W128" s="85" t="s">
         <v>541</v>
@@ -18366,7 +18384,7 @@
         <v>531</v>
       </c>
       <c r="H129" s="85" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="L129" s="85">
         <v>-11</v>
@@ -18387,7 +18405,7 @@
         <v>90</v>
       </c>
       <c r="R129" s="86" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="W129" s="85" t="s">
         <v>541</v>
@@ -18629,7 +18647,7 @@
         <v>295</v>
       </c>
       <c r="R133" s="10" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="W133" s="5" t="s">
         <v>544</v>
@@ -18691,7 +18709,7 @@
         <v>308</v>
       </c>
       <c r="R134" s="10" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="W134" s="5" t="s">
         <v>544</v>
@@ -18753,7 +18771,7 @@
         <v>311</v>
       </c>
       <c r="R135" s="10" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="W135" s="5" t="s">
         <v>544</v>
@@ -18817,7 +18835,7 @@
         <v>160</v>
       </c>
       <c r="R136" s="10" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="W136" s="5" t="s">
         <v>544</v>
@@ -18878,7 +18896,7 @@
         <v>160</v>
       </c>
       <c r="R137" s="10" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="W137" s="5" t="s">
         <v>544</v>
@@ -18939,7 +18957,7 @@
         <v>160</v>
       </c>
       <c r="R138" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="W138" s="5" t="s">
         <v>544</v>
@@ -19000,7 +19018,7 @@
         <v>160</v>
       </c>
       <c r="R139" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="W139" s="5" t="s">
         <v>544</v>
@@ -19061,7 +19079,7 @@
         <v>160</v>
       </c>
       <c r="R140" s="10" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="W140" s="5" t="s">
         <v>544</v>
@@ -19122,7 +19140,7 @@
         <v>160</v>
       </c>
       <c r="R141" s="10" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="W141" s="5" t="s">
         <v>544</v>
@@ -19372,7 +19390,7 @@
         <v>348</v>
       </c>
       <c r="R145" s="10" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="T145" s="5" t="s">
         <v>90</v>
@@ -19439,7 +19457,7 @@
         <v>278</v>
       </c>
       <c r="R146" s="10" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="T146" s="5" t="s">
         <v>160</v>
@@ -19506,7 +19524,7 @@
         <v>278</v>
       </c>
       <c r="R147" s="10" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="T147" s="5" t="s">
         <v>160</v>
@@ -19573,7 +19591,7 @@
         <v>278</v>
       </c>
       <c r="R148" s="10" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="T148" s="5" t="s">
         <v>160</v>
@@ -19640,7 +19658,7 @@
         <v>278</v>
       </c>
       <c r="R149" s="10" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="T149" s="5" t="s">
         <v>160</v>
@@ -19888,7 +19906,7 @@
         <v>348</v>
       </c>
       <c r="R153" s="10" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="T153" s="5" t="s">
         <v>90</v>
@@ -19950,7 +19968,7 @@
         <v>348</v>
       </c>
       <c r="R154" s="10" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="T154" s="5" t="s">
         <v>90</v>
@@ -20012,7 +20030,7 @@
         <v>348</v>
       </c>
       <c r="R155" s="10" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="T155" s="5" t="s">
         <v>90</v>
@@ -20074,7 +20092,7 @@
         <v>348</v>
       </c>
       <c r="R156" s="10" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="T156" s="5" t="s">
         <v>90</v>
@@ -20136,7 +20154,7 @@
         <v>348</v>
       </c>
       <c r="R157" s="10" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="T157" s="5" t="s">
         <v>90</v>
@@ -20573,7 +20591,7 @@
         <v>220</v>
       </c>
       <c r="R164" s="10" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="W164" s="5" t="s">
         <v>541</v>
@@ -20821,7 +20839,7 @@
         <v>979</v>
       </c>
       <c r="R168" s="40" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="W168" s="19" t="s">
         <v>541</v>
@@ -20886,7 +20904,7 @@
         <v>979</v>
       </c>
       <c r="R169" s="40" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W169" s="19" t="s">
         <v>617</v>
@@ -20948,7 +20966,7 @@
         <v>979</v>
       </c>
       <c r="R170" s="40" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W170" s="19" t="s">
         <v>617</v>
@@ -21081,7 +21099,7 @@
         <v>1532</v>
       </c>
       <c r="R172" s="48" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="W172" s="44" t="s">
         <v>544</v>
@@ -21149,7 +21167,7 @@
         <v>1532</v>
       </c>
       <c r="R173" s="48" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="W173" s="44" t="s">
         <v>544</v>
@@ -21217,7 +21235,7 @@
         <v>1532</v>
       </c>
       <c r="R174" s="48" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="W174" s="44" t="s">
         <v>544</v>
@@ -21285,7 +21303,7 @@
         <v>1539</v>
       </c>
       <c r="R175" s="48" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="W175" s="44" t="s">
         <v>544</v>
@@ -21353,7 +21371,7 @@
         <v>1539</v>
       </c>
       <c r="R176" s="48" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="W176" s="44" t="s">
         <v>544</v>
@@ -21421,7 +21439,7 @@
         <v>1539</v>
       </c>
       <c r="R177" s="48" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="W177" s="44" t="s">
         <v>544</v>
@@ -21489,7 +21507,7 @@
         <v>1539</v>
       </c>
       <c r="R178" s="48" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="W178" s="44" t="s">
         <v>544</v>
@@ -21557,7 +21575,7 @@
         <v>1539</v>
       </c>
       <c r="R179" s="48" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="W179" s="44" t="s">
         <v>544</v>
@@ -21625,7 +21643,7 @@
         <v>1539</v>
       </c>
       <c r="R180" s="48" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="W180" s="44" t="s">
         <v>544</v>
@@ -21693,7 +21711,7 @@
         <v>1539</v>
       </c>
       <c r="R181" s="48" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="W181" s="44" t="s">
         <v>544</v>
@@ -21761,7 +21779,7 @@
         <v>1539</v>
       </c>
       <c r="R182" s="48" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="W182" s="44" t="s">
         <v>544</v>
@@ -21829,7 +21847,7 @@
         <v>1539</v>
       </c>
       <c r="R183" s="48" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="W183" s="44" t="s">
         <v>544</v>
@@ -21897,7 +21915,7 @@
         <v>1539</v>
       </c>
       <c r="R184" s="48" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="W184" s="44" t="s">
         <v>544</v>
@@ -21965,7 +21983,7 @@
         <v>1539</v>
       </c>
       <c r="R185" s="48" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="W185" s="44" t="s">
         <v>544</v>
@@ -22030,7 +22048,7 @@
         <v>464</v>
       </c>
       <c r="R186" s="10" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="T186" s="5" t="s">
         <v>330</v>
@@ -25994,7 +26012,7 @@
         <v>160</v>
       </c>
       <c r="R247" s="10" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="W247" s="5" t="s">
         <v>544</v>
@@ -26061,7 +26079,7 @@
         <v>160</v>
       </c>
       <c r="R248" s="10" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="W248" s="5" t="s">
         <v>544</v>
@@ -26128,7 +26146,7 @@
         <v>160</v>
       </c>
       <c r="R249" s="10" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="W249" s="5" t="s">
         <v>544</v>
@@ -26195,7 +26213,7 @@
         <v>461</v>
       </c>
       <c r="R250" s="40" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="W250" s="19" t="s">
         <v>541</v>
@@ -26257,7 +26275,7 @@
         <v>991</v>
       </c>
       <c r="R251" s="10" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="T251" s="5" t="s">
         <v>330</v>
@@ -26325,7 +26343,7 @@
         <v>461</v>
       </c>
       <c r="R252" s="10" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="W252" s="5" t="s">
         <v>617</v>
@@ -26387,7 +26405,7 @@
         <v>1196</v>
       </c>
       <c r="R253" s="10" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="W253" s="5" t="s">
         <v>544</v>
@@ -26449,7 +26467,7 @@
         <v>503</v>
       </c>
       <c r="R254" s="10" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="W254" s="5" t="s">
         <v>544</v>
@@ -26514,7 +26532,7 @@
         <v>484</v>
       </c>
       <c r="R255" s="10" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="W255" s="5" t="s">
         <v>544</v>
@@ -26579,7 +26597,7 @@
         <v>514</v>
       </c>
       <c r="R256" s="10" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="W256" s="5" t="s">
         <v>544</v>
@@ -26644,7 +26662,7 @@
         <v>600</v>
       </c>
       <c r="R257" s="10" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="T257" s="5" t="s">
         <v>505</v>
@@ -26712,7 +26730,7 @@
         <v>514</v>
       </c>
       <c r="R258" s="10" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="W258" s="5" t="s">
         <v>544</v>
@@ -26777,7 +26795,7 @@
         <v>514</v>
       </c>
       <c r="R259" s="10" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="W259" s="5" t="s">
         <v>544</v>
@@ -26842,7 +26860,7 @@
         <v>514</v>
       </c>
       <c r="R260" s="10" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="W260" s="5" t="s">
         <v>544</v>
@@ -26907,7 +26925,7 @@
         <v>515</v>
       </c>
       <c r="R261" s="10" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="W261" s="5" t="s">
         <v>544</v>
@@ -26972,7 +26990,7 @@
         <v>514</v>
       </c>
       <c r="R262" s="10" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="W262" s="5" t="s">
         <v>544</v>
@@ -27037,7 +27055,7 @@
         <v>516</v>
       </c>
       <c r="R263" s="10" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="W263" s="5" t="s">
         <v>544</v>
@@ -27102,7 +27120,7 @@
         <v>517</v>
       </c>
       <c r="R264" s="10" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="W264" s="5" t="s">
         <v>544</v>
@@ -27167,7 +27185,7 @@
         <v>515</v>
       </c>
       <c r="R265" s="10" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="W265" s="5" t="s">
         <v>544</v>
@@ -27232,7 +27250,7 @@
         <v>521</v>
       </c>
       <c r="R266" s="10" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="W266" s="5" t="s">
         <v>544</v>
@@ -27297,7 +27315,7 @@
         <v>518</v>
       </c>
       <c r="R267" s="10" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="W267" s="5" t="s">
         <v>544</v>
@@ -27362,7 +27380,7 @@
         <v>517</v>
       </c>
       <c r="R268" s="10" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="W268" s="5" t="s">
         <v>544</v>
@@ -27427,7 +27445,7 @@
         <v>514</v>
       </c>
       <c r="R269" s="10" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="W269" s="5" t="s">
         <v>544</v>
@@ -27492,7 +27510,7 @@
         <v>519</v>
       </c>
       <c r="R270" s="10" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="W270" s="5" t="s">
         <v>544</v>
@@ -27557,7 +27575,7 @@
         <v>520</v>
       </c>
       <c r="R271" s="10" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="W271" s="5" t="s">
         <v>544</v>
@@ -27622,7 +27640,7 @@
         <v>514</v>
       </c>
       <c r="R272" s="10" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="W272" s="5" t="s">
         <v>544</v>
@@ -27669,7 +27687,7 @@
         <v>534</v>
       </c>
       <c r="H273" s="81" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="L273" s="85">
         <v>-10</v>
@@ -27690,7 +27708,7 @@
         <v>90</v>
       </c>
       <c r="R273" s="82" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="W273" s="85" t="s">
         <v>541</v>
@@ -27751,7 +27769,7 @@
         <v>540</v>
       </c>
       <c r="R274" s="10" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="S274" s="5"/>
       <c r="T274" s="5"/>
@@ -27823,7 +27841,7 @@
         <v>579</v>
       </c>
       <c r="R275" s="10" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="W275" s="5" t="s">
         <v>541</v>
@@ -27888,7 +27906,7 @@
         <v>558</v>
       </c>
       <c r="R276" s="10" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="W276" s="5" t="s">
         <v>544</v>
@@ -27953,7 +27971,7 @@
         <v>558</v>
       </c>
       <c r="R277" s="10" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="W277" s="5" t="s">
         <v>555</v>
@@ -28018,7 +28036,7 @@
         <v>558</v>
       </c>
       <c r="R278" s="10" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="W278" s="5" t="s">
         <v>556</v>
@@ -28083,7 +28101,7 @@
         <v>558</v>
       </c>
       <c r="R279" s="10" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="W279" s="5" t="s">
         <v>557</v>
@@ -28148,7 +28166,7 @@
         <v>558</v>
       </c>
       <c r="R280" s="10" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="W280" s="5" t="s">
         <v>541</v>
@@ -28213,7 +28231,7 @@
         <v>558</v>
       </c>
       <c r="R281" s="10" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="W281" s="5" t="s">
         <v>544</v>
@@ -28278,7 +28296,7 @@
         <v>558</v>
       </c>
       <c r="R282" s="10" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="W282" s="5" t="s">
         <v>555</v>
@@ -28343,7 +28361,7 @@
         <v>558</v>
       </c>
       <c r="R283" s="10" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="W283" s="5" t="s">
         <v>556</v>
@@ -28408,7 +28426,7 @@
         <v>558</v>
       </c>
       <c r="R284" s="10" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="W284" s="5" t="s">
         <v>557</v>
@@ -28473,7 +28491,7 @@
         <v>558</v>
       </c>
       <c r="R285" s="10" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="W285" s="5" t="s">
         <v>544</v>
@@ -28535,7 +28553,7 @@
         <v>558</v>
       </c>
       <c r="R286" s="10" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="W286" s="5" t="s">
         <v>544</v>
@@ -28597,7 +28615,7 @@
         <v>558</v>
       </c>
       <c r="R287" s="10" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="W287" s="5" t="s">
         <v>544</v>
@@ -28659,7 +28677,7 @@
         <v>558</v>
       </c>
       <c r="R288" s="10" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="W288" s="5" t="s">
         <v>544</v>
@@ -28721,7 +28739,7 @@
         <v>558</v>
       </c>
       <c r="R289" s="10" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="W289" s="5" t="s">
         <v>544</v>
@@ -28783,7 +28801,7 @@
         <v>558</v>
       </c>
       <c r="R290" s="10" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="W290" s="5" t="s">
         <v>544</v>
@@ -28845,7 +28863,7 @@
         <v>558</v>
       </c>
       <c r="R291" s="10" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="W291" s="5" t="s">
         <v>544</v>
@@ -28907,7 +28925,7 @@
         <v>558</v>
       </c>
       <c r="R292" s="10" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="W292" s="5" t="s">
         <v>544</v>
@@ -28969,7 +28987,7 @@
         <v>607</v>
       </c>
       <c r="R293" s="10" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="W293" s="5" t="s">
         <v>544</v>
@@ -29031,7 +29049,7 @@
         <v>599</v>
       </c>
       <c r="R294" s="10" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="W294" s="5" t="s">
         <v>544</v>
@@ -29093,7 +29111,7 @@
         <v>599</v>
       </c>
       <c r="R295" s="10" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="W295" s="5" t="s">
         <v>544</v>
@@ -29155,7 +29173,7 @@
         <v>599</v>
       </c>
       <c r="R296" s="10" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="W296" s="5" t="s">
         <v>544</v>
@@ -29217,7 +29235,7 @@
         <v>599</v>
       </c>
       <c r="R297" s="10" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="W297" s="5" t="s">
         <v>544</v>
@@ -29279,7 +29297,7 @@
         <v>598</v>
       </c>
       <c r="R298" s="10" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="W298" s="5" t="s">
         <v>544</v>
@@ -29341,7 +29359,7 @@
         <v>597</v>
       </c>
       <c r="R299" s="10" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="W299" s="5" t="s">
         <v>544</v>
@@ -29403,7 +29421,7 @@
         <v>597</v>
       </c>
       <c r="R300" s="10" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="W300" s="5" t="s">
         <v>544</v>
@@ -29465,7 +29483,7 @@
         <v>597</v>
       </c>
       <c r="R301" s="10" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="W301" s="5" t="s">
         <v>544</v>
@@ -29527,7 +29545,7 @@
         <v>597</v>
       </c>
       <c r="R302" s="10" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="W302" s="5" t="s">
         <v>544</v>
@@ -29589,7 +29607,7 @@
         <v>597</v>
       </c>
       <c r="R303" s="10" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="W303" s="5" t="s">
         <v>544</v>
@@ -29651,7 +29669,7 @@
         <v>597</v>
       </c>
       <c r="R304" s="10" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="W304" s="5" t="s">
         <v>544</v>
@@ -29713,7 +29731,7 @@
         <v>597</v>
       </c>
       <c r="R305" s="10" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="W305" s="5" t="s">
         <v>544</v>
@@ -29775,7 +29793,7 @@
         <v>597</v>
       </c>
       <c r="R306" s="10" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="W306" s="5" t="s">
         <v>544</v>
@@ -29837,7 +29855,7 @@
         <v>597</v>
       </c>
       <c r="R307" s="10" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="W307" s="5" t="s">
         <v>544</v>
@@ -29899,7 +29917,7 @@
         <v>603</v>
       </c>
       <c r="R308" s="10" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="W308" s="5" t="s">
         <v>544</v>
@@ -29961,7 +29979,7 @@
         <v>608</v>
       </c>
       <c r="R309" s="10" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="W309" s="5" t="s">
         <v>544</v>
@@ -30023,7 +30041,7 @@
         <v>609</v>
       </c>
       <c r="R310" s="10" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="W310" s="5" t="s">
         <v>544</v>
@@ -30085,7 +30103,7 @@
         <v>610</v>
       </c>
       <c r="R311" s="10" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="W311" s="5" t="s">
         <v>544</v>
@@ -30147,7 +30165,7 @@
         <v>610</v>
       </c>
       <c r="R312" s="10" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="W312" s="5" t="s">
         <v>614</v>
@@ -30209,7 +30227,7 @@
         <v>610</v>
       </c>
       <c r="R313" s="10" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="W313" s="5" t="s">
         <v>615</v>
@@ -30271,7 +30289,7 @@
         <v>609</v>
       </c>
       <c r="R314" s="10" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="W314" s="5" t="s">
         <v>616</v>
@@ -30333,7 +30351,7 @@
         <v>610</v>
       </c>
       <c r="R315" s="10" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="W315" s="5" t="s">
         <v>617</v>
@@ -30395,7 +30413,7 @@
         <v>611</v>
       </c>
       <c r="R316" s="10" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="W316" s="5" t="s">
         <v>617</v>
@@ -30457,7 +30475,7 @@
         <v>612</v>
       </c>
       <c r="R317" s="10" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="W317" s="5" t="s">
         <v>617</v>
@@ -30519,7 +30537,7 @@
         <v>613</v>
       </c>
       <c r="R318" s="10" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="W318" s="5" t="s">
         <v>617</v>
@@ -30581,7 +30599,7 @@
         <v>639</v>
       </c>
       <c r="R319" s="10" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="W319" s="5" t="s">
         <v>543</v>
@@ -30637,7 +30655,7 @@
         <v>640</v>
       </c>
       <c r="R320" s="10" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="W320" s="5" t="s">
         <v>543</v>
@@ -30693,7 +30711,7 @@
         <v>643</v>
       </c>
       <c r="R321" s="10" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="W321" s="5" t="s">
         <v>541</v>
@@ -30755,7 +30773,7 @@
         <v>646</v>
       </c>
       <c r="R322" s="10" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="W322" s="5" t="s">
         <v>541</v>
@@ -30817,7 +30835,7 @@
         <v>1526</v>
       </c>
       <c r="R323" s="48" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="W323" s="44" t="s">
         <v>1132</v>
@@ -30882,7 +30900,7 @@
         <v>1526</v>
       </c>
       <c r="R324" s="48" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="W324" s="44" t="s">
         <v>544</v>
@@ -30947,7 +30965,7 @@
         <v>1526</v>
       </c>
       <c r="R325" s="48" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="W325" s="44" t="s">
         <v>544</v>
@@ -31072,7 +31090,7 @@
         <v>959</v>
       </c>
       <c r="R327" s="48" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="W327" s="44" t="s">
         <v>960</v>
@@ -31223,7 +31241,7 @@
         <v>1464</v>
       </c>
       <c r="R329" s="48" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="S329" s="44"/>
       <c r="T329" s="44"/>
@@ -31306,7 +31324,7 @@
         <v>1461</v>
       </c>
       <c r="R330" s="48" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="S330" s="44"/>
       <c r="T330" s="44"/>
@@ -31389,7 +31407,7 @@
         <v>1464</v>
       </c>
       <c r="R331" s="48" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="S331" s="44"/>
       <c r="T331" s="44"/>
@@ -31472,7 +31490,7 @@
         <v>1464</v>
       </c>
       <c r="R332" s="48" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="S332" s="44"/>
       <c r="T332" s="44"/>
@@ -31555,7 +31573,7 @@
         <v>1464</v>
       </c>
       <c r="R333" s="48" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="S333" s="44"/>
       <c r="T333" s="44"/>
@@ -31638,7 +31656,7 @@
         <v>1474</v>
       </c>
       <c r="R334" s="48" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="S334" s="44"/>
       <c r="T334" s="44"/>
@@ -31721,7 +31739,7 @@
         <v>1474</v>
       </c>
       <c r="R335" s="48" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="S335" s="44"/>
       <c r="T335" s="44"/>
@@ -31804,7 +31822,7 @@
         <v>1474</v>
       </c>
       <c r="R336" s="48" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="S336" s="44"/>
       <c r="T336" s="44"/>
@@ -31887,7 +31905,7 @@
         <v>1479</v>
       </c>
       <c r="R337" s="48" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="S337" s="44"/>
       <c r="T337" s="44"/>
@@ -31964,7 +31982,7 @@
         <v>984</v>
       </c>
       <c r="R338" s="40" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="W338" s="19" t="s">
         <v>541</v>
@@ -32038,7 +32056,7 @@
         <v>984</v>
       </c>
       <c r="R339" s="40" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="S339" s="19"/>
       <c r="T339" s="19"/>
@@ -32123,7 +32141,7 @@
         <v>984</v>
       </c>
       <c r="R340" s="40" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="S340" s="19"/>
       <c r="T340" s="19"/>
@@ -32204,7 +32222,7 @@
         <v>947</v>
       </c>
       <c r="R341" s="10" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="W341" s="5" t="s">
         <v>1051</v>
@@ -32417,7 +32435,7 @@
         <v>947</v>
       </c>
       <c r="R344" s="10" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="W344" s="5" t="s">
         <v>1051</v>
@@ -32630,7 +32648,7 @@
         <v>947</v>
       </c>
       <c r="R347" s="10" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="W347" s="5" t="s">
         <v>1051</v>
@@ -32701,7 +32719,7 @@
         <v>947</v>
       </c>
       <c r="R348" s="10" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="W348" s="5" t="s">
         <v>1051</v>
@@ -32772,7 +32790,7 @@
         <v>947</v>
       </c>
       <c r="R349" s="10" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="W349" s="5" t="s">
         <v>1051</v>
@@ -32843,7 +32861,7 @@
         <v>947</v>
       </c>
       <c r="R350" s="10" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="W350" s="5" t="s">
         <v>1051</v>
@@ -32914,7 +32932,7 @@
         <v>947</v>
       </c>
       <c r="R351" s="10" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="W351" s="5" t="s">
         <v>1051</v>
@@ -32985,7 +33003,7 @@
         <v>947</v>
       </c>
       <c r="R352" s="10" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="W352" s="5" t="s">
         <v>1057</v>
@@ -33671,7 +33689,7 @@
         <v>1064</v>
       </c>
       <c r="R362" s="10" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="W362" s="5" t="s">
         <v>1077</v>
@@ -33890,7 +33908,7 @@
         <v>1104</v>
       </c>
       <c r="R365" s="10" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="W365" s="5" t="s">
         <v>588</v>
@@ -33955,7 +33973,7 @@
         <v>1104</v>
       </c>
       <c r="R366" s="10" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="W366" s="5" t="s">
         <v>588</v>
@@ -34020,7 +34038,7 @@
         <v>1104</v>
       </c>
       <c r="R367" s="10" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="W367" s="5" t="s">
         <v>588</v>
@@ -34085,7 +34103,7 @@
         <v>1104</v>
       </c>
       <c r="R368" s="10" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="W368" s="5" t="s">
         <v>588</v>
@@ -34150,7 +34168,7 @@
         <v>1123</v>
       </c>
       <c r="R369" s="10" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="W369" s="5" t="s">
         <v>588</v>
@@ -34215,7 +34233,7 @@
         <v>1115</v>
       </c>
       <c r="R370" s="10" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="W370" s="5" t="s">
         <v>588</v>
@@ -34277,7 +34295,7 @@
         <v>1115</v>
       </c>
       <c r="R371" s="10" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="W371" s="5" t="s">
         <v>555</v>
@@ -34339,7 +34357,7 @@
         <v>1115</v>
       </c>
       <c r="R372" s="10" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="W372" s="5" t="s">
         <v>1113</v>
@@ -34401,7 +34419,7 @@
         <v>1115</v>
       </c>
       <c r="R373" s="10" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="W373" s="5" t="s">
         <v>557</v>
@@ -34466,7 +34484,7 @@
         <v>1124</v>
       </c>
       <c r="R374" s="10" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="W374" s="5" t="s">
         <v>1119</v>
@@ -34534,7 +34552,7 @@
         <v>1124</v>
       </c>
       <c r="R375" s="10" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="W375" s="5" t="s">
         <v>588</v>
@@ -34602,7 +34620,7 @@
         <v>1145</v>
       </c>
       <c r="R376" s="10" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="W376" s="5" t="s">
         <v>1130</v>
@@ -34670,7 +34688,7 @@
         <v>1145</v>
       </c>
       <c r="R377" s="10" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="W377" s="5" t="s">
         <v>1132</v>
@@ -34738,7 +34756,7 @@
         <v>1145</v>
       </c>
       <c r="R378" s="10" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="W378" s="5" t="s">
         <v>1135</v>
@@ -34806,7 +34824,7 @@
         <v>1145</v>
       </c>
       <c r="R379" s="10" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="W379" s="5" t="s">
         <v>1113</v>
@@ -34874,7 +34892,7 @@
         <v>1145</v>
       </c>
       <c r="R380" s="10" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="W380" s="5" t="s">
         <v>1136</v>
@@ -34942,7 +34960,7 @@
         <v>1145</v>
       </c>
       <c r="R381" s="10" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="W381" s="5" t="s">
         <v>1130</v>
@@ -35010,7 +35028,7 @@
         <v>1145</v>
       </c>
       <c r="R382" s="10" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="W382" s="5" t="s">
         <v>1132</v>
@@ -35078,7 +35096,7 @@
         <v>1145</v>
       </c>
       <c r="R383" s="10" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="W383" s="5" t="s">
         <v>1174</v>
@@ -35146,7 +35164,7 @@
         <v>1145</v>
       </c>
       <c r="R384" s="10" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="W384" s="5" t="s">
         <v>1141</v>
@@ -35214,7 +35232,7 @@
         <v>1145</v>
       </c>
       <c r="R385" s="10" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="W385" s="5" t="s">
         <v>1136</v>
@@ -35283,7 +35301,7 @@
         <v>1163</v>
       </c>
       <c r="R386" s="61" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="W386" s="19" t="s">
         <v>1175</v>
@@ -35352,7 +35370,7 @@
         <v>1165</v>
       </c>
       <c r="R387" s="61" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="W387" s="19" t="s">
         <v>1175</v>
@@ -35490,7 +35508,7 @@
         <v>1167</v>
       </c>
       <c r="R389" s="94" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="W389" s="19" t="s">
         <v>1175</v>
@@ -35559,7 +35577,7 @@
         <v>1168</v>
       </c>
       <c r="R390" s="94" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="W390" s="19" t="s">
         <v>1175</v>
@@ -35628,7 +35646,7 @@
         <v>1169</v>
       </c>
       <c r="R391" s="94" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="W391" s="19" t="s">
         <v>1175</v>
@@ -35697,7 +35715,7 @@
         <v>1164</v>
       </c>
       <c r="R392" s="61" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="W392" s="19" t="s">
         <v>1175</v>
@@ -35835,7 +35853,7 @@
         <v>1171</v>
       </c>
       <c r="R394" s="61" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="W394" s="19" t="s">
         <v>1175</v>
@@ -35901,7 +35919,7 @@
         <v>1195</v>
       </c>
       <c r="R395" s="10" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="W395" s="52" t="s">
         <v>544</v>
@@ -35964,7 +35982,7 @@
         <v>1189</v>
       </c>
       <c r="R396" s="10" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="W396" s="52" t="s">
         <v>544</v>
@@ -36027,7 +36045,7 @@
         <v>1189</v>
       </c>
       <c r="R397" s="10" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="W397" s="52" t="s">
         <v>544</v>
@@ -36090,7 +36108,7 @@
         <v>1189</v>
       </c>
       <c r="R398" s="10" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="W398" s="52" t="s">
         <v>544</v>
@@ -36153,7 +36171,7 @@
         <v>1189</v>
       </c>
       <c r="R399" s="10" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="W399" s="52" t="s">
         <v>544</v>
@@ -36216,7 +36234,7 @@
         <v>1189</v>
       </c>
       <c r="R400" s="10" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="W400" s="52" t="s">
         <v>544</v>
@@ -36279,7 +36297,7 @@
         <v>1199</v>
       </c>
       <c r="R401" s="5" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="W401" s="53" t="s">
         <v>1200</v>
@@ -36345,7 +36363,7 @@
         <v>1199</v>
       </c>
       <c r="R402" s="5" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="W402" s="53" t="s">
         <v>1200</v>
@@ -36411,7 +36429,7 @@
         <v>1204</v>
       </c>
       <c r="R403" s="5" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="W403" s="53" t="s">
         <v>1200</v>
@@ -36477,7 +36495,7 @@
         <v>1206</v>
       </c>
       <c r="R404" s="5" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="W404" s="53" t="s">
         <v>1200</v>
@@ -36543,7 +36561,7 @@
         <v>1206</v>
       </c>
       <c r="R405" s="5" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="W405" s="53" t="s">
         <v>1200</v>
@@ -36609,7 +36627,7 @@
         <v>1209</v>
       </c>
       <c r="R406" s="5" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="W406" s="53" t="s">
         <v>1200</v>
@@ -36675,7 +36693,7 @@
         <v>1211</v>
       </c>
       <c r="R407" s="5" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="W407" s="53" t="s">
         <v>1200</v>
@@ -36741,7 +36759,7 @@
         <v>1244</v>
       </c>
       <c r="R408" s="10" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="W408" s="60" t="s">
         <v>1245</v>
@@ -36807,7 +36825,7 @@
         <v>1244</v>
       </c>
       <c r="R409" s="10" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="W409" s="60" t="s">
         <v>1246</v>
@@ -36873,7 +36891,7 @@
         <v>1244</v>
       </c>
       <c r="R410" s="10" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="W410" s="60" t="s">
         <v>1246</v>
@@ -36939,7 +36957,7 @@
         <v>1244</v>
       </c>
       <c r="R411" s="10" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="W411" s="60" t="s">
         <v>1247</v>
@@ -37005,7 +37023,7 @@
         <v>1244</v>
       </c>
       <c r="R412" s="10" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="W412" s="60" t="s">
         <v>1248</v>
@@ -37071,7 +37089,7 @@
         <v>1244</v>
       </c>
       <c r="R413" s="10" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="W413" s="60" t="s">
         <v>1246</v>
@@ -37118,7 +37136,7 @@
         <v>1250</v>
       </c>
       <c r="H414" s="5" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="L414" s="81">
         <v>-4</v>
@@ -37139,7 +37157,7 @@
         <v>90</v>
       </c>
       <c r="R414" s="86" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="W414" s="81" t="s">
         <v>541</v>
@@ -41798,13 +41816,13 @@
         <v>1</v>
       </c>
       <c r="G486" s="19" t="s">
+        <v>1805</v>
+      </c>
+      <c r="I486" s="19" t="s">
         <v>1806</v>
       </c>
-      <c r="I486" s="19" t="s">
+      <c r="J486" s="19" t="s">
         <v>1807</v>
-      </c>
-      <c r="J486" s="19" t="s">
-        <v>1808</v>
       </c>
       <c r="L486" s="19">
         <v>-31</v>
@@ -41822,10 +41840,10 @@
         <v>1800</v>
       </c>
       <c r="Q486" s="19" t="s">
+        <v>1808</v>
+      </c>
+      <c r="R486" s="40" t="s">
         <v>1809</v>
-      </c>
-      <c r="R486" s="40" t="s">
-        <v>1810</v>
       </c>
       <c r="W486" s="19" t="s">
         <v>544</v>
@@ -41863,13 +41881,13 @@
         <v>1</v>
       </c>
       <c r="G487" s="19" t="s">
+        <v>1810</v>
+      </c>
+      <c r="I487" s="19" t="s">
+        <v>1806</v>
+      </c>
+      <c r="J487" s="19" t="s">
         <v>1811</v>
-      </c>
-      <c r="I487" s="19" t="s">
-        <v>1807</v>
-      </c>
-      <c r="J487" s="19" t="s">
-        <v>1812</v>
       </c>
       <c r="L487" s="19">
         <v>-31</v>
@@ -41887,10 +41905,10 @@
         <v>4800</v>
       </c>
       <c r="Q487" s="19" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="R487" s="40" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="W487" s="19" t="s">
         <v>544</v>
@@ -41928,13 +41946,13 @@
         <v>1</v>
       </c>
       <c r="G488" s="19" t="s">
+        <v>1813</v>
+      </c>
+      <c r="I488" s="19" t="s">
+        <v>1806</v>
+      </c>
+      <c r="J488" s="19" t="s">
         <v>1814</v>
-      </c>
-      <c r="I488" s="19" t="s">
-        <v>1807</v>
-      </c>
-      <c r="J488" s="19" t="s">
-        <v>1815</v>
       </c>
       <c r="L488" s="19">
         <v>-31</v>
@@ -41952,10 +41970,10 @@
         <v>9800</v>
       </c>
       <c r="Q488" s="19" t="s">
+        <v>1815</v>
+      </c>
+      <c r="R488" s="40" t="s">
         <v>1816</v>
-      </c>
-      <c r="R488" s="40" t="s">
-        <v>1817</v>
       </c>
       <c r="W488" s="19" t="s">
         <v>544</v>
@@ -41993,13 +42011,13 @@
         <v>1</v>
       </c>
       <c r="G489" s="19" t="s">
+        <v>1817</v>
+      </c>
+      <c r="I489" s="19" t="s">
+        <v>1806</v>
+      </c>
+      <c r="J489" s="19" t="s">
         <v>1818</v>
-      </c>
-      <c r="I489" s="19" t="s">
-        <v>1807</v>
-      </c>
-      <c r="J489" s="19" t="s">
-        <v>1819</v>
       </c>
       <c r="L489" s="19">
         <v>-31</v>
@@ -42017,10 +42035,10 @@
         <v>19800</v>
       </c>
       <c r="Q489" s="19" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="R489" s="40" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="W489" s="19" t="s">
         <v>544</v>
@@ -42061,10 +42079,10 @@
         <v>1202</v>
       </c>
       <c r="I490" s="19" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="J490" s="19" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="L490" s="19">
         <v>-31</v>
@@ -42082,10 +42100,10 @@
         <v>29800</v>
       </c>
       <c r="Q490" s="19" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="R490" s="40" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="W490" s="19" t="s">
         <v>544</v>
@@ -42123,13 +42141,13 @@
         <v>1</v>
       </c>
       <c r="G491" s="19" t="s">
+        <v>1822</v>
+      </c>
+      <c r="I491" s="19" t="s">
+        <v>1806</v>
+      </c>
+      <c r="J491" s="19" t="s">
         <v>1823</v>
-      </c>
-      <c r="I491" s="19" t="s">
-        <v>1807</v>
-      </c>
-      <c r="J491" s="19" t="s">
-        <v>1824</v>
       </c>
       <c r="L491" s="19">
         <v>-31</v>
@@ -42147,7 +42165,7 @@
         <v>49800</v>
       </c>
       <c r="Q491" s="19" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="R491" s="40" t="s">
         <v>1221</v>
@@ -42188,13 +42206,13 @@
         <v>1</v>
       </c>
       <c r="G492" s="19" t="s">
+        <v>1825</v>
+      </c>
+      <c r="I492" s="19" t="s">
+        <v>1806</v>
+      </c>
+      <c r="J492" s="19" t="s">
         <v>1826</v>
-      </c>
-      <c r="I492" s="19" t="s">
-        <v>1807</v>
-      </c>
-      <c r="J492" s="19" t="s">
-        <v>1827</v>
       </c>
       <c r="L492" s="19">
         <v>-31</v>
@@ -42206,19 +42224,19 @@
         <v>0</v>
       </c>
       <c r="O492" s="19" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="P492" s="19">
         <v>99800</v>
       </c>
       <c r="Q492" s="19" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="R492" s="40" t="s">
         <v>1222</v>
       </c>
       <c r="W492" s="19" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="X492" s="19">
         <v>9999999</v>
@@ -43302,7 +43320,7 @@
         <v>31</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>32</v>
@@ -43388,10 +43406,10 @@
         <v>3</v>
       </c>
       <c r="Q2" s="34" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="R2" s="34" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="T2" s="34" t="s">
         <v>912</v>
@@ -43459,10 +43477,10 @@
         <v>4</v>
       </c>
       <c r="Q3" s="34" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="R3" s="34" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="T3" s="34" t="s">
         <v>912</v>
@@ -43530,10 +43548,10 @@
         <v>5</v>
       </c>
       <c r="Q4" s="34" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="R4" s="34" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="T4" s="34" t="s">
         <v>913</v>
@@ -43601,10 +43619,10 @@
         <v>6</v>
       </c>
       <c r="Q5" s="34" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="R5" s="34" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="T5" s="34" t="s">
         <v>913</v>
@@ -43672,10 +43690,10 @@
         <v>7</v>
       </c>
       <c r="Q6" s="34" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="R6" s="34" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="T6" s="34" t="s">
         <v>913</v>
@@ -43743,10 +43761,10 @@
         <v>9</v>
       </c>
       <c r="Q7" s="34" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="R7" s="34" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="T7" s="34" t="s">
         <v>913</v>
@@ -43809,10 +43827,10 @@
         <v>0</v>
       </c>
       <c r="Q8" s="34" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="R8" s="34" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="T8" s="34" t="s">
         <v>914</v>
@@ -43875,10 +43893,10 @@
         <v>2</v>
       </c>
       <c r="Q9" s="34" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="R9" s="34" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="U9" s="11">
         <v>5000</v>
@@ -43941,10 +43959,10 @@
         <v>1</v>
       </c>
       <c r="Q10" s="34" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="R10" s="34" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="U10" s="11">
         <v>1000</v>
@@ -44007,10 +44025,10 @@
         <v>0</v>
       </c>
       <c r="Q11" s="34" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="R11" s="34" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="T11" s="34" t="s">
         <v>915</v>
@@ -44078,10 +44096,10 @@
         <v>9</v>
       </c>
       <c r="Q12" s="34" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="R12" s="34" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="T12" s="34" t="s">
         <v>913</v>
@@ -44149,10 +44167,10 @@
         <v>10</v>
       </c>
       <c r="Q13" s="34" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="R13" s="34" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="T13" s="34" t="s">
         <v>915</v>
@@ -44220,10 +44238,10 @@
         <v>11</v>
       </c>
       <c r="Q14" s="34" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="R14" s="34" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="T14" s="34" t="s">
         <v>916</v>
@@ -44289,10 +44307,10 @@
         <v>0</v>
       </c>
       <c r="Q15" s="34" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="R15" s="34" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="T15" s="34"/>
       <c r="U15" s="11">
@@ -44361,10 +44379,10 @@
         <v>3</v>
       </c>
       <c r="Q16" s="34" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="R16" s="34" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="T16" s="34" t="s">
         <v>917</v>
@@ -44427,10 +44445,10 @@
         <v>4</v>
       </c>
       <c r="Q17" s="34" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="R17" s="34" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="T17" s="34" t="s">
         <v>918</v>
@@ -44493,10 +44511,10 @@
         <v>5</v>
       </c>
       <c r="Q18" s="34" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="R18" s="34" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="T18" s="34" t="s">
         <v>915</v>
@@ -44559,10 +44577,10 @@
         <v>6</v>
       </c>
       <c r="Q19" s="34" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="R19" s="34" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="T19" s="34" t="s">
         <v>919</v>
@@ -44625,10 +44643,10 @@
         <v>7</v>
       </c>
       <c r="Q20" s="34" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="R20" s="34" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="T20" s="34" t="s">
         <v>913</v>
@@ -44691,10 +44709,10 @@
         <v>0</v>
       </c>
       <c r="Q21" s="36" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="R21" s="36" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="T21" s="36" t="s">
         <v>912</v>
@@ -44757,10 +44775,10 @@
         <v>2</v>
       </c>
       <c r="Q22" s="34" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="R22" s="34" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="T22" s="34"/>
       <c r="U22" s="11">
@@ -44821,10 +44839,10 @@
         <v>1</v>
       </c>
       <c r="Q23" s="34" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="R23" s="34" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="T23" s="34"/>
       <c r="U23" s="11">
@@ -44888,10 +44906,10 @@
         <v>0</v>
       </c>
       <c r="Q24" s="34" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="R24" s="34" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="T24" s="34"/>
       <c r="U24" s="11">
@@ -44960,10 +44978,10 @@
         <v>8</v>
       </c>
       <c r="Q25" s="34" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="R25" s="34" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="T25" s="34" t="s">
         <v>920</v>

--- a/config_debug/shoping_config_cjj.xlsx
+++ b/config_debug/shoping_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.22\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -7901,10 +7901,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7962,14 +7959,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -8133,17 +8122,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8429,15 +8415,11 @@
     <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 4" xfId="2"/>
-    <cellStyle name="货币" xfId="3" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -15313,7 +15295,7 @@
       <c r="P77" s="19">
         <v>100</v>
       </c>
-      <c r="Q77" s="95" t="s">
+      <c r="Q77" s="19" t="s">
         <v>505</v>
       </c>
       <c r="R77" s="40" t="s">
@@ -35310,10 +35292,10 @@
         <v>9999999</v>
       </c>
       <c r="Y386" s="60">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z386" s="60">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA386" s="19">
         <v>44</v>
@@ -35379,10 +35361,10 @@
         <v>9999999</v>
       </c>
       <c r="Y387" s="60">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z387" s="60">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA387" s="19">
         <v>44</v>
@@ -35448,10 +35430,10 @@
         <v>9999999</v>
       </c>
       <c r="Y388" s="60">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z388" s="60">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA388" s="19">
         <v>44</v>
@@ -35516,11 +35498,11 @@
       <c r="X389" s="19">
         <v>9999999</v>
       </c>
-      <c r="Y389" s="76">
-        <v>1605571200</v>
-      </c>
-      <c r="Z389" s="76">
-        <v>1606147199</v>
+      <c r="Y389" s="60">
+        <v>1608595200</v>
+      </c>
+      <c r="Z389" s="60">
+        <v>1609171199</v>
       </c>
       <c r="AA389" s="19">
         <v>45</v>
@@ -35585,11 +35567,11 @@
       <c r="X390" s="19">
         <v>9999999</v>
       </c>
-      <c r="Y390" s="76">
-        <v>1605571200</v>
-      </c>
-      <c r="Z390" s="76">
-        <v>1606147199</v>
+      <c r="Y390" s="60">
+        <v>1608595200</v>
+      </c>
+      <c r="Z390" s="60">
+        <v>1609171199</v>
       </c>
       <c r="AA390" s="19">
         <v>45</v>
@@ -35654,11 +35636,11 @@
       <c r="X391" s="19">
         <v>9999999</v>
       </c>
-      <c r="Y391" s="76">
-        <v>1605571200</v>
-      </c>
-      <c r="Z391" s="76">
-        <v>1606147199</v>
+      <c r="Y391" s="60">
+        <v>1608595200</v>
+      </c>
+      <c r="Z391" s="60">
+        <v>1609171199</v>
       </c>
       <c r="AA391" s="19">
         <v>45</v>
@@ -35724,10 +35706,10 @@
         <v>9999999</v>
       </c>
       <c r="Y392" s="60">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z392" s="60">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA392" s="19">
         <v>46</v>
@@ -35793,10 +35775,10 @@
         <v>9999999</v>
       </c>
       <c r="Y393" s="60">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z393" s="60">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA393" s="19">
         <v>46</v>
@@ -35862,10 +35844,10 @@
         <v>9999999</v>
       </c>
       <c r="Y394" s="60">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z394" s="60">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA394" s="19">
         <v>46</v>

--- a/config_debug/shoping_config_cjj.xlsx
+++ b/config_debug/shoping_config_cjj.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4081" uniqueCount="1846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4167" uniqueCount="1882">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7954,6 +7954,140 @@
   </si>
   <si>
     <t>98880000,40,40,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>庆典礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>庆典礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐庆典-捕鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5180万","抽奖券*50","双倍奖励*15",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_qdlb_cjq","prop_3d_fish_doubled",</t>
+  </si>
+  <si>
+    <t>49800000,50,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2020万","抽奖券*30","双倍奖励*10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,30,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"990万","抽奖券*20","双倍奖励*5",</t>
+  </si>
+  <si>
+    <t>9800000,20,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"483万","抽奖券*3","双倍奖励*3",</t>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,10,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200万","抽奖券*4","双倍奖励*2",</t>
+  </si>
+  <si>
+    <t>2000000,4,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,4,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐庆典-捕鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万","抽奖券*1","双倍奖励*1",</t>
+  </si>
+  <si>
+    <t>600000,1,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐庆典-冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5180万","抽奖券*50","太阳*20",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_2",</t>
+  </si>
+  <si>
+    <t>49800000,50,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2020万","抽奖券*30","太阳*10",</t>
+  </si>
+  <si>
+    <t>欢乐庆典-冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"990万","抽奖券*20","太阳*2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,20,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"483万","抽奖券*3","水滴*6",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_1",</t>
+  </si>
+  <si>
+    <t>4800000,10,6,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200万","抽奖券*4","水滴*2",</t>
+  </si>
+  <si>
+    <t>"60万","抽奖券*1","水滴*1",</t>
+  </si>
+  <si>
+    <t>600000,1,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "actp_no_cjj_gej_exchange" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "actp_cjj_gej_exchange" }</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8942,7 +9076,7 @@
   <dimension ref="A1:AG24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="F2" sqref="F2:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9090,9 +9224,7 @@
       <c r="D2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="2">
-        <v>10330</v>
-      </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="2">
         <v>10330</v>
       </c>
@@ -9173,9 +9305,7 @@
       <c r="D3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="2">
-        <v>85</v>
-      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="2">
         <v>85</v>
       </c>
@@ -9256,9 +9386,7 @@
       <c r="D4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="2">
-        <v>86</v>
-      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="2">
         <v>86</v>
       </c>
@@ -9339,9 +9467,7 @@
       <c r="D5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="2">
-        <v>87</v>
-      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="2">
         <v>87</v>
       </c>
@@ -9422,9 +9548,7 @@
       <c r="D6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="2">
-        <v>88</v>
-      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2">
         <v>88</v>
       </c>
@@ -9505,9 +9629,7 @@
       <c r="D7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="2">
-        <v>89</v>
-      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2">
         <v>89</v>
       </c>
@@ -9588,9 +9710,7 @@
       <c r="D8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="2">
-        <v>109</v>
-      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="2">
         <v>109</v>
       </c>
@@ -9671,9 +9791,7 @@
       <c r="D9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="2">
-        <v>10044</v>
-      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="2">
         <v>10044</v>
       </c>
@@ -9755,9 +9873,6 @@
         <v>42</v>
       </c>
       <c r="E10" s="23"/>
-      <c r="F10" s="11">
-        <v>10045</v>
-      </c>
       <c r="G10" s="11">
         <v>10045</v>
       </c>
@@ -9841,9 +9956,6 @@
       <c r="E11" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="11">
-        <v>90</v>
-      </c>
       <c r="G11" s="11">
         <v>90</v>
       </c>
@@ -10829,9 +10941,6 @@
         <v>42</v>
       </c>
       <c r="E24" s="23"/>
-      <c r="F24" s="11">
-        <v>10189</v>
-      </c>
       <c r="G24" s="11">
         <v>10189</v>
       </c>
@@ -10909,13 +11018,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN496"/>
+  <dimension ref="A1:AN508"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="V485" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="V486" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F414" sqref="F414"/>
+      <selection pane="bottomRight" activeCell="B511" sqref="B511"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -14769,7 +14878,7 @@
         <v>2</v>
       </c>
       <c r="F67" s="81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" s="81" t="s">
         <v>234</v>
@@ -14828,7 +14937,7 @@
         <v>3</v>
       </c>
       <c r="F68" s="81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" s="81" t="s">
         <v>236</v>
@@ -14887,7 +14996,7 @@
         <v>4</v>
       </c>
       <c r="F69" s="81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" s="81" t="s">
         <v>238</v>
@@ -14946,7 +15055,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" s="81" t="s">
         <v>240</v>
@@ -15005,7 +15114,7 @@
         <v>6</v>
       </c>
       <c r="F71" s="81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" s="81" t="s">
         <v>241</v>
@@ -16355,7 +16464,7 @@
         <v>109</v>
       </c>
       <c r="F94" s="85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94" s="85" t="s">
         <v>265</v>
@@ -18389,7 +18498,7 @@
         <v>108</v>
       </c>
       <c r="F128" s="85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G128" s="85" t="s">
         <v>331</v>
@@ -18448,7 +18557,7 @@
         <v>110</v>
       </c>
       <c r="F129" s="85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G129" s="85" t="s">
         <v>530</v>
@@ -27751,7 +27860,7 @@
         <v>111</v>
       </c>
       <c r="F273" s="85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G273" s="85" t="s">
         <v>533</v>
@@ -37200,7 +37309,7 @@
         <v>1</v>
       </c>
       <c r="F414" s="81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G414" s="81" t="s">
         <v>1242</v>
@@ -42655,6 +42764,930 @@
         <v>1</v>
       </c>
       <c r="AM496" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A497" s="5">
+        <v>496</v>
+      </c>
+      <c r="B497" s="60">
+        <v>10413</v>
+      </c>
+      <c r="C497" s="60"/>
+      <c r="D497" s="60"/>
+      <c r="E497" s="60"/>
+      <c r="F497" s="60">
+        <v>1</v>
+      </c>
+      <c r="G497" s="60" t="s">
+        <v>1847</v>
+      </c>
+      <c r="H497" s="60"/>
+      <c r="I497" s="60" t="s">
+        <v>1848</v>
+      </c>
+      <c r="J497" s="60" t="s">
+        <v>1849</v>
+      </c>
+      <c r="K497" s="60"/>
+      <c r="L497" s="60">
+        <v>-31</v>
+      </c>
+      <c r="M497" s="60">
+        <v>0</v>
+      </c>
+      <c r="N497" s="60">
+        <v>0</v>
+      </c>
+      <c r="O497" s="60" t="s">
+        <v>1850</v>
+      </c>
+      <c r="P497" s="60">
+        <v>49800</v>
+      </c>
+      <c r="Q497" s="60" t="s">
+        <v>1851</v>
+      </c>
+      <c r="R497" s="61" t="s">
+        <v>1852</v>
+      </c>
+      <c r="S497" s="60"/>
+      <c r="T497" s="60"/>
+      <c r="U497" s="60"/>
+      <c r="V497" s="60"/>
+      <c r="W497" s="60" t="s">
+        <v>540</v>
+      </c>
+      <c r="X497" s="60">
+        <v>99999999</v>
+      </c>
+      <c r="Y497" s="60">
+        <v>1609804800</v>
+      </c>
+      <c r="Z497" s="60">
+        <v>1610380799</v>
+      </c>
+      <c r="AA497" s="60">
+        <v>66</v>
+      </c>
+      <c r="AH497" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI497" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL497" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM497" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A498" s="5">
+        <v>497</v>
+      </c>
+      <c r="B498" s="60">
+        <v>10414</v>
+      </c>
+      <c r="C498" s="60"/>
+      <c r="D498" s="60"/>
+      <c r="E498" s="60"/>
+      <c r="F498" s="60">
+        <v>1</v>
+      </c>
+      <c r="G498" s="60" t="s">
+        <v>1846</v>
+      </c>
+      <c r="H498" s="60"/>
+      <c r="I498" s="60" t="s">
+        <v>1848</v>
+      </c>
+      <c r="J498" s="60" t="s">
+        <v>1853</v>
+      </c>
+      <c r="K498" s="60"/>
+      <c r="L498" s="60">
+        <v>-31</v>
+      </c>
+      <c r="M498" s="60">
+        <v>0</v>
+      </c>
+      <c r="N498" s="60">
+        <v>0</v>
+      </c>
+      <c r="O498" s="60" t="s">
+        <v>498</v>
+      </c>
+      <c r="P498" s="60">
+        <v>19800</v>
+      </c>
+      <c r="Q498" s="60" t="s">
+        <v>1851</v>
+      </c>
+      <c r="R498" s="61" t="s">
+        <v>1854</v>
+      </c>
+      <c r="S498" s="60"/>
+      <c r="T498" s="60"/>
+      <c r="U498" s="60"/>
+      <c r="V498" s="60"/>
+      <c r="W498" s="60" t="s">
+        <v>540</v>
+      </c>
+      <c r="X498" s="60">
+        <v>99999999</v>
+      </c>
+      <c r="Y498" s="60">
+        <v>1609804800</v>
+      </c>
+      <c r="Z498" s="60">
+        <v>1610380799</v>
+      </c>
+      <c r="AA498" s="60">
+        <v>66</v>
+      </c>
+      <c r="AH498" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI498" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL498" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM498" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A499" s="5">
+        <v>498</v>
+      </c>
+      <c r="B499" s="60">
+        <v>10415</v>
+      </c>
+      <c r="C499" s="60"/>
+      <c r="D499" s="60"/>
+      <c r="E499" s="60"/>
+      <c r="F499" s="60">
+        <v>1</v>
+      </c>
+      <c r="G499" s="60" t="s">
+        <v>1846</v>
+      </c>
+      <c r="H499" s="60"/>
+      <c r="I499" s="60" t="s">
+        <v>1848</v>
+      </c>
+      <c r="J499" s="60" t="s">
+        <v>1855</v>
+      </c>
+      <c r="K499" s="60"/>
+      <c r="L499" s="60">
+        <v>-31</v>
+      </c>
+      <c r="M499" s="60">
+        <v>0</v>
+      </c>
+      <c r="N499" s="60">
+        <v>0</v>
+      </c>
+      <c r="O499" s="60" t="s">
+        <v>1850</v>
+      </c>
+      <c r="P499" s="60">
+        <v>9800</v>
+      </c>
+      <c r="Q499" s="60" t="s">
+        <v>1851</v>
+      </c>
+      <c r="R499" s="61" t="s">
+        <v>1856</v>
+      </c>
+      <c r="S499" s="60"/>
+      <c r="T499" s="60"/>
+      <c r="U499" s="60"/>
+      <c r="V499" s="60"/>
+      <c r="W499" s="60" t="s">
+        <v>540</v>
+      </c>
+      <c r="X499" s="60">
+        <v>99999999</v>
+      </c>
+      <c r="Y499" s="60">
+        <v>1609804800</v>
+      </c>
+      <c r="Z499" s="60">
+        <v>1610380799</v>
+      </c>
+      <c r="AA499" s="60">
+        <v>66</v>
+      </c>
+      <c r="AH499" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI499" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL499" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM499" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A500" s="5">
+        <v>499</v>
+      </c>
+      <c r="B500" s="60">
+        <v>10416</v>
+      </c>
+      <c r="C500" s="60"/>
+      <c r="D500" s="60"/>
+      <c r="E500" s="60"/>
+      <c r="F500" s="60">
+        <v>1</v>
+      </c>
+      <c r="G500" s="60" t="s">
+        <v>1846</v>
+      </c>
+      <c r="H500" s="60"/>
+      <c r="I500" s="60" t="s">
+        <v>1848</v>
+      </c>
+      <c r="J500" s="60" t="s">
+        <v>1857</v>
+      </c>
+      <c r="K500" s="60"/>
+      <c r="L500" s="60">
+        <v>-31</v>
+      </c>
+      <c r="M500" s="60">
+        <v>0</v>
+      </c>
+      <c r="N500" s="60">
+        <v>0</v>
+      </c>
+      <c r="O500" s="60" t="s">
+        <v>1858</v>
+      </c>
+      <c r="P500" s="60">
+        <v>4800</v>
+      </c>
+      <c r="Q500" s="60" t="s">
+        <v>1851</v>
+      </c>
+      <c r="R500" s="61" t="s">
+        <v>1859</v>
+      </c>
+      <c r="S500" s="60"/>
+      <c r="T500" s="60"/>
+      <c r="U500" s="60"/>
+      <c r="V500" s="60"/>
+      <c r="W500" s="60" t="s">
+        <v>540</v>
+      </c>
+      <c r="X500" s="60">
+        <v>99999999</v>
+      </c>
+      <c r="Y500" s="60">
+        <v>1609804800</v>
+      </c>
+      <c r="Z500" s="60">
+        <v>1610380799</v>
+      </c>
+      <c r="AA500" s="60">
+        <v>66</v>
+      </c>
+      <c r="AH500" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI500" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL500" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM500" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A501" s="5">
+        <v>500</v>
+      </c>
+      <c r="B501" s="60">
+        <v>10417</v>
+      </c>
+      <c r="C501" s="60"/>
+      <c r="D501" s="60"/>
+      <c r="E501" s="60"/>
+      <c r="F501" s="60">
+        <v>1</v>
+      </c>
+      <c r="G501" s="60" t="s">
+        <v>1847</v>
+      </c>
+      <c r="H501" s="60"/>
+      <c r="I501" s="60" t="s">
+        <v>1848</v>
+      </c>
+      <c r="J501" s="60" t="s">
+        <v>1860</v>
+      </c>
+      <c r="K501" s="60"/>
+      <c r="L501" s="60">
+        <v>-31</v>
+      </c>
+      <c r="M501" s="60">
+        <v>0</v>
+      </c>
+      <c r="N501" s="60">
+        <v>0</v>
+      </c>
+      <c r="O501" s="60" t="s">
+        <v>498</v>
+      </c>
+      <c r="P501" s="60">
+        <v>2000</v>
+      </c>
+      <c r="Q501" s="60" t="s">
+        <v>1851</v>
+      </c>
+      <c r="R501" s="61" t="s">
+        <v>1862</v>
+      </c>
+      <c r="S501" s="60"/>
+      <c r="T501" s="60"/>
+      <c r="U501" s="60"/>
+      <c r="V501" s="60"/>
+      <c r="W501" s="60" t="s">
+        <v>540</v>
+      </c>
+      <c r="X501" s="60">
+        <v>99999999</v>
+      </c>
+      <c r="Y501" s="60">
+        <v>1609804800</v>
+      </c>
+      <c r="Z501" s="60">
+        <v>1610380799</v>
+      </c>
+      <c r="AA501" s="60">
+        <v>66</v>
+      </c>
+      <c r="AH501" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI501" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL501" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM501" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A502" s="5">
+        <v>501</v>
+      </c>
+      <c r="B502" s="60">
+        <v>10418</v>
+      </c>
+      <c r="C502" s="60"/>
+      <c r="D502" s="60"/>
+      <c r="E502" s="60"/>
+      <c r="F502" s="60">
+        <v>1</v>
+      </c>
+      <c r="G502" s="60" t="s">
+        <v>1847</v>
+      </c>
+      <c r="H502" s="60"/>
+      <c r="I502" s="60" t="s">
+        <v>1863</v>
+      </c>
+      <c r="J502" s="60" t="s">
+        <v>1864</v>
+      </c>
+      <c r="K502" s="60"/>
+      <c r="L502" s="60">
+        <v>-31</v>
+      </c>
+      <c r="M502" s="60">
+        <v>0</v>
+      </c>
+      <c r="N502" s="60">
+        <v>0</v>
+      </c>
+      <c r="O502" s="60" t="s">
+        <v>1850</v>
+      </c>
+      <c r="P502" s="60">
+        <v>600</v>
+      </c>
+      <c r="Q502" s="60" t="s">
+        <v>1851</v>
+      </c>
+      <c r="R502" s="61" t="s">
+        <v>1865</v>
+      </c>
+      <c r="S502" s="60"/>
+      <c r="T502" s="60"/>
+      <c r="U502" s="60"/>
+      <c r="V502" s="60"/>
+      <c r="W502" s="60" t="s">
+        <v>540</v>
+      </c>
+      <c r="X502" s="60">
+        <v>99999999</v>
+      </c>
+      <c r="Y502" s="60">
+        <v>1609804800</v>
+      </c>
+      <c r="Z502" s="60">
+        <v>1610380799</v>
+      </c>
+      <c r="AA502" s="60">
+        <v>66</v>
+      </c>
+      <c r="AH502" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI502" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL502" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM502" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A503" s="5">
+        <v>502</v>
+      </c>
+      <c r="B503" s="76">
+        <v>10419</v>
+      </c>
+      <c r="C503" s="76"/>
+      <c r="D503" s="76"/>
+      <c r="E503" s="76"/>
+      <c r="F503" s="76">
+        <v>1</v>
+      </c>
+      <c r="G503" s="76" t="s">
+        <v>1847</v>
+      </c>
+      <c r="H503" s="76"/>
+      <c r="I503" s="76" t="s">
+        <v>1866</v>
+      </c>
+      <c r="J503" s="76" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K503" s="76"/>
+      <c r="L503" s="76">
+        <v>-31</v>
+      </c>
+      <c r="M503" s="76">
+        <v>0</v>
+      </c>
+      <c r="N503" s="76">
+        <v>0</v>
+      </c>
+      <c r="O503" s="76" t="s">
+        <v>498</v>
+      </c>
+      <c r="P503" s="76">
+        <v>49800</v>
+      </c>
+      <c r="Q503" s="76" t="s">
+        <v>1868</v>
+      </c>
+      <c r="R503" s="92" t="s">
+        <v>1869</v>
+      </c>
+      <c r="S503" s="76"/>
+      <c r="T503" s="76"/>
+      <c r="U503" s="76"/>
+      <c r="V503" s="76"/>
+      <c r="W503" s="76" t="s">
+        <v>540</v>
+      </c>
+      <c r="X503" s="76">
+        <v>99999999</v>
+      </c>
+      <c r="Y503" s="76">
+        <v>1609804800</v>
+      </c>
+      <c r="Z503" s="76">
+        <v>1610380799</v>
+      </c>
+      <c r="AA503" s="76">
+        <v>67</v>
+      </c>
+      <c r="AH503" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI503" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL503" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM503" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A504" s="5">
+        <v>503</v>
+      </c>
+      <c r="B504" s="76">
+        <v>10420</v>
+      </c>
+      <c r="C504" s="76"/>
+      <c r="D504" s="76"/>
+      <c r="E504" s="76"/>
+      <c r="F504" s="76">
+        <v>1</v>
+      </c>
+      <c r="G504" s="76" t="s">
+        <v>1847</v>
+      </c>
+      <c r="H504" s="76"/>
+      <c r="I504" s="76" t="s">
+        <v>1866</v>
+      </c>
+      <c r="J504" s="76" t="s">
+        <v>1870</v>
+      </c>
+      <c r="K504" s="76"/>
+      <c r="L504" s="76">
+        <v>-31</v>
+      </c>
+      <c r="M504" s="76">
+        <v>0</v>
+      </c>
+      <c r="N504" s="76">
+        <v>0</v>
+      </c>
+      <c r="O504" s="76" t="s">
+        <v>498</v>
+      </c>
+      <c r="P504" s="76">
+        <v>19800</v>
+      </c>
+      <c r="Q504" s="76" t="s">
+        <v>1868</v>
+      </c>
+      <c r="R504" s="92" t="s">
+        <v>1854</v>
+      </c>
+      <c r="S504" s="76"/>
+      <c r="T504" s="76"/>
+      <c r="U504" s="76"/>
+      <c r="V504" s="76"/>
+      <c r="W504" s="76" t="s">
+        <v>540</v>
+      </c>
+      <c r="X504" s="76">
+        <v>99999999</v>
+      </c>
+      <c r="Y504" s="76">
+        <v>1609804800</v>
+      </c>
+      <c r="Z504" s="76">
+        <v>1610380799</v>
+      </c>
+      <c r="AA504" s="76">
+        <v>67</v>
+      </c>
+      <c r="AH504" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI504" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL504" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM504" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A505" s="5">
+        <v>504</v>
+      </c>
+      <c r="B505" s="76">
+        <v>10421</v>
+      </c>
+      <c r="C505" s="76"/>
+      <c r="D505" s="76"/>
+      <c r="E505" s="76"/>
+      <c r="F505" s="76">
+        <v>1</v>
+      </c>
+      <c r="G505" s="76" t="s">
+        <v>1847</v>
+      </c>
+      <c r="H505" s="76"/>
+      <c r="I505" s="76" t="s">
+        <v>1871</v>
+      </c>
+      <c r="J505" s="76" t="s">
+        <v>1872</v>
+      </c>
+      <c r="K505" s="76"/>
+      <c r="L505" s="76">
+        <v>-31</v>
+      </c>
+      <c r="M505" s="76">
+        <v>0</v>
+      </c>
+      <c r="N505" s="76">
+        <v>0</v>
+      </c>
+      <c r="O505" s="76" t="s">
+        <v>498</v>
+      </c>
+      <c r="P505" s="76">
+        <v>9800</v>
+      </c>
+      <c r="Q505" s="76" t="s">
+        <v>1868</v>
+      </c>
+      <c r="R505" s="92" t="s">
+        <v>1873</v>
+      </c>
+      <c r="S505" s="76"/>
+      <c r="T505" s="76"/>
+      <c r="U505" s="76"/>
+      <c r="V505" s="76"/>
+      <c r="W505" s="76" t="s">
+        <v>540</v>
+      </c>
+      <c r="X505" s="76">
+        <v>99999999</v>
+      </c>
+      <c r="Y505" s="76">
+        <v>1609804800</v>
+      </c>
+      <c r="Z505" s="76">
+        <v>1610380799</v>
+      </c>
+      <c r="AA505" s="76">
+        <v>67</v>
+      </c>
+      <c r="AH505" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI505" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL505" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM505" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A506" s="5">
+        <v>505</v>
+      </c>
+      <c r="B506" s="76">
+        <v>10422</v>
+      </c>
+      <c r="C506" s="76"/>
+      <c r="D506" s="76"/>
+      <c r="E506" s="76"/>
+      <c r="F506" s="76">
+        <v>1</v>
+      </c>
+      <c r="G506" s="76" t="s">
+        <v>1846</v>
+      </c>
+      <c r="H506" s="76"/>
+      <c r="I506" s="76" t="s">
+        <v>1871</v>
+      </c>
+      <c r="J506" s="76" t="s">
+        <v>1874</v>
+      </c>
+      <c r="K506" s="76"/>
+      <c r="L506" s="76">
+        <v>-31</v>
+      </c>
+      <c r="M506" s="76">
+        <v>0</v>
+      </c>
+      <c r="N506" s="76">
+        <v>0</v>
+      </c>
+      <c r="O506" s="76" t="s">
+        <v>498</v>
+      </c>
+      <c r="P506" s="76">
+        <v>4800</v>
+      </c>
+      <c r="Q506" s="76" t="s">
+        <v>1875</v>
+      </c>
+      <c r="R506" s="92" t="s">
+        <v>1876</v>
+      </c>
+      <c r="S506" s="76"/>
+      <c r="T506" s="76"/>
+      <c r="U506" s="76"/>
+      <c r="V506" s="76"/>
+      <c r="W506" s="76" t="s">
+        <v>540</v>
+      </c>
+      <c r="X506" s="76">
+        <v>99999999</v>
+      </c>
+      <c r="Y506" s="76">
+        <v>1609804800</v>
+      </c>
+      <c r="Z506" s="76">
+        <v>1610380799</v>
+      </c>
+      <c r="AA506" s="76">
+        <v>67</v>
+      </c>
+      <c r="AH506" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI506" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL506" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM506" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A507" s="5">
+        <v>506</v>
+      </c>
+      <c r="B507" s="76">
+        <v>10423</v>
+      </c>
+      <c r="C507" s="76"/>
+      <c r="D507" s="76"/>
+      <c r="E507" s="76"/>
+      <c r="F507" s="76">
+        <v>1</v>
+      </c>
+      <c r="G507" s="76" t="s">
+        <v>1846</v>
+      </c>
+      <c r="H507" s="76"/>
+      <c r="I507" s="76" t="s">
+        <v>1871</v>
+      </c>
+      <c r="J507" s="76" t="s">
+        <v>1877</v>
+      </c>
+      <c r="K507" s="76"/>
+      <c r="L507" s="76">
+        <v>-31</v>
+      </c>
+      <c r="M507" s="76">
+        <v>0</v>
+      </c>
+      <c r="N507" s="76">
+        <v>0</v>
+      </c>
+      <c r="O507" s="76" t="s">
+        <v>1850</v>
+      </c>
+      <c r="P507" s="76">
+        <v>2000</v>
+      </c>
+      <c r="Q507" s="76" t="s">
+        <v>1875</v>
+      </c>
+      <c r="R507" s="92" t="s">
+        <v>1861</v>
+      </c>
+      <c r="S507" s="76"/>
+      <c r="T507" s="76"/>
+      <c r="U507" s="76"/>
+      <c r="V507" s="76"/>
+      <c r="W507" s="76" t="s">
+        <v>540</v>
+      </c>
+      <c r="X507" s="76">
+        <v>99999999</v>
+      </c>
+      <c r="Y507" s="76">
+        <v>1609804800</v>
+      </c>
+      <c r="Z507" s="76">
+        <v>1610380799</v>
+      </c>
+      <c r="AA507" s="76">
+        <v>67</v>
+      </c>
+      <c r="AH507" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI507" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL507" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM507" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A508" s="5">
+        <v>507</v>
+      </c>
+      <c r="B508" s="76">
+        <v>10424</v>
+      </c>
+      <c r="C508" s="76"/>
+      <c r="D508" s="76"/>
+      <c r="E508" s="76"/>
+      <c r="F508" s="76">
+        <v>1</v>
+      </c>
+      <c r="G508" s="76" t="s">
+        <v>1846</v>
+      </c>
+      <c r="H508" s="76"/>
+      <c r="I508" s="76" t="s">
+        <v>1871</v>
+      </c>
+      <c r="J508" s="76" t="s">
+        <v>1878</v>
+      </c>
+      <c r="K508" s="76"/>
+      <c r="L508" s="76">
+        <v>-31</v>
+      </c>
+      <c r="M508" s="76">
+        <v>0</v>
+      </c>
+      <c r="N508" s="76">
+        <v>0</v>
+      </c>
+      <c r="O508" s="76" t="s">
+        <v>1850</v>
+      </c>
+      <c r="P508" s="76">
+        <v>600</v>
+      </c>
+      <c r="Q508" s="76" t="s">
+        <v>1875</v>
+      </c>
+      <c r="R508" s="92" t="s">
+        <v>1879</v>
+      </c>
+      <c r="S508" s="76"/>
+      <c r="T508" s="76"/>
+      <c r="U508" s="76"/>
+      <c r="V508" s="76"/>
+      <c r="W508" s="76" t="s">
+        <v>540</v>
+      </c>
+      <c r="X508" s="76">
+        <v>99999999</v>
+      </c>
+      <c r="Y508" s="76">
+        <v>1609804800</v>
+      </c>
+      <c r="Z508" s="76">
+        <v>1610380799</v>
+      </c>
+      <c r="AA508" s="76">
+        <v>67</v>
+      </c>
+      <c r="AH508" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI508" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL508" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM508" s="6">
         <v>1</v>
       </c>
     </row>
@@ -42668,10 +43701,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -43621,6 +44654,34 @@
       </c>
       <c r="D66" s="77">
         <v>600</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="25">
+        <v>66</v>
+      </c>
+      <c r="B67" s="28" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C67" s="25">
+        <v>1</v>
+      </c>
+      <c r="D67" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="25">
+        <v>67</v>
+      </c>
+      <c r="B68" s="28" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C68" s="25">
+        <v>1</v>
+      </c>
+      <c r="D68" s="25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/shoping_config_cjj.xlsx
+++ b/config_debug/shoping_config_cjj.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4167" uniqueCount="1882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4167" uniqueCount="1883">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8088,6 +8088,10 @@
   </si>
   <si>
     <t>{type="permission_class",class_value = "actp_cjj_gej_exchange" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -11020,11 +11024,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN508"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="V486" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="V480" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B511" sqref="B511"/>
+      <selection pane="bottomRight" activeCell="W500" sqref="W500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -42025,7 +42029,7 @@
         <v>1799</v>
       </c>
       <c r="W486" s="19" t="s">
-        <v>543</v>
+        <v>1882</v>
       </c>
       <c r="X486" s="19">
         <v>9999999</v>
@@ -42817,7 +42821,7 @@
       <c r="U497" s="60"/>
       <c r="V497" s="60"/>
       <c r="W497" s="60" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="X497" s="60">
         <v>99999999</v>
@@ -42894,7 +42898,7 @@
       <c r="U498" s="60"/>
       <c r="V498" s="60"/>
       <c r="W498" s="60" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="X498" s="60">
         <v>99999999</v>
@@ -42971,7 +42975,7 @@
       <c r="U499" s="60"/>
       <c r="V499" s="60"/>
       <c r="W499" s="60" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="X499" s="60">
         <v>99999999</v>
@@ -43048,7 +43052,7 @@
       <c r="U500" s="60"/>
       <c r="V500" s="60"/>
       <c r="W500" s="60" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="X500" s="60">
         <v>99999999</v>
@@ -43125,7 +43129,7 @@
       <c r="U501" s="60"/>
       <c r="V501" s="60"/>
       <c r="W501" s="60" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="X501" s="60">
         <v>99999999</v>
@@ -43202,7 +43206,7 @@
       <c r="U502" s="60"/>
       <c r="V502" s="60"/>
       <c r="W502" s="60" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="X502" s="60">
         <v>99999999</v>
@@ -43279,7 +43283,7 @@
       <c r="U503" s="76"/>
       <c r="V503" s="76"/>
       <c r="W503" s="76" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="X503" s="76">
         <v>99999999</v>
@@ -43356,7 +43360,7 @@
       <c r="U504" s="76"/>
       <c r="V504" s="76"/>
       <c r="W504" s="76" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="X504" s="76">
         <v>99999999</v>
@@ -43433,7 +43437,7 @@
       <c r="U505" s="76"/>
       <c r="V505" s="76"/>
       <c r="W505" s="76" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="X505" s="76">
         <v>99999999</v>
@@ -43510,7 +43514,7 @@
       <c r="U506" s="76"/>
       <c r="V506" s="76"/>
       <c r="W506" s="76" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="X506" s="76">
         <v>99999999</v>
@@ -43587,7 +43591,7 @@
       <c r="U507" s="76"/>
       <c r="V507" s="76"/>
       <c r="W507" s="76" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="X507" s="76">
         <v>99999999</v>
@@ -43664,7 +43668,7 @@
       <c r="U508" s="76"/>
       <c r="V508" s="76"/>
       <c r="W508" s="76" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="X508" s="76">
         <v>99999999</v>
@@ -43703,7 +43707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>

--- a/config_debug/shoping_config_cjj.xlsx
+++ b/config_debug/shoping_config_cjj.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4167" uniqueCount="1883">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4167" uniqueCount="1888">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8092,6 +8092,26 @@
   </si>
   <si>
     <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,9999,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,9999,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,9999,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,9999,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,9999,0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -11028,7 +11048,7 @@
       <pane xSplit="7" ySplit="1" topLeftCell="V480" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W500" sqref="W500"/>
+      <selection pane="bottomRight" activeCell="W497" sqref="W497:W508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -42821,7 +42841,7 @@
       <c r="U497" s="60"/>
       <c r="V497" s="60"/>
       <c r="W497" s="60" t="s">
-        <v>543</v>
+        <v>1884</v>
       </c>
       <c r="X497" s="60">
         <v>99999999</v>
@@ -42898,7 +42918,7 @@
       <c r="U498" s="60"/>
       <c r="V498" s="60"/>
       <c r="W498" s="60" t="s">
-        <v>543</v>
+        <v>1885</v>
       </c>
       <c r="X498" s="60">
         <v>99999999</v>
@@ -42975,7 +42995,7 @@
       <c r="U499" s="60"/>
       <c r="V499" s="60"/>
       <c r="W499" s="60" t="s">
-        <v>543</v>
+        <v>1885</v>
       </c>
       <c r="X499" s="60">
         <v>99999999</v>
@@ -43052,7 +43072,7 @@
       <c r="U500" s="60"/>
       <c r="V500" s="60"/>
       <c r="W500" s="60" t="s">
-        <v>543</v>
+        <v>1885</v>
       </c>
       <c r="X500" s="60">
         <v>99999999</v>
@@ -43129,7 +43149,7 @@
       <c r="U501" s="60"/>
       <c r="V501" s="60"/>
       <c r="W501" s="60" t="s">
-        <v>543</v>
+        <v>1886</v>
       </c>
       <c r="X501" s="60">
         <v>99999999</v>
@@ -43206,7 +43226,7 @@
       <c r="U502" s="60"/>
       <c r="V502" s="60"/>
       <c r="W502" s="60" t="s">
-        <v>543</v>
+        <v>1885</v>
       </c>
       <c r="X502" s="60">
         <v>99999999</v>
@@ -43282,8 +43302,8 @@
       <c r="T503" s="76"/>
       <c r="U503" s="76"/>
       <c r="V503" s="76"/>
-      <c r="W503" s="76" t="s">
-        <v>543</v>
+      <c r="W503" s="60" t="s">
+        <v>1887</v>
       </c>
       <c r="X503" s="76">
         <v>99999999</v>
@@ -43359,8 +43379,8 @@
       <c r="T504" s="76"/>
       <c r="U504" s="76"/>
       <c r="V504" s="76"/>
-      <c r="W504" s="76" t="s">
-        <v>543</v>
+      <c r="W504" s="60" t="s">
+        <v>1885</v>
       </c>
       <c r="X504" s="76">
         <v>99999999</v>
@@ -43436,8 +43456,8 @@
       <c r="T505" s="76"/>
       <c r="U505" s="76"/>
       <c r="V505" s="76"/>
-      <c r="W505" s="76" t="s">
-        <v>543</v>
+      <c r="W505" s="60" t="s">
+        <v>1886</v>
       </c>
       <c r="X505" s="76">
         <v>99999999</v>
@@ -43513,8 +43533,8 @@
       <c r="T506" s="76"/>
       <c r="U506" s="76"/>
       <c r="V506" s="76"/>
-      <c r="W506" s="76" t="s">
-        <v>543</v>
+      <c r="W506" s="60" t="s">
+        <v>1883</v>
       </c>
       <c r="X506" s="76">
         <v>99999999</v>
@@ -43590,8 +43610,8 @@
       <c r="T507" s="76"/>
       <c r="U507" s="76"/>
       <c r="V507" s="76"/>
-      <c r="W507" s="76" t="s">
-        <v>543</v>
+      <c r="W507" s="60" t="s">
+        <v>1884</v>
       </c>
       <c r="X507" s="76">
         <v>99999999</v>
@@ -43667,8 +43687,8 @@
       <c r="T508" s="76"/>
       <c r="U508" s="76"/>
       <c r="V508" s="76"/>
-      <c r="W508" s="76" t="s">
-        <v>543</v>
+      <c r="W508" s="60" t="s">
+        <v>1886</v>
       </c>
       <c r="X508" s="76">
         <v>99999999</v>

--- a/config_debug/shoping_config_cjj.xlsx
+++ b/config_debug/shoping_config_cjj.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4167" uniqueCount="1888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4167" uniqueCount="1889">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7980,25 +7980,13 @@
     <t>"jing_bi","prop_qdlb_cjq","prop_3d_fish_doubled",</t>
   </si>
   <si>
-    <t>49800000,50,15,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"2020万","抽奖券*30","双倍奖励*10",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>19800000,30,10,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"990万","抽奖券*20","双倍奖励*5",</t>
   </si>
   <si>
-    <t>9800000,20,5,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"483万","抽奖券*3","双倍奖励*3",</t>
   </si>
   <si>
@@ -8006,14 +7994,106 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>4800000,10,3,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"200万","抽奖券*4","双倍奖励*2",</t>
   </si>
   <si>
+    <t>欢乐庆典-捕鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万","抽奖券*1","双倍奖励*1",</t>
+  </si>
+  <si>
+    <t>欢乐庆典-冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5180万","抽奖券*50","太阳*20",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_2",</t>
+  </si>
+  <si>
+    <t>"2020万","抽奖券*30","太阳*10",</t>
+  </si>
+  <si>
+    <t>欢乐庆典-冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"990万","抽奖券*20","太阳*2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"483万","抽奖券*3","水滴*6",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_1",</t>
+  </si>
+  <si>
+    <t>"200万","抽奖券*4","水滴*2",</t>
+  </si>
+  <si>
+    <t>"60万","抽奖券*1","水滴*1",</t>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "actp_no_cjj_gej_exchange" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "actp_cjj_gej_exchange" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,9999,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,9999,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,9999,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,9999,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,9999,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>2000000,4,2,</t>
+  </si>
+  <si>
+    <t>600000,1,1,</t>
+  </si>
+  <si>
+    <t>51800000,50,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200000,30,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>51800000,50,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200000,30,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4830000,10,3,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -8021,97 +8101,19 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>欢乐庆典-捕鱼</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"60万","抽奖券*1","双倍奖励*1",</t>
-  </si>
-  <si>
     <t>600000,1,1,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>欢乐庆典-冲金鸡</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"5180万","抽奖券*50","太阳*20",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_2",</t>
-  </si>
-  <si>
-    <t>49800000,50,20,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2020万","抽奖券*30","太阳*10",</t>
-  </si>
-  <si>
-    <t>欢乐庆典-冲金鸡</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"990万","抽奖券*20","太阳*2",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9800000,20,2,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"483万","抽奖券*3","水滴*6",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_1",</t>
-  </si>
-  <si>
-    <t>4800000,10,6,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"200万","抽奖券*4","水滴*2",</t>
-  </si>
-  <si>
-    <t>"60万","抽奖券*1","水滴*1",</t>
-  </si>
-  <si>
-    <t>600000,1,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "actp_no_cjj_gej_exchange" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "actp_cjj_gej_exchange" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,9999,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,9999,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,9999,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,9999,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,9999,0</t>
+    <t>9900000,20,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4830000,10,6,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9900000,20,5,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -11045,10 +11047,10 @@
   <dimension ref="A1:AN508"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="V480" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="Q480" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W497" sqref="W497:W508"/>
+      <selection pane="bottomRight" activeCell="R497" sqref="R497:R508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -42049,7 +42051,7 @@
         <v>1799</v>
       </c>
       <c r="W486" s="19" t="s">
-        <v>1882</v>
+        <v>1871</v>
       </c>
       <c r="X486" s="19">
         <v>9999999</v>
@@ -42834,14 +42836,14 @@
         <v>1851</v>
       </c>
       <c r="R497" s="61" t="s">
-        <v>1852</v>
+        <v>1879</v>
       </c>
       <c r="S497" s="60"/>
       <c r="T497" s="60"/>
       <c r="U497" s="60"/>
       <c r="V497" s="60"/>
       <c r="W497" s="60" t="s">
-        <v>1884</v>
+        <v>1873</v>
       </c>
       <c r="X497" s="60">
         <v>99999999</v>
@@ -42889,7 +42891,7 @@
         <v>1848</v>
       </c>
       <c r="J498" s="60" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="K498" s="60"/>
       <c r="L498" s="60">
@@ -42911,14 +42913,14 @@
         <v>1851</v>
       </c>
       <c r="R498" s="61" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
       <c r="S498" s="60"/>
       <c r="T498" s="60"/>
       <c r="U498" s="60"/>
       <c r="V498" s="60"/>
       <c r="W498" s="60" t="s">
-        <v>1885</v>
+        <v>1874</v>
       </c>
       <c r="X498" s="60">
         <v>99999999</v>
@@ -42966,7 +42968,7 @@
         <v>1848</v>
       </c>
       <c r="J499" s="60" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="K499" s="60"/>
       <c r="L499" s="60">
@@ -42988,14 +42990,14 @@
         <v>1851</v>
       </c>
       <c r="R499" s="61" t="s">
-        <v>1856</v>
+        <v>1888</v>
       </c>
       <c r="S499" s="60"/>
       <c r="T499" s="60"/>
       <c r="U499" s="60"/>
       <c r="V499" s="60"/>
       <c r="W499" s="60" t="s">
-        <v>1885</v>
+        <v>1874</v>
       </c>
       <c r="X499" s="60">
         <v>99999999</v>
@@ -43043,7 +43045,7 @@
         <v>1848</v>
       </c>
       <c r="J500" s="60" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="K500" s="60"/>
       <c r="L500" s="60">
@@ -43056,7 +43058,7 @@
         <v>0</v>
       </c>
       <c r="O500" s="60" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
       <c r="P500" s="60">
         <v>4800</v>
@@ -43065,14 +43067,14 @@
         <v>1851</v>
       </c>
       <c r="R500" s="61" t="s">
-        <v>1859</v>
+        <v>1883</v>
       </c>
       <c r="S500" s="60"/>
       <c r="T500" s="60"/>
       <c r="U500" s="60"/>
       <c r="V500" s="60"/>
       <c r="W500" s="60" t="s">
-        <v>1885</v>
+        <v>1874</v>
       </c>
       <c r="X500" s="60">
         <v>99999999</v>
@@ -43120,7 +43122,7 @@
         <v>1848</v>
       </c>
       <c r="J501" s="60" t="s">
-        <v>1860</v>
+        <v>1856</v>
       </c>
       <c r="K501" s="60"/>
       <c r="L501" s="60">
@@ -43142,14 +43144,14 @@
         <v>1851</v>
       </c>
       <c r="R501" s="61" t="s">
-        <v>1862</v>
+        <v>1884</v>
       </c>
       <c r="S501" s="60"/>
       <c r="T501" s="60"/>
       <c r="U501" s="60"/>
       <c r="V501" s="60"/>
       <c r="W501" s="60" t="s">
-        <v>1886</v>
+        <v>1875</v>
       </c>
       <c r="X501" s="60">
         <v>99999999</v>
@@ -43194,10 +43196,10 @@
       </c>
       <c r="H502" s="60"/>
       <c r="I502" s="60" t="s">
-        <v>1863</v>
+        <v>1857</v>
       </c>
       <c r="J502" s="60" t="s">
-        <v>1864</v>
+        <v>1858</v>
       </c>
       <c r="K502" s="60"/>
       <c r="L502" s="60">
@@ -43219,14 +43221,14 @@
         <v>1851</v>
       </c>
       <c r="R502" s="61" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
       <c r="S502" s="60"/>
       <c r="T502" s="60"/>
       <c r="U502" s="60"/>
       <c r="V502" s="60"/>
       <c r="W502" s="60" t="s">
-        <v>1885</v>
+        <v>1874</v>
       </c>
       <c r="X502" s="60">
         <v>99999999</v>
@@ -43271,10 +43273,10 @@
       </c>
       <c r="H503" s="76"/>
       <c r="I503" s="76" t="s">
-        <v>1866</v>
+        <v>1859</v>
       </c>
       <c r="J503" s="76" t="s">
-        <v>1867</v>
+        <v>1860</v>
       </c>
       <c r="K503" s="76"/>
       <c r="L503" s="76">
@@ -43293,17 +43295,17 @@
         <v>49800</v>
       </c>
       <c r="Q503" s="76" t="s">
-        <v>1868</v>
+        <v>1861</v>
       </c>
       <c r="R503" s="92" t="s">
-        <v>1869</v>
+        <v>1881</v>
       </c>
       <c r="S503" s="76"/>
       <c r="T503" s="76"/>
       <c r="U503" s="76"/>
       <c r="V503" s="76"/>
       <c r="W503" s="60" t="s">
-        <v>1887</v>
+        <v>1876</v>
       </c>
       <c r="X503" s="76">
         <v>99999999</v>
@@ -43348,10 +43350,10 @@
       </c>
       <c r="H504" s="76"/>
       <c r="I504" s="76" t="s">
-        <v>1866</v>
+        <v>1859</v>
       </c>
       <c r="J504" s="76" t="s">
-        <v>1870</v>
+        <v>1862</v>
       </c>
       <c r="K504" s="76"/>
       <c r="L504" s="76">
@@ -43370,17 +43372,17 @@
         <v>19800</v>
       </c>
       <c r="Q504" s="76" t="s">
-        <v>1868</v>
+        <v>1861</v>
       </c>
       <c r="R504" s="92" t="s">
-        <v>1854</v>
+        <v>1882</v>
       </c>
       <c r="S504" s="76"/>
       <c r="T504" s="76"/>
       <c r="U504" s="76"/>
       <c r="V504" s="76"/>
       <c r="W504" s="60" t="s">
-        <v>1885</v>
+        <v>1874</v>
       </c>
       <c r="X504" s="76">
         <v>99999999</v>
@@ -43425,10 +43427,10 @@
       </c>
       <c r="H505" s="76"/>
       <c r="I505" s="76" t="s">
-        <v>1871</v>
+        <v>1863</v>
       </c>
       <c r="J505" s="76" t="s">
-        <v>1872</v>
+        <v>1864</v>
       </c>
       <c r="K505" s="76"/>
       <c r="L505" s="76">
@@ -43447,17 +43449,17 @@
         <v>9800</v>
       </c>
       <c r="Q505" s="76" t="s">
-        <v>1868</v>
+        <v>1861</v>
       </c>
       <c r="R505" s="92" t="s">
-        <v>1873</v>
+        <v>1886</v>
       </c>
       <c r="S505" s="76"/>
       <c r="T505" s="76"/>
       <c r="U505" s="76"/>
       <c r="V505" s="76"/>
       <c r="W505" s="60" t="s">
-        <v>1886</v>
+        <v>1875</v>
       </c>
       <c r="X505" s="76">
         <v>99999999</v>
@@ -43502,10 +43504,10 @@
       </c>
       <c r="H506" s="76"/>
       <c r="I506" s="76" t="s">
-        <v>1871</v>
+        <v>1863</v>
       </c>
       <c r="J506" s="76" t="s">
-        <v>1874</v>
+        <v>1865</v>
       </c>
       <c r="K506" s="76"/>
       <c r="L506" s="76">
@@ -43524,17 +43526,17 @@
         <v>4800</v>
       </c>
       <c r="Q506" s="76" t="s">
-        <v>1875</v>
+        <v>1866</v>
       </c>
       <c r="R506" s="92" t="s">
-        <v>1876</v>
+        <v>1887</v>
       </c>
       <c r="S506" s="76"/>
       <c r="T506" s="76"/>
       <c r="U506" s="76"/>
       <c r="V506" s="76"/>
       <c r="W506" s="60" t="s">
-        <v>1883</v>
+        <v>1872</v>
       </c>
       <c r="X506" s="76">
         <v>99999999</v>
@@ -43579,10 +43581,10 @@
       </c>
       <c r="H507" s="76"/>
       <c r="I507" s="76" t="s">
-        <v>1871</v>
+        <v>1863</v>
       </c>
       <c r="J507" s="76" t="s">
-        <v>1877</v>
+        <v>1867</v>
       </c>
       <c r="K507" s="76"/>
       <c r="L507" s="76">
@@ -43601,17 +43603,17 @@
         <v>2000</v>
       </c>
       <c r="Q507" s="76" t="s">
-        <v>1875</v>
+        <v>1866</v>
       </c>
       <c r="R507" s="92" t="s">
-        <v>1861</v>
+        <v>1877</v>
       </c>
       <c r="S507" s="76"/>
       <c r="T507" s="76"/>
       <c r="U507" s="76"/>
       <c r="V507" s="76"/>
       <c r="W507" s="60" t="s">
-        <v>1884</v>
+        <v>1873</v>
       </c>
       <c r="X507" s="76">
         <v>99999999</v>
@@ -43656,10 +43658,10 @@
       </c>
       <c r="H508" s="76"/>
       <c r="I508" s="76" t="s">
-        <v>1871</v>
+        <v>1863</v>
       </c>
       <c r="J508" s="76" t="s">
-        <v>1878</v>
+        <v>1868</v>
       </c>
       <c r="K508" s="76"/>
       <c r="L508" s="76">
@@ -43678,17 +43680,17 @@
         <v>600</v>
       </c>
       <c r="Q508" s="76" t="s">
-        <v>1875</v>
+        <v>1866</v>
       </c>
       <c r="R508" s="92" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="S508" s="76"/>
       <c r="T508" s="76"/>
       <c r="U508" s="76"/>
       <c r="V508" s="76"/>
       <c r="W508" s="60" t="s">
-        <v>1886</v>
+        <v>1875</v>
       </c>
       <c r="X508" s="76">
         <v>99999999</v>
@@ -44685,7 +44687,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="28" t="s">
-        <v>1880</v>
+        <v>1869</v>
       </c>
       <c r="C67" s="25">
         <v>1</v>
@@ -44699,7 +44701,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="28" t="s">
-        <v>1881</v>
+        <v>1870</v>
       </c>
       <c r="C68" s="25">
         <v>1</v>

--- a/config_debug/shoping_config_cjj.xlsx
+++ b/config_debug/shoping_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4167" uniqueCount="1889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4257" uniqueCount="1930">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7980,13 +7980,25 @@
     <t>"jing_bi","prop_qdlb_cjq","prop_3d_fish_doubled",</t>
   </si>
   <si>
+    <t>49800000,50,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>"2020万","抽奖券*30","双倍奖励*10",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>19800000,30,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>"990万","抽奖券*20","双倍奖励*5",</t>
   </si>
   <si>
+    <t>9800000,20,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>"483万","抽奖券*3","双倍奖励*3",</t>
   </si>
   <si>
@@ -7994,9 +8006,21 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>4800000,10,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>"200万","抽奖券*4","双倍奖励*2",</t>
   </si>
   <si>
+    <t>2000000,4,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,4,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>欢乐庆典-捕鱼</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8004,6 +8028,10 @@
     <t>"60万","抽奖券*1","双倍奖励*1",</t>
   </si>
   <si>
+    <t>600000,1,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>欢乐庆典-冲金鸡</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8015,6 +8043,10 @@
     <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_2",</t>
   </si>
   <si>
+    <t>49800000,50,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>"2020万","抽奖券*30","太阳*10",</t>
   </si>
   <si>
@@ -8026,6 +8058,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>9800000,20,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>"483万","抽奖券*3","水滴*6",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8033,12 +8069,20 @@
     <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_1",</t>
   </si>
   <si>
+    <t>4800000,10,6,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>"200万","抽奖券*4","水滴*2",</t>
   </si>
   <si>
     <t>"60万","抽奖券*1","水滴*1",</t>
   </si>
   <si>
+    <t>600000,1,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>{type="permission_class",class_value = "actp_no_cjj_gej_exchange" }</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8047,73 +8091,187 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>幸运金币18元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"随机获得180万-500万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1850000,1950000,100,},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,5000000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运金币48元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"随机获得480万-1500万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{5000000,5200000,100,},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,15000000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运金币98元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"随机获得980万-3000万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{10000000,10800000,100,},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,30000000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包-欢乐捕鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5020万金币","双倍奖励卡*10","传说宝箱*15",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_csbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>50200000,10,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>86400,1,0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>86400,9999,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,9999,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,9999,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,9999,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,9999,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000000,4,2,</t>
-  </si>
-  <si>
-    <t>600000,1,1,</t>
-  </si>
-  <si>
-    <t>51800000,50,15,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200000,30,10,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>51800000,50,20,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200000,30,10,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4830000,10,3,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000000,4,2,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>600000,1,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9900000,20,2,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4830000,10,6,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9900000,20,5,</t>
+    <t>"2010万金币","双倍奖励卡*6","传说宝箱*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20100000,6,5,</t>
+  </si>
+  <si>
+    <t>"996万金币","双倍奖励卡*4","史诗宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_ssbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9960000,4,3,</t>
+  </si>
+  <si>
+    <t>"488万金币","双倍奖励卡*2","稀有宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_xybox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4880000,2,3,</t>
+  </si>
+  <si>
+    <t>欢乐礼包-冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5000万金币","太阳*10","传说宝箱*15",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_2","prop_hqjnh_csbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000000,4,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2000万金币","太阳*6","传说宝箱*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000,2,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"996万金币","水滴*4","史诗宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hqjnh_ssbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9960000,8,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hqjnh_xybox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4880000,4,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "hqjnh_046_nor_hllb" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "hqjnh_046_cjj_hllb" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>周卡</t>
+  </si>
+  <si>
+    <t>冲金鸡</t>
+  </si>
+  <si>
+    <t>1000000,1</t>
+  </si>
+  <si>
+    <t>{valid_time=604800},</t>
+  </si>
+  <si>
+    <t>604800,1,0</t>
+  </si>
+  <si>
+    <t>"488万金币","水滴*2","稀有宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"100万金币","首次救济金为6万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","obj_week_card",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -11044,13 +11202,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN508"/>
+  <dimension ref="A1:AN520"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="Q480" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="M505" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R497" sqref="R497:R508"/>
+      <selection pane="bottomRight" activeCell="Q520" sqref="Q520"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -42051,7 +42209,7 @@
         <v>1799</v>
       </c>
       <c r="W486" s="19" t="s">
-        <v>1871</v>
+        <v>543</v>
       </c>
       <c r="X486" s="19">
         <v>9999999</v>
@@ -42836,14 +42994,14 @@
         <v>1851</v>
       </c>
       <c r="R497" s="61" t="s">
-        <v>1879</v>
+        <v>1852</v>
       </c>
       <c r="S497" s="60"/>
       <c r="T497" s="60"/>
       <c r="U497" s="60"/>
       <c r="V497" s="60"/>
       <c r="W497" s="60" t="s">
-        <v>1873</v>
+        <v>540</v>
       </c>
       <c r="X497" s="60">
         <v>99999999</v>
@@ -42891,7 +43049,7 @@
         <v>1848</v>
       </c>
       <c r="J498" s="60" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="K498" s="60"/>
       <c r="L498" s="60">
@@ -42913,14 +43071,14 @@
         <v>1851</v>
       </c>
       <c r="R498" s="61" t="s">
-        <v>1880</v>
+        <v>1854</v>
       </c>
       <c r="S498" s="60"/>
       <c r="T498" s="60"/>
       <c r="U498" s="60"/>
       <c r="V498" s="60"/>
       <c r="W498" s="60" t="s">
-        <v>1874</v>
+        <v>540</v>
       </c>
       <c r="X498" s="60">
         <v>99999999</v>
@@ -42968,7 +43126,7 @@
         <v>1848</v>
       </c>
       <c r="J499" s="60" t="s">
-        <v>1853</v>
+        <v>1855</v>
       </c>
       <c r="K499" s="60"/>
       <c r="L499" s="60">
@@ -42990,14 +43148,14 @@
         <v>1851</v>
       </c>
       <c r="R499" s="61" t="s">
-        <v>1888</v>
+        <v>1856</v>
       </c>
       <c r="S499" s="60"/>
       <c r="T499" s="60"/>
       <c r="U499" s="60"/>
       <c r="V499" s="60"/>
       <c r="W499" s="60" t="s">
-        <v>1874</v>
+        <v>540</v>
       </c>
       <c r="X499" s="60">
         <v>99999999</v>
@@ -43045,7 +43203,7 @@
         <v>1848</v>
       </c>
       <c r="J500" s="60" t="s">
-        <v>1854</v>
+        <v>1857</v>
       </c>
       <c r="K500" s="60"/>
       <c r="L500" s="60">
@@ -43058,7 +43216,7 @@
         <v>0</v>
       </c>
       <c r="O500" s="60" t="s">
-        <v>1855</v>
+        <v>1858</v>
       </c>
       <c r="P500" s="60">
         <v>4800</v>
@@ -43067,14 +43225,14 @@
         <v>1851</v>
       </c>
       <c r="R500" s="61" t="s">
-        <v>1883</v>
+        <v>1859</v>
       </c>
       <c r="S500" s="60"/>
       <c r="T500" s="60"/>
       <c r="U500" s="60"/>
       <c r="V500" s="60"/>
       <c r="W500" s="60" t="s">
-        <v>1874</v>
+        <v>540</v>
       </c>
       <c r="X500" s="60">
         <v>99999999</v>
@@ -43122,7 +43280,7 @@
         <v>1848</v>
       </c>
       <c r="J501" s="60" t="s">
-        <v>1856</v>
+        <v>1860</v>
       </c>
       <c r="K501" s="60"/>
       <c r="L501" s="60">
@@ -43144,14 +43302,14 @@
         <v>1851</v>
       </c>
       <c r="R501" s="61" t="s">
-        <v>1884</v>
+        <v>1862</v>
       </c>
       <c r="S501" s="60"/>
       <c r="T501" s="60"/>
       <c r="U501" s="60"/>
       <c r="V501" s="60"/>
       <c r="W501" s="60" t="s">
-        <v>1875</v>
+        <v>540</v>
       </c>
       <c r="X501" s="60">
         <v>99999999</v>
@@ -43196,10 +43354,10 @@
       </c>
       <c r="H502" s="60"/>
       <c r="I502" s="60" t="s">
-        <v>1857</v>
+        <v>1863</v>
       </c>
       <c r="J502" s="60" t="s">
-        <v>1858</v>
+        <v>1864</v>
       </c>
       <c r="K502" s="60"/>
       <c r="L502" s="60">
@@ -43221,14 +43379,14 @@
         <v>1851</v>
       </c>
       <c r="R502" s="61" t="s">
-        <v>1885</v>
+        <v>1865</v>
       </c>
       <c r="S502" s="60"/>
       <c r="T502" s="60"/>
       <c r="U502" s="60"/>
       <c r="V502" s="60"/>
       <c r="W502" s="60" t="s">
-        <v>1874</v>
+        <v>540</v>
       </c>
       <c r="X502" s="60">
         <v>99999999</v>
@@ -43273,10 +43431,10 @@
       </c>
       <c r="H503" s="76"/>
       <c r="I503" s="76" t="s">
-        <v>1859</v>
+        <v>1866</v>
       </c>
       <c r="J503" s="76" t="s">
-        <v>1860</v>
+        <v>1867</v>
       </c>
       <c r="K503" s="76"/>
       <c r="L503" s="76">
@@ -43295,17 +43453,17 @@
         <v>49800</v>
       </c>
       <c r="Q503" s="76" t="s">
-        <v>1861</v>
+        <v>1868</v>
       </c>
       <c r="R503" s="92" t="s">
-        <v>1881</v>
+        <v>1869</v>
       </c>
       <c r="S503" s="76"/>
       <c r="T503" s="76"/>
       <c r="U503" s="76"/>
       <c r="V503" s="76"/>
-      <c r="W503" s="60" t="s">
-        <v>1876</v>
+      <c r="W503" s="76" t="s">
+        <v>540</v>
       </c>
       <c r="X503" s="76">
         <v>99999999</v>
@@ -43350,10 +43508,10 @@
       </c>
       <c r="H504" s="76"/>
       <c r="I504" s="76" t="s">
-        <v>1859</v>
+        <v>1866</v>
       </c>
       <c r="J504" s="76" t="s">
-        <v>1862</v>
+        <v>1870</v>
       </c>
       <c r="K504" s="76"/>
       <c r="L504" s="76">
@@ -43372,17 +43530,17 @@
         <v>19800</v>
       </c>
       <c r="Q504" s="76" t="s">
-        <v>1861</v>
+        <v>1868</v>
       </c>
       <c r="R504" s="92" t="s">
-        <v>1882</v>
+        <v>1854</v>
       </c>
       <c r="S504" s="76"/>
       <c r="T504" s="76"/>
       <c r="U504" s="76"/>
       <c r="V504" s="76"/>
-      <c r="W504" s="60" t="s">
-        <v>1874</v>
+      <c r="W504" s="76" t="s">
+        <v>540</v>
       </c>
       <c r="X504" s="76">
         <v>99999999</v>
@@ -43427,10 +43585,10 @@
       </c>
       <c r="H505" s="76"/>
       <c r="I505" s="76" t="s">
-        <v>1863</v>
+        <v>1871</v>
       </c>
       <c r="J505" s="76" t="s">
-        <v>1864</v>
+        <v>1872</v>
       </c>
       <c r="K505" s="76"/>
       <c r="L505" s="76">
@@ -43449,17 +43607,17 @@
         <v>9800</v>
       </c>
       <c r="Q505" s="76" t="s">
-        <v>1861</v>
+        <v>1868</v>
       </c>
       <c r="R505" s="92" t="s">
-        <v>1886</v>
+        <v>1873</v>
       </c>
       <c r="S505" s="76"/>
       <c r="T505" s="76"/>
       <c r="U505" s="76"/>
       <c r="V505" s="76"/>
-      <c r="W505" s="60" t="s">
-        <v>1875</v>
+      <c r="W505" s="76" t="s">
+        <v>540</v>
       </c>
       <c r="X505" s="76">
         <v>99999999</v>
@@ -43504,10 +43662,10 @@
       </c>
       <c r="H506" s="76"/>
       <c r="I506" s="76" t="s">
-        <v>1863</v>
+        <v>1871</v>
       </c>
       <c r="J506" s="76" t="s">
-        <v>1865</v>
+        <v>1874</v>
       </c>
       <c r="K506" s="76"/>
       <c r="L506" s="76">
@@ -43526,17 +43684,17 @@
         <v>4800</v>
       </c>
       <c r="Q506" s="76" t="s">
-        <v>1866</v>
+        <v>1875</v>
       </c>
       <c r="R506" s="92" t="s">
-        <v>1887</v>
+        <v>1876</v>
       </c>
       <c r="S506" s="76"/>
       <c r="T506" s="76"/>
       <c r="U506" s="76"/>
       <c r="V506" s="76"/>
-      <c r="W506" s="60" t="s">
-        <v>1872</v>
+      <c r="W506" s="76" t="s">
+        <v>540</v>
       </c>
       <c r="X506" s="76">
         <v>99999999</v>
@@ -43581,10 +43739,10 @@
       </c>
       <c r="H507" s="76"/>
       <c r="I507" s="76" t="s">
-        <v>1863</v>
+        <v>1871</v>
       </c>
       <c r="J507" s="76" t="s">
-        <v>1867</v>
+        <v>1877</v>
       </c>
       <c r="K507" s="76"/>
       <c r="L507" s="76">
@@ -43603,17 +43761,17 @@
         <v>2000</v>
       </c>
       <c r="Q507" s="76" t="s">
-        <v>1866</v>
+        <v>1875</v>
       </c>
       <c r="R507" s="92" t="s">
-        <v>1877</v>
+        <v>1861</v>
       </c>
       <c r="S507" s="76"/>
       <c r="T507" s="76"/>
       <c r="U507" s="76"/>
       <c r="V507" s="76"/>
-      <c r="W507" s="60" t="s">
-        <v>1873</v>
+      <c r="W507" s="76" t="s">
+        <v>540</v>
       </c>
       <c r="X507" s="76">
         <v>99999999</v>
@@ -43658,10 +43816,10 @@
       </c>
       <c r="H508" s="76"/>
       <c r="I508" s="76" t="s">
-        <v>1863</v>
+        <v>1871</v>
       </c>
       <c r="J508" s="76" t="s">
-        <v>1868</v>
+        <v>1878</v>
       </c>
       <c r="K508" s="76"/>
       <c r="L508" s="76">
@@ -43680,17 +43838,17 @@
         <v>600</v>
       </c>
       <c r="Q508" s="76" t="s">
-        <v>1866</v>
+        <v>1875</v>
       </c>
       <c r="R508" s="92" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="S508" s="76"/>
       <c r="T508" s="76"/>
       <c r="U508" s="76"/>
       <c r="V508" s="76"/>
-      <c r="W508" s="60" t="s">
-        <v>1875</v>
+      <c r="W508" s="76" t="s">
+        <v>540</v>
       </c>
       <c r="X508" s="76">
         <v>99999999</v>
@@ -43714,6 +43872,792 @@
         <v>1</v>
       </c>
       <c r="AM508" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A509" s="5">
+        <v>508</v>
+      </c>
+      <c r="B509" s="5">
+        <v>10425</v>
+      </c>
+      <c r="F509" s="5">
+        <v>1</v>
+      </c>
+      <c r="G509" s="5" t="s">
+        <v>1882</v>
+      </c>
+      <c r="J509" s="5" t="s">
+        <v>1883</v>
+      </c>
+      <c r="L509" s="5">
+        <v>-4</v>
+      </c>
+      <c r="M509" s="5">
+        <v>1</v>
+      </c>
+      <c r="N509" s="5">
+        <v>0</v>
+      </c>
+      <c r="O509" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="P509" s="5">
+        <v>1800</v>
+      </c>
+      <c r="R509" s="10"/>
+      <c r="W509" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="X509" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y509" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z509" s="5">
+        <v>2552233600</v>
+      </c>
+      <c r="AB509" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC509" s="5" t="s">
+        <v>1884</v>
+      </c>
+      <c r="AD509" s="10" t="s">
+        <v>1885</v>
+      </c>
+      <c r="AH509" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI509" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A510" s="5">
+        <v>509</v>
+      </c>
+      <c r="B510" s="5">
+        <v>10426</v>
+      </c>
+      <c r="F510" s="5">
+        <v>1</v>
+      </c>
+      <c r="G510" s="5" t="s">
+        <v>1886</v>
+      </c>
+      <c r="J510" s="5" t="s">
+        <v>1887</v>
+      </c>
+      <c r="L510" s="5">
+        <v>-4</v>
+      </c>
+      <c r="M510" s="5">
+        <v>1</v>
+      </c>
+      <c r="N510" s="5">
+        <v>0</v>
+      </c>
+      <c r="O510" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="P510" s="5">
+        <v>4800</v>
+      </c>
+      <c r="R510" s="10"/>
+      <c r="W510" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="X510" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y510" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z510" s="5">
+        <v>2552233600</v>
+      </c>
+      <c r="AB510" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC510" s="5" t="s">
+        <v>1888</v>
+      </c>
+      <c r="AD510" s="10" t="s">
+        <v>1889</v>
+      </c>
+      <c r="AH510" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI510" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A511" s="5">
+        <v>510</v>
+      </c>
+      <c r="B511" s="5">
+        <v>10427</v>
+      </c>
+      <c r="F511" s="5">
+        <v>1</v>
+      </c>
+      <c r="G511" s="5" t="s">
+        <v>1890</v>
+      </c>
+      <c r="J511" s="5" t="s">
+        <v>1891</v>
+      </c>
+      <c r="L511" s="5">
+        <v>-4</v>
+      </c>
+      <c r="M511" s="5">
+        <v>1</v>
+      </c>
+      <c r="N511" s="5">
+        <v>0</v>
+      </c>
+      <c r="O511" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="P511" s="5">
+        <v>9800</v>
+      </c>
+      <c r="R511" s="10"/>
+      <c r="W511" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="X511" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y511" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z511" s="5">
+        <v>2552233600</v>
+      </c>
+      <c r="AB511" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC511" s="5" t="s">
+        <v>1892</v>
+      </c>
+      <c r="AD511" s="10" t="s">
+        <v>1893</v>
+      </c>
+      <c r="AH511" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI511" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:39" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A512" s="53">
+        <v>511</v>
+      </c>
+      <c r="B512" s="53">
+        <v>10428</v>
+      </c>
+      <c r="F512" s="53">
+        <v>1</v>
+      </c>
+      <c r="G512" s="53" t="s">
+        <v>1894</v>
+      </c>
+      <c r="I512" s="53" t="s">
+        <v>1895</v>
+      </c>
+      <c r="J512" s="53" t="s">
+        <v>1896</v>
+      </c>
+      <c r="L512" s="53">
+        <v>-33</v>
+      </c>
+      <c r="M512" s="53">
+        <v>0</v>
+      </c>
+      <c r="N512" s="53">
+        <v>0</v>
+      </c>
+      <c r="O512" s="53" t="s">
+        <v>1897</v>
+      </c>
+      <c r="P512" s="53">
+        <v>49800</v>
+      </c>
+      <c r="Q512" s="53" t="s">
+        <v>1898</v>
+      </c>
+      <c r="R512" s="95" t="s">
+        <v>1899</v>
+      </c>
+      <c r="W512" s="53" t="s">
+        <v>1900</v>
+      </c>
+      <c r="X512" s="53">
+        <v>99999999</v>
+      </c>
+      <c r="Y512" s="53">
+        <v>1610409600</v>
+      </c>
+      <c r="Z512" s="53">
+        <v>1610985599</v>
+      </c>
+      <c r="AA512" s="53">
+        <v>68</v>
+      </c>
+      <c r="AH512" s="53">
+        <v>1</v>
+      </c>
+      <c r="AI512" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL512" s="53">
+        <v>1</v>
+      </c>
+      <c r="AM512" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:39" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A513" s="53">
+        <v>512</v>
+      </c>
+      <c r="B513" s="53">
+        <v>10429</v>
+      </c>
+      <c r="F513" s="53">
+        <v>1</v>
+      </c>
+      <c r="G513" s="53" t="s">
+        <v>1894</v>
+      </c>
+      <c r="I513" s="53" t="s">
+        <v>1895</v>
+      </c>
+      <c r="J513" s="53" t="s">
+        <v>1901</v>
+      </c>
+      <c r="L513" s="53">
+        <v>-33</v>
+      </c>
+      <c r="M513" s="53">
+        <v>0</v>
+      </c>
+      <c r="N513" s="53">
+        <v>0</v>
+      </c>
+      <c r="O513" s="53" t="s">
+        <v>1897</v>
+      </c>
+      <c r="P513" s="53">
+        <v>19800</v>
+      </c>
+      <c r="Q513" s="53" t="s">
+        <v>1898</v>
+      </c>
+      <c r="R513" s="95" t="s">
+        <v>1902</v>
+      </c>
+      <c r="W513" s="53" t="s">
+        <v>1900</v>
+      </c>
+      <c r="X513" s="53">
+        <v>99999999</v>
+      </c>
+      <c r="Y513" s="53">
+        <v>1610409600</v>
+      </c>
+      <c r="Z513" s="53">
+        <v>1610985599</v>
+      </c>
+      <c r="AA513" s="53">
+        <v>68</v>
+      </c>
+      <c r="AH513" s="53">
+        <v>1</v>
+      </c>
+      <c r="AI513" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL513" s="53">
+        <v>1</v>
+      </c>
+      <c r="AM513" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:39" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A514" s="53">
+        <v>513</v>
+      </c>
+      <c r="B514" s="53">
+        <v>10430</v>
+      </c>
+      <c r="F514" s="53">
+        <v>1</v>
+      </c>
+      <c r="G514" s="53" t="s">
+        <v>1894</v>
+      </c>
+      <c r="I514" s="53" t="s">
+        <v>1895</v>
+      </c>
+      <c r="J514" s="53" t="s">
+        <v>1903</v>
+      </c>
+      <c r="L514" s="53">
+        <v>-33</v>
+      </c>
+      <c r="M514" s="53">
+        <v>0</v>
+      </c>
+      <c r="N514" s="53">
+        <v>0</v>
+      </c>
+      <c r="O514" s="53" t="s">
+        <v>1897</v>
+      </c>
+      <c r="P514" s="53">
+        <v>9800</v>
+      </c>
+      <c r="Q514" s="53" t="s">
+        <v>1904</v>
+      </c>
+      <c r="R514" s="95" t="s">
+        <v>1905</v>
+      </c>
+      <c r="W514" s="53" t="s">
+        <v>1900</v>
+      </c>
+      <c r="X514" s="53">
+        <v>99999999</v>
+      </c>
+      <c r="Y514" s="53">
+        <v>1610409600</v>
+      </c>
+      <c r="Z514" s="53">
+        <v>1610985599</v>
+      </c>
+      <c r="AA514" s="53">
+        <v>68</v>
+      </c>
+      <c r="AH514" s="53">
+        <v>1</v>
+      </c>
+      <c r="AI514" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL514" s="53">
+        <v>1</v>
+      </c>
+      <c r="AM514" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:39" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A515" s="53">
+        <v>514</v>
+      </c>
+      <c r="B515" s="53">
+        <v>10431</v>
+      </c>
+      <c r="F515" s="53">
+        <v>1</v>
+      </c>
+      <c r="G515" s="53" t="s">
+        <v>1894</v>
+      </c>
+      <c r="I515" s="53" t="s">
+        <v>1895</v>
+      </c>
+      <c r="J515" s="53" t="s">
+        <v>1906</v>
+      </c>
+      <c r="L515" s="53">
+        <v>-33</v>
+      </c>
+      <c r="M515" s="53">
+        <v>0</v>
+      </c>
+      <c r="N515" s="53">
+        <v>0</v>
+      </c>
+      <c r="O515" s="53" t="s">
+        <v>1897</v>
+      </c>
+      <c r="P515" s="53">
+        <v>4800</v>
+      </c>
+      <c r="Q515" s="53" t="s">
+        <v>1907</v>
+      </c>
+      <c r="R515" s="95" t="s">
+        <v>1908</v>
+      </c>
+      <c r="W515" s="53" t="s">
+        <v>1900</v>
+      </c>
+      <c r="X515" s="53">
+        <v>99999999</v>
+      </c>
+      <c r="Y515" s="53">
+        <v>1610409600</v>
+      </c>
+      <c r="Z515" s="53">
+        <v>1610985599</v>
+      </c>
+      <c r="AA515" s="53">
+        <v>68</v>
+      </c>
+      <c r="AH515" s="53">
+        <v>1</v>
+      </c>
+      <c r="AI515" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL515" s="53">
+        <v>1</v>
+      </c>
+      <c r="AM515" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:39" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A516" s="53">
+        <v>515</v>
+      </c>
+      <c r="B516" s="53">
+        <v>10432</v>
+      </c>
+      <c r="F516" s="53">
+        <v>1</v>
+      </c>
+      <c r="G516" s="53" t="s">
+        <v>1894</v>
+      </c>
+      <c r="I516" s="53" t="s">
+        <v>1909</v>
+      </c>
+      <c r="J516" s="53" t="s">
+        <v>1910</v>
+      </c>
+      <c r="L516" s="53">
+        <v>-33</v>
+      </c>
+      <c r="M516" s="53">
+        <v>0</v>
+      </c>
+      <c r="N516" s="53">
+        <v>0</v>
+      </c>
+      <c r="O516" s="53" t="s">
+        <v>1897</v>
+      </c>
+      <c r="P516" s="53">
+        <v>49800</v>
+      </c>
+      <c r="Q516" s="53" t="s">
+        <v>1911</v>
+      </c>
+      <c r="R516" s="95" t="s">
+        <v>1912</v>
+      </c>
+      <c r="W516" s="53" t="s">
+        <v>1900</v>
+      </c>
+      <c r="X516" s="53">
+        <v>99999999</v>
+      </c>
+      <c r="Y516" s="53">
+        <v>1610409600</v>
+      </c>
+      <c r="Z516" s="53">
+        <v>1610985599</v>
+      </c>
+      <c r="AA516" s="53">
+        <v>69</v>
+      </c>
+      <c r="AH516" s="53">
+        <v>1</v>
+      </c>
+      <c r="AI516" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL516" s="53">
+        <v>1</v>
+      </c>
+      <c r="AM516" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:39" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A517" s="53">
+        <v>516</v>
+      </c>
+      <c r="B517" s="53">
+        <v>10433</v>
+      </c>
+      <c r="F517" s="53">
+        <v>1</v>
+      </c>
+      <c r="G517" s="53" t="s">
+        <v>1894</v>
+      </c>
+      <c r="I517" s="53" t="s">
+        <v>1909</v>
+      </c>
+      <c r="J517" s="53" t="s">
+        <v>1913</v>
+      </c>
+      <c r="L517" s="53">
+        <v>-33</v>
+      </c>
+      <c r="M517" s="53">
+        <v>0</v>
+      </c>
+      <c r="N517" s="53">
+        <v>0</v>
+      </c>
+      <c r="O517" s="53" t="s">
+        <v>1897</v>
+      </c>
+      <c r="P517" s="53">
+        <v>19800</v>
+      </c>
+      <c r="Q517" s="53" t="s">
+        <v>1911</v>
+      </c>
+      <c r="R517" s="95" t="s">
+        <v>1914</v>
+      </c>
+      <c r="W517" s="53" t="s">
+        <v>1900</v>
+      </c>
+      <c r="X517" s="53">
+        <v>99999999</v>
+      </c>
+      <c r="Y517" s="53">
+        <v>1610409600</v>
+      </c>
+      <c r="Z517" s="53">
+        <v>1610985599</v>
+      </c>
+      <c r="AA517" s="53">
+        <v>69</v>
+      </c>
+      <c r="AH517" s="53">
+        <v>1</v>
+      </c>
+      <c r="AI517" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL517" s="53">
+        <v>1</v>
+      </c>
+      <c r="AM517" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:39" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A518" s="53">
+        <v>517</v>
+      </c>
+      <c r="B518" s="53">
+        <v>10434</v>
+      </c>
+      <c r="F518" s="53">
+        <v>1</v>
+      </c>
+      <c r="G518" s="53" t="s">
+        <v>1894</v>
+      </c>
+      <c r="I518" s="53" t="s">
+        <v>1909</v>
+      </c>
+      <c r="J518" s="53" t="s">
+        <v>1915</v>
+      </c>
+      <c r="L518" s="53">
+        <v>-33</v>
+      </c>
+      <c r="M518" s="53">
+        <v>0</v>
+      </c>
+      <c r="N518" s="53">
+        <v>0</v>
+      </c>
+      <c r="O518" s="53" t="s">
+        <v>1897</v>
+      </c>
+      <c r="P518" s="53">
+        <v>9800</v>
+      </c>
+      <c r="Q518" s="53" t="s">
+        <v>1916</v>
+      </c>
+      <c r="R518" s="95" t="s">
+        <v>1917</v>
+      </c>
+      <c r="W518" s="53" t="s">
+        <v>1900</v>
+      </c>
+      <c r="X518" s="53">
+        <v>99999999</v>
+      </c>
+      <c r="Y518" s="53">
+        <v>1610409600</v>
+      </c>
+      <c r="Z518" s="53">
+        <v>1610985599</v>
+      </c>
+      <c r="AA518" s="53">
+        <v>69</v>
+      </c>
+      <c r="AH518" s="53">
+        <v>1</v>
+      </c>
+      <c r="AI518" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL518" s="53">
+        <v>1</v>
+      </c>
+      <c r="AM518" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:39" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A519" s="53">
+        <v>518</v>
+      </c>
+      <c r="B519" s="53">
+        <v>10435</v>
+      </c>
+      <c r="F519" s="53">
+        <v>1</v>
+      </c>
+      <c r="G519" s="53" t="s">
+        <v>1894</v>
+      </c>
+      <c r="I519" s="53" t="s">
+        <v>1909</v>
+      </c>
+      <c r="J519" s="53" t="s">
+        <v>1927</v>
+      </c>
+      <c r="L519" s="53">
+        <v>-33</v>
+      </c>
+      <c r="M519" s="53">
+        <v>0</v>
+      </c>
+      <c r="N519" s="53">
+        <v>0</v>
+      </c>
+      <c r="O519" s="53" t="s">
+        <v>1897</v>
+      </c>
+      <c r="P519" s="53">
+        <v>4800</v>
+      </c>
+      <c r="Q519" s="53" t="s">
+        <v>1918</v>
+      </c>
+      <c r="R519" s="95" t="s">
+        <v>1919</v>
+      </c>
+      <c r="W519" s="53" t="s">
+        <v>1900</v>
+      </c>
+      <c r="X519" s="53">
+        <v>99999999</v>
+      </c>
+      <c r="Y519" s="53">
+        <v>1610409600</v>
+      </c>
+      <c r="Z519" s="53">
+        <v>1610985599</v>
+      </c>
+      <c r="AA519" s="53">
+        <v>69</v>
+      </c>
+      <c r="AH519" s="53">
+        <v>1</v>
+      </c>
+      <c r="AI519" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL519" s="53">
+        <v>1</v>
+      </c>
+      <c r="AM519" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A520" s="5">
+        <v>519</v>
+      </c>
+      <c r="B520" s="5">
+        <v>10436</v>
+      </c>
+      <c r="F520" s="5">
+        <v>1</v>
+      </c>
+      <c r="G520" s="5" t="s">
+        <v>1922</v>
+      </c>
+      <c r="I520" s="5" t="s">
+        <v>1923</v>
+      </c>
+      <c r="J520" s="5" t="s">
+        <v>1928</v>
+      </c>
+      <c r="L520" s="5">
+        <v>-23</v>
+      </c>
+      <c r="M520" s="5">
+        <v>1</v>
+      </c>
+      <c r="N520" s="5">
+        <v>0</v>
+      </c>
+      <c r="O520" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="P520" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Q520" s="5" t="s">
+        <v>1929</v>
+      </c>
+      <c r="R520" s="10" t="s">
+        <v>1924</v>
+      </c>
+      <c r="S520" s="5" t="s">
+        <v>1925</v>
+      </c>
+      <c r="W520" s="5" t="s">
+        <v>1926</v>
+      </c>
+      <c r="X520" s="5">
+        <v>99999999</v>
+      </c>
+      <c r="Y520" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z520" s="5">
+        <v>2552233600</v>
+      </c>
+      <c r="AH520" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI520" s="5">
         <v>1</v>
       </c>
     </row>
@@ -43727,10 +44671,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+      <selection activeCell="A69" sqref="A69:XFD70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -44687,7 +45631,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="28" t="s">
-        <v>1869</v>
+        <v>1880</v>
       </c>
       <c r="C67" s="25">
         <v>1</v>
@@ -44701,12 +45645,40 @@
         <v>67</v>
       </c>
       <c r="B68" s="28" t="s">
-        <v>1870</v>
+        <v>1881</v>
       </c>
       <c r="C68" s="25">
         <v>1</v>
       </c>
       <c r="D68" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="54">
+        <v>68</v>
+      </c>
+      <c r="B69" s="55" t="s">
+        <v>1920</v>
+      </c>
+      <c r="C69" s="54">
+        <v>1</v>
+      </c>
+      <c r="D69" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="54">
+        <v>69</v>
+      </c>
+      <c r="B70" s="55" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C70" s="54">
+        <v>1</v>
+      </c>
+      <c r="D70" s="54">
         <v>0</v>
       </c>
     </row>

--- a/config_debug/shoping_config_cjj.xlsx
+++ b/config_debug/shoping_config_cjj.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -9259,8 +9259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9408,7 +9408,9 @@
       <c r="D2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2">
+        <v>10330</v>
+      </c>
       <c r="G2" s="2">
         <v>10330</v>
       </c>
@@ -9489,7 +9491,9 @@
       <c r="D3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>85</v>
+      </c>
       <c r="G3" s="2">
         <v>85</v>
       </c>
@@ -9570,7 +9574,9 @@
       <c r="D4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>86</v>
+      </c>
       <c r="G4" s="2">
         <v>86</v>
       </c>
@@ -9651,7 +9657,9 @@
       <c r="D5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>87</v>
+      </c>
       <c r="G5" s="2">
         <v>87</v>
       </c>
@@ -9732,7 +9740,9 @@
       <c r="D6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>88</v>
+      </c>
       <c r="G6" s="2">
         <v>88</v>
       </c>
@@ -9813,7 +9823,9 @@
       <c r="D7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>89</v>
+      </c>
       <c r="G7" s="2">
         <v>89</v>
       </c>
@@ -9894,7 +9906,9 @@
       <c r="D8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2">
+        <v>109</v>
+      </c>
       <c r="G8" s="2">
         <v>109</v>
       </c>
@@ -9975,7 +9989,9 @@
       <c r="D9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2">
+        <v>10044</v>
+      </c>
       <c r="G9" s="2">
         <v>10044</v>
       </c>
@@ -10057,6 +10073,9 @@
         <v>42</v>
       </c>
       <c r="E10" s="23"/>
+      <c r="F10" s="11">
+        <v>10045</v>
+      </c>
       <c r="G10" s="11">
         <v>10045</v>
       </c>
@@ -10140,6 +10159,9 @@
       <c r="E11" s="23" t="s">
         <v>68</v>
       </c>
+      <c r="F11" s="11">
+        <v>90</v>
+      </c>
       <c r="G11" s="11">
         <v>90</v>
       </c>
@@ -11125,6 +11147,9 @@
         <v>42</v>
       </c>
       <c r="E24" s="23"/>
+      <c r="F24" s="11">
+        <v>10189</v>
+      </c>
       <c r="G24" s="11">
         <v>10189</v>
       </c>
@@ -11204,11 +11229,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN520"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="M505" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="M11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q520" sqref="Q520"/>
+      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -15062,7 +15087,7 @@
         <v>2</v>
       </c>
       <c r="F67" s="81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" s="81" t="s">
         <v>234</v>
@@ -15121,7 +15146,7 @@
         <v>3</v>
       </c>
       <c r="F68" s="81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" s="81" t="s">
         <v>236</v>
@@ -15180,7 +15205,7 @@
         <v>4</v>
       </c>
       <c r="F69" s="81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" s="81" t="s">
         <v>238</v>
@@ -15239,7 +15264,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" s="81" t="s">
         <v>240</v>
@@ -15298,7 +15323,7 @@
         <v>6</v>
       </c>
       <c r="F71" s="81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" s="81" t="s">
         <v>241</v>
@@ -16648,7 +16673,7 @@
         <v>109</v>
       </c>
       <c r="F94" s="85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" s="85" t="s">
         <v>265</v>
@@ -18682,7 +18707,7 @@
         <v>108</v>
       </c>
       <c r="F128" s="85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128" s="85" t="s">
         <v>331</v>
@@ -18741,7 +18766,7 @@
         <v>110</v>
       </c>
       <c r="F129" s="85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" s="85" t="s">
         <v>530</v>
@@ -28044,7 +28069,7 @@
         <v>111</v>
       </c>
       <c r="F273" s="85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G273" s="85" t="s">
         <v>533</v>
@@ -37493,7 +37518,7 @@
         <v>1</v>
       </c>
       <c r="F414" s="81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G414" s="81" t="s">
         <v>1242</v>

--- a/config_debug/shoping_config_cjj.xlsx
+++ b/config_debug/shoping_config_cjj.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -8200,10 +8200,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"5000万金币","太阳*10","传说宝箱*15",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"jing_bi","prop_guess_apple_bet_2","prop_hqjnh_csbox",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8212,18 +8208,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"2000万金币","太阳*6","传说宝箱*5",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>20000000,2,5,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"996万金币","水滴*4","史诗宝箱*3",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"jing_bi","prop_guess_apple_bet_1","prop_hqjnh_ssbox",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8263,15 +8251,27 @@
     <t>604800,1,0</t>
   </si>
   <si>
-    <t>"488万金币","水滴*2","稀有宝箱*3",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"100万金币","首次救济金为6万金币",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>"jing_bi","obj_week_card",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5000万金币","太阳*4","传说宝箱*15",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2000万金币","太阳*2","传说宝箱*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"996万金币","水滴*8","史诗宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"488万金币","水滴*4","稀有宝箱*3",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -9259,7 +9259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -11229,11 +11229,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN520"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="M11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H497" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomRight" activeCell="J516" sqref="J516:J519"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -44369,7 +44369,7 @@
         <v>1909</v>
       </c>
       <c r="J516" s="53" t="s">
-        <v>1910</v>
+        <v>1926</v>
       </c>
       <c r="L516" s="53">
         <v>-33</v>
@@ -44387,10 +44387,10 @@
         <v>49800</v>
       </c>
       <c r="Q516" s="53" t="s">
+        <v>1910</v>
+      </c>
+      <c r="R516" s="95" t="s">
         <v>1911</v>
-      </c>
-      <c r="R516" s="95" t="s">
-        <v>1912</v>
       </c>
       <c r="W516" s="53" t="s">
         <v>1900</v>
@@ -44437,7 +44437,7 @@
         <v>1909</v>
       </c>
       <c r="J517" s="53" t="s">
-        <v>1913</v>
+        <v>1927</v>
       </c>
       <c r="L517" s="53">
         <v>-33</v>
@@ -44455,10 +44455,10 @@
         <v>19800</v>
       </c>
       <c r="Q517" s="53" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="R517" s="95" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="W517" s="53" t="s">
         <v>1900</v>
@@ -44505,7 +44505,7 @@
         <v>1909</v>
       </c>
       <c r="J518" s="53" t="s">
-        <v>1915</v>
+        <v>1928</v>
       </c>
       <c r="L518" s="53">
         <v>-33</v>
@@ -44523,10 +44523,10 @@
         <v>9800</v>
       </c>
       <c r="Q518" s="53" t="s">
-        <v>1916</v>
+        <v>1913</v>
       </c>
       <c r="R518" s="95" t="s">
-        <v>1917</v>
+        <v>1914</v>
       </c>
       <c r="W518" s="53" t="s">
         <v>1900</v>
@@ -44573,7 +44573,7 @@
         <v>1909</v>
       </c>
       <c r="J519" s="53" t="s">
-        <v>1927</v>
+        <v>1929</v>
       </c>
       <c r="L519" s="53">
         <v>-33</v>
@@ -44591,10 +44591,10 @@
         <v>4800</v>
       </c>
       <c r="Q519" s="53" t="s">
-        <v>1918</v>
+        <v>1915</v>
       </c>
       <c r="R519" s="95" t="s">
-        <v>1919</v>
+        <v>1916</v>
       </c>
       <c r="W519" s="53" t="s">
         <v>1900</v>
@@ -44635,13 +44635,13 @@
         <v>1</v>
       </c>
       <c r="G520" s="5" t="s">
-        <v>1922</v>
+        <v>1919</v>
       </c>
       <c r="I520" s="5" t="s">
-        <v>1923</v>
+        <v>1920</v>
       </c>
       <c r="J520" s="5" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
       <c r="L520" s="5">
         <v>-23</v>
@@ -44659,16 +44659,16 @@
         <v>1000</v>
       </c>
       <c r="Q520" s="5" t="s">
-        <v>1929</v>
+        <v>1925</v>
       </c>
       <c r="R520" s="10" t="s">
-        <v>1924</v>
+        <v>1921</v>
       </c>
       <c r="S520" s="5" t="s">
-        <v>1925</v>
+        <v>1922</v>
       </c>
       <c r="W520" s="5" t="s">
-        <v>1926</v>
+        <v>1923</v>
       </c>
       <c r="X520" s="5">
         <v>99999999</v>
@@ -45684,7 +45684,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="55" t="s">
-        <v>1920</v>
+        <v>1917</v>
       </c>
       <c r="C69" s="54">
         <v>1</v>
@@ -45698,7 +45698,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="55" t="s">
-        <v>1921</v>
+        <v>1918</v>
       </c>
       <c r="C70" s="54">
         <v>1</v>

--- a/config_debug/shoping_config_cjj.xlsx
+++ b/config_debug/shoping_config_cjj.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4257" uniqueCount="1930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4257" uniqueCount="1931">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7980,25 +7980,13 @@
     <t>"jing_bi","prop_qdlb_cjq","prop_3d_fish_doubled",</t>
   </si>
   <si>
-    <t>49800000,50,15,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"2020万","抽奖券*30","双倍奖励*10",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>19800000,30,10,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"990万","抽奖券*20","双倍奖励*5",</t>
   </si>
   <si>
-    <t>9800000,20,5,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"483万","抽奖券*3","双倍奖励*3",</t>
   </si>
   <si>
@@ -8006,272 +7994,286 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>4800000,10,3,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"200万","抽奖券*4","双倍奖励*2",</t>
   </si>
   <si>
+    <t>欢乐庆典-捕鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万","抽奖券*1","双倍奖励*1",</t>
+  </si>
+  <si>
+    <t>欢乐庆典-冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5180万","抽奖券*50","太阳*20",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_2",</t>
+  </si>
+  <si>
+    <t>"2020万","抽奖券*30","太阳*10",</t>
+  </si>
+  <si>
+    <t>欢乐庆典-冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"990万","抽奖券*20","太阳*2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"483万","抽奖券*3","水滴*6",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_1",</t>
+  </si>
+  <si>
+    <t>"200万","抽奖券*4","水滴*2",</t>
+  </si>
+  <si>
+    <t>"60万","抽奖券*1","水滴*1",</t>
+  </si>
+  <si>
+    <t>600000,1,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "actp_no_cjj_gej_exchange" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "actp_cjj_gej_exchange" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运金币18元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"随机获得180万-500万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1850000,1950000,100,},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,5000000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运金币48元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"随机获得480万-1500万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{5000000,5200000,100,},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,15000000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运金币98元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"随机获得980万-3000万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{10000000,10800000,100,},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,30000000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包-欢乐捕鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5020万金币","双倍奖励卡*10","传说宝箱*15",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_csbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>50200000,10,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2010万金币","双倍奖励卡*6","传说宝箱*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20100000,6,5,</t>
+  </si>
+  <si>
+    <t>"996万金币","双倍奖励卡*4","史诗宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_ssbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9960000,4,3,</t>
+  </si>
+  <si>
+    <t>"488万金币","双倍奖励卡*2","稀有宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_xybox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4880000,2,3,</t>
+  </si>
+  <si>
+    <t>欢乐礼包-冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_2","prop_hqjnh_csbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000000,4,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000,2,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hqjnh_ssbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9960000,8,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hqjnh_xybox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4880000,4,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "hqjnh_046_nor_hllb" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "hqjnh_046_cjj_hllb" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>周卡</t>
+  </si>
+  <si>
+    <t>冲金鸡</t>
+  </si>
+  <si>
+    <t>1000000,1</t>
+  </si>
+  <si>
+    <t>{valid_time=604800},</t>
+  </si>
+  <si>
+    <t>604800,1,0</t>
+  </si>
+  <si>
+    <t>"100万金币","首次救济金为6万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","obj_week_card",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5000万金币","太阳*4","传说宝箱*15",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2000万金币","太阳*2","传说宝箱*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"996万金币","水滴*8","史诗宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"488万金币","水滴*4","稀有宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>51800000,50,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200000,30,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9900000,20,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4830000,10,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>2000000,4,2,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>51800000,50,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9900000,20,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4830000,10,6,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>2000000,4,2,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐庆典-捕鱼</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"60万","抽奖券*1","双倍奖励*1",</t>
   </si>
   <si>
     <t>600000,1,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐庆典-冲金鸡</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"5180万","抽奖券*50","太阳*20",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_2",</t>
-  </si>
-  <si>
-    <t>49800000,50,20,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2020万","抽奖券*30","太阳*10",</t>
-  </si>
-  <si>
-    <t>欢乐庆典-冲金鸡</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"990万","抽奖券*20","太阳*2",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9800000,20,2,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"483万","抽奖券*3","水滴*6",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_1",</t>
-  </si>
-  <si>
-    <t>4800000,10,6,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"200万","抽奖券*4","水滴*2",</t>
-  </si>
-  <si>
-    <t>"60万","抽奖券*1","水滴*1",</t>
-  </si>
-  <si>
-    <t>600000,1,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "actp_no_cjj_gej_exchange" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "actp_cjj_gej_exchange" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运金币18元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"随机获得180万-500万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{1850000,1950000,100,},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1800000,5000000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运金币48元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"随机获得480万-1500万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{5000000,5200000,100,},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4800000,15000000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运金币98元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"随机获得980万-3000万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{10000000,10800000,100,},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9800000,30000000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐礼包-欢乐捕鱼</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"5020万金币","双倍奖励卡*10","传说宝箱*15",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_bag</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_csbox",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>50200000,10,15,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2010万金币","双倍奖励卡*6","传说宝箱*5",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>20100000,6,5,</t>
-  </si>
-  <si>
-    <t>"996万金币","双倍奖励卡*4","史诗宝箱*3",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_ssbox",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9960000,4,3,</t>
-  </si>
-  <si>
-    <t>"488万金币","双倍奖励卡*2","稀有宝箱*3",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_xybox",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4880000,2,3,</t>
-  </si>
-  <si>
-    <t>欢乐礼包-冲金鸡</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_guess_apple_bet_2","prop_hqjnh_csbox",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>50000000,4,15,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000000,2,5,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_guess_apple_bet_1","prop_hqjnh_ssbox",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9960000,8,3,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_guess_apple_bet_1","prop_hqjnh_xybox",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4880000,4,3,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "hqjnh_046_nor_hllb" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "hqjnh_046_cjj_hllb" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>周卡</t>
-  </si>
-  <si>
-    <t>冲金鸡</t>
-  </si>
-  <si>
-    <t>1000000,1</t>
-  </si>
-  <si>
-    <t>{valid_time=604800},</t>
-  </si>
-  <si>
-    <t>604800,1,0</t>
-  </si>
-  <si>
-    <t>"100万金币","首次救济金为6万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","obj_week_card",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"5000万金币","太阳*4","传说宝箱*15",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2000万金币","太阳*2","传说宝箱*5",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"996万金币","水滴*8","史诗宝箱*3",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"488万金币","水滴*4","稀有宝箱*3",</t>
+  </si>
+  <si>
+    <t>86400,9999,0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -11230,10 +11232,10 @@
   <dimension ref="A1:AN520"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H497" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="U494" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J516" sqref="J516:J519"/>
+      <selection pane="bottomRight" activeCell="X506" sqref="X506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -43019,14 +43021,14 @@
         <v>1851</v>
       </c>
       <c r="R497" s="61" t="s">
-        <v>1852</v>
+        <v>1920</v>
       </c>
       <c r="S497" s="60"/>
       <c r="T497" s="60"/>
       <c r="U497" s="60"/>
       <c r="V497" s="60"/>
       <c r="W497" s="60" t="s">
-        <v>540</v>
+        <v>1930</v>
       </c>
       <c r="X497" s="60">
         <v>99999999</v>
@@ -43074,7 +43076,7 @@
         <v>1848</v>
       </c>
       <c r="J498" s="60" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="K498" s="60"/>
       <c r="L498" s="60">
@@ -43096,14 +43098,14 @@
         <v>1851</v>
       </c>
       <c r="R498" s="61" t="s">
-        <v>1854</v>
+        <v>1921</v>
       </c>
       <c r="S498" s="60"/>
       <c r="T498" s="60"/>
       <c r="U498" s="60"/>
       <c r="V498" s="60"/>
       <c r="W498" s="60" t="s">
-        <v>540</v>
+        <v>1930</v>
       </c>
       <c r="X498" s="60">
         <v>99999999</v>
@@ -43151,7 +43153,7 @@
         <v>1848</v>
       </c>
       <c r="J499" s="60" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="K499" s="60"/>
       <c r="L499" s="60">
@@ -43173,14 +43175,14 @@
         <v>1851</v>
       </c>
       <c r="R499" s="61" t="s">
-        <v>1856</v>
+        <v>1922</v>
       </c>
       <c r="S499" s="60"/>
       <c r="T499" s="60"/>
       <c r="U499" s="60"/>
       <c r="V499" s="60"/>
       <c r="W499" s="60" t="s">
-        <v>540</v>
+        <v>1930</v>
       </c>
       <c r="X499" s="60">
         <v>99999999</v>
@@ -43228,7 +43230,7 @@
         <v>1848</v>
       </c>
       <c r="J500" s="60" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="K500" s="60"/>
       <c r="L500" s="60">
@@ -43241,7 +43243,7 @@
         <v>0</v>
       </c>
       <c r="O500" s="60" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
       <c r="P500" s="60">
         <v>4800</v>
@@ -43250,14 +43252,14 @@
         <v>1851</v>
       </c>
       <c r="R500" s="61" t="s">
-        <v>1859</v>
+        <v>1923</v>
       </c>
       <c r="S500" s="60"/>
       <c r="T500" s="60"/>
       <c r="U500" s="60"/>
       <c r="V500" s="60"/>
       <c r="W500" s="60" t="s">
-        <v>540</v>
+        <v>1930</v>
       </c>
       <c r="X500" s="60">
         <v>99999999</v>
@@ -43305,7 +43307,7 @@
         <v>1848</v>
       </c>
       <c r="J501" s="60" t="s">
-        <v>1860</v>
+        <v>1856</v>
       </c>
       <c r="K501" s="60"/>
       <c r="L501" s="60">
@@ -43327,14 +43329,14 @@
         <v>1851</v>
       </c>
       <c r="R501" s="61" t="s">
-        <v>1862</v>
+        <v>1924</v>
       </c>
       <c r="S501" s="60"/>
       <c r="T501" s="60"/>
       <c r="U501" s="60"/>
       <c r="V501" s="60"/>
       <c r="W501" s="60" t="s">
-        <v>540</v>
+        <v>1930</v>
       </c>
       <c r="X501" s="60">
         <v>99999999</v>
@@ -43379,10 +43381,10 @@
       </c>
       <c r="H502" s="60"/>
       <c r="I502" s="60" t="s">
-        <v>1863</v>
+        <v>1857</v>
       </c>
       <c r="J502" s="60" t="s">
-        <v>1864</v>
+        <v>1858</v>
       </c>
       <c r="K502" s="60"/>
       <c r="L502" s="60">
@@ -43404,14 +43406,14 @@
         <v>1851</v>
       </c>
       <c r="R502" s="61" t="s">
-        <v>1865</v>
+        <v>1869</v>
       </c>
       <c r="S502" s="60"/>
       <c r="T502" s="60"/>
       <c r="U502" s="60"/>
       <c r="V502" s="60"/>
       <c r="W502" s="60" t="s">
-        <v>540</v>
+        <v>1930</v>
       </c>
       <c r="X502" s="60">
         <v>99999999</v>
@@ -43456,10 +43458,10 @@
       </c>
       <c r="H503" s="76"/>
       <c r="I503" s="76" t="s">
-        <v>1866</v>
+        <v>1859</v>
       </c>
       <c r="J503" s="76" t="s">
-        <v>1867</v>
+        <v>1860</v>
       </c>
       <c r="K503" s="76"/>
       <c r="L503" s="76">
@@ -43478,17 +43480,17 @@
         <v>49800</v>
       </c>
       <c r="Q503" s="76" t="s">
-        <v>1868</v>
+        <v>1861</v>
       </c>
       <c r="R503" s="92" t="s">
-        <v>1869</v>
+        <v>1925</v>
       </c>
       <c r="S503" s="76"/>
       <c r="T503" s="76"/>
       <c r="U503" s="76"/>
       <c r="V503" s="76"/>
-      <c r="W503" s="76" t="s">
-        <v>540</v>
+      <c r="W503" s="60" t="s">
+        <v>1930</v>
       </c>
       <c r="X503" s="76">
         <v>99999999</v>
@@ -43533,10 +43535,10 @@
       </c>
       <c r="H504" s="76"/>
       <c r="I504" s="76" t="s">
-        <v>1866</v>
+        <v>1859</v>
       </c>
       <c r="J504" s="76" t="s">
-        <v>1870</v>
+        <v>1862</v>
       </c>
       <c r="K504" s="76"/>
       <c r="L504" s="76">
@@ -43555,17 +43557,17 @@
         <v>19800</v>
       </c>
       <c r="Q504" s="76" t="s">
-        <v>1868</v>
+        <v>1861</v>
       </c>
       <c r="R504" s="92" t="s">
-        <v>1854</v>
+        <v>1921</v>
       </c>
       <c r="S504" s="76"/>
       <c r="T504" s="76"/>
       <c r="U504" s="76"/>
       <c r="V504" s="76"/>
-      <c r="W504" s="76" t="s">
-        <v>540</v>
+      <c r="W504" s="60" t="s">
+        <v>1930</v>
       </c>
       <c r="X504" s="76">
         <v>99999999</v>
@@ -43610,10 +43612,10 @@
       </c>
       <c r="H505" s="76"/>
       <c r="I505" s="76" t="s">
-        <v>1871</v>
+        <v>1863</v>
       </c>
       <c r="J505" s="76" t="s">
-        <v>1872</v>
+        <v>1864</v>
       </c>
       <c r="K505" s="76"/>
       <c r="L505" s="76">
@@ -43632,17 +43634,17 @@
         <v>9800</v>
       </c>
       <c r="Q505" s="76" t="s">
-        <v>1868</v>
+        <v>1861</v>
       </c>
       <c r="R505" s="92" t="s">
-        <v>1873</v>
+        <v>1926</v>
       </c>
       <c r="S505" s="76"/>
       <c r="T505" s="76"/>
       <c r="U505" s="76"/>
       <c r="V505" s="76"/>
-      <c r="W505" s="76" t="s">
-        <v>540</v>
+      <c r="W505" s="60" t="s">
+        <v>1930</v>
       </c>
       <c r="X505" s="76">
         <v>99999999</v>
@@ -43687,10 +43689,10 @@
       </c>
       <c r="H506" s="76"/>
       <c r="I506" s="76" t="s">
-        <v>1871</v>
+        <v>1863</v>
       </c>
       <c r="J506" s="76" t="s">
-        <v>1874</v>
+        <v>1865</v>
       </c>
       <c r="K506" s="76"/>
       <c r="L506" s="76">
@@ -43709,17 +43711,17 @@
         <v>4800</v>
       </c>
       <c r="Q506" s="76" t="s">
-        <v>1875</v>
+        <v>1866</v>
       </c>
       <c r="R506" s="92" t="s">
-        <v>1876</v>
+        <v>1927</v>
       </c>
       <c r="S506" s="76"/>
       <c r="T506" s="76"/>
       <c r="U506" s="76"/>
       <c r="V506" s="76"/>
-      <c r="W506" s="76" t="s">
-        <v>540</v>
+      <c r="W506" s="60" t="s">
+        <v>1930</v>
       </c>
       <c r="X506" s="76">
         <v>99999999</v>
@@ -43764,10 +43766,10 @@
       </c>
       <c r="H507" s="76"/>
       <c r="I507" s="76" t="s">
-        <v>1871</v>
+        <v>1863</v>
       </c>
       <c r="J507" s="76" t="s">
-        <v>1877</v>
+        <v>1867</v>
       </c>
       <c r="K507" s="76"/>
       <c r="L507" s="76">
@@ -43786,17 +43788,17 @@
         <v>2000</v>
       </c>
       <c r="Q507" s="76" t="s">
-        <v>1875</v>
+        <v>1866</v>
       </c>
       <c r="R507" s="92" t="s">
-        <v>1861</v>
+        <v>1928</v>
       </c>
       <c r="S507" s="76"/>
       <c r="T507" s="76"/>
       <c r="U507" s="76"/>
       <c r="V507" s="76"/>
-      <c r="W507" s="76" t="s">
-        <v>540</v>
+      <c r="W507" s="60" t="s">
+        <v>1930</v>
       </c>
       <c r="X507" s="76">
         <v>99999999</v>
@@ -43841,10 +43843,10 @@
       </c>
       <c r="H508" s="76"/>
       <c r="I508" s="76" t="s">
-        <v>1871</v>
+        <v>1863</v>
       </c>
       <c r="J508" s="76" t="s">
-        <v>1878</v>
+        <v>1868</v>
       </c>
       <c r="K508" s="76"/>
       <c r="L508" s="76">
@@ -43863,17 +43865,17 @@
         <v>600</v>
       </c>
       <c r="Q508" s="76" t="s">
-        <v>1875</v>
+        <v>1866</v>
       </c>
       <c r="R508" s="92" t="s">
-        <v>1879</v>
+        <v>1929</v>
       </c>
       <c r="S508" s="76"/>
       <c r="T508" s="76"/>
       <c r="U508" s="76"/>
       <c r="V508" s="76"/>
-      <c r="W508" s="76" t="s">
-        <v>540</v>
+      <c r="W508" s="60" t="s">
+        <v>1930</v>
       </c>
       <c r="X508" s="76">
         <v>99999999</v>
@@ -43911,10 +43913,10 @@
         <v>1</v>
       </c>
       <c r="G509" s="5" t="s">
-        <v>1882</v>
+        <v>1872</v>
       </c>
       <c r="J509" s="5" t="s">
-        <v>1883</v>
+        <v>1873</v>
       </c>
       <c r="L509" s="5">
         <v>-4</v>
@@ -43948,10 +43950,10 @@
         <v>89</v>
       </c>
       <c r="AC509" s="5" t="s">
-        <v>1884</v>
+        <v>1874</v>
       </c>
       <c r="AD509" s="10" t="s">
-        <v>1885</v>
+        <v>1875</v>
       </c>
       <c r="AH509" s="5">
         <v>1</v>
@@ -43971,10 +43973,10 @@
         <v>1</v>
       </c>
       <c r="G510" s="5" t="s">
-        <v>1886</v>
+        <v>1876</v>
       </c>
       <c r="J510" s="5" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
       <c r="L510" s="5">
         <v>-4</v>
@@ -44008,10 +44010,10 @@
         <v>89</v>
       </c>
       <c r="AC510" s="5" t="s">
-        <v>1888</v>
+        <v>1878</v>
       </c>
       <c r="AD510" s="10" t="s">
-        <v>1889</v>
+        <v>1879</v>
       </c>
       <c r="AH510" s="5">
         <v>1</v>
@@ -44031,10 +44033,10 @@
         <v>1</v>
       </c>
       <c r="G511" s="5" t="s">
-        <v>1890</v>
+        <v>1880</v>
       </c>
       <c r="J511" s="5" t="s">
-        <v>1891</v>
+        <v>1881</v>
       </c>
       <c r="L511" s="5">
         <v>-4</v>
@@ -44068,10 +44070,10 @@
         <v>89</v>
       </c>
       <c r="AC511" s="5" t="s">
-        <v>1892</v>
+        <v>1882</v>
       </c>
       <c r="AD511" s="10" t="s">
-        <v>1893</v>
+        <v>1883</v>
       </c>
       <c r="AH511" s="5">
         <v>1</v>
@@ -44091,13 +44093,13 @@
         <v>1</v>
       </c>
       <c r="G512" s="53" t="s">
-        <v>1894</v>
+        <v>1884</v>
       </c>
       <c r="I512" s="53" t="s">
-        <v>1895</v>
+        <v>1885</v>
       </c>
       <c r="J512" s="53" t="s">
-        <v>1896</v>
+        <v>1886</v>
       </c>
       <c r="L512" s="53">
         <v>-33</v>
@@ -44109,19 +44111,19 @@
         <v>0</v>
       </c>
       <c r="O512" s="53" t="s">
-        <v>1897</v>
+        <v>1887</v>
       </c>
       <c r="P512" s="53">
         <v>49800</v>
       </c>
       <c r="Q512" s="53" t="s">
-        <v>1898</v>
+        <v>1888</v>
       </c>
       <c r="R512" s="95" t="s">
-        <v>1899</v>
+        <v>1889</v>
       </c>
       <c r="W512" s="53" t="s">
-        <v>1900</v>
+        <v>1890</v>
       </c>
       <c r="X512" s="53">
         <v>99999999</v>
@@ -44159,13 +44161,13 @@
         <v>1</v>
       </c>
       <c r="G513" s="53" t="s">
-        <v>1894</v>
+        <v>1884</v>
       </c>
       <c r="I513" s="53" t="s">
-        <v>1895</v>
+        <v>1885</v>
       </c>
       <c r="J513" s="53" t="s">
-        <v>1901</v>
+        <v>1891</v>
       </c>
       <c r="L513" s="53">
         <v>-33</v>
@@ -44177,19 +44179,19 @@
         <v>0</v>
       </c>
       <c r="O513" s="53" t="s">
-        <v>1897</v>
+        <v>1887</v>
       </c>
       <c r="P513" s="53">
         <v>19800</v>
       </c>
       <c r="Q513" s="53" t="s">
-        <v>1898</v>
+        <v>1888</v>
       </c>
       <c r="R513" s="95" t="s">
-        <v>1902</v>
+        <v>1892</v>
       </c>
       <c r="W513" s="53" t="s">
-        <v>1900</v>
+        <v>1890</v>
       </c>
       <c r="X513" s="53">
         <v>99999999</v>
@@ -44227,13 +44229,13 @@
         <v>1</v>
       </c>
       <c r="G514" s="53" t="s">
-        <v>1894</v>
+        <v>1884</v>
       </c>
       <c r="I514" s="53" t="s">
-        <v>1895</v>
+        <v>1885</v>
       </c>
       <c r="J514" s="53" t="s">
-        <v>1903</v>
+        <v>1893</v>
       </c>
       <c r="L514" s="53">
         <v>-33</v>
@@ -44245,19 +44247,19 @@
         <v>0</v>
       </c>
       <c r="O514" s="53" t="s">
-        <v>1897</v>
+        <v>1887</v>
       </c>
       <c r="P514" s="53">
         <v>9800</v>
       </c>
       <c r="Q514" s="53" t="s">
-        <v>1904</v>
+        <v>1894</v>
       </c>
       <c r="R514" s="95" t="s">
-        <v>1905</v>
+        <v>1895</v>
       </c>
       <c r="W514" s="53" t="s">
-        <v>1900</v>
+        <v>1890</v>
       </c>
       <c r="X514" s="53">
         <v>99999999</v>
@@ -44295,13 +44297,13 @@
         <v>1</v>
       </c>
       <c r="G515" s="53" t="s">
-        <v>1894</v>
+        <v>1884</v>
       </c>
       <c r="I515" s="53" t="s">
-        <v>1895</v>
+        <v>1885</v>
       </c>
       <c r="J515" s="53" t="s">
-        <v>1906</v>
+        <v>1896</v>
       </c>
       <c r="L515" s="53">
         <v>-33</v>
@@ -44313,19 +44315,19 @@
         <v>0</v>
       </c>
       <c r="O515" s="53" t="s">
-        <v>1897</v>
+        <v>1887</v>
       </c>
       <c r="P515" s="53">
         <v>4800</v>
       </c>
       <c r="Q515" s="53" t="s">
-        <v>1907</v>
+        <v>1897</v>
       </c>
       <c r="R515" s="95" t="s">
-        <v>1908</v>
+        <v>1898</v>
       </c>
       <c r="W515" s="53" t="s">
-        <v>1900</v>
+        <v>1890</v>
       </c>
       <c r="X515" s="53">
         <v>99999999</v>
@@ -44363,13 +44365,13 @@
         <v>1</v>
       </c>
       <c r="G516" s="53" t="s">
-        <v>1894</v>
+        <v>1884</v>
       </c>
       <c r="I516" s="53" t="s">
-        <v>1909</v>
+        <v>1899</v>
       </c>
       <c r="J516" s="53" t="s">
-        <v>1926</v>
+        <v>1916</v>
       </c>
       <c r="L516" s="53">
         <v>-33</v>
@@ -44381,19 +44383,19 @@
         <v>0</v>
       </c>
       <c r="O516" s="53" t="s">
-        <v>1897</v>
+        <v>1887</v>
       </c>
       <c r="P516" s="53">
         <v>49800</v>
       </c>
       <c r="Q516" s="53" t="s">
-        <v>1910</v>
+        <v>1900</v>
       </c>
       <c r="R516" s="95" t="s">
-        <v>1911</v>
+        <v>1901</v>
       </c>
       <c r="W516" s="53" t="s">
-        <v>1900</v>
+        <v>1890</v>
       </c>
       <c r="X516" s="53">
         <v>99999999</v>
@@ -44431,13 +44433,13 @@
         <v>1</v>
       </c>
       <c r="G517" s="53" t="s">
-        <v>1894</v>
+        <v>1884</v>
       </c>
       <c r="I517" s="53" t="s">
-        <v>1909</v>
+        <v>1899</v>
       </c>
       <c r="J517" s="53" t="s">
-        <v>1927</v>
+        <v>1917</v>
       </c>
       <c r="L517" s="53">
         <v>-33</v>
@@ -44449,19 +44451,19 @@
         <v>0</v>
       </c>
       <c r="O517" s="53" t="s">
-        <v>1897</v>
+        <v>1887</v>
       </c>
       <c r="P517" s="53">
         <v>19800</v>
       </c>
       <c r="Q517" s="53" t="s">
-        <v>1910</v>
+        <v>1900</v>
       </c>
       <c r="R517" s="95" t="s">
-        <v>1912</v>
+        <v>1902</v>
       </c>
       <c r="W517" s="53" t="s">
-        <v>1900</v>
+        <v>1890</v>
       </c>
       <c r="X517" s="53">
         <v>99999999</v>
@@ -44499,13 +44501,13 @@
         <v>1</v>
       </c>
       <c r="G518" s="53" t="s">
-        <v>1894</v>
+        <v>1884</v>
       </c>
       <c r="I518" s="53" t="s">
-        <v>1909</v>
+        <v>1899</v>
       </c>
       <c r="J518" s="53" t="s">
-        <v>1928</v>
+        <v>1918</v>
       </c>
       <c r="L518" s="53">
         <v>-33</v>
@@ -44517,19 +44519,19 @@
         <v>0</v>
       </c>
       <c r="O518" s="53" t="s">
-        <v>1897</v>
+        <v>1887</v>
       </c>
       <c r="P518" s="53">
         <v>9800</v>
       </c>
       <c r="Q518" s="53" t="s">
-        <v>1913</v>
+        <v>1903</v>
       </c>
       <c r="R518" s="95" t="s">
-        <v>1914</v>
+        <v>1904</v>
       </c>
       <c r="W518" s="53" t="s">
-        <v>1900</v>
+        <v>1890</v>
       </c>
       <c r="X518" s="53">
         <v>99999999</v>
@@ -44567,13 +44569,13 @@
         <v>1</v>
       </c>
       <c r="G519" s="53" t="s">
-        <v>1894</v>
+        <v>1884</v>
       </c>
       <c r="I519" s="53" t="s">
-        <v>1909</v>
+        <v>1899</v>
       </c>
       <c r="J519" s="53" t="s">
-        <v>1929</v>
+        <v>1919</v>
       </c>
       <c r="L519" s="53">
         <v>-33</v>
@@ -44585,19 +44587,19 @@
         <v>0</v>
       </c>
       <c r="O519" s="53" t="s">
-        <v>1897</v>
+        <v>1887</v>
       </c>
       <c r="P519" s="53">
         <v>4800</v>
       </c>
       <c r="Q519" s="53" t="s">
-        <v>1915</v>
+        <v>1905</v>
       </c>
       <c r="R519" s="95" t="s">
-        <v>1916</v>
+        <v>1906</v>
       </c>
       <c r="W519" s="53" t="s">
-        <v>1900</v>
+        <v>1890</v>
       </c>
       <c r="X519" s="53">
         <v>99999999</v>
@@ -44635,13 +44637,13 @@
         <v>1</v>
       </c>
       <c r="G520" s="5" t="s">
-        <v>1919</v>
+        <v>1909</v>
       </c>
       <c r="I520" s="5" t="s">
-        <v>1920</v>
+        <v>1910</v>
       </c>
       <c r="J520" s="5" t="s">
-        <v>1924</v>
+        <v>1914</v>
       </c>
       <c r="L520" s="5">
         <v>-23</v>
@@ -44659,16 +44661,16 @@
         <v>1000</v>
       </c>
       <c r="Q520" s="5" t="s">
-        <v>1925</v>
+        <v>1915</v>
       </c>
       <c r="R520" s="10" t="s">
-        <v>1921</v>
+        <v>1911</v>
       </c>
       <c r="S520" s="5" t="s">
-        <v>1922</v>
+        <v>1912</v>
       </c>
       <c r="W520" s="5" t="s">
-        <v>1923</v>
+        <v>1913</v>
       </c>
       <c r="X520" s="5">
         <v>99999999</v>
@@ -45656,7 +45658,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="28" t="s">
-        <v>1880</v>
+        <v>1870</v>
       </c>
       <c r="C67" s="25">
         <v>1</v>
@@ -45670,7 +45672,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="28" t="s">
-        <v>1881</v>
+        <v>1871</v>
       </c>
       <c r="C68" s="25">
         <v>1</v>
@@ -45684,7 +45686,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="55" t="s">
-        <v>1917</v>
+        <v>1907</v>
       </c>
       <c r="C69" s="54">
         <v>1</v>
@@ -45698,7 +45700,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="55" t="s">
-        <v>1918</v>
+        <v>1908</v>
       </c>
       <c r="C70" s="54">
         <v>1</v>

--- a/config_debug/shoping_config_cjj.xlsx
+++ b/config_debug/shoping_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.26\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4344" uniqueCount="1977">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4407" uniqueCount="2006">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8451,6 +8451,119 @@
   </si>
   <si>
     <t>86400,9999,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂敲金蛋铜锤</t>
+  </si>
+  <si>
+    <t>"180万金币","铜锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_brass_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,9999,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂敲金蛋银锤</t>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,9999,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂敲金蛋金锤</t>
+  </si>
+  <si>
+    <t>（V1-V3）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","金锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_gold_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_brass_hammer_2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（V4-V7）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","银锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_silver_hammer_2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（V4-V7）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（V8-V10）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_brass_hammer_3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（V8-V10）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","金锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,1,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -8526,7 +8639,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8572,18 +8685,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8642,7 +8743,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8778,12 +8879,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8796,43 +8891,37 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="12" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -8842,6 +8931,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11275,10 +11367,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN532"/>
+  <dimension ref="A1:AN541"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="Q514" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="O504" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="R521" sqref="R521"/>
@@ -15124,298 +15216,298 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:35" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="47">
+    <row r="67" spans="1:35" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="45">
         <v>66</v>
       </c>
-      <c r="B67" s="47">
+      <c r="B67" s="45">
         <v>85</v>
       </c>
-      <c r="D67" s="47">
+      <c r="D67" s="45">
         <v>2</v>
       </c>
-      <c r="F67" s="47">
-        <v>1</v>
-      </c>
-      <c r="G67" s="47" t="s">
+      <c r="F67" s="45">
+        <v>1</v>
+      </c>
+      <c r="G67" s="45" t="s">
         <v>234</v>
       </c>
       <c r="H67" s="5" t="s">
         <v>1563</v>
       </c>
-      <c r="L67" s="47">
+      <c r="L67" s="45">
         <v>-4</v>
       </c>
-      <c r="M67" s="47">
-        <v>0</v>
-      </c>
-      <c r="N67" s="47">
-        <v>0</v>
-      </c>
-      <c r="O67" s="47" t="s">
+      <c r="M67" s="45">
+        <v>0</v>
+      </c>
+      <c r="N67" s="45">
+        <v>0</v>
+      </c>
+      <c r="O67" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="P67" s="47">
+      <c r="P67" s="45">
         <v>1500</v>
       </c>
-      <c r="Q67" s="47" t="s">
+      <c r="Q67" s="45" t="s">
         <v>89</v>
       </c>
       <c r="R67" s="10" t="s">
         <v>1612</v>
       </c>
-      <c r="W67" s="47" t="s">
+      <c r="W67" s="45" t="s">
         <v>540</v>
       </c>
-      <c r="X67" s="48" t="s">
+      <c r="X67" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="Y67" s="49">
-        <v>0</v>
-      </c>
-      <c r="Z67" s="47">
+      <c r="Y67" s="47">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="45">
         <v>2552233600</v>
       </c>
-      <c r="AH67" s="47">
-        <v>1</v>
-      </c>
-      <c r="AI67" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:35" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="47">
+      <c r="AH67" s="45">
+        <v>1</v>
+      </c>
+      <c r="AI67" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:35" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="45">
         <v>67</v>
       </c>
-      <c r="B68" s="47">
+      <c r="B68" s="45">
         <v>86</v>
       </c>
-      <c r="D68" s="47">
+      <c r="D68" s="45">
         <v>3</v>
       </c>
-      <c r="F68" s="47">
-        <v>1</v>
-      </c>
-      <c r="G68" s="47" t="s">
+      <c r="F68" s="45">
+        <v>1</v>
+      </c>
+      <c r="G68" s="45" t="s">
         <v>236</v>
       </c>
       <c r="H68" s="5" t="s">
         <v>1564</v>
       </c>
-      <c r="L68" s="47">
+      <c r="L68" s="45">
         <v>-4</v>
       </c>
-      <c r="M68" s="47">
-        <v>0</v>
-      </c>
-      <c r="N68" s="47">
-        <v>0</v>
-      </c>
-      <c r="O68" s="47" t="s">
+      <c r="M68" s="45">
+        <v>0</v>
+      </c>
+      <c r="N68" s="45">
+        <v>0</v>
+      </c>
+      <c r="O68" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="P68" s="47">
+      <c r="P68" s="45">
         <v>3000</v>
       </c>
-      <c r="Q68" s="47" t="s">
+      <c r="Q68" s="45" t="s">
         <v>89</v>
       </c>
       <c r="R68" s="10" t="s">
         <v>1613</v>
       </c>
-      <c r="W68" s="47" t="s">
+      <c r="W68" s="45" t="s">
         <v>540</v>
       </c>
-      <c r="X68" s="48" t="s">
+      <c r="X68" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="Y68" s="49">
-        <v>0</v>
-      </c>
-      <c r="Z68" s="47">
+      <c r="Y68" s="47">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="45">
         <v>2552233600</v>
       </c>
-      <c r="AH68" s="47">
-        <v>1</v>
-      </c>
-      <c r="AI68" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:35" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="47">
+      <c r="AH68" s="45">
+        <v>1</v>
+      </c>
+      <c r="AI68" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:35" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="45">
         <v>68</v>
       </c>
-      <c r="B69" s="47">
+      <c r="B69" s="45">
         <v>87</v>
       </c>
-      <c r="D69" s="47">
+      <c r="D69" s="45">
         <v>4</v>
       </c>
-      <c r="F69" s="47">
-        <v>1</v>
-      </c>
-      <c r="G69" s="47" t="s">
+      <c r="F69" s="45">
+        <v>1</v>
+      </c>
+      <c r="G69" s="45" t="s">
         <v>238</v>
       </c>
       <c r="H69" s="5" t="s">
         <v>1565</v>
       </c>
-      <c r="L69" s="47">
+      <c r="L69" s="45">
         <v>-4</v>
       </c>
-      <c r="M69" s="47">
-        <v>0</v>
-      </c>
-      <c r="N69" s="47">
-        <v>0</v>
-      </c>
-      <c r="O69" s="47" t="s">
+      <c r="M69" s="45">
+        <v>0</v>
+      </c>
+      <c r="N69" s="45">
+        <v>0</v>
+      </c>
+      <c r="O69" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="P69" s="47">
+      <c r="P69" s="45">
         <v>5000</v>
       </c>
-      <c r="Q69" s="47" t="s">
+      <c r="Q69" s="45" t="s">
         <v>89</v>
       </c>
       <c r="R69" s="10" t="s">
         <v>701</v>
       </c>
-      <c r="W69" s="47" t="s">
+      <c r="W69" s="45" t="s">
         <v>540</v>
       </c>
-      <c r="X69" s="48" t="s">
+      <c r="X69" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="Y69" s="49">
-        <v>0</v>
-      </c>
-      <c r="Z69" s="47">
+      <c r="Y69" s="47">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="45">
         <v>2552233600</v>
       </c>
-      <c r="AH69" s="47">
-        <v>1</v>
-      </c>
-      <c r="AI69" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:35" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="47">
+      <c r="AH69" s="45">
+        <v>1</v>
+      </c>
+      <c r="AI69" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:35" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="45">
         <v>69</v>
       </c>
-      <c r="B70" s="47">
+      <c r="B70" s="45">
         <v>88</v>
       </c>
-      <c r="D70" s="47">
+      <c r="D70" s="45">
         <v>5</v>
       </c>
-      <c r="F70" s="47">
-        <v>1</v>
-      </c>
-      <c r="G70" s="47" t="s">
+      <c r="F70" s="45">
+        <v>1</v>
+      </c>
+      <c r="G70" s="45" t="s">
         <v>240</v>
       </c>
       <c r="H70" s="5" t="s">
         <v>1566</v>
       </c>
-      <c r="L70" s="47">
+      <c r="L70" s="45">
         <v>-4</v>
       </c>
-      <c r="M70" s="47">
-        <v>0</v>
-      </c>
-      <c r="N70" s="47">
-        <v>0</v>
-      </c>
-      <c r="O70" s="47" t="s">
+      <c r="M70" s="45">
+        <v>0</v>
+      </c>
+      <c r="N70" s="45">
+        <v>0</v>
+      </c>
+      <c r="O70" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="P70" s="47">
+      <c r="P70" s="45">
         <v>9800</v>
       </c>
-      <c r="Q70" s="47" t="s">
+      <c r="Q70" s="45" t="s">
         <v>89</v>
       </c>
       <c r="R70" s="10" t="s">
         <v>1614</v>
       </c>
-      <c r="W70" s="47" t="s">
+      <c r="W70" s="45" t="s">
         <v>540</v>
       </c>
-      <c r="X70" s="48" t="s">
+      <c r="X70" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="Y70" s="49">
-        <v>0</v>
-      </c>
-      <c r="Z70" s="47">
+      <c r="Y70" s="47">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="45">
         <v>2552233600</v>
       </c>
-      <c r="AH70" s="47">
-        <v>1</v>
-      </c>
-      <c r="AI70" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:35" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="47">
+      <c r="AH70" s="45">
+        <v>1</v>
+      </c>
+      <c r="AI70" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:35" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="45">
         <v>70</v>
       </c>
-      <c r="B71" s="47">
+      <c r="B71" s="45">
         <v>89</v>
       </c>
-      <c r="D71" s="47">
+      <c r="D71" s="45">
         <v>6</v>
       </c>
-      <c r="F71" s="47">
-        <v>1</v>
-      </c>
-      <c r="G71" s="47" t="s">
+      <c r="F71" s="45">
+        <v>1</v>
+      </c>
+      <c r="G71" s="45" t="s">
         <v>241</v>
       </c>
       <c r="H71" s="5" t="s">
         <v>1819</v>
       </c>
-      <c r="L71" s="47">
+      <c r="L71" s="45">
         <v>-4</v>
       </c>
-      <c r="M71" s="47">
-        <v>0</v>
-      </c>
-      <c r="N71" s="47">
-        <v>0</v>
-      </c>
-      <c r="O71" s="47" t="s">
+      <c r="M71" s="45">
+        <v>0</v>
+      </c>
+      <c r="N71" s="45">
+        <v>0</v>
+      </c>
+      <c r="O71" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="P71" s="47">
+      <c r="P71" s="45">
         <v>49800</v>
       </c>
-      <c r="Q71" s="47" t="s">
+      <c r="Q71" s="45" t="s">
         <v>89</v>
       </c>
       <c r="R71" s="10" t="s">
         <v>1615</v>
       </c>
-      <c r="W71" s="47" t="s">
+      <c r="W71" s="45" t="s">
         <v>540</v>
       </c>
-      <c r="X71" s="48" t="s">
+      <c r="X71" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="Y71" s="49">
-        <v>0</v>
-      </c>
-      <c r="Z71" s="47">
+      <c r="Y71" s="47">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="45">
         <v>2552233600</v>
       </c>
-      <c r="AH71" s="47">
-        <v>1</v>
-      </c>
-      <c r="AI71" s="47">
+      <c r="AH71" s="45">
+        <v>1</v>
+      </c>
+      <c r="AI71" s="45">
         <v>1</v>
       </c>
     </row>
@@ -28097,7 +28189,7 @@
       <c r="G273" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="H273" s="47" t="s">
+      <c r="H273" s="45" t="s">
         <v>1569</v>
       </c>
       <c r="L273" s="5">
@@ -28118,7 +28210,7 @@
       <c r="Q273" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="R273" s="50" t="s">
+      <c r="R273" s="48" t="s">
         <v>1697</v>
       </c>
       <c r="W273" s="5" t="s">
@@ -37266,62 +37358,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:39" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A414" s="55">
+    <row r="414" spans="1:39" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A414" s="51">
         <v>413</v>
       </c>
-      <c r="B414" s="55">
+      <c r="B414" s="51">
         <v>10330</v>
       </c>
-      <c r="D414" s="55">
-        <v>1</v>
-      </c>
-      <c r="F414" s="55">
-        <v>1</v>
-      </c>
-      <c r="G414" s="55" t="s">
+      <c r="D414" s="51">
+        <v>1</v>
+      </c>
+      <c r="F414" s="51">
+        <v>1</v>
+      </c>
+      <c r="G414" s="51" t="s">
         <v>1242</v>
       </c>
-      <c r="H414" s="56" t="s">
+      <c r="H414" s="52" t="s">
         <v>1570</v>
       </c>
-      <c r="L414" s="55">
+      <c r="L414" s="51">
         <v>-4</v>
       </c>
-      <c r="M414" s="55">
-        <v>0</v>
-      </c>
-      <c r="N414" s="55">
-        <v>0</v>
-      </c>
-      <c r="O414" s="55" t="s">
+      <c r="M414" s="51">
+        <v>0</v>
+      </c>
+      <c r="N414" s="51">
+        <v>0</v>
+      </c>
+      <c r="O414" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="P414" s="55">
+      <c r="P414" s="51">
         <v>600</v>
       </c>
-      <c r="Q414" s="55" t="s">
+      <c r="Q414" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="R414" s="57" t="s">
+      <c r="R414" s="53" t="s">
         <v>1794</v>
       </c>
-      <c r="W414" s="55" t="s">
+      <c r="W414" s="51" t="s">
         <v>540</v>
       </c>
-      <c r="X414" s="58" t="s">
+      <c r="X414" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="Y414" s="59">
-        <v>0</v>
-      </c>
-      <c r="Z414" s="55">
+      <c r="Y414" s="55">
+        <v>0</v>
+      </c>
+      <c r="Z414" s="51">
         <v>2552233600</v>
       </c>
-      <c r="AH414" s="55">
-        <v>1</v>
-      </c>
-      <c r="AI414" s="55">
+      <c r="AH414" s="51">
+        <v>1</v>
+      </c>
+      <c r="AI414" s="51">
         <v>1</v>
       </c>
     </row>
@@ -37468,8 +37560,8 @@
       <c r="B417" s="5">
         <v>10333</v>
       </c>
-      <c r="D417" s="47"/>
-      <c r="E417" s="47"/>
+      <c r="D417" s="45"/>
+      <c r="E417" s="45"/>
       <c r="F417" s="5">
         <v>0</v>
       </c>
@@ -37538,8 +37630,8 @@
       <c r="B418" s="5">
         <v>10334</v>
       </c>
-      <c r="D418" s="47"/>
-      <c r="E418" s="47"/>
+      <c r="D418" s="45"/>
+      <c r="E418" s="45"/>
       <c r="F418" s="5">
         <v>0</v>
       </c>
@@ -37737,71 +37829,71 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A421" s="60">
+    <row r="421" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A421" s="56">
         <v>420</v>
       </c>
-      <c r="B421" s="60">
+      <c r="B421" s="56">
         <v>10337</v>
       </c>
-      <c r="F421" s="60">
-        <v>1</v>
-      </c>
-      <c r="G421" s="60" t="s">
+      <c r="F421" s="56">
+        <v>1</v>
+      </c>
+      <c r="G421" s="56" t="s">
         <v>1265</v>
       </c>
-      <c r="J421" s="60" t="s">
+      <c r="J421" s="56" t="s">
         <v>1266</v>
       </c>
-      <c r="L421" s="60">
+      <c r="L421" s="56">
         <v>-31</v>
       </c>
-      <c r="M421" s="60">
-        <v>0</v>
-      </c>
-      <c r="N421" s="60">
-        <v>0</v>
-      </c>
-      <c r="O421" s="60" t="s">
+      <c r="M421" s="56">
+        <v>0</v>
+      </c>
+      <c r="N421" s="56">
+        <v>0</v>
+      </c>
+      <c r="O421" s="56" t="s">
         <v>1267</v>
       </c>
-      <c r="P421" s="60">
+      <c r="P421" s="56">
         <v>1000</v>
       </c>
-      <c r="Q421" s="60" t="s">
+      <c r="Q421" s="56" t="s">
         <v>1268</v>
       </c>
-      <c r="R421" s="61" t="s">
+      <c r="R421" s="57" t="s">
         <v>1269</v>
       </c>
-      <c r="W421" s="60" t="s">
+      <c r="W421" s="56" t="s">
         <v>1253</v>
       </c>
-      <c r="X421" s="60">
+      <c r="X421" s="56">
         <v>9999999</v>
       </c>
-      <c r="Y421" s="60">
+      <c r="Y421" s="56">
         <v>1585609200</v>
       </c>
-      <c r="Z421" s="60">
+      <c r="Z421" s="56">
         <v>2552233600</v>
       </c>
-      <c r="AB421" s="60" t="s">
+      <c r="AB421" s="56" t="s">
         <v>1270</v>
       </c>
-      <c r="AC421" s="60" t="s">
+      <c r="AC421" s="56" t="s">
         <v>1271</v>
       </c>
-      <c r="AH421" s="60">
-        <v>1</v>
-      </c>
-      <c r="AI421" s="60">
-        <v>1</v>
-      </c>
-      <c r="AL421" s="60">
-        <v>1</v>
-      </c>
-      <c r="AM421" s="60">
+      <c r="AH421" s="56">
+        <v>1</v>
+      </c>
+      <c r="AI421" s="56">
+        <v>1</v>
+      </c>
+      <c r="AL421" s="56">
+        <v>1</v>
+      </c>
+      <c r="AM421" s="56">
         <v>1</v>
       </c>
     </row>
@@ -38009,555 +38101,555 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A425" s="60">
+    <row r="425" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A425" s="56">
         <v>424</v>
       </c>
-      <c r="B425" s="60">
+      <c r="B425" s="56">
         <v>10341</v>
       </c>
-      <c r="F425" s="60">
-        <v>1</v>
-      </c>
-      <c r="G425" s="60" t="s">
+      <c r="F425" s="56">
+        <v>1</v>
+      </c>
+      <c r="G425" s="56" t="s">
         <v>1286</v>
       </c>
-      <c r="J425" s="60" t="s">
+      <c r="J425" s="56" t="s">
         <v>1287</v>
       </c>
-      <c r="L425" s="60">
+      <c r="L425" s="56">
         <v>-31</v>
       </c>
-      <c r="M425" s="60">
-        <v>0</v>
-      </c>
-      <c r="N425" s="60">
-        <v>0</v>
-      </c>
-      <c r="O425" s="60" t="s">
+      <c r="M425" s="56">
+        <v>0</v>
+      </c>
+      <c r="N425" s="56">
+        <v>0</v>
+      </c>
+      <c r="O425" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="P425" s="60">
+      <c r="P425" s="56">
         <v>49800</v>
       </c>
-      <c r="Q425" s="60" t="s">
+      <c r="Q425" s="56" t="s">
         <v>1254</v>
       </c>
-      <c r="R425" s="61" t="s">
+      <c r="R425" s="57" t="s">
         <v>1288</v>
       </c>
-      <c r="W425" s="60" t="s">
+      <c r="W425" s="56" t="s">
         <v>1281</v>
       </c>
-      <c r="X425" s="60">
+      <c r="X425" s="56">
         <v>9999999</v>
       </c>
-      <c r="Y425" s="60">
+      <c r="Y425" s="56">
         <v>1585609200</v>
       </c>
-      <c r="Z425" s="60">
+      <c r="Z425" s="56">
         <v>2552233600</v>
       </c>
-      <c r="AH425" s="60">
-        <v>1</v>
-      </c>
-      <c r="AI425" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="426" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A426" s="60">
+      <c r="AH425" s="56">
+        <v>1</v>
+      </c>
+      <c r="AI425" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A426" s="56">
         <v>425</v>
       </c>
-      <c r="B426" s="60">
+      <c r="B426" s="56">
         <v>10342</v>
       </c>
-      <c r="F426" s="60">
-        <v>1</v>
-      </c>
-      <c r="G426" s="60" t="s">
+      <c r="F426" s="56">
+        <v>1</v>
+      </c>
+      <c r="G426" s="56" t="s">
         <v>1289</v>
       </c>
-      <c r="J426" s="60" t="s">
+      <c r="J426" s="56" t="s">
         <v>1290</v>
       </c>
-      <c r="L426" s="60">
+      <c r="L426" s="56">
         <v>-31</v>
       </c>
-      <c r="M426" s="60">
-        <v>0</v>
-      </c>
-      <c r="N426" s="60">
-        <v>0</v>
-      </c>
-      <c r="O426" s="60" t="s">
+      <c r="M426" s="56">
+        <v>0</v>
+      </c>
+      <c r="N426" s="56">
+        <v>0</v>
+      </c>
+      <c r="O426" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="P426" s="60">
+      <c r="P426" s="56">
         <v>19800</v>
       </c>
-      <c r="Q426" s="60" t="s">
+      <c r="Q426" s="56" t="s">
         <v>1291</v>
       </c>
-      <c r="R426" s="61" t="s">
+      <c r="R426" s="57" t="s">
         <v>1255</v>
       </c>
-      <c r="W426" s="60" t="s">
+      <c r="W426" s="56" t="s">
         <v>1281</v>
       </c>
-      <c r="X426" s="60">
+      <c r="X426" s="56">
         <v>9999999</v>
       </c>
-      <c r="Y426" s="60">
+      <c r="Y426" s="56">
         <v>1585609200</v>
       </c>
-      <c r="Z426" s="60">
+      <c r="Z426" s="56">
         <v>2552233600</v>
       </c>
-      <c r="AH426" s="60">
-        <v>1</v>
-      </c>
-      <c r="AI426" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="427" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A427" s="60">
+      <c r="AH426" s="56">
+        <v>1</v>
+      </c>
+      <c r="AI426" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A427" s="56">
         <v>426</v>
       </c>
-      <c r="B427" s="60">
+      <c r="B427" s="56">
         <v>10343</v>
       </c>
-      <c r="F427" s="60">
-        <v>1</v>
-      </c>
-      <c r="G427" s="60" t="s">
+      <c r="F427" s="56">
+        <v>1</v>
+      </c>
+      <c r="G427" s="56" t="s">
         <v>1292</v>
       </c>
-      <c r="J427" s="60" t="s">
+      <c r="J427" s="56" t="s">
         <v>1293</v>
       </c>
-      <c r="L427" s="60">
+      <c r="L427" s="56">
         <v>-31</v>
       </c>
-      <c r="M427" s="60">
-        <v>0</v>
-      </c>
-      <c r="N427" s="60">
-        <v>0</v>
-      </c>
-      <c r="O427" s="60" t="s">
+      <c r="M427" s="56">
+        <v>0</v>
+      </c>
+      <c r="N427" s="56">
+        <v>0</v>
+      </c>
+      <c r="O427" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="P427" s="60">
+      <c r="P427" s="56">
         <v>9800</v>
       </c>
-      <c r="Q427" s="60" t="s">
+      <c r="Q427" s="56" t="s">
         <v>1294</v>
       </c>
-      <c r="R427" s="61" t="s">
+      <c r="R427" s="57" t="s">
         <v>1288</v>
       </c>
-      <c r="W427" s="60" t="s">
+      <c r="W427" s="56" t="s">
         <v>1281</v>
       </c>
-      <c r="X427" s="60">
+      <c r="X427" s="56">
         <v>9999999</v>
       </c>
-      <c r="Y427" s="60">
+      <c r="Y427" s="56">
         <v>1585609200</v>
       </c>
-      <c r="Z427" s="60">
+      <c r="Z427" s="56">
         <v>2552233600</v>
       </c>
-      <c r="AH427" s="60">
-        <v>1</v>
-      </c>
-      <c r="AI427" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="428" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A428" s="60">
+      <c r="AH427" s="56">
+        <v>1</v>
+      </c>
+      <c r="AI427" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A428" s="56">
         <v>427</v>
       </c>
-      <c r="B428" s="60">
+      <c r="B428" s="56">
         <v>10344</v>
       </c>
-      <c r="F428" s="60">
-        <v>1</v>
-      </c>
-      <c r="G428" s="60" t="s">
+      <c r="F428" s="56">
+        <v>1</v>
+      </c>
+      <c r="G428" s="56" t="s">
         <v>1295</v>
       </c>
-      <c r="J428" s="60" t="s">
+      <c r="J428" s="56" t="s">
         <v>1296</v>
       </c>
-      <c r="L428" s="60">
+      <c r="L428" s="56">
         <v>-31</v>
       </c>
-      <c r="M428" s="60">
-        <v>0</v>
-      </c>
-      <c r="N428" s="60">
-        <v>0</v>
-      </c>
-      <c r="O428" s="60" t="s">
+      <c r="M428" s="56">
+        <v>0</v>
+      </c>
+      <c r="N428" s="56">
+        <v>0</v>
+      </c>
+      <c r="O428" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="P428" s="60">
+      <c r="P428" s="56">
         <v>9800</v>
       </c>
-      <c r="Q428" s="60" t="s">
+      <c r="Q428" s="56" t="s">
         <v>1297</v>
       </c>
-      <c r="R428" s="61" t="s">
+      <c r="R428" s="57" t="s">
         <v>1255</v>
       </c>
-      <c r="W428" s="60" t="s">
+      <c r="W428" s="56" t="s">
         <v>1281</v>
       </c>
-      <c r="X428" s="60">
+      <c r="X428" s="56">
         <v>9999999</v>
       </c>
-      <c r="Y428" s="60">
+      <c r="Y428" s="56">
         <v>1585609200</v>
       </c>
-      <c r="Z428" s="60">
+      <c r="Z428" s="56">
         <v>2552233600</v>
       </c>
-      <c r="AH428" s="60">
-        <v>1</v>
-      </c>
-      <c r="AI428" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="429" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A429" s="60">
+      <c r="AH428" s="56">
+        <v>1</v>
+      </c>
+      <c r="AI428" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A429" s="56">
         <v>428</v>
       </c>
-      <c r="B429" s="60">
+      <c r="B429" s="56">
         <v>10345</v>
       </c>
-      <c r="F429" s="60">
-        <v>1</v>
-      </c>
-      <c r="G429" s="60" t="s">
+      <c r="F429" s="56">
+        <v>1</v>
+      </c>
+      <c r="G429" s="56" t="s">
         <v>1298</v>
       </c>
-      <c r="J429" s="60" t="s">
+      <c r="J429" s="56" t="s">
         <v>1299</v>
       </c>
-      <c r="L429" s="60">
+      <c r="L429" s="56">
         <v>-31</v>
       </c>
-      <c r="M429" s="60">
-        <v>0</v>
-      </c>
-      <c r="N429" s="60">
-        <v>0</v>
-      </c>
-      <c r="O429" s="60" t="s">
+      <c r="M429" s="56">
+        <v>0</v>
+      </c>
+      <c r="N429" s="56">
+        <v>0</v>
+      </c>
+      <c r="O429" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="P429" s="60">
+      <c r="P429" s="56">
         <v>4800</v>
       </c>
-      <c r="Q429" s="60" t="s">
+      <c r="Q429" s="56" t="s">
         <v>1300</v>
       </c>
-      <c r="R429" s="61" t="s">
+      <c r="R429" s="57" t="s">
         <v>1255</v>
       </c>
-      <c r="W429" s="60" t="s">
+      <c r="W429" s="56" t="s">
         <v>1281</v>
       </c>
-      <c r="X429" s="60">
+      <c r="X429" s="56">
         <v>9999999</v>
       </c>
-      <c r="Y429" s="60">
+      <c r="Y429" s="56">
         <v>1585609200</v>
       </c>
-      <c r="Z429" s="60">
+      <c r="Z429" s="56">
         <v>2552233600</v>
       </c>
-      <c r="AH429" s="60">
-        <v>1</v>
-      </c>
-      <c r="AI429" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="430" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A430" s="60">
+      <c r="AH429" s="56">
+        <v>1</v>
+      </c>
+      <c r="AI429" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A430" s="56">
         <v>429</v>
       </c>
-      <c r="B430" s="60">
+      <c r="B430" s="56">
         <v>10346</v>
       </c>
-      <c r="F430" s="60">
-        <v>1</v>
-      </c>
-      <c r="G430" s="60" t="s">
+      <c r="F430" s="56">
+        <v>1</v>
+      </c>
+      <c r="G430" s="56" t="s">
         <v>1555</v>
       </c>
-      <c r="I430" s="60" t="s">
+      <c r="I430" s="56" t="s">
         <v>1513</v>
       </c>
-      <c r="J430" s="60" t="s">
+      <c r="J430" s="56" t="s">
         <v>1556</v>
       </c>
-      <c r="L430" s="60">
+      <c r="L430" s="56">
         <v>-28</v>
       </c>
-      <c r="M430" s="60">
-        <v>0</v>
-      </c>
-      <c r="N430" s="60">
-        <v>0</v>
-      </c>
-      <c r="O430" s="60" t="s">
+      <c r="M430" s="56">
+        <v>0</v>
+      </c>
+      <c r="N430" s="56">
+        <v>0</v>
+      </c>
+      <c r="O430" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="P430" s="60">
+      <c r="P430" s="56">
         <v>100</v>
       </c>
-      <c r="Q430" s="60" t="s">
+      <c r="Q430" s="56" t="s">
         <v>1247</v>
       </c>
-      <c r="R430" s="61" t="s">
+      <c r="R430" s="57" t="s">
         <v>1558</v>
       </c>
-      <c r="W430" s="60" t="s">
+      <c r="W430" s="56" t="s">
         <v>1124</v>
       </c>
-      <c r="X430" s="60">
+      <c r="X430" s="56">
         <v>9999999</v>
       </c>
-      <c r="Y430" s="60">
+      <c r="Y430" s="56">
         <v>1581377400</v>
       </c>
-      <c r="Z430" s="60">
+      <c r="Z430" s="56">
         <v>2552233600</v>
       </c>
-      <c r="AA430" s="60">
+      <c r="AA430" s="56">
         <v>14</v>
       </c>
-      <c r="AH430" s="60">
-        <v>1</v>
-      </c>
-      <c r="AI430" s="60">
-        <v>1</v>
-      </c>
-      <c r="AL430" s="60">
-        <v>1</v>
-      </c>
-      <c r="AM430" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="431" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A431" s="60">
+      <c r="AH430" s="56">
+        <v>1</v>
+      </c>
+      <c r="AI430" s="56">
+        <v>1</v>
+      </c>
+      <c r="AL430" s="56">
+        <v>1</v>
+      </c>
+      <c r="AM430" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A431" s="56">
         <v>430</v>
       </c>
-      <c r="B431" s="60">
+      <c r="B431" s="56">
         <v>10347</v>
       </c>
-      <c r="F431" s="60">
-        <v>1</v>
-      </c>
-      <c r="G431" s="60" t="s">
+      <c r="F431" s="56">
+        <v>1</v>
+      </c>
+      <c r="G431" s="56" t="s">
         <v>1555</v>
       </c>
-      <c r="I431" s="60" t="s">
+      <c r="I431" s="56" t="s">
         <v>1514</v>
       </c>
-      <c r="J431" s="60" t="s">
+      <c r="J431" s="56" t="s">
         <v>1552</v>
       </c>
-      <c r="L431" s="60">
+      <c r="L431" s="56">
         <v>-28</v>
       </c>
-      <c r="M431" s="60">
-        <v>0</v>
-      </c>
-      <c r="N431" s="60">
-        <v>0</v>
-      </c>
-      <c r="O431" s="60" t="s">
+      <c r="M431" s="56">
+        <v>0</v>
+      </c>
+      <c r="N431" s="56">
+        <v>0</v>
+      </c>
+      <c r="O431" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="P431" s="60">
+      <c r="P431" s="56">
         <v>300</v>
       </c>
-      <c r="Q431" s="60" t="s">
+      <c r="Q431" s="56" t="s">
         <v>1247</v>
       </c>
-      <c r="R431" s="61" t="s">
+      <c r="R431" s="57" t="s">
         <v>1559</v>
       </c>
-      <c r="W431" s="60" t="s">
+      <c r="W431" s="56" t="s">
         <v>543</v>
       </c>
-      <c r="X431" s="60">
+      <c r="X431" s="56">
         <v>9999999</v>
       </c>
-      <c r="Y431" s="60">
+      <c r="Y431" s="56">
         <v>1581377400</v>
       </c>
-      <c r="Z431" s="60">
+      <c r="Z431" s="56">
         <v>2552233600</v>
       </c>
-      <c r="AA431" s="60">
+      <c r="AA431" s="56">
         <v>14</v>
       </c>
-      <c r="AH431" s="60">
-        <v>1</v>
-      </c>
-      <c r="AI431" s="60">
-        <v>1</v>
-      </c>
-      <c r="AL431" s="60">
-        <v>1</v>
-      </c>
-      <c r="AM431" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="432" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A432" s="60">
+      <c r="AH431" s="56">
+        <v>1</v>
+      </c>
+      <c r="AI431" s="56">
+        <v>1</v>
+      </c>
+      <c r="AL431" s="56">
+        <v>1</v>
+      </c>
+      <c r="AM431" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A432" s="56">
         <v>431</v>
       </c>
-      <c r="B432" s="60">
+      <c r="B432" s="56">
         <v>10348</v>
       </c>
-      <c r="F432" s="60">
-        <v>1</v>
-      </c>
-      <c r="G432" s="60" t="s">
+      <c r="F432" s="56">
+        <v>1</v>
+      </c>
+      <c r="G432" s="56" t="s">
         <v>1555</v>
       </c>
-      <c r="I432" s="60" t="s">
+      <c r="I432" s="56" t="s">
         <v>1515</v>
       </c>
-      <c r="J432" s="60" t="s">
+      <c r="J432" s="56" t="s">
         <v>1553</v>
       </c>
-      <c r="L432" s="60">
+      <c r="L432" s="56">
         <v>-28</v>
       </c>
-      <c r="M432" s="60">
-        <v>0</v>
-      </c>
-      <c r="N432" s="60">
-        <v>0</v>
-      </c>
-      <c r="O432" s="60" t="s">
+      <c r="M432" s="56">
+        <v>0</v>
+      </c>
+      <c r="N432" s="56">
+        <v>0</v>
+      </c>
+      <c r="O432" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="P432" s="60">
+      <c r="P432" s="56">
         <v>600</v>
       </c>
-      <c r="Q432" s="60" t="s">
+      <c r="Q432" s="56" t="s">
         <v>1247</v>
       </c>
-      <c r="R432" s="61" t="s">
+      <c r="R432" s="57" t="s">
         <v>1521</v>
       </c>
-      <c r="W432" s="60" t="s">
+      <c r="W432" s="56" t="s">
         <v>543</v>
       </c>
-      <c r="X432" s="60">
+      <c r="X432" s="56">
         <v>9999999</v>
       </c>
-      <c r="Y432" s="60">
+      <c r="Y432" s="56">
         <v>1581377400</v>
       </c>
-      <c r="Z432" s="60">
+      <c r="Z432" s="56">
         <v>2552233600</v>
       </c>
-      <c r="AA432" s="60">
+      <c r="AA432" s="56">
         <v>14</v>
       </c>
-      <c r="AH432" s="60">
-        <v>1</v>
-      </c>
-      <c r="AI432" s="60">
-        <v>1</v>
-      </c>
-      <c r="AL432" s="60">
-        <v>1</v>
-      </c>
-      <c r="AM432" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="433" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A433" s="60">
+      <c r="AH432" s="56">
+        <v>1</v>
+      </c>
+      <c r="AI432" s="56">
+        <v>1</v>
+      </c>
+      <c r="AL432" s="56">
+        <v>1</v>
+      </c>
+      <c r="AM432" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A433" s="56">
         <v>432</v>
       </c>
-      <c r="B433" s="60">
+      <c r="B433" s="56">
         <v>10349</v>
       </c>
-      <c r="F433" s="60">
-        <v>1</v>
-      </c>
-      <c r="G433" s="60" t="s">
+      <c r="F433" s="56">
+        <v>1</v>
+      </c>
+      <c r="G433" s="56" t="s">
         <v>1555</v>
       </c>
-      <c r="I433" s="60" t="s">
+      <c r="I433" s="56" t="s">
         <v>1560</v>
       </c>
-      <c r="J433" s="60" t="s">
+      <c r="J433" s="56" t="s">
         <v>1554</v>
       </c>
-      <c r="L433" s="60">
+      <c r="L433" s="56">
         <v>-28</v>
       </c>
-      <c r="M433" s="60">
-        <v>0</v>
-      </c>
-      <c r="N433" s="60">
-        <v>0</v>
-      </c>
-      <c r="O433" s="60" t="s">
+      <c r="M433" s="56">
+        <v>0</v>
+      </c>
+      <c r="N433" s="56">
+        <v>0</v>
+      </c>
+      <c r="O433" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="P433" s="60">
+      <c r="P433" s="56">
         <v>600</v>
       </c>
-      <c r="Q433" s="60" t="s">
+      <c r="Q433" s="56" t="s">
         <v>1557</v>
       </c>
-      <c r="R433" s="61" t="s">
+      <c r="R433" s="57" t="s">
         <v>1561</v>
       </c>
-      <c r="W433" s="60" t="s">
+      <c r="W433" s="56" t="s">
         <v>543</v>
       </c>
-      <c r="X433" s="60">
+      <c r="X433" s="56">
         <v>9999999</v>
       </c>
-      <c r="Y433" s="60">
+      <c r="Y433" s="56">
         <v>1581377400</v>
       </c>
-      <c r="Z433" s="60">
+      <c r="Z433" s="56">
         <v>2552233600</v>
       </c>
-      <c r="AA433" s="60">
+      <c r="AA433" s="56">
         <v>14</v>
       </c>
-      <c r="AH433" s="60">
-        <v>1</v>
-      </c>
-      <c r="AI433" s="60">
-        <v>1</v>
-      </c>
-      <c r="AL433" s="60">
-        <v>1</v>
-      </c>
-      <c r="AM433" s="60">
+      <c r="AH433" s="56">
+        <v>1</v>
+      </c>
+      <c r="AI433" s="56">
+        <v>1</v>
+      </c>
+      <c r="AL433" s="56">
+        <v>1</v>
+      </c>
+      <c r="AM433" s="56">
         <v>1</v>
       </c>
     </row>
@@ -39388,1930 +39480,1930 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A447" s="60">
+    <row r="447" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A447" s="56">
         <v>446</v>
       </c>
-      <c r="B447" s="60">
+      <c r="B447" s="56">
         <v>10363</v>
       </c>
-      <c r="F447" s="60">
-        <v>1</v>
-      </c>
-      <c r="G447" s="60" t="s">
+      <c r="F447" s="56">
+        <v>1</v>
+      </c>
+      <c r="G447" s="56" t="s">
         <v>1331</v>
       </c>
-      <c r="I447" s="60" t="s">
+      <c r="I447" s="56" t="s">
         <v>1332</v>
       </c>
-      <c r="J447" s="60" t="s">
+      <c r="J447" s="56" t="s">
         <v>1333</v>
       </c>
-      <c r="L447" s="60">
+      <c r="L447" s="56">
         <v>-31</v>
       </c>
-      <c r="M447" s="60">
-        <v>0</v>
-      </c>
-      <c r="N447" s="60">
-        <v>0</v>
-      </c>
-      <c r="O447" s="60" t="s">
+      <c r="M447" s="56">
+        <v>0</v>
+      </c>
+      <c r="N447" s="56">
+        <v>0</v>
+      </c>
+      <c r="O447" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="P447" s="60">
+      <c r="P447" s="56">
         <v>800</v>
       </c>
-      <c r="Q447" s="60" t="s">
+      <c r="Q447" s="56" t="s">
         <v>460</v>
       </c>
-      <c r="R447" s="61" t="s">
+      <c r="R447" s="57" t="s">
         <v>1334</v>
       </c>
-      <c r="W447" s="60" t="s">
+      <c r="W447" s="56" t="s">
         <v>587</v>
       </c>
-      <c r="X447" s="60">
+      <c r="X447" s="56">
         <v>9999999</v>
       </c>
-      <c r="Y447" s="60">
+      <c r="Y447" s="56">
         <v>1605571200</v>
       </c>
-      <c r="Z447" s="60">
+      <c r="Z447" s="56">
         <v>2552233600</v>
       </c>
-      <c r="AA447" s="60">
+      <c r="AA447" s="56">
         <v>52</v>
       </c>
-      <c r="AH447" s="60">
-        <v>1</v>
-      </c>
-      <c r="AI447" s="60">
-        <v>1</v>
-      </c>
-      <c r="AL447" s="60">
-        <v>1</v>
-      </c>
-      <c r="AM447" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="448" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A448" s="60">
+      <c r="AH447" s="56">
+        <v>1</v>
+      </c>
+      <c r="AI447" s="56">
+        <v>1</v>
+      </c>
+      <c r="AL447" s="56">
+        <v>1</v>
+      </c>
+      <c r="AM447" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A448" s="56">
         <v>447</v>
       </c>
-      <c r="B448" s="60">
+      <c r="B448" s="56">
         <v>10364</v>
       </c>
-      <c r="F448" s="60">
-        <v>1</v>
-      </c>
-      <c r="G448" s="60" t="s">
+      <c r="F448" s="56">
+        <v>1</v>
+      </c>
+      <c r="G448" s="56" t="s">
         <v>1335</v>
       </c>
-      <c r="I448" s="60" t="s">
+      <c r="I448" s="56" t="s">
         <v>1336</v>
       </c>
-      <c r="J448" s="60" t="s">
+      <c r="J448" s="56" t="s">
         <v>1337</v>
       </c>
-      <c r="L448" s="60">
+      <c r="L448" s="56">
         <v>-31</v>
       </c>
-      <c r="M448" s="60">
-        <v>0</v>
-      </c>
-      <c r="N448" s="60">
-        <v>0</v>
-      </c>
-      <c r="O448" s="60" t="s">
+      <c r="M448" s="56">
+        <v>0</v>
+      </c>
+      <c r="N448" s="56">
+        <v>0</v>
+      </c>
+      <c r="O448" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="P448" s="60">
+      <c r="P448" s="56">
         <v>800</v>
       </c>
-      <c r="Q448" s="60" t="s">
+      <c r="Q448" s="56" t="s">
         <v>460</v>
       </c>
-      <c r="R448" s="61" t="s">
+      <c r="R448" s="57" t="s">
         <v>1338</v>
       </c>
-      <c r="W448" s="60" t="s">
+      <c r="W448" s="56" t="s">
         <v>587</v>
       </c>
-      <c r="X448" s="60">
+      <c r="X448" s="56">
         <v>9999999</v>
       </c>
-      <c r="Y448" s="60">
+      <c r="Y448" s="56">
         <v>1605571200</v>
       </c>
-      <c r="Z448" s="60">
+      <c r="Z448" s="56">
         <v>2552233600</v>
       </c>
-      <c r="AH448" s="60">
-        <v>1</v>
-      </c>
-      <c r="AI448" s="60">
-        <v>1</v>
-      </c>
-      <c r="AL448" s="60">
-        <v>1</v>
-      </c>
-      <c r="AM448" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="449" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A449" s="60">
+      <c r="AH448" s="56">
+        <v>1</v>
+      </c>
+      <c r="AI448" s="56">
+        <v>1</v>
+      </c>
+      <c r="AL448" s="56">
+        <v>1</v>
+      </c>
+      <c r="AM448" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A449" s="56">
         <v>448</v>
       </c>
-      <c r="B449" s="60">
+      <c r="B449" s="56">
         <v>10365</v>
       </c>
-      <c r="F449" s="60">
-        <v>1</v>
-      </c>
-      <c r="G449" s="60" t="s">
+      <c r="F449" s="56">
+        <v>1</v>
+      </c>
+      <c r="G449" s="56" t="s">
         <v>1339</v>
       </c>
-      <c r="I449" s="60" t="s">
+      <c r="I449" s="56" t="s">
         <v>1340</v>
       </c>
-      <c r="J449" s="60" t="s">
+      <c r="J449" s="56" t="s">
         <v>1341</v>
       </c>
-      <c r="L449" s="60">
+      <c r="L449" s="56">
         <v>-31</v>
       </c>
-      <c r="M449" s="60">
-        <v>0</v>
-      </c>
-      <c r="N449" s="60">
-        <v>0</v>
-      </c>
-      <c r="O449" s="60" t="s">
+      <c r="M449" s="56">
+        <v>0</v>
+      </c>
+      <c r="N449" s="56">
+        <v>0</v>
+      </c>
+      <c r="O449" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="P449" s="60">
+      <c r="P449" s="56">
         <v>800</v>
       </c>
-      <c r="Q449" s="60" t="s">
+      <c r="Q449" s="56" t="s">
         <v>460</v>
       </c>
-      <c r="R449" s="61" t="s">
+      <c r="R449" s="57" t="s">
         <v>1342</v>
       </c>
-      <c r="W449" s="60" t="s">
+      <c r="W449" s="56" t="s">
         <v>543</v>
       </c>
-      <c r="X449" s="60">
+      <c r="X449" s="56">
         <v>9999999</v>
       </c>
-      <c r="Y449" s="60">
+      <c r="Y449" s="56">
         <v>1605571200</v>
       </c>
-      <c r="Z449" s="60">
+      <c r="Z449" s="56">
         <v>2552233600</v>
       </c>
-      <c r="AA449" s="60">
+      <c r="AA449" s="56">
         <v>53</v>
       </c>
-      <c r="AH449" s="60">
-        <v>1</v>
-      </c>
-      <c r="AI449" s="60">
-        <v>1</v>
-      </c>
-      <c r="AL449" s="60">
-        <v>1</v>
-      </c>
-      <c r="AM449" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="450" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A450" s="60">
+      <c r="AH449" s="56">
+        <v>1</v>
+      </c>
+      <c r="AI449" s="56">
+        <v>1</v>
+      </c>
+      <c r="AL449" s="56">
+        <v>1</v>
+      </c>
+      <c r="AM449" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A450" s="56">
         <v>449</v>
       </c>
-      <c r="B450" s="60">
+      <c r="B450" s="56">
         <v>10366</v>
       </c>
-      <c r="F450" s="60">
-        <v>1</v>
-      </c>
-      <c r="G450" s="60" t="s">
+      <c r="F450" s="56">
+        <v>1</v>
+      </c>
+      <c r="G450" s="56" t="s">
         <v>1343</v>
       </c>
-      <c r="I450" s="60" t="s">
+      <c r="I450" s="56" t="s">
         <v>1344</v>
       </c>
-      <c r="J450" s="60" t="s">
+      <c r="J450" s="56" t="s">
         <v>1345</v>
       </c>
-      <c r="L450" s="60">
+      <c r="L450" s="56">
         <v>-31</v>
       </c>
-      <c r="M450" s="60">
-        <v>0</v>
-      </c>
-      <c r="N450" s="60">
-        <v>0</v>
-      </c>
-      <c r="O450" s="60" t="s">
+      <c r="M450" s="56">
+        <v>0</v>
+      </c>
+      <c r="N450" s="56">
+        <v>0</v>
+      </c>
+      <c r="O450" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="P450" s="60">
+      <c r="P450" s="56">
         <v>3800</v>
       </c>
-      <c r="Q450" s="60" t="s">
+      <c r="Q450" s="56" t="s">
         <v>460</v>
       </c>
-      <c r="R450" s="61" t="s">
+      <c r="R450" s="57" t="s">
         <v>1346</v>
       </c>
-      <c r="W450" s="60" t="s">
+      <c r="W450" s="56" t="s">
         <v>543</v>
       </c>
-      <c r="X450" s="60">
+      <c r="X450" s="56">
         <v>9999999</v>
       </c>
-      <c r="Y450" s="60">
+      <c r="Y450" s="56">
         <v>1605571200</v>
       </c>
-      <c r="Z450" s="60">
+      <c r="Z450" s="56">
         <v>2552233600</v>
       </c>
-      <c r="AA450" s="60">
+      <c r="AA450" s="56">
         <v>54</v>
       </c>
-      <c r="AH450" s="60">
-        <v>1</v>
-      </c>
-      <c r="AI450" s="60">
-        <v>1</v>
-      </c>
-      <c r="AL450" s="60">
-        <v>1</v>
-      </c>
-      <c r="AM450" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="451" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A451" s="60">
+      <c r="AH450" s="56">
+        <v>1</v>
+      </c>
+      <c r="AI450" s="56">
+        <v>1</v>
+      </c>
+      <c r="AL450" s="56">
+        <v>1</v>
+      </c>
+      <c r="AM450" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A451" s="56">
         <v>450</v>
       </c>
-      <c r="B451" s="60">
+      <c r="B451" s="56">
         <v>10367</v>
       </c>
-      <c r="F451" s="60">
-        <v>1</v>
-      </c>
-      <c r="G451" s="60" t="s">
+      <c r="F451" s="56">
+        <v>1</v>
+      </c>
+      <c r="G451" s="56" t="s">
         <v>1347</v>
       </c>
-      <c r="I451" s="60" t="s">
+      <c r="I451" s="56" t="s">
         <v>1348</v>
       </c>
-      <c r="J451" s="60" t="s">
+      <c r="J451" s="56" t="s">
         <v>1349</v>
       </c>
-      <c r="L451" s="60">
+      <c r="L451" s="56">
         <v>-31</v>
       </c>
-      <c r="M451" s="60">
-        <v>0</v>
-      </c>
-      <c r="N451" s="60">
-        <v>0</v>
-      </c>
-      <c r="O451" s="60" t="s">
+      <c r="M451" s="56">
+        <v>0</v>
+      </c>
+      <c r="N451" s="56">
+        <v>0</v>
+      </c>
+      <c r="O451" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="P451" s="60">
+      <c r="P451" s="56">
         <v>3800</v>
       </c>
-      <c r="Q451" s="60" t="s">
+      <c r="Q451" s="56" t="s">
         <v>460</v>
       </c>
-      <c r="R451" s="61" t="s">
+      <c r="R451" s="57" t="s">
         <v>1350</v>
       </c>
-      <c r="W451" s="60" t="s">
+      <c r="W451" s="56" t="s">
         <v>543</v>
       </c>
-      <c r="X451" s="60">
+      <c r="X451" s="56">
         <v>9999999</v>
       </c>
-      <c r="Y451" s="60">
+      <c r="Y451" s="56">
         <v>1605571200</v>
       </c>
-      <c r="Z451" s="60">
+      <c r="Z451" s="56">
         <v>2552233600</v>
       </c>
-      <c r="AH451" s="60">
-        <v>1</v>
-      </c>
-      <c r="AI451" s="60">
-        <v>1</v>
-      </c>
-      <c r="AL451" s="60">
-        <v>1</v>
-      </c>
-      <c r="AM451" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="452" spans="1:39" s="60" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A452" s="60">
+      <c r="AH451" s="56">
+        <v>1</v>
+      </c>
+      <c r="AI451" s="56">
+        <v>1</v>
+      </c>
+      <c r="AL451" s="56">
+        <v>1</v>
+      </c>
+      <c r="AM451" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:39" s="56" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A452" s="56">
         <v>451</v>
       </c>
-      <c r="B452" s="60">
+      <c r="B452" s="56">
         <v>10368</v>
       </c>
-      <c r="F452" s="60">
-        <v>1</v>
-      </c>
-      <c r="G452" s="60" t="s">
+      <c r="F452" s="56">
+        <v>1</v>
+      </c>
+      <c r="G452" s="56" t="s">
         <v>1351</v>
       </c>
-      <c r="I452" s="60" t="s">
+      <c r="I452" s="56" t="s">
         <v>1352</v>
       </c>
-      <c r="J452" s="60" t="s">
+      <c r="J452" s="56" t="s">
         <v>1353</v>
       </c>
-      <c r="L452" s="60">
+      <c r="L452" s="56">
         <v>-31</v>
       </c>
-      <c r="M452" s="60">
-        <v>0</v>
-      </c>
-      <c r="N452" s="60">
-        <v>0</v>
-      </c>
-      <c r="O452" s="60" t="s">
+      <c r="M452" s="56">
+        <v>0</v>
+      </c>
+      <c r="N452" s="56">
+        <v>0</v>
+      </c>
+      <c r="O452" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="P452" s="60">
+      <c r="P452" s="56">
         <v>3800</v>
       </c>
-      <c r="Q452" s="60" t="s">
+      <c r="Q452" s="56" t="s">
         <v>460</v>
       </c>
-      <c r="R452" s="61" t="s">
+      <c r="R452" s="57" t="s">
         <v>1354</v>
       </c>
-      <c r="W452" s="60" t="s">
+      <c r="W452" s="56" t="s">
         <v>543</v>
       </c>
-      <c r="X452" s="60">
+      <c r="X452" s="56">
         <v>9999999</v>
       </c>
-      <c r="Y452" s="60">
+      <c r="Y452" s="56">
         <v>1605571200</v>
       </c>
-      <c r="Z452" s="60">
+      <c r="Z452" s="56">
         <v>2552233600</v>
       </c>
-      <c r="AA452" s="60">
+      <c r="AA452" s="56">
         <v>55</v>
       </c>
-      <c r="AH452" s="60">
-        <v>1</v>
-      </c>
-      <c r="AI452" s="60">
-        <v>1</v>
-      </c>
-      <c r="AL452" s="60">
-        <v>1</v>
-      </c>
-      <c r="AM452" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="453" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A453" s="60">
+      <c r="AH452" s="56">
+        <v>1</v>
+      </c>
+      <c r="AI452" s="56">
+        <v>1</v>
+      </c>
+      <c r="AL452" s="56">
+        <v>1</v>
+      </c>
+      <c r="AM452" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A453" s="56">
         <v>452</v>
       </c>
-      <c r="B453" s="60">
+      <c r="B453" s="56">
         <v>10369</v>
       </c>
-      <c r="F453" s="60">
-        <v>1</v>
-      </c>
-      <c r="G453" s="60" t="s">
+      <c r="F453" s="56">
+        <v>1</v>
+      </c>
+      <c r="G453" s="56" t="s">
         <v>1355</v>
       </c>
-      <c r="I453" s="60" t="s">
+      <c r="I453" s="56" t="s">
         <v>1356</v>
       </c>
-      <c r="J453" s="60" t="s">
+      <c r="J453" s="56" t="s">
         <v>1357</v>
       </c>
-      <c r="L453" s="60">
+      <c r="L453" s="56">
         <v>-31</v>
       </c>
-      <c r="M453" s="60">
-        <v>0</v>
-      </c>
-      <c r="N453" s="60">
-        <v>0</v>
-      </c>
-      <c r="O453" s="60" t="s">
+      <c r="M453" s="56">
+        <v>0</v>
+      </c>
+      <c r="N453" s="56">
+        <v>0</v>
+      </c>
+      <c r="O453" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="P453" s="60">
+      <c r="P453" s="56">
         <v>9800</v>
       </c>
-      <c r="Q453" s="60" t="s">
+      <c r="Q453" s="56" t="s">
         <v>460</v>
       </c>
-      <c r="R453" s="61" t="s">
+      <c r="R453" s="57" t="s">
         <v>1358</v>
       </c>
-      <c r="W453" s="60" t="s">
+      <c r="W453" s="56" t="s">
         <v>543</v>
       </c>
-      <c r="X453" s="60">
+      <c r="X453" s="56">
         <v>9999999</v>
       </c>
-      <c r="Y453" s="60">
+      <c r="Y453" s="56">
         <v>1605571200</v>
       </c>
-      <c r="Z453" s="60">
+      <c r="Z453" s="56">
         <v>2552233600</v>
       </c>
-      <c r="AA453" s="60">
+      <c r="AA453" s="56">
         <v>56</v>
       </c>
-      <c r="AH453" s="60">
-        <v>1</v>
-      </c>
-      <c r="AI453" s="60">
-        <v>1</v>
-      </c>
-      <c r="AL453" s="60">
-        <v>1</v>
-      </c>
-      <c r="AM453" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="454" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A454" s="60">
+      <c r="AH453" s="56">
+        <v>1</v>
+      </c>
+      <c r="AI453" s="56">
+        <v>1</v>
+      </c>
+      <c r="AL453" s="56">
+        <v>1</v>
+      </c>
+      <c r="AM453" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A454" s="56">
         <v>453</v>
       </c>
-      <c r="B454" s="60">
+      <c r="B454" s="56">
         <v>10370</v>
       </c>
-      <c r="F454" s="60">
-        <v>1</v>
-      </c>
-      <c r="G454" s="60" t="s">
+      <c r="F454" s="56">
+        <v>1</v>
+      </c>
+      <c r="G454" s="56" t="s">
         <v>1359</v>
       </c>
-      <c r="I454" s="60" t="s">
+      <c r="I454" s="56" t="s">
         <v>1360</v>
       </c>
-      <c r="J454" s="60" t="s">
+      <c r="J454" s="56" t="s">
         <v>1361</v>
       </c>
-      <c r="L454" s="60">
+      <c r="L454" s="56">
         <v>-31</v>
       </c>
-      <c r="M454" s="60">
-        <v>0</v>
-      </c>
-      <c r="N454" s="60">
-        <v>0</v>
-      </c>
-      <c r="O454" s="60" t="s">
+      <c r="M454" s="56">
+        <v>0</v>
+      </c>
+      <c r="N454" s="56">
+        <v>0</v>
+      </c>
+      <c r="O454" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="P454" s="60">
+      <c r="P454" s="56">
         <v>9800</v>
       </c>
-      <c r="Q454" s="60" t="s">
+      <c r="Q454" s="56" t="s">
         <v>460</v>
       </c>
-      <c r="R454" s="61" t="s">
+      <c r="R454" s="57" t="s">
         <v>1362</v>
       </c>
-      <c r="W454" s="60" t="s">
+      <c r="W454" s="56" t="s">
         <v>543</v>
       </c>
-      <c r="X454" s="60">
+      <c r="X454" s="56">
         <v>9999999</v>
       </c>
-      <c r="Y454" s="60">
+      <c r="Y454" s="56">
         <v>1605571200</v>
       </c>
-      <c r="Z454" s="60">
+      <c r="Z454" s="56">
         <v>2552233600</v>
       </c>
-      <c r="AH454" s="60">
-        <v>1</v>
-      </c>
-      <c r="AI454" s="60">
-        <v>1</v>
-      </c>
-      <c r="AL454" s="60">
-        <v>1</v>
-      </c>
-      <c r="AM454" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="455" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A455" s="60">
+      <c r="AH454" s="56">
+        <v>1</v>
+      </c>
+      <c r="AI454" s="56">
+        <v>1</v>
+      </c>
+      <c r="AL454" s="56">
+        <v>1</v>
+      </c>
+      <c r="AM454" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A455" s="56">
         <v>454</v>
       </c>
-      <c r="B455" s="60">
+      <c r="B455" s="56">
         <v>10371</v>
       </c>
-      <c r="F455" s="60">
-        <v>1</v>
-      </c>
-      <c r="G455" s="60" t="s">
+      <c r="F455" s="56">
+        <v>1</v>
+      </c>
+      <c r="G455" s="56" t="s">
         <v>1363</v>
       </c>
-      <c r="I455" s="60" t="s">
+      <c r="I455" s="56" t="s">
         <v>1364</v>
       </c>
-      <c r="J455" s="60" t="s">
+      <c r="J455" s="56" t="s">
         <v>1365</v>
       </c>
-      <c r="L455" s="60">
+      <c r="L455" s="56">
         <v>-31</v>
       </c>
-      <c r="M455" s="60">
-        <v>0</v>
-      </c>
-      <c r="N455" s="60">
-        <v>0</v>
-      </c>
-      <c r="O455" s="60" t="s">
+      <c r="M455" s="56">
+        <v>0</v>
+      </c>
+      <c r="N455" s="56">
+        <v>0</v>
+      </c>
+      <c r="O455" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="P455" s="60">
+      <c r="P455" s="56">
         <v>9800</v>
       </c>
-      <c r="Q455" s="60" t="s">
+      <c r="Q455" s="56" t="s">
         <v>460</v>
       </c>
-      <c r="R455" s="61" t="s">
+      <c r="R455" s="57" t="s">
         <v>1491</v>
       </c>
-      <c r="W455" s="60" t="s">
+      <c r="W455" s="56" t="s">
         <v>543</v>
       </c>
-      <c r="X455" s="60">
+      <c r="X455" s="56">
         <v>9999999</v>
       </c>
-      <c r="Y455" s="60">
+      <c r="Y455" s="56">
         <v>1605571200</v>
       </c>
-      <c r="Z455" s="60">
+      <c r="Z455" s="56">
         <v>2552233600</v>
       </c>
-      <c r="AA455" s="60">
+      <c r="AA455" s="56">
         <v>57</v>
       </c>
-      <c r="AH455" s="60">
-        <v>1</v>
-      </c>
-      <c r="AI455" s="60">
-        <v>1</v>
-      </c>
-      <c r="AL455" s="60">
-        <v>1</v>
-      </c>
-      <c r="AM455" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="456" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A456" s="60">
+      <c r="AH455" s="56">
+        <v>1</v>
+      </c>
+      <c r="AI455" s="56">
+        <v>1</v>
+      </c>
+      <c r="AL455" s="56">
+        <v>1</v>
+      </c>
+      <c r="AM455" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A456" s="56">
         <v>455</v>
       </c>
-      <c r="B456" s="60">
+      <c r="B456" s="56">
         <v>10372</v>
       </c>
-      <c r="F456" s="60">
-        <v>1</v>
-      </c>
-      <c r="G456" s="60" t="s">
+      <c r="F456" s="56">
+        <v>1</v>
+      </c>
+      <c r="G456" s="56" t="s">
         <v>1366</v>
       </c>
-      <c r="I456" s="60" t="s">
+      <c r="I456" s="56" t="s">
         <v>1367</v>
       </c>
-      <c r="J456" s="60" t="s">
+      <c r="J456" s="56" t="s">
         <v>1368</v>
       </c>
-      <c r="L456" s="60">
+      <c r="L456" s="56">
         <v>-31</v>
       </c>
-      <c r="M456" s="60">
-        <v>0</v>
-      </c>
-      <c r="N456" s="60">
-        <v>0</v>
-      </c>
-      <c r="O456" s="60" t="s">
+      <c r="M456" s="56">
+        <v>0</v>
+      </c>
+      <c r="N456" s="56">
+        <v>0</v>
+      </c>
+      <c r="O456" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="P456" s="60">
+      <c r="P456" s="56">
         <v>19800</v>
       </c>
-      <c r="Q456" s="60" t="s">
+      <c r="Q456" s="56" t="s">
         <v>460</v>
       </c>
-      <c r="R456" s="61" t="s">
+      <c r="R456" s="57" t="s">
         <v>1369</v>
       </c>
-      <c r="W456" s="60" t="s">
+      <c r="W456" s="56" t="s">
         <v>543</v>
       </c>
-      <c r="X456" s="60">
+      <c r="X456" s="56">
         <v>9999999</v>
       </c>
-      <c r="Y456" s="60">
+      <c r="Y456" s="56">
         <v>1605571200</v>
       </c>
-      <c r="Z456" s="60">
+      <c r="Z456" s="56">
         <v>2552233600</v>
       </c>
-      <c r="AA456" s="60">
+      <c r="AA456" s="56">
         <v>58</v>
       </c>
-      <c r="AH456" s="60">
-        <v>1</v>
-      </c>
-      <c r="AI456" s="60">
-        <v>1</v>
-      </c>
-      <c r="AL456" s="60">
-        <v>1</v>
-      </c>
-      <c r="AM456" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="457" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A457" s="60">
+      <c r="AH456" s="56">
+        <v>1</v>
+      </c>
+      <c r="AI456" s="56">
+        <v>1</v>
+      </c>
+      <c r="AL456" s="56">
+        <v>1</v>
+      </c>
+      <c r="AM456" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A457" s="56">
         <v>456</v>
       </c>
-      <c r="B457" s="60">
+      <c r="B457" s="56">
         <v>10373</v>
       </c>
-      <c r="F457" s="60">
-        <v>1</v>
-      </c>
-      <c r="G457" s="60" t="s">
+      <c r="F457" s="56">
+        <v>1</v>
+      </c>
+      <c r="G457" s="56" t="s">
         <v>1370</v>
       </c>
-      <c r="I457" s="60" t="s">
+      <c r="I457" s="56" t="s">
         <v>1371</v>
       </c>
-      <c r="J457" s="60" t="s">
+      <c r="J457" s="56" t="s">
         <v>1372</v>
       </c>
-      <c r="L457" s="60">
+      <c r="L457" s="56">
         <v>-31</v>
       </c>
-      <c r="M457" s="60">
-        <v>0</v>
-      </c>
-      <c r="N457" s="60">
-        <v>0</v>
-      </c>
-      <c r="O457" s="60" t="s">
+      <c r="M457" s="56">
+        <v>0</v>
+      </c>
+      <c r="N457" s="56">
+        <v>0</v>
+      </c>
+      <c r="O457" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="P457" s="60">
+      <c r="P457" s="56">
         <v>19800</v>
       </c>
-      <c r="Q457" s="60" t="s">
+      <c r="Q457" s="56" t="s">
         <v>460</v>
       </c>
-      <c r="R457" s="61" t="s">
+      <c r="R457" s="57" t="s">
         <v>1373</v>
       </c>
-      <c r="W457" s="60" t="s">
+      <c r="W457" s="56" t="s">
         <v>543</v>
       </c>
-      <c r="X457" s="60">
+      <c r="X457" s="56">
         <v>9999999</v>
       </c>
-      <c r="Y457" s="60">
+      <c r="Y457" s="56">
         <v>1605571200</v>
       </c>
-      <c r="Z457" s="60">
+      <c r="Z457" s="56">
         <v>2552233600</v>
       </c>
-      <c r="AH457" s="60">
-        <v>1</v>
-      </c>
-      <c r="AI457" s="60">
-        <v>1</v>
-      </c>
-      <c r="AL457" s="60">
-        <v>1</v>
-      </c>
-      <c r="AM457" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="458" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A458" s="60">
+      <c r="AH457" s="56">
+        <v>1</v>
+      </c>
+      <c r="AI457" s="56">
+        <v>1</v>
+      </c>
+      <c r="AL457" s="56">
+        <v>1</v>
+      </c>
+      <c r="AM457" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A458" s="56">
         <v>457</v>
       </c>
-      <c r="B458" s="60">
+      <c r="B458" s="56">
         <v>10374</v>
       </c>
-      <c r="F458" s="60">
-        <v>1</v>
-      </c>
-      <c r="G458" s="60" t="s">
+      <c r="F458" s="56">
+        <v>1</v>
+      </c>
+      <c r="G458" s="56" t="s">
         <v>1374</v>
       </c>
-      <c r="I458" s="60" t="s">
+      <c r="I458" s="56" t="s">
         <v>1375</v>
       </c>
-      <c r="J458" s="60" t="s">
+      <c r="J458" s="56" t="s">
         <v>1376</v>
       </c>
-      <c r="L458" s="60">
+      <c r="L458" s="56">
         <v>-31</v>
       </c>
-      <c r="M458" s="60">
-        <v>0</v>
-      </c>
-      <c r="N458" s="60">
-        <v>0</v>
-      </c>
-      <c r="O458" s="60" t="s">
+      <c r="M458" s="56">
+        <v>0</v>
+      </c>
+      <c r="N458" s="56">
+        <v>0</v>
+      </c>
+      <c r="O458" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="P458" s="60">
+      <c r="P458" s="56">
         <v>19800</v>
       </c>
-      <c r="Q458" s="60" t="s">
+      <c r="Q458" s="56" t="s">
         <v>460</v>
       </c>
-      <c r="R458" s="61" t="s">
+      <c r="R458" s="57" t="s">
         <v>1377</v>
       </c>
-      <c r="W458" s="60" t="s">
+      <c r="W458" s="56" t="s">
         <v>543</v>
       </c>
-      <c r="X458" s="60">
+      <c r="X458" s="56">
         <v>9999999</v>
       </c>
-      <c r="Y458" s="60">
+      <c r="Y458" s="56">
         <v>1605571200</v>
       </c>
-      <c r="Z458" s="60">
+      <c r="Z458" s="56">
         <v>2552233600</v>
       </c>
-      <c r="AA458" s="60">
+      <c r="AA458" s="56">
         <v>59</v>
       </c>
-      <c r="AH458" s="60">
-        <v>1</v>
-      </c>
-      <c r="AI458" s="60">
-        <v>1</v>
-      </c>
-      <c r="AL458" s="60">
-        <v>1</v>
-      </c>
-      <c r="AM458" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="459" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A459" s="60">
+      <c r="AH458" s="56">
+        <v>1</v>
+      </c>
+      <c r="AI458" s="56">
+        <v>1</v>
+      </c>
+      <c r="AL458" s="56">
+        <v>1</v>
+      </c>
+      <c r="AM458" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A459" s="56">
         <v>458</v>
       </c>
-      <c r="B459" s="60">
+      <c r="B459" s="56">
         <v>10375</v>
       </c>
-      <c r="F459" s="60">
-        <v>1</v>
-      </c>
-      <c r="G459" s="60" t="s">
+      <c r="F459" s="56">
+        <v>1</v>
+      </c>
+      <c r="G459" s="56" t="s">
         <v>1378</v>
       </c>
-      <c r="I459" s="60" t="s">
+      <c r="I459" s="56" t="s">
         <v>1379</v>
       </c>
-      <c r="J459" s="60" t="s">
+      <c r="J459" s="56" t="s">
         <v>1380</v>
       </c>
-      <c r="L459" s="60">
+      <c r="L459" s="56">
         <v>-31</v>
       </c>
-      <c r="M459" s="60">
-        <v>0</v>
-      </c>
-      <c r="N459" s="60">
-        <v>0</v>
-      </c>
-      <c r="O459" s="60" t="s">
+      <c r="M459" s="56">
+        <v>0</v>
+      </c>
+      <c r="N459" s="56">
+        <v>0</v>
+      </c>
+      <c r="O459" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="P459" s="60">
+      <c r="P459" s="56">
         <v>49800</v>
       </c>
-      <c r="Q459" s="60" t="s">
+      <c r="Q459" s="56" t="s">
         <v>460</v>
       </c>
-      <c r="R459" s="61" t="s">
+      <c r="R459" s="57" t="s">
         <v>1381</v>
       </c>
-      <c r="W459" s="60" t="s">
+      <c r="W459" s="56" t="s">
         <v>543</v>
       </c>
-      <c r="X459" s="60">
+      <c r="X459" s="56">
         <v>9999999</v>
       </c>
-      <c r="Y459" s="60">
+      <c r="Y459" s="56">
         <v>1605571200</v>
       </c>
-      <c r="Z459" s="60">
+      <c r="Z459" s="56">
         <v>2552233600</v>
       </c>
-      <c r="AA459" s="60">
+      <c r="AA459" s="56">
         <v>60</v>
       </c>
-      <c r="AH459" s="60">
-        <v>1</v>
-      </c>
-      <c r="AI459" s="60">
-        <v>1</v>
-      </c>
-      <c r="AL459" s="60">
-        <v>1</v>
-      </c>
-      <c r="AM459" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="460" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A460" s="60">
+      <c r="AH459" s="56">
+        <v>1</v>
+      </c>
+      <c r="AI459" s="56">
+        <v>1</v>
+      </c>
+      <c r="AL459" s="56">
+        <v>1</v>
+      </c>
+      <c r="AM459" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A460" s="56">
         <v>459</v>
       </c>
-      <c r="B460" s="60">
+      <c r="B460" s="56">
         <v>10376</v>
       </c>
-      <c r="F460" s="60">
-        <v>1</v>
-      </c>
-      <c r="G460" s="60" t="s">
+      <c r="F460" s="56">
+        <v>1</v>
+      </c>
+      <c r="G460" s="56" t="s">
         <v>1382</v>
       </c>
-      <c r="I460" s="60" t="s">
+      <c r="I460" s="56" t="s">
         <v>1383</v>
       </c>
-      <c r="J460" s="60" t="s">
+      <c r="J460" s="56" t="s">
         <v>1384</v>
       </c>
-      <c r="L460" s="60">
+      <c r="L460" s="56">
         <v>-31</v>
       </c>
-      <c r="M460" s="60">
-        <v>0</v>
-      </c>
-      <c r="N460" s="60">
-        <v>0</v>
-      </c>
-      <c r="O460" s="60" t="s">
+      <c r="M460" s="56">
+        <v>0</v>
+      </c>
+      <c r="N460" s="56">
+        <v>0</v>
+      </c>
+      <c r="O460" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="P460" s="60">
+      <c r="P460" s="56">
         <v>49800</v>
       </c>
-      <c r="Q460" s="60" t="s">
+      <c r="Q460" s="56" t="s">
         <v>460</v>
       </c>
-      <c r="R460" s="61" t="s">
+      <c r="R460" s="57" t="s">
         <v>1385</v>
       </c>
-      <c r="W460" s="60" t="s">
+      <c r="W460" s="56" t="s">
         <v>543</v>
       </c>
-      <c r="X460" s="60">
+      <c r="X460" s="56">
         <v>9999999</v>
       </c>
-      <c r="Y460" s="60">
+      <c r="Y460" s="56">
         <v>1605571200</v>
       </c>
-      <c r="Z460" s="60">
+      <c r="Z460" s="56">
         <v>2552233600</v>
       </c>
-      <c r="AH460" s="60">
-        <v>1</v>
-      </c>
-      <c r="AI460" s="60">
-        <v>1</v>
-      </c>
-      <c r="AL460" s="60">
-        <v>1</v>
-      </c>
-      <c r="AM460" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="461" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A461" s="60">
+      <c r="AH460" s="56">
+        <v>1</v>
+      </c>
+      <c r="AI460" s="56">
+        <v>1</v>
+      </c>
+      <c r="AL460" s="56">
+        <v>1</v>
+      </c>
+      <c r="AM460" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A461" s="56">
         <v>460</v>
       </c>
-      <c r="B461" s="60">
+      <c r="B461" s="56">
         <v>10377</v>
       </c>
-      <c r="F461" s="60">
-        <v>1</v>
-      </c>
-      <c r="G461" s="60" t="s">
+      <c r="F461" s="56">
+        <v>1</v>
+      </c>
+      <c r="G461" s="56" t="s">
         <v>1386</v>
       </c>
-      <c r="I461" s="60" t="s">
+      <c r="I461" s="56" t="s">
         <v>1387</v>
       </c>
-      <c r="J461" s="60" t="s">
+      <c r="J461" s="56" t="s">
         <v>1388</v>
       </c>
-      <c r="L461" s="60">
+      <c r="L461" s="56">
         <v>-31</v>
       </c>
-      <c r="M461" s="60">
-        <v>0</v>
-      </c>
-      <c r="N461" s="60">
-        <v>0</v>
-      </c>
-      <c r="O461" s="60" t="s">
+      <c r="M461" s="56">
+        <v>0</v>
+      </c>
+      <c r="N461" s="56">
+        <v>0</v>
+      </c>
+      <c r="O461" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="P461" s="60">
+      <c r="P461" s="56">
         <v>49800</v>
       </c>
-      <c r="Q461" s="60" t="s">
+      <c r="Q461" s="56" t="s">
         <v>460</v>
       </c>
-      <c r="R461" s="61" t="s">
+      <c r="R461" s="57" t="s">
         <v>1389</v>
       </c>
-      <c r="W461" s="60" t="s">
+      <c r="W461" s="56" t="s">
         <v>543</v>
       </c>
-      <c r="X461" s="60">
+      <c r="X461" s="56">
         <v>9999999</v>
       </c>
-      <c r="Y461" s="60">
+      <c r="Y461" s="56">
         <v>1605571200</v>
       </c>
-      <c r="Z461" s="60">
+      <c r="Z461" s="56">
         <v>2552233600</v>
       </c>
-      <c r="AA461" s="60">
+      <c r="AA461" s="56">
         <v>61</v>
       </c>
-      <c r="AH461" s="60">
-        <v>1</v>
-      </c>
-      <c r="AI461" s="60">
-        <v>1</v>
-      </c>
-      <c r="AL461" s="60">
-        <v>1</v>
-      </c>
-      <c r="AM461" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="462" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A462" s="60">
+      <c r="AH461" s="56">
+        <v>1</v>
+      </c>
+      <c r="AI461" s="56">
+        <v>1</v>
+      </c>
+      <c r="AL461" s="56">
+        <v>1</v>
+      </c>
+      <c r="AM461" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A462" s="56">
         <v>461</v>
       </c>
-      <c r="B462" s="60">
+      <c r="B462" s="56">
         <v>10378</v>
       </c>
-      <c r="F462" s="60">
-        <v>1</v>
-      </c>
-      <c r="G462" s="60" t="s">
+      <c r="F462" s="56">
+        <v>1</v>
+      </c>
+      <c r="G462" s="56" t="s">
         <v>1390</v>
       </c>
-      <c r="I462" s="60" t="s">
+      <c r="I462" s="56" t="s">
         <v>1391</v>
       </c>
-      <c r="J462" s="60" t="s">
+      <c r="J462" s="56" t="s">
         <v>1392</v>
       </c>
-      <c r="L462" s="60">
+      <c r="L462" s="56">
         <v>-31</v>
       </c>
-      <c r="M462" s="60">
-        <v>0</v>
-      </c>
-      <c r="N462" s="60">
-        <v>0</v>
-      </c>
-      <c r="O462" s="60" t="s">
+      <c r="M462" s="56">
+        <v>0</v>
+      </c>
+      <c r="N462" s="56">
+        <v>0</v>
+      </c>
+      <c r="O462" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="P462" s="60">
+      <c r="P462" s="56">
         <v>99800</v>
       </c>
-      <c r="Q462" s="60" t="s">
+      <c r="Q462" s="56" t="s">
         <v>460</v>
       </c>
-      <c r="R462" s="61" t="s">
+      <c r="R462" s="57" t="s">
         <v>1393</v>
       </c>
-      <c r="W462" s="60" t="s">
+      <c r="W462" s="56" t="s">
         <v>543</v>
       </c>
-      <c r="X462" s="60">
+      <c r="X462" s="56">
         <v>9999999</v>
       </c>
-      <c r="Y462" s="60">
+      <c r="Y462" s="56">
         <v>1605571200</v>
       </c>
-      <c r="Z462" s="60">
+      <c r="Z462" s="56">
         <v>2552233600</v>
       </c>
-      <c r="AA462" s="60">
+      <c r="AA462" s="56">
         <v>62</v>
       </c>
-      <c r="AH462" s="60">
-        <v>1</v>
-      </c>
-      <c r="AI462" s="60">
-        <v>1</v>
-      </c>
-      <c r="AL462" s="60">
-        <v>1</v>
-      </c>
-      <c r="AM462" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="463" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A463" s="60">
+      <c r="AH462" s="56">
+        <v>1</v>
+      </c>
+      <c r="AI462" s="56">
+        <v>1</v>
+      </c>
+      <c r="AL462" s="56">
+        <v>1</v>
+      </c>
+      <c r="AM462" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A463" s="56">
         <v>462</v>
       </c>
-      <c r="B463" s="60">
+      <c r="B463" s="56">
         <v>10379</v>
       </c>
-      <c r="F463" s="60">
-        <v>1</v>
-      </c>
-      <c r="G463" s="60" t="s">
+      <c r="F463" s="56">
+        <v>1</v>
+      </c>
+      <c r="G463" s="56" t="s">
         <v>1394</v>
       </c>
-      <c r="I463" s="60" t="s">
+      <c r="I463" s="56" t="s">
         <v>1395</v>
       </c>
-      <c r="J463" s="60" t="s">
+      <c r="J463" s="56" t="s">
         <v>1396</v>
       </c>
-      <c r="L463" s="60">
+      <c r="L463" s="56">
         <v>-31</v>
       </c>
-      <c r="M463" s="60">
-        <v>0</v>
-      </c>
-      <c r="N463" s="60">
-        <v>0</v>
-      </c>
-      <c r="O463" s="60" t="s">
+      <c r="M463" s="56">
+        <v>0</v>
+      </c>
+      <c r="N463" s="56">
+        <v>0</v>
+      </c>
+      <c r="O463" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="P463" s="60">
+      <c r="P463" s="56">
         <v>99800</v>
       </c>
-      <c r="Q463" s="60" t="s">
+      <c r="Q463" s="56" t="s">
         <v>460</v>
       </c>
-      <c r="R463" s="61" t="s">
+      <c r="R463" s="57" t="s">
         <v>1397</v>
       </c>
-      <c r="W463" s="60" t="s">
+      <c r="W463" s="56" t="s">
         <v>543</v>
       </c>
-      <c r="X463" s="60">
+      <c r="X463" s="56">
         <v>9999999</v>
       </c>
-      <c r="Y463" s="60">
+      <c r="Y463" s="56">
         <v>1605571200</v>
       </c>
-      <c r="Z463" s="60">
+      <c r="Z463" s="56">
         <v>2552233600</v>
       </c>
-      <c r="AH463" s="60">
-        <v>1</v>
-      </c>
-      <c r="AI463" s="60">
-        <v>1</v>
-      </c>
-      <c r="AL463" s="60">
-        <v>1</v>
-      </c>
-      <c r="AM463" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="464" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A464" s="60">
+      <c r="AH463" s="56">
+        <v>1</v>
+      </c>
+      <c r="AI463" s="56">
+        <v>1</v>
+      </c>
+      <c r="AL463" s="56">
+        <v>1</v>
+      </c>
+      <c r="AM463" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A464" s="56">
         <v>463</v>
       </c>
-      <c r="B464" s="60">
+      <c r="B464" s="56">
         <v>10380</v>
       </c>
-      <c r="F464" s="60">
-        <v>1</v>
-      </c>
-      <c r="G464" s="60" t="s">
+      <c r="F464" s="56">
+        <v>1</v>
+      </c>
+      <c r="G464" s="56" t="s">
         <v>1398</v>
       </c>
-      <c r="I464" s="60" t="s">
+      <c r="I464" s="56" t="s">
         <v>1399</v>
       </c>
-      <c r="J464" s="60" t="s">
+      <c r="J464" s="56" t="s">
         <v>1400</v>
       </c>
-      <c r="L464" s="60">
+      <c r="L464" s="56">
         <v>-31</v>
       </c>
-      <c r="M464" s="60">
-        <v>0</v>
-      </c>
-      <c r="N464" s="60">
-        <v>0</v>
-      </c>
-      <c r="O464" s="60" t="s">
+      <c r="M464" s="56">
+        <v>0</v>
+      </c>
+      <c r="N464" s="56">
+        <v>0</v>
+      </c>
+      <c r="O464" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="P464" s="60">
+      <c r="P464" s="56">
         <v>99800</v>
       </c>
-      <c r="Q464" s="60" t="s">
+      <c r="Q464" s="56" t="s">
         <v>460</v>
       </c>
-      <c r="R464" s="61" t="s">
+      <c r="R464" s="57" t="s">
         <v>1401</v>
       </c>
-      <c r="W464" s="60" t="s">
+      <c r="W464" s="56" t="s">
         <v>543</v>
       </c>
-      <c r="X464" s="60">
+      <c r="X464" s="56">
         <v>9999999</v>
       </c>
-      <c r="Y464" s="60">
+      <c r="Y464" s="56">
         <v>1605571200</v>
       </c>
-      <c r="Z464" s="60">
+      <c r="Z464" s="56">
         <v>2552233600</v>
       </c>
-      <c r="AA464" s="60">
+      <c r="AA464" s="56">
         <v>63</v>
       </c>
-      <c r="AH464" s="60">
-        <v>1</v>
-      </c>
-      <c r="AI464" s="60">
-        <v>1</v>
-      </c>
-      <c r="AL464" s="60">
-        <v>1</v>
-      </c>
-      <c r="AM464" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="465" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A465" s="60">
+      <c r="AH464" s="56">
+        <v>1</v>
+      </c>
+      <c r="AI464" s="56">
+        <v>1</v>
+      </c>
+      <c r="AL464" s="56">
+        <v>1</v>
+      </c>
+      <c r="AM464" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A465" s="56">
         <v>464</v>
       </c>
-      <c r="B465" s="60">
+      <c r="B465" s="56">
         <v>10381</v>
       </c>
-      <c r="F465" s="60">
-        <v>1</v>
-      </c>
-      <c r="G465" s="60" t="s">
+      <c r="F465" s="56">
+        <v>1</v>
+      </c>
+      <c r="G465" s="56" t="s">
         <v>1402</v>
       </c>
-      <c r="I465" s="60" t="s">
+      <c r="I465" s="56" t="s">
         <v>1403</v>
       </c>
-      <c r="J465" s="60" t="s">
+      <c r="J465" s="56" t="s">
         <v>1404</v>
       </c>
-      <c r="L465" s="60">
+      <c r="L465" s="56">
         <v>-31</v>
       </c>
-      <c r="M465" s="60">
-        <v>0</v>
-      </c>
-      <c r="N465" s="60">
-        <v>0</v>
-      </c>
-      <c r="O465" s="60" t="s">
+      <c r="M465" s="56">
+        <v>0</v>
+      </c>
+      <c r="N465" s="56">
+        <v>0</v>
+      </c>
+      <c r="O465" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="P465" s="60">
+      <c r="P465" s="56">
         <v>249800</v>
       </c>
-      <c r="Q465" s="60" t="s">
+      <c r="Q465" s="56" t="s">
         <v>460</v>
       </c>
-      <c r="R465" s="61" t="s">
+      <c r="R465" s="57" t="s">
         <v>1405</v>
       </c>
-      <c r="W465" s="60" t="s">
+      <c r="W465" s="56" t="s">
         <v>543</v>
       </c>
-      <c r="X465" s="60">
+      <c r="X465" s="56">
         <v>9999999</v>
       </c>
-      <c r="Y465" s="60">
+      <c r="Y465" s="56">
         <v>1605571200</v>
       </c>
-      <c r="Z465" s="60">
+      <c r="Z465" s="56">
         <v>2552233600</v>
       </c>
-      <c r="AA465" s="60">
+      <c r="AA465" s="56">
         <v>64</v>
       </c>
-      <c r="AH465" s="60">
-        <v>1</v>
-      </c>
-      <c r="AI465" s="60">
-        <v>1</v>
-      </c>
-      <c r="AL465" s="60">
-        <v>1</v>
-      </c>
-      <c r="AM465" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="466" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A466" s="60">
+      <c r="AH465" s="56">
+        <v>1</v>
+      </c>
+      <c r="AI465" s="56">
+        <v>1</v>
+      </c>
+      <c r="AL465" s="56">
+        <v>1</v>
+      </c>
+      <c r="AM465" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A466" s="56">
         <v>465</v>
       </c>
-      <c r="B466" s="60">
+      <c r="B466" s="56">
         <v>10382</v>
       </c>
-      <c r="F466" s="60">
-        <v>1</v>
-      </c>
-      <c r="G466" s="60" t="s">
+      <c r="F466" s="56">
+        <v>1</v>
+      </c>
+      <c r="G466" s="56" t="s">
         <v>1406</v>
       </c>
-      <c r="I466" s="60" t="s">
+      <c r="I466" s="56" t="s">
         <v>1407</v>
       </c>
-      <c r="J466" s="60" t="s">
+      <c r="J466" s="56" t="s">
         <v>1408</v>
       </c>
-      <c r="L466" s="60">
+      <c r="L466" s="56">
         <v>-31</v>
       </c>
-      <c r="M466" s="60">
-        <v>0</v>
-      </c>
-      <c r="N466" s="60">
-        <v>0</v>
-      </c>
-      <c r="O466" s="60" t="s">
+      <c r="M466" s="56">
+        <v>0</v>
+      </c>
+      <c r="N466" s="56">
+        <v>0</v>
+      </c>
+      <c r="O466" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="P466" s="60">
+      <c r="P466" s="56">
         <v>249800</v>
       </c>
-      <c r="Q466" s="60" t="s">
+      <c r="Q466" s="56" t="s">
         <v>460</v>
       </c>
-      <c r="R466" s="61" t="s">
+      <c r="R466" s="57" t="s">
         <v>1409</v>
       </c>
-      <c r="W466" s="60" t="s">
+      <c r="W466" s="56" t="s">
         <v>543</v>
       </c>
-      <c r="X466" s="60">
+      <c r="X466" s="56">
         <v>9999999</v>
       </c>
-      <c r="Y466" s="60">
+      <c r="Y466" s="56">
         <v>1605571200</v>
       </c>
-      <c r="Z466" s="60">
+      <c r="Z466" s="56">
         <v>2552233600</v>
       </c>
-      <c r="AH466" s="60">
-        <v>1</v>
-      </c>
-      <c r="AI466" s="60">
-        <v>1</v>
-      </c>
-      <c r="AL466" s="60">
-        <v>1</v>
-      </c>
-      <c r="AM466" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="467" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A467" s="60">
+      <c r="AH466" s="56">
+        <v>1</v>
+      </c>
+      <c r="AI466" s="56">
+        <v>1</v>
+      </c>
+      <c r="AL466" s="56">
+        <v>1</v>
+      </c>
+      <c r="AM466" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A467" s="56">
         <v>466</v>
       </c>
-      <c r="B467" s="60">
+      <c r="B467" s="56">
         <v>10383</v>
       </c>
-      <c r="F467" s="60">
-        <v>1</v>
-      </c>
-      <c r="G467" s="60" t="s">
+      <c r="F467" s="56">
+        <v>1</v>
+      </c>
+      <c r="G467" s="56" t="s">
         <v>1410</v>
       </c>
-      <c r="I467" s="60" t="s">
+      <c r="I467" s="56" t="s">
         <v>1411</v>
       </c>
-      <c r="J467" s="60" t="s">
+      <c r="J467" s="56" t="s">
         <v>1412</v>
       </c>
-      <c r="L467" s="60">
+      <c r="L467" s="56">
         <v>-31</v>
       </c>
-      <c r="M467" s="60">
-        <v>0</v>
-      </c>
-      <c r="N467" s="60">
-        <v>0</v>
-      </c>
-      <c r="O467" s="60" t="s">
+      <c r="M467" s="56">
+        <v>0</v>
+      </c>
+      <c r="N467" s="56">
+        <v>0</v>
+      </c>
+      <c r="O467" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="P467" s="60">
+      <c r="P467" s="56">
         <v>249800</v>
       </c>
-      <c r="Q467" s="60" t="s">
+      <c r="Q467" s="56" t="s">
         <v>460</v>
       </c>
-      <c r="R467" s="61" t="s">
+      <c r="R467" s="57" t="s">
         <v>1413</v>
       </c>
-      <c r="W467" s="60" t="s">
+      <c r="W467" s="56" t="s">
         <v>543</v>
       </c>
-      <c r="X467" s="60">
+      <c r="X467" s="56">
         <v>9999999</v>
       </c>
-      <c r="Y467" s="60">
+      <c r="Y467" s="56">
         <v>1605571200</v>
       </c>
-      <c r="Z467" s="60">
+      <c r="Z467" s="56">
         <v>2552233600</v>
       </c>
-      <c r="AA467" s="60">
+      <c r="AA467" s="56">
         <v>65</v>
       </c>
-      <c r="AH467" s="60">
-        <v>1</v>
-      </c>
-      <c r="AI467" s="60">
-        <v>1</v>
-      </c>
-      <c r="AL467" s="60">
-        <v>1</v>
-      </c>
-      <c r="AM467" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="468" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A468" s="60">
+      <c r="AH467" s="56">
+        <v>1</v>
+      </c>
+      <c r="AI467" s="56">
+        <v>1</v>
+      </c>
+      <c r="AL467" s="56">
+        <v>1</v>
+      </c>
+      <c r="AM467" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A468" s="56">
         <v>467</v>
       </c>
-      <c r="B468" s="60">
+      <c r="B468" s="56">
         <v>10384</v>
       </c>
-      <c r="F468" s="60">
-        <v>1</v>
-      </c>
-      <c r="G468" s="60" t="s">
+      <c r="F468" s="56">
+        <v>1</v>
+      </c>
+      <c r="G468" s="56" t="s">
         <v>1414</v>
       </c>
-      <c r="I468" s="60" t="s">
+      <c r="I468" s="56" t="s">
         <v>1415</v>
       </c>
-      <c r="J468" s="60" t="s">
+      <c r="J468" s="56" t="s">
         <v>947</v>
       </c>
-      <c r="L468" s="60">
+      <c r="L468" s="56">
         <v>-31</v>
       </c>
-      <c r="M468" s="60">
-        <v>0</v>
-      </c>
-      <c r="N468" s="60">
-        <v>0</v>
-      </c>
-      <c r="O468" s="60" t="s">
+      <c r="M468" s="56">
+        <v>0</v>
+      </c>
+      <c r="N468" s="56">
+        <v>0</v>
+      </c>
+      <c r="O468" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="P468" s="60">
+      <c r="P468" s="56">
         <v>600</v>
       </c>
-      <c r="Q468" s="60" t="s">
+      <c r="Q468" s="56" t="s">
         <v>460</v>
       </c>
-      <c r="R468" s="61" t="s">
+      <c r="R468" s="57" t="s">
         <v>948</v>
       </c>
-      <c r="W468" s="60" t="s">
+      <c r="W468" s="56" t="s">
         <v>1416</v>
       </c>
-      <c r="X468" s="60">
+      <c r="X468" s="56">
         <v>9999999</v>
       </c>
-      <c r="Y468" s="60">
+      <c r="Y468" s="56">
         <v>1605571200</v>
       </c>
-      <c r="Z468" s="60">
+      <c r="Z468" s="56">
         <v>2552233600</v>
       </c>
-      <c r="AH468" s="60">
-        <v>1</v>
-      </c>
-      <c r="AI468" s="60">
-        <v>1</v>
-      </c>
-      <c r="AL468" s="60">
-        <v>1</v>
-      </c>
-      <c r="AM468" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="469" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A469" s="60">
+      <c r="AH468" s="56">
+        <v>1</v>
+      </c>
+      <c r="AI468" s="56">
+        <v>1</v>
+      </c>
+      <c r="AL468" s="56">
+        <v>1</v>
+      </c>
+      <c r="AM468" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A469" s="56">
         <v>468</v>
       </c>
-      <c r="B469" s="60">
+      <c r="B469" s="56">
         <v>10385</v>
       </c>
-      <c r="F469" s="60">
-        <v>1</v>
-      </c>
-      <c r="G469" s="60" t="s">
+      <c r="F469" s="56">
+        <v>1</v>
+      </c>
+      <c r="G469" s="56" t="s">
         <v>1417</v>
       </c>
-      <c r="I469" s="60" t="s">
+      <c r="I469" s="56" t="s">
         <v>1415</v>
       </c>
-      <c r="J469" s="60" t="s">
+      <c r="J469" s="56" t="s">
         <v>1418</v>
       </c>
-      <c r="L469" s="60">
+      <c r="L469" s="56">
         <v>-31</v>
       </c>
-      <c r="M469" s="60">
-        <v>0</v>
-      </c>
-      <c r="N469" s="60">
-        <v>0</v>
-      </c>
-      <c r="O469" s="60" t="s">
+      <c r="M469" s="56">
+        <v>0</v>
+      </c>
+      <c r="N469" s="56">
+        <v>0</v>
+      </c>
+      <c r="O469" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="P469" s="60">
+      <c r="P469" s="56">
         <v>3000</v>
       </c>
-      <c r="Q469" s="60" t="s">
+      <c r="Q469" s="56" t="s">
         <v>460</v>
       </c>
-      <c r="R469" s="61" t="s">
+      <c r="R469" s="57" t="s">
         <v>1419</v>
       </c>
-      <c r="W469" s="60" t="s">
+      <c r="W469" s="56" t="s">
         <v>1416</v>
       </c>
-      <c r="X469" s="60">
+      <c r="X469" s="56">
         <v>9999999</v>
       </c>
-      <c r="Y469" s="60">
+      <c r="Y469" s="56">
         <v>1605571200</v>
       </c>
-      <c r="Z469" s="60">
+      <c r="Z469" s="56">
         <v>2552233600</v>
       </c>
-      <c r="AH469" s="60">
-        <v>1</v>
-      </c>
-      <c r="AI469" s="60">
-        <v>1</v>
-      </c>
-      <c r="AL469" s="60">
-        <v>1</v>
-      </c>
-      <c r="AM469" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="470" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A470" s="60">
+      <c r="AH469" s="56">
+        <v>1</v>
+      </c>
+      <c r="AI469" s="56">
+        <v>1</v>
+      </c>
+      <c r="AL469" s="56">
+        <v>1</v>
+      </c>
+      <c r="AM469" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A470" s="56">
         <v>469</v>
       </c>
-      <c r="B470" s="60">
+      <c r="B470" s="56">
         <v>10386</v>
       </c>
-      <c r="F470" s="60">
-        <v>1</v>
-      </c>
-      <c r="G470" s="60" t="s">
+      <c r="F470" s="56">
+        <v>1</v>
+      </c>
+      <c r="G470" s="56" t="s">
         <v>1420</v>
       </c>
-      <c r="I470" s="60" t="s">
+      <c r="I470" s="56" t="s">
         <v>1415</v>
       </c>
-      <c r="J470" s="60" t="s">
+      <c r="J470" s="56" t="s">
         <v>1102</v>
       </c>
-      <c r="L470" s="60">
+      <c r="L470" s="56">
         <v>-31</v>
       </c>
-      <c r="M470" s="60">
-        <v>0</v>
-      </c>
-      <c r="N470" s="60">
-        <v>0</v>
-      </c>
-      <c r="O470" s="60" t="s">
+      <c r="M470" s="56">
+        <v>0</v>
+      </c>
+      <c r="N470" s="56">
+        <v>0</v>
+      </c>
+      <c r="O470" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="P470" s="60">
+      <c r="P470" s="56">
         <v>6800</v>
       </c>
-      <c r="Q470" s="60" t="s">
+      <c r="Q470" s="56" t="s">
         <v>460</v>
       </c>
-      <c r="R470" s="61" t="s">
+      <c r="R470" s="57" t="s">
         <v>732</v>
       </c>
-      <c r="W470" s="60" t="s">
+      <c r="W470" s="56" t="s">
         <v>1416</v>
       </c>
-      <c r="X470" s="60">
+      <c r="X470" s="56">
         <v>9999999</v>
       </c>
-      <c r="Y470" s="60">
+      <c r="Y470" s="56">
         <v>1605571200</v>
       </c>
-      <c r="Z470" s="60">
+      <c r="Z470" s="56">
         <v>2552233600</v>
       </c>
-      <c r="AH470" s="60">
-        <v>1</v>
-      </c>
-      <c r="AI470" s="60">
-        <v>1</v>
-      </c>
-      <c r="AL470" s="60">
-        <v>1</v>
-      </c>
-      <c r="AM470" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="471" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A471" s="60">
+      <c r="AH470" s="56">
+        <v>1</v>
+      </c>
+      <c r="AI470" s="56">
+        <v>1</v>
+      </c>
+      <c r="AL470" s="56">
+        <v>1</v>
+      </c>
+      <c r="AM470" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A471" s="56">
         <v>470</v>
       </c>
-      <c r="B471" s="60">
+      <c r="B471" s="56">
         <v>10387</v>
       </c>
-      <c r="F471" s="60">
-        <v>1</v>
-      </c>
-      <c r="G471" s="60" t="s">
+      <c r="F471" s="56">
+        <v>1</v>
+      </c>
+      <c r="G471" s="56" t="s">
         <v>1421</v>
       </c>
-      <c r="I471" s="60" t="s">
+      <c r="I471" s="56" t="s">
         <v>1415</v>
       </c>
-      <c r="J471" s="60" t="s">
+      <c r="J471" s="56" t="s">
         <v>1422</v>
       </c>
-      <c r="L471" s="60">
+      <c r="L471" s="56">
         <v>-31</v>
       </c>
-      <c r="M471" s="60">
-        <v>0</v>
-      </c>
-      <c r="N471" s="60">
-        <v>0</v>
-      </c>
-      <c r="O471" s="60" t="s">
+      <c r="M471" s="56">
+        <v>0</v>
+      </c>
+      <c r="N471" s="56">
+        <v>0</v>
+      </c>
+      <c r="O471" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="P471" s="60">
+      <c r="P471" s="56">
         <v>9800</v>
       </c>
-      <c r="Q471" s="60" t="s">
+      <c r="Q471" s="56" t="s">
         <v>460</v>
       </c>
-      <c r="R471" s="61" t="s">
+      <c r="R471" s="57" t="s">
         <v>1423</v>
       </c>
-      <c r="W471" s="60" t="s">
+      <c r="W471" s="56" t="s">
         <v>1424</v>
       </c>
-      <c r="X471" s="60">
+      <c r="X471" s="56">
         <v>9999999</v>
       </c>
-      <c r="Y471" s="60">
+      <c r="Y471" s="56">
         <v>1605571200</v>
       </c>
-      <c r="Z471" s="60">
+      <c r="Z471" s="56">
         <v>2552233600</v>
       </c>
-      <c r="AH471" s="60">
-        <v>1</v>
-      </c>
-      <c r="AI471" s="60">
-        <v>1</v>
-      </c>
-      <c r="AL471" s="60">
-        <v>1</v>
-      </c>
-      <c r="AM471" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="472" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A472" s="60">
+      <c r="AH471" s="56">
+        <v>1</v>
+      </c>
+      <c r="AI471" s="56">
+        <v>1</v>
+      </c>
+      <c r="AL471" s="56">
+        <v>1</v>
+      </c>
+      <c r="AM471" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A472" s="56">
         <v>471</v>
       </c>
-      <c r="B472" s="60">
+      <c r="B472" s="56">
         <v>10388</v>
       </c>
-      <c r="F472" s="60">
-        <v>1</v>
-      </c>
-      <c r="G472" s="60" t="s">
+      <c r="F472" s="56">
+        <v>1</v>
+      </c>
+      <c r="G472" s="56" t="s">
         <v>1425</v>
       </c>
-      <c r="I472" s="60" t="s">
+      <c r="I472" s="56" t="s">
         <v>1415</v>
       </c>
-      <c r="J472" s="60" t="s">
+      <c r="J472" s="56" t="s">
         <v>1426</v>
       </c>
-      <c r="L472" s="60">
+      <c r="L472" s="56">
         <v>-31</v>
       </c>
-      <c r="M472" s="60">
-        <v>0</v>
-      </c>
-      <c r="N472" s="60">
-        <v>0</v>
-      </c>
-      <c r="O472" s="60" t="s">
+      <c r="M472" s="56">
+        <v>0</v>
+      </c>
+      <c r="N472" s="56">
+        <v>0</v>
+      </c>
+      <c r="O472" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="P472" s="60">
+      <c r="P472" s="56">
         <v>19800</v>
       </c>
-      <c r="Q472" s="60" t="s">
+      <c r="Q472" s="56" t="s">
         <v>460</v>
       </c>
-      <c r="R472" s="61" t="s">
+      <c r="R472" s="57" t="s">
         <v>733</v>
       </c>
-      <c r="W472" s="60" t="s">
+      <c r="W472" s="56" t="s">
         <v>1424</v>
       </c>
-      <c r="X472" s="60">
+      <c r="X472" s="56">
         <v>9999999</v>
       </c>
-      <c r="Y472" s="60">
+      <c r="Y472" s="56">
         <v>1605571200</v>
       </c>
-      <c r="Z472" s="60">
+      <c r="Z472" s="56">
         <v>2552233600</v>
       </c>
-      <c r="AH472" s="60">
-        <v>1</v>
-      </c>
-      <c r="AI472" s="60">
-        <v>1</v>
-      </c>
-      <c r="AL472" s="60">
-        <v>1</v>
-      </c>
-      <c r="AM472" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="473" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A473" s="60">
+      <c r="AH472" s="56">
+        <v>1</v>
+      </c>
+      <c r="AI472" s="56">
+        <v>1</v>
+      </c>
+      <c r="AL472" s="56">
+        <v>1</v>
+      </c>
+      <c r="AM472" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A473" s="56">
         <v>472</v>
       </c>
-      <c r="B473" s="60">
+      <c r="B473" s="56">
         <v>10389</v>
       </c>
-      <c r="F473" s="60">
-        <v>1</v>
-      </c>
-      <c r="G473" s="60" t="s">
+      <c r="F473" s="56">
+        <v>1</v>
+      </c>
+      <c r="G473" s="56" t="s">
         <v>1427</v>
       </c>
-      <c r="I473" s="60" t="s">
+      <c r="I473" s="56" t="s">
         <v>1415</v>
       </c>
-      <c r="J473" s="60" t="s">
+      <c r="J473" s="56" t="s">
         <v>1428</v>
       </c>
-      <c r="L473" s="60">
+      <c r="L473" s="56">
         <v>-31</v>
       </c>
-      <c r="M473" s="60">
-        <v>0</v>
-      </c>
-      <c r="N473" s="60">
-        <v>0</v>
-      </c>
-      <c r="O473" s="60" t="s">
+      <c r="M473" s="56">
+        <v>0</v>
+      </c>
+      <c r="N473" s="56">
+        <v>0</v>
+      </c>
+      <c r="O473" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="P473" s="60">
+      <c r="P473" s="56">
         <v>49800</v>
       </c>
-      <c r="Q473" s="60" t="s">
+      <c r="Q473" s="56" t="s">
         <v>460</v>
       </c>
-      <c r="R473" s="61" t="s">
+      <c r="R473" s="57" t="s">
         <v>1429</v>
       </c>
-      <c r="W473" s="60" t="s">
+      <c r="W473" s="56" t="s">
         <v>1424</v>
       </c>
-      <c r="X473" s="60">
+      <c r="X473" s="56">
         <v>9999999</v>
       </c>
-      <c r="Y473" s="60">
+      <c r="Y473" s="56">
         <v>1605571200</v>
       </c>
-      <c r="Z473" s="60">
+      <c r="Z473" s="56">
         <v>2552233600</v>
       </c>
-      <c r="AH473" s="60">
-        <v>1</v>
-      </c>
-      <c r="AI473" s="60">
-        <v>1</v>
-      </c>
-      <c r="AL473" s="60">
-        <v>1</v>
-      </c>
-      <c r="AM473" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="474" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A474" s="60">
+      <c r="AH473" s="56">
+        <v>1</v>
+      </c>
+      <c r="AI473" s="56">
+        <v>1</v>
+      </c>
+      <c r="AL473" s="56">
+        <v>1</v>
+      </c>
+      <c r="AM473" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A474" s="56">
         <v>473</v>
       </c>
-      <c r="B474" s="60">
+      <c r="B474" s="56">
         <v>10390</v>
       </c>
-      <c r="F474" s="60">
-        <v>1</v>
-      </c>
-      <c r="G474" s="60" t="s">
+      <c r="F474" s="56">
+        <v>1</v>
+      </c>
+      <c r="G474" s="56" t="s">
         <v>1430</v>
       </c>
-      <c r="I474" s="60" t="s">
+      <c r="I474" s="56" t="s">
         <v>1415</v>
       </c>
-      <c r="J474" s="60" t="s">
+      <c r="J474" s="56" t="s">
         <v>1431</v>
       </c>
-      <c r="L474" s="60">
+      <c r="L474" s="56">
         <v>-31</v>
       </c>
-      <c r="M474" s="60">
-        <v>0</v>
-      </c>
-      <c r="N474" s="60">
-        <v>0</v>
-      </c>
-      <c r="O474" s="60" t="s">
+      <c r="M474" s="56">
+        <v>0</v>
+      </c>
+      <c r="N474" s="56">
+        <v>0</v>
+      </c>
+      <c r="O474" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="P474" s="60">
+      <c r="P474" s="56">
         <v>99800</v>
       </c>
-      <c r="Q474" s="60" t="s">
+      <c r="Q474" s="56" t="s">
         <v>460</v>
       </c>
-      <c r="R474" s="61" t="s">
+      <c r="R474" s="57" t="s">
         <v>1432</v>
       </c>
-      <c r="W474" s="60" t="s">
+      <c r="W474" s="56" t="s">
         <v>1424</v>
       </c>
-      <c r="X474" s="60">
+      <c r="X474" s="56">
         <v>9999999</v>
       </c>
-      <c r="Y474" s="60">
+      <c r="Y474" s="56">
         <v>1605571200</v>
       </c>
-      <c r="Z474" s="60">
+      <c r="Z474" s="56">
         <v>2552233600</v>
       </c>
-      <c r="AH474" s="60">
-        <v>1</v>
-      </c>
-      <c r="AI474" s="60">
-        <v>1</v>
-      </c>
-      <c r="AL474" s="60">
-        <v>1</v>
-      </c>
-      <c r="AM474" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="475" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A475" s="60">
+      <c r="AH474" s="56">
+        <v>1</v>
+      </c>
+      <c r="AI474" s="56">
+        <v>1</v>
+      </c>
+      <c r="AL474" s="56">
+        <v>1</v>
+      </c>
+      <c r="AM474" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A475" s="56">
         <v>474</v>
       </c>
-      <c r="B475" s="60">
+      <c r="B475" s="56">
         <v>10391</v>
       </c>
-      <c r="F475" s="60">
-        <v>1</v>
-      </c>
-      <c r="G475" s="60" t="s">
+      <c r="F475" s="56">
+        <v>1</v>
+      </c>
+      <c r="G475" s="56" t="s">
         <v>1433</v>
       </c>
-      <c r="I475" s="60" t="s">
+      <c r="I475" s="56" t="s">
         <v>1415</v>
       </c>
-      <c r="J475" s="60" t="s">
+      <c r="J475" s="56" t="s">
         <v>1492</v>
       </c>
-      <c r="L475" s="60">
+      <c r="L475" s="56">
         <v>-31</v>
       </c>
-      <c r="M475" s="60">
-        <v>0</v>
-      </c>
-      <c r="N475" s="60">
-        <v>0</v>
-      </c>
-      <c r="O475" s="60" t="s">
+      <c r="M475" s="56">
+        <v>0</v>
+      </c>
+      <c r="N475" s="56">
+        <v>0</v>
+      </c>
+      <c r="O475" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="P475" s="60">
+      <c r="P475" s="56">
         <v>249800</v>
       </c>
-      <c r="Q475" s="60" t="s">
+      <c r="Q475" s="56" t="s">
         <v>460</v>
       </c>
-      <c r="R475" s="61" t="s">
+      <c r="R475" s="57" t="s">
         <v>1493</v>
       </c>
-      <c r="W475" s="60" t="s">
+      <c r="W475" s="56" t="s">
         <v>1424</v>
       </c>
-      <c r="X475" s="60">
+      <c r="X475" s="56">
         <v>9999999</v>
       </c>
-      <c r="Y475" s="60">
+      <c r="Y475" s="56">
         <v>1605571200</v>
       </c>
-      <c r="Z475" s="60">
+      <c r="Z475" s="56">
         <v>2552233600</v>
       </c>
-      <c r="AH475" s="60">
-        <v>1</v>
-      </c>
-      <c r="AI475" s="60">
-        <v>1</v>
-      </c>
-      <c r="AL475" s="60">
-        <v>1</v>
-      </c>
-      <c r="AM475" s="60">
+      <c r="AH475" s="56">
+        <v>1</v>
+      </c>
+      <c r="AI475" s="56">
+        <v>1</v>
+      </c>
+      <c r="AL475" s="56">
+        <v>1</v>
+      </c>
+      <c r="AM475" s="56">
         <v>1</v>
       </c>
     </row>
@@ -42402,263 +42494,263 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A493" s="60">
+    <row r="493" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A493" s="56">
         <v>492</v>
       </c>
-      <c r="B493" s="60">
+      <c r="B493" s="56">
         <v>10409</v>
       </c>
-      <c r="F493" s="60">
-        <v>1</v>
-      </c>
-      <c r="G493" s="60" t="s">
+      <c r="F493" s="56">
+        <v>1</v>
+      </c>
+      <c r="G493" s="56" t="s">
         <v>1820</v>
       </c>
-      <c r="I493" s="60" t="s">
+      <c r="I493" s="56" t="s">
         <v>1821</v>
       </c>
-      <c r="J493" s="60" t="s">
+      <c r="J493" s="56" t="s">
         <v>1822</v>
       </c>
-      <c r="L493" s="60">
+      <c r="L493" s="56">
         <v>-31</v>
       </c>
-      <c r="M493" s="60">
-        <v>0</v>
-      </c>
-      <c r="N493" s="60">
-        <v>0</v>
-      </c>
-      <c r="O493" s="60" t="s">
+      <c r="M493" s="56">
+        <v>0</v>
+      </c>
+      <c r="N493" s="56">
+        <v>0</v>
+      </c>
+      <c r="O493" s="56" t="s">
         <v>1823</v>
       </c>
-      <c r="P493" s="60">
+      <c r="P493" s="56">
         <v>49800</v>
       </c>
-      <c r="Q493" s="60" t="s">
+      <c r="Q493" s="56" t="s">
         <v>1824</v>
       </c>
-      <c r="R493" s="61" t="s">
+      <c r="R493" s="57" t="s">
         <v>1826</v>
       </c>
-      <c r="W493" s="60" t="s">
+      <c r="W493" s="56" t="s">
         <v>540</v>
       </c>
-      <c r="X493" s="60">
+      <c r="X493" s="56">
         <v>200</v>
       </c>
-      <c r="Y493" s="60">
+      <c r="Y493" s="56">
         <v>1609200000</v>
       </c>
-      <c r="Z493" s="60">
+      <c r="Z493" s="56">
         <v>1609775999</v>
       </c>
-      <c r="AH493" s="60">
-        <v>1</v>
-      </c>
-      <c r="AI493" s="60">
-        <v>1</v>
-      </c>
-      <c r="AL493" s="60">
-        <v>1</v>
-      </c>
-      <c r="AM493" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="494" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A494" s="60">
+      <c r="AH493" s="56">
+        <v>1</v>
+      </c>
+      <c r="AI493" s="56">
+        <v>1</v>
+      </c>
+      <c r="AL493" s="56">
+        <v>1</v>
+      </c>
+      <c r="AM493" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A494" s="56">
         <v>493</v>
       </c>
-      <c r="B494" s="60">
+      <c r="B494" s="56">
         <v>10410</v>
       </c>
-      <c r="F494" s="60">
-        <v>1</v>
-      </c>
-      <c r="G494" s="60" t="s">
+      <c r="F494" s="56">
+        <v>1</v>
+      </c>
+      <c r="G494" s="56" t="s">
         <v>1820</v>
       </c>
-      <c r="I494" s="60" t="s">
+      <c r="I494" s="56" t="s">
         <v>1825</v>
       </c>
-      <c r="J494" s="60" t="s">
+      <c r="J494" s="56" t="s">
         <v>1822</v>
       </c>
-      <c r="L494" s="60">
+      <c r="L494" s="56">
         <v>-31</v>
       </c>
-      <c r="M494" s="60">
-        <v>0</v>
-      </c>
-      <c r="N494" s="60">
-        <v>0</v>
-      </c>
-      <c r="O494" s="60" t="s">
+      <c r="M494" s="56">
+        <v>0</v>
+      </c>
+      <c r="N494" s="56">
+        <v>0</v>
+      </c>
+      <c r="O494" s="56" t="s">
         <v>1823</v>
       </c>
-      <c r="P494" s="60">
+      <c r="P494" s="56">
         <v>99800</v>
       </c>
-      <c r="Q494" s="60" t="s">
+      <c r="Q494" s="56" t="s">
         <v>1824</v>
       </c>
-      <c r="R494" s="61" t="s">
+      <c r="R494" s="57" t="s">
         <v>1827</v>
       </c>
-      <c r="W494" s="60" t="s">
+      <c r="W494" s="56" t="s">
         <v>540</v>
       </c>
-      <c r="X494" s="60">
+      <c r="X494" s="56">
         <v>9999999</v>
       </c>
-      <c r="Y494" s="60">
+      <c r="Y494" s="56">
         <v>1609200000</v>
       </c>
-      <c r="Z494" s="60">
+      <c r="Z494" s="56">
         <v>1609775999</v>
       </c>
-      <c r="AH494" s="60">
-        <v>1</v>
-      </c>
-      <c r="AI494" s="60">
-        <v>1</v>
-      </c>
-      <c r="AL494" s="60">
-        <v>1</v>
-      </c>
-      <c r="AM494" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="495" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A495" s="60">
+      <c r="AH494" s="56">
+        <v>1</v>
+      </c>
+      <c r="AI494" s="56">
+        <v>1</v>
+      </c>
+      <c r="AL494" s="56">
+        <v>1</v>
+      </c>
+      <c r="AM494" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A495" s="56">
         <v>494</v>
       </c>
-      <c r="B495" s="60">
+      <c r="B495" s="56">
         <v>10411</v>
       </c>
-      <c r="F495" s="60">
-        <v>1</v>
-      </c>
-      <c r="G495" s="60" t="s">
+      <c r="F495" s="56">
+        <v>1</v>
+      </c>
+      <c r="G495" s="56" t="s">
         <v>1836</v>
       </c>
-      <c r="J495" s="60" t="s">
+      <c r="J495" s="56" t="s">
         <v>1837</v>
       </c>
-      <c r="L495" s="60">
+      <c r="L495" s="56">
         <v>-31</v>
       </c>
-      <c r="M495" s="60">
-        <v>0</v>
-      </c>
-      <c r="N495" s="60">
-        <v>0</v>
-      </c>
-      <c r="O495" s="60" t="s">
+      <c r="M495" s="56">
+        <v>0</v>
+      </c>
+      <c r="N495" s="56">
+        <v>0</v>
+      </c>
+      <c r="O495" s="56" t="s">
         <v>1838</v>
       </c>
-      <c r="P495" s="60">
+      <c r="P495" s="56">
         <v>79800</v>
       </c>
-      <c r="Q495" s="60" t="s">
+      <c r="Q495" s="56" t="s">
         <v>1839</v>
       </c>
-      <c r="R495" s="61" t="s">
+      <c r="R495" s="57" t="s">
         <v>1840</v>
       </c>
-      <c r="W495" s="60" t="s">
+      <c r="W495" s="56" t="s">
         <v>1841</v>
       </c>
-      <c r="X495" s="60">
+      <c r="X495" s="56">
         <v>99999999</v>
       </c>
-      <c r="Y495" s="60">
+      <c r="Y495" s="56">
         <v>1592263800</v>
       </c>
-      <c r="Z495" s="60">
+      <c r="Z495" s="56">
         <v>2552233600</v>
       </c>
-      <c r="AA495" s="60">
+      <c r="AA495" s="56">
         <v>14</v>
       </c>
-      <c r="AH495" s="60">
-        <v>1</v>
-      </c>
-      <c r="AI495" s="60">
-        <v>1</v>
-      </c>
-      <c r="AL495" s="60">
-        <v>1</v>
-      </c>
-      <c r="AM495" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="496" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A496" s="60">
+      <c r="AH495" s="56">
+        <v>1</v>
+      </c>
+      <c r="AI495" s="56">
+        <v>1</v>
+      </c>
+      <c r="AL495" s="56">
+        <v>1</v>
+      </c>
+      <c r="AM495" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A496" s="56">
         <v>495</v>
       </c>
-      <c r="B496" s="60">
+      <c r="B496" s="56">
         <v>10412</v>
       </c>
-      <c r="F496" s="60">
-        <v>1</v>
-      </c>
-      <c r="G496" s="60" t="s">
+      <c r="F496" s="56">
+        <v>1</v>
+      </c>
+      <c r="G496" s="56" t="s">
         <v>1842</v>
       </c>
-      <c r="J496" s="60" t="s">
+      <c r="J496" s="56" t="s">
         <v>1843</v>
       </c>
-      <c r="L496" s="60">
+      <c r="L496" s="56">
         <v>-31</v>
       </c>
-      <c r="M496" s="60">
-        <v>0</v>
-      </c>
-      <c r="N496" s="60">
-        <v>0</v>
-      </c>
-      <c r="O496" s="60" t="s">
+      <c r="M496" s="56">
+        <v>0</v>
+      </c>
+      <c r="N496" s="56">
+        <v>0</v>
+      </c>
+      <c r="O496" s="56" t="s">
         <v>501</v>
       </c>
-      <c r="P496" s="60">
+      <c r="P496" s="56">
         <v>89800</v>
       </c>
-      <c r="Q496" s="60" t="s">
+      <c r="Q496" s="56" t="s">
         <v>1844</v>
       </c>
-      <c r="R496" s="61" t="s">
+      <c r="R496" s="57" t="s">
         <v>1845</v>
       </c>
-      <c r="W496" s="60" t="s">
+      <c r="W496" s="56" t="s">
         <v>589</v>
       </c>
-      <c r="X496" s="60">
+      <c r="X496" s="56">
         <v>99999999</v>
       </c>
-      <c r="Y496" s="60">
+      <c r="Y496" s="56">
         <v>1592263800</v>
       </c>
-      <c r="Z496" s="60">
+      <c r="Z496" s="56">
         <v>2552233600</v>
       </c>
-      <c r="AA496" s="60">
+      <c r="AA496" s="56">
         <v>14</v>
       </c>
-      <c r="AH496" s="60">
-        <v>1</v>
-      </c>
-      <c r="AI496" s="60">
-        <v>1</v>
-      </c>
-      <c r="AL496" s="60">
-        <v>1</v>
-      </c>
-      <c r="AM496" s="60">
+      <c r="AH496" s="56">
+        <v>1</v>
+      </c>
+      <c r="AI496" s="56">
+        <v>1</v>
+      </c>
+      <c r="AL496" s="56">
+        <v>1</v>
+      </c>
+      <c r="AM496" s="56">
         <v>1</v>
       </c>
     </row>
@@ -42699,10 +42791,10 @@
       <c r="Q497" s="5" t="s">
         <v>1851</v>
       </c>
-      <c r="R497" s="64" t="s">
+      <c r="R497" s="60" t="s">
         <v>1962</v>
       </c>
-      <c r="W497" s="66" t="s">
+      <c r="W497" s="62" t="s">
         <v>1974</v>
       </c>
       <c r="X497" s="5">
@@ -42767,10 +42859,10 @@
       <c r="Q498" s="5" t="s">
         <v>1851</v>
       </c>
-      <c r="R498" s="64" t="s">
+      <c r="R498" s="60" t="s">
         <v>1963</v>
       </c>
-      <c r="W498" s="66" t="s">
+      <c r="W498" s="62" t="s">
         <v>1975</v>
       </c>
       <c r="X498" s="5">
@@ -42835,10 +42927,10 @@
       <c r="Q499" s="5" t="s">
         <v>1851</v>
       </c>
-      <c r="R499" s="64" t="s">
+      <c r="R499" s="60" t="s">
         <v>1964</v>
       </c>
-      <c r="W499" s="66" t="s">
+      <c r="W499" s="62" t="s">
         <v>1975</v>
       </c>
       <c r="X499" s="5">
@@ -42903,10 +42995,10 @@
       <c r="Q500" s="5" t="s">
         <v>1851</v>
       </c>
-      <c r="R500" s="64" t="s">
+      <c r="R500" s="60" t="s">
         <v>1965</v>
       </c>
-      <c r="W500" s="66" t="s">
+      <c r="W500" s="62" t="s">
         <v>1975</v>
       </c>
       <c r="X500" s="5">
@@ -42971,10 +43063,10 @@
       <c r="Q501" s="5" t="s">
         <v>1851</v>
       </c>
-      <c r="R501" s="64" t="s">
+      <c r="R501" s="60" t="s">
         <v>1966</v>
       </c>
-      <c r="W501" s="66" t="s">
+      <c r="W501" s="62" t="s">
         <v>1974</v>
       </c>
       <c r="X501" s="5">
@@ -43039,10 +43131,10 @@
       <c r="Q502" s="5" t="s">
         <v>1851</v>
       </c>
-      <c r="R502" s="64" t="s">
+      <c r="R502" s="60" t="s">
         <v>1967</v>
       </c>
-      <c r="W502" s="66" t="s">
+      <c r="W502" s="62" t="s">
         <v>1974</v>
       </c>
       <c r="X502" s="5">
@@ -43107,10 +43199,10 @@
       <c r="Q503" s="5" t="s">
         <v>1861</v>
       </c>
-      <c r="R503" s="65" t="s">
+      <c r="R503" s="61" t="s">
         <v>1968</v>
       </c>
-      <c r="W503" s="66" t="s">
+      <c r="W503" s="62" t="s">
         <v>1974</v>
       </c>
       <c r="X503" s="5">
@@ -43175,10 +43267,10 @@
       <c r="Q504" s="5" t="s">
         <v>1861</v>
       </c>
-      <c r="R504" s="65" t="s">
+      <c r="R504" s="61" t="s">
         <v>1969</v>
       </c>
-      <c r="W504" s="66" t="s">
+      <c r="W504" s="62" t="s">
         <v>1974</v>
       </c>
       <c r="X504" s="5">
@@ -43243,10 +43335,10 @@
       <c r="Q505" s="5" t="s">
         <v>1861</v>
       </c>
-      <c r="R505" s="65" t="s">
+      <c r="R505" s="61" t="s">
         <v>1970</v>
       </c>
-      <c r="W505" s="66" t="s">
+      <c r="W505" s="62" t="s">
         <v>1974</v>
       </c>
       <c r="X505" s="5">
@@ -43311,10 +43403,10 @@
       <c r="Q506" s="5" t="s">
         <v>1866</v>
       </c>
-      <c r="R506" s="65" t="s">
+      <c r="R506" s="61" t="s">
         <v>1971</v>
       </c>
-      <c r="W506" s="66" t="s">
+      <c r="W506" s="62" t="s">
         <v>1974</v>
       </c>
       <c r="X506" s="5">
@@ -43379,10 +43471,10 @@
       <c r="Q507" s="5" t="s">
         <v>1866</v>
       </c>
-      <c r="R507" s="65" t="s">
+      <c r="R507" s="61" t="s">
         <v>1972</v>
       </c>
-      <c r="W507" s="66" t="s">
+      <c r="W507" s="62" t="s">
         <v>1974</v>
       </c>
       <c r="X507" s="5">
@@ -43447,10 +43539,10 @@
       <c r="Q508" s="5" t="s">
         <v>1866</v>
       </c>
-      <c r="R508" s="65" t="s">
+      <c r="R508" s="61" t="s">
         <v>1973</v>
       </c>
-      <c r="W508" s="66" t="s">
+      <c r="W508" s="62" t="s">
         <v>1974</v>
       </c>
       <c r="X508" s="5">
@@ -43478,183 +43570,183 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A509" s="60">
+    <row r="509" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A509" s="56">
         <v>508</v>
       </c>
-      <c r="B509" s="60">
+      <c r="B509" s="56">
         <v>10425</v>
       </c>
-      <c r="F509" s="60">
-        <v>1</v>
-      </c>
-      <c r="G509" s="60" t="s">
+      <c r="F509" s="56">
+        <v>1</v>
+      </c>
+      <c r="G509" s="56" t="s">
         <v>1871</v>
       </c>
-      <c r="J509" s="60" t="s">
+      <c r="J509" s="56" t="s">
         <v>1872</v>
       </c>
-      <c r="L509" s="60">
+      <c r="L509" s="56">
         <v>-4</v>
       </c>
-      <c r="M509" s="60">
-        <v>1</v>
-      </c>
-      <c r="N509" s="60">
-        <v>0</v>
-      </c>
-      <c r="O509" s="60" t="s">
+      <c r="M509" s="56">
+        <v>1</v>
+      </c>
+      <c r="N509" s="56">
+        <v>0</v>
+      </c>
+      <c r="O509" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="P509" s="60">
+      <c r="P509" s="56">
         <v>1800</v>
       </c>
-      <c r="R509" s="61"/>
-      <c r="W509" s="60" t="s">
+      <c r="R509" s="57"/>
+      <c r="W509" s="56" t="s">
         <v>541</v>
       </c>
-      <c r="X509" s="62" t="s">
+      <c r="X509" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="Y509" s="63">
-        <v>0</v>
-      </c>
-      <c r="Z509" s="60">
+      <c r="Y509" s="59">
+        <v>0</v>
+      </c>
+      <c r="Z509" s="56">
         <v>2552233600</v>
       </c>
-      <c r="AB509" s="60" t="s">
+      <c r="AB509" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="AC509" s="60" t="s">
+      <c r="AC509" s="56" t="s">
         <v>1873</v>
       </c>
-      <c r="AD509" s="61" t="s">
+      <c r="AD509" s="57" t="s">
         <v>1874</v>
       </c>
-      <c r="AH509" s="60">
-        <v>1</v>
-      </c>
-      <c r="AI509" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="510" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A510" s="60">
+      <c r="AH509" s="56">
+        <v>1</v>
+      </c>
+      <c r="AI509" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A510" s="56">
         <v>509</v>
       </c>
-      <c r="B510" s="60">
+      <c r="B510" s="56">
         <v>10426</v>
       </c>
-      <c r="F510" s="60">
-        <v>1</v>
-      </c>
-      <c r="G510" s="60" t="s">
+      <c r="F510" s="56">
+        <v>1</v>
+      </c>
+      <c r="G510" s="56" t="s">
         <v>1875</v>
       </c>
-      <c r="J510" s="60" t="s">
+      <c r="J510" s="56" t="s">
         <v>1876</v>
       </c>
-      <c r="L510" s="60">
+      <c r="L510" s="56">
         <v>-4</v>
       </c>
-      <c r="M510" s="60">
-        <v>1</v>
-      </c>
-      <c r="N510" s="60">
-        <v>0</v>
-      </c>
-      <c r="O510" s="60" t="s">
+      <c r="M510" s="56">
+        <v>1</v>
+      </c>
+      <c r="N510" s="56">
+        <v>0</v>
+      </c>
+      <c r="O510" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="P510" s="60">
+      <c r="P510" s="56">
         <v>4800</v>
       </c>
-      <c r="R510" s="61"/>
-      <c r="W510" s="60" t="s">
+      <c r="R510" s="57"/>
+      <c r="W510" s="56" t="s">
         <v>541</v>
       </c>
-      <c r="X510" s="62" t="s">
+      <c r="X510" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="Y510" s="63">
-        <v>0</v>
-      </c>
-      <c r="Z510" s="60">
+      <c r="Y510" s="59">
+        <v>0</v>
+      </c>
+      <c r="Z510" s="56">
         <v>2552233600</v>
       </c>
-      <c r="AB510" s="60" t="s">
+      <c r="AB510" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="AC510" s="60" t="s">
+      <c r="AC510" s="56" t="s">
         <v>1877</v>
       </c>
-      <c r="AD510" s="61" t="s">
+      <c r="AD510" s="57" t="s">
         <v>1878</v>
       </c>
-      <c r="AH510" s="60">
-        <v>1</v>
-      </c>
-      <c r="AI510" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="511" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A511" s="60">
+      <c r="AH510" s="56">
+        <v>1</v>
+      </c>
+      <c r="AI510" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A511" s="56">
         <v>510</v>
       </c>
-      <c r="B511" s="60">
+      <c r="B511" s="56">
         <v>10427</v>
       </c>
-      <c r="F511" s="60">
-        <v>1</v>
-      </c>
-      <c r="G511" s="60" t="s">
+      <c r="F511" s="56">
+        <v>1</v>
+      </c>
+      <c r="G511" s="56" t="s">
         <v>1879</v>
       </c>
-      <c r="J511" s="60" t="s">
+      <c r="J511" s="56" t="s">
         <v>1880</v>
       </c>
-      <c r="L511" s="60">
+      <c r="L511" s="56">
         <v>-4</v>
       </c>
-      <c r="M511" s="60">
-        <v>1</v>
-      </c>
-      <c r="N511" s="60">
-        <v>0</v>
-      </c>
-      <c r="O511" s="60" t="s">
+      <c r="M511" s="56">
+        <v>1</v>
+      </c>
+      <c r="N511" s="56">
+        <v>0</v>
+      </c>
+      <c r="O511" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="P511" s="60">
+      <c r="P511" s="56">
         <v>9800</v>
       </c>
-      <c r="R511" s="61"/>
-      <c r="W511" s="60" t="s">
+      <c r="R511" s="57"/>
+      <c r="W511" s="56" t="s">
         <v>541</v>
       </c>
-      <c r="X511" s="62" t="s">
+      <c r="X511" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="Y511" s="63">
-        <v>0</v>
-      </c>
-      <c r="Z511" s="60">
+      <c r="Y511" s="59">
+        <v>0</v>
+      </c>
+      <c r="Z511" s="56">
         <v>2552233600</v>
       </c>
-      <c r="AB511" s="60" t="s">
+      <c r="AB511" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="AC511" s="60" t="s">
+      <c r="AC511" s="56" t="s">
         <v>1881</v>
       </c>
-      <c r="AD511" s="61" t="s">
+      <c r="AD511" s="57" t="s">
         <v>1882</v>
       </c>
-      <c r="AH511" s="60">
-        <v>1</v>
-      </c>
-      <c r="AI511" s="60">
+      <c r="AH511" s="56">
+        <v>1</v>
+      </c>
+      <c r="AI511" s="56">
         <v>1</v>
       </c>
     </row>
@@ -44264,819 +44356,1431 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:39" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A521" s="5">
         <v>520</v>
       </c>
       <c r="B521" s="5">
         <v>10437</v>
       </c>
-      <c r="F521" s="51">
-        <v>1</v>
-      </c>
-      <c r="G521" s="51" t="s">
+      <c r="F521" s="5">
+        <v>1</v>
+      </c>
+      <c r="G521" s="5" t="s">
         <v>1919</v>
       </c>
-      <c r="I521" s="51" t="s">
+      <c r="I521" s="5" t="s">
         <v>1920</v>
       </c>
-      <c r="J521" s="51" t="s">
+      <c r="J521" s="5" t="s">
         <v>1921</v>
       </c>
-      <c r="L521" s="51">
+      <c r="L521" s="5">
         <v>-33</v>
       </c>
-      <c r="M521" s="51">
-        <v>0</v>
-      </c>
-      <c r="N521" s="51">
-        <v>0</v>
-      </c>
-      <c r="O521" s="51" t="s">
+      <c r="M521" s="5">
+        <v>0</v>
+      </c>
+      <c r="N521" s="5">
+        <v>0</v>
+      </c>
+      <c r="O521" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="P521" s="51">
+      <c r="P521" s="5">
         <v>600</v>
       </c>
-      <c r="Q521" s="51" t="s">
+      <c r="Q521" s="5" t="s">
         <v>1922</v>
       </c>
-      <c r="R521" s="52" t="s">
-        <v>1976</v>
-      </c>
-      <c r="W521" s="51" t="s">
+      <c r="R521" s="10" t="s">
+        <v>2005</v>
+      </c>
+      <c r="W521" s="5" t="s">
         <v>1923</v>
       </c>
-      <c r="X521" s="51">
+      <c r="X521" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y521" s="51">
+      <c r="Y521" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z521" s="51">
+      <c r="Z521" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA521" s="51">
+      <c r="AA521" s="5">
         <v>70</v>
       </c>
-      <c r="AH521" s="51">
-        <v>1</v>
-      </c>
-      <c r="AI521" s="51">
-        <v>1</v>
-      </c>
-      <c r="AL521" s="51">
-        <v>1</v>
-      </c>
-      <c r="AM521" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="522" spans="1:39" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH521" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI521" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL521" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM521" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A522" s="5">
         <v>521</v>
       </c>
       <c r="B522" s="5">
         <v>10438</v>
       </c>
-      <c r="F522" s="51">
-        <v>1</v>
-      </c>
-      <c r="G522" s="51" t="s">
+      <c r="F522" s="5">
+        <v>1</v>
+      </c>
+      <c r="G522" s="5" t="s">
         <v>1924</v>
       </c>
-      <c r="I522" s="51" t="s">
+      <c r="I522" s="5" t="s">
         <v>1920</v>
       </c>
-      <c r="J522" s="51" t="s">
+      <c r="J522" s="5" t="s">
         <v>1925</v>
       </c>
-      <c r="L522" s="51">
+      <c r="L522" s="5">
         <v>-33</v>
       </c>
-      <c r="M522" s="51">
-        <v>0</v>
-      </c>
-      <c r="N522" s="51">
-        <v>0</v>
-      </c>
-      <c r="O522" s="51" t="s">
+      <c r="M522" s="5">
+        <v>0</v>
+      </c>
+      <c r="N522" s="5">
+        <v>0</v>
+      </c>
+      <c r="O522" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="P522" s="51">
+      <c r="P522" s="5">
         <v>1000</v>
       </c>
-      <c r="Q522" s="51" t="s">
+      <c r="Q522" s="5" t="s">
         <v>1927</v>
       </c>
-      <c r="R522" s="52" t="s">
+      <c r="R522" s="10" t="s">
         <v>1928</v>
       </c>
-      <c r="W522" s="51" t="s">
+      <c r="W522" s="5" t="s">
         <v>1063</v>
       </c>
-      <c r="X522" s="51">
+      <c r="X522" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y522" s="51">
+      <c r="Y522" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z522" s="51">
+      <c r="Z522" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA522" s="51">
+      <c r="AA522" s="5">
         <v>70</v>
       </c>
-      <c r="AH522" s="51">
-        <v>1</v>
-      </c>
-      <c r="AI522" s="51">
-        <v>1</v>
-      </c>
-      <c r="AL522" s="51">
-        <v>1</v>
-      </c>
-      <c r="AM522" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="523" spans="1:39" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH522" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI522" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL522" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM522" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A523" s="5">
         <v>522</v>
       </c>
       <c r="B523" s="5">
         <v>10439</v>
       </c>
-      <c r="F523" s="51">
-        <v>1</v>
-      </c>
-      <c r="G523" s="51" t="s">
+      <c r="F523" s="5">
+        <v>1</v>
+      </c>
+      <c r="G523" s="5" t="s">
         <v>1929</v>
       </c>
-      <c r="I523" s="51" t="s">
+      <c r="I523" s="5" t="s">
         <v>1920</v>
       </c>
-      <c r="J523" s="51" t="s">
+      <c r="J523" s="5" t="s">
         <v>1930</v>
       </c>
-      <c r="L523" s="51">
+      <c r="L523" s="5">
         <v>-33</v>
       </c>
-      <c r="M523" s="51">
-        <v>0</v>
-      </c>
-      <c r="N523" s="51">
-        <v>0</v>
-      </c>
-      <c r="O523" s="51" t="s">
+      <c r="M523" s="5">
+        <v>0</v>
+      </c>
+      <c r="N523" s="5">
+        <v>0</v>
+      </c>
+      <c r="O523" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="P523" s="51">
+      <c r="P523" s="5">
         <v>1800</v>
       </c>
-      <c r="Q523" s="51" t="s">
+      <c r="Q523" s="5" t="s">
         <v>1931</v>
       </c>
-      <c r="R523" s="52" t="s">
+      <c r="R523" s="10" t="s">
         <v>1933</v>
       </c>
-      <c r="W523" s="51" t="s">
+      <c r="W523" s="5" t="s">
         <v>1063</v>
       </c>
-      <c r="X523" s="51">
+      <c r="X523" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y523" s="51">
+      <c r="Y523" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z523" s="51">
+      <c r="Z523" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA523" s="51">
+      <c r="AA523" s="5">
         <v>70</v>
       </c>
-      <c r="AH523" s="51">
-        <v>1</v>
-      </c>
-      <c r="AI523" s="51">
-        <v>1</v>
-      </c>
-      <c r="AL523" s="51">
-        <v>1</v>
-      </c>
-      <c r="AM523" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="524" spans="1:39" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH523" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI523" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL523" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM523" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A524" s="5">
         <v>523</v>
       </c>
       <c r="B524" s="5">
         <v>10440</v>
       </c>
-      <c r="F524" s="51">
-        <v>1</v>
-      </c>
-      <c r="G524" s="51" t="s">
+      <c r="F524" s="5">
+        <v>1</v>
+      </c>
+      <c r="G524" s="5" t="s">
         <v>1934</v>
       </c>
-      <c r="I524" s="51" t="s">
+      <c r="I524" s="5" t="s">
         <v>1920</v>
       </c>
-      <c r="J524" s="51" t="s">
+      <c r="J524" s="5" t="s">
         <v>1935</v>
       </c>
-      <c r="L524" s="51">
+      <c r="L524" s="5">
         <v>-33</v>
       </c>
-      <c r="M524" s="51">
-        <v>0</v>
-      </c>
-      <c r="N524" s="51">
-        <v>0</v>
-      </c>
-      <c r="O524" s="51" t="s">
+      <c r="M524" s="5">
+        <v>0</v>
+      </c>
+      <c r="N524" s="5">
+        <v>0</v>
+      </c>
+      <c r="O524" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="P524" s="51">
+      <c r="P524" s="5">
         <v>4800</v>
       </c>
-      <c r="Q524" s="51" t="s">
+      <c r="Q524" s="5" t="s">
         <v>1937</v>
       </c>
-      <c r="R524" s="52" t="s">
+      <c r="R524" s="10" t="s">
         <v>1938</v>
       </c>
-      <c r="W524" s="51" t="s">
+      <c r="W524" s="5" t="s">
         <v>1063</v>
       </c>
-      <c r="X524" s="51">
+      <c r="X524" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y524" s="51">
+      <c r="Y524" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z524" s="51">
+      <c r="Z524" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA524" s="51">
+      <c r="AA524" s="5">
         <v>70</v>
       </c>
-      <c r="AH524" s="51">
-        <v>1</v>
-      </c>
-      <c r="AI524" s="51">
-        <v>1</v>
-      </c>
-      <c r="AL524" s="51">
-        <v>1</v>
-      </c>
-      <c r="AM524" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="525" spans="1:39" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH524" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI524" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL524" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM524" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A525" s="5">
         <v>524</v>
       </c>
       <c r="B525" s="5">
         <v>10441</v>
       </c>
-      <c r="F525" s="45">
-        <v>1</v>
-      </c>
-      <c r="G525" s="45" t="s">
+      <c r="F525" s="5">
+        <v>1</v>
+      </c>
+      <c r="G525" s="5" t="s">
         <v>1919</v>
       </c>
-      <c r="I525" s="45" t="s">
+      <c r="I525" s="5" t="s">
         <v>1940</v>
       </c>
-      <c r="J525" s="45" t="s">
+      <c r="J525" s="5" t="s">
         <v>1941</v>
       </c>
-      <c r="L525" s="45">
+      <c r="L525" s="5">
         <v>-33</v>
       </c>
-      <c r="M525" s="45">
-        <v>0</v>
-      </c>
-      <c r="N525" s="45">
-        <v>0</v>
-      </c>
-      <c r="O525" s="45" t="s">
+      <c r="M525" s="5">
+        <v>0</v>
+      </c>
+      <c r="N525" s="5">
+        <v>0</v>
+      </c>
+      <c r="O525" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="P525" s="45">
+      <c r="P525" s="5">
         <v>1800</v>
       </c>
-      <c r="Q525" s="45" t="s">
+      <c r="Q525" s="5" t="s">
         <v>1942</v>
       </c>
-      <c r="R525" s="46" t="s">
+      <c r="R525" s="10" t="s">
         <v>1932</v>
       </c>
-      <c r="W525" s="45" t="s">
+      <c r="W525" s="5" t="s">
         <v>1063</v>
       </c>
-      <c r="X525" s="45">
+      <c r="X525" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y525" s="45">
+      <c r="Y525" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z525" s="45">
+      <c r="Z525" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA525" s="45">
+      <c r="AA525" s="5">
         <v>71</v>
       </c>
-      <c r="AH525" s="45">
-        <v>1</v>
-      </c>
-      <c r="AI525" s="45">
-        <v>1</v>
-      </c>
-      <c r="AL525" s="45">
-        <v>1</v>
-      </c>
-      <c r="AM525" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="526" spans="1:39" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH525" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI525" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL525" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM525" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A526" s="5">
         <v>525</v>
       </c>
       <c r="B526" s="5">
         <v>10442</v>
       </c>
-      <c r="F526" s="45">
-        <v>1</v>
-      </c>
-      <c r="G526" s="45" t="s">
+      <c r="F526" s="5">
+        <v>1</v>
+      </c>
+      <c r="G526" s="5" t="s">
         <v>1924</v>
       </c>
-      <c r="I526" s="45" t="s">
+      <c r="I526" s="5" t="s">
         <v>1940</v>
       </c>
-      <c r="J526" s="45" t="s">
+      <c r="J526" s="5" t="s">
         <v>1943</v>
       </c>
-      <c r="L526" s="45">
+      <c r="L526" s="5">
         <v>-33</v>
       </c>
-      <c r="M526" s="45">
-        <v>0</v>
-      </c>
-      <c r="N526" s="45">
-        <v>0</v>
-      </c>
-      <c r="O526" s="45" t="s">
+      <c r="M526" s="5">
+        <v>0</v>
+      </c>
+      <c r="N526" s="5">
+        <v>0</v>
+      </c>
+      <c r="O526" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="P526" s="45">
+      <c r="P526" s="5">
         <v>4800</v>
       </c>
-      <c r="Q526" s="45" t="s">
+      <c r="Q526" s="5" t="s">
         <v>1926</v>
       </c>
-      <c r="R526" s="46" t="s">
+      <c r="R526" s="10" t="s">
         <v>1945</v>
       </c>
-      <c r="W526" s="45" t="s">
+      <c r="W526" s="5" t="s">
         <v>1063</v>
       </c>
-      <c r="X526" s="45">
+      <c r="X526" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y526" s="45">
+      <c r="Y526" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z526" s="45">
+      <c r="Z526" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA526" s="45">
+      <c r="AA526" s="5">
         <v>71</v>
       </c>
-      <c r="AH526" s="45">
-        <v>1</v>
-      </c>
-      <c r="AI526" s="45">
-        <v>1</v>
-      </c>
-      <c r="AL526" s="45">
-        <v>1</v>
-      </c>
-      <c r="AM526" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="527" spans="1:39" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH526" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI526" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL526" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM526" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A527" s="5">
         <v>526</v>
       </c>
       <c r="B527" s="5">
         <v>10443</v>
       </c>
-      <c r="F527" s="45">
-        <v>1</v>
-      </c>
-      <c r="G527" s="45" t="s">
+      <c r="F527" s="5">
+        <v>1</v>
+      </c>
+      <c r="G527" s="5" t="s">
         <v>1929</v>
       </c>
-      <c r="I527" s="45" t="s">
+      <c r="I527" s="5" t="s">
         <v>1940</v>
       </c>
-      <c r="J527" s="45" t="s">
+      <c r="J527" s="5" t="s">
         <v>1946</v>
       </c>
-      <c r="L527" s="45">
+      <c r="L527" s="5">
         <v>-33</v>
       </c>
-      <c r="M527" s="45">
-        <v>0</v>
-      </c>
-      <c r="N527" s="45">
-        <v>0</v>
-      </c>
-      <c r="O527" s="45" t="s">
+      <c r="M527" s="5">
+        <v>0</v>
+      </c>
+      <c r="N527" s="5">
+        <v>0</v>
+      </c>
+      <c r="O527" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="P527" s="45">
+      <c r="P527" s="5">
         <v>9800</v>
       </c>
-      <c r="Q527" s="45" t="s">
+      <c r="Q527" s="5" t="s">
         <v>1931</v>
       </c>
-      <c r="R527" s="46" t="s">
+      <c r="R527" s="10" t="s">
         <v>1948</v>
       </c>
-      <c r="W527" s="45" t="s">
+      <c r="W527" s="5" t="s">
         <v>1063</v>
       </c>
-      <c r="X527" s="45">
+      <c r="X527" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y527" s="45">
+      <c r="Y527" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z527" s="45">
+      <c r="Z527" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA527" s="45">
+      <c r="AA527" s="5">
         <v>71</v>
       </c>
-      <c r="AH527" s="45">
-        <v>1</v>
-      </c>
-      <c r="AI527" s="45">
-        <v>1</v>
-      </c>
-      <c r="AL527" s="45">
-        <v>1</v>
-      </c>
-      <c r="AM527" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="528" spans="1:39" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH527" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI527" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL527" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM527" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A528" s="5">
         <v>527</v>
       </c>
       <c r="B528" s="5">
         <v>10444</v>
       </c>
-      <c r="F528" s="45">
-        <v>1</v>
-      </c>
-      <c r="G528" s="45" t="s">
+      <c r="F528" s="5">
+        <v>1</v>
+      </c>
+      <c r="G528" s="5" t="s">
         <v>1934</v>
       </c>
-      <c r="I528" s="45" t="s">
+      <c r="I528" s="5" t="s">
         <v>1939</v>
       </c>
-      <c r="J528" s="45" t="s">
+      <c r="J528" s="5" t="s">
         <v>1949</v>
       </c>
-      <c r="L528" s="45">
+      <c r="L528" s="5">
         <v>-33</v>
       </c>
-      <c r="M528" s="45">
-        <v>0</v>
-      </c>
-      <c r="N528" s="45">
-        <v>0</v>
-      </c>
-      <c r="O528" s="45" t="s">
+      <c r="M528" s="5">
+        <v>0</v>
+      </c>
+      <c r="N528" s="5">
+        <v>0</v>
+      </c>
+      <c r="O528" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="P528" s="45">
+      <c r="P528" s="5">
         <v>19800</v>
       </c>
-      <c r="Q528" s="45" t="s">
+      <c r="Q528" s="5" t="s">
         <v>1937</v>
       </c>
-      <c r="R528" s="46" t="s">
+      <c r="R528" s="10" t="s">
         <v>1950</v>
       </c>
-      <c r="W528" s="45" t="s">
+      <c r="W528" s="5" t="s">
         <v>1063</v>
       </c>
-      <c r="X528" s="45">
+      <c r="X528" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y528" s="45">
+      <c r="Y528" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z528" s="45">
+      <c r="Z528" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA528" s="45">
+      <c r="AA528" s="5">
         <v>71</v>
       </c>
-      <c r="AH528" s="45">
-        <v>1</v>
-      </c>
-      <c r="AI528" s="45">
-        <v>1</v>
-      </c>
-      <c r="AL528" s="45">
-        <v>1</v>
-      </c>
-      <c r="AM528" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="529" spans="1:39" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH528" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI528" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL528" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM528" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A529" s="5">
         <v>528</v>
       </c>
       <c r="B529" s="5">
         <v>10445</v>
       </c>
-      <c r="F529" s="51">
-        <v>1</v>
-      </c>
-      <c r="G529" s="51" t="s">
+      <c r="F529" s="5">
+        <v>1</v>
+      </c>
+      <c r="G529" s="5" t="s">
         <v>1919</v>
       </c>
-      <c r="I529" s="51" t="s">
+      <c r="I529" s="5" t="s">
         <v>1952</v>
       </c>
-      <c r="J529" s="51" t="s">
+      <c r="J529" s="5" t="s">
         <v>1953</v>
       </c>
-      <c r="L529" s="51">
+      <c r="L529" s="5">
         <v>-33</v>
       </c>
-      <c r="M529" s="51">
-        <v>0</v>
-      </c>
-      <c r="N529" s="51">
-        <v>0</v>
-      </c>
-      <c r="O529" s="51" t="s">
+      <c r="M529" s="5">
+        <v>0</v>
+      </c>
+      <c r="N529" s="5">
+        <v>0</v>
+      </c>
+      <c r="O529" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="P529" s="51">
+      <c r="P529" s="5">
         <v>4800</v>
       </c>
-      <c r="Q529" s="51" t="s">
+      <c r="Q529" s="5" t="s">
         <v>1942</v>
       </c>
-      <c r="R529" s="52" t="s">
+      <c r="R529" s="10" t="s">
         <v>1944</v>
       </c>
-      <c r="W529" s="51" t="s">
+      <c r="W529" s="5" t="s">
         <v>1063</v>
       </c>
-      <c r="X529" s="51">
+      <c r="X529" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y529" s="51">
+      <c r="Y529" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z529" s="51">
+      <c r="Z529" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA529" s="51">
+      <c r="AA529" s="5">
         <v>72</v>
       </c>
-      <c r="AH529" s="51">
-        <v>1</v>
-      </c>
-      <c r="AI529" s="51">
-        <v>1</v>
-      </c>
-      <c r="AL529" s="51">
-        <v>1</v>
-      </c>
-      <c r="AM529" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="530" spans="1:39" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH529" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI529" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL529" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM529" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A530" s="5">
         <v>529</v>
       </c>
       <c r="B530" s="5">
         <v>10446</v>
       </c>
-      <c r="F530" s="51">
-        <v>1</v>
-      </c>
-      <c r="G530" s="51" t="s">
+      <c r="F530" s="5">
+        <v>1</v>
+      </c>
+      <c r="G530" s="5" t="s">
         <v>1924</v>
       </c>
-      <c r="I530" s="51" t="s">
+      <c r="I530" s="5" t="s">
         <v>1952</v>
       </c>
-      <c r="J530" s="51" t="s">
+      <c r="J530" s="5" t="s">
         <v>1954</v>
       </c>
-      <c r="L530" s="51">
+      <c r="L530" s="5">
         <v>-33</v>
       </c>
-      <c r="M530" s="51">
-        <v>0</v>
-      </c>
-      <c r="N530" s="51">
-        <v>0</v>
-      </c>
-      <c r="O530" s="51" t="s">
+      <c r="M530" s="5">
+        <v>0</v>
+      </c>
+      <c r="N530" s="5">
+        <v>0</v>
+      </c>
+      <c r="O530" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="P530" s="51">
+      <c r="P530" s="5">
         <v>9800</v>
       </c>
-      <c r="Q530" s="51" t="s">
+      <c r="Q530" s="5" t="s">
         <v>1927</v>
       </c>
-      <c r="R530" s="52" t="s">
+      <c r="R530" s="10" t="s">
         <v>1947</v>
       </c>
-      <c r="W530" s="51" t="s">
+      <c r="W530" s="5" t="s">
         <v>1063</v>
       </c>
-      <c r="X530" s="51">
+      <c r="X530" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y530" s="51">
+      <c r="Y530" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z530" s="51">
+      <c r="Z530" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA530" s="51">
+      <c r="AA530" s="5">
         <v>72</v>
       </c>
-      <c r="AH530" s="51">
-        <v>1</v>
-      </c>
-      <c r="AI530" s="51">
-        <v>1</v>
-      </c>
-      <c r="AL530" s="51">
-        <v>1</v>
-      </c>
-      <c r="AM530" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="531" spans="1:39" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH530" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI530" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL530" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM530" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A531" s="5">
         <v>530</v>
       </c>
       <c r="B531" s="5">
         <v>10447</v>
       </c>
-      <c r="F531" s="51">
-        <v>1</v>
-      </c>
-      <c r="G531" s="51" t="s">
+      <c r="F531" s="5">
+        <v>1</v>
+      </c>
+      <c r="G531" s="5" t="s">
         <v>1929</v>
       </c>
-      <c r="I531" s="51" t="s">
+      <c r="I531" s="5" t="s">
         <v>1952</v>
       </c>
-      <c r="J531" s="51" t="s">
+      <c r="J531" s="5" t="s">
         <v>1955</v>
       </c>
-      <c r="L531" s="51">
+      <c r="L531" s="5">
         <v>-33</v>
       </c>
-      <c r="M531" s="51">
-        <v>0</v>
-      </c>
-      <c r="N531" s="51">
-        <v>0</v>
-      </c>
-      <c r="O531" s="51" t="s">
+      <c r="M531" s="5">
+        <v>0</v>
+      </c>
+      <c r="N531" s="5">
+        <v>0</v>
+      </c>
+      <c r="O531" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="P531" s="51">
+      <c r="P531" s="5">
         <v>19800</v>
       </c>
-      <c r="Q531" s="51" t="s">
+      <c r="Q531" s="5" t="s">
         <v>1931</v>
       </c>
-      <c r="R531" s="52" t="s">
+      <c r="R531" s="10" t="s">
         <v>1956</v>
       </c>
-      <c r="W531" s="51" t="s">
+      <c r="W531" s="5" t="s">
         <v>1063</v>
       </c>
-      <c r="X531" s="51">
+      <c r="X531" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y531" s="51">
+      <c r="Y531" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z531" s="51">
+      <c r="Z531" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA531" s="51">
+      <c r="AA531" s="5">
         <v>72</v>
       </c>
-      <c r="AH531" s="51">
-        <v>1</v>
-      </c>
-      <c r="AI531" s="51">
-        <v>1</v>
-      </c>
-      <c r="AL531" s="51">
-        <v>1</v>
-      </c>
-      <c r="AM531" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="532" spans="1:39" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH531" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI531" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL531" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM531" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A532" s="5">
         <v>531</v>
       </c>
       <c r="B532" s="5">
         <v>10448</v>
       </c>
-      <c r="F532" s="51">
-        <v>1</v>
-      </c>
-      <c r="G532" s="51" t="s">
+      <c r="F532" s="5">
+        <v>1</v>
+      </c>
+      <c r="G532" s="5" t="s">
         <v>1934</v>
       </c>
-      <c r="I532" s="51" t="s">
+      <c r="I532" s="5" t="s">
         <v>1951</v>
       </c>
-      <c r="J532" s="51" t="s">
+      <c r="J532" s="5" t="s">
         <v>1957</v>
       </c>
-      <c r="L532" s="51">
+      <c r="L532" s="5">
         <v>-33</v>
       </c>
-      <c r="M532" s="51">
-        <v>0</v>
-      </c>
-      <c r="N532" s="51">
-        <v>0</v>
-      </c>
-      <c r="O532" s="51" t="s">
+      <c r="M532" s="5">
+        <v>0</v>
+      </c>
+      <c r="N532" s="5">
+        <v>0</v>
+      </c>
+      <c r="O532" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="P532" s="51">
+      <c r="P532" s="5">
         <v>49800</v>
       </c>
-      <c r="Q532" s="51" t="s">
+      <c r="Q532" s="5" t="s">
         <v>1936</v>
       </c>
-      <c r="R532" s="52" t="s">
+      <c r="R532" s="10" t="s">
         <v>1958</v>
       </c>
-      <c r="W532" s="51" t="s">
+      <c r="W532" s="5" t="s">
         <v>1063</v>
       </c>
-      <c r="X532" s="51">
+      <c r="X532" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y532" s="51">
+      <c r="Y532" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z532" s="51">
+      <c r="Z532" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA532" s="51">
+      <c r="AA532" s="5">
         <v>72</v>
       </c>
-      <c r="AH532" s="51">
-        <v>1</v>
-      </c>
-      <c r="AI532" s="51">
-        <v>1</v>
-      </c>
-      <c r="AL532" s="51">
-        <v>1</v>
-      </c>
-      <c r="AM532" s="51">
+      <c r="AH532" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI532" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL532" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM532" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="1:39" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A533" s="5">
+        <v>532</v>
+      </c>
+      <c r="B533" s="62">
+        <v>10449</v>
+      </c>
+      <c r="F533" s="62">
+        <v>1</v>
+      </c>
+      <c r="G533" s="62" t="s">
+        <v>1976</v>
+      </c>
+      <c r="I533" s="62" t="s">
+        <v>1119</v>
+      </c>
+      <c r="J533" s="62" t="s">
+        <v>1977</v>
+      </c>
+      <c r="L533" s="62">
+        <v>-31</v>
+      </c>
+      <c r="M533" s="62">
+        <v>0</v>
+      </c>
+      <c r="N533" s="62">
+        <v>0</v>
+      </c>
+      <c r="O533" s="62" t="s">
+        <v>498</v>
+      </c>
+      <c r="P533" s="62">
+        <v>1800</v>
+      </c>
+      <c r="Q533" s="62" t="s">
+        <v>1978</v>
+      </c>
+      <c r="R533" s="60" t="s">
+        <v>1979</v>
+      </c>
+      <c r="W533" s="62" t="s">
+        <v>1980</v>
+      </c>
+      <c r="X533" s="62">
+        <v>9999999</v>
+      </c>
+      <c r="Y533" s="62">
+        <v>1611619200</v>
+      </c>
+      <c r="Z533" s="62">
+        <v>1612195199</v>
+      </c>
+      <c r="AA533" s="62">
+        <v>44</v>
+      </c>
+      <c r="AH533" s="62">
+        <v>1</v>
+      </c>
+      <c r="AI533" s="62">
+        <v>1</v>
+      </c>
+      <c r="AL533" s="62">
+        <v>1</v>
+      </c>
+      <c r="AM533" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:39" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A534" s="5">
+        <v>533</v>
+      </c>
+      <c r="B534" s="62">
+        <v>10450</v>
+      </c>
+      <c r="F534" s="62">
+        <v>1</v>
+      </c>
+      <c r="G534" s="62" t="s">
+        <v>1981</v>
+      </c>
+      <c r="I534" s="62" t="s">
+        <v>1119</v>
+      </c>
+      <c r="J534" s="62" t="s">
+        <v>1146</v>
+      </c>
+      <c r="L534" s="62">
+        <v>-31</v>
+      </c>
+      <c r="M534" s="62">
+        <v>0</v>
+      </c>
+      <c r="N534" s="62">
+        <v>0</v>
+      </c>
+      <c r="O534" s="62" t="s">
+        <v>1982</v>
+      </c>
+      <c r="P534" s="62">
+        <v>3000</v>
+      </c>
+      <c r="Q534" s="62" t="s">
+        <v>1157</v>
+      </c>
+      <c r="R534" s="60" t="s">
+        <v>1983</v>
+      </c>
+      <c r="W534" s="62" t="s">
+        <v>1984</v>
+      </c>
+      <c r="X534" s="62">
+        <v>9999999</v>
+      </c>
+      <c r="Y534" s="62">
+        <v>1611619200</v>
+      </c>
+      <c r="Z534" s="62">
+        <v>1612195199</v>
+      </c>
+      <c r="AA534" s="62">
+        <v>44</v>
+      </c>
+      <c r="AH534" s="62">
+        <v>1</v>
+      </c>
+      <c r="AI534" s="62">
+        <v>1</v>
+      </c>
+      <c r="AL534" s="62">
+        <v>1</v>
+      </c>
+      <c r="AM534" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:39" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A535" s="5">
+        <v>534</v>
+      </c>
+      <c r="B535" s="62">
+        <v>10451</v>
+      </c>
+      <c r="F535" s="62">
+        <v>1</v>
+      </c>
+      <c r="G535" s="62" t="s">
+        <v>1985</v>
+      </c>
+      <c r="I535" s="62" t="s">
+        <v>1986</v>
+      </c>
+      <c r="J535" s="62" t="s">
+        <v>1987</v>
+      </c>
+      <c r="L535" s="62">
+        <v>-31</v>
+      </c>
+      <c r="M535" s="62">
+        <v>0</v>
+      </c>
+      <c r="N535" s="62">
+        <v>0</v>
+      </c>
+      <c r="O535" s="62" t="s">
+        <v>1988</v>
+      </c>
+      <c r="P535" s="62">
+        <v>4800</v>
+      </c>
+      <c r="Q535" s="62" t="s">
+        <v>1989</v>
+      </c>
+      <c r="R535" s="60" t="s">
+        <v>1990</v>
+      </c>
+      <c r="W535" s="62" t="s">
+        <v>1980</v>
+      </c>
+      <c r="X535" s="62">
+        <v>9999999</v>
+      </c>
+      <c r="Y535" s="62">
+        <v>1611619200</v>
+      </c>
+      <c r="Z535" s="62">
+        <v>1612195199</v>
+      </c>
+      <c r="AA535" s="62">
+        <v>44</v>
+      </c>
+      <c r="AH535" s="62">
+        <v>1</v>
+      </c>
+      <c r="AI535" s="62">
+        <v>1</v>
+      </c>
+      <c r="AL535" s="62">
+        <v>1</v>
+      </c>
+      <c r="AM535" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A536" s="5">
+        <v>535</v>
+      </c>
+      <c r="B536" s="63">
+        <v>10452</v>
+      </c>
+      <c r="F536" s="63">
+        <v>1</v>
+      </c>
+      <c r="G536" s="63" t="s">
+        <v>1976</v>
+      </c>
+      <c r="I536" s="63" t="s">
+        <v>1080</v>
+      </c>
+      <c r="J536" s="63" t="s">
+        <v>1148</v>
+      </c>
+      <c r="L536" s="63">
+        <v>-31</v>
+      </c>
+      <c r="M536" s="63">
+        <v>0</v>
+      </c>
+      <c r="N536" s="63">
+        <v>0</v>
+      </c>
+      <c r="O536" s="63" t="s">
+        <v>1988</v>
+      </c>
+      <c r="P536" s="63">
+        <v>4800</v>
+      </c>
+      <c r="Q536" s="63" t="s">
+        <v>1991</v>
+      </c>
+      <c r="R536" s="61" t="s">
+        <v>1992</v>
+      </c>
+      <c r="W536" s="63" t="s">
+        <v>1980</v>
+      </c>
+      <c r="X536" s="63">
+        <v>9999999</v>
+      </c>
+      <c r="Y536" s="63">
+        <v>1611619200</v>
+      </c>
+      <c r="Z536" s="63">
+        <v>1612195199</v>
+      </c>
+      <c r="AA536" s="63">
+        <v>45</v>
+      </c>
+      <c r="AH536" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI536" s="63">
+        <v>1</v>
+      </c>
+      <c r="AL536" s="63">
+        <v>1</v>
+      </c>
+      <c r="AM536" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A537" s="5">
+        <v>536</v>
+      </c>
+      <c r="B537" s="63">
+        <v>10453</v>
+      </c>
+      <c r="F537" s="63">
+        <v>1</v>
+      </c>
+      <c r="G537" s="63" t="s">
+        <v>1981</v>
+      </c>
+      <c r="I537" s="63" t="s">
+        <v>1993</v>
+      </c>
+      <c r="J537" s="63" t="s">
+        <v>1994</v>
+      </c>
+      <c r="L537" s="63">
+        <v>-31</v>
+      </c>
+      <c r="M537" s="63">
+        <v>0</v>
+      </c>
+      <c r="N537" s="63">
+        <v>0</v>
+      </c>
+      <c r="O537" s="63" t="s">
+        <v>498</v>
+      </c>
+      <c r="P537" s="63">
+        <v>9800</v>
+      </c>
+      <c r="Q537" s="63" t="s">
+        <v>1995</v>
+      </c>
+      <c r="R537" s="61" t="s">
+        <v>1996</v>
+      </c>
+      <c r="W537" s="63" t="s">
+        <v>1980</v>
+      </c>
+      <c r="X537" s="63">
+        <v>9999999</v>
+      </c>
+      <c r="Y537" s="63">
+        <v>1611619200</v>
+      </c>
+      <c r="Z537" s="63">
+        <v>1612195199</v>
+      </c>
+      <c r="AA537" s="63">
+        <v>45</v>
+      </c>
+      <c r="AH537" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI537" s="63">
+        <v>1</v>
+      </c>
+      <c r="AL537" s="63">
+        <v>1</v>
+      </c>
+      <c r="AM537" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A538" s="5">
+        <v>537</v>
+      </c>
+      <c r="B538" s="63">
+        <v>10454</v>
+      </c>
+      <c r="F538" s="63">
+        <v>1</v>
+      </c>
+      <c r="G538" s="63" t="s">
+        <v>1985</v>
+      </c>
+      <c r="I538" s="63" t="s">
+        <v>1997</v>
+      </c>
+      <c r="J538" s="63" t="s">
+        <v>1150</v>
+      </c>
+      <c r="L538" s="63">
+        <v>-31</v>
+      </c>
+      <c r="M538" s="63">
+        <v>0</v>
+      </c>
+      <c r="N538" s="63">
+        <v>0</v>
+      </c>
+      <c r="O538" s="63" t="s">
+        <v>498</v>
+      </c>
+      <c r="P538" s="63">
+        <v>19800</v>
+      </c>
+      <c r="Q538" s="63" t="s">
+        <v>1161</v>
+      </c>
+      <c r="R538" s="61" t="s">
+        <v>1998</v>
+      </c>
+      <c r="W538" s="63" t="s">
+        <v>1974</v>
+      </c>
+      <c r="X538" s="63">
+        <v>9999999</v>
+      </c>
+      <c r="Y538" s="63">
+        <v>1611619200</v>
+      </c>
+      <c r="Z538" s="63">
+        <v>1612195199</v>
+      </c>
+      <c r="AA538" s="63">
+        <v>45</v>
+      </c>
+      <c r="AH538" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI538" s="63">
+        <v>1</v>
+      </c>
+      <c r="AL538" s="63">
+        <v>1</v>
+      </c>
+      <c r="AM538" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:39" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A539" s="5">
+        <v>538</v>
+      </c>
+      <c r="B539" s="62">
+        <v>10455</v>
+      </c>
+      <c r="F539" s="62">
+        <v>1</v>
+      </c>
+      <c r="G539" s="62" t="s">
+        <v>1976</v>
+      </c>
+      <c r="I539" s="62" t="s">
+        <v>1999</v>
+      </c>
+      <c r="J539" s="62" t="s">
+        <v>1151</v>
+      </c>
+      <c r="L539" s="62">
+        <v>-31</v>
+      </c>
+      <c r="M539" s="62">
+        <v>0</v>
+      </c>
+      <c r="N539" s="62">
+        <v>0</v>
+      </c>
+      <c r="O539" s="62" t="s">
+        <v>498</v>
+      </c>
+      <c r="P539" s="62">
+        <v>9800</v>
+      </c>
+      <c r="Q539" s="62" t="s">
+        <v>2000</v>
+      </c>
+      <c r="R539" s="60" t="s">
+        <v>1776</v>
+      </c>
+      <c r="W539" s="62" t="s">
+        <v>1984</v>
+      </c>
+      <c r="X539" s="62">
+        <v>9999999</v>
+      </c>
+      <c r="Y539" s="62">
+        <v>1611619200</v>
+      </c>
+      <c r="Z539" s="62">
+        <v>1612195199</v>
+      </c>
+      <c r="AA539" s="62">
+        <v>46</v>
+      </c>
+      <c r="AH539" s="62">
+        <v>1</v>
+      </c>
+      <c r="AI539" s="62">
+        <v>1</v>
+      </c>
+      <c r="AL539" s="62">
+        <v>1</v>
+      </c>
+      <c r="AM539" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:39" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A540" s="5">
+        <v>539</v>
+      </c>
+      <c r="B540" s="62">
+        <v>10456</v>
+      </c>
+      <c r="F540" s="62">
+        <v>1</v>
+      </c>
+      <c r="G540" s="62" t="s">
+        <v>1981</v>
+      </c>
+      <c r="I540" s="62" t="s">
+        <v>2001</v>
+      </c>
+      <c r="J540" s="62" t="s">
+        <v>1152</v>
+      </c>
+      <c r="L540" s="62">
+        <v>-31</v>
+      </c>
+      <c r="M540" s="62">
+        <v>0</v>
+      </c>
+      <c r="N540" s="62">
+        <v>0</v>
+      </c>
+      <c r="O540" s="62" t="s">
+        <v>498</v>
+      </c>
+      <c r="P540" s="62">
+        <v>19800</v>
+      </c>
+      <c r="Q540" s="62" t="s">
+        <v>1162</v>
+      </c>
+      <c r="R540" s="60" t="s">
+        <v>1998</v>
+      </c>
+      <c r="W540" s="62" t="s">
+        <v>1974</v>
+      </c>
+      <c r="X540" s="62">
+        <v>9999999</v>
+      </c>
+      <c r="Y540" s="62">
+        <v>1611619200</v>
+      </c>
+      <c r="Z540" s="62">
+        <v>1612195199</v>
+      </c>
+      <c r="AA540" s="62">
+        <v>46</v>
+      </c>
+      <c r="AH540" s="62">
+        <v>1</v>
+      </c>
+      <c r="AI540" s="62">
+        <v>1</v>
+      </c>
+      <c r="AL540" s="62">
+        <v>1</v>
+      </c>
+      <c r="AM540" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:39" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A541" s="5">
+        <v>540</v>
+      </c>
+      <c r="B541" s="62">
+        <v>10457</v>
+      </c>
+      <c r="F541" s="62">
+        <v>1</v>
+      </c>
+      <c r="G541" s="62" t="s">
+        <v>1985</v>
+      </c>
+      <c r="I541" s="62" t="s">
+        <v>2001</v>
+      </c>
+      <c r="J541" s="62" t="s">
+        <v>2002</v>
+      </c>
+      <c r="L541" s="62">
+        <v>-31</v>
+      </c>
+      <c r="M541" s="62">
+        <v>0</v>
+      </c>
+      <c r="N541" s="62">
+        <v>0</v>
+      </c>
+      <c r="O541" s="62" t="s">
+        <v>2003</v>
+      </c>
+      <c r="P541" s="62">
+        <v>49800</v>
+      </c>
+      <c r="Q541" s="62" t="s">
+        <v>1163</v>
+      </c>
+      <c r="R541" s="60" t="s">
+        <v>2004</v>
+      </c>
+      <c r="W541" s="62" t="s">
+        <v>1974</v>
+      </c>
+      <c r="X541" s="62">
+        <v>9999999</v>
+      </c>
+      <c r="Y541" s="62">
+        <v>1611619200</v>
+      </c>
+      <c r="Z541" s="62">
+        <v>1612195199</v>
+      </c>
+      <c r="AA541" s="62">
+        <v>46</v>
+      </c>
+      <c r="AH541" s="62">
+        <v>1</v>
+      </c>
+      <c r="AI541" s="62">
+        <v>1</v>
+      </c>
+      <c r="AL541" s="62">
+        <v>1</v>
+      </c>
+      <c r="AM541" s="62">
         <v>1</v>
       </c>
     </row>
@@ -45093,7 +45797,7 @@
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -46101,45 +46805,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="12">
         <v>70</v>
       </c>
-      <c r="B71" s="53" t="s">
+      <c r="B71" s="49" t="s">
         <v>1959</v>
       </c>
-      <c r="C71" s="54">
-        <v>1</v>
-      </c>
-      <c r="D71" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C71" s="50">
+        <v>1</v>
+      </c>
+      <c r="D71" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="12">
         <v>71</v>
       </c>
-      <c r="B72" s="53" t="s">
+      <c r="B72" s="49" t="s">
         <v>1960</v>
       </c>
-      <c r="C72" s="54">
-        <v>1</v>
-      </c>
-      <c r="D72" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C72" s="50">
+        <v>1</v>
+      </c>
+      <c r="D72" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="12">
         <v>72</v>
       </c>
-      <c r="B73" s="53" t="s">
+      <c r="B73" s="49" t="s">
         <v>1961</v>
       </c>
-      <c r="C73" s="54">
-        <v>1</v>
-      </c>
-      <c r="D73" s="54">
+      <c r="C73" s="50">
+        <v>1</v>
+      </c>
+      <c r="D73" s="50">
         <v>0</v>
       </c>
     </row>

--- a/config_debug/shoping_config_cjj.xlsx
+++ b/config_debug/shoping_config_cjj.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4410" uniqueCount="2009">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4459" uniqueCount="2028">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8568,6 +8568,82 @@
   </si>
   <si>
     <t>600000,20000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>一帆风顺</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新年福袋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9980万金币","300万小游戏币","铁锹*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>99800000,3000000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>二龙腾飞</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>三阳开泰</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新年福袋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>四季发财</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>五福临门</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","30万小游戏币","阳光*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>六六大顺</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","15万小游戏币","水滴*8",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,150000,8,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>七星高照</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -8651,7 +8727,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8712,6 +8788,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -8755,7 +8837,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8945,7 +9027,13 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9411,8 +9499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11379,13 +11467,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN541"/>
+  <dimension ref="A1:AN548"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W513" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="W519" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA541" sqref="AA541"/>
+      <selection pane="bottomRight" activeCell="AA545" activeCellId="1" sqref="AA533:AA541 AA545"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -45184,615 +45272,1133 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:39" s="62" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A533" s="5">
         <v>532</v>
       </c>
-      <c r="B533" s="62">
+      <c r="B533" s="5">
         <v>10449</v>
       </c>
-      <c r="F533" s="62">
-        <v>1</v>
-      </c>
-      <c r="G533" s="62" t="s">
+      <c r="F533" s="5">
+        <v>1</v>
+      </c>
+      <c r="G533" s="5" t="s">
         <v>1976</v>
       </c>
-      <c r="I533" s="62" t="s">
+      <c r="I533" s="5" t="s">
         <v>1119</v>
       </c>
-      <c r="J533" s="62" t="s">
+      <c r="J533" s="5" t="s">
         <v>1977</v>
       </c>
-      <c r="L533" s="62">
+      <c r="L533" s="5">
         <v>-31</v>
       </c>
-      <c r="M533" s="62">
-        <v>0</v>
-      </c>
-      <c r="N533" s="62">
-        <v>0</v>
-      </c>
-      <c r="O533" s="62" t="s">
+      <c r="M533" s="5">
+        <v>0</v>
+      </c>
+      <c r="N533" s="5">
+        <v>0</v>
+      </c>
+      <c r="O533" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="P533" s="62">
+      <c r="P533" s="5">
         <v>1800</v>
       </c>
-      <c r="Q533" s="62" t="s">
+      <c r="Q533" s="5" t="s">
         <v>1978</v>
       </c>
-      <c r="R533" s="60" t="s">
+      <c r="R533" s="10" t="s">
         <v>1979</v>
       </c>
-      <c r="W533" s="62" t="s">
+      <c r="W533" s="5" t="s">
         <v>1980</v>
       </c>
-      <c r="X533" s="62">
+      <c r="X533" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y533" s="62">
+      <c r="Y533" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z533" s="62">
+      <c r="Z533" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA533" s="62">
+      <c r="AA533" s="5">
         <v>73</v>
       </c>
-      <c r="AH533" s="62">
-        <v>1</v>
-      </c>
-      <c r="AI533" s="62">
-        <v>1</v>
-      </c>
-      <c r="AL533" s="62">
-        <v>1</v>
-      </c>
-      <c r="AM533" s="62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="534" spans="1:39" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH533" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI533" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL533" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM533" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A534" s="5">
         <v>533</v>
       </c>
-      <c r="B534" s="62">
+      <c r="B534" s="5">
         <v>10450</v>
       </c>
-      <c r="F534" s="62">
-        <v>1</v>
-      </c>
-      <c r="G534" s="62" t="s">
+      <c r="F534" s="5">
+        <v>1</v>
+      </c>
+      <c r="G534" s="5" t="s">
         <v>1981</v>
       </c>
-      <c r="I534" s="62" t="s">
+      <c r="I534" s="5" t="s">
         <v>1119</v>
       </c>
-      <c r="J534" s="62" t="s">
+      <c r="J534" s="5" t="s">
         <v>1146</v>
       </c>
-      <c r="L534" s="62">
+      <c r="L534" s="5">
         <v>-31</v>
       </c>
-      <c r="M534" s="62">
-        <v>0</v>
-      </c>
-      <c r="N534" s="62">
-        <v>0</v>
-      </c>
-      <c r="O534" s="62" t="s">
+      <c r="M534" s="5">
+        <v>0</v>
+      </c>
+      <c r="N534" s="5">
+        <v>0</v>
+      </c>
+      <c r="O534" s="5" t="s">
         <v>1982</v>
       </c>
-      <c r="P534" s="62">
+      <c r="P534" s="5">
         <v>3000</v>
       </c>
-      <c r="Q534" s="62" t="s">
+      <c r="Q534" s="5" t="s">
         <v>1157</v>
       </c>
-      <c r="R534" s="60" t="s">
+      <c r="R534" s="10" t="s">
         <v>1983</v>
       </c>
-      <c r="W534" s="62" t="s">
+      <c r="W534" s="5" t="s">
         <v>1984</v>
       </c>
-      <c r="X534" s="62">
+      <c r="X534" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y534" s="62">
+      <c r="Y534" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z534" s="62">
+      <c r="Z534" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA534" s="62">
+      <c r="AA534" s="5">
         <v>73</v>
       </c>
-      <c r="AH534" s="62">
-        <v>1</v>
-      </c>
-      <c r="AI534" s="62">
-        <v>1</v>
-      </c>
-      <c r="AL534" s="62">
-        <v>1</v>
-      </c>
-      <c r="AM534" s="62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="535" spans="1:39" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH534" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI534" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL534" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM534" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A535" s="5">
         <v>534</v>
       </c>
-      <c r="B535" s="62">
+      <c r="B535" s="5">
         <v>10451</v>
       </c>
-      <c r="F535" s="62">
-        <v>1</v>
-      </c>
-      <c r="G535" s="62" t="s">
+      <c r="F535" s="5">
+        <v>1</v>
+      </c>
+      <c r="G535" s="5" t="s">
         <v>1985</v>
       </c>
-      <c r="I535" s="62" t="s">
+      <c r="I535" s="5" t="s">
         <v>1986</v>
       </c>
-      <c r="J535" s="62" t="s">
+      <c r="J535" s="5" t="s">
         <v>1987</v>
       </c>
-      <c r="L535" s="62">
+      <c r="L535" s="5">
         <v>-31</v>
       </c>
-      <c r="M535" s="62">
-        <v>0</v>
-      </c>
-      <c r="N535" s="62">
-        <v>0</v>
-      </c>
-      <c r="O535" s="62" t="s">
+      <c r="M535" s="5">
+        <v>0</v>
+      </c>
+      <c r="N535" s="5">
+        <v>0</v>
+      </c>
+      <c r="O535" s="5" t="s">
         <v>1988</v>
       </c>
-      <c r="P535" s="62">
+      <c r="P535" s="5">
         <v>4800</v>
       </c>
-      <c r="Q535" s="62" t="s">
+      <c r="Q535" s="5" t="s">
         <v>1989</v>
       </c>
-      <c r="R535" s="60" t="s">
+      <c r="R535" s="10" t="s">
         <v>1990</v>
       </c>
-      <c r="W535" s="62" t="s">
+      <c r="W535" s="5" t="s">
         <v>1980</v>
       </c>
-      <c r="X535" s="62">
+      <c r="X535" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y535" s="62">
+      <c r="Y535" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z535" s="62">
+      <c r="Z535" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA535" s="62">
+      <c r="AA535" s="5">
         <v>73</v>
       </c>
-      <c r="AH535" s="62">
-        <v>1</v>
-      </c>
-      <c r="AI535" s="62">
-        <v>1</v>
-      </c>
-      <c r="AL535" s="62">
-        <v>1</v>
-      </c>
-      <c r="AM535" s="62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="536" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH535" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI535" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL535" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM535" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A536" s="5">
         <v>535</v>
       </c>
-      <c r="B536" s="63">
+      <c r="B536" s="5">
         <v>10452</v>
       </c>
-      <c r="F536" s="63">
-        <v>1</v>
-      </c>
-      <c r="G536" s="63" t="s">
+      <c r="F536" s="5">
+        <v>1</v>
+      </c>
+      <c r="G536" s="5" t="s">
         <v>1976</v>
       </c>
-      <c r="I536" s="63" t="s">
+      <c r="I536" s="5" t="s">
         <v>1080</v>
       </c>
-      <c r="J536" s="63" t="s">
+      <c r="J536" s="5" t="s">
         <v>1148</v>
       </c>
-      <c r="L536" s="63">
+      <c r="L536" s="5">
         <v>-31</v>
       </c>
-      <c r="M536" s="63">
-        <v>0</v>
-      </c>
-      <c r="N536" s="63">
-        <v>0</v>
-      </c>
-      <c r="O536" s="63" t="s">
+      <c r="M536" s="5">
+        <v>0</v>
+      </c>
+      <c r="N536" s="5">
+        <v>0</v>
+      </c>
+      <c r="O536" s="5" t="s">
         <v>1988</v>
       </c>
-      <c r="P536" s="63">
+      <c r="P536" s="5">
         <v>4800</v>
       </c>
-      <c r="Q536" s="63" t="s">
+      <c r="Q536" s="5" t="s">
         <v>1991</v>
       </c>
-      <c r="R536" s="61" t="s">
+      <c r="R536" s="10" t="s">
         <v>1992</v>
       </c>
-      <c r="W536" s="63" t="s">
+      <c r="W536" s="5" t="s">
         <v>1980</v>
       </c>
-      <c r="X536" s="63">
+      <c r="X536" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y536" s="63">
+      <c r="Y536" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z536" s="63">
+      <c r="Z536" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA536" s="63">
+      <c r="AA536" s="5">
         <v>74</v>
       </c>
-      <c r="AH536" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI536" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL536" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM536" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="537" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH536" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI536" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL536" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM536" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A537" s="5">
         <v>536</v>
       </c>
-      <c r="B537" s="63">
+      <c r="B537" s="5">
         <v>10453</v>
       </c>
-      <c r="F537" s="63">
-        <v>1</v>
-      </c>
-      <c r="G537" s="63" t="s">
+      <c r="F537" s="5">
+        <v>1</v>
+      </c>
+      <c r="G537" s="5" t="s">
         <v>1981</v>
       </c>
-      <c r="I537" s="63" t="s">
+      <c r="I537" s="5" t="s">
         <v>1993</v>
       </c>
-      <c r="J537" s="63" t="s">
+      <c r="J537" s="5" t="s">
         <v>1994</v>
       </c>
-      <c r="L537" s="63">
+      <c r="L537" s="5">
         <v>-31</v>
       </c>
-      <c r="M537" s="63">
-        <v>0</v>
-      </c>
-      <c r="N537" s="63">
-        <v>0</v>
-      </c>
-      <c r="O537" s="63" t="s">
+      <c r="M537" s="5">
+        <v>0</v>
+      </c>
+      <c r="N537" s="5">
+        <v>0</v>
+      </c>
+      <c r="O537" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="P537" s="63">
+      <c r="P537" s="5">
         <v>9800</v>
       </c>
-      <c r="Q537" s="63" t="s">
+      <c r="Q537" s="5" t="s">
         <v>1995</v>
       </c>
-      <c r="R537" s="61" t="s">
+      <c r="R537" s="10" t="s">
         <v>1996</v>
       </c>
-      <c r="W537" s="63" t="s">
+      <c r="W537" s="5" t="s">
         <v>1980</v>
       </c>
-      <c r="X537" s="63">
+      <c r="X537" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y537" s="63">
+      <c r="Y537" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z537" s="63">
+      <c r="Z537" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA537" s="63">
+      <c r="AA537" s="5">
         <v>74</v>
       </c>
-      <c r="AH537" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI537" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL537" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM537" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="538" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH537" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI537" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL537" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM537" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A538" s="5">
         <v>537</v>
       </c>
-      <c r="B538" s="63">
+      <c r="B538" s="5">
         <v>10454</v>
       </c>
-      <c r="F538" s="63">
-        <v>1</v>
-      </c>
-      <c r="G538" s="63" t="s">
+      <c r="F538" s="5">
+        <v>1</v>
+      </c>
+      <c r="G538" s="5" t="s">
         <v>1985</v>
       </c>
-      <c r="I538" s="63" t="s">
+      <c r="I538" s="5" t="s">
         <v>1997</v>
       </c>
-      <c r="J538" s="63" t="s">
+      <c r="J538" s="5" t="s">
         <v>1150</v>
       </c>
-      <c r="L538" s="63">
+      <c r="L538" s="5">
         <v>-31</v>
       </c>
-      <c r="M538" s="63">
-        <v>0</v>
-      </c>
-      <c r="N538" s="63">
-        <v>0</v>
-      </c>
-      <c r="O538" s="63" t="s">
+      <c r="M538" s="5">
+        <v>0</v>
+      </c>
+      <c r="N538" s="5">
+        <v>0</v>
+      </c>
+      <c r="O538" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="P538" s="63">
+      <c r="P538" s="5">
         <v>19800</v>
       </c>
-      <c r="Q538" s="63" t="s">
+      <c r="Q538" s="5" t="s">
         <v>1161</v>
       </c>
-      <c r="R538" s="61" t="s">
+      <c r="R538" s="10" t="s">
         <v>1998</v>
       </c>
-      <c r="W538" s="63" t="s">
+      <c r="W538" s="5" t="s">
         <v>1974</v>
       </c>
-      <c r="X538" s="63">
+      <c r="X538" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y538" s="63">
+      <c r="Y538" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z538" s="63">
+      <c r="Z538" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA538" s="63">
+      <c r="AA538" s="5">
         <v>74</v>
       </c>
-      <c r="AH538" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI538" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL538" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM538" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="539" spans="1:39" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH538" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI538" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL538" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM538" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A539" s="5">
         <v>538</v>
       </c>
-      <c r="B539" s="62">
+      <c r="B539" s="5">
         <v>10455</v>
       </c>
-      <c r="F539" s="62">
-        <v>1</v>
-      </c>
-      <c r="G539" s="62" t="s">
+      <c r="F539" s="5">
+        <v>1</v>
+      </c>
+      <c r="G539" s="5" t="s">
         <v>1976</v>
       </c>
-      <c r="I539" s="62" t="s">
+      <c r="I539" s="5" t="s">
         <v>1999</v>
       </c>
-      <c r="J539" s="62" t="s">
+      <c r="J539" s="5" t="s">
         <v>1151</v>
       </c>
-      <c r="L539" s="62">
+      <c r="L539" s="5">
         <v>-31</v>
       </c>
-      <c r="M539" s="62">
-        <v>0</v>
-      </c>
-      <c r="N539" s="62">
-        <v>0</v>
-      </c>
-      <c r="O539" s="62" t="s">
+      <c r="M539" s="5">
+        <v>0</v>
+      </c>
+      <c r="N539" s="5">
+        <v>0</v>
+      </c>
+      <c r="O539" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="P539" s="62">
+      <c r="P539" s="5">
         <v>9800</v>
       </c>
-      <c r="Q539" s="62" t="s">
+      <c r="Q539" s="5" t="s">
         <v>2000</v>
       </c>
-      <c r="R539" s="60" t="s">
+      <c r="R539" s="10" t="s">
         <v>1776</v>
       </c>
-      <c r="W539" s="62" t="s">
+      <c r="W539" s="5" t="s">
         <v>1984</v>
       </c>
-      <c r="X539" s="62">
+      <c r="X539" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y539" s="62">
+      <c r="Y539" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z539" s="62">
+      <c r="Z539" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA539" s="62">
+      <c r="AA539" s="5">
         <v>75</v>
       </c>
-      <c r="AH539" s="62">
-        <v>1</v>
-      </c>
-      <c r="AI539" s="62">
-        <v>1</v>
-      </c>
-      <c r="AL539" s="62">
-        <v>1</v>
-      </c>
-      <c r="AM539" s="62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="540" spans="1:39" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH539" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI539" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL539" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM539" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A540" s="5">
         <v>539</v>
       </c>
-      <c r="B540" s="62">
+      <c r="B540" s="5">
         <v>10456</v>
       </c>
-      <c r="F540" s="62">
-        <v>1</v>
-      </c>
-      <c r="G540" s="62" t="s">
+      <c r="F540" s="5">
+        <v>1</v>
+      </c>
+      <c r="G540" s="5" t="s">
         <v>1981</v>
       </c>
-      <c r="I540" s="62" t="s">
+      <c r="I540" s="5" t="s">
         <v>2001</v>
       </c>
-      <c r="J540" s="62" t="s">
+      <c r="J540" s="5" t="s">
         <v>1152</v>
       </c>
-      <c r="L540" s="62">
+      <c r="L540" s="5">
         <v>-31</v>
       </c>
-      <c r="M540" s="62">
-        <v>0</v>
-      </c>
-      <c r="N540" s="62">
-        <v>0</v>
-      </c>
-      <c r="O540" s="62" t="s">
+      <c r="M540" s="5">
+        <v>0</v>
+      </c>
+      <c r="N540" s="5">
+        <v>0</v>
+      </c>
+      <c r="O540" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="P540" s="62">
+      <c r="P540" s="5">
         <v>19800</v>
       </c>
-      <c r="Q540" s="62" t="s">
+      <c r="Q540" s="5" t="s">
         <v>1162</v>
       </c>
-      <c r="R540" s="60" t="s">
+      <c r="R540" s="10" t="s">
         <v>1998</v>
       </c>
-      <c r="W540" s="62" t="s">
+      <c r="W540" s="5" t="s">
         <v>1974</v>
       </c>
-      <c r="X540" s="62">
+      <c r="X540" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y540" s="62">
+      <c r="Y540" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z540" s="62">
+      <c r="Z540" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA540" s="62">
+      <c r="AA540" s="5">
         <v>75</v>
       </c>
-      <c r="AH540" s="62">
-        <v>1</v>
-      </c>
-      <c r="AI540" s="62">
-        <v>1</v>
-      </c>
-      <c r="AL540" s="62">
-        <v>1</v>
-      </c>
-      <c r="AM540" s="62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="541" spans="1:39" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH540" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI540" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL540" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM540" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A541" s="5">
         <v>540</v>
       </c>
-      <c r="B541" s="62">
+      <c r="B541" s="5">
         <v>10457</v>
       </c>
-      <c r="F541" s="62">
-        <v>1</v>
-      </c>
-      <c r="G541" s="62" t="s">
+      <c r="F541" s="5">
+        <v>1</v>
+      </c>
+      <c r="G541" s="5" t="s">
         <v>1985</v>
       </c>
-      <c r="I541" s="62" t="s">
+      <c r="I541" s="5" t="s">
         <v>2001</v>
       </c>
-      <c r="J541" s="62" t="s">
+      <c r="J541" s="5" t="s">
         <v>2002</v>
       </c>
-      <c r="L541" s="62">
+      <c r="L541" s="5">
         <v>-31</v>
       </c>
-      <c r="M541" s="62">
-        <v>0</v>
-      </c>
-      <c r="N541" s="62">
-        <v>0</v>
-      </c>
-      <c r="O541" s="62" t="s">
+      <c r="M541" s="5">
+        <v>0</v>
+      </c>
+      <c r="N541" s="5">
+        <v>0</v>
+      </c>
+      <c r="O541" s="5" t="s">
         <v>2003</v>
       </c>
-      <c r="P541" s="62">
+      <c r="P541" s="5">
         <v>49800</v>
       </c>
-      <c r="Q541" s="62" t="s">
+      <c r="Q541" s="5" t="s">
         <v>1163</v>
       </c>
-      <c r="R541" s="60" t="s">
+      <c r="R541" s="10" t="s">
         <v>2004</v>
       </c>
-      <c r="W541" s="62" t="s">
+      <c r="W541" s="5" t="s">
         <v>1974</v>
       </c>
-      <c r="X541" s="62">
+      <c r="X541" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y541" s="62">
+      <c r="Y541" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z541" s="62">
+      <c r="Z541" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA541" s="62">
+      <c r="AA541" s="5">
         <v>75</v>
       </c>
-      <c r="AH541" s="62">
-        <v>1</v>
-      </c>
-      <c r="AI541" s="62">
-        <v>1</v>
-      </c>
-      <c r="AL541" s="62">
-        <v>1</v>
-      </c>
-      <c r="AM541" s="62">
+      <c r="AH541" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI541" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL541" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM541" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A542" s="5">
+        <v>541</v>
+      </c>
+      <c r="B542" s="63">
+        <v>10458</v>
+      </c>
+      <c r="C542" s="63"/>
+      <c r="D542" s="63"/>
+      <c r="E542" s="63"/>
+      <c r="F542" s="63">
+        <v>1</v>
+      </c>
+      <c r="G542" s="63" t="s">
+        <v>2006</v>
+      </c>
+      <c r="H542" s="63"/>
+      <c r="I542" s="63" t="s">
+        <v>2007</v>
+      </c>
+      <c r="J542" s="63" t="s">
+        <v>2008</v>
+      </c>
+      <c r="K542" s="63"/>
+      <c r="L542" s="63">
+        <v>-31</v>
+      </c>
+      <c r="M542" s="63">
+        <v>0</v>
+      </c>
+      <c r="N542" s="63">
+        <v>0</v>
+      </c>
+      <c r="O542" s="63" t="s">
+        <v>2009</v>
+      </c>
+      <c r="P542" s="63">
+        <v>99800</v>
+      </c>
+      <c r="Q542" s="63" t="s">
+        <v>2010</v>
+      </c>
+      <c r="R542" s="64" t="s">
+        <v>2011</v>
+      </c>
+      <c r="S542" s="63"/>
+      <c r="T542" s="63"/>
+      <c r="U542" s="63"/>
+      <c r="V542" s="63"/>
+      <c r="W542" s="63" t="s">
+        <v>2012</v>
+      </c>
+      <c r="X542" s="63">
+        <v>9999999</v>
+      </c>
+      <c r="Y542" s="65">
+        <v>1612224000</v>
+      </c>
+      <c r="Z542" s="65">
+        <v>1612799999</v>
+      </c>
+      <c r="AH542" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI542" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL542" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM542" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A543" s="5">
+        <v>542</v>
+      </c>
+      <c r="B543" s="63">
+        <v>10459</v>
+      </c>
+      <c r="C543" s="63"/>
+      <c r="D543" s="63"/>
+      <c r="E543" s="63"/>
+      <c r="F543" s="63">
+        <v>1</v>
+      </c>
+      <c r="G543" s="63" t="s">
+        <v>2013</v>
+      </c>
+      <c r="H543" s="63"/>
+      <c r="I543" s="63" t="s">
+        <v>2007</v>
+      </c>
+      <c r="J543" s="63" t="s">
+        <v>1310</v>
+      </c>
+      <c r="K543" s="63"/>
+      <c r="L543" s="63">
+        <v>-31</v>
+      </c>
+      <c r="M543" s="63">
+        <v>0</v>
+      </c>
+      <c r="N543" s="63">
+        <v>0</v>
+      </c>
+      <c r="O543" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="P543" s="63">
+        <v>49800</v>
+      </c>
+      <c r="Q543" s="63" t="s">
+        <v>1490</v>
+      </c>
+      <c r="R543" s="64" t="s">
+        <v>1213</v>
+      </c>
+      <c r="S543" s="63"/>
+      <c r="T543" s="63"/>
+      <c r="U543" s="63"/>
+      <c r="V543" s="63"/>
+      <c r="W543" s="63" t="s">
+        <v>543</v>
+      </c>
+      <c r="X543" s="63">
+        <v>9999999</v>
+      </c>
+      <c r="Y543" s="65">
+        <v>1612224000</v>
+      </c>
+      <c r="Z543" s="65">
+        <v>1612799999</v>
+      </c>
+      <c r="AH543" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI543" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL543" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM543" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A544" s="5">
+        <v>543</v>
+      </c>
+      <c r="B544" s="63">
+        <v>10460</v>
+      </c>
+      <c r="C544" s="63"/>
+      <c r="D544" s="63"/>
+      <c r="E544" s="63"/>
+      <c r="F544" s="63">
+        <v>1</v>
+      </c>
+      <c r="G544" s="63" t="s">
+        <v>2014</v>
+      </c>
+      <c r="H544" s="63"/>
+      <c r="I544" s="63" t="s">
+        <v>2015</v>
+      </c>
+      <c r="J544" s="63" t="s">
+        <v>1810</v>
+      </c>
+      <c r="K544" s="63"/>
+      <c r="L544" s="63">
+        <v>-31</v>
+      </c>
+      <c r="M544" s="63">
+        <v>0</v>
+      </c>
+      <c r="N544" s="63">
+        <v>0</v>
+      </c>
+      <c r="O544" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="P544" s="63">
+        <v>29800</v>
+      </c>
+      <c r="Q544" s="63" t="s">
+        <v>1489</v>
+      </c>
+      <c r="R544" s="64" t="s">
+        <v>1217</v>
+      </c>
+      <c r="S544" s="63"/>
+      <c r="T544" s="63"/>
+      <c r="U544" s="63"/>
+      <c r="V544" s="63"/>
+      <c r="W544" s="63" t="s">
+        <v>543</v>
+      </c>
+      <c r="X544" s="63">
+        <v>9999999</v>
+      </c>
+      <c r="Y544" s="65">
+        <v>1612224000</v>
+      </c>
+      <c r="Z544" s="65">
+        <v>1612799999</v>
+      </c>
+      <c r="AH544" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI544" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL544" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM544" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A545" s="5">
+        <v>544</v>
+      </c>
+      <c r="B545" s="63">
+        <v>10461</v>
+      </c>
+      <c r="C545" s="63"/>
+      <c r="D545" s="63"/>
+      <c r="E545" s="63"/>
+      <c r="F545" s="63">
+        <v>1</v>
+      </c>
+      <c r="G545" s="63" t="s">
+        <v>2016</v>
+      </c>
+      <c r="H545" s="63"/>
+      <c r="I545" s="63" t="s">
+        <v>2007</v>
+      </c>
+      <c r="J545" s="63" t="s">
+        <v>1308</v>
+      </c>
+      <c r="K545" s="63"/>
+      <c r="L545" s="63">
+        <v>-31</v>
+      </c>
+      <c r="M545" s="63">
+        <v>0</v>
+      </c>
+      <c r="N545" s="63">
+        <v>0</v>
+      </c>
+      <c r="O545" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="P545" s="63">
+        <v>19800</v>
+      </c>
+      <c r="Q545" s="63" t="s">
+        <v>2017</v>
+      </c>
+      <c r="R545" s="64" t="s">
+        <v>1211</v>
+      </c>
+      <c r="S545" s="63"/>
+      <c r="T545" s="63"/>
+      <c r="U545" s="63"/>
+      <c r="V545" s="63"/>
+      <c r="W545" s="63" t="s">
+        <v>543</v>
+      </c>
+      <c r="X545" s="63">
+        <v>9999999</v>
+      </c>
+      <c r="Y545" s="65">
+        <v>1612224000</v>
+      </c>
+      <c r="Z545" s="65">
+        <v>1612799999</v>
+      </c>
+      <c r="AH545" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI545" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL545" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM545" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A546" s="5">
+        <v>545</v>
+      </c>
+      <c r="B546" s="63">
+        <v>10462</v>
+      </c>
+      <c r="C546" s="63"/>
+      <c r="D546" s="63"/>
+      <c r="E546" s="63"/>
+      <c r="F546" s="63">
+        <v>1</v>
+      </c>
+      <c r="G546" s="63" t="s">
+        <v>2018</v>
+      </c>
+      <c r="H546" s="63"/>
+      <c r="I546" s="63" t="s">
+        <v>2015</v>
+      </c>
+      <c r="J546" s="63" t="s">
+        <v>2019</v>
+      </c>
+      <c r="K546" s="63"/>
+      <c r="L546" s="63">
+        <v>-31</v>
+      </c>
+      <c r="M546" s="63">
+        <v>0</v>
+      </c>
+      <c r="N546" s="63">
+        <v>0</v>
+      </c>
+      <c r="O546" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="P546" s="63">
+        <v>9800</v>
+      </c>
+      <c r="Q546" s="63" t="s">
+        <v>1489</v>
+      </c>
+      <c r="R546" s="64" t="s">
+        <v>1307</v>
+      </c>
+      <c r="S546" s="63"/>
+      <c r="T546" s="63"/>
+      <c r="U546" s="63"/>
+      <c r="V546" s="63"/>
+      <c r="W546" s="63" t="s">
+        <v>543</v>
+      </c>
+      <c r="X546" s="63">
+        <v>9999999</v>
+      </c>
+      <c r="Y546" s="65">
+        <v>1612224000</v>
+      </c>
+      <c r="Z546" s="65">
+        <v>1612799999</v>
+      </c>
+      <c r="AH546" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI546" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL546" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM546" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A547" s="5">
+        <v>546</v>
+      </c>
+      <c r="B547" s="63">
+        <v>10463</v>
+      </c>
+      <c r="C547" s="63"/>
+      <c r="D547" s="63"/>
+      <c r="E547" s="63"/>
+      <c r="F547" s="63">
+        <v>1</v>
+      </c>
+      <c r="G547" s="63" t="s">
+        <v>2020</v>
+      </c>
+      <c r="H547" s="63"/>
+      <c r="I547" s="63" t="s">
+        <v>2007</v>
+      </c>
+      <c r="J547" s="63" t="s">
+        <v>2021</v>
+      </c>
+      <c r="K547" s="63"/>
+      <c r="L547" s="63">
+        <v>-31</v>
+      </c>
+      <c r="M547" s="63">
+        <v>0</v>
+      </c>
+      <c r="N547" s="63">
+        <v>0</v>
+      </c>
+      <c r="O547" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="P547" s="63">
+        <v>4800</v>
+      </c>
+      <c r="Q547" s="63" t="s">
+        <v>2022</v>
+      </c>
+      <c r="R547" s="64" t="s">
+        <v>2023</v>
+      </c>
+      <c r="S547" s="63"/>
+      <c r="T547" s="63"/>
+      <c r="U547" s="63"/>
+      <c r="V547" s="63"/>
+      <c r="W547" s="63" t="s">
+        <v>543</v>
+      </c>
+      <c r="X547" s="63">
+        <v>9999999</v>
+      </c>
+      <c r="Y547" s="65">
+        <v>1612224000</v>
+      </c>
+      <c r="Z547" s="65">
+        <v>1612799999</v>
+      </c>
+      <c r="AH547" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI547" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL547" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM547" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A548" s="5">
+        <v>547</v>
+      </c>
+      <c r="B548" s="63">
+        <v>10464</v>
+      </c>
+      <c r="C548" s="63"/>
+      <c r="D548" s="63"/>
+      <c r="E548" s="63"/>
+      <c r="F548" s="63">
+        <v>1</v>
+      </c>
+      <c r="G548" s="63" t="s">
+        <v>2024</v>
+      </c>
+      <c r="H548" s="63"/>
+      <c r="I548" s="63" t="s">
+        <v>2007</v>
+      </c>
+      <c r="J548" s="63" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K548" s="63"/>
+      <c r="L548" s="63">
+        <v>-31</v>
+      </c>
+      <c r="M548" s="63">
+        <v>0</v>
+      </c>
+      <c r="N548" s="63">
+        <v>0</v>
+      </c>
+      <c r="O548" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="P548" s="63">
+        <v>1800</v>
+      </c>
+      <c r="Q548" s="63" t="s">
+        <v>2022</v>
+      </c>
+      <c r="R548" s="64" t="s">
+        <v>1785</v>
+      </c>
+      <c r="S548" s="63"/>
+      <c r="T548" s="63"/>
+      <c r="U548" s="63"/>
+      <c r="V548" s="63"/>
+      <c r="W548" s="63" t="s">
+        <v>543</v>
+      </c>
+      <c r="X548" s="63">
+        <v>9999999</v>
+      </c>
+      <c r="Y548" s="65">
+        <v>1612224000</v>
+      </c>
+      <c r="Z548" s="65">
+        <v>1612799999</v>
+      </c>
+      <c r="AH548" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI548" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL548" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM548" s="5">
         <v>1</v>
       </c>
     </row>
@@ -45808,8 +46414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71:D76"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -46864,7 +47470,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="49" t="s">
-        <v>2006</v>
+        <v>2025</v>
       </c>
       <c r="C74" s="50">
         <v>1</v>
@@ -46878,7 +47484,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="49" t="s">
-        <v>2007</v>
+        <v>2026</v>
       </c>
       <c r="C75" s="50">
         <v>1</v>
@@ -46892,7 +47498,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="49" t="s">
-        <v>2008</v>
+        <v>2027</v>
       </c>
       <c r="C76" s="50">
         <v>1</v>

--- a/config_debug/shoping_config_cjj.xlsx
+++ b/config_debug/shoping_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.26\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4407" uniqueCount="2006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4410" uniqueCount="2009">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8568,6 +8568,18 @@
   </si>
   <si>
     <t>600000,20000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "golden_egg_1" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "golden_egg_2" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "golden_egg_3" }</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -11370,10 +11382,10 @@
   <dimension ref="A1:AN541"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="O504" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="W513" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R521" sqref="R521"/>
+      <selection pane="bottomRight" activeCell="AA541" sqref="AA541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -45225,7 +45237,7 @@
         <v>1612195199</v>
       </c>
       <c r="AA533" s="62">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="AH533" s="62">
         <v>1</v>
@@ -45293,7 +45305,7 @@
         <v>1612195199</v>
       </c>
       <c r="AA534" s="62">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="AH534" s="62">
         <v>1</v>
@@ -45361,7 +45373,7 @@
         <v>1612195199</v>
       </c>
       <c r="AA535" s="62">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="AH535" s="62">
         <v>1</v>
@@ -45429,7 +45441,7 @@
         <v>1612195199</v>
       </c>
       <c r="AA536" s="63">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="AH536" s="63">
         <v>1</v>
@@ -45497,7 +45509,7 @@
         <v>1612195199</v>
       </c>
       <c r="AA537" s="63">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="AH537" s="63">
         <v>1</v>
@@ -45565,7 +45577,7 @@
         <v>1612195199</v>
       </c>
       <c r="AA538" s="63">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="AH538" s="63">
         <v>1</v>
@@ -45633,7 +45645,7 @@
         <v>1612195199</v>
       </c>
       <c r="AA539" s="62">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="AH539" s="62">
         <v>1</v>
@@ -45701,7 +45713,7 @@
         <v>1612195199</v>
       </c>
       <c r="AA540" s="62">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="AH540" s="62">
         <v>1</v>
@@ -45769,7 +45781,7 @@
         <v>1612195199</v>
       </c>
       <c r="AA541" s="62">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="AH541" s="62">
         <v>1</v>
@@ -45794,10 +45806,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+      <selection activeCell="A71" sqref="A71:D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -46844,6 +46856,48 @@
         <v>1</v>
       </c>
       <c r="D73" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="12">
+        <v>73</v>
+      </c>
+      <c r="B74" s="49" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C74" s="50">
+        <v>1</v>
+      </c>
+      <c r="D74" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="12">
+        <v>74</v>
+      </c>
+      <c r="B75" s="49" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C75" s="50">
+        <v>1</v>
+      </c>
+      <c r="D75" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="12">
+        <v>75</v>
+      </c>
+      <c r="B76" s="49" t="s">
+        <v>2008</v>
+      </c>
+      <c r="C76" s="50">
+        <v>1</v>
+      </c>
+      <c r="D76" s="50">
         <v>0</v>
       </c>
     </row>

--- a/config_debug/shoping_config_cjj.xlsx
+++ b/config_debug/shoping_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -8247,10 +8247,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>60000,20000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>86400,3,0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8455,6 +8451,10 @@
   </si>
   <si>
     <t>86400,9999,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,20000,1,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -11278,10 +11278,10 @@
   <dimension ref="A1:AN532"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="U478" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="Q514" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W497" sqref="W497:W508"/>
+      <selection pane="bottomRight" activeCell="R521" sqref="R521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -42700,10 +42700,10 @@
         <v>1851</v>
       </c>
       <c r="R497" s="64" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="W497" s="66" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="X497" s="5">
         <v>99999999</v>
@@ -42768,10 +42768,10 @@
         <v>1851</v>
       </c>
       <c r="R498" s="64" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="W498" s="66" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="X498" s="5">
         <v>99999999</v>
@@ -42836,10 +42836,10 @@
         <v>1851</v>
       </c>
       <c r="R499" s="64" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="W499" s="66" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="X499" s="5">
         <v>99999999</v>
@@ -42904,10 +42904,10 @@
         <v>1851</v>
       </c>
       <c r="R500" s="64" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="W500" s="66" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="X500" s="5">
         <v>99999999</v>
@@ -42972,10 +42972,10 @@
         <v>1851</v>
       </c>
       <c r="R501" s="64" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="W501" s="66" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="X501" s="5">
         <v>99999999</v>
@@ -43040,10 +43040,10 @@
         <v>1851</v>
       </c>
       <c r="R502" s="64" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="W502" s="66" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="X502" s="5">
         <v>99999999</v>
@@ -43108,10 +43108,10 @@
         <v>1861</v>
       </c>
       <c r="R503" s="65" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="W503" s="66" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="X503" s="5">
         <v>99999999</v>
@@ -43176,10 +43176,10 @@
         <v>1861</v>
       </c>
       <c r="R504" s="65" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="W504" s="66" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="X504" s="5">
         <v>99999999</v>
@@ -43244,10 +43244,10 @@
         <v>1861</v>
       </c>
       <c r="R505" s="65" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="W505" s="66" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="X505" s="5">
         <v>99999999</v>
@@ -43312,10 +43312,10 @@
         <v>1866</v>
       </c>
       <c r="R506" s="65" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="W506" s="66" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="X506" s="5">
         <v>99999999</v>
@@ -43380,10 +43380,10 @@
         <v>1866</v>
       </c>
       <c r="R507" s="65" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="W507" s="66" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="X507" s="5">
         <v>99999999</v>
@@ -43448,10 +43448,10 @@
         <v>1866</v>
       </c>
       <c r="R508" s="65" t="s">
+        <v>1973</v>
+      </c>
+      <c r="W508" s="66" t="s">
         <v>1974</v>
-      </c>
-      <c r="W508" s="66" t="s">
-        <v>1975</v>
       </c>
       <c r="X508" s="5">
         <v>99999999</v>
@@ -44302,10 +44302,10 @@
         <v>1922</v>
       </c>
       <c r="R521" s="52" t="s">
+        <v>1976</v>
+      </c>
+      <c r="W521" s="51" t="s">
         <v>1923</v>
-      </c>
-      <c r="W521" s="51" t="s">
-        <v>1924</v>
       </c>
       <c r="X521" s="51">
         <v>99999999</v>
@@ -44343,13 +44343,13 @@
         <v>1</v>
       </c>
       <c r="G522" s="51" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="I522" s="51" t="s">
         <v>1920</v>
       </c>
       <c r="J522" s="51" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="L522" s="51">
         <v>-33</v>
@@ -44367,10 +44367,10 @@
         <v>1000</v>
       </c>
       <c r="Q522" s="51" t="s">
+        <v>1927</v>
+      </c>
+      <c r="R522" s="52" t="s">
         <v>1928</v>
-      </c>
-      <c r="R522" s="52" t="s">
-        <v>1929</v>
       </c>
       <c r="W522" s="51" t="s">
         <v>1063</v>
@@ -44411,13 +44411,13 @@
         <v>1</v>
       </c>
       <c r="G523" s="51" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="I523" s="51" t="s">
         <v>1920</v>
       </c>
       <c r="J523" s="51" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="L523" s="51">
         <v>-33</v>
@@ -44435,10 +44435,10 @@
         <v>1800</v>
       </c>
       <c r="Q523" s="51" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="R523" s="52" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="W523" s="51" t="s">
         <v>1063</v>
@@ -44479,13 +44479,13 @@
         <v>1</v>
       </c>
       <c r="G524" s="51" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="I524" s="51" t="s">
         <v>1920</v>
       </c>
       <c r="J524" s="51" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="L524" s="51">
         <v>-33</v>
@@ -44503,10 +44503,10 @@
         <v>4800</v>
       </c>
       <c r="Q524" s="51" t="s">
+        <v>1937</v>
+      </c>
+      <c r="R524" s="52" t="s">
         <v>1938</v>
-      </c>
-      <c r="R524" s="52" t="s">
-        <v>1939</v>
       </c>
       <c r="W524" s="51" t="s">
         <v>1063</v>
@@ -44550,10 +44550,10 @@
         <v>1919</v>
       </c>
       <c r="I525" s="45" t="s">
+        <v>1940</v>
+      </c>
+      <c r="J525" s="45" t="s">
         <v>1941</v>
-      </c>
-      <c r="J525" s="45" t="s">
-        <v>1942</v>
       </c>
       <c r="L525" s="45">
         <v>-33</v>
@@ -44571,10 +44571,10 @@
         <v>1800</v>
       </c>
       <c r="Q525" s="45" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="R525" s="46" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="W525" s="45" t="s">
         <v>1063</v>
@@ -44615,13 +44615,13 @@
         <v>1</v>
       </c>
       <c r="G526" s="45" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="I526" s="45" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="J526" s="45" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="L526" s="45">
         <v>-33</v>
@@ -44639,10 +44639,10 @@
         <v>4800</v>
       </c>
       <c r="Q526" s="45" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="R526" s="46" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="W526" s="45" t="s">
         <v>1063</v>
@@ -44683,13 +44683,13 @@
         <v>1</v>
       </c>
       <c r="G527" s="45" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="I527" s="45" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="J527" s="45" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="L527" s="45">
         <v>-33</v>
@@ -44707,10 +44707,10 @@
         <v>9800</v>
       </c>
       <c r="Q527" s="45" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="R527" s="46" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="W527" s="45" t="s">
         <v>1063</v>
@@ -44751,13 +44751,13 @@
         <v>1</v>
       </c>
       <c r="G528" s="45" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="I528" s="45" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="J528" s="45" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="L528" s="45">
         <v>-33</v>
@@ -44775,10 +44775,10 @@
         <v>19800</v>
       </c>
       <c r="Q528" s="45" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="R528" s="46" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="W528" s="45" t="s">
         <v>1063</v>
@@ -44822,10 +44822,10 @@
         <v>1919</v>
       </c>
       <c r="I529" s="51" t="s">
+        <v>1952</v>
+      </c>
+      <c r="J529" s="51" t="s">
         <v>1953</v>
-      </c>
-      <c r="J529" s="51" t="s">
-        <v>1954</v>
       </c>
       <c r="L529" s="51">
         <v>-33</v>
@@ -44843,10 +44843,10 @@
         <v>4800</v>
       </c>
       <c r="Q529" s="51" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="R529" s="52" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="W529" s="51" t="s">
         <v>1063</v>
@@ -44887,13 +44887,13 @@
         <v>1</v>
       </c>
       <c r="G530" s="51" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="I530" s="51" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="J530" s="51" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="L530" s="51">
         <v>-33</v>
@@ -44911,10 +44911,10 @@
         <v>9800</v>
       </c>
       <c r="Q530" s="51" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="R530" s="52" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="W530" s="51" t="s">
         <v>1063</v>
@@ -44955,13 +44955,13 @@
         <v>1</v>
       </c>
       <c r="G531" s="51" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="I531" s="51" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="J531" s="51" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="L531" s="51">
         <v>-33</v>
@@ -44979,10 +44979,10 @@
         <v>19800</v>
       </c>
       <c r="Q531" s="51" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="R531" s="52" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="W531" s="51" t="s">
         <v>1063</v>
@@ -45023,13 +45023,13 @@
         <v>1</v>
       </c>
       <c r="G532" s="51" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="I532" s="51" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="J532" s="51" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="L532" s="51">
         <v>-33</v>
@@ -45047,10 +45047,10 @@
         <v>49800</v>
       </c>
       <c r="Q532" s="51" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="R532" s="52" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="W532" s="51" t="s">
         <v>1063</v>
@@ -46106,7 +46106,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="53" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="C71" s="54">
         <v>1</v>
@@ -46120,7 +46120,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="53" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="C72" s="54">
         <v>1</v>
@@ -46134,7 +46134,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="53" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="C73" s="54">
         <v>1</v>

--- a/config_debug/shoping_config_cjj.xlsx
+++ b/config_debug/shoping_config_cjj.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4459" uniqueCount="2028">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4578" uniqueCount="2078">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8656,6 +8656,206 @@
   </si>
   <si>
     <t>{type="permission_class",class_value = "golden_egg_3" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>贺岁礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--贺岁礼包--498</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5200万金币","双倍奖励卡*10","万能字*280",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_gdn_wn",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>52000000,10,280,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--贺岁礼包--198</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2060万金币","双倍奖励卡*6","万能字*180",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20600000,6,180,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--贺岁礼包--98</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1020万金币","双倍奖励卡*4","万能字*88",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200000,4,88,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--贺岁礼包--48</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"500万金币","双倍奖励卡*2","万能字*40",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_gdn_wn",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000,2,40,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>贺岁礼包--cjj</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--贺岁礼包--498</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5200万金币","太阳*1","万能字*240",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_2","prop_gdn_wn",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>52000000,1,240,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>贺岁礼包--cjj</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--贺岁礼包--198</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2060万金币","太阳*1","万能字*140",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20600000,1,140,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>贺岁礼包--cjj</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1020万金币","水滴*4","万能字*60",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_gdn_wn",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200000,4,60,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--贺岁礼包--48</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"500万金币","水滴*2","万能字*30",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000,2,30,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神商铺</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神商铺</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,100,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,100,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,100,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>150000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5100000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10400000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20900000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"15万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"15万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"510万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"300万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1040万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2090万金币",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8727,7 +8927,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8794,6 +8994,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -8837,7 +9049,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9033,8 +9245,29 @@
     <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -11467,13 +11700,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN548"/>
+  <dimension ref="A1:AN565"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W519" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="Q546" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA545" activeCellId="1" sqref="AA533:AA541 AA545"/>
+      <selection pane="bottomRight" activeCell="R560" sqref="R560"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -44456,819 +44689,819 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A521" s="5">
+    <row r="521" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A521" s="67">
         <v>520</v>
       </c>
-      <c r="B521" s="5">
+      <c r="B521" s="67">
         <v>10437</v>
       </c>
-      <c r="F521" s="5">
-        <v>1</v>
-      </c>
-      <c r="G521" s="5" t="s">
+      <c r="F521" s="67">
+        <v>1</v>
+      </c>
+      <c r="G521" s="67" t="s">
         <v>1919</v>
       </c>
-      <c r="I521" s="5" t="s">
+      <c r="I521" s="67" t="s">
         <v>1920</v>
       </c>
-      <c r="J521" s="5" t="s">
+      <c r="J521" s="67" t="s">
         <v>1921</v>
       </c>
-      <c r="L521" s="5">
+      <c r="L521" s="67">
         <v>-33</v>
       </c>
-      <c r="M521" s="5">
-        <v>0</v>
-      </c>
-      <c r="N521" s="5">
-        <v>0</v>
-      </c>
-      <c r="O521" s="5" t="s">
+      <c r="M521" s="67">
+        <v>0</v>
+      </c>
+      <c r="N521" s="67">
+        <v>0</v>
+      </c>
+      <c r="O521" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="P521" s="5">
+      <c r="P521" s="67">
         <v>600</v>
       </c>
-      <c r="Q521" s="5" t="s">
+      <c r="Q521" s="67" t="s">
         <v>1922</v>
       </c>
-      <c r="R521" s="10" t="s">
+      <c r="R521" s="68" t="s">
         <v>2005</v>
       </c>
-      <c r="W521" s="5" t="s">
+      <c r="W521" s="67" t="s">
         <v>1923</v>
       </c>
-      <c r="X521" s="5">
+      <c r="X521" s="67">
         <v>99999999</v>
       </c>
-      <c r="Y521" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z521" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA521" s="5">
+      <c r="Y521" s="67">
+        <v>1613433600</v>
+      </c>
+      <c r="Z521" s="67">
+        <v>1614009599</v>
+      </c>
+      <c r="AA521" s="67">
         <v>70</v>
       </c>
-      <c r="AH521" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI521" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL521" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM521" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="522" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A522" s="5">
+      <c r="AH521" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI521" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL521" s="67">
+        <v>1</v>
+      </c>
+      <c r="AM521" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A522" s="67">
         <v>521</v>
       </c>
-      <c r="B522" s="5">
+      <c r="B522" s="67">
         <v>10438</v>
       </c>
-      <c r="F522" s="5">
-        <v>1</v>
-      </c>
-      <c r="G522" s="5" t="s">
+      <c r="F522" s="67">
+        <v>1</v>
+      </c>
+      <c r="G522" s="67" t="s">
         <v>1924</v>
       </c>
-      <c r="I522" s="5" t="s">
+      <c r="I522" s="67" t="s">
         <v>1920</v>
       </c>
-      <c r="J522" s="5" t="s">
+      <c r="J522" s="67" t="s">
         <v>1925</v>
       </c>
-      <c r="L522" s="5">
+      <c r="L522" s="67">
         <v>-33</v>
       </c>
-      <c r="M522" s="5">
-        <v>0</v>
-      </c>
-      <c r="N522" s="5">
-        <v>0</v>
-      </c>
-      <c r="O522" s="5" t="s">
+      <c r="M522" s="67">
+        <v>0</v>
+      </c>
+      <c r="N522" s="67">
+        <v>0</v>
+      </c>
+      <c r="O522" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="P522" s="5">
+      <c r="P522" s="67">
         <v>1000</v>
       </c>
-      <c r="Q522" s="5" t="s">
+      <c r="Q522" s="67" t="s">
         <v>1927</v>
       </c>
-      <c r="R522" s="10" t="s">
+      <c r="R522" s="68" t="s">
         <v>1928</v>
       </c>
-      <c r="W522" s="5" t="s">
+      <c r="W522" s="67" t="s">
         <v>1063</v>
       </c>
-      <c r="X522" s="5">
+      <c r="X522" s="67">
         <v>99999999</v>
       </c>
-      <c r="Y522" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z522" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA522" s="5">
+      <c r="Y522" s="67">
+        <v>1613433600</v>
+      </c>
+      <c r="Z522" s="67">
+        <v>1614009599</v>
+      </c>
+      <c r="AA522" s="67">
         <v>70</v>
       </c>
-      <c r="AH522" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI522" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL522" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM522" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="523" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A523" s="5">
+      <c r="AH522" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI522" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL522" s="67">
+        <v>1</v>
+      </c>
+      <c r="AM522" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A523" s="67">
         <v>522</v>
       </c>
-      <c r="B523" s="5">
+      <c r="B523" s="67">
         <v>10439</v>
       </c>
-      <c r="F523" s="5">
-        <v>1</v>
-      </c>
-      <c r="G523" s="5" t="s">
+      <c r="F523" s="67">
+        <v>1</v>
+      </c>
+      <c r="G523" s="67" t="s">
         <v>1929</v>
       </c>
-      <c r="I523" s="5" t="s">
+      <c r="I523" s="67" t="s">
         <v>1920</v>
       </c>
-      <c r="J523" s="5" t="s">
+      <c r="J523" s="67" t="s">
         <v>1930</v>
       </c>
-      <c r="L523" s="5">
+      <c r="L523" s="67">
         <v>-33</v>
       </c>
-      <c r="M523" s="5">
-        <v>0</v>
-      </c>
-      <c r="N523" s="5">
-        <v>0</v>
-      </c>
-      <c r="O523" s="5" t="s">
+      <c r="M523" s="67">
+        <v>0</v>
+      </c>
+      <c r="N523" s="67">
+        <v>0</v>
+      </c>
+      <c r="O523" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="P523" s="5">
+      <c r="P523" s="67">
         <v>1800</v>
       </c>
-      <c r="Q523" s="5" t="s">
+      <c r="Q523" s="67" t="s">
         <v>1931</v>
       </c>
-      <c r="R523" s="10" t="s">
+      <c r="R523" s="68" t="s">
         <v>1933</v>
       </c>
-      <c r="W523" s="5" t="s">
+      <c r="W523" s="67" t="s">
         <v>1063</v>
       </c>
-      <c r="X523" s="5">
+      <c r="X523" s="67">
         <v>99999999</v>
       </c>
-      <c r="Y523" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z523" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA523" s="5">
+      <c r="Y523" s="67">
+        <v>1613433600</v>
+      </c>
+      <c r="Z523" s="67">
+        <v>1614009599</v>
+      </c>
+      <c r="AA523" s="67">
         <v>70</v>
       </c>
-      <c r="AH523" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI523" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL523" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM523" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="524" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A524" s="5">
+      <c r="AH523" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI523" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL523" s="67">
+        <v>1</v>
+      </c>
+      <c r="AM523" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A524" s="67">
         <v>523</v>
       </c>
-      <c r="B524" s="5">
+      <c r="B524" s="67">
         <v>10440</v>
       </c>
-      <c r="F524" s="5">
-        <v>1</v>
-      </c>
-      <c r="G524" s="5" t="s">
+      <c r="F524" s="67">
+        <v>1</v>
+      </c>
+      <c r="G524" s="67" t="s">
         <v>1934</v>
       </c>
-      <c r="I524" s="5" t="s">
+      <c r="I524" s="67" t="s">
         <v>1920</v>
       </c>
-      <c r="J524" s="5" t="s">
+      <c r="J524" s="67" t="s">
         <v>1935</v>
       </c>
-      <c r="L524" s="5">
+      <c r="L524" s="67">
         <v>-33</v>
       </c>
-      <c r="M524" s="5">
-        <v>0</v>
-      </c>
-      <c r="N524" s="5">
-        <v>0</v>
-      </c>
-      <c r="O524" s="5" t="s">
+      <c r="M524" s="67">
+        <v>0</v>
+      </c>
+      <c r="N524" s="67">
+        <v>0</v>
+      </c>
+      <c r="O524" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="P524" s="5">
+      <c r="P524" s="67">
         <v>4800</v>
       </c>
-      <c r="Q524" s="5" t="s">
+      <c r="Q524" s="67" t="s">
         <v>1937</v>
       </c>
-      <c r="R524" s="10" t="s">
+      <c r="R524" s="68" t="s">
         <v>1938</v>
       </c>
-      <c r="W524" s="5" t="s">
+      <c r="W524" s="67" t="s">
         <v>1063</v>
       </c>
-      <c r="X524" s="5">
+      <c r="X524" s="67">
         <v>99999999</v>
       </c>
-      <c r="Y524" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z524" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA524" s="5">
+      <c r="Y524" s="67">
+        <v>1613433600</v>
+      </c>
+      <c r="Z524" s="67">
+        <v>1614009599</v>
+      </c>
+      <c r="AA524" s="67">
         <v>70</v>
       </c>
-      <c r="AH524" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI524" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL524" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM524" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="525" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A525" s="5">
+      <c r="AH524" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI524" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL524" s="67">
+        <v>1</v>
+      </c>
+      <c r="AM524" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A525" s="67">
         <v>524</v>
       </c>
-      <c r="B525" s="5">
+      <c r="B525" s="67">
         <v>10441</v>
       </c>
-      <c r="F525" s="5">
-        <v>1</v>
-      </c>
-      <c r="G525" s="5" t="s">
+      <c r="F525" s="67">
+        <v>1</v>
+      </c>
+      <c r="G525" s="67" t="s">
         <v>1919</v>
       </c>
-      <c r="I525" s="5" t="s">
+      <c r="I525" s="67" t="s">
         <v>1940</v>
       </c>
-      <c r="J525" s="5" t="s">
+      <c r="J525" s="67" t="s">
         <v>1941</v>
       </c>
-      <c r="L525" s="5">
+      <c r="L525" s="67">
         <v>-33</v>
       </c>
-      <c r="M525" s="5">
-        <v>0</v>
-      </c>
-      <c r="N525" s="5">
-        <v>0</v>
-      </c>
-      <c r="O525" s="5" t="s">
+      <c r="M525" s="67">
+        <v>0</v>
+      </c>
+      <c r="N525" s="67">
+        <v>0</v>
+      </c>
+      <c r="O525" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="P525" s="5">
+      <c r="P525" s="67">
         <v>1800</v>
       </c>
-      <c r="Q525" s="5" t="s">
+      <c r="Q525" s="67" t="s">
         <v>1942</v>
       </c>
-      <c r="R525" s="10" t="s">
+      <c r="R525" s="68" t="s">
         <v>1932</v>
       </c>
-      <c r="W525" s="5" t="s">
+      <c r="W525" s="67" t="s">
         <v>1063</v>
       </c>
-      <c r="X525" s="5">
+      <c r="X525" s="67">
         <v>99999999</v>
       </c>
-      <c r="Y525" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z525" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA525" s="5">
+      <c r="Y525" s="67">
+        <v>1613433600</v>
+      </c>
+      <c r="Z525" s="67">
+        <v>1614009599</v>
+      </c>
+      <c r="AA525" s="67">
         <v>71</v>
       </c>
-      <c r="AH525" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI525" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL525" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM525" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="526" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A526" s="5">
+      <c r="AH525" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI525" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL525" s="67">
+        <v>1</v>
+      </c>
+      <c r="AM525" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A526" s="67">
         <v>525</v>
       </c>
-      <c r="B526" s="5">
+      <c r="B526" s="67">
         <v>10442</v>
       </c>
-      <c r="F526" s="5">
-        <v>1</v>
-      </c>
-      <c r="G526" s="5" t="s">
+      <c r="F526" s="67">
+        <v>1</v>
+      </c>
+      <c r="G526" s="67" t="s">
         <v>1924</v>
       </c>
-      <c r="I526" s="5" t="s">
+      <c r="I526" s="67" t="s">
         <v>1940</v>
       </c>
-      <c r="J526" s="5" t="s">
+      <c r="J526" s="67" t="s">
         <v>1943</v>
       </c>
-      <c r="L526" s="5">
+      <c r="L526" s="67">
         <v>-33</v>
       </c>
-      <c r="M526" s="5">
-        <v>0</v>
-      </c>
-      <c r="N526" s="5">
-        <v>0</v>
-      </c>
-      <c r="O526" s="5" t="s">
+      <c r="M526" s="67">
+        <v>0</v>
+      </c>
+      <c r="N526" s="67">
+        <v>0</v>
+      </c>
+      <c r="O526" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="P526" s="5">
+      <c r="P526" s="67">
         <v>4800</v>
       </c>
-      <c r="Q526" s="5" t="s">
+      <c r="Q526" s="67" t="s">
         <v>1926</v>
       </c>
-      <c r="R526" s="10" t="s">
+      <c r="R526" s="68" t="s">
         <v>1945</v>
       </c>
-      <c r="W526" s="5" t="s">
+      <c r="W526" s="67" t="s">
         <v>1063</v>
       </c>
-      <c r="X526" s="5">
+      <c r="X526" s="67">
         <v>99999999</v>
       </c>
-      <c r="Y526" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z526" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA526" s="5">
+      <c r="Y526" s="67">
+        <v>1613433600</v>
+      </c>
+      <c r="Z526" s="67">
+        <v>1614009599</v>
+      </c>
+      <c r="AA526" s="67">
         <v>71</v>
       </c>
-      <c r="AH526" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI526" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL526" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM526" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="527" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A527" s="5">
+      <c r="AH526" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI526" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL526" s="67">
+        <v>1</v>
+      </c>
+      <c r="AM526" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A527" s="67">
         <v>526</v>
       </c>
-      <c r="B527" s="5">
+      <c r="B527" s="67">
         <v>10443</v>
       </c>
-      <c r="F527" s="5">
-        <v>1</v>
-      </c>
-      <c r="G527" s="5" t="s">
+      <c r="F527" s="67">
+        <v>1</v>
+      </c>
+      <c r="G527" s="67" t="s">
         <v>1929</v>
       </c>
-      <c r="I527" s="5" t="s">
+      <c r="I527" s="67" t="s">
         <v>1940</v>
       </c>
-      <c r="J527" s="5" t="s">
+      <c r="J527" s="67" t="s">
         <v>1946</v>
       </c>
-      <c r="L527" s="5">
+      <c r="L527" s="67">
         <v>-33</v>
       </c>
-      <c r="M527" s="5">
-        <v>0</v>
-      </c>
-      <c r="N527" s="5">
-        <v>0</v>
-      </c>
-      <c r="O527" s="5" t="s">
+      <c r="M527" s="67">
+        <v>0</v>
+      </c>
+      <c r="N527" s="67">
+        <v>0</v>
+      </c>
+      <c r="O527" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="P527" s="5">
+      <c r="P527" s="67">
         <v>9800</v>
       </c>
-      <c r="Q527" s="5" t="s">
+      <c r="Q527" s="67" t="s">
         <v>1931</v>
       </c>
-      <c r="R527" s="10" t="s">
+      <c r="R527" s="68" t="s">
         <v>1948</v>
       </c>
-      <c r="W527" s="5" t="s">
+      <c r="W527" s="67" t="s">
         <v>1063</v>
       </c>
-      <c r="X527" s="5">
+      <c r="X527" s="67">
         <v>99999999</v>
       </c>
-      <c r="Y527" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z527" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA527" s="5">
+      <c r="Y527" s="67">
+        <v>1613433600</v>
+      </c>
+      <c r="Z527" s="67">
+        <v>1614009599</v>
+      </c>
+      <c r="AA527" s="67">
         <v>71</v>
       </c>
-      <c r="AH527" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI527" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL527" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM527" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="528" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A528" s="5">
+      <c r="AH527" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI527" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL527" s="67">
+        <v>1</v>
+      </c>
+      <c r="AM527" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A528" s="67">
         <v>527</v>
       </c>
-      <c r="B528" s="5">
+      <c r="B528" s="67">
         <v>10444</v>
       </c>
-      <c r="F528" s="5">
-        <v>1</v>
-      </c>
-      <c r="G528" s="5" t="s">
+      <c r="F528" s="67">
+        <v>1</v>
+      </c>
+      <c r="G528" s="67" t="s">
         <v>1934</v>
       </c>
-      <c r="I528" s="5" t="s">
+      <c r="I528" s="67" t="s">
         <v>1939</v>
       </c>
-      <c r="J528" s="5" t="s">
+      <c r="J528" s="67" t="s">
         <v>1949</v>
       </c>
-      <c r="L528" s="5">
+      <c r="L528" s="67">
         <v>-33</v>
       </c>
-      <c r="M528" s="5">
-        <v>0</v>
-      </c>
-      <c r="N528" s="5">
-        <v>0</v>
-      </c>
-      <c r="O528" s="5" t="s">
+      <c r="M528" s="67">
+        <v>0</v>
+      </c>
+      <c r="N528" s="67">
+        <v>0</v>
+      </c>
+      <c r="O528" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="P528" s="5">
+      <c r="P528" s="67">
         <v>19800</v>
       </c>
-      <c r="Q528" s="5" t="s">
+      <c r="Q528" s="67" t="s">
         <v>1937</v>
       </c>
-      <c r="R528" s="10" t="s">
+      <c r="R528" s="68" t="s">
         <v>1950</v>
       </c>
-      <c r="W528" s="5" t="s">
+      <c r="W528" s="67" t="s">
         <v>1063</v>
       </c>
-      <c r="X528" s="5">
+      <c r="X528" s="67">
         <v>99999999</v>
       </c>
-      <c r="Y528" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z528" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA528" s="5">
+      <c r="Y528" s="67">
+        <v>1613433600</v>
+      </c>
+      <c r="Z528" s="67">
+        <v>1614009599</v>
+      </c>
+      <c r="AA528" s="67">
         <v>71</v>
       </c>
-      <c r="AH528" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI528" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL528" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM528" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="529" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A529" s="5">
+      <c r="AH528" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI528" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL528" s="67">
+        <v>1</v>
+      </c>
+      <c r="AM528" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A529" s="67">
         <v>528</v>
       </c>
-      <c r="B529" s="5">
+      <c r="B529" s="67">
         <v>10445</v>
       </c>
-      <c r="F529" s="5">
-        <v>1</v>
-      </c>
-      <c r="G529" s="5" t="s">
+      <c r="F529" s="67">
+        <v>1</v>
+      </c>
+      <c r="G529" s="67" t="s">
         <v>1919</v>
       </c>
-      <c r="I529" s="5" t="s">
+      <c r="I529" s="67" t="s">
         <v>1952</v>
       </c>
-      <c r="J529" s="5" t="s">
+      <c r="J529" s="67" t="s">
         <v>1953</v>
       </c>
-      <c r="L529" s="5">
+      <c r="L529" s="67">
         <v>-33</v>
       </c>
-      <c r="M529" s="5">
-        <v>0</v>
-      </c>
-      <c r="N529" s="5">
-        <v>0</v>
-      </c>
-      <c r="O529" s="5" t="s">
+      <c r="M529" s="67">
+        <v>0</v>
+      </c>
+      <c r="N529" s="67">
+        <v>0</v>
+      </c>
+      <c r="O529" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="P529" s="5">
+      <c r="P529" s="67">
         <v>4800</v>
       </c>
-      <c r="Q529" s="5" t="s">
+      <c r="Q529" s="67" t="s">
         <v>1942</v>
       </c>
-      <c r="R529" s="10" t="s">
+      <c r="R529" s="68" t="s">
         <v>1944</v>
       </c>
-      <c r="W529" s="5" t="s">
+      <c r="W529" s="67" t="s">
         <v>1063</v>
       </c>
-      <c r="X529" s="5">
+      <c r="X529" s="67">
         <v>99999999</v>
       </c>
-      <c r="Y529" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z529" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA529" s="5">
+      <c r="Y529" s="67">
+        <v>1613433600</v>
+      </c>
+      <c r="Z529" s="67">
+        <v>1614009599</v>
+      </c>
+      <c r="AA529" s="67">
         <v>72</v>
       </c>
-      <c r="AH529" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI529" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL529" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM529" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="530" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A530" s="5">
+      <c r="AH529" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI529" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL529" s="67">
+        <v>1</v>
+      </c>
+      <c r="AM529" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A530" s="67">
         <v>529</v>
       </c>
-      <c r="B530" s="5">
+      <c r="B530" s="67">
         <v>10446</v>
       </c>
-      <c r="F530" s="5">
-        <v>1</v>
-      </c>
-      <c r="G530" s="5" t="s">
+      <c r="F530" s="67">
+        <v>1</v>
+      </c>
+      <c r="G530" s="67" t="s">
         <v>1924</v>
       </c>
-      <c r="I530" s="5" t="s">
+      <c r="I530" s="67" t="s">
         <v>1952</v>
       </c>
-      <c r="J530" s="5" t="s">
+      <c r="J530" s="67" t="s">
         <v>1954</v>
       </c>
-      <c r="L530" s="5">
+      <c r="L530" s="67">
         <v>-33</v>
       </c>
-      <c r="M530" s="5">
-        <v>0</v>
-      </c>
-      <c r="N530" s="5">
-        <v>0</v>
-      </c>
-      <c r="O530" s="5" t="s">
+      <c r="M530" s="67">
+        <v>0</v>
+      </c>
+      <c r="N530" s="67">
+        <v>0</v>
+      </c>
+      <c r="O530" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="P530" s="5">
+      <c r="P530" s="67">
         <v>9800</v>
       </c>
-      <c r="Q530" s="5" t="s">
+      <c r="Q530" s="67" t="s">
         <v>1927</v>
       </c>
-      <c r="R530" s="10" t="s">
+      <c r="R530" s="68" t="s">
         <v>1947</v>
       </c>
-      <c r="W530" s="5" t="s">
+      <c r="W530" s="67" t="s">
         <v>1063</v>
       </c>
-      <c r="X530" s="5">
+      <c r="X530" s="67">
         <v>99999999</v>
       </c>
-      <c r="Y530" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z530" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA530" s="5">
+      <c r="Y530" s="67">
+        <v>1613433600</v>
+      </c>
+      <c r="Z530" s="67">
+        <v>1614009599</v>
+      </c>
+      <c r="AA530" s="67">
         <v>72</v>
       </c>
-      <c r="AH530" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI530" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL530" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM530" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="531" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A531" s="5">
+      <c r="AH530" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI530" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL530" s="67">
+        <v>1</v>
+      </c>
+      <c r="AM530" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A531" s="67">
         <v>530</v>
       </c>
-      <c r="B531" s="5">
+      <c r="B531" s="67">
         <v>10447</v>
       </c>
-      <c r="F531" s="5">
-        <v>1</v>
-      </c>
-      <c r="G531" s="5" t="s">
+      <c r="F531" s="67">
+        <v>1</v>
+      </c>
+      <c r="G531" s="67" t="s">
         <v>1929</v>
       </c>
-      <c r="I531" s="5" t="s">
+      <c r="I531" s="67" t="s">
         <v>1952</v>
       </c>
-      <c r="J531" s="5" t="s">
+      <c r="J531" s="67" t="s">
         <v>1955</v>
       </c>
-      <c r="L531" s="5">
+      <c r="L531" s="67">
         <v>-33</v>
       </c>
-      <c r="M531" s="5">
-        <v>0</v>
-      </c>
-      <c r="N531" s="5">
-        <v>0</v>
-      </c>
-      <c r="O531" s="5" t="s">
+      <c r="M531" s="67">
+        <v>0</v>
+      </c>
+      <c r="N531" s="67">
+        <v>0</v>
+      </c>
+      <c r="O531" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="P531" s="5">
+      <c r="P531" s="67">
         <v>19800</v>
       </c>
-      <c r="Q531" s="5" t="s">
+      <c r="Q531" s="67" t="s">
         <v>1931</v>
       </c>
-      <c r="R531" s="10" t="s">
+      <c r="R531" s="68" t="s">
         <v>1956</v>
       </c>
-      <c r="W531" s="5" t="s">
+      <c r="W531" s="67" t="s">
         <v>1063</v>
       </c>
-      <c r="X531" s="5">
+      <c r="X531" s="67">
         <v>99999999</v>
       </c>
-      <c r="Y531" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z531" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA531" s="5">
+      <c r="Y531" s="67">
+        <v>1613433600</v>
+      </c>
+      <c r="Z531" s="67">
+        <v>1614009599</v>
+      </c>
+      <c r="AA531" s="67">
         <v>72</v>
       </c>
-      <c r="AH531" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI531" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL531" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM531" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="532" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A532" s="5">
+      <c r="AH531" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI531" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL531" s="67">
+        <v>1</v>
+      </c>
+      <c r="AM531" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A532" s="67">
         <v>531</v>
       </c>
-      <c r="B532" s="5">
+      <c r="B532" s="67">
         <v>10448</v>
       </c>
-      <c r="F532" s="5">
-        <v>1</v>
-      </c>
-      <c r="G532" s="5" t="s">
+      <c r="F532" s="67">
+        <v>1</v>
+      </c>
+      <c r="G532" s="67" t="s">
         <v>1934</v>
       </c>
-      <c r="I532" s="5" t="s">
+      <c r="I532" s="67" t="s">
         <v>1951</v>
       </c>
-      <c r="J532" s="5" t="s">
+      <c r="J532" s="67" t="s">
         <v>1957</v>
       </c>
-      <c r="L532" s="5">
+      <c r="L532" s="67">
         <v>-33</v>
       </c>
-      <c r="M532" s="5">
-        <v>0</v>
-      </c>
-      <c r="N532" s="5">
-        <v>0</v>
-      </c>
-      <c r="O532" s="5" t="s">
+      <c r="M532" s="67">
+        <v>0</v>
+      </c>
+      <c r="N532" s="67">
+        <v>0</v>
+      </c>
+      <c r="O532" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="P532" s="5">
+      <c r="P532" s="67">
         <v>49800</v>
       </c>
-      <c r="Q532" s="5" t="s">
+      <c r="Q532" s="67" t="s">
         <v>1936</v>
       </c>
-      <c r="R532" s="10" t="s">
+      <c r="R532" s="68" t="s">
         <v>1958</v>
       </c>
-      <c r="W532" s="5" t="s">
+      <c r="W532" s="67" t="s">
         <v>1063</v>
       </c>
-      <c r="X532" s="5">
+      <c r="X532" s="67">
         <v>99999999</v>
       </c>
-      <c r="Y532" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z532" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA532" s="5">
+      <c r="Y532" s="67">
+        <v>1613433600</v>
+      </c>
+      <c r="Z532" s="67">
+        <v>1614009599</v>
+      </c>
+      <c r="AA532" s="67">
         <v>72</v>
       </c>
-      <c r="AH532" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI532" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL532" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM532" s="5">
+      <c r="AH532" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI532" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL532" s="67">
+        <v>1</v>
+      </c>
+      <c r="AM532" s="67">
         <v>1</v>
       </c>
     </row>
@@ -45884,521 +46117,1596 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A542" s="5">
+    <row r="542" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A542" s="69">
         <v>541</v>
       </c>
-      <c r="B542" s="63">
+      <c r="B542" s="69">
         <v>10458</v>
       </c>
-      <c r="C542" s="63"/>
-      <c r="D542" s="63"/>
-      <c r="E542" s="63"/>
-      <c r="F542" s="63">
-        <v>1</v>
-      </c>
-      <c r="G542" s="63" t="s">
+      <c r="F542" s="69">
+        <v>1</v>
+      </c>
+      <c r="G542" s="69" t="s">
         <v>2006</v>
       </c>
-      <c r="H542" s="63"/>
-      <c r="I542" s="63" t="s">
+      <c r="I542" s="69" t="s">
         <v>2007</v>
       </c>
-      <c r="J542" s="63" t="s">
+      <c r="J542" s="69" t="s">
         <v>2008</v>
       </c>
-      <c r="K542" s="63"/>
-      <c r="L542" s="63">
+      <c r="L542" s="69">
         <v>-31</v>
       </c>
-      <c r="M542" s="63">
-        <v>0</v>
-      </c>
-      <c r="N542" s="63">
-        <v>0</v>
-      </c>
-      <c r="O542" s="63" t="s">
+      <c r="M542" s="69">
+        <v>0</v>
+      </c>
+      <c r="N542" s="69">
+        <v>0</v>
+      </c>
+      <c r="O542" s="69" t="s">
         <v>2009</v>
       </c>
-      <c r="P542" s="63">
+      <c r="P542" s="69">
         <v>99800</v>
       </c>
-      <c r="Q542" s="63" t="s">
+      <c r="Q542" s="69" t="s">
         <v>2010</v>
       </c>
-      <c r="R542" s="64" t="s">
+      <c r="R542" s="70" t="s">
         <v>2011</v>
       </c>
-      <c r="S542" s="63"/>
-      <c r="T542" s="63"/>
-      <c r="U542" s="63"/>
-      <c r="V542" s="63"/>
-      <c r="W542" s="63" t="s">
+      <c r="W542" s="69" t="s">
         <v>2012</v>
       </c>
-      <c r="X542" s="63">
+      <c r="X542" s="69">
         <v>9999999</v>
       </c>
-      <c r="Y542" s="65">
-        <v>1612224000</v>
-      </c>
-      <c r="Z542" s="65">
-        <v>1612799999</v>
-      </c>
-      <c r="AH542" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI542" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL542" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM542" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="543" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A543" s="5">
+      <c r="Y542" s="71">
+        <v>1614038400</v>
+      </c>
+      <c r="Z542" s="71">
+        <v>1614614399</v>
+      </c>
+      <c r="AH542" s="69">
+        <v>1</v>
+      </c>
+      <c r="AI542" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL542" s="69">
+        <v>1</v>
+      </c>
+      <c r="AM542" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A543" s="69">
         <v>542</v>
       </c>
-      <c r="B543" s="63">
+      <c r="B543" s="69">
         <v>10459</v>
       </c>
-      <c r="C543" s="63"/>
-      <c r="D543" s="63"/>
-      <c r="E543" s="63"/>
-      <c r="F543" s="63">
-        <v>1</v>
-      </c>
-      <c r="G543" s="63" t="s">
+      <c r="F543" s="69">
+        <v>1</v>
+      </c>
+      <c r="G543" s="69" t="s">
         <v>2013</v>
       </c>
-      <c r="H543" s="63"/>
-      <c r="I543" s="63" t="s">
+      <c r="I543" s="69" t="s">
         <v>2007</v>
       </c>
-      <c r="J543" s="63" t="s">
+      <c r="J543" s="69" t="s">
         <v>1310</v>
       </c>
-      <c r="K543" s="63"/>
-      <c r="L543" s="63">
+      <c r="L543" s="69">
         <v>-31</v>
       </c>
-      <c r="M543" s="63">
-        <v>0</v>
-      </c>
-      <c r="N543" s="63">
-        <v>0</v>
-      </c>
-      <c r="O543" s="63" t="s">
+      <c r="M543" s="69">
+        <v>0</v>
+      </c>
+      <c r="N543" s="69">
+        <v>0</v>
+      </c>
+      <c r="O543" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="P543" s="63">
+      <c r="P543" s="69">
         <v>49800</v>
       </c>
-      <c r="Q543" s="63" t="s">
+      <c r="Q543" s="69" t="s">
         <v>1490</v>
       </c>
-      <c r="R543" s="64" t="s">
+      <c r="R543" s="70" t="s">
         <v>1213</v>
       </c>
-      <c r="S543" s="63"/>
-      <c r="T543" s="63"/>
-      <c r="U543" s="63"/>
-      <c r="V543" s="63"/>
-      <c r="W543" s="63" t="s">
+      <c r="W543" s="69" t="s">
         <v>543</v>
       </c>
-      <c r="X543" s="63">
+      <c r="X543" s="69">
         <v>9999999</v>
       </c>
-      <c r="Y543" s="65">
-        <v>1612224000</v>
-      </c>
-      <c r="Z543" s="65">
-        <v>1612799999</v>
-      </c>
-      <c r="AH543" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI543" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL543" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM543" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="544" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A544" s="5">
+      <c r="Y543" s="71">
+        <v>1614038400</v>
+      </c>
+      <c r="Z543" s="71">
+        <v>1614614399</v>
+      </c>
+      <c r="AH543" s="69">
+        <v>1</v>
+      </c>
+      <c r="AI543" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL543" s="69">
+        <v>1</v>
+      </c>
+      <c r="AM543" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A544" s="69">
         <v>543</v>
       </c>
-      <c r="B544" s="63">
+      <c r="B544" s="69">
         <v>10460</v>
       </c>
-      <c r="C544" s="63"/>
-      <c r="D544" s="63"/>
-      <c r="E544" s="63"/>
-      <c r="F544" s="63">
-        <v>1</v>
-      </c>
-      <c r="G544" s="63" t="s">
+      <c r="F544" s="69">
+        <v>1</v>
+      </c>
+      <c r="G544" s="69" t="s">
         <v>2014</v>
       </c>
-      <c r="H544" s="63"/>
-      <c r="I544" s="63" t="s">
+      <c r="I544" s="69" t="s">
         <v>2015</v>
       </c>
-      <c r="J544" s="63" t="s">
+      <c r="J544" s="69" t="s">
         <v>1810</v>
       </c>
-      <c r="K544" s="63"/>
-      <c r="L544" s="63">
+      <c r="L544" s="69">
         <v>-31</v>
       </c>
-      <c r="M544" s="63">
-        <v>0</v>
-      </c>
-      <c r="N544" s="63">
-        <v>0</v>
-      </c>
-      <c r="O544" s="63" t="s">
+      <c r="M544" s="69">
+        <v>0</v>
+      </c>
+      <c r="N544" s="69">
+        <v>0</v>
+      </c>
+      <c r="O544" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="P544" s="63">
+      <c r="P544" s="69">
         <v>29800</v>
       </c>
-      <c r="Q544" s="63" t="s">
+      <c r="Q544" s="69" t="s">
         <v>1489</v>
       </c>
-      <c r="R544" s="64" t="s">
+      <c r="R544" s="70" t="s">
         <v>1217</v>
       </c>
-      <c r="S544" s="63"/>
-      <c r="T544" s="63"/>
-      <c r="U544" s="63"/>
-      <c r="V544" s="63"/>
-      <c r="W544" s="63" t="s">
+      <c r="W544" s="69" t="s">
         <v>543</v>
       </c>
-      <c r="X544" s="63">
+      <c r="X544" s="69">
         <v>9999999</v>
       </c>
-      <c r="Y544" s="65">
-        <v>1612224000</v>
-      </c>
-      <c r="Z544" s="65">
-        <v>1612799999</v>
-      </c>
-      <c r="AH544" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI544" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL544" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM544" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="545" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A545" s="5">
+      <c r="Y544" s="71">
+        <v>1614038400</v>
+      </c>
+      <c r="Z544" s="71">
+        <v>1614614399</v>
+      </c>
+      <c r="AH544" s="69">
+        <v>1</v>
+      </c>
+      <c r="AI544" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL544" s="69">
+        <v>1</v>
+      </c>
+      <c r="AM544" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A545" s="69">
         <v>544</v>
       </c>
-      <c r="B545" s="63">
+      <c r="B545" s="69">
         <v>10461</v>
       </c>
-      <c r="C545" s="63"/>
-      <c r="D545" s="63"/>
-      <c r="E545" s="63"/>
-      <c r="F545" s="63">
-        <v>1</v>
-      </c>
-      <c r="G545" s="63" t="s">
+      <c r="F545" s="69">
+        <v>1</v>
+      </c>
+      <c r="G545" s="69" t="s">
         <v>2016</v>
       </c>
-      <c r="H545" s="63"/>
-      <c r="I545" s="63" t="s">
+      <c r="I545" s="69" t="s">
         <v>2007</v>
       </c>
-      <c r="J545" s="63" t="s">
+      <c r="J545" s="69" t="s">
         <v>1308</v>
       </c>
-      <c r="K545" s="63"/>
-      <c r="L545" s="63">
+      <c r="L545" s="69">
         <v>-31</v>
       </c>
-      <c r="M545" s="63">
-        <v>0</v>
-      </c>
-      <c r="N545" s="63">
-        <v>0</v>
-      </c>
-      <c r="O545" s="63" t="s">
+      <c r="M545" s="69">
+        <v>0</v>
+      </c>
+      <c r="N545" s="69">
+        <v>0</v>
+      </c>
+      <c r="O545" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="P545" s="63">
+      <c r="P545" s="69">
         <v>19800</v>
       </c>
-      <c r="Q545" s="63" t="s">
+      <c r="Q545" s="69" t="s">
         <v>2017</v>
       </c>
-      <c r="R545" s="64" t="s">
+      <c r="R545" s="70" t="s">
         <v>1211</v>
       </c>
-      <c r="S545" s="63"/>
-      <c r="T545" s="63"/>
-      <c r="U545" s="63"/>
-      <c r="V545" s="63"/>
-      <c r="W545" s="63" t="s">
+      <c r="W545" s="69" t="s">
         <v>543</v>
       </c>
-      <c r="X545" s="63">
+      <c r="X545" s="69">
         <v>9999999</v>
       </c>
-      <c r="Y545" s="65">
-        <v>1612224000</v>
-      </c>
-      <c r="Z545" s="65">
-        <v>1612799999</v>
-      </c>
-      <c r="AH545" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI545" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL545" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM545" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="546" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A546" s="5">
+      <c r="Y545" s="71">
+        <v>1614038400</v>
+      </c>
+      <c r="Z545" s="71">
+        <v>1614614399</v>
+      </c>
+      <c r="AH545" s="69">
+        <v>1</v>
+      </c>
+      <c r="AI545" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL545" s="69">
+        <v>1</v>
+      </c>
+      <c r="AM545" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A546" s="69">
         <v>545</v>
       </c>
-      <c r="B546" s="63">
+      <c r="B546" s="69">
         <v>10462</v>
       </c>
-      <c r="C546" s="63"/>
-      <c r="D546" s="63"/>
-      <c r="E546" s="63"/>
-      <c r="F546" s="63">
-        <v>1</v>
-      </c>
-      <c r="G546" s="63" t="s">
+      <c r="F546" s="69">
+        <v>1</v>
+      </c>
+      <c r="G546" s="69" t="s">
         <v>2018</v>
       </c>
-      <c r="H546" s="63"/>
-      <c r="I546" s="63" t="s">
+      <c r="I546" s="69" t="s">
         <v>2015</v>
       </c>
-      <c r="J546" s="63" t="s">
+      <c r="J546" s="69" t="s">
         <v>2019</v>
       </c>
-      <c r="K546" s="63"/>
-      <c r="L546" s="63">
+      <c r="L546" s="69">
         <v>-31</v>
       </c>
-      <c r="M546" s="63">
-        <v>0</v>
-      </c>
-      <c r="N546" s="63">
-        <v>0</v>
-      </c>
-      <c r="O546" s="63" t="s">
+      <c r="M546" s="69">
+        <v>0</v>
+      </c>
+      <c r="N546" s="69">
+        <v>0</v>
+      </c>
+      <c r="O546" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="P546" s="63">
+      <c r="P546" s="69">
         <v>9800</v>
       </c>
-      <c r="Q546" s="63" t="s">
+      <c r="Q546" s="69" t="s">
         <v>1489</v>
       </c>
-      <c r="R546" s="64" t="s">
+      <c r="R546" s="70" t="s">
         <v>1307</v>
       </c>
-      <c r="S546" s="63"/>
-      <c r="T546" s="63"/>
-      <c r="U546" s="63"/>
-      <c r="V546" s="63"/>
-      <c r="W546" s="63" t="s">
+      <c r="W546" s="69" t="s">
         <v>543</v>
       </c>
-      <c r="X546" s="63">
+      <c r="X546" s="69">
         <v>9999999</v>
       </c>
-      <c r="Y546" s="65">
-        <v>1612224000</v>
-      </c>
-      <c r="Z546" s="65">
-        <v>1612799999</v>
-      </c>
-      <c r="AH546" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI546" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL546" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM546" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="547" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A547" s="5">
+      <c r="Y546" s="71">
+        <v>1614038400</v>
+      </c>
+      <c r="Z546" s="71">
+        <v>1614614399</v>
+      </c>
+      <c r="AH546" s="69">
+        <v>1</v>
+      </c>
+      <c r="AI546" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL546" s="69">
+        <v>1</v>
+      </c>
+      <c r="AM546" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A547" s="69">
         <v>546</v>
       </c>
-      <c r="B547" s="63">
+      <c r="B547" s="69">
         <v>10463</v>
       </c>
-      <c r="C547" s="63"/>
-      <c r="D547" s="63"/>
-      <c r="E547" s="63"/>
-      <c r="F547" s="63">
-        <v>1</v>
-      </c>
-      <c r="G547" s="63" t="s">
+      <c r="F547" s="69">
+        <v>1</v>
+      </c>
+      <c r="G547" s="69" t="s">
         <v>2020</v>
       </c>
-      <c r="H547" s="63"/>
-      <c r="I547" s="63" t="s">
+      <c r="I547" s="69" t="s">
         <v>2007</v>
       </c>
-      <c r="J547" s="63" t="s">
+      <c r="J547" s="69" t="s">
         <v>2021</v>
       </c>
-      <c r="K547" s="63"/>
-      <c r="L547" s="63">
+      <c r="L547" s="69">
         <v>-31</v>
       </c>
-      <c r="M547" s="63">
-        <v>0</v>
-      </c>
-      <c r="N547" s="63">
-        <v>0</v>
-      </c>
-      <c r="O547" s="63" t="s">
+      <c r="M547" s="69">
+        <v>0</v>
+      </c>
+      <c r="N547" s="69">
+        <v>0</v>
+      </c>
+      <c r="O547" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="P547" s="63">
+      <c r="P547" s="69">
         <v>4800</v>
       </c>
-      <c r="Q547" s="63" t="s">
+      <c r="Q547" s="69" t="s">
         <v>2022</v>
       </c>
-      <c r="R547" s="64" t="s">
+      <c r="R547" s="70" t="s">
         <v>2023</v>
       </c>
-      <c r="S547" s="63"/>
-      <c r="T547" s="63"/>
-      <c r="U547" s="63"/>
-      <c r="V547" s="63"/>
-      <c r="W547" s="63" t="s">
+      <c r="W547" s="69" t="s">
         <v>543</v>
       </c>
-      <c r="X547" s="63">
+      <c r="X547" s="69">
         <v>9999999</v>
       </c>
-      <c r="Y547" s="65">
-        <v>1612224000</v>
-      </c>
-      <c r="Z547" s="65">
-        <v>1612799999</v>
-      </c>
-      <c r="AH547" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI547" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL547" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM547" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="548" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A548" s="5">
+      <c r="Y547" s="71">
+        <v>1614038400</v>
+      </c>
+      <c r="Z547" s="71">
+        <v>1614614399</v>
+      </c>
+      <c r="AH547" s="69">
+        <v>1</v>
+      </c>
+      <c r="AI547" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL547" s="69">
+        <v>1</v>
+      </c>
+      <c r="AM547" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A548" s="69">
         <v>547</v>
       </c>
-      <c r="B548" s="63">
+      <c r="B548" s="69">
         <v>10464</v>
       </c>
-      <c r="C548" s="63"/>
-      <c r="D548" s="63"/>
-      <c r="E548" s="63"/>
-      <c r="F548" s="63">
-        <v>1</v>
-      </c>
-      <c r="G548" s="63" t="s">
+      <c r="F548" s="69">
+        <v>1</v>
+      </c>
+      <c r="G548" s="69" t="s">
         <v>2024</v>
       </c>
-      <c r="H548" s="63"/>
-      <c r="I548" s="63" t="s">
+      <c r="I548" s="69" t="s">
         <v>2007</v>
       </c>
-      <c r="J548" s="63" t="s">
+      <c r="J548" s="69" t="s">
         <v>1303</v>
       </c>
-      <c r="K548" s="63"/>
-      <c r="L548" s="63">
+      <c r="L548" s="69">
         <v>-31</v>
       </c>
-      <c r="M548" s="63">
-        <v>0</v>
-      </c>
-      <c r="N548" s="63">
-        <v>0</v>
-      </c>
-      <c r="O548" s="63" t="s">
+      <c r="M548" s="69">
+        <v>0</v>
+      </c>
+      <c r="N548" s="69">
+        <v>0</v>
+      </c>
+      <c r="O548" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="P548" s="63">
+      <c r="P548" s="69">
         <v>1800</v>
       </c>
-      <c r="Q548" s="63" t="s">
+      <c r="Q548" s="69" t="s">
         <v>2022</v>
       </c>
-      <c r="R548" s="64" t="s">
+      <c r="R548" s="70" t="s">
         <v>1785</v>
       </c>
-      <c r="S548" s="63"/>
-      <c r="T548" s="63"/>
-      <c r="U548" s="63"/>
-      <c r="V548" s="63"/>
-      <c r="W548" s="63" t="s">
+      <c r="W548" s="69" t="s">
         <v>543</v>
       </c>
-      <c r="X548" s="63">
+      <c r="X548" s="69">
         <v>9999999</v>
       </c>
-      <c r="Y548" s="65">
-        <v>1612224000</v>
-      </c>
-      <c r="Z548" s="65">
-        <v>1612799999</v>
-      </c>
-      <c r="AH548" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI548" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL548" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM548" s="5">
+      <c r="Y548" s="71">
+        <v>1614038400</v>
+      </c>
+      <c r="Z548" s="71">
+        <v>1614614399</v>
+      </c>
+      <c r="AH548" s="69">
+        <v>1</v>
+      </c>
+      <c r="AI548" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL548" s="69">
+        <v>1</v>
+      </c>
+      <c r="AM548" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A549" s="5">
+        <v>548</v>
+      </c>
+      <c r="B549" s="63">
+        <v>10465</v>
+      </c>
+      <c r="F549" s="63">
+        <v>1</v>
+      </c>
+      <c r="G549" s="63" t="s">
+        <v>2028</v>
+      </c>
+      <c r="I549" s="63" t="s">
+        <v>2029</v>
+      </c>
+      <c r="J549" s="63" t="s">
+        <v>2030</v>
+      </c>
+      <c r="L549" s="63">
+        <v>-31</v>
+      </c>
+      <c r="M549" s="63">
+        <v>0</v>
+      </c>
+      <c r="N549" s="63">
+        <v>0</v>
+      </c>
+      <c r="O549" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="P549" s="63">
+        <v>49800</v>
+      </c>
+      <c r="Q549" s="63" t="s">
+        <v>2031</v>
+      </c>
+      <c r="R549" s="64" t="s">
+        <v>2032</v>
+      </c>
+      <c r="W549" s="63" t="s">
+        <v>2062</v>
+      </c>
+      <c r="X549" s="63">
+        <v>9999999</v>
+      </c>
+      <c r="Y549" s="63">
+        <v>1612828800</v>
+      </c>
+      <c r="Z549" s="63">
+        <v>1613404799</v>
+      </c>
+      <c r="AA549" s="63">
+        <v>66</v>
+      </c>
+      <c r="AH549" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI549" s="63">
+        <v>1</v>
+      </c>
+      <c r="AL549" s="63">
+        <v>1</v>
+      </c>
+      <c r="AM549" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A550" s="5">
+        <v>549</v>
+      </c>
+      <c r="B550" s="63">
+        <v>10466</v>
+      </c>
+      <c r="F550" s="63">
+        <v>1</v>
+      </c>
+      <c r="G550" s="63" t="s">
+        <v>2028</v>
+      </c>
+      <c r="I550" s="63" t="s">
+        <v>2033</v>
+      </c>
+      <c r="J550" s="63" t="s">
+        <v>2034</v>
+      </c>
+      <c r="L550" s="63">
+        <v>-31</v>
+      </c>
+      <c r="M550" s="63">
+        <v>0</v>
+      </c>
+      <c r="N550" s="63">
+        <v>0</v>
+      </c>
+      <c r="O550" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="P550" s="63">
+        <v>19800</v>
+      </c>
+      <c r="Q550" s="63" t="s">
+        <v>2031</v>
+      </c>
+      <c r="R550" s="64" t="s">
+        <v>2035</v>
+      </c>
+      <c r="W550" s="63" t="s">
+        <v>2062</v>
+      </c>
+      <c r="X550" s="63">
+        <v>9999999</v>
+      </c>
+      <c r="Y550" s="63">
+        <v>1612828800</v>
+      </c>
+      <c r="Z550" s="63">
+        <v>1613404799</v>
+      </c>
+      <c r="AA550" s="63">
+        <v>66</v>
+      </c>
+      <c r="AH550" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI550" s="63">
+        <v>1</v>
+      </c>
+      <c r="AL550" s="63">
+        <v>1</v>
+      </c>
+      <c r="AM550" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A551" s="5">
+        <v>550</v>
+      </c>
+      <c r="B551" s="63">
+        <v>10467</v>
+      </c>
+      <c r="F551" s="63">
+        <v>1</v>
+      </c>
+      <c r="G551" s="63" t="s">
+        <v>2028</v>
+      </c>
+      <c r="I551" s="63" t="s">
+        <v>2036</v>
+      </c>
+      <c r="J551" s="63" t="s">
+        <v>2037</v>
+      </c>
+      <c r="L551" s="63">
+        <v>-31</v>
+      </c>
+      <c r="M551" s="63">
+        <v>0</v>
+      </c>
+      <c r="N551" s="63">
+        <v>0</v>
+      </c>
+      <c r="O551" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="P551" s="63">
+        <v>9800</v>
+      </c>
+      <c r="Q551" s="63" t="s">
+        <v>2031</v>
+      </c>
+      <c r="R551" s="64" t="s">
+        <v>2038</v>
+      </c>
+      <c r="W551" s="63" t="s">
+        <v>1316</v>
+      </c>
+      <c r="X551" s="63">
+        <v>9999999</v>
+      </c>
+      <c r="Y551" s="63">
+        <v>1612828800</v>
+      </c>
+      <c r="Z551" s="63">
+        <v>1613404799</v>
+      </c>
+      <c r="AA551" s="63">
+        <v>66</v>
+      </c>
+      <c r="AH551" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI551" s="63">
+        <v>1</v>
+      </c>
+      <c r="AL551" s="63">
+        <v>1</v>
+      </c>
+      <c r="AM551" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A552" s="5">
+        <v>551</v>
+      </c>
+      <c r="B552" s="63">
+        <v>10468</v>
+      </c>
+      <c r="F552" s="63">
+        <v>1</v>
+      </c>
+      <c r="G552" s="63" t="s">
+        <v>2028</v>
+      </c>
+      <c r="I552" s="63" t="s">
+        <v>2039</v>
+      </c>
+      <c r="J552" s="63" t="s">
+        <v>2040</v>
+      </c>
+      <c r="L552" s="63">
+        <v>-31</v>
+      </c>
+      <c r="M552" s="63">
+        <v>0</v>
+      </c>
+      <c r="N552" s="63">
+        <v>0</v>
+      </c>
+      <c r="O552" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="P552" s="63">
+        <v>4800</v>
+      </c>
+      <c r="Q552" s="63" t="s">
+        <v>2041</v>
+      </c>
+      <c r="R552" s="64" t="s">
+        <v>2042</v>
+      </c>
+      <c r="W552" s="63" t="s">
+        <v>2062</v>
+      </c>
+      <c r="X552" s="63">
+        <v>9999999</v>
+      </c>
+      <c r="Y552" s="63">
+        <v>1612828800</v>
+      </c>
+      <c r="Z552" s="63">
+        <v>1613404799</v>
+      </c>
+      <c r="AA552" s="63">
+        <v>66</v>
+      </c>
+      <c r="AH552" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI552" s="63">
+        <v>1</v>
+      </c>
+      <c r="AL552" s="63">
+        <v>1</v>
+      </c>
+      <c r="AM552" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:39" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A553" s="5">
+        <v>552</v>
+      </c>
+      <c r="B553" s="65">
+        <v>10469</v>
+      </c>
+      <c r="F553" s="65">
+        <v>1</v>
+      </c>
+      <c r="G553" s="65" t="s">
+        <v>2043</v>
+      </c>
+      <c r="I553" s="65" t="s">
+        <v>2044</v>
+      </c>
+      <c r="J553" s="65" t="s">
+        <v>2045</v>
+      </c>
+      <c r="L553" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M553" s="65">
+        <v>0</v>
+      </c>
+      <c r="N553" s="65">
+        <v>0</v>
+      </c>
+      <c r="O553" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="P553" s="65">
+        <v>49800</v>
+      </c>
+      <c r="Q553" s="65" t="s">
+        <v>2046</v>
+      </c>
+      <c r="R553" s="66" t="s">
+        <v>2047</v>
+      </c>
+      <c r="W553" s="65" t="s">
+        <v>2063</v>
+      </c>
+      <c r="X553" s="65">
+        <v>9999999</v>
+      </c>
+      <c r="Y553" s="65">
+        <v>1612828800</v>
+      </c>
+      <c r="Z553" s="65">
+        <v>1613404799</v>
+      </c>
+      <c r="AA553" s="65">
+        <v>67</v>
+      </c>
+      <c r="AH553" s="65">
+        <v>1</v>
+      </c>
+      <c r="AI553" s="65">
+        <v>1</v>
+      </c>
+      <c r="AL553" s="65">
+        <v>1</v>
+      </c>
+      <c r="AM553" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:39" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A554" s="5">
+        <v>553</v>
+      </c>
+      <c r="B554" s="65">
+        <v>10470</v>
+      </c>
+      <c r="F554" s="65">
+        <v>1</v>
+      </c>
+      <c r="G554" s="65" t="s">
+        <v>2048</v>
+      </c>
+      <c r="I554" s="65" t="s">
+        <v>2049</v>
+      </c>
+      <c r="J554" s="65" t="s">
+        <v>2050</v>
+      </c>
+      <c r="L554" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M554" s="65">
+        <v>0</v>
+      </c>
+      <c r="N554" s="65">
+        <v>0</v>
+      </c>
+      <c r="O554" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="P554" s="65">
+        <v>19800</v>
+      </c>
+      <c r="Q554" s="65" t="s">
+        <v>2046</v>
+      </c>
+      <c r="R554" s="66" t="s">
+        <v>2051</v>
+      </c>
+      <c r="W554" s="65" t="s">
+        <v>2064</v>
+      </c>
+      <c r="X554" s="65">
+        <v>9999999</v>
+      </c>
+      <c r="Y554" s="65">
+        <v>1612828800</v>
+      </c>
+      <c r="Z554" s="65">
+        <v>1613404799</v>
+      </c>
+      <c r="AA554" s="65">
+        <v>67</v>
+      </c>
+      <c r="AH554" s="65">
+        <v>1</v>
+      </c>
+      <c r="AI554" s="65">
+        <v>1</v>
+      </c>
+      <c r="AL554" s="65">
+        <v>1</v>
+      </c>
+      <c r="AM554" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:39" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A555" s="5">
+        <v>554</v>
+      </c>
+      <c r="B555" s="65">
+        <v>10471</v>
+      </c>
+      <c r="F555" s="65">
+        <v>1</v>
+      </c>
+      <c r="G555" s="65" t="s">
+        <v>2052</v>
+      </c>
+      <c r="I555" s="65" t="s">
+        <v>2036</v>
+      </c>
+      <c r="J555" s="65" t="s">
+        <v>2053</v>
+      </c>
+      <c r="L555" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M555" s="65">
+        <v>0</v>
+      </c>
+      <c r="N555" s="65">
+        <v>0</v>
+      </c>
+      <c r="O555" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="P555" s="65">
+        <v>9800</v>
+      </c>
+      <c r="Q555" s="65" t="s">
+        <v>2054</v>
+      </c>
+      <c r="R555" s="66" t="s">
+        <v>2055</v>
+      </c>
+      <c r="W555" s="65" t="s">
+        <v>2064</v>
+      </c>
+      <c r="X555" s="65">
+        <v>9999999</v>
+      </c>
+      <c r="Y555" s="65">
+        <v>1612828800</v>
+      </c>
+      <c r="Z555" s="65">
+        <v>1613404799</v>
+      </c>
+      <c r="AA555" s="65">
+        <v>67</v>
+      </c>
+      <c r="AH555" s="65">
+        <v>1</v>
+      </c>
+      <c r="AI555" s="65">
+        <v>1</v>
+      </c>
+      <c r="AL555" s="65">
+        <v>1</v>
+      </c>
+      <c r="AM555" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:39" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A556" s="5">
+        <v>555</v>
+      </c>
+      <c r="B556" s="65">
+        <v>10472</v>
+      </c>
+      <c r="F556" s="65">
+        <v>1</v>
+      </c>
+      <c r="G556" s="65" t="s">
+        <v>2043</v>
+      </c>
+      <c r="I556" s="65" t="s">
+        <v>2056</v>
+      </c>
+      <c r="J556" s="65" t="s">
+        <v>2057</v>
+      </c>
+      <c r="L556" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M556" s="65">
+        <v>0</v>
+      </c>
+      <c r="N556" s="65">
+        <v>0</v>
+      </c>
+      <c r="O556" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="P556" s="65">
+        <v>4800</v>
+      </c>
+      <c r="Q556" s="65" t="s">
+        <v>2054</v>
+      </c>
+      <c r="R556" s="66" t="s">
+        <v>2058</v>
+      </c>
+      <c r="W556" s="65" t="s">
+        <v>2063</v>
+      </c>
+      <c r="X556" s="65">
+        <v>9999999</v>
+      </c>
+      <c r="Y556" s="65">
+        <v>1612828800</v>
+      </c>
+      <c r="Z556" s="65">
+        <v>1613404799</v>
+      </c>
+      <c r="AA556" s="65">
+        <v>67</v>
+      </c>
+      <c r="AH556" s="65">
+        <v>1</v>
+      </c>
+      <c r="AI556" s="65">
+        <v>1</v>
+      </c>
+      <c r="AL556" s="65">
+        <v>1</v>
+      </c>
+      <c r="AM556" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A557" s="5">
+        <v>556</v>
+      </c>
+      <c r="B557" s="67">
+        <v>10473</v>
+      </c>
+      <c r="F557" s="67">
+        <v>1</v>
+      </c>
+      <c r="G557" s="67" t="s">
+        <v>579</v>
+      </c>
+      <c r="I557" s="67" t="s">
+        <v>2060</v>
+      </c>
+      <c r="J557" s="67" t="s">
+        <v>2072</v>
+      </c>
+      <c r="L557" s="67">
+        <v>-25</v>
+      </c>
+      <c r="M557" s="67">
+        <v>0</v>
+      </c>
+      <c r="N557" s="67">
+        <v>0</v>
+      </c>
+      <c r="O557" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="P557" s="67">
+        <v>100</v>
+      </c>
+      <c r="Q557" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="R557" s="72" t="s">
+        <v>2065</v>
+      </c>
+      <c r="W557" s="67" t="s">
+        <v>541</v>
+      </c>
+      <c r="X557" s="67">
+        <v>50</v>
+      </c>
+      <c r="Y557" s="67">
+        <v>1613433600</v>
+      </c>
+      <c r="Z557" s="67">
+        <v>1613440800</v>
+      </c>
+      <c r="AE557" s="67">
+        <f t="shared" ref="AE557:AE565" si="1">24*60*60</f>
+        <v>86400</v>
+      </c>
+      <c r="AF557" s="67">
+        <v>7</v>
+      </c>
+      <c r="AH557" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI557" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A558" s="5">
+        <v>557</v>
+      </c>
+      <c r="B558" s="67">
+        <v>10474</v>
+      </c>
+      <c r="F558" s="67">
+        <v>1</v>
+      </c>
+      <c r="G558" s="67" t="s">
+        <v>531</v>
+      </c>
+      <c r="I558" s="67" t="s">
+        <v>2059</v>
+      </c>
+      <c r="J558" s="67" t="s">
+        <v>2073</v>
+      </c>
+      <c r="L558" s="67">
+        <v>-25</v>
+      </c>
+      <c r="M558" s="67">
+        <v>0</v>
+      </c>
+      <c r="N558" s="67">
+        <v>0</v>
+      </c>
+      <c r="O558" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="P558" s="67">
+        <v>1800</v>
+      </c>
+      <c r="Q558" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="R558" s="72" t="s">
+        <v>2066</v>
+      </c>
+      <c r="W558" s="67" t="s">
+        <v>541</v>
+      </c>
+      <c r="X558" s="67">
+        <v>20</v>
+      </c>
+      <c r="Y558" s="67">
+        <v>1613433600</v>
+      </c>
+      <c r="Z558" s="67">
+        <v>1613440800</v>
+      </c>
+      <c r="AE558" s="67">
+        <f t="shared" si="1"/>
+        <v>86400</v>
+      </c>
+      <c r="AF558" s="67">
+        <v>7</v>
+      </c>
+      <c r="AH558" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI558" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A559" s="5">
+        <v>558</v>
+      </c>
+      <c r="B559" s="67">
+        <v>10475</v>
+      </c>
+      <c r="F559" s="67">
+        <v>1</v>
+      </c>
+      <c r="G559" s="67" t="s">
+        <v>278</v>
+      </c>
+      <c r="I559" s="67" t="s">
+        <v>2060</v>
+      </c>
+      <c r="J559" s="67" t="s">
+        <v>2074</v>
+      </c>
+      <c r="L559" s="67">
+        <v>-25</v>
+      </c>
+      <c r="M559" s="67">
+        <v>0</v>
+      </c>
+      <c r="N559" s="67">
+        <v>0</v>
+      </c>
+      <c r="O559" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="P559" s="67">
+        <v>4800</v>
+      </c>
+      <c r="Q559" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="R559" s="72" t="s">
+        <v>2067</v>
+      </c>
+      <c r="W559" s="67" t="s">
+        <v>541</v>
+      </c>
+      <c r="X559" s="67">
+        <v>10</v>
+      </c>
+      <c r="Y559" s="67">
+        <v>1613433600</v>
+      </c>
+      <c r="Z559" s="67">
+        <v>1613440800</v>
+      </c>
+      <c r="AE559" s="67">
+        <f t="shared" si="1"/>
+        <v>86400</v>
+      </c>
+      <c r="AF559" s="67">
+        <v>7</v>
+      </c>
+      <c r="AH559" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI559" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A560" s="5">
+        <v>559</v>
+      </c>
+      <c r="B560" s="67">
+        <v>10476</v>
+      </c>
+      <c r="F560" s="67">
+        <v>1</v>
+      </c>
+      <c r="G560" s="67" t="s">
+        <v>2061</v>
+      </c>
+      <c r="I560" s="67" t="s">
+        <v>2060</v>
+      </c>
+      <c r="J560" s="67" t="s">
+        <v>2071</v>
+      </c>
+      <c r="L560" s="67">
+        <v>-25</v>
+      </c>
+      <c r="M560" s="67">
+        <v>0</v>
+      </c>
+      <c r="N560" s="67">
+        <v>0</v>
+      </c>
+      <c r="O560" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="P560" s="67">
+        <v>100</v>
+      </c>
+      <c r="Q560" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="R560" s="72" t="s">
+        <v>2065</v>
+      </c>
+      <c r="W560" s="67" t="s">
+        <v>541</v>
+      </c>
+      <c r="X560" s="67">
+        <v>50</v>
+      </c>
+      <c r="Y560" s="67">
+        <v>1613448000</v>
+      </c>
+      <c r="Z560" s="67">
+        <v>1613455200</v>
+      </c>
+      <c r="AE560" s="67">
+        <f t="shared" si="1"/>
+        <v>86400</v>
+      </c>
+      <c r="AF560" s="67">
+        <v>7</v>
+      </c>
+      <c r="AH560" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI560" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:35" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A561" s="5">
+        <v>560</v>
+      </c>
+      <c r="B561" s="67">
+        <v>10477</v>
+      </c>
+      <c r="F561" s="67">
+        <v>1</v>
+      </c>
+      <c r="G561" s="67" t="s">
+        <v>532</v>
+      </c>
+      <c r="I561" s="67" t="s">
+        <v>2059</v>
+      </c>
+      <c r="J561" s="67" t="s">
+        <v>2075</v>
+      </c>
+      <c r="L561" s="67">
+        <v>-25</v>
+      </c>
+      <c r="M561" s="67">
+        <v>0</v>
+      </c>
+      <c r="N561" s="67">
+        <v>0</v>
+      </c>
+      <c r="O561" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="P561" s="67">
+        <v>2800</v>
+      </c>
+      <c r="Q561" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="R561" s="72" t="s">
+        <v>2068</v>
+      </c>
+      <c r="W561" s="67" t="s">
+        <v>541</v>
+      </c>
+      <c r="X561" s="67">
+        <v>20</v>
+      </c>
+      <c r="Y561" s="67">
+        <v>1613448000</v>
+      </c>
+      <c r="Z561" s="67">
+        <v>1613455200</v>
+      </c>
+      <c r="AE561" s="67">
+        <f t="shared" si="1"/>
+        <v>86400</v>
+      </c>
+      <c r="AF561" s="67">
+        <v>7</v>
+      </c>
+      <c r="AH561" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI561" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:35" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A562" s="5">
+        <v>561</v>
+      </c>
+      <c r="B562" s="67">
+        <v>10478</v>
+      </c>
+      <c r="F562" s="67">
+        <v>1</v>
+      </c>
+      <c r="G562" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="I562" s="67" t="s">
+        <v>2060</v>
+      </c>
+      <c r="J562" s="67" t="s">
+        <v>2076</v>
+      </c>
+      <c r="L562" s="67">
+        <v>-25</v>
+      </c>
+      <c r="M562" s="67">
+        <v>0</v>
+      </c>
+      <c r="N562" s="67">
+        <v>0</v>
+      </c>
+      <c r="O562" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="P562" s="67">
+        <v>9800</v>
+      </c>
+      <c r="Q562" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="R562" s="72" t="s">
+        <v>2069</v>
+      </c>
+      <c r="W562" s="67" t="s">
+        <v>541</v>
+      </c>
+      <c r="X562" s="67">
+        <v>10</v>
+      </c>
+      <c r="Y562" s="67">
+        <v>1613448000</v>
+      </c>
+      <c r="Z562" s="67">
+        <v>1613455200</v>
+      </c>
+      <c r="AE562" s="67">
+        <f t="shared" si="1"/>
+        <v>86400</v>
+      </c>
+      <c r="AF562" s="67">
+        <v>7</v>
+      </c>
+      <c r="AH562" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI562" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:35" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A563" s="5">
+        <v>562</v>
+      </c>
+      <c r="B563" s="67">
+        <v>10479</v>
+      </c>
+      <c r="F563" s="67">
+        <v>1</v>
+      </c>
+      <c r="G563" s="67" t="s">
+        <v>579</v>
+      </c>
+      <c r="I563" s="67" t="s">
+        <v>2060</v>
+      </c>
+      <c r="J563" s="67" t="s">
+        <v>2072</v>
+      </c>
+      <c r="L563" s="67">
+        <v>-25</v>
+      </c>
+      <c r="M563" s="67">
+        <v>0</v>
+      </c>
+      <c r="N563" s="67">
+        <v>0</v>
+      </c>
+      <c r="O563" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="P563" s="67">
+        <v>100</v>
+      </c>
+      <c r="Q563" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="R563" s="72" t="s">
+        <v>2065</v>
+      </c>
+      <c r="W563" s="67" t="s">
+        <v>541</v>
+      </c>
+      <c r="X563" s="67">
+        <v>50</v>
+      </c>
+      <c r="Y563" s="67">
+        <v>1613469600</v>
+      </c>
+      <c r="Z563" s="67">
+        <v>1613484000</v>
+      </c>
+      <c r="AE563" s="67">
+        <f t="shared" si="1"/>
+        <v>86400</v>
+      </c>
+      <c r="AF563" s="67">
+        <v>7</v>
+      </c>
+      <c r="AH563" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI563" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:35" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A564" s="5">
+        <v>563</v>
+      </c>
+      <c r="B564" s="67">
+        <v>10480</v>
+      </c>
+      <c r="F564" s="67">
+        <v>1</v>
+      </c>
+      <c r="G564" s="67" t="s">
+        <v>278</v>
+      </c>
+      <c r="I564" s="67" t="s">
+        <v>2059</v>
+      </c>
+      <c r="J564" s="67" t="s">
+        <v>2074</v>
+      </c>
+      <c r="L564" s="67">
+        <v>-25</v>
+      </c>
+      <c r="M564" s="67">
+        <v>0</v>
+      </c>
+      <c r="N564" s="67">
+        <v>0</v>
+      </c>
+      <c r="O564" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="P564" s="67">
+        <v>4800</v>
+      </c>
+      <c r="Q564" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="R564" s="72" t="s">
+        <v>2067</v>
+      </c>
+      <c r="W564" s="67" t="s">
+        <v>541</v>
+      </c>
+      <c r="X564" s="67">
+        <v>20</v>
+      </c>
+      <c r="Y564" s="67">
+        <v>1613469600</v>
+      </c>
+      <c r="Z564" s="67">
+        <v>1613484000</v>
+      </c>
+      <c r="AE564" s="67">
+        <f t="shared" si="1"/>
+        <v>86400</v>
+      </c>
+      <c r="AF564" s="67">
+        <v>7</v>
+      </c>
+      <c r="AH564" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI564" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:35" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A565" s="5">
+        <v>564</v>
+      </c>
+      <c r="B565" s="67">
+        <v>10481</v>
+      </c>
+      <c r="F565" s="67">
+        <v>1</v>
+      </c>
+      <c r="G565" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="I565" s="67" t="s">
+        <v>2060</v>
+      </c>
+      <c r="J565" s="67" t="s">
+        <v>2077</v>
+      </c>
+      <c r="L565" s="67">
+        <v>-25</v>
+      </c>
+      <c r="M565" s="67">
+        <v>0</v>
+      </c>
+      <c r="N565" s="67">
+        <v>0</v>
+      </c>
+      <c r="O565" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="P565" s="67">
+        <v>19800</v>
+      </c>
+      <c r="Q565" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="R565" s="72" t="s">
+        <v>2070</v>
+      </c>
+      <c r="W565" s="67" t="s">
+        <v>541</v>
+      </c>
+      <c r="X565" s="67">
+        <v>10</v>
+      </c>
+      <c r="Y565" s="67">
+        <v>1613469600</v>
+      </c>
+      <c r="Z565" s="67">
+        <v>1613484000</v>
+      </c>
+      <c r="AE565" s="67">
+        <f t="shared" si="1"/>
+        <v>86400</v>
+      </c>
+      <c r="AF565" s="67">
+        <v>7</v>
+      </c>
+      <c r="AH565" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI565" s="67">
         <v>1</v>
       </c>
     </row>
@@ -46414,7 +47722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>

--- a/config_debug/shoping_config_cjj.xlsx
+++ b/config_debug/shoping_config_cjj.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -8388,18 +8388,6 @@
     <t>49800000,800000,1,</t>
   </si>
   <si>
-    <t>{type="permission_class",class_value = "fclb_free_001" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "fclb_v1v7_001" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "fclb_v8v12_001" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>51800000,50,15,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8856,6 +8844,18 @@
   </si>
   <si>
     <t>"2090万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "fclb_free_002" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "fclb_v1v7_002" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "fclb_v8v12_002" }</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -11702,7 +11702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN565"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="Q546" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -43125,10 +43125,10 @@
         <v>1851</v>
       </c>
       <c r="R497" s="60" t="s">
-        <v>1962</v>
+        <v>1959</v>
       </c>
       <c r="W497" s="62" t="s">
-        <v>1974</v>
+        <v>1971</v>
       </c>
       <c r="X497" s="5">
         <v>99999999</v>
@@ -43193,10 +43193,10 @@
         <v>1851</v>
       </c>
       <c r="R498" s="60" t="s">
-        <v>1963</v>
+        <v>1960</v>
       </c>
       <c r="W498" s="62" t="s">
-        <v>1975</v>
+        <v>1972</v>
       </c>
       <c r="X498" s="5">
         <v>99999999</v>
@@ -43261,10 +43261,10 @@
         <v>1851</v>
       </c>
       <c r="R499" s="60" t="s">
-        <v>1964</v>
+        <v>1961</v>
       </c>
       <c r="W499" s="62" t="s">
-        <v>1975</v>
+        <v>1972</v>
       </c>
       <c r="X499" s="5">
         <v>99999999</v>
@@ -43329,10 +43329,10 @@
         <v>1851</v>
       </c>
       <c r="R500" s="60" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="W500" s="62" t="s">
-        <v>1975</v>
+        <v>1972</v>
       </c>
       <c r="X500" s="5">
         <v>99999999</v>
@@ -43397,10 +43397,10 @@
         <v>1851</v>
       </c>
       <c r="R501" s="60" t="s">
-        <v>1966</v>
+        <v>1963</v>
       </c>
       <c r="W501" s="62" t="s">
-        <v>1974</v>
+        <v>1971</v>
       </c>
       <c r="X501" s="5">
         <v>99999999</v>
@@ -43465,10 +43465,10 @@
         <v>1851</v>
       </c>
       <c r="R502" s="60" t="s">
-        <v>1967</v>
+        <v>1964</v>
       </c>
       <c r="W502" s="62" t="s">
-        <v>1974</v>
+        <v>1971</v>
       </c>
       <c r="X502" s="5">
         <v>99999999</v>
@@ -43533,10 +43533,10 @@
         <v>1861</v>
       </c>
       <c r="R503" s="61" t="s">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="W503" s="62" t="s">
-        <v>1974</v>
+        <v>1971</v>
       </c>
       <c r="X503" s="5">
         <v>99999999</v>
@@ -43601,10 +43601,10 @@
         <v>1861</v>
       </c>
       <c r="R504" s="61" t="s">
-        <v>1969</v>
+        <v>1966</v>
       </c>
       <c r="W504" s="62" t="s">
-        <v>1974</v>
+        <v>1971</v>
       </c>
       <c r="X504" s="5">
         <v>99999999</v>
@@ -43669,10 +43669,10 @@
         <v>1861</v>
       </c>
       <c r="R505" s="61" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
       <c r="W505" s="62" t="s">
-        <v>1974</v>
+        <v>1971</v>
       </c>
       <c r="X505" s="5">
         <v>99999999</v>
@@ -43737,10 +43737,10 @@
         <v>1866</v>
       </c>
       <c r="R506" s="61" t="s">
+        <v>1968</v>
+      </c>
+      <c r="W506" s="62" t="s">
         <v>1971</v>
-      </c>
-      <c r="W506" s="62" t="s">
-        <v>1974</v>
       </c>
       <c r="X506" s="5">
         <v>99999999</v>
@@ -43805,10 +43805,10 @@
         <v>1866</v>
       </c>
       <c r="R507" s="61" t="s">
-        <v>1972</v>
+        <v>1969</v>
       </c>
       <c r="W507" s="62" t="s">
-        <v>1974</v>
+        <v>1971</v>
       </c>
       <c r="X507" s="5">
         <v>99999999</v>
@@ -43873,10 +43873,10 @@
         <v>1866</v>
       </c>
       <c r="R508" s="61" t="s">
-        <v>1973</v>
+        <v>1970</v>
       </c>
       <c r="W508" s="62" t="s">
-        <v>1974</v>
+        <v>1971</v>
       </c>
       <c r="X508" s="5">
         <v>99999999</v>
@@ -44727,7 +44727,7 @@
         <v>1922</v>
       </c>
       <c r="R521" s="68" t="s">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="W521" s="67" t="s">
         <v>1923</v>
@@ -45516,13 +45516,13 @@
         <v>1</v>
       </c>
       <c r="G533" s="5" t="s">
-        <v>1976</v>
+        <v>1973</v>
       </c>
       <c r="I533" s="5" t="s">
         <v>1119</v>
       </c>
       <c r="J533" s="5" t="s">
-        <v>1977</v>
+        <v>1974</v>
       </c>
       <c r="L533" s="5">
         <v>-31</v>
@@ -45540,13 +45540,13 @@
         <v>1800</v>
       </c>
       <c r="Q533" s="5" t="s">
-        <v>1978</v>
+        <v>1975</v>
       </c>
       <c r="R533" s="10" t="s">
-        <v>1979</v>
+        <v>1976</v>
       </c>
       <c r="W533" s="5" t="s">
-        <v>1980</v>
+        <v>1977</v>
       </c>
       <c r="X533" s="5">
         <v>9999999</v>
@@ -45584,7 +45584,7 @@
         <v>1</v>
       </c>
       <c r="G534" s="5" t="s">
-        <v>1981</v>
+        <v>1978</v>
       </c>
       <c r="I534" s="5" t="s">
         <v>1119</v>
@@ -45602,7 +45602,7 @@
         <v>0</v>
       </c>
       <c r="O534" s="5" t="s">
-        <v>1982</v>
+        <v>1979</v>
       </c>
       <c r="P534" s="5">
         <v>3000</v>
@@ -45611,10 +45611,10 @@
         <v>1157</v>
       </c>
       <c r="R534" s="10" t="s">
-        <v>1983</v>
+        <v>1980</v>
       </c>
       <c r="W534" s="5" t="s">
-        <v>1984</v>
+        <v>1981</v>
       </c>
       <c r="X534" s="5">
         <v>9999999</v>
@@ -45652,13 +45652,13 @@
         <v>1</v>
       </c>
       <c r="G535" s="5" t="s">
-        <v>1985</v>
+        <v>1982</v>
       </c>
       <c r="I535" s="5" t="s">
-        <v>1986</v>
+        <v>1983</v>
       </c>
       <c r="J535" s="5" t="s">
-        <v>1987</v>
+        <v>1984</v>
       </c>
       <c r="L535" s="5">
         <v>-31</v>
@@ -45670,19 +45670,19 @@
         <v>0</v>
       </c>
       <c r="O535" s="5" t="s">
-        <v>1988</v>
+        <v>1985</v>
       </c>
       <c r="P535" s="5">
         <v>4800</v>
       </c>
       <c r="Q535" s="5" t="s">
-        <v>1989</v>
+        <v>1986</v>
       </c>
       <c r="R535" s="10" t="s">
-        <v>1990</v>
+        <v>1987</v>
       </c>
       <c r="W535" s="5" t="s">
-        <v>1980</v>
+        <v>1977</v>
       </c>
       <c r="X535" s="5">
         <v>9999999</v>
@@ -45720,7 +45720,7 @@
         <v>1</v>
       </c>
       <c r="G536" s="5" t="s">
-        <v>1976</v>
+        <v>1973</v>
       </c>
       <c r="I536" s="5" t="s">
         <v>1080</v>
@@ -45738,19 +45738,19 @@
         <v>0</v>
       </c>
       <c r="O536" s="5" t="s">
-        <v>1988</v>
+        <v>1985</v>
       </c>
       <c r="P536" s="5">
         <v>4800</v>
       </c>
       <c r="Q536" s="5" t="s">
-        <v>1991</v>
+        <v>1988</v>
       </c>
       <c r="R536" s="10" t="s">
-        <v>1992</v>
+        <v>1989</v>
       </c>
       <c r="W536" s="5" t="s">
-        <v>1980</v>
+        <v>1977</v>
       </c>
       <c r="X536" s="5">
         <v>9999999</v>
@@ -45788,13 +45788,13 @@
         <v>1</v>
       </c>
       <c r="G537" s="5" t="s">
-        <v>1981</v>
+        <v>1978</v>
       </c>
       <c r="I537" s="5" t="s">
-        <v>1993</v>
+        <v>1990</v>
       </c>
       <c r="J537" s="5" t="s">
-        <v>1994</v>
+        <v>1991</v>
       </c>
       <c r="L537" s="5">
         <v>-31</v>
@@ -45812,13 +45812,13 @@
         <v>9800</v>
       </c>
       <c r="Q537" s="5" t="s">
-        <v>1995</v>
+        <v>1992</v>
       </c>
       <c r="R537" s="10" t="s">
-        <v>1996</v>
+        <v>1993</v>
       </c>
       <c r="W537" s="5" t="s">
-        <v>1980</v>
+        <v>1977</v>
       </c>
       <c r="X537" s="5">
         <v>9999999</v>
@@ -45856,10 +45856,10 @@
         <v>1</v>
       </c>
       <c r="G538" s="5" t="s">
-        <v>1985</v>
+        <v>1982</v>
       </c>
       <c r="I538" s="5" t="s">
-        <v>1997</v>
+        <v>1994</v>
       </c>
       <c r="J538" s="5" t="s">
         <v>1150</v>
@@ -45883,10 +45883,10 @@
         <v>1161</v>
       </c>
       <c r="R538" s="10" t="s">
-        <v>1998</v>
+        <v>1995</v>
       </c>
       <c r="W538" s="5" t="s">
-        <v>1974</v>
+        <v>1971</v>
       </c>
       <c r="X538" s="5">
         <v>9999999</v>
@@ -45924,10 +45924,10 @@
         <v>1</v>
       </c>
       <c r="G539" s="5" t="s">
-        <v>1976</v>
+        <v>1973</v>
       </c>
       <c r="I539" s="5" t="s">
-        <v>1999</v>
+        <v>1996</v>
       </c>
       <c r="J539" s="5" t="s">
         <v>1151</v>
@@ -45948,13 +45948,13 @@
         <v>9800</v>
       </c>
       <c r="Q539" s="5" t="s">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="R539" s="10" t="s">
         <v>1776</v>
       </c>
       <c r="W539" s="5" t="s">
-        <v>1984</v>
+        <v>1981</v>
       </c>
       <c r="X539" s="5">
         <v>9999999</v>
@@ -45992,10 +45992,10 @@
         <v>1</v>
       </c>
       <c r="G540" s="5" t="s">
-        <v>1981</v>
+        <v>1978</v>
       </c>
       <c r="I540" s="5" t="s">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="J540" s="5" t="s">
         <v>1152</v>
@@ -46019,10 +46019,10 @@
         <v>1162</v>
       </c>
       <c r="R540" s="10" t="s">
-        <v>1998</v>
+        <v>1995</v>
       </c>
       <c r="W540" s="5" t="s">
-        <v>1974</v>
+        <v>1971</v>
       </c>
       <c r="X540" s="5">
         <v>9999999</v>
@@ -46060,13 +46060,13 @@
         <v>1</v>
       </c>
       <c r="G541" s="5" t="s">
-        <v>1985</v>
+        <v>1982</v>
       </c>
       <c r="I541" s="5" t="s">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="J541" s="5" t="s">
-        <v>2002</v>
+        <v>1999</v>
       </c>
       <c r="L541" s="5">
         <v>-31</v>
@@ -46078,7 +46078,7 @@
         <v>0</v>
       </c>
       <c r="O541" s="5" t="s">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="P541" s="5">
         <v>49800</v>
@@ -46087,10 +46087,10 @@
         <v>1163</v>
       </c>
       <c r="R541" s="10" t="s">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="W541" s="5" t="s">
-        <v>1974</v>
+        <v>1971</v>
       </c>
       <c r="X541" s="5">
         <v>9999999</v>
@@ -46128,13 +46128,13 @@
         <v>1</v>
       </c>
       <c r="G542" s="69" t="s">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="I542" s="69" t="s">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="J542" s="69" t="s">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="L542" s="69">
         <v>-31</v>
@@ -46146,19 +46146,19 @@
         <v>0</v>
       </c>
       <c r="O542" s="69" t="s">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="P542" s="69">
         <v>99800</v>
       </c>
       <c r="Q542" s="69" t="s">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="R542" s="70" t="s">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="W542" s="69" t="s">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="X542" s="69">
         <v>9999999</v>
@@ -46193,10 +46193,10 @@
         <v>1</v>
       </c>
       <c r="G543" s="69" t="s">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="I543" s="69" t="s">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="J543" s="69" t="s">
         <v>1310</v>
@@ -46258,10 +46258,10 @@
         <v>1</v>
       </c>
       <c r="G544" s="69" t="s">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="I544" s="69" t="s">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="J544" s="69" t="s">
         <v>1810</v>
@@ -46323,10 +46323,10 @@
         <v>1</v>
       </c>
       <c r="G545" s="69" t="s">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="I545" s="69" t="s">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="J545" s="69" t="s">
         <v>1308</v>
@@ -46347,7 +46347,7 @@
         <v>19800</v>
       </c>
       <c r="Q545" s="69" t="s">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="R545" s="70" t="s">
         <v>1211</v>
@@ -46388,13 +46388,13 @@
         <v>1</v>
       </c>
       <c r="G546" s="69" t="s">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="I546" s="69" t="s">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="J546" s="69" t="s">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="L546" s="69">
         <v>-31</v>
@@ -46453,13 +46453,13 @@
         <v>1</v>
       </c>
       <c r="G547" s="69" t="s">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="I547" s="69" t="s">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="J547" s="69" t="s">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="L547" s="69">
         <v>-31</v>
@@ -46477,10 +46477,10 @@
         <v>4800</v>
       </c>
       <c r="Q547" s="69" t="s">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="R547" s="70" t="s">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="W547" s="69" t="s">
         <v>543</v>
@@ -46518,10 +46518,10 @@
         <v>1</v>
       </c>
       <c r="G548" s="69" t="s">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="I548" s="69" t="s">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="J548" s="69" t="s">
         <v>1303</v>
@@ -46542,7 +46542,7 @@
         <v>1800</v>
       </c>
       <c r="Q548" s="69" t="s">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="R548" s="70" t="s">
         <v>1785</v>
@@ -46583,13 +46583,13 @@
         <v>1</v>
       </c>
       <c r="G549" s="63" t="s">
-        <v>2028</v>
+        <v>2025</v>
       </c>
       <c r="I549" s="63" t="s">
-        <v>2029</v>
+        <v>2026</v>
       </c>
       <c r="J549" s="63" t="s">
-        <v>2030</v>
+        <v>2027</v>
       </c>
       <c r="L549" s="63">
         <v>-31</v>
@@ -46607,13 +46607,13 @@
         <v>49800</v>
       </c>
       <c r="Q549" s="63" t="s">
-        <v>2031</v>
+        <v>2028</v>
       </c>
       <c r="R549" s="64" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
       <c r="W549" s="63" t="s">
-        <v>2062</v>
+        <v>2059</v>
       </c>
       <c r="X549" s="63">
         <v>9999999</v>
@@ -46651,13 +46651,13 @@
         <v>1</v>
       </c>
       <c r="G550" s="63" t="s">
-        <v>2028</v>
+        <v>2025</v>
       </c>
       <c r="I550" s="63" t="s">
-        <v>2033</v>
+        <v>2030</v>
       </c>
       <c r="J550" s="63" t="s">
-        <v>2034</v>
+        <v>2031</v>
       </c>
       <c r="L550" s="63">
         <v>-31</v>
@@ -46675,13 +46675,13 @@
         <v>19800</v>
       </c>
       <c r="Q550" s="63" t="s">
-        <v>2031</v>
+        <v>2028</v>
       </c>
       <c r="R550" s="64" t="s">
-        <v>2035</v>
+        <v>2032</v>
       </c>
       <c r="W550" s="63" t="s">
-        <v>2062</v>
+        <v>2059</v>
       </c>
       <c r="X550" s="63">
         <v>9999999</v>
@@ -46719,13 +46719,13 @@
         <v>1</v>
       </c>
       <c r="G551" s="63" t="s">
-        <v>2028</v>
+        <v>2025</v>
       </c>
       <c r="I551" s="63" t="s">
-        <v>2036</v>
+        <v>2033</v>
       </c>
       <c r="J551" s="63" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="L551" s="63">
         <v>-31</v>
@@ -46743,10 +46743,10 @@
         <v>9800</v>
       </c>
       <c r="Q551" s="63" t="s">
-        <v>2031</v>
+        <v>2028</v>
       </c>
       <c r="R551" s="64" t="s">
-        <v>2038</v>
+        <v>2035</v>
       </c>
       <c r="W551" s="63" t="s">
         <v>1316</v>
@@ -46787,13 +46787,13 @@
         <v>1</v>
       </c>
       <c r="G552" s="63" t="s">
-        <v>2028</v>
+        <v>2025</v>
       </c>
       <c r="I552" s="63" t="s">
-        <v>2039</v>
+        <v>2036</v>
       </c>
       <c r="J552" s="63" t="s">
-        <v>2040</v>
+        <v>2037</v>
       </c>
       <c r="L552" s="63">
         <v>-31</v>
@@ -46811,13 +46811,13 @@
         <v>4800</v>
       </c>
       <c r="Q552" s="63" t="s">
-        <v>2041</v>
+        <v>2038</v>
       </c>
       <c r="R552" s="64" t="s">
-        <v>2042</v>
+        <v>2039</v>
       </c>
       <c r="W552" s="63" t="s">
-        <v>2062</v>
+        <v>2059</v>
       </c>
       <c r="X552" s="63">
         <v>9999999</v>
@@ -46855,13 +46855,13 @@
         <v>1</v>
       </c>
       <c r="G553" s="65" t="s">
-        <v>2043</v>
+        <v>2040</v>
       </c>
       <c r="I553" s="65" t="s">
-        <v>2044</v>
+        <v>2041</v>
       </c>
       <c r="J553" s="65" t="s">
-        <v>2045</v>
+        <v>2042</v>
       </c>
       <c r="L553" s="65">
         <v>-31</v>
@@ -46879,13 +46879,13 @@
         <v>49800</v>
       </c>
       <c r="Q553" s="65" t="s">
-        <v>2046</v>
+        <v>2043</v>
       </c>
       <c r="R553" s="66" t="s">
-        <v>2047</v>
+        <v>2044</v>
       </c>
       <c r="W553" s="65" t="s">
-        <v>2063</v>
+        <v>2060</v>
       </c>
       <c r="X553" s="65">
         <v>9999999</v>
@@ -46923,13 +46923,13 @@
         <v>1</v>
       </c>
       <c r="G554" s="65" t="s">
-        <v>2048</v>
+        <v>2045</v>
       </c>
       <c r="I554" s="65" t="s">
-        <v>2049</v>
+        <v>2046</v>
       </c>
       <c r="J554" s="65" t="s">
-        <v>2050</v>
+        <v>2047</v>
       </c>
       <c r="L554" s="65">
         <v>-31</v>
@@ -46947,13 +46947,13 @@
         <v>19800</v>
       </c>
       <c r="Q554" s="65" t="s">
-        <v>2046</v>
+        <v>2043</v>
       </c>
       <c r="R554" s="66" t="s">
-        <v>2051</v>
+        <v>2048</v>
       </c>
       <c r="W554" s="65" t="s">
-        <v>2064</v>
+        <v>2061</v>
       </c>
       <c r="X554" s="65">
         <v>9999999</v>
@@ -46991,13 +46991,13 @@
         <v>1</v>
       </c>
       <c r="G555" s="65" t="s">
-        <v>2052</v>
+        <v>2049</v>
       </c>
       <c r="I555" s="65" t="s">
-        <v>2036</v>
+        <v>2033</v>
       </c>
       <c r="J555" s="65" t="s">
-        <v>2053</v>
+        <v>2050</v>
       </c>
       <c r="L555" s="65">
         <v>-31</v>
@@ -47015,13 +47015,13 @@
         <v>9800</v>
       </c>
       <c r="Q555" s="65" t="s">
-        <v>2054</v>
+        <v>2051</v>
       </c>
       <c r="R555" s="66" t="s">
-        <v>2055</v>
+        <v>2052</v>
       </c>
       <c r="W555" s="65" t="s">
-        <v>2064</v>
+        <v>2061</v>
       </c>
       <c r="X555" s="65">
         <v>9999999</v>
@@ -47059,13 +47059,13 @@
         <v>1</v>
       </c>
       <c r="G556" s="65" t="s">
-        <v>2043</v>
+        <v>2040</v>
       </c>
       <c r="I556" s="65" t="s">
-        <v>2056</v>
+        <v>2053</v>
       </c>
       <c r="J556" s="65" t="s">
-        <v>2057</v>
+        <v>2054</v>
       </c>
       <c r="L556" s="65">
         <v>-31</v>
@@ -47083,13 +47083,13 @@
         <v>4800</v>
       </c>
       <c r="Q556" s="65" t="s">
-        <v>2054</v>
+        <v>2051</v>
       </c>
       <c r="R556" s="66" t="s">
-        <v>2058</v>
+        <v>2055</v>
       </c>
       <c r="W556" s="65" t="s">
-        <v>2063</v>
+        <v>2060</v>
       </c>
       <c r="X556" s="65">
         <v>9999999</v>
@@ -47130,10 +47130,10 @@
         <v>579</v>
       </c>
       <c r="I557" s="67" t="s">
-        <v>2060</v>
+        <v>2057</v>
       </c>
       <c r="J557" s="67" t="s">
-        <v>2072</v>
+        <v>2069</v>
       </c>
       <c r="L557" s="67">
         <v>-25</v>
@@ -47154,7 +47154,7 @@
         <v>89</v>
       </c>
       <c r="R557" s="72" t="s">
-        <v>2065</v>
+        <v>2062</v>
       </c>
       <c r="W557" s="67" t="s">
         <v>541</v>
@@ -47196,10 +47196,10 @@
         <v>531</v>
       </c>
       <c r="I558" s="67" t="s">
-        <v>2059</v>
+        <v>2056</v>
       </c>
       <c r="J558" s="67" t="s">
-        <v>2073</v>
+        <v>2070</v>
       </c>
       <c r="L558" s="67">
         <v>-25</v>
@@ -47220,7 +47220,7 @@
         <v>89</v>
       </c>
       <c r="R558" s="72" t="s">
-        <v>2066</v>
+        <v>2063</v>
       </c>
       <c r="W558" s="67" t="s">
         <v>541</v>
@@ -47262,10 +47262,10 @@
         <v>278</v>
       </c>
       <c r="I559" s="67" t="s">
-        <v>2060</v>
+        <v>2057</v>
       </c>
       <c r="J559" s="67" t="s">
-        <v>2074</v>
+        <v>2071</v>
       </c>
       <c r="L559" s="67">
         <v>-25</v>
@@ -47286,7 +47286,7 @@
         <v>89</v>
       </c>
       <c r="R559" s="72" t="s">
-        <v>2067</v>
+        <v>2064</v>
       </c>
       <c r="W559" s="67" t="s">
         <v>541</v>
@@ -47325,13 +47325,13 @@
         <v>1</v>
       </c>
       <c r="G560" s="67" t="s">
-        <v>2061</v>
+        <v>2058</v>
       </c>
       <c r="I560" s="67" t="s">
-        <v>2060</v>
+        <v>2057</v>
       </c>
       <c r="J560" s="67" t="s">
-        <v>2071</v>
+        <v>2068</v>
       </c>
       <c r="L560" s="67">
         <v>-25</v>
@@ -47352,7 +47352,7 @@
         <v>89</v>
       </c>
       <c r="R560" s="72" t="s">
-        <v>2065</v>
+        <v>2062</v>
       </c>
       <c r="W560" s="67" t="s">
         <v>541</v>
@@ -47394,10 +47394,10 @@
         <v>532</v>
       </c>
       <c r="I561" s="67" t="s">
-        <v>2059</v>
+        <v>2056</v>
       </c>
       <c r="J561" s="67" t="s">
-        <v>2075</v>
+        <v>2072</v>
       </c>
       <c r="L561" s="67">
         <v>-25</v>
@@ -47418,7 +47418,7 @@
         <v>89</v>
       </c>
       <c r="R561" s="72" t="s">
-        <v>2068</v>
+        <v>2065</v>
       </c>
       <c r="W561" s="67" t="s">
         <v>541</v>
@@ -47460,10 +47460,10 @@
         <v>77</v>
       </c>
       <c r="I562" s="67" t="s">
-        <v>2060</v>
+        <v>2057</v>
       </c>
       <c r="J562" s="67" t="s">
-        <v>2076</v>
+        <v>2073</v>
       </c>
       <c r="L562" s="67">
         <v>-25</v>
@@ -47484,7 +47484,7 @@
         <v>89</v>
       </c>
       <c r="R562" s="72" t="s">
-        <v>2069</v>
+        <v>2066</v>
       </c>
       <c r="W562" s="67" t="s">
         <v>541</v>
@@ -47526,10 +47526,10 @@
         <v>579</v>
       </c>
       <c r="I563" s="67" t="s">
-        <v>2060</v>
+        <v>2057</v>
       </c>
       <c r="J563" s="67" t="s">
-        <v>2072</v>
+        <v>2069</v>
       </c>
       <c r="L563" s="67">
         <v>-25</v>
@@ -47550,7 +47550,7 @@
         <v>89</v>
       </c>
       <c r="R563" s="72" t="s">
-        <v>2065</v>
+        <v>2062</v>
       </c>
       <c r="W563" s="67" t="s">
         <v>541</v>
@@ -47592,10 +47592,10 @@
         <v>278</v>
       </c>
       <c r="I564" s="67" t="s">
-        <v>2059</v>
+        <v>2056</v>
       </c>
       <c r="J564" s="67" t="s">
-        <v>2074</v>
+        <v>2071</v>
       </c>
       <c r="L564" s="67">
         <v>-25</v>
@@ -47616,7 +47616,7 @@
         <v>89</v>
       </c>
       <c r="R564" s="72" t="s">
-        <v>2067</v>
+        <v>2064</v>
       </c>
       <c r="W564" s="67" t="s">
         <v>541</v>
@@ -47658,10 +47658,10 @@
         <v>81</v>
       </c>
       <c r="I565" s="67" t="s">
-        <v>2060</v>
+        <v>2057</v>
       </c>
       <c r="J565" s="67" t="s">
-        <v>2077</v>
+        <v>2074</v>
       </c>
       <c r="L565" s="67">
         <v>-25</v>
@@ -47682,7 +47682,7 @@
         <v>89</v>
       </c>
       <c r="R565" s="72" t="s">
-        <v>2070</v>
+        <v>2067</v>
       </c>
       <c r="W565" s="67" t="s">
         <v>541</v>
@@ -47722,8 +47722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -48736,7 +48736,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="49" t="s">
-        <v>1959</v>
+        <v>2075</v>
       </c>
       <c r="C71" s="50">
         <v>1</v>
@@ -48750,7 +48750,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="49" t="s">
-        <v>1960</v>
+        <v>2076</v>
       </c>
       <c r="C72" s="50">
         <v>1</v>
@@ -48764,7 +48764,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="49" t="s">
-        <v>1961</v>
+        <v>2077</v>
       </c>
       <c r="C73" s="50">
         <v>1</v>
@@ -48778,7 +48778,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="49" t="s">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="C74" s="50">
         <v>1</v>
@@ -48792,7 +48792,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="49" t="s">
-        <v>2026</v>
+        <v>2023</v>
       </c>
       <c r="C75" s="50">
         <v>1</v>
@@ -48806,7 +48806,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="49" t="s">
-        <v>2027</v>
+        <v>2024</v>
       </c>
       <c r="C76" s="50">
         <v>1</v>

--- a/config_debug/shoping_config_cjj.xlsx
+++ b/config_debug/shoping_config_cjj.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4578" uniqueCount="2078">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4578" uniqueCount="2086">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8779,10 +8779,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>5,100,0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8856,6 +8852,42 @@
   </si>
   <si>
     <t>{type="permission_class",class_value = "fclb_v8v12_002" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神商铺--1元--早</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神商铺--18元--早</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神商铺--48元--早</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神商铺--1元--中</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神商铺--28元--中</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神商铺--98元--中</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神商铺--1元--晚</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神商铺--48元--晚</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神商铺--198元--晚</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -11702,11 +11734,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN565"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="Q546" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R560" sqref="R560"/>
+      <selection pane="bottomRight" activeCell="G570" sqref="G570"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -46613,7 +46645,7 @@
         <v>2029</v>
       </c>
       <c r="W549" s="63" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="X549" s="63">
         <v>9999999</v>
@@ -46681,7 +46713,7 @@
         <v>2032</v>
       </c>
       <c r="W550" s="63" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="X550" s="63">
         <v>9999999</v>
@@ -46817,7 +46849,7 @@
         <v>2039</v>
       </c>
       <c r="W552" s="63" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="X552" s="63">
         <v>9999999</v>
@@ -46885,7 +46917,7 @@
         <v>2044</v>
       </c>
       <c r="W553" s="65" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="X553" s="65">
         <v>9999999</v>
@@ -46953,7 +46985,7 @@
         <v>2048</v>
       </c>
       <c r="W554" s="65" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="X554" s="65">
         <v>9999999</v>
@@ -47021,7 +47053,7 @@
         <v>2052</v>
       </c>
       <c r="W555" s="65" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="X555" s="65">
         <v>9999999</v>
@@ -47089,7 +47121,7 @@
         <v>2055</v>
       </c>
       <c r="W556" s="65" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="X556" s="65">
         <v>9999999</v>
@@ -47127,13 +47159,13 @@
         <v>1</v>
       </c>
       <c r="G557" s="67" t="s">
-        <v>579</v>
+        <v>2077</v>
       </c>
       <c r="I557" s="67" t="s">
         <v>2057</v>
       </c>
       <c r="J557" s="67" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="L557" s="67">
         <v>-25</v>
@@ -47154,7 +47186,7 @@
         <v>89</v>
       </c>
       <c r="R557" s="72" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="W557" s="67" t="s">
         <v>541</v>
@@ -47193,13 +47225,13 @@
         <v>1</v>
       </c>
       <c r="G558" s="67" t="s">
-        <v>531</v>
+        <v>2078</v>
       </c>
       <c r="I558" s="67" t="s">
         <v>2056</v>
       </c>
       <c r="J558" s="67" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="L558" s="67">
         <v>-25</v>
@@ -47220,7 +47252,7 @@
         <v>89</v>
       </c>
       <c r="R558" s="72" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="W558" s="67" t="s">
         <v>541</v>
@@ -47259,13 +47291,13 @@
         <v>1</v>
       </c>
       <c r="G559" s="67" t="s">
-        <v>278</v>
+        <v>2079</v>
       </c>
       <c r="I559" s="67" t="s">
         <v>2057</v>
       </c>
       <c r="J559" s="67" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="L559" s="67">
         <v>-25</v>
@@ -47286,7 +47318,7 @@
         <v>89</v>
       </c>
       <c r="R559" s="72" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="W559" s="67" t="s">
         <v>541</v>
@@ -47325,13 +47357,13 @@
         <v>1</v>
       </c>
       <c r="G560" s="67" t="s">
-        <v>2058</v>
+        <v>2080</v>
       </c>
       <c r="I560" s="67" t="s">
         <v>2057</v>
       </c>
       <c r="J560" s="67" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="L560" s="67">
         <v>-25</v>
@@ -47352,7 +47384,7 @@
         <v>89</v>
       </c>
       <c r="R560" s="72" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="W560" s="67" t="s">
         <v>541</v>
@@ -47391,13 +47423,13 @@
         <v>1</v>
       </c>
       <c r="G561" s="67" t="s">
-        <v>532</v>
+        <v>2081</v>
       </c>
       <c r="I561" s="67" t="s">
         <v>2056</v>
       </c>
       <c r="J561" s="67" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="L561" s="67">
         <v>-25</v>
@@ -47418,7 +47450,7 @@
         <v>89</v>
       </c>
       <c r="R561" s="72" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="W561" s="67" t="s">
         <v>541</v>
@@ -47457,13 +47489,13 @@
         <v>1</v>
       </c>
       <c r="G562" s="67" t="s">
-        <v>77</v>
+        <v>2082</v>
       </c>
       <c r="I562" s="67" t="s">
         <v>2057</v>
       </c>
       <c r="J562" s="67" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="L562" s="67">
         <v>-25</v>
@@ -47484,7 +47516,7 @@
         <v>89</v>
       </c>
       <c r="R562" s="72" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="W562" s="67" t="s">
         <v>541</v>
@@ -47523,13 +47555,13 @@
         <v>1</v>
       </c>
       <c r="G563" s="67" t="s">
-        <v>579</v>
+        <v>2083</v>
       </c>
       <c r="I563" s="67" t="s">
         <v>2057</v>
       </c>
       <c r="J563" s="67" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="L563" s="67">
         <v>-25</v>
@@ -47550,7 +47582,7 @@
         <v>89</v>
       </c>
       <c r="R563" s="72" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="W563" s="67" t="s">
         <v>541</v>
@@ -47589,13 +47621,13 @@
         <v>1</v>
       </c>
       <c r="G564" s="67" t="s">
-        <v>278</v>
+        <v>2084</v>
       </c>
       <c r="I564" s="67" t="s">
         <v>2056</v>
       </c>
       <c r="J564" s="67" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="L564" s="67">
         <v>-25</v>
@@ -47616,7 +47648,7 @@
         <v>89</v>
       </c>
       <c r="R564" s="72" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="W564" s="67" t="s">
         <v>541</v>
@@ -47655,13 +47687,13 @@
         <v>1</v>
       </c>
       <c r="G565" s="67" t="s">
-        <v>81</v>
+        <v>2085</v>
       </c>
       <c r="I565" s="67" t="s">
         <v>2057</v>
       </c>
       <c r="J565" s="67" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="L565" s="67">
         <v>-25</v>
@@ -47682,7 +47714,7 @@
         <v>89</v>
       </c>
       <c r="R565" s="72" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="W565" s="67" t="s">
         <v>541</v>
@@ -47722,7 +47754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
@@ -48736,7 +48768,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="49" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="C71" s="50">
         <v>1</v>
@@ -48750,7 +48782,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="49" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="C72" s="50">
         <v>1</v>
@@ -48764,7 +48796,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="49" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="C73" s="50">
         <v>1</v>

--- a/config_debug/shoping_config_cjj.xlsx
+++ b/config_debug/shoping_config_cjj.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4578" uniqueCount="2086">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4671" uniqueCount="2123">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8779,6 +8779,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>1元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>5,100,0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8843,6 +8847,167 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>女神礼包-捕鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>女神礼包-捕鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_ty_csbox",</t>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"996万金币","双倍奖励卡*4","史诗宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_ty_ssbox",</t>
+  </si>
+  <si>
+    <t>"488万金币","双倍奖励卡*2","稀有宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_ty_xybox",</t>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>女神礼包-冲金鸡</t>
+  </si>
+  <si>
+    <t>"5000万金币","太阳*10","传说宝箱*15",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_2","prop_ty_csbox",</t>
+  </si>
+  <si>
+    <t>50000000,4,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000,2,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_ty_ssbox",</t>
+  </si>
+  <si>
+    <t>9960000,8,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_ty_xybox",</t>
+  </si>
+  <si>
+    <t>coupon_gift_id|优惠券礼包ID</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城内充值满50抵扣5元</t>
+  </si>
+  <si>
+    <t>"500万金币",</t>
+  </si>
+  <si>
+    <t>"jing_bi","obj_5_coupon",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000,-1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城内充值满98抵扣10元</t>
+  </si>
+  <si>
+    <t>"980万金币",</t>
+  </si>
+  <si>
+    <t>"jing_bi","obj_10_coupon",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,-1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城内充值满198抵扣20元</t>
+  </si>
+  <si>
+    <t>"1980万金币",</t>
+  </si>
+  <si>
+    <t>"jing_bi","obj_20_coupon",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,-1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城内充值满498抵扣50元</t>
+  </si>
+  <si>
+    <t>"4980万金币",</t>
+  </si>
+  <si>
+    <t>"jing_bi","obj_50_coupon",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,-1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城内充值满998抵扣100元</t>
+  </si>
+  <si>
+    <t>"9980万金币",</t>
+  </si>
+  <si>
+    <t>"jing_bi","obj_100_coupon",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>99800000,-1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城内充值满2498抵扣200元</t>
+  </si>
+  <si>
+    <t>"24980万金币",</t>
+  </si>
+  <si>
+    <t>"jing_bi","obj_200_coupon",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>249800000,-1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>{type="permission_class",class_value = "fclb_free_002" }</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8852,42 +9017,6 @@
   </si>
   <si>
     <t>{type="permission_class",class_value = "fclb_v8v12_002" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神商铺--1元--早</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神商铺--18元--早</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神商铺--48元--早</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神商铺--1元--中</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神商铺--28元--中</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神商铺--98元--中</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神商铺--1元--晚</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神商铺--48元--晚</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神商铺--198元--晚</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8959,7 +9088,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9020,24 +9149,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -9081,7 +9192,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9271,35 +9382,14 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -9762,10 +9852,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG24"/>
+  <dimension ref="A1:AH24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9773,33 +9863,33 @@
     <col min="1" max="1" width="8.75" style="2"/>
     <col min="2" max="4" width="19.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="26.125" style="22" customWidth="1"/>
-    <col min="6" max="6" width="19.375" style="44" customWidth="1"/>
-    <col min="7" max="8" width="19.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="40.375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="30.125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="30.375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="30.125" style="41" customWidth="1"/>
-    <col min="14" max="14" width="11.625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="30.125" style="2" customWidth="1"/>
-    <col min="16" max="18" width="14.875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="19.375" style="2" customWidth="1"/>
-    <col min="20" max="20" width="8.75" style="2"/>
-    <col min="21" max="21" width="28.75" style="2" customWidth="1"/>
-    <col min="22" max="22" width="16.875" style="2" customWidth="1"/>
-    <col min="23" max="23" width="24.375" style="2" customWidth="1"/>
-    <col min="24" max="24" width="16.75" style="2" customWidth="1"/>
-    <col min="25" max="25" width="15.625" style="2" customWidth="1"/>
-    <col min="26" max="26" width="30.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13" style="2" customWidth="1"/>
-    <col min="28" max="28" width="19.25" style="2" customWidth="1"/>
-    <col min="29" max="29" width="13" style="2" customWidth="1"/>
-    <col min="30" max="31" width="12.125" style="2" customWidth="1"/>
-    <col min="32" max="33" width="21.375" style="2" customWidth="1"/>
-    <col min="34" max="16384" width="8.75" style="2"/>
+    <col min="6" max="7" width="19.375" style="44" customWidth="1"/>
+    <col min="8" max="9" width="19.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="40.375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="30.125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="30.375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="30.125" style="41" customWidth="1"/>
+    <col min="15" max="15" width="11.625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="30.125" style="2" customWidth="1"/>
+    <col min="17" max="19" width="14.875" style="2" customWidth="1"/>
+    <col min="20" max="20" width="19.375" style="2" customWidth="1"/>
+    <col min="21" max="21" width="8.75" style="2"/>
+    <col min="22" max="22" width="28.75" style="2" customWidth="1"/>
+    <col min="23" max="23" width="16.875" style="2" customWidth="1"/>
+    <col min="24" max="24" width="24.375" style="2" customWidth="1"/>
+    <col min="25" max="25" width="16.75" style="2" customWidth="1"/>
+    <col min="26" max="26" width="15.625" style="2" customWidth="1"/>
+    <col min="27" max="27" width="30.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13" style="2" customWidth="1"/>
+    <col min="29" max="29" width="19.25" style="2" customWidth="1"/>
+    <col min="30" max="30" width="13" style="2" customWidth="1"/>
+    <col min="31" max="32" width="12.125" style="2" customWidth="1"/>
+    <col min="33" max="34" width="21.375" style="2" customWidth="1"/>
+    <col min="35" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="1" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" s="1" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9819,88 +9909,91 @@
         <v>1243</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>2094</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>1106</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="N1" s="37" t="s">
         <v>1223</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -9916,74 +10009,75 @@
       <c r="F2" s="2">
         <v>10330</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2">
         <v>10330</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="2">
         <v>600</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>890</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="N2" s="42" t="s">
         <v>1218</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="2">
-        <v>1</v>
-      </c>
       <c r="P2" s="2">
         <v>1</v>
       </c>
       <c r="Q2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="2">
         <v>0</v>
       </c>
       <c r="S2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2" s="2">
         <v>1</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>47</v>
+      <c r="U2" s="2">
+        <v>1</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="W2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="AD2" s="2">
-        <v>1</v>
-      </c>
       <c r="AE2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AF2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -9999,74 +10093,75 @@
       <c r="F3" s="2">
         <v>85</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2">
         <v>85</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <v>1500</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>891</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="42" t="s">
+      <c r="N3" s="42" t="s">
         <v>1219</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="2">
-        <v>1</v>
-      </c>
       <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
         <v>2</v>
       </c>
-      <c r="Q3" s="2">
-        <v>0</v>
-      </c>
       <c r="R3" s="2">
         <v>0</v>
       </c>
       <c r="S3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" s="2">
+        <v>1</v>
+      </c>
+      <c r="U3" s="2">
         <v>2</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="V3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="W3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AD3" s="2">
-        <v>1</v>
-      </c>
       <c r="AE3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AF3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -10082,74 +10177,75 @@
       <c r="F4" s="2">
         <v>86</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2">
         <v>86</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <v>3000</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>892</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="42" t="s">
+      <c r="N4" s="42" t="s">
         <v>1219</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="2">
-        <v>1</v>
-      </c>
       <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
         <v>3</v>
       </c>
-      <c r="Q4" s="2">
-        <v>0</v>
-      </c>
       <c r="R4" s="2">
         <v>0</v>
       </c>
       <c r="S4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" s="2">
+        <v>1</v>
+      </c>
+      <c r="U4" s="2">
         <v>3</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="V4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="W4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="Y4" s="2" t="s">
+      <c r="Z4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="AA4" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AB4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AD4" s="2">
-        <v>1</v>
-      </c>
       <c r="AE4" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AF4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -10166,73 +10262,76 @@
         <v>87</v>
       </c>
       <c r="G5" s="2">
+        <v>10490</v>
+      </c>
+      <c r="H5" s="2">
         <v>87</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <v>5000</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>893</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="41" t="s">
+      <c r="N5" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="2">
-        <v>1</v>
-      </c>
       <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
         <v>4</v>
       </c>
-      <c r="Q5" s="2">
-        <v>0</v>
-      </c>
       <c r="R5" s="2">
         <v>0</v>
       </c>
       <c r="S5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" s="2">
+        <v>1</v>
+      </c>
+      <c r="U5" s="2">
         <v>4</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="V5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="X5" s="2" t="s">
+      <c r="W5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="Y5" s="2" t="s">
+      <c r="Z5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Z5" s="2" t="s">
+      <c r="AA5" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="AA5" s="2" t="s">
+      <c r="AB5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AD5" s="2">
-        <v>1</v>
-      </c>
       <c r="AE5" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AF5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -10249,73 +10348,76 @@
         <v>88</v>
       </c>
       <c r="G6" s="2">
+        <v>10491</v>
+      </c>
+      <c r="H6" s="2">
         <v>88</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <v>9800</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>894</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M6" s="41" t="s">
+      <c r="N6" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="2">
-        <v>1</v>
-      </c>
       <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
         <v>5</v>
       </c>
-      <c r="Q6" s="2">
-        <v>0</v>
-      </c>
       <c r="R6" s="2">
         <v>0</v>
       </c>
       <c r="S6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" s="2">
+        <v>1</v>
+      </c>
+      <c r="U6" s="2">
         <v>5</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="V6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="X6" s="2" t="s">
+      <c r="W6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="Y6" s="2" t="s">
+      <c r="Z6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="Z6" s="2" t="s">
+      <c r="AA6" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="AA6" s="2" t="s">
+      <c r="AB6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AD6" s="2">
-        <v>1</v>
-      </c>
       <c r="AE6" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AF6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -10332,73 +10434,76 @@
         <v>89</v>
       </c>
       <c r="G7" s="2">
+        <v>10493</v>
+      </c>
+      <c r="H7" s="2">
         <v>89</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>49800</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>895</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="41" t="s">
+      <c r="N7" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="2">
-        <v>1</v>
-      </c>
       <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
         <v>7</v>
       </c>
-      <c r="Q7" s="2">
-        <v>0</v>
-      </c>
       <c r="R7" s="2">
         <v>0</v>
       </c>
       <c r="S7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" s="2">
+        <v>1</v>
+      </c>
+      <c r="U7" s="2">
         <v>7</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="V7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="X7" s="2" t="s">
+      <c r="W7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="Y7" s="2" t="s">
+      <c r="Z7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="Z7" s="2" t="s">
+      <c r="AA7" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="AA7" s="2" t="s">
+      <c r="AB7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AD7" s="2">
-        <v>1</v>
-      </c>
       <c r="AE7" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AF7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -10414,39 +10519,37 @@
       <c r="F8" s="2">
         <v>109</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2">
         <v>109</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="2">
         <v>100000</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>896</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M8" s="41" t="s">
+      <c r="N8" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O8" s="2">
-        <v>1</v>
-      </c>
       <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
         <v>9</v>
       </c>
-      <c r="Q8" s="2">
-        <v>0</v>
-      </c>
       <c r="R8" s="2">
         <v>0</v>
       </c>
@@ -10454,34 +10557,37 @@
         <v>0</v>
       </c>
       <c r="T8" s="2">
+        <v>0</v>
+      </c>
+      <c r="U8" s="2">
         <v>8</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="V8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="X8" s="2" t="s">
+      <c r="W8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="Y8" s="2" t="s">
+      <c r="Z8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="Z8" s="2" t="s">
+      <c r="AA8" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="AA8" s="2" t="s">
+      <c r="AB8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AD8" s="2">
-        <v>1</v>
-      </c>
       <c r="AE8" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AF8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -10498,73 +10604,76 @@
         <v>10044</v>
       </c>
       <c r="G9" s="2">
+        <v>10494</v>
+      </c>
+      <c r="H9" s="2">
         <v>10044</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J9" s="2">
         <v>99800</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>897</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M9" s="41" t="s">
+      <c r="N9" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="O9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O9" s="2">
-        <v>1</v>
-      </c>
       <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
         <v>8</v>
       </c>
-      <c r="Q9" s="2">
-        <v>0</v>
-      </c>
       <c r="R9" s="2">
         <v>0</v>
       </c>
       <c r="S9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" s="2">
+        <v>1</v>
+      </c>
+      <c r="U9" s="2">
         <v>9</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="V9" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="X9" s="2" t="s">
+      <c r="W9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="Y9" s="2" t="s">
+      <c r="Z9" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="Z9" s="2" t="s">
+      <c r="AA9" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="AA9" s="2" t="s">
+      <c r="AB9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AD9" s="2">
-        <v>1</v>
-      </c>
       <c r="AE9" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -10582,73 +10691,76 @@
         <v>10045</v>
       </c>
       <c r="G10" s="11">
+        <v>10495</v>
+      </c>
+      <c r="H10" s="11">
         <v>10045</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="I10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="11">
+      <c r="J10" s="11">
         <v>249800</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="K10" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K10" s="33" t="s">
+      <c r="L10" s="33" t="s">
         <v>898</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="M10" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="M10" s="42" t="s">
+      <c r="N10" s="42" t="s">
         <v>1220</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="O10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="O10" s="11">
-        <v>1</v>
-      </c>
       <c r="P10" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="11">
         <v>10</v>
       </c>
-      <c r="Q10" s="11">
-        <v>0</v>
-      </c>
       <c r="R10" s="11">
         <v>0</v>
       </c>
       <c r="S10" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" s="11">
+        <v>1</v>
+      </c>
+      <c r="U10" s="11">
         <v>10</v>
-      </c>
-      <c r="U10" s="11" t="s">
-        <v>65</v>
       </c>
       <c r="V10" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="X10" s="11" t="s">
+      <c r="W10" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y10" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="Y10" s="11" t="s">
+      <c r="Z10" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="Z10" s="11" t="s">
+      <c r="AA10" s="11" t="s">
         <v>654</v>
       </c>
-      <c r="AA10" s="11" t="s">
+      <c r="AB10" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AD10" s="11">
-        <v>1</v>
-      </c>
       <c r="AE10" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF10" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -10667,74 +10779,74 @@
       <c r="F11" s="11">
         <v>90</v>
       </c>
-      <c r="G11" s="11">
+      <c r="H11" s="11">
         <v>90</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="I11" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="11">
+      <c r="J11" s="11">
         <v>600</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="K11" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="33" t="s">
+      <c r="L11" s="33" t="s">
         <v>899</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="M11" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="M11" s="41" t="s">
+      <c r="N11" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="N11" s="11" t="s">
+      <c r="O11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="O11" s="11">
-        <v>1</v>
-      </c>
       <c r="P11" s="11">
         <v>1</v>
       </c>
       <c r="Q11" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="11">
         <v>0</v>
       </c>
       <c r="S11" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" s="11">
         <v>1</v>
       </c>
-      <c r="U11" s="11" t="s">
+      <c r="U11" s="11">
+        <v>1</v>
+      </c>
+      <c r="V11" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="V11" s="11">
+      <c r="W11" s="11">
         <v>400</v>
       </c>
-      <c r="X11" s="11" t="s">
+      <c r="Y11" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="Y11" s="11" t="s">
+      <c r="Z11" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="Z11" s="33" t="s">
+      <c r="AA11" s="33" t="s">
         <v>647</v>
       </c>
-      <c r="AA11" s="11" t="s">
+      <c r="AB11" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AD11" s="11">
-        <v>1</v>
-      </c>
       <c r="AE11" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF11" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -10750,71 +10862,71 @@
       <c r="E12" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="I12" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="I12" s="11">
+      <c r="J12" s="11">
         <v>3000</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="K12" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K12" s="33" t="s">
+      <c r="L12" s="33" t="s">
         <v>900</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="M12" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="M12" s="41" t="s">
+      <c r="N12" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="N12" s="11" t="s">
+      <c r="O12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="O12" s="11">
-        <v>1</v>
-      </c>
       <c r="P12" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="11">
         <v>2</v>
       </c>
-      <c r="Q12" s="11">
-        <v>0</v>
-      </c>
       <c r="R12" s="11">
         <v>0</v>
       </c>
       <c r="S12" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" s="11">
+        <v>1</v>
+      </c>
+      <c r="U12" s="11">
         <v>2</v>
       </c>
-      <c r="U12" s="11" t="s">
+      <c r="V12" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="V12" s="11">
+      <c r="W12" s="11">
         <v>2000</v>
       </c>
-      <c r="X12" s="11" t="s">
+      <c r="Y12" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="Y12" s="11" t="s">
+      <c r="Z12" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="Z12" s="11" t="s">
+      <c r="AA12" s="11" t="s">
         <v>649</v>
       </c>
-      <c r="AA12" s="11" t="s">
+      <c r="AB12" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AD12" s="11">
-        <v>1</v>
-      </c>
       <c r="AE12" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF12" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -10830,71 +10942,71 @@
       <c r="E13" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="I13" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="11">
+      <c r="J13" s="11">
         <v>9800</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="K13" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K13" s="33" t="s">
+      <c r="L13" s="33" t="s">
         <v>901</v>
       </c>
-      <c r="L13" s="11" t="s">
+      <c r="M13" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="M13" s="41" t="s">
+      <c r="N13" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="N13" s="11" t="s">
+      <c r="O13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="O13" s="11">
-        <v>1</v>
-      </c>
       <c r="P13" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="11">
         <v>3</v>
       </c>
-      <c r="Q13" s="11">
-        <v>0</v>
-      </c>
       <c r="R13" s="11">
         <v>0</v>
       </c>
       <c r="S13" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" s="11">
+        <v>1</v>
+      </c>
+      <c r="U13" s="11">
         <v>3</v>
       </c>
-      <c r="U13" s="11" t="s">
+      <c r="V13" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="V13" s="11">
+      <c r="W13" s="11">
         <v>6700</v>
       </c>
-      <c r="X13" s="11" t="s">
+      <c r="Y13" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="Y13" s="11" t="s">
+      <c r="Z13" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="Z13" s="11" t="s">
+      <c r="AA13" s="11" t="s">
         <v>651</v>
       </c>
-      <c r="AA13" s="11" t="s">
+      <c r="AB13" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AD13" s="11">
-        <v>1</v>
-      </c>
       <c r="AE13" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF13" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -10910,71 +11022,71 @@
       <c r="E14" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="I14" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="11">
+      <c r="J14" s="11">
         <v>19800</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="K14" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K14" s="33" t="s">
+      <c r="L14" s="33" t="s">
         <v>902</v>
       </c>
-      <c r="L14" s="11" t="s">
+      <c r="M14" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="M14" s="42" t="s">
+      <c r="N14" s="42" t="s">
         <v>1220</v>
       </c>
-      <c r="N14" s="11" t="s">
+      <c r="O14" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="O14" s="11">
-        <v>1</v>
-      </c>
       <c r="P14" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="11">
         <v>4</v>
       </c>
-      <c r="Q14" s="11">
-        <v>0</v>
-      </c>
       <c r="R14" s="11">
         <v>0</v>
       </c>
       <c r="S14" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" s="11">
+        <v>1</v>
+      </c>
+      <c r="U14" s="11">
         <v>4</v>
       </c>
-      <c r="U14" s="11" t="s">
+      <c r="V14" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="V14" s="11" t="s">
+      <c r="W14" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="X14" s="11" t="s">
+      <c r="Y14" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="Y14" s="11" t="s">
+      <c r="Z14" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="Z14" s="11" t="s">
+      <c r="AA14" s="11" t="s">
         <v>655</v>
       </c>
-      <c r="AA14" s="11" t="s">
+      <c r="AB14" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AD14" s="11">
-        <v>1</v>
-      </c>
       <c r="AE14" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF14" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -10990,71 +11102,71 @@
       <c r="E15" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="I15" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="11">
+      <c r="J15" s="11">
         <v>29800</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="K15" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K15" s="33" t="s">
+      <c r="L15" s="33" t="s">
         <v>903</v>
       </c>
-      <c r="L15" s="11" t="s">
+      <c r="M15" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="M15" s="41" t="s">
+      <c r="N15" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="N15" s="11" t="s">
+      <c r="O15" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="O15" s="11">
-        <v>1</v>
-      </c>
       <c r="P15" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="11">
         <v>5</v>
       </c>
-      <c r="Q15" s="11">
-        <v>0</v>
-      </c>
       <c r="R15" s="11">
         <v>0</v>
       </c>
       <c r="S15" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" s="11">
+        <v>1</v>
+      </c>
+      <c r="U15" s="11">
         <v>5</v>
       </c>
-      <c r="U15" s="11" t="s">
+      <c r="V15" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="V15" s="11" t="s">
+      <c r="W15" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="X15" s="11" t="s">
+      <c r="Y15" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="Y15" s="11" t="s">
+      <c r="Z15" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="Z15" s="11" t="s">
+      <c r="AA15" s="11" t="s">
         <v>655</v>
       </c>
-      <c r="AA15" s="11" t="s">
+      <c r="AB15" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AD15" s="11">
-        <v>1</v>
-      </c>
       <c r="AE15" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF15" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -11070,36 +11182,33 @@
       <c r="E16" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="I16" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="I16" s="11">
+      <c r="J16" s="11">
         <v>100</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="K16" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K16" s="33" t="s">
+      <c r="L16" s="33" t="s">
         <v>904</v>
       </c>
-      <c r="L16" s="11" t="s">
+      <c r="M16" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="M16" s="42" t="s">
+      <c r="N16" s="42" t="s">
         <v>1221</v>
       </c>
-      <c r="N16" s="11" t="s">
+      <c r="O16" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="O16" s="11">
-        <v>1</v>
-      </c>
       <c r="P16" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="11">
         <v>11</v>
       </c>
-      <c r="Q16" s="11">
-        <v>0</v>
-      </c>
       <c r="R16" s="11">
         <v>0</v>
       </c>
@@ -11109,32 +11218,35 @@
       <c r="T16" s="11">
         <v>0</v>
       </c>
-      <c r="U16" s="11" t="s">
+      <c r="U16" s="11">
+        <v>0</v>
+      </c>
+      <c r="V16" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="V16" s="11">
+      <c r="W16" s="11">
         <v>100</v>
       </c>
-      <c r="X16" s="11" t="s">
+      <c r="Y16" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="Y16" s="11" t="s">
+      <c r="Z16" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="Z16" s="33" t="s">
+      <c r="AA16" s="33" t="s">
         <v>647</v>
       </c>
-      <c r="AA16" s="11" t="s">
+      <c r="AB16" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AD16" s="11">
-        <v>1</v>
-      </c>
       <c r="AE16" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF16" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -11142,30 +11254,27 @@
         <v>22</v>
       </c>
       <c r="E17" s="22"/>
-      <c r="H17" s="11" t="s">
+      <c r="I17" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="I17" s="11">
+      <c r="J17" s="11">
         <v>600</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="K17" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="K17" s="33" t="s">
+      <c r="L17" s="33" t="s">
         <v>679</v>
       </c>
-      <c r="L17" s="11" t="s">
+      <c r="M17" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="M17" s="41" t="s">
+      <c r="N17" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="N17" s="11" t="s">
+      <c r="O17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O17" s="11">
-        <v>1</v>
-      </c>
       <c r="P17" s="11">
         <v>1</v>
       </c>
@@ -11176,37 +11285,40 @@
         <v>1</v>
       </c>
       <c r="S17" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" s="11">
-        <v>1</v>
-      </c>
-      <c r="U17" s="11" t="s">
-        <v>875</v>
+        <v>0</v>
+      </c>
+      <c r="U17" s="11">
+        <v>1</v>
       </c>
       <c r="V17" s="11" t="s">
         <v>875</v>
       </c>
-      <c r="X17" s="11" t="s">
+      <c r="W17" s="11" t="s">
+        <v>875</v>
+      </c>
+      <c r="Y17" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="Y17" s="11" t="s">
+      <c r="Z17" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="Z17" s="33" t="s">
+      <c r="AA17" s="33" t="s">
         <v>647</v>
       </c>
-      <c r="AA17" s="11" t="s">
+      <c r="AB17" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AD17" s="11">
-        <v>1</v>
-      </c>
       <c r="AE17" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF17" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -11214,36 +11326,33 @@
         <v>23</v>
       </c>
       <c r="E18" s="22"/>
-      <c r="H18" s="11" t="s">
+      <c r="I18" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="I18" s="11">
+      <c r="J18" s="11">
         <v>1500</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="K18" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="K18" s="33" t="s">
+      <c r="L18" s="33" t="s">
         <v>680</v>
       </c>
-      <c r="L18" s="11" t="s">
+      <c r="M18" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="M18" s="41" t="s">
+      <c r="N18" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="N18" s="11" t="s">
+      <c r="O18" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O18" s="11">
-        <v>1</v>
-      </c>
       <c r="P18" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="11">
         <v>2</v>
       </c>
-      <c r="Q18" s="11">
-        <v>0</v>
-      </c>
       <c r="R18" s="11">
         <v>0</v>
       </c>
@@ -11251,34 +11360,37 @@
         <v>0</v>
       </c>
       <c r="T18" s="11">
+        <v>0</v>
+      </c>
+      <c r="U18" s="11">
         <v>2</v>
-      </c>
-      <c r="U18" s="11" t="s">
-        <v>876</v>
       </c>
       <c r="V18" s="11" t="s">
         <v>876</v>
       </c>
-      <c r="X18" s="11" t="s">
+      <c r="W18" s="11" t="s">
+        <v>876</v>
+      </c>
+      <c r="Y18" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="Y18" s="11" t="s">
+      <c r="Z18" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="Z18" s="11" t="s">
+      <c r="AA18" s="11" t="s">
         <v>648</v>
       </c>
-      <c r="AA18" s="11" t="s">
+      <c r="AB18" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AD18" s="11">
-        <v>1</v>
-      </c>
       <c r="AE18" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF18" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -11286,71 +11398,71 @@
         <v>24</v>
       </c>
       <c r="E19" s="22"/>
-      <c r="H19" s="11" t="s">
+      <c r="I19" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="I19" s="11">
+      <c r="J19" s="11">
         <v>3000</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="K19" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="K19" s="33" t="s">
+      <c r="L19" s="33" t="s">
         <v>681</v>
       </c>
-      <c r="L19" s="11" t="s">
+      <c r="M19" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="M19" s="42" t="s">
+      <c r="N19" s="42" t="s">
         <v>1220</v>
       </c>
-      <c r="N19" s="11" t="s">
+      <c r="O19" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O19" s="11">
-        <v>1</v>
-      </c>
       <c r="P19" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="11">
         <v>3</v>
       </c>
-      <c r="Q19" s="11">
-        <v>1</v>
-      </c>
       <c r="R19" s="11">
         <v>1</v>
       </c>
       <c r="S19" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" s="11">
+        <v>0</v>
+      </c>
+      <c r="U19" s="11">
         <v>3</v>
-      </c>
-      <c r="U19" s="11" t="s">
-        <v>877</v>
       </c>
       <c r="V19" s="11" t="s">
         <v>877</v>
       </c>
-      <c r="X19" s="11" t="s">
+      <c r="W19" s="11" t="s">
+        <v>877</v>
+      </c>
+      <c r="Y19" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="Y19" s="11" t="s">
+      <c r="Z19" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="Z19" s="11" t="s">
+      <c r="AA19" s="11" t="s">
         <v>649</v>
       </c>
-      <c r="AA19" s="11" t="s">
+      <c r="AB19" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AD19" s="11">
-        <v>1</v>
-      </c>
       <c r="AE19" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF19" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -11358,71 +11470,71 @@
         <v>25</v>
       </c>
       <c r="E20" s="22"/>
-      <c r="H20" s="11" t="s">
+      <c r="I20" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="I20" s="11">
+      <c r="J20" s="11">
         <v>5000</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="K20" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="K20" s="33" t="s">
+      <c r="L20" s="33" t="s">
         <v>682</v>
       </c>
-      <c r="L20" s="11" t="s">
+      <c r="M20" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="M20" s="41" t="s">
+      <c r="N20" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="N20" s="11" t="s">
+      <c r="O20" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O20" s="11">
-        <v>1</v>
-      </c>
       <c r="P20" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="11">
         <v>4</v>
       </c>
-      <c r="Q20" s="11">
-        <v>1</v>
-      </c>
       <c r="R20" s="11">
         <v>1</v>
       </c>
       <c r="S20" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" s="11">
+        <v>0</v>
+      </c>
+      <c r="U20" s="11">
         <v>4</v>
-      </c>
-      <c r="U20" s="11" t="s">
-        <v>878</v>
       </c>
       <c r="V20" s="11" t="s">
         <v>878</v>
       </c>
-      <c r="X20" s="11" t="s">
+      <c r="W20" s="11" t="s">
+        <v>878</v>
+      </c>
+      <c r="Y20" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="Y20" s="11" t="s">
+      <c r="Z20" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="Z20" s="11" t="s">
+      <c r="AA20" s="11" t="s">
         <v>650</v>
       </c>
-      <c r="AA20" s="11" t="s">
+      <c r="AB20" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AD20" s="11">
-        <v>1</v>
-      </c>
       <c r="AE20" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF20" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -11430,71 +11542,71 @@
         <v>26</v>
       </c>
       <c r="E21" s="22"/>
-      <c r="H21" s="11" t="s">
+      <c r="I21" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="11">
+      <c r="J21" s="11">
         <v>9800</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="K21" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="K21" s="33" t="s">
+      <c r="L21" s="33" t="s">
         <v>683</v>
       </c>
-      <c r="L21" s="11" t="s">
+      <c r="M21" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="M21" s="42" t="s">
+      <c r="N21" s="42" t="s">
         <v>1222</v>
       </c>
-      <c r="N21" s="11" t="s">
+      <c r="O21" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O21" s="11">
-        <v>1</v>
-      </c>
       <c r="P21" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="11">
         <v>5</v>
       </c>
-      <c r="Q21" s="11">
-        <v>1</v>
-      </c>
       <c r="R21" s="11">
         <v>1</v>
       </c>
       <c r="S21" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" s="11">
+        <v>0</v>
+      </c>
+      <c r="U21" s="11">
         <v>5</v>
-      </c>
-      <c r="U21" s="11" t="s">
-        <v>879</v>
       </c>
       <c r="V21" s="11" t="s">
         <v>879</v>
       </c>
-      <c r="X21" s="11" t="s">
+      <c r="W21" s="11" t="s">
+        <v>879</v>
+      </c>
+      <c r="Y21" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="Y21" s="11" t="s">
+      <c r="Z21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z21" s="11" t="s">
+      <c r="AA21" s="11" t="s">
         <v>651</v>
       </c>
-      <c r="AA21" s="11" t="s">
+      <c r="AB21" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AD21" s="11">
-        <v>1</v>
-      </c>
       <c r="AE21" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF21" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -11502,71 +11614,71 @@
         <v>27</v>
       </c>
       <c r="E22" s="22"/>
-      <c r="H22" s="11" t="s">
+      <c r="I22" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="11">
+      <c r="J22" s="11">
         <v>49800</v>
       </c>
-      <c r="J22" s="11" t="s">
+      <c r="K22" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="K22" s="33" t="s">
+      <c r="L22" s="33" t="s">
         <v>684</v>
       </c>
-      <c r="L22" s="11" t="s">
+      <c r="M22" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="M22" s="41" t="s">
+      <c r="N22" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="N22" s="11" t="s">
+      <c r="O22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O22" s="11">
-        <v>1</v>
-      </c>
       <c r="P22" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="11">
         <v>6</v>
       </c>
-      <c r="Q22" s="11">
-        <v>1</v>
-      </c>
       <c r="R22" s="11">
         <v>1</v>
       </c>
       <c r="S22" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" s="11">
+        <v>0</v>
+      </c>
+      <c r="U22" s="11">
         <v>6</v>
-      </c>
-      <c r="U22" s="11" t="s">
-        <v>880</v>
       </c>
       <c r="V22" s="11" t="s">
         <v>880</v>
       </c>
-      <c r="X22" s="11" t="s">
+      <c r="W22" s="11" t="s">
+        <v>880</v>
+      </c>
+      <c r="Y22" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="Y22" s="11" t="s">
+      <c r="Z22" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="Z22" s="11" t="s">
+      <c r="AA22" s="11" t="s">
         <v>652</v>
       </c>
-      <c r="AA22" s="11" t="s">
+      <c r="AB22" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AD22" s="11">
-        <v>1</v>
-      </c>
       <c r="AE22" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF22" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -11574,36 +11686,33 @@
         <v>34</v>
       </c>
       <c r="E23" s="22"/>
-      <c r="H23" s="11" t="s">
+      <c r="I23" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="I23" s="11">
+      <c r="J23" s="11">
         <v>100000</v>
       </c>
-      <c r="J23" s="11" t="s">
+      <c r="K23" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="K23" s="33" t="s">
+      <c r="L23" s="33" t="s">
         <v>685</v>
       </c>
-      <c r="L23" s="11" t="s">
+      <c r="M23" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="M23" s="42" t="s">
+      <c r="N23" s="42" t="s">
         <v>1220</v>
       </c>
-      <c r="N23" s="11" t="s">
+      <c r="O23" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O23" s="11">
-        <v>1</v>
-      </c>
       <c r="P23" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="11">
         <v>7</v>
       </c>
-      <c r="Q23" s="11">
-        <v>0</v>
-      </c>
       <c r="R23" s="11">
         <v>0</v>
       </c>
@@ -11611,34 +11720,37 @@
         <v>0</v>
       </c>
       <c r="T23" s="11">
+        <v>0</v>
+      </c>
+      <c r="U23" s="11">
         <v>7</v>
-      </c>
-      <c r="U23" s="11" t="s">
-        <v>881</v>
       </c>
       <c r="V23" s="11" t="s">
         <v>881</v>
       </c>
-      <c r="X23" s="11" t="s">
+      <c r="W23" s="11" t="s">
+        <v>881</v>
+      </c>
+      <c r="Y23" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="Y23" s="11" t="s">
+      <c r="Z23" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="Z23" s="11" t="s">
+      <c r="AA23" s="11" t="s">
         <v>653</v>
       </c>
-      <c r="AA23" s="11" t="s">
+      <c r="AB23" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AD23" s="11">
-        <v>1</v>
-      </c>
       <c r="AE23" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF23" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -11656,69 +11768,72 @@
         <v>10189</v>
       </c>
       <c r="G24" s="11">
+        <v>10492</v>
+      </c>
+      <c r="H24" s="11">
         <v>10189</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="I24" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="I24" s="11">
+      <c r="J24" s="11">
         <v>19800</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="K24" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K24" s="33" t="s">
+      <c r="L24" s="33" t="s">
         <v>968</v>
       </c>
-      <c r="L24" s="11" t="s">
+      <c r="M24" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="M24" s="42" t="s">
+      <c r="N24" s="42" t="s">
         <v>1220</v>
       </c>
-      <c r="N24" s="11" t="s">
+      <c r="O24" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="O24" s="11">
-        <v>1</v>
-      </c>
       <c r="P24" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="11">
         <v>6</v>
       </c>
-      <c r="Q24" s="11">
-        <v>0</v>
-      </c>
       <c r="R24" s="11">
         <v>0</v>
       </c>
       <c r="S24" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24" s="11">
+        <v>1</v>
+      </c>
+      <c r="U24" s="11">
         <v>6</v>
       </c>
-      <c r="U24" s="33" t="s">
+      <c r="V24" s="33" t="s">
         <v>535</v>
       </c>
-      <c r="V24" s="33" t="s">
+      <c r="W24" s="33" t="s">
         <v>536</v>
       </c>
-      <c r="X24" s="11" t="s">
+      <c r="Y24" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="Y24" s="33" t="s">
+      <c r="Z24" s="33" t="s">
         <v>534</v>
       </c>
-      <c r="Z24" s="11" t="s">
+      <c r="AA24" s="11" t="s">
         <v>655</v>
       </c>
-      <c r="AA24" s="11" t="s">
+      <c r="AB24" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AD24" s="11">
-        <v>1</v>
-      </c>
       <c r="AE24" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="11">
         <v>1</v>
       </c>
     </row>
@@ -11732,13 +11847,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN565"/>
+  <dimension ref="A1:AN579"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="Q546" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="Q524" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G570" sqref="G570"/>
+      <selection pane="bottomRight" activeCell="G530" sqref="G530"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -44721,819 +44836,819 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A521" s="67">
+    <row r="521" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A521" s="5">
         <v>520</v>
       </c>
-      <c r="B521" s="67">
+      <c r="B521" s="5">
         <v>10437</v>
       </c>
-      <c r="F521" s="67">
-        <v>1</v>
-      </c>
-      <c r="G521" s="67" t="s">
+      <c r="F521" s="5">
+        <v>0</v>
+      </c>
+      <c r="G521" s="5" t="s">
         <v>1919</v>
       </c>
-      <c r="I521" s="67" t="s">
+      <c r="I521" s="5" t="s">
         <v>1920</v>
       </c>
-      <c r="J521" s="67" t="s">
+      <c r="J521" s="5" t="s">
         <v>1921</v>
       </c>
-      <c r="L521" s="67">
+      <c r="L521" s="5">
         <v>-33</v>
       </c>
-      <c r="M521" s="67">
-        <v>0</v>
-      </c>
-      <c r="N521" s="67">
-        <v>0</v>
-      </c>
-      <c r="O521" s="67" t="s">
+      <c r="M521" s="5">
+        <v>0</v>
+      </c>
+      <c r="N521" s="5">
+        <v>0</v>
+      </c>
+      <c r="O521" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="P521" s="67">
+      <c r="P521" s="5">
         <v>600</v>
       </c>
-      <c r="Q521" s="67" t="s">
+      <c r="Q521" s="5" t="s">
         <v>1922</v>
       </c>
-      <c r="R521" s="68" t="s">
+      <c r="R521" s="10" t="s">
         <v>2002</v>
       </c>
-      <c r="W521" s="67" t="s">
+      <c r="W521" s="5" t="s">
         <v>1923</v>
       </c>
-      <c r="X521" s="67">
+      <c r="X521" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y521" s="67">
+      <c r="Y521" s="5">
         <v>1613433600</v>
       </c>
-      <c r="Z521" s="67">
+      <c r="Z521" s="5">
         <v>1614009599</v>
       </c>
-      <c r="AA521" s="67">
+      <c r="AA521" s="5">
         <v>70</v>
       </c>
-      <c r="AH521" s="67">
-        <v>1</v>
-      </c>
-      <c r="AI521" s="67">
-        <v>1</v>
-      </c>
-      <c r="AL521" s="67">
-        <v>1</v>
-      </c>
-      <c r="AM521" s="67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="522" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A522" s="67">
+      <c r="AH521" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI521" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL521" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM521" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A522" s="5">
         <v>521</v>
       </c>
-      <c r="B522" s="67">
+      <c r="B522" s="5">
         <v>10438</v>
       </c>
-      <c r="F522" s="67">
-        <v>1</v>
-      </c>
-      <c r="G522" s="67" t="s">
+      <c r="F522" s="5">
+        <v>0</v>
+      </c>
+      <c r="G522" s="5" t="s">
         <v>1924</v>
       </c>
-      <c r="I522" s="67" t="s">
+      <c r="I522" s="5" t="s">
         <v>1920</v>
       </c>
-      <c r="J522" s="67" t="s">
+      <c r="J522" s="5" t="s">
         <v>1925</v>
       </c>
-      <c r="L522" s="67">
+      <c r="L522" s="5">
         <v>-33</v>
       </c>
-      <c r="M522" s="67">
-        <v>0</v>
-      </c>
-      <c r="N522" s="67">
-        <v>0</v>
-      </c>
-      <c r="O522" s="67" t="s">
+      <c r="M522" s="5">
+        <v>0</v>
+      </c>
+      <c r="N522" s="5">
+        <v>0</v>
+      </c>
+      <c r="O522" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="P522" s="67">
+      <c r="P522" s="5">
         <v>1000</v>
       </c>
-      <c r="Q522" s="67" t="s">
+      <c r="Q522" s="5" t="s">
         <v>1927</v>
       </c>
-      <c r="R522" s="68" t="s">
+      <c r="R522" s="10" t="s">
         <v>1928</v>
       </c>
-      <c r="W522" s="67" t="s">
+      <c r="W522" s="5" t="s">
         <v>1063</v>
       </c>
-      <c r="X522" s="67">
+      <c r="X522" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y522" s="67">
+      <c r="Y522" s="5">
         <v>1613433600</v>
       </c>
-      <c r="Z522" s="67">
+      <c r="Z522" s="5">
         <v>1614009599</v>
       </c>
-      <c r="AA522" s="67">
+      <c r="AA522" s="5">
         <v>70</v>
       </c>
-      <c r="AH522" s="67">
-        <v>1</v>
-      </c>
-      <c r="AI522" s="67">
-        <v>1</v>
-      </c>
-      <c r="AL522" s="67">
-        <v>1</v>
-      </c>
-      <c r="AM522" s="67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="523" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A523" s="67">
+      <c r="AH522" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI522" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL522" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM522" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A523" s="5">
         <v>522</v>
       </c>
-      <c r="B523" s="67">
+      <c r="B523" s="5">
         <v>10439</v>
       </c>
-      <c r="F523" s="67">
-        <v>1</v>
-      </c>
-      <c r="G523" s="67" t="s">
+      <c r="F523" s="5">
+        <v>0</v>
+      </c>
+      <c r="G523" s="5" t="s">
         <v>1929</v>
       </c>
-      <c r="I523" s="67" t="s">
+      <c r="I523" s="5" t="s">
         <v>1920</v>
       </c>
-      <c r="J523" s="67" t="s">
+      <c r="J523" s="5" t="s">
         <v>1930</v>
       </c>
-      <c r="L523" s="67">
+      <c r="L523" s="5">
         <v>-33</v>
       </c>
-      <c r="M523" s="67">
-        <v>0</v>
-      </c>
-      <c r="N523" s="67">
-        <v>0</v>
-      </c>
-      <c r="O523" s="67" t="s">
+      <c r="M523" s="5">
+        <v>0</v>
+      </c>
+      <c r="N523" s="5">
+        <v>0</v>
+      </c>
+      <c r="O523" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="P523" s="67">
+      <c r="P523" s="5">
         <v>1800</v>
       </c>
-      <c r="Q523" s="67" t="s">
+      <c r="Q523" s="5" t="s">
         <v>1931</v>
       </c>
-      <c r="R523" s="68" t="s">
+      <c r="R523" s="10" t="s">
         <v>1933</v>
       </c>
-      <c r="W523" s="67" t="s">
+      <c r="W523" s="5" t="s">
         <v>1063</v>
       </c>
-      <c r="X523" s="67">
+      <c r="X523" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y523" s="67">
+      <c r="Y523" s="5">
         <v>1613433600</v>
       </c>
-      <c r="Z523" s="67">
+      <c r="Z523" s="5">
         <v>1614009599</v>
       </c>
-      <c r="AA523" s="67">
+      <c r="AA523" s="5">
         <v>70</v>
       </c>
-      <c r="AH523" s="67">
-        <v>1</v>
-      </c>
-      <c r="AI523" s="67">
-        <v>1</v>
-      </c>
-      <c r="AL523" s="67">
-        <v>1</v>
-      </c>
-      <c r="AM523" s="67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="524" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A524" s="67">
+      <c r="AH523" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI523" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL523" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM523" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A524" s="5">
         <v>523</v>
       </c>
-      <c r="B524" s="67">
+      <c r="B524" s="5">
         <v>10440</v>
       </c>
-      <c r="F524" s="67">
-        <v>1</v>
-      </c>
-      <c r="G524" s="67" t="s">
+      <c r="F524" s="5">
+        <v>0</v>
+      </c>
+      <c r="G524" s="5" t="s">
         <v>1934</v>
       </c>
-      <c r="I524" s="67" t="s">
+      <c r="I524" s="5" t="s">
         <v>1920</v>
       </c>
-      <c r="J524" s="67" t="s">
+      <c r="J524" s="5" t="s">
         <v>1935</v>
       </c>
-      <c r="L524" s="67">
+      <c r="L524" s="5">
         <v>-33</v>
       </c>
-      <c r="M524" s="67">
-        <v>0</v>
-      </c>
-      <c r="N524" s="67">
-        <v>0</v>
-      </c>
-      <c r="O524" s="67" t="s">
+      <c r="M524" s="5">
+        <v>0</v>
+      </c>
+      <c r="N524" s="5">
+        <v>0</v>
+      </c>
+      <c r="O524" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="P524" s="67">
+      <c r="P524" s="5">
         <v>4800</v>
       </c>
-      <c r="Q524" s="67" t="s">
+      <c r="Q524" s="5" t="s">
         <v>1937</v>
       </c>
-      <c r="R524" s="68" t="s">
+      <c r="R524" s="10" t="s">
         <v>1938</v>
       </c>
-      <c r="W524" s="67" t="s">
+      <c r="W524" s="5" t="s">
         <v>1063</v>
       </c>
-      <c r="X524" s="67">
+      <c r="X524" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y524" s="67">
+      <c r="Y524" s="5">
         <v>1613433600</v>
       </c>
-      <c r="Z524" s="67">
+      <c r="Z524" s="5">
         <v>1614009599</v>
       </c>
-      <c r="AA524" s="67">
+      <c r="AA524" s="5">
         <v>70</v>
       </c>
-      <c r="AH524" s="67">
-        <v>1</v>
-      </c>
-      <c r="AI524" s="67">
-        <v>1</v>
-      </c>
-      <c r="AL524" s="67">
-        <v>1</v>
-      </c>
-      <c r="AM524" s="67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="525" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A525" s="67">
+      <c r="AH524" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI524" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL524" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM524" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A525" s="5">
         <v>524</v>
       </c>
-      <c r="B525" s="67">
+      <c r="B525" s="5">
         <v>10441</v>
       </c>
-      <c r="F525" s="67">
-        <v>1</v>
-      </c>
-      <c r="G525" s="67" t="s">
+      <c r="F525" s="5">
+        <v>0</v>
+      </c>
+      <c r="G525" s="5" t="s">
         <v>1919</v>
       </c>
-      <c r="I525" s="67" t="s">
+      <c r="I525" s="5" t="s">
         <v>1940</v>
       </c>
-      <c r="J525" s="67" t="s">
+      <c r="J525" s="5" t="s">
         <v>1941</v>
       </c>
-      <c r="L525" s="67">
+      <c r="L525" s="5">
         <v>-33</v>
       </c>
-      <c r="M525" s="67">
-        <v>0</v>
-      </c>
-      <c r="N525" s="67">
-        <v>0</v>
-      </c>
-      <c r="O525" s="67" t="s">
+      <c r="M525" s="5">
+        <v>0</v>
+      </c>
+      <c r="N525" s="5">
+        <v>0</v>
+      </c>
+      <c r="O525" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="P525" s="67">
+      <c r="P525" s="5">
         <v>1800</v>
       </c>
-      <c r="Q525" s="67" t="s">
+      <c r="Q525" s="5" t="s">
         <v>1942</v>
       </c>
-      <c r="R525" s="68" t="s">
+      <c r="R525" s="10" t="s">
         <v>1932</v>
       </c>
-      <c r="W525" s="67" t="s">
+      <c r="W525" s="5" t="s">
         <v>1063</v>
       </c>
-      <c r="X525" s="67">
+      <c r="X525" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y525" s="67">
+      <c r="Y525" s="5">
         <v>1613433600</v>
       </c>
-      <c r="Z525" s="67">
+      <c r="Z525" s="5">
         <v>1614009599</v>
       </c>
-      <c r="AA525" s="67">
+      <c r="AA525" s="5">
         <v>71</v>
       </c>
-      <c r="AH525" s="67">
-        <v>1</v>
-      </c>
-      <c r="AI525" s="67">
-        <v>1</v>
-      </c>
-      <c r="AL525" s="67">
-        <v>1</v>
-      </c>
-      <c r="AM525" s="67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="526" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A526" s="67">
+      <c r="AH525" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI525" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL525" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM525" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A526" s="5">
         <v>525</v>
       </c>
-      <c r="B526" s="67">
+      <c r="B526" s="5">
         <v>10442</v>
       </c>
-      <c r="F526" s="67">
-        <v>1</v>
-      </c>
-      <c r="G526" s="67" t="s">
+      <c r="F526" s="5">
+        <v>0</v>
+      </c>
+      <c r="G526" s="5" t="s">
         <v>1924</v>
       </c>
-      <c r="I526" s="67" t="s">
+      <c r="I526" s="5" t="s">
         <v>1940</v>
       </c>
-      <c r="J526" s="67" t="s">
+      <c r="J526" s="5" t="s">
         <v>1943</v>
       </c>
-      <c r="L526" s="67">
+      <c r="L526" s="5">
         <v>-33</v>
       </c>
-      <c r="M526" s="67">
-        <v>0</v>
-      </c>
-      <c r="N526" s="67">
-        <v>0</v>
-      </c>
-      <c r="O526" s="67" t="s">
+      <c r="M526" s="5">
+        <v>0</v>
+      </c>
+      <c r="N526" s="5">
+        <v>0</v>
+      </c>
+      <c r="O526" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="P526" s="67">
+      <c r="P526" s="5">
         <v>4800</v>
       </c>
-      <c r="Q526" s="67" t="s">
+      <c r="Q526" s="5" t="s">
         <v>1926</v>
       </c>
-      <c r="R526" s="68" t="s">
+      <c r="R526" s="10" t="s">
         <v>1945</v>
       </c>
-      <c r="W526" s="67" t="s">
+      <c r="W526" s="5" t="s">
         <v>1063</v>
       </c>
-      <c r="X526" s="67">
+      <c r="X526" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y526" s="67">
+      <c r="Y526" s="5">
         <v>1613433600</v>
       </c>
-      <c r="Z526" s="67">
+      <c r="Z526" s="5">
         <v>1614009599</v>
       </c>
-      <c r="AA526" s="67">
+      <c r="AA526" s="5">
         <v>71</v>
       </c>
-      <c r="AH526" s="67">
-        <v>1</v>
-      </c>
-      <c r="AI526" s="67">
-        <v>1</v>
-      </c>
-      <c r="AL526" s="67">
-        <v>1</v>
-      </c>
-      <c r="AM526" s="67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="527" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A527" s="67">
+      <c r="AH526" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI526" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL526" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM526" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A527" s="5">
         <v>526</v>
       </c>
-      <c r="B527" s="67">
+      <c r="B527" s="5">
         <v>10443</v>
       </c>
-      <c r="F527" s="67">
-        <v>1</v>
-      </c>
-      <c r="G527" s="67" t="s">
+      <c r="F527" s="5">
+        <v>0</v>
+      </c>
+      <c r="G527" s="5" t="s">
         <v>1929</v>
       </c>
-      <c r="I527" s="67" t="s">
+      <c r="I527" s="5" t="s">
         <v>1940</v>
       </c>
-      <c r="J527" s="67" t="s">
+      <c r="J527" s="5" t="s">
         <v>1946</v>
       </c>
-      <c r="L527" s="67">
+      <c r="L527" s="5">
         <v>-33</v>
       </c>
-      <c r="M527" s="67">
-        <v>0</v>
-      </c>
-      <c r="N527" s="67">
-        <v>0</v>
-      </c>
-      <c r="O527" s="67" t="s">
+      <c r="M527" s="5">
+        <v>0</v>
+      </c>
+      <c r="N527" s="5">
+        <v>0</v>
+      </c>
+      <c r="O527" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="P527" s="67">
+      <c r="P527" s="5">
         <v>9800</v>
       </c>
-      <c r="Q527" s="67" t="s">
+      <c r="Q527" s="5" t="s">
         <v>1931</v>
       </c>
-      <c r="R527" s="68" t="s">
+      <c r="R527" s="10" t="s">
         <v>1948</v>
       </c>
-      <c r="W527" s="67" t="s">
+      <c r="W527" s="5" t="s">
         <v>1063</v>
       </c>
-      <c r="X527" s="67">
+      <c r="X527" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y527" s="67">
+      <c r="Y527" s="5">
         <v>1613433600</v>
       </c>
-      <c r="Z527" s="67">
+      <c r="Z527" s="5">
         <v>1614009599</v>
       </c>
-      <c r="AA527" s="67">
+      <c r="AA527" s="5">
         <v>71</v>
       </c>
-      <c r="AH527" s="67">
-        <v>1</v>
-      </c>
-      <c r="AI527" s="67">
-        <v>1</v>
-      </c>
-      <c r="AL527" s="67">
-        <v>1</v>
-      </c>
-      <c r="AM527" s="67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="528" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A528" s="67">
+      <c r="AH527" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI527" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL527" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM527" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A528" s="5">
         <v>527</v>
       </c>
-      <c r="B528" s="67">
+      <c r="B528" s="5">
         <v>10444</v>
       </c>
-      <c r="F528" s="67">
-        <v>1</v>
-      </c>
-      <c r="G528" s="67" t="s">
+      <c r="F528" s="5">
+        <v>0</v>
+      </c>
+      <c r="G528" s="5" t="s">
         <v>1934</v>
       </c>
-      <c r="I528" s="67" t="s">
+      <c r="I528" s="5" t="s">
         <v>1939</v>
       </c>
-      <c r="J528" s="67" t="s">
+      <c r="J528" s="5" t="s">
         <v>1949</v>
       </c>
-      <c r="L528" s="67">
+      <c r="L528" s="5">
         <v>-33</v>
       </c>
-      <c r="M528" s="67">
-        <v>0</v>
-      </c>
-      <c r="N528" s="67">
-        <v>0</v>
-      </c>
-      <c r="O528" s="67" t="s">
+      <c r="M528" s="5">
+        <v>0</v>
+      </c>
+      <c r="N528" s="5">
+        <v>0</v>
+      </c>
+      <c r="O528" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="P528" s="67">
+      <c r="P528" s="5">
         <v>19800</v>
       </c>
-      <c r="Q528" s="67" t="s">
+      <c r="Q528" s="5" t="s">
         <v>1937</v>
       </c>
-      <c r="R528" s="68" t="s">
+      <c r="R528" s="10" t="s">
         <v>1950</v>
       </c>
-      <c r="W528" s="67" t="s">
+      <c r="W528" s="5" t="s">
         <v>1063</v>
       </c>
-      <c r="X528" s="67">
+      <c r="X528" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y528" s="67">
+      <c r="Y528" s="5">
         <v>1613433600</v>
       </c>
-      <c r="Z528" s="67">
+      <c r="Z528" s="5">
         <v>1614009599</v>
       </c>
-      <c r="AA528" s="67">
+      <c r="AA528" s="5">
         <v>71</v>
       </c>
-      <c r="AH528" s="67">
-        <v>1</v>
-      </c>
-      <c r="AI528" s="67">
-        <v>1</v>
-      </c>
-      <c r="AL528" s="67">
-        <v>1</v>
-      </c>
-      <c r="AM528" s="67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="529" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A529" s="67">
+      <c r="AH528" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI528" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL528" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM528" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A529" s="5">
         <v>528</v>
       </c>
-      <c r="B529" s="67">
+      <c r="B529" s="5">
         <v>10445</v>
       </c>
-      <c r="F529" s="67">
-        <v>1</v>
-      </c>
-      <c r="G529" s="67" t="s">
+      <c r="F529" s="5">
+        <v>0</v>
+      </c>
+      <c r="G529" s="5" t="s">
         <v>1919</v>
       </c>
-      <c r="I529" s="67" t="s">
+      <c r="I529" s="5" t="s">
         <v>1952</v>
       </c>
-      <c r="J529" s="67" t="s">
+      <c r="J529" s="5" t="s">
         <v>1953</v>
       </c>
-      <c r="L529" s="67">
+      <c r="L529" s="5">
         <v>-33</v>
       </c>
-      <c r="M529" s="67">
-        <v>0</v>
-      </c>
-      <c r="N529" s="67">
-        <v>0</v>
-      </c>
-      <c r="O529" s="67" t="s">
+      <c r="M529" s="5">
+        <v>0</v>
+      </c>
+      <c r="N529" s="5">
+        <v>0</v>
+      </c>
+      <c r="O529" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="P529" s="67">
+      <c r="P529" s="5">
         <v>4800</v>
       </c>
-      <c r="Q529" s="67" t="s">
+      <c r="Q529" s="5" t="s">
         <v>1942</v>
       </c>
-      <c r="R529" s="68" t="s">
+      <c r="R529" s="10" t="s">
         <v>1944</v>
       </c>
-      <c r="W529" s="67" t="s">
+      <c r="W529" s="5" t="s">
         <v>1063</v>
       </c>
-      <c r="X529" s="67">
+      <c r="X529" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y529" s="67">
+      <c r="Y529" s="5">
         <v>1613433600</v>
       </c>
-      <c r="Z529" s="67">
+      <c r="Z529" s="5">
         <v>1614009599</v>
       </c>
-      <c r="AA529" s="67">
+      <c r="AA529" s="5">
         <v>72</v>
       </c>
-      <c r="AH529" s="67">
-        <v>1</v>
-      </c>
-      <c r="AI529" s="67">
-        <v>1</v>
-      </c>
-      <c r="AL529" s="67">
-        <v>1</v>
-      </c>
-      <c r="AM529" s="67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="530" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A530" s="67">
+      <c r="AH529" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI529" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL529" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM529" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A530" s="5">
         <v>529</v>
       </c>
-      <c r="B530" s="67">
+      <c r="B530" s="5">
         <v>10446</v>
       </c>
-      <c r="F530" s="67">
-        <v>1</v>
-      </c>
-      <c r="G530" s="67" t="s">
+      <c r="F530" s="5">
+        <v>0</v>
+      </c>
+      <c r="G530" s="5" t="s">
         <v>1924</v>
       </c>
-      <c r="I530" s="67" t="s">
+      <c r="I530" s="5" t="s">
         <v>1952</v>
       </c>
-      <c r="J530" s="67" t="s">
+      <c r="J530" s="5" t="s">
         <v>1954</v>
       </c>
-      <c r="L530" s="67">
+      <c r="L530" s="5">
         <v>-33</v>
       </c>
-      <c r="M530" s="67">
-        <v>0</v>
-      </c>
-      <c r="N530" s="67">
-        <v>0</v>
-      </c>
-      <c r="O530" s="67" t="s">
+      <c r="M530" s="5">
+        <v>0</v>
+      </c>
+      <c r="N530" s="5">
+        <v>0</v>
+      </c>
+      <c r="O530" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="P530" s="67">
+      <c r="P530" s="5">
         <v>9800</v>
       </c>
-      <c r="Q530" s="67" t="s">
+      <c r="Q530" s="5" t="s">
         <v>1927</v>
       </c>
-      <c r="R530" s="68" t="s">
+      <c r="R530" s="10" t="s">
         <v>1947</v>
       </c>
-      <c r="W530" s="67" t="s">
+      <c r="W530" s="5" t="s">
         <v>1063</v>
       </c>
-      <c r="X530" s="67">
+      <c r="X530" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y530" s="67">
+      <c r="Y530" s="5">
         <v>1613433600</v>
       </c>
-      <c r="Z530" s="67">
+      <c r="Z530" s="5">
         <v>1614009599</v>
       </c>
-      <c r="AA530" s="67">
+      <c r="AA530" s="5">
         <v>72</v>
       </c>
-      <c r="AH530" s="67">
-        <v>1</v>
-      </c>
-      <c r="AI530" s="67">
-        <v>1</v>
-      </c>
-      <c r="AL530" s="67">
-        <v>1</v>
-      </c>
-      <c r="AM530" s="67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="531" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A531" s="67">
+      <c r="AH530" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI530" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL530" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM530" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A531" s="5">
         <v>530</v>
       </c>
-      <c r="B531" s="67">
+      <c r="B531" s="5">
         <v>10447</v>
       </c>
-      <c r="F531" s="67">
-        <v>1</v>
-      </c>
-      <c r="G531" s="67" t="s">
+      <c r="F531" s="5">
+        <v>0</v>
+      </c>
+      <c r="G531" s="5" t="s">
         <v>1929</v>
       </c>
-      <c r="I531" s="67" t="s">
+      <c r="I531" s="5" t="s">
         <v>1952</v>
       </c>
-      <c r="J531" s="67" t="s">
+      <c r="J531" s="5" t="s">
         <v>1955</v>
       </c>
-      <c r="L531" s="67">
+      <c r="L531" s="5">
         <v>-33</v>
       </c>
-      <c r="M531" s="67">
-        <v>0</v>
-      </c>
-      <c r="N531" s="67">
-        <v>0</v>
-      </c>
-      <c r="O531" s="67" t="s">
+      <c r="M531" s="5">
+        <v>0</v>
+      </c>
+      <c r="N531" s="5">
+        <v>0</v>
+      </c>
+      <c r="O531" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="P531" s="67">
+      <c r="P531" s="5">
         <v>19800</v>
       </c>
-      <c r="Q531" s="67" t="s">
+      <c r="Q531" s="5" t="s">
         <v>1931</v>
       </c>
-      <c r="R531" s="68" t="s">
+      <c r="R531" s="10" t="s">
         <v>1956</v>
       </c>
-      <c r="W531" s="67" t="s">
+      <c r="W531" s="5" t="s">
         <v>1063</v>
       </c>
-      <c r="X531" s="67">
+      <c r="X531" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y531" s="67">
+      <c r="Y531" s="5">
         <v>1613433600</v>
       </c>
-      <c r="Z531" s="67">
+      <c r="Z531" s="5">
         <v>1614009599</v>
       </c>
-      <c r="AA531" s="67">
+      <c r="AA531" s="5">
         <v>72</v>
       </c>
-      <c r="AH531" s="67">
-        <v>1</v>
-      </c>
-      <c r="AI531" s="67">
-        <v>1</v>
-      </c>
-      <c r="AL531" s="67">
-        <v>1</v>
-      </c>
-      <c r="AM531" s="67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="532" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A532" s="67">
+      <c r="AH531" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI531" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL531" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM531" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A532" s="5">
         <v>531</v>
       </c>
-      <c r="B532" s="67">
+      <c r="B532" s="5">
         <v>10448</v>
       </c>
-      <c r="F532" s="67">
-        <v>1</v>
-      </c>
-      <c r="G532" s="67" t="s">
+      <c r="F532" s="5">
+        <v>0</v>
+      </c>
+      <c r="G532" s="5" t="s">
         <v>1934</v>
       </c>
-      <c r="I532" s="67" t="s">
+      <c r="I532" s="5" t="s">
         <v>1951</v>
       </c>
-      <c r="J532" s="67" t="s">
+      <c r="J532" s="5" t="s">
         <v>1957</v>
       </c>
-      <c r="L532" s="67">
+      <c r="L532" s="5">
         <v>-33</v>
       </c>
-      <c r="M532" s="67">
-        <v>0</v>
-      </c>
-      <c r="N532" s="67">
-        <v>0</v>
-      </c>
-      <c r="O532" s="67" t="s">
+      <c r="M532" s="5">
+        <v>0</v>
+      </c>
+      <c r="N532" s="5">
+        <v>0</v>
+      </c>
+      <c r="O532" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="P532" s="67">
+      <c r="P532" s="5">
         <v>49800</v>
       </c>
-      <c r="Q532" s="67" t="s">
+      <c r="Q532" s="5" t="s">
         <v>1936</v>
       </c>
-      <c r="R532" s="68" t="s">
+      <c r="R532" s="10" t="s">
         <v>1958</v>
       </c>
-      <c r="W532" s="67" t="s">
+      <c r="W532" s="5" t="s">
         <v>1063</v>
       </c>
-      <c r="X532" s="67">
+      <c r="X532" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y532" s="67">
+      <c r="Y532" s="5">
         <v>1613433600</v>
       </c>
-      <c r="Z532" s="67">
+      <c r="Z532" s="5">
         <v>1614009599</v>
       </c>
-      <c r="AA532" s="67">
+      <c r="AA532" s="5">
         <v>72</v>
       </c>
-      <c r="AH532" s="67">
-        <v>1</v>
-      </c>
-      <c r="AI532" s="67">
-        <v>1</v>
-      </c>
-      <c r="AL532" s="67">
-        <v>1</v>
-      </c>
-      <c r="AM532" s="67">
+      <c r="AH532" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI532" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL532" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM532" s="5">
         <v>1</v>
       </c>
     </row>
@@ -45545,7 +45660,7 @@
         <v>10449</v>
       </c>
       <c r="F533" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G533" s="5" t="s">
         <v>1973</v>
@@ -45613,7 +45728,7 @@
         <v>10450</v>
       </c>
       <c r="F534" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G534" s="5" t="s">
         <v>1978</v>
@@ -45681,7 +45796,7 @@
         <v>10451</v>
       </c>
       <c r="F535" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G535" s="5" t="s">
         <v>1982</v>
@@ -45749,7 +45864,7 @@
         <v>10452</v>
       </c>
       <c r="F536" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G536" s="5" t="s">
         <v>1973</v>
@@ -45817,7 +45932,7 @@
         <v>10453</v>
       </c>
       <c r="F537" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G537" s="5" t="s">
         <v>1978</v>
@@ -45885,7 +46000,7 @@
         <v>10454</v>
       </c>
       <c r="F538" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G538" s="5" t="s">
         <v>1982</v>
@@ -45953,7 +46068,7 @@
         <v>10455</v>
       </c>
       <c r="F539" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G539" s="5" t="s">
         <v>1973</v>
@@ -46021,7 +46136,7 @@
         <v>10456</v>
       </c>
       <c r="F540" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G540" s="5" t="s">
         <v>1978</v>
@@ -46089,7 +46204,7 @@
         <v>10457</v>
       </c>
       <c r="F541" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G541" s="5" t="s">
         <v>1982</v>
@@ -46149,1596 +46264,2572 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A542" s="69">
+    <row r="542" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A542" s="5">
         <v>541</v>
       </c>
-      <c r="B542" s="69">
+      <c r="B542" s="5">
         <v>10458</v>
       </c>
-      <c r="F542" s="69">
-        <v>1</v>
-      </c>
-      <c r="G542" s="69" t="s">
+      <c r="F542" s="5">
+        <v>0</v>
+      </c>
+      <c r="G542" s="5" t="s">
         <v>2003</v>
       </c>
-      <c r="I542" s="69" t="s">
+      <c r="I542" s="5" t="s">
         <v>2004</v>
       </c>
-      <c r="J542" s="69" t="s">
+      <c r="J542" s="5" t="s">
         <v>2005</v>
       </c>
-      <c r="L542" s="69">
+      <c r="L542" s="5">
         <v>-31</v>
       </c>
-      <c r="M542" s="69">
-        <v>0</v>
-      </c>
-      <c r="N542" s="69">
-        <v>0</v>
-      </c>
-      <c r="O542" s="69" t="s">
+      <c r="M542" s="5">
+        <v>0</v>
+      </c>
+      <c r="N542" s="5">
+        <v>0</v>
+      </c>
+      <c r="O542" s="5" t="s">
         <v>2006</v>
       </c>
-      <c r="P542" s="69">
+      <c r="P542" s="5">
         <v>99800</v>
       </c>
-      <c r="Q542" s="69" t="s">
+      <c r="Q542" s="5" t="s">
         <v>2007</v>
       </c>
-      <c r="R542" s="70" t="s">
+      <c r="R542" s="10" t="s">
         <v>2008</v>
       </c>
-      <c r="W542" s="69" t="s">
+      <c r="W542" s="5" t="s">
         <v>2009</v>
       </c>
-      <c r="X542" s="69">
+      <c r="X542" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y542" s="71">
+      <c r="Y542" s="11">
         <v>1614038400</v>
       </c>
-      <c r="Z542" s="71">
+      <c r="Z542" s="11">
         <v>1614614399</v>
       </c>
-      <c r="AH542" s="69">
-        <v>1</v>
-      </c>
-      <c r="AI542" s="69">
-        <v>1</v>
-      </c>
-      <c r="AL542" s="69">
-        <v>1</v>
-      </c>
-      <c r="AM542" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="543" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A543" s="69">
+      <c r="AH542" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI542" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL542" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM542" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A543" s="5">
         <v>542</v>
       </c>
-      <c r="B543" s="69">
+      <c r="B543" s="5">
         <v>10459</v>
       </c>
-      <c r="F543" s="69">
-        <v>1</v>
-      </c>
-      <c r="G543" s="69" t="s">
+      <c r="F543" s="5">
+        <v>0</v>
+      </c>
+      <c r="G543" s="5" t="s">
         <v>2010</v>
       </c>
-      <c r="I543" s="69" t="s">
+      <c r="I543" s="5" t="s">
         <v>2004</v>
       </c>
-      <c r="J543" s="69" t="s">
+      <c r="J543" s="5" t="s">
         <v>1310</v>
       </c>
-      <c r="L543" s="69">
+      <c r="L543" s="5">
         <v>-31</v>
       </c>
-      <c r="M543" s="69">
-        <v>0</v>
-      </c>
-      <c r="N543" s="69">
-        <v>0</v>
-      </c>
-      <c r="O543" s="69" t="s">
+      <c r="M543" s="5">
+        <v>0</v>
+      </c>
+      <c r="N543" s="5">
+        <v>0</v>
+      </c>
+      <c r="O543" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="P543" s="69">
+      <c r="P543" s="5">
         <v>49800</v>
       </c>
-      <c r="Q543" s="69" t="s">
+      <c r="Q543" s="5" t="s">
         <v>1490</v>
       </c>
-      <c r="R543" s="70" t="s">
+      <c r="R543" s="10" t="s">
         <v>1213</v>
       </c>
-      <c r="W543" s="69" t="s">
+      <c r="W543" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="X543" s="69">
+      <c r="X543" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y543" s="71">
+      <c r="Y543" s="11">
         <v>1614038400</v>
       </c>
-      <c r="Z543" s="71">
+      <c r="Z543" s="11">
         <v>1614614399</v>
       </c>
-      <c r="AH543" s="69">
-        <v>1</v>
-      </c>
-      <c r="AI543" s="69">
-        <v>1</v>
-      </c>
-      <c r="AL543" s="69">
-        <v>1</v>
-      </c>
-      <c r="AM543" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="544" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A544" s="69">
+      <c r="AH543" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI543" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL543" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM543" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A544" s="5">
         <v>543</v>
       </c>
-      <c r="B544" s="69">
+      <c r="B544" s="5">
         <v>10460</v>
       </c>
-      <c r="F544" s="69">
-        <v>1</v>
-      </c>
-      <c r="G544" s="69" t="s">
+      <c r="F544" s="5">
+        <v>0</v>
+      </c>
+      <c r="G544" s="5" t="s">
         <v>2011</v>
       </c>
-      <c r="I544" s="69" t="s">
+      <c r="I544" s="5" t="s">
         <v>2012</v>
       </c>
-      <c r="J544" s="69" t="s">
+      <c r="J544" s="5" t="s">
         <v>1810</v>
       </c>
-      <c r="L544" s="69">
+      <c r="L544" s="5">
         <v>-31</v>
       </c>
-      <c r="M544" s="69">
-        <v>0</v>
-      </c>
-      <c r="N544" s="69">
-        <v>0</v>
-      </c>
-      <c r="O544" s="69" t="s">
+      <c r="M544" s="5">
+        <v>0</v>
+      </c>
+      <c r="N544" s="5">
+        <v>0</v>
+      </c>
+      <c r="O544" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="P544" s="69">
+      <c r="P544" s="5">
         <v>29800</v>
       </c>
-      <c r="Q544" s="69" t="s">
+      <c r="Q544" s="5" t="s">
         <v>1489</v>
       </c>
-      <c r="R544" s="70" t="s">
+      <c r="R544" s="10" t="s">
         <v>1217</v>
       </c>
-      <c r="W544" s="69" t="s">
+      <c r="W544" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="X544" s="69">
+      <c r="X544" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y544" s="71">
+      <c r="Y544" s="11">
         <v>1614038400</v>
       </c>
-      <c r="Z544" s="71">
+      <c r="Z544" s="11">
         <v>1614614399</v>
       </c>
-      <c r="AH544" s="69">
-        <v>1</v>
-      </c>
-      <c r="AI544" s="69">
-        <v>1</v>
-      </c>
-      <c r="AL544" s="69">
-        <v>1</v>
-      </c>
-      <c r="AM544" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="545" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A545" s="69">
+      <c r="AH544" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI544" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL544" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM544" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A545" s="5">
         <v>544</v>
       </c>
-      <c r="B545" s="69">
+      <c r="B545" s="5">
         <v>10461</v>
       </c>
-      <c r="F545" s="69">
-        <v>1</v>
-      </c>
-      <c r="G545" s="69" t="s">
+      <c r="F545" s="5">
+        <v>0</v>
+      </c>
+      <c r="G545" s="5" t="s">
         <v>2013</v>
       </c>
-      <c r="I545" s="69" t="s">
+      <c r="I545" s="5" t="s">
         <v>2004</v>
       </c>
-      <c r="J545" s="69" t="s">
+      <c r="J545" s="5" t="s">
         <v>1308</v>
       </c>
-      <c r="L545" s="69">
+      <c r="L545" s="5">
         <v>-31</v>
       </c>
-      <c r="M545" s="69">
-        <v>0</v>
-      </c>
-      <c r="N545" s="69">
-        <v>0</v>
-      </c>
-      <c r="O545" s="69" t="s">
+      <c r="M545" s="5">
+        <v>0</v>
+      </c>
+      <c r="N545" s="5">
+        <v>0</v>
+      </c>
+      <c r="O545" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="P545" s="69">
+      <c r="P545" s="5">
         <v>19800</v>
       </c>
-      <c r="Q545" s="69" t="s">
+      <c r="Q545" s="5" t="s">
         <v>2014</v>
       </c>
-      <c r="R545" s="70" t="s">
+      <c r="R545" s="10" t="s">
         <v>1211</v>
       </c>
-      <c r="W545" s="69" t="s">
+      <c r="W545" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="X545" s="69">
+      <c r="X545" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y545" s="71">
+      <c r="Y545" s="11">
         <v>1614038400</v>
       </c>
-      <c r="Z545" s="71">
+      <c r="Z545" s="11">
         <v>1614614399</v>
       </c>
-      <c r="AH545" s="69">
-        <v>1</v>
-      </c>
-      <c r="AI545" s="69">
-        <v>1</v>
-      </c>
-      <c r="AL545" s="69">
-        <v>1</v>
-      </c>
-      <c r="AM545" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="546" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A546" s="69">
+      <c r="AH545" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI545" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL545" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM545" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A546" s="5">
         <v>545</v>
       </c>
-      <c r="B546" s="69">
+      <c r="B546" s="5">
         <v>10462</v>
       </c>
-      <c r="F546" s="69">
-        <v>1</v>
-      </c>
-      <c r="G546" s="69" t="s">
+      <c r="F546" s="5">
+        <v>0</v>
+      </c>
+      <c r="G546" s="5" t="s">
         <v>2015</v>
       </c>
-      <c r="I546" s="69" t="s">
+      <c r="I546" s="5" t="s">
         <v>2012</v>
       </c>
-      <c r="J546" s="69" t="s">
+      <c r="J546" s="5" t="s">
         <v>2016</v>
       </c>
-      <c r="L546" s="69">
+      <c r="L546" s="5">
         <v>-31</v>
       </c>
-      <c r="M546" s="69">
-        <v>0</v>
-      </c>
-      <c r="N546" s="69">
-        <v>0</v>
-      </c>
-      <c r="O546" s="69" t="s">
+      <c r="M546" s="5">
+        <v>0</v>
+      </c>
+      <c r="N546" s="5">
+        <v>0</v>
+      </c>
+      <c r="O546" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="P546" s="69">
+      <c r="P546" s="5">
         <v>9800</v>
       </c>
-      <c r="Q546" s="69" t="s">
+      <c r="Q546" s="5" t="s">
         <v>1489</v>
       </c>
-      <c r="R546" s="70" t="s">
+      <c r="R546" s="10" t="s">
         <v>1307</v>
       </c>
-      <c r="W546" s="69" t="s">
+      <c r="W546" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="X546" s="69">
+      <c r="X546" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y546" s="71">
+      <c r="Y546" s="11">
         <v>1614038400</v>
       </c>
-      <c r="Z546" s="71">
+      <c r="Z546" s="11">
         <v>1614614399</v>
       </c>
-      <c r="AH546" s="69">
-        <v>1</v>
-      </c>
-      <c r="AI546" s="69">
-        <v>1</v>
-      </c>
-      <c r="AL546" s="69">
-        <v>1</v>
-      </c>
-      <c r="AM546" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="547" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A547" s="69">
+      <c r="AH546" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI546" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL546" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM546" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A547" s="5">
         <v>546</v>
       </c>
-      <c r="B547" s="69">
+      <c r="B547" s="5">
         <v>10463</v>
       </c>
-      <c r="F547" s="69">
-        <v>1</v>
-      </c>
-      <c r="G547" s="69" t="s">
+      <c r="F547" s="5">
+        <v>0</v>
+      </c>
+      <c r="G547" s="5" t="s">
         <v>2017</v>
       </c>
-      <c r="I547" s="69" t="s">
+      <c r="I547" s="5" t="s">
         <v>2004</v>
       </c>
-      <c r="J547" s="69" t="s">
+      <c r="J547" s="5" t="s">
         <v>2018</v>
       </c>
-      <c r="L547" s="69">
+      <c r="L547" s="5">
         <v>-31</v>
       </c>
-      <c r="M547" s="69">
-        <v>0</v>
-      </c>
-      <c r="N547" s="69">
-        <v>0</v>
-      </c>
-      <c r="O547" s="69" t="s">
+      <c r="M547" s="5">
+        <v>0</v>
+      </c>
+      <c r="N547" s="5">
+        <v>0</v>
+      </c>
+      <c r="O547" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="P547" s="69">
+      <c r="P547" s="5">
         <v>4800</v>
       </c>
-      <c r="Q547" s="69" t="s">
+      <c r="Q547" s="5" t="s">
         <v>2019</v>
       </c>
-      <c r="R547" s="70" t="s">
+      <c r="R547" s="10" t="s">
         <v>2020</v>
       </c>
-      <c r="W547" s="69" t="s">
+      <c r="W547" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="X547" s="69">
+      <c r="X547" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y547" s="71">
+      <c r="Y547" s="11">
         <v>1614038400</v>
       </c>
-      <c r="Z547" s="71">
+      <c r="Z547" s="11">
         <v>1614614399</v>
       </c>
-      <c r="AH547" s="69">
-        <v>1</v>
-      </c>
-      <c r="AI547" s="69">
-        <v>1</v>
-      </c>
-      <c r="AL547" s="69">
-        <v>1</v>
-      </c>
-      <c r="AM547" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="548" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A548" s="69">
+      <c r="AH547" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI547" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL547" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM547" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A548" s="5">
         <v>547</v>
       </c>
-      <c r="B548" s="69">
+      <c r="B548" s="5">
         <v>10464</v>
       </c>
-      <c r="F548" s="69">
-        <v>1</v>
-      </c>
-      <c r="G548" s="69" t="s">
+      <c r="F548" s="5">
+        <v>0</v>
+      </c>
+      <c r="G548" s="5" t="s">
         <v>2021</v>
       </c>
-      <c r="I548" s="69" t="s">
+      <c r="I548" s="5" t="s">
         <v>2004</v>
       </c>
-      <c r="J548" s="69" t="s">
+      <c r="J548" s="5" t="s">
         <v>1303</v>
       </c>
-      <c r="L548" s="69">
+      <c r="L548" s="5">
         <v>-31</v>
       </c>
-      <c r="M548" s="69">
-        <v>0</v>
-      </c>
-      <c r="N548" s="69">
-        <v>0</v>
-      </c>
-      <c r="O548" s="69" t="s">
+      <c r="M548" s="5">
+        <v>0</v>
+      </c>
+      <c r="N548" s="5">
+        <v>0</v>
+      </c>
+      <c r="O548" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="P548" s="69">
+      <c r="P548" s="5">
         <v>1800</v>
       </c>
-      <c r="Q548" s="69" t="s">
+      <c r="Q548" s="5" t="s">
         <v>2019</v>
       </c>
-      <c r="R548" s="70" t="s">
+      <c r="R548" s="10" t="s">
         <v>1785</v>
       </c>
-      <c r="W548" s="69" t="s">
+      <c r="W548" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="X548" s="69">
+      <c r="X548" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y548" s="71">
+      <c r="Y548" s="11">
         <v>1614038400</v>
       </c>
-      <c r="Z548" s="71">
+      <c r="Z548" s="11">
         <v>1614614399</v>
       </c>
-      <c r="AH548" s="69">
-        <v>1</v>
-      </c>
-      <c r="AI548" s="69">
-        <v>1</v>
-      </c>
-      <c r="AL548" s="69">
-        <v>1</v>
-      </c>
-      <c r="AM548" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="549" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH548" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI548" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL548" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM548" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A549" s="5">
         <v>548</v>
       </c>
-      <c r="B549" s="63">
+      <c r="B549" s="5">
         <v>10465</v>
       </c>
-      <c r="F549" s="63">
-        <v>1</v>
-      </c>
-      <c r="G549" s="63" t="s">
+      <c r="F549" s="5">
+        <v>0</v>
+      </c>
+      <c r="G549" s="5" t="s">
         <v>2025</v>
       </c>
-      <c r="I549" s="63" t="s">
+      <c r="I549" s="5" t="s">
         <v>2026</v>
       </c>
-      <c r="J549" s="63" t="s">
+      <c r="J549" s="5" t="s">
         <v>2027</v>
       </c>
-      <c r="L549" s="63">
+      <c r="L549" s="5">
         <v>-31</v>
       </c>
-      <c r="M549" s="63">
-        <v>0</v>
-      </c>
-      <c r="N549" s="63">
-        <v>0</v>
-      </c>
-      <c r="O549" s="63" t="s">
+      <c r="M549" s="5">
+        <v>0</v>
+      </c>
+      <c r="N549" s="5">
+        <v>0</v>
+      </c>
+      <c r="O549" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="P549" s="63">
+      <c r="P549" s="5">
         <v>49800</v>
       </c>
-      <c r="Q549" s="63" t="s">
+      <c r="Q549" s="5" t="s">
         <v>2028</v>
       </c>
-      <c r="R549" s="64" t="s">
+      <c r="R549" s="10" t="s">
         <v>2029</v>
       </c>
-      <c r="W549" s="63" t="s">
-        <v>2058</v>
-      </c>
-      <c r="X549" s="63">
+      <c r="W549" s="5" t="s">
+        <v>2059</v>
+      </c>
+      <c r="X549" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y549" s="63">
+      <c r="Y549" s="5">
         <v>1612828800</v>
       </c>
-      <c r="Z549" s="63">
+      <c r="Z549" s="5">
         <v>1613404799</v>
       </c>
-      <c r="AA549" s="63">
+      <c r="AA549" s="5">
         <v>66</v>
       </c>
-      <c r="AH549" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI549" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL549" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM549" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="550" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH549" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI549" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL549" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM549" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A550" s="5">
         <v>549</v>
       </c>
-      <c r="B550" s="63">
+      <c r="B550" s="5">
         <v>10466</v>
       </c>
-      <c r="F550" s="63">
-        <v>1</v>
-      </c>
-      <c r="G550" s="63" t="s">
+      <c r="F550" s="5">
+        <v>0</v>
+      </c>
+      <c r="G550" s="5" t="s">
         <v>2025</v>
       </c>
-      <c r="I550" s="63" t="s">
+      <c r="I550" s="5" t="s">
         <v>2030</v>
       </c>
-      <c r="J550" s="63" t="s">
+      <c r="J550" s="5" t="s">
         <v>2031</v>
       </c>
-      <c r="L550" s="63">
+      <c r="L550" s="5">
         <v>-31</v>
       </c>
-      <c r="M550" s="63">
-        <v>0</v>
-      </c>
-      <c r="N550" s="63">
-        <v>0</v>
-      </c>
-      <c r="O550" s="63" t="s">
+      <c r="M550" s="5">
+        <v>0</v>
+      </c>
+      <c r="N550" s="5">
+        <v>0</v>
+      </c>
+      <c r="O550" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="P550" s="63">
+      <c r="P550" s="5">
         <v>19800</v>
       </c>
-      <c r="Q550" s="63" t="s">
+      <c r="Q550" s="5" t="s">
         <v>2028</v>
       </c>
-      <c r="R550" s="64" t="s">
+      <c r="R550" s="10" t="s">
         <v>2032</v>
       </c>
-      <c r="W550" s="63" t="s">
-        <v>2058</v>
-      </c>
-      <c r="X550" s="63">
+      <c r="W550" s="5" t="s">
+        <v>2059</v>
+      </c>
+      <c r="X550" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y550" s="63">
+      <c r="Y550" s="5">
         <v>1612828800</v>
       </c>
-      <c r="Z550" s="63">
+      <c r="Z550" s="5">
         <v>1613404799</v>
       </c>
-      <c r="AA550" s="63">
+      <c r="AA550" s="5">
         <v>66</v>
       </c>
-      <c r="AH550" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI550" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL550" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM550" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="551" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH550" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI550" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL550" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM550" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A551" s="5">
         <v>550</v>
       </c>
-      <c r="B551" s="63">
+      <c r="B551" s="5">
         <v>10467</v>
       </c>
-      <c r="F551" s="63">
-        <v>1</v>
-      </c>
-      <c r="G551" s="63" t="s">
+      <c r="F551" s="5">
+        <v>0</v>
+      </c>
+      <c r="G551" s="5" t="s">
         <v>2025</v>
       </c>
-      <c r="I551" s="63" t="s">
+      <c r="I551" s="5" t="s">
         <v>2033</v>
       </c>
-      <c r="J551" s="63" t="s">
+      <c r="J551" s="5" t="s">
         <v>2034</v>
       </c>
-      <c r="L551" s="63">
+      <c r="L551" s="5">
         <v>-31</v>
       </c>
-      <c r="M551" s="63">
-        <v>0</v>
-      </c>
-      <c r="N551" s="63">
-        <v>0</v>
-      </c>
-      <c r="O551" s="63" t="s">
+      <c r="M551" s="5">
+        <v>0</v>
+      </c>
+      <c r="N551" s="5">
+        <v>0</v>
+      </c>
+      <c r="O551" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="P551" s="63">
+      <c r="P551" s="5">
         <v>9800</v>
       </c>
-      <c r="Q551" s="63" t="s">
+      <c r="Q551" s="5" t="s">
         <v>2028</v>
       </c>
-      <c r="R551" s="64" t="s">
+      <c r="R551" s="10" t="s">
         <v>2035</v>
       </c>
-      <c r="W551" s="63" t="s">
+      <c r="W551" s="5" t="s">
         <v>1316</v>
       </c>
-      <c r="X551" s="63">
+      <c r="X551" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y551" s="63">
+      <c r="Y551" s="5">
         <v>1612828800</v>
       </c>
-      <c r="Z551" s="63">
+      <c r="Z551" s="5">
         <v>1613404799</v>
       </c>
-      <c r="AA551" s="63">
+      <c r="AA551" s="5">
         <v>66</v>
       </c>
-      <c r="AH551" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI551" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL551" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM551" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="552" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH551" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI551" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL551" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM551" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A552" s="5">
         <v>551</v>
       </c>
-      <c r="B552" s="63">
+      <c r="B552" s="5">
         <v>10468</v>
       </c>
-      <c r="F552" s="63">
-        <v>1</v>
-      </c>
-      <c r="G552" s="63" t="s">
+      <c r="F552" s="5">
+        <v>0</v>
+      </c>
+      <c r="G552" s="5" t="s">
         <v>2025</v>
       </c>
-      <c r="I552" s="63" t="s">
+      <c r="I552" s="5" t="s">
         <v>2036</v>
       </c>
-      <c r="J552" s="63" t="s">
+      <c r="J552" s="5" t="s">
         <v>2037</v>
       </c>
-      <c r="L552" s="63">
+      <c r="L552" s="5">
         <v>-31</v>
       </c>
-      <c r="M552" s="63">
-        <v>0</v>
-      </c>
-      <c r="N552" s="63">
-        <v>0</v>
-      </c>
-      <c r="O552" s="63" t="s">
+      <c r="M552" s="5">
+        <v>0</v>
+      </c>
+      <c r="N552" s="5">
+        <v>0</v>
+      </c>
+      <c r="O552" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="P552" s="63">
+      <c r="P552" s="5">
         <v>4800</v>
       </c>
-      <c r="Q552" s="63" t="s">
+      <c r="Q552" s="5" t="s">
         <v>2038</v>
       </c>
-      <c r="R552" s="64" t="s">
+      <c r="R552" s="10" t="s">
         <v>2039</v>
       </c>
-      <c r="W552" s="63" t="s">
-        <v>2058</v>
-      </c>
-      <c r="X552" s="63">
+      <c r="W552" s="5" t="s">
+        <v>2059</v>
+      </c>
+      <c r="X552" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y552" s="63">
+      <c r="Y552" s="5">
         <v>1612828800</v>
       </c>
-      <c r="Z552" s="63">
+      <c r="Z552" s="5">
         <v>1613404799</v>
       </c>
-      <c r="AA552" s="63">
+      <c r="AA552" s="5">
         <v>66</v>
       </c>
-      <c r="AH552" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI552" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL552" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM552" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="553" spans="1:39" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH552" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI552" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL552" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM552" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A553" s="5">
         <v>552</v>
       </c>
-      <c r="B553" s="65">
+      <c r="B553" s="5">
         <v>10469</v>
       </c>
-      <c r="F553" s="65">
-        <v>1</v>
-      </c>
-      <c r="G553" s="65" t="s">
+      <c r="F553" s="5">
+        <v>0</v>
+      </c>
+      <c r="G553" s="5" t="s">
         <v>2040</v>
       </c>
-      <c r="I553" s="65" t="s">
+      <c r="I553" s="5" t="s">
         <v>2041</v>
       </c>
-      <c r="J553" s="65" t="s">
+      <c r="J553" s="5" t="s">
         <v>2042</v>
       </c>
-      <c r="L553" s="65">
+      <c r="L553" s="5">
         <v>-31</v>
       </c>
-      <c r="M553" s="65">
-        <v>0</v>
-      </c>
-      <c r="N553" s="65">
-        <v>0</v>
-      </c>
-      <c r="O553" s="65" t="s">
+      <c r="M553" s="5">
+        <v>0</v>
+      </c>
+      <c r="N553" s="5">
+        <v>0</v>
+      </c>
+      <c r="O553" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="P553" s="65">
+      <c r="P553" s="5">
         <v>49800</v>
       </c>
-      <c r="Q553" s="65" t="s">
+      <c r="Q553" s="5" t="s">
         <v>2043</v>
       </c>
-      <c r="R553" s="66" t="s">
+      <c r="R553" s="10" t="s">
         <v>2044</v>
       </c>
-      <c r="W553" s="65" t="s">
-        <v>2059</v>
-      </c>
-      <c r="X553" s="65">
+      <c r="W553" s="5" t="s">
+        <v>2060</v>
+      </c>
+      <c r="X553" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y553" s="65">
+      <c r="Y553" s="5">
         <v>1612828800</v>
       </c>
-      <c r="Z553" s="65">
+      <c r="Z553" s="5">
         <v>1613404799</v>
       </c>
-      <c r="AA553" s="65">
+      <c r="AA553" s="5">
         <v>67</v>
       </c>
-      <c r="AH553" s="65">
-        <v>1</v>
-      </c>
-      <c r="AI553" s="65">
-        <v>1</v>
-      </c>
-      <c r="AL553" s="65">
-        <v>1</v>
-      </c>
-      <c r="AM553" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="554" spans="1:39" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH553" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI553" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL553" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM553" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A554" s="5">
         <v>553</v>
       </c>
-      <c r="B554" s="65">
+      <c r="B554" s="5">
         <v>10470</v>
       </c>
-      <c r="F554" s="65">
-        <v>1</v>
-      </c>
-      <c r="G554" s="65" t="s">
+      <c r="F554" s="5">
+        <v>0</v>
+      </c>
+      <c r="G554" s="5" t="s">
         <v>2045</v>
       </c>
-      <c r="I554" s="65" t="s">
+      <c r="I554" s="5" t="s">
         <v>2046</v>
       </c>
-      <c r="J554" s="65" t="s">
+      <c r="J554" s="5" t="s">
         <v>2047</v>
       </c>
-      <c r="L554" s="65">
+      <c r="L554" s="5">
         <v>-31</v>
       </c>
-      <c r="M554" s="65">
-        <v>0</v>
-      </c>
-      <c r="N554" s="65">
-        <v>0</v>
-      </c>
-      <c r="O554" s="65" t="s">
+      <c r="M554" s="5">
+        <v>0</v>
+      </c>
+      <c r="N554" s="5">
+        <v>0</v>
+      </c>
+      <c r="O554" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="P554" s="65">
+      <c r="P554" s="5">
         <v>19800</v>
       </c>
-      <c r="Q554" s="65" t="s">
+      <c r="Q554" s="5" t="s">
         <v>2043</v>
       </c>
-      <c r="R554" s="66" t="s">
+      <c r="R554" s="10" t="s">
         <v>2048</v>
       </c>
-      <c r="W554" s="65" t="s">
-        <v>2060</v>
-      </c>
-      <c r="X554" s="65">
+      <c r="W554" s="5" t="s">
+        <v>2061</v>
+      </c>
+      <c r="X554" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y554" s="65">
+      <c r="Y554" s="5">
         <v>1612828800</v>
       </c>
-      <c r="Z554" s="65">
+      <c r="Z554" s="5">
         <v>1613404799</v>
       </c>
-      <c r="AA554" s="65">
+      <c r="AA554" s="5">
         <v>67</v>
       </c>
-      <c r="AH554" s="65">
-        <v>1</v>
-      </c>
-      <c r="AI554" s="65">
-        <v>1</v>
-      </c>
-      <c r="AL554" s="65">
-        <v>1</v>
-      </c>
-      <c r="AM554" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="555" spans="1:39" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH554" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI554" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL554" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM554" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A555" s="5">
         <v>554</v>
       </c>
-      <c r="B555" s="65">
+      <c r="B555" s="5">
         <v>10471</v>
       </c>
-      <c r="F555" s="65">
-        <v>1</v>
-      </c>
-      <c r="G555" s="65" t="s">
+      <c r="F555" s="5">
+        <v>0</v>
+      </c>
+      <c r="G555" s="5" t="s">
         <v>2049</v>
       </c>
-      <c r="I555" s="65" t="s">
+      <c r="I555" s="5" t="s">
         <v>2033</v>
       </c>
-      <c r="J555" s="65" t="s">
+      <c r="J555" s="5" t="s">
         <v>2050</v>
       </c>
-      <c r="L555" s="65">
+      <c r="L555" s="5">
         <v>-31</v>
       </c>
-      <c r="M555" s="65">
-        <v>0</v>
-      </c>
-      <c r="N555" s="65">
-        <v>0</v>
-      </c>
-      <c r="O555" s="65" t="s">
+      <c r="M555" s="5">
+        <v>0</v>
+      </c>
+      <c r="N555" s="5">
+        <v>0</v>
+      </c>
+      <c r="O555" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="P555" s="65">
+      <c r="P555" s="5">
         <v>9800</v>
       </c>
-      <c r="Q555" s="65" t="s">
+      <c r="Q555" s="5" t="s">
         <v>2051</v>
       </c>
-      <c r="R555" s="66" t="s">
+      <c r="R555" s="10" t="s">
         <v>2052</v>
       </c>
-      <c r="W555" s="65" t="s">
-        <v>2060</v>
-      </c>
-      <c r="X555" s="65">
+      <c r="W555" s="5" t="s">
+        <v>2061</v>
+      </c>
+      <c r="X555" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y555" s="65">
+      <c r="Y555" s="5">
         <v>1612828800</v>
       </c>
-      <c r="Z555" s="65">
+      <c r="Z555" s="5">
         <v>1613404799</v>
       </c>
-      <c r="AA555" s="65">
+      <c r="AA555" s="5">
         <v>67</v>
       </c>
-      <c r="AH555" s="65">
-        <v>1</v>
-      </c>
-      <c r="AI555" s="65">
-        <v>1</v>
-      </c>
-      <c r="AL555" s="65">
-        <v>1</v>
-      </c>
-      <c r="AM555" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="556" spans="1:39" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH555" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI555" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL555" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM555" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A556" s="5">
         <v>555</v>
       </c>
-      <c r="B556" s="65">
+      <c r="B556" s="5">
         <v>10472</v>
       </c>
-      <c r="F556" s="65">
-        <v>1</v>
-      </c>
-      <c r="G556" s="65" t="s">
+      <c r="F556" s="5">
+        <v>0</v>
+      </c>
+      <c r="G556" s="5" t="s">
         <v>2040</v>
       </c>
-      <c r="I556" s="65" t="s">
+      <c r="I556" s="5" t="s">
         <v>2053</v>
       </c>
-      <c r="J556" s="65" t="s">
+      <c r="J556" s="5" t="s">
         <v>2054</v>
       </c>
-      <c r="L556" s="65">
+      <c r="L556" s="5">
         <v>-31</v>
       </c>
-      <c r="M556" s="65">
-        <v>0</v>
-      </c>
-      <c r="N556" s="65">
-        <v>0</v>
-      </c>
-      <c r="O556" s="65" t="s">
+      <c r="M556" s="5">
+        <v>0</v>
+      </c>
+      <c r="N556" s="5">
+        <v>0</v>
+      </c>
+      <c r="O556" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="P556" s="65">
+      <c r="P556" s="5">
         <v>4800</v>
       </c>
-      <c r="Q556" s="65" t="s">
+      <c r="Q556" s="5" t="s">
         <v>2051</v>
       </c>
-      <c r="R556" s="66" t="s">
+      <c r="R556" s="10" t="s">
         <v>2055</v>
       </c>
-      <c r="W556" s="65" t="s">
-        <v>2059</v>
-      </c>
-      <c r="X556" s="65">
+      <c r="W556" s="5" t="s">
+        <v>2060</v>
+      </c>
+      <c r="X556" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y556" s="65">
+      <c r="Y556" s="5">
         <v>1612828800</v>
       </c>
-      <c r="Z556" s="65">
+      <c r="Z556" s="5">
         <v>1613404799</v>
       </c>
-      <c r="AA556" s="65">
+      <c r="AA556" s="5">
         <v>67</v>
       </c>
-      <c r="AH556" s="65">
-        <v>1</v>
-      </c>
-      <c r="AI556" s="65">
-        <v>1</v>
-      </c>
-      <c r="AL556" s="65">
-        <v>1</v>
-      </c>
-      <c r="AM556" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="557" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH556" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI556" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL556" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM556" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A557" s="5">
         <v>556</v>
       </c>
-      <c r="B557" s="67">
+      <c r="B557" s="5">
         <v>10473</v>
       </c>
-      <c r="F557" s="67">
-        <v>1</v>
-      </c>
-      <c r="G557" s="67" t="s">
-        <v>2077</v>
-      </c>
-      <c r="I557" s="67" t="s">
+      <c r="F557" s="5">
+        <v>0</v>
+      </c>
+      <c r="G557" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="I557" s="5" t="s">
         <v>2057</v>
       </c>
-      <c r="J557" s="67" t="s">
-        <v>2068</v>
-      </c>
-      <c r="L557" s="67">
+      <c r="J557" s="5" t="s">
+        <v>2069</v>
+      </c>
+      <c r="L557" s="5">
         <v>-25</v>
       </c>
-      <c r="M557" s="67">
-        <v>0</v>
-      </c>
-      <c r="N557" s="67">
-        <v>0</v>
-      </c>
-      <c r="O557" s="67" t="s">
+      <c r="M557" s="5">
+        <v>0</v>
+      </c>
+      <c r="N557" s="5">
+        <v>0</v>
+      </c>
+      <c r="O557" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="P557" s="67">
+      <c r="P557" s="5">
         <v>100</v>
       </c>
-      <c r="Q557" s="67" t="s">
+      <c r="Q557" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="R557" s="72" t="s">
-        <v>2061</v>
-      </c>
-      <c r="W557" s="67" t="s">
+      <c r="R557" s="63" t="s">
+        <v>2062</v>
+      </c>
+      <c r="W557" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="X557" s="67">
+      <c r="X557" s="5">
         <v>50</v>
       </c>
-      <c r="Y557" s="67">
+      <c r="Y557" s="5">
         <v>1613433600</v>
       </c>
-      <c r="Z557" s="67">
+      <c r="Z557" s="5">
         <v>1613440800</v>
       </c>
-      <c r="AE557" s="67">
+      <c r="AE557" s="5">
         <f t="shared" ref="AE557:AE565" si="1">24*60*60</f>
         <v>86400</v>
       </c>
-      <c r="AF557" s="67">
+      <c r="AF557" s="5">
         <v>7</v>
       </c>
-      <c r="AH557" s="67">
-        <v>1</v>
-      </c>
-      <c r="AI557" s="67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="558" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH557" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI557" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A558" s="5">
         <v>557</v>
       </c>
-      <c r="B558" s="67">
+      <c r="B558" s="5">
         <v>10474</v>
       </c>
-      <c r="F558" s="67">
-        <v>1</v>
-      </c>
-      <c r="G558" s="67" t="s">
-        <v>2078</v>
-      </c>
-      <c r="I558" s="67" t="s">
+      <c r="F558" s="5">
+        <v>0</v>
+      </c>
+      <c r="G558" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="I558" s="5" t="s">
         <v>2056</v>
       </c>
-      <c r="J558" s="67" t="s">
-        <v>2069</v>
-      </c>
-      <c r="L558" s="67">
+      <c r="J558" s="5" t="s">
+        <v>2070</v>
+      </c>
+      <c r="L558" s="5">
         <v>-25</v>
       </c>
-      <c r="M558" s="67">
-        <v>0</v>
-      </c>
-      <c r="N558" s="67">
-        <v>0</v>
-      </c>
-      <c r="O558" s="67" t="s">
+      <c r="M558" s="5">
+        <v>0</v>
+      </c>
+      <c r="N558" s="5">
+        <v>0</v>
+      </c>
+      <c r="O558" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="P558" s="67">
+      <c r="P558" s="5">
         <v>1800</v>
       </c>
-      <c r="Q558" s="67" t="s">
+      <c r="Q558" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="R558" s="72" t="s">
-        <v>2062</v>
-      </c>
-      <c r="W558" s="67" t="s">
+      <c r="R558" s="63" t="s">
+        <v>2063</v>
+      </c>
+      <c r="W558" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="X558" s="67">
+      <c r="X558" s="5">
         <v>20</v>
       </c>
-      <c r="Y558" s="67">
+      <c r="Y558" s="5">
         <v>1613433600</v>
       </c>
-      <c r="Z558" s="67">
+      <c r="Z558" s="5">
         <v>1613440800</v>
       </c>
-      <c r="AE558" s="67">
+      <c r="AE558" s="5">
         <f t="shared" si="1"/>
         <v>86400</v>
       </c>
-      <c r="AF558" s="67">
+      <c r="AF558" s="5">
         <v>7</v>
       </c>
-      <c r="AH558" s="67">
-        <v>1</v>
-      </c>
-      <c r="AI558" s="67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="559" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH558" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI558" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A559" s="5">
         <v>558</v>
       </c>
-      <c r="B559" s="67">
+      <c r="B559" s="5">
         <v>10475</v>
       </c>
-      <c r="F559" s="67">
-        <v>1</v>
-      </c>
-      <c r="G559" s="67" t="s">
-        <v>2079</v>
-      </c>
-      <c r="I559" s="67" t="s">
+      <c r="F559" s="5">
+        <v>0</v>
+      </c>
+      <c r="G559" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="I559" s="5" t="s">
         <v>2057</v>
       </c>
-      <c r="J559" s="67" t="s">
-        <v>2070</v>
-      </c>
-      <c r="L559" s="67">
+      <c r="J559" s="5" t="s">
+        <v>2071</v>
+      </c>
+      <c r="L559" s="5">
         <v>-25</v>
       </c>
-      <c r="M559" s="67">
-        <v>0</v>
-      </c>
-      <c r="N559" s="67">
-        <v>0</v>
-      </c>
-      <c r="O559" s="67" t="s">
+      <c r="M559" s="5">
+        <v>0</v>
+      </c>
+      <c r="N559" s="5">
+        <v>0</v>
+      </c>
+      <c r="O559" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="P559" s="67">
+      <c r="P559" s="5">
         <v>4800</v>
       </c>
-      <c r="Q559" s="67" t="s">
+      <c r="Q559" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="R559" s="72" t="s">
-        <v>2063</v>
-      </c>
-      <c r="W559" s="67" t="s">
+      <c r="R559" s="63" t="s">
+        <v>2064</v>
+      </c>
+      <c r="W559" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="X559" s="67">
+      <c r="X559" s="5">
         <v>10</v>
       </c>
-      <c r="Y559" s="67">
+      <c r="Y559" s="5">
         <v>1613433600</v>
       </c>
-      <c r="Z559" s="67">
+      <c r="Z559" s="5">
         <v>1613440800</v>
       </c>
-      <c r="AE559" s="67">
+      <c r="AE559" s="5">
         <f t="shared" si="1"/>
         <v>86400</v>
       </c>
-      <c r="AF559" s="67">
+      <c r="AF559" s="5">
         <v>7</v>
       </c>
-      <c r="AH559" s="67">
-        <v>1</v>
-      </c>
-      <c r="AI559" s="67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="560" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH559" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI559" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A560" s="5">
         <v>559</v>
       </c>
-      <c r="B560" s="67">
+      <c r="B560" s="5">
         <v>10476</v>
       </c>
-      <c r="F560" s="67">
-        <v>1</v>
-      </c>
-      <c r="G560" s="67" t="s">
-        <v>2080</v>
-      </c>
-      <c r="I560" s="67" t="s">
+      <c r="F560" s="5">
+        <v>0</v>
+      </c>
+      <c r="G560" s="5" t="s">
+        <v>2058</v>
+      </c>
+      <c r="I560" s="5" t="s">
         <v>2057</v>
       </c>
-      <c r="J560" s="67" t="s">
-        <v>2067</v>
-      </c>
-      <c r="L560" s="67">
+      <c r="J560" s="5" t="s">
+        <v>2068</v>
+      </c>
+      <c r="L560" s="5">
         <v>-25</v>
       </c>
-      <c r="M560" s="67">
-        <v>0</v>
-      </c>
-      <c r="N560" s="67">
-        <v>0</v>
-      </c>
-      <c r="O560" s="67" t="s">
+      <c r="M560" s="5">
+        <v>0</v>
+      </c>
+      <c r="N560" s="5">
+        <v>0</v>
+      </c>
+      <c r="O560" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="P560" s="67">
+      <c r="P560" s="5">
         <v>100</v>
       </c>
-      <c r="Q560" s="67" t="s">
+      <c r="Q560" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="R560" s="72" t="s">
-        <v>2061</v>
-      </c>
-      <c r="W560" s="67" t="s">
+      <c r="R560" s="63" t="s">
+        <v>2062</v>
+      </c>
+      <c r="W560" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="X560" s="67">
+      <c r="X560" s="5">
         <v>50</v>
       </c>
-      <c r="Y560" s="67">
+      <c r="Y560" s="5">
         <v>1613448000</v>
       </c>
-      <c r="Z560" s="67">
+      <c r="Z560" s="5">
         <v>1613455200</v>
       </c>
-      <c r="AE560" s="67">
+      <c r="AE560" s="5">
         <f t="shared" si="1"/>
         <v>86400</v>
       </c>
-      <c r="AF560" s="67">
+      <c r="AF560" s="5">
         <v>7</v>
       </c>
-      <c r="AH560" s="67">
-        <v>1</v>
-      </c>
-      <c r="AI560" s="67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="561" spans="1:35" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH560" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI560" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A561" s="5">
         <v>560</v>
       </c>
-      <c r="B561" s="67">
+      <c r="B561" s="5">
         <v>10477</v>
       </c>
-      <c r="F561" s="67">
-        <v>1</v>
-      </c>
-      <c r="G561" s="67" t="s">
-        <v>2081</v>
-      </c>
-      <c r="I561" s="67" t="s">
+      <c r="F561" s="5">
+        <v>0</v>
+      </c>
+      <c r="G561" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="I561" s="5" t="s">
         <v>2056</v>
       </c>
-      <c r="J561" s="67" t="s">
-        <v>2071</v>
-      </c>
-      <c r="L561" s="67">
+      <c r="J561" s="5" t="s">
+        <v>2072</v>
+      </c>
+      <c r="L561" s="5">
         <v>-25</v>
       </c>
-      <c r="M561" s="67">
-        <v>0</v>
-      </c>
-      <c r="N561" s="67">
-        <v>0</v>
-      </c>
-      <c r="O561" s="67" t="s">
+      <c r="M561" s="5">
+        <v>0</v>
+      </c>
+      <c r="N561" s="5">
+        <v>0</v>
+      </c>
+      <c r="O561" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="P561" s="67">
+      <c r="P561" s="5">
         <v>2800</v>
       </c>
-      <c r="Q561" s="67" t="s">
+      <c r="Q561" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="R561" s="72" t="s">
-        <v>2064</v>
-      </c>
-      <c r="W561" s="67" t="s">
+      <c r="R561" s="63" t="s">
+        <v>2065</v>
+      </c>
+      <c r="W561" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="X561" s="67">
+      <c r="X561" s="5">
         <v>20</v>
       </c>
-      <c r="Y561" s="67">
+      <c r="Y561" s="5">
         <v>1613448000</v>
       </c>
-      <c r="Z561" s="67">
+      <c r="Z561" s="5">
         <v>1613455200</v>
       </c>
-      <c r="AE561" s="67">
+      <c r="AE561" s="5">
         <f t="shared" si="1"/>
         <v>86400</v>
       </c>
-      <c r="AF561" s="67">
+      <c r="AF561" s="5">
         <v>7</v>
       </c>
-      <c r="AH561" s="67">
-        <v>1</v>
-      </c>
-      <c r="AI561" s="67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="562" spans="1:35" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH561" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI561" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A562" s="5">
         <v>561</v>
       </c>
-      <c r="B562" s="67">
+      <c r="B562" s="5">
         <v>10478</v>
       </c>
-      <c r="F562" s="67">
-        <v>1</v>
-      </c>
-      <c r="G562" s="67" t="s">
-        <v>2082</v>
-      </c>
-      <c r="I562" s="67" t="s">
+      <c r="F562" s="5">
+        <v>0</v>
+      </c>
+      <c r="G562" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I562" s="5" t="s">
         <v>2057</v>
       </c>
-      <c r="J562" s="67" t="s">
-        <v>2072</v>
-      </c>
-      <c r="L562" s="67">
+      <c r="J562" s="5" t="s">
+        <v>2073</v>
+      </c>
+      <c r="L562" s="5">
         <v>-25</v>
       </c>
-      <c r="M562" s="67">
-        <v>0</v>
-      </c>
-      <c r="N562" s="67">
-        <v>0</v>
-      </c>
-      <c r="O562" s="67" t="s">
+      <c r="M562" s="5">
+        <v>0</v>
+      </c>
+      <c r="N562" s="5">
+        <v>0</v>
+      </c>
+      <c r="O562" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="P562" s="67">
+      <c r="P562" s="5">
         <v>9800</v>
       </c>
-      <c r="Q562" s="67" t="s">
+      <c r="Q562" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="R562" s="72" t="s">
-        <v>2065</v>
-      </c>
-      <c r="W562" s="67" t="s">
+      <c r="R562" s="63" t="s">
+        <v>2066</v>
+      </c>
+      <c r="W562" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="X562" s="67">
+      <c r="X562" s="5">
         <v>10</v>
       </c>
-      <c r="Y562" s="67">
+      <c r="Y562" s="5">
         <v>1613448000</v>
       </c>
-      <c r="Z562" s="67">
+      <c r="Z562" s="5">
         <v>1613455200</v>
       </c>
-      <c r="AE562" s="67">
+      <c r="AE562" s="5">
         <f t="shared" si="1"/>
         <v>86400</v>
       </c>
-      <c r="AF562" s="67">
+      <c r="AF562" s="5">
         <v>7</v>
       </c>
-      <c r="AH562" s="67">
-        <v>1</v>
-      </c>
-      <c r="AI562" s="67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="563" spans="1:35" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH562" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI562" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A563" s="5">
         <v>562</v>
       </c>
-      <c r="B563" s="67">
+      <c r="B563" s="5">
         <v>10479</v>
       </c>
-      <c r="F563" s="67">
-        <v>1</v>
-      </c>
-      <c r="G563" s="67" t="s">
-        <v>2083</v>
-      </c>
-      <c r="I563" s="67" t="s">
+      <c r="F563" s="5">
+        <v>0</v>
+      </c>
+      <c r="G563" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="I563" s="5" t="s">
         <v>2057</v>
       </c>
-      <c r="J563" s="67" t="s">
-        <v>2068</v>
-      </c>
-      <c r="L563" s="67">
+      <c r="J563" s="5" t="s">
+        <v>2069</v>
+      </c>
+      <c r="L563" s="5">
         <v>-25</v>
       </c>
-      <c r="M563" s="67">
-        <v>0</v>
-      </c>
-      <c r="N563" s="67">
-        <v>0</v>
-      </c>
-      <c r="O563" s="67" t="s">
+      <c r="M563" s="5">
+        <v>0</v>
+      </c>
+      <c r="N563" s="5">
+        <v>0</v>
+      </c>
+      <c r="O563" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="P563" s="67">
+      <c r="P563" s="5">
         <v>100</v>
       </c>
-      <c r="Q563" s="67" t="s">
+      <c r="Q563" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="R563" s="72" t="s">
-        <v>2061</v>
-      </c>
-      <c r="W563" s="67" t="s">
+      <c r="R563" s="63" t="s">
+        <v>2062</v>
+      </c>
+      <c r="W563" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="X563" s="67">
+      <c r="X563" s="5">
         <v>50</v>
       </c>
-      <c r="Y563" s="67">
+      <c r="Y563" s="5">
         <v>1613469600</v>
       </c>
-      <c r="Z563" s="67">
+      <c r="Z563" s="5">
         <v>1613484000</v>
       </c>
-      <c r="AE563" s="67">
+      <c r="AE563" s="5">
         <f t="shared" si="1"/>
         <v>86400</v>
       </c>
-      <c r="AF563" s="67">
+      <c r="AF563" s="5">
         <v>7</v>
       </c>
-      <c r="AH563" s="67">
-        <v>1</v>
-      </c>
-      <c r="AI563" s="67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="564" spans="1:35" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH563" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI563" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A564" s="5">
         <v>563</v>
       </c>
-      <c r="B564" s="67">
+      <c r="B564" s="5">
         <v>10480</v>
       </c>
-      <c r="F564" s="67">
-        <v>1</v>
-      </c>
-      <c r="G564" s="67" t="s">
-        <v>2084</v>
-      </c>
-      <c r="I564" s="67" t="s">
+      <c r="F564" s="5">
+        <v>0</v>
+      </c>
+      <c r="G564" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="I564" s="5" t="s">
         <v>2056</v>
       </c>
-      <c r="J564" s="67" t="s">
-        <v>2070</v>
-      </c>
-      <c r="L564" s="67">
+      <c r="J564" s="5" t="s">
+        <v>2071</v>
+      </c>
+      <c r="L564" s="5">
         <v>-25</v>
       </c>
-      <c r="M564" s="67">
-        <v>0</v>
-      </c>
-      <c r="N564" s="67">
-        <v>0</v>
-      </c>
-      <c r="O564" s="67" t="s">
+      <c r="M564" s="5">
+        <v>0</v>
+      </c>
+      <c r="N564" s="5">
+        <v>0</v>
+      </c>
+      <c r="O564" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="P564" s="67">
+      <c r="P564" s="5">
         <v>4800</v>
       </c>
-      <c r="Q564" s="67" t="s">
+      <c r="Q564" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="R564" s="72" t="s">
-        <v>2063</v>
-      </c>
-      <c r="W564" s="67" t="s">
+      <c r="R564" s="63" t="s">
+        <v>2064</v>
+      </c>
+      <c r="W564" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="X564" s="67">
+      <c r="X564" s="5">
         <v>20</v>
       </c>
-      <c r="Y564" s="67">
+      <c r="Y564" s="5">
         <v>1613469600</v>
       </c>
-      <c r="Z564" s="67">
+      <c r="Z564" s="5">
         <v>1613484000</v>
       </c>
-      <c r="AE564" s="67">
+      <c r="AE564" s="5">
         <f t="shared" si="1"/>
         <v>86400</v>
       </c>
-      <c r="AF564" s="67">
+      <c r="AF564" s="5">
         <v>7</v>
       </c>
-      <c r="AH564" s="67">
-        <v>1</v>
-      </c>
-      <c r="AI564" s="67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="565" spans="1:35" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH564" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI564" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A565" s="5">
         <v>564</v>
       </c>
-      <c r="B565" s="67">
+      <c r="B565" s="5">
         <v>10481</v>
       </c>
-      <c r="F565" s="67">
-        <v>1</v>
-      </c>
-      <c r="G565" s="67" t="s">
-        <v>2085</v>
-      </c>
-      <c r="I565" s="67" t="s">
+      <c r="F565" s="5">
+        <v>0</v>
+      </c>
+      <c r="G565" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I565" s="5" t="s">
         <v>2057</v>
       </c>
-      <c r="J565" s="67" t="s">
-        <v>2073</v>
-      </c>
-      <c r="L565" s="67">
+      <c r="J565" s="5" t="s">
+        <v>2074</v>
+      </c>
+      <c r="L565" s="5">
         <v>-25</v>
       </c>
-      <c r="M565" s="67">
-        <v>0</v>
-      </c>
-      <c r="N565" s="67">
-        <v>0</v>
-      </c>
-      <c r="O565" s="67" t="s">
+      <c r="M565" s="5">
+        <v>0</v>
+      </c>
+      <c r="N565" s="5">
+        <v>0</v>
+      </c>
+      <c r="O565" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="P565" s="67">
+      <c r="P565" s="5">
         <v>19800</v>
       </c>
-      <c r="Q565" s="67" t="s">
+      <c r="Q565" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="R565" s="72" t="s">
-        <v>2066</v>
-      </c>
-      <c r="W565" s="67" t="s">
+      <c r="R565" s="63" t="s">
+        <v>2067</v>
+      </c>
+      <c r="W565" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="X565" s="67">
+      <c r="X565" s="5">
         <v>10</v>
       </c>
-      <c r="Y565" s="67">
+      <c r="Y565" s="5">
         <v>1613469600</v>
       </c>
-      <c r="Z565" s="67">
+      <c r="Z565" s="5">
         <v>1613484000</v>
       </c>
-      <c r="AE565" s="67">
+      <c r="AE565" s="5">
         <f t="shared" si="1"/>
         <v>86400</v>
       </c>
-      <c r="AF565" s="67">
+      <c r="AF565" s="5">
         <v>7</v>
       </c>
-      <c r="AH565" s="67">
-        <v>1</v>
-      </c>
-      <c r="AI565" s="67">
+      <c r="AH565" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI565" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" spans="1:39" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A566" s="5">
+        <v>565</v>
+      </c>
+      <c r="B566" s="5">
+        <v>10482</v>
+      </c>
+      <c r="F566" s="21">
+        <v>1</v>
+      </c>
+      <c r="G566" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="I566" s="21" t="s">
+        <v>2076</v>
+      </c>
+      <c r="J566" s="21" t="s">
+        <v>1885</v>
+      </c>
+      <c r="L566" s="21">
+        <v>-33</v>
+      </c>
+      <c r="M566" s="21">
+        <v>0</v>
+      </c>
+      <c r="N566" s="21">
+        <v>0</v>
+      </c>
+      <c r="O566" s="21" t="s">
+        <v>498</v>
+      </c>
+      <c r="P566" s="21">
+        <v>49800</v>
+      </c>
+      <c r="Q566" s="21" t="s">
+        <v>2077</v>
+      </c>
+      <c r="R566" s="64" t="s">
+        <v>1888</v>
+      </c>
+      <c r="W566" s="21" t="s">
+        <v>587</v>
+      </c>
+      <c r="X566" s="21">
+        <v>99999999</v>
+      </c>
+      <c r="Y566" s="21">
+        <v>1614643200</v>
+      </c>
+      <c r="Z566" s="21">
+        <v>1615219199</v>
+      </c>
+      <c r="AA566" s="21">
+        <v>68</v>
+      </c>
+      <c r="AH566" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI566" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL566" s="21">
+        <v>1</v>
+      </c>
+      <c r="AM566" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:39" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A567" s="5">
+        <v>566</v>
+      </c>
+      <c r="B567" s="5">
+        <v>10483</v>
+      </c>
+      <c r="F567" s="21">
+        <v>1</v>
+      </c>
+      <c r="G567" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="I567" s="21" t="s">
+        <v>2076</v>
+      </c>
+      <c r="J567" s="21" t="s">
+        <v>1890</v>
+      </c>
+      <c r="L567" s="21">
+        <v>-33</v>
+      </c>
+      <c r="M567" s="21">
+        <v>0</v>
+      </c>
+      <c r="N567" s="21">
+        <v>0</v>
+      </c>
+      <c r="O567" s="21" t="s">
+        <v>2078</v>
+      </c>
+      <c r="P567" s="21">
+        <v>19800</v>
+      </c>
+      <c r="Q567" s="21" t="s">
+        <v>2077</v>
+      </c>
+      <c r="R567" s="64" t="s">
+        <v>1891</v>
+      </c>
+      <c r="W567" s="21" t="s">
+        <v>587</v>
+      </c>
+      <c r="X567" s="21">
+        <v>99999999</v>
+      </c>
+      <c r="Y567" s="21">
+        <v>1614643200</v>
+      </c>
+      <c r="Z567" s="21">
+        <v>1615219199</v>
+      </c>
+      <c r="AA567" s="21">
+        <v>68</v>
+      </c>
+      <c r="AH567" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI567" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL567" s="21">
+        <v>1</v>
+      </c>
+      <c r="AM567" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:39" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A568" s="5">
+        <v>567</v>
+      </c>
+      <c r="B568" s="5">
+        <v>10484</v>
+      </c>
+      <c r="F568" s="21">
+        <v>1</v>
+      </c>
+      <c r="G568" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="I568" s="21" t="s">
+        <v>2075</v>
+      </c>
+      <c r="J568" s="21" t="s">
+        <v>2079</v>
+      </c>
+      <c r="L568" s="21">
+        <v>-33</v>
+      </c>
+      <c r="M568" s="21">
+        <v>0</v>
+      </c>
+      <c r="N568" s="21">
+        <v>0</v>
+      </c>
+      <c r="O568" s="21" t="s">
+        <v>2080</v>
+      </c>
+      <c r="P568" s="21">
+        <v>9800</v>
+      </c>
+      <c r="Q568" s="21" t="s">
+        <v>2081</v>
+      </c>
+      <c r="R568" s="64" t="s">
+        <v>1894</v>
+      </c>
+      <c r="W568" s="21" t="s">
+        <v>587</v>
+      </c>
+      <c r="X568" s="21">
+        <v>99999999</v>
+      </c>
+      <c r="Y568" s="21">
+        <v>1614643200</v>
+      </c>
+      <c r="Z568" s="21">
+        <v>1615219199</v>
+      </c>
+      <c r="AA568" s="21">
+        <v>68</v>
+      </c>
+      <c r="AH568" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI568" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL568" s="21">
+        <v>1</v>
+      </c>
+      <c r="AM568" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:39" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A569" s="5">
+        <v>568</v>
+      </c>
+      <c r="B569" s="5">
+        <v>10485</v>
+      </c>
+      <c r="F569" s="21">
+        <v>1</v>
+      </c>
+      <c r="G569" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="I569" s="21" t="s">
+        <v>2075</v>
+      </c>
+      <c r="J569" s="21" t="s">
+        <v>2082</v>
+      </c>
+      <c r="L569" s="21">
+        <v>-33</v>
+      </c>
+      <c r="M569" s="21">
+        <v>0</v>
+      </c>
+      <c r="N569" s="21">
+        <v>0</v>
+      </c>
+      <c r="O569" s="21" t="s">
+        <v>2083</v>
+      </c>
+      <c r="P569" s="21">
+        <v>4800</v>
+      </c>
+      <c r="Q569" s="21" t="s">
+        <v>2084</v>
+      </c>
+      <c r="R569" s="64" t="s">
+        <v>1897</v>
+      </c>
+      <c r="W569" s="21" t="s">
+        <v>2085</v>
+      </c>
+      <c r="X569" s="21">
+        <v>99999999</v>
+      </c>
+      <c r="Y569" s="21">
+        <v>1614643200</v>
+      </c>
+      <c r="Z569" s="21">
+        <v>1615219199</v>
+      </c>
+      <c r="AA569" s="21">
+        <v>68</v>
+      </c>
+      <c r="AH569" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI569" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL569" s="21">
+        <v>1</v>
+      </c>
+      <c r="AM569" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:39" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A570" s="5">
+        <v>569</v>
+      </c>
+      <c r="B570" s="5">
+        <v>10486</v>
+      </c>
+      <c r="F570" s="21">
+        <v>1</v>
+      </c>
+      <c r="G570" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="I570" s="21" t="s">
+        <v>2086</v>
+      </c>
+      <c r="J570" s="21" t="s">
+        <v>2087</v>
+      </c>
+      <c r="L570" s="21">
+        <v>-33</v>
+      </c>
+      <c r="M570" s="21">
+        <v>0</v>
+      </c>
+      <c r="N570" s="21">
+        <v>0</v>
+      </c>
+      <c r="O570" s="21" t="s">
+        <v>498</v>
+      </c>
+      <c r="P570" s="21">
+        <v>49800</v>
+      </c>
+      <c r="Q570" s="21" t="s">
+        <v>2088</v>
+      </c>
+      <c r="R570" s="64" t="s">
+        <v>2089</v>
+      </c>
+      <c r="W570" s="21" t="s">
+        <v>2085</v>
+      </c>
+      <c r="X570" s="21">
+        <v>99999999</v>
+      </c>
+      <c r="Y570" s="21">
+        <v>1614643200</v>
+      </c>
+      <c r="Z570" s="21">
+        <v>1615219199</v>
+      </c>
+      <c r="AA570" s="21">
+        <v>69</v>
+      </c>
+      <c r="AH570" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI570" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL570" s="21">
+        <v>1</v>
+      </c>
+      <c r="AM570" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:39" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A571" s="5">
+        <v>570</v>
+      </c>
+      <c r="B571" s="5">
+        <v>10487</v>
+      </c>
+      <c r="F571" s="21">
+        <v>1</v>
+      </c>
+      <c r="G571" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="I571" s="21" t="s">
+        <v>2086</v>
+      </c>
+      <c r="J571" s="21" t="s">
+        <v>1902</v>
+      </c>
+      <c r="L571" s="21">
+        <v>-33</v>
+      </c>
+      <c r="M571" s="21">
+        <v>0</v>
+      </c>
+      <c r="N571" s="21">
+        <v>0</v>
+      </c>
+      <c r="O571" s="21" t="s">
+        <v>2083</v>
+      </c>
+      <c r="P571" s="21">
+        <v>19800</v>
+      </c>
+      <c r="Q571" s="21" t="s">
+        <v>2088</v>
+      </c>
+      <c r="R571" s="64" t="s">
+        <v>2090</v>
+      </c>
+      <c r="W571" s="21" t="s">
+        <v>2085</v>
+      </c>
+      <c r="X571" s="21">
+        <v>99999999</v>
+      </c>
+      <c r="Y571" s="21">
+        <v>1614643200</v>
+      </c>
+      <c r="Z571" s="21">
+        <v>1615219199</v>
+      </c>
+      <c r="AA571" s="21">
+        <v>69</v>
+      </c>
+      <c r="AH571" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI571" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL571" s="21">
+        <v>1</v>
+      </c>
+      <c r="AM571" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:39" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A572" s="5">
+        <v>571</v>
+      </c>
+      <c r="B572" s="5">
+        <v>10488</v>
+      </c>
+      <c r="F572" s="21">
+        <v>1</v>
+      </c>
+      <c r="G572" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="I572" s="21" t="s">
+        <v>2086</v>
+      </c>
+      <c r="J572" s="21" t="s">
+        <v>1904</v>
+      </c>
+      <c r="L572" s="21">
+        <v>-33</v>
+      </c>
+      <c r="M572" s="21">
+        <v>0</v>
+      </c>
+      <c r="N572" s="21">
+        <v>0</v>
+      </c>
+      <c r="O572" s="21" t="s">
+        <v>498</v>
+      </c>
+      <c r="P572" s="21">
+        <v>9800</v>
+      </c>
+      <c r="Q572" s="21" t="s">
+        <v>2091</v>
+      </c>
+      <c r="R572" s="64" t="s">
+        <v>2092</v>
+      </c>
+      <c r="W572" s="21" t="s">
+        <v>587</v>
+      </c>
+      <c r="X572" s="21">
+        <v>99999999</v>
+      </c>
+      <c r="Y572" s="21">
+        <v>1614643200</v>
+      </c>
+      <c r="Z572" s="21">
+        <v>1615219199</v>
+      </c>
+      <c r="AA572" s="21">
+        <v>69</v>
+      </c>
+      <c r="AH572" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI572" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL572" s="21">
+        <v>1</v>
+      </c>
+      <c r="AM572" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:39" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A573" s="5">
+        <v>572</v>
+      </c>
+      <c r="B573" s="5">
+        <v>10489</v>
+      </c>
+      <c r="F573" s="21">
+        <v>1</v>
+      </c>
+      <c r="G573" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="I573" s="21" t="s">
+        <v>2086</v>
+      </c>
+      <c r="J573" s="21" t="s">
+        <v>1916</v>
+      </c>
+      <c r="L573" s="21">
+        <v>-33</v>
+      </c>
+      <c r="M573" s="21">
+        <v>0</v>
+      </c>
+      <c r="N573" s="21">
+        <v>0</v>
+      </c>
+      <c r="O573" s="21" t="s">
+        <v>498</v>
+      </c>
+      <c r="P573" s="21">
+        <v>4800</v>
+      </c>
+      <c r="Q573" s="21" t="s">
+        <v>2093</v>
+      </c>
+      <c r="R573" s="64" t="s">
+        <v>1908</v>
+      </c>
+      <c r="W573" s="21" t="s">
+        <v>2085</v>
+      </c>
+      <c r="X573" s="21">
+        <v>99999999</v>
+      </c>
+      <c r="Y573" s="21">
+        <v>1614643200</v>
+      </c>
+      <c r="Z573" s="21">
+        <v>1615219199</v>
+      </c>
+      <c r="AA573" s="21">
+        <v>69</v>
+      </c>
+      <c r="AH573" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI573" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL573" s="21">
+        <v>1</v>
+      </c>
+      <c r="AM573" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A574" s="5">
+        <v>573</v>
+      </c>
+      <c r="B574" s="21">
+        <v>10490</v>
+      </c>
+      <c r="C574" s="21"/>
+      <c r="D574" s="21"/>
+      <c r="E574" s="21"/>
+      <c r="F574" s="21">
+        <v>1</v>
+      </c>
+      <c r="G574" s="21" t="s">
+        <v>2095</v>
+      </c>
+      <c r="H574" s="21"/>
+      <c r="I574" s="21" t="s">
+        <v>2096</v>
+      </c>
+      <c r="J574" s="21"/>
+      <c r="K574" s="21"/>
+      <c r="L574" s="21">
+        <v>-31</v>
+      </c>
+      <c r="M574" s="21">
+        <v>0</v>
+      </c>
+      <c r="N574" s="21">
+        <v>0</v>
+      </c>
+      <c r="O574" s="21" t="s">
+        <v>1190</v>
+      </c>
+      <c r="P574" s="21">
+        <v>4500</v>
+      </c>
+      <c r="Q574" s="21" t="s">
+        <v>2097</v>
+      </c>
+      <c r="R574" s="65" t="s">
+        <v>2098</v>
+      </c>
+      <c r="S574" s="21"/>
+      <c r="T574" s="21"/>
+      <c r="U574" s="21"/>
+      <c r="V574" s="21"/>
+      <c r="W574" s="21" t="s">
+        <v>2099</v>
+      </c>
+      <c r="X574" s="21">
+        <v>99999999</v>
+      </c>
+      <c r="Y574" s="21">
+        <v>1614643200</v>
+      </c>
+      <c r="Z574" s="21">
+        <v>2552233600</v>
+      </c>
+      <c r="AH574" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI574" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL574" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM574" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A575" s="5">
+        <v>574</v>
+      </c>
+      <c r="B575" s="21">
+        <v>10491</v>
+      </c>
+      <c r="C575" s="21"/>
+      <c r="D575" s="21"/>
+      <c r="E575" s="21"/>
+      <c r="F575" s="21">
+        <v>1</v>
+      </c>
+      <c r="G575" s="21" t="s">
+        <v>2100</v>
+      </c>
+      <c r="H575" s="21"/>
+      <c r="I575" s="21" t="s">
+        <v>2101</v>
+      </c>
+      <c r="J575" s="21"/>
+      <c r="K575" s="21"/>
+      <c r="L575" s="21">
+        <v>-31</v>
+      </c>
+      <c r="M575" s="21">
+        <v>0</v>
+      </c>
+      <c r="N575" s="21">
+        <v>0</v>
+      </c>
+      <c r="O575" s="21" t="s">
+        <v>1190</v>
+      </c>
+      <c r="P575" s="21">
+        <v>8800</v>
+      </c>
+      <c r="Q575" s="21" t="s">
+        <v>2102</v>
+      </c>
+      <c r="R575" s="65" t="s">
+        <v>2103</v>
+      </c>
+      <c r="S575" s="21"/>
+      <c r="T575" s="21"/>
+      <c r="U575" s="21"/>
+      <c r="V575" s="21"/>
+      <c r="W575" s="21" t="s">
+        <v>2099</v>
+      </c>
+      <c r="X575" s="21">
+        <v>99999999</v>
+      </c>
+      <c r="Y575" s="21">
+        <v>1614643200</v>
+      </c>
+      <c r="Z575" s="21">
+        <v>2552233600</v>
+      </c>
+      <c r="AH575" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI575" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL575" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM575" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A576" s="5">
+        <v>575</v>
+      </c>
+      <c r="B576" s="21">
+        <v>10492</v>
+      </c>
+      <c r="C576" s="21"/>
+      <c r="D576" s="21"/>
+      <c r="E576" s="21"/>
+      <c r="F576" s="21">
+        <v>1</v>
+      </c>
+      <c r="G576" s="21" t="s">
+        <v>2104</v>
+      </c>
+      <c r="H576" s="21"/>
+      <c r="I576" s="21" t="s">
+        <v>2105</v>
+      </c>
+      <c r="J576" s="21"/>
+      <c r="K576" s="21"/>
+      <c r="L576" s="21">
+        <v>-31</v>
+      </c>
+      <c r="M576" s="21">
+        <v>0</v>
+      </c>
+      <c r="N576" s="21">
+        <v>0</v>
+      </c>
+      <c r="O576" s="21" t="s">
+        <v>1190</v>
+      </c>
+      <c r="P576" s="21">
+        <v>17800</v>
+      </c>
+      <c r="Q576" s="21" t="s">
+        <v>2106</v>
+      </c>
+      <c r="R576" s="65" t="s">
+        <v>2107</v>
+      </c>
+      <c r="S576" s="21"/>
+      <c r="T576" s="21"/>
+      <c r="U576" s="21"/>
+      <c r="V576" s="21"/>
+      <c r="W576" s="21" t="s">
+        <v>2099</v>
+      </c>
+      <c r="X576" s="21">
+        <v>99999999</v>
+      </c>
+      <c r="Y576" s="21">
+        <v>1614643200</v>
+      </c>
+      <c r="Z576" s="21">
+        <v>2552233600</v>
+      </c>
+      <c r="AH576" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI576" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL576" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM576" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A577" s="5">
+        <v>576</v>
+      </c>
+      <c r="B577" s="21">
+        <v>10493</v>
+      </c>
+      <c r="C577" s="21"/>
+      <c r="D577" s="21"/>
+      <c r="E577" s="21"/>
+      <c r="F577" s="21">
+        <v>1</v>
+      </c>
+      <c r="G577" s="21" t="s">
+        <v>2108</v>
+      </c>
+      <c r="H577" s="21"/>
+      <c r="I577" s="21" t="s">
+        <v>2109</v>
+      </c>
+      <c r="J577" s="21"/>
+      <c r="K577" s="21"/>
+      <c r="L577" s="21">
+        <v>-31</v>
+      </c>
+      <c r="M577" s="21">
+        <v>0</v>
+      </c>
+      <c r="N577" s="21">
+        <v>0</v>
+      </c>
+      <c r="O577" s="21" t="s">
+        <v>1190</v>
+      </c>
+      <c r="P577" s="21">
+        <v>44800</v>
+      </c>
+      <c r="Q577" s="21" t="s">
+        <v>2110</v>
+      </c>
+      <c r="R577" s="65" t="s">
+        <v>2111</v>
+      </c>
+      <c r="S577" s="21"/>
+      <c r="T577" s="21"/>
+      <c r="U577" s="21"/>
+      <c r="V577" s="21"/>
+      <c r="W577" s="21" t="s">
+        <v>613</v>
+      </c>
+      <c r="X577" s="21">
+        <v>99999999</v>
+      </c>
+      <c r="Y577" s="21">
+        <v>1614643200</v>
+      </c>
+      <c r="Z577" s="21">
+        <v>2552233600</v>
+      </c>
+      <c r="AH577" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI577" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL577" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM577" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A578" s="5">
+        <v>577</v>
+      </c>
+      <c r="B578" s="21">
+        <v>10494</v>
+      </c>
+      <c r="C578" s="21"/>
+      <c r="D578" s="21"/>
+      <c r="E578" s="21"/>
+      <c r="F578" s="21">
+        <v>1</v>
+      </c>
+      <c r="G578" s="21" t="s">
+        <v>2112</v>
+      </c>
+      <c r="H578" s="21"/>
+      <c r="I578" s="21" t="s">
+        <v>2113</v>
+      </c>
+      <c r="J578" s="21"/>
+      <c r="K578" s="21"/>
+      <c r="L578" s="21">
+        <v>-31</v>
+      </c>
+      <c r="M578" s="21">
+        <v>0</v>
+      </c>
+      <c r="N578" s="21">
+        <v>0</v>
+      </c>
+      <c r="O578" s="21" t="s">
+        <v>1190</v>
+      </c>
+      <c r="P578" s="21">
+        <v>89800</v>
+      </c>
+      <c r="Q578" s="21" t="s">
+        <v>2114</v>
+      </c>
+      <c r="R578" s="65" t="s">
+        <v>2115</v>
+      </c>
+      <c r="S578" s="21"/>
+      <c r="T578" s="21"/>
+      <c r="U578" s="21"/>
+      <c r="V578" s="21"/>
+      <c r="W578" s="21" t="s">
+        <v>613</v>
+      </c>
+      <c r="X578" s="21">
+        <v>99999999</v>
+      </c>
+      <c r="Y578" s="21">
+        <v>1614643200</v>
+      </c>
+      <c r="Z578" s="21">
+        <v>2552233600</v>
+      </c>
+      <c r="AH578" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI578" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL578" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM578" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A579" s="5">
+        <v>578</v>
+      </c>
+      <c r="B579" s="21">
+        <v>10495</v>
+      </c>
+      <c r="C579" s="21"/>
+      <c r="D579" s="21"/>
+      <c r="E579" s="21"/>
+      <c r="F579" s="21">
+        <v>1</v>
+      </c>
+      <c r="G579" s="21" t="s">
+        <v>2116</v>
+      </c>
+      <c r="H579" s="21"/>
+      <c r="I579" s="21" t="s">
+        <v>2117</v>
+      </c>
+      <c r="J579" s="21"/>
+      <c r="K579" s="21"/>
+      <c r="L579" s="21">
+        <v>-31</v>
+      </c>
+      <c r="M579" s="21">
+        <v>0</v>
+      </c>
+      <c r="N579" s="21">
+        <v>0</v>
+      </c>
+      <c r="O579" s="21" t="s">
+        <v>1190</v>
+      </c>
+      <c r="P579" s="21">
+        <v>229800</v>
+      </c>
+      <c r="Q579" s="21" t="s">
+        <v>2118</v>
+      </c>
+      <c r="R579" s="65" t="s">
+        <v>2119</v>
+      </c>
+      <c r="S579" s="21"/>
+      <c r="T579" s="21"/>
+      <c r="U579" s="21"/>
+      <c r="V579" s="21"/>
+      <c r="W579" s="21" t="s">
+        <v>613</v>
+      </c>
+      <c r="X579" s="21">
+        <v>99999999</v>
+      </c>
+      <c r="Y579" s="21">
+        <v>1614643200</v>
+      </c>
+      <c r="Z579" s="21">
+        <v>2552233600</v>
+      </c>
+      <c r="AH579" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI579" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL579" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM579" s="5">
         <v>1</v>
       </c>
     </row>
@@ -47754,8 +48845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -48768,7 +49859,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="49" t="s">
-        <v>2074</v>
+        <v>2120</v>
       </c>
       <c r="C71" s="50">
         <v>1</v>
@@ -48782,7 +49873,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="49" t="s">
-        <v>2075</v>
+        <v>2121</v>
       </c>
       <c r="C72" s="50">
         <v>1</v>
@@ -48796,7 +49887,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="49" t="s">
-        <v>2076</v>
+        <v>2122</v>
       </c>
       <c r="C73" s="50">
         <v>1</v>

--- a/config_debug/shoping_config_cjj.xlsx
+++ b/config_debug/shoping_config_cjj.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -11702,11 +11702,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN565"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="Q546" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="X528" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R560" sqref="R560"/>
+      <selection pane="bottomRight" activeCell="Y547" sqref="Y547"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -44736,7 +44736,7 @@
         <v>99999999</v>
       </c>
       <c r="Y521" s="67">
-        <v>1613433600</v>
+        <v>1613404800</v>
       </c>
       <c r="Z521" s="67">
         <v>1614009599</v>
@@ -44804,7 +44804,7 @@
         <v>99999999</v>
       </c>
       <c r="Y522" s="67">
-        <v>1613433600</v>
+        <v>1613404800</v>
       </c>
       <c r="Z522" s="67">
         <v>1614009599</v>
@@ -44872,7 +44872,7 @@
         <v>99999999</v>
       </c>
       <c r="Y523" s="67">
-        <v>1613433600</v>
+        <v>1613404800</v>
       </c>
       <c r="Z523" s="67">
         <v>1614009599</v>
@@ -44940,7 +44940,7 @@
         <v>99999999</v>
       </c>
       <c r="Y524" s="67">
-        <v>1613433600</v>
+        <v>1613404800</v>
       </c>
       <c r="Z524" s="67">
         <v>1614009599</v>
@@ -45008,7 +45008,7 @@
         <v>99999999</v>
       </c>
       <c r="Y525" s="67">
-        <v>1613433600</v>
+        <v>1613404800</v>
       </c>
       <c r="Z525" s="67">
         <v>1614009599</v>
@@ -45076,7 +45076,7 @@
         <v>99999999</v>
       </c>
       <c r="Y526" s="67">
-        <v>1613433600</v>
+        <v>1613404800</v>
       </c>
       <c r="Z526" s="67">
         <v>1614009599</v>
@@ -45144,7 +45144,7 @@
         <v>99999999</v>
       </c>
       <c r="Y527" s="67">
-        <v>1613433600</v>
+        <v>1613404800</v>
       </c>
       <c r="Z527" s="67">
         <v>1614009599</v>
@@ -45212,7 +45212,7 @@
         <v>99999999</v>
       </c>
       <c r="Y528" s="67">
-        <v>1613433600</v>
+        <v>1613404800</v>
       </c>
       <c r="Z528" s="67">
         <v>1614009599</v>
@@ -45280,7 +45280,7 @@
         <v>99999999</v>
       </c>
       <c r="Y529" s="67">
-        <v>1613433600</v>
+        <v>1613404800</v>
       </c>
       <c r="Z529" s="67">
         <v>1614009599</v>
@@ -45348,7 +45348,7 @@
         <v>99999999</v>
       </c>
       <c r="Y530" s="67">
-        <v>1613433600</v>
+        <v>1613404800</v>
       </c>
       <c r="Z530" s="67">
         <v>1614009599</v>
@@ -45416,7 +45416,7 @@
         <v>99999999</v>
       </c>
       <c r="Y531" s="67">
-        <v>1613433600</v>
+        <v>1613404800</v>
       </c>
       <c r="Z531" s="67">
         <v>1614009599</v>
@@ -45484,7 +45484,7 @@
         <v>99999999</v>
       </c>
       <c r="Y532" s="67">
-        <v>1613433600</v>
+        <v>1613404800</v>
       </c>
       <c r="Z532" s="67">
         <v>1614009599</v>
@@ -46164,7 +46164,7 @@
         <v>9999999</v>
       </c>
       <c r="Y542" s="71">
-        <v>1614038400</v>
+        <v>1614009600</v>
       </c>
       <c r="Z542" s="71">
         <v>1614614399</v>
@@ -46229,7 +46229,7 @@
         <v>9999999</v>
       </c>
       <c r="Y543" s="71">
-        <v>1614038400</v>
+        <v>1614009600</v>
       </c>
       <c r="Z543" s="71">
         <v>1614614399</v>
@@ -46294,7 +46294,7 @@
         <v>9999999</v>
       </c>
       <c r="Y544" s="71">
-        <v>1614038400</v>
+        <v>1614009600</v>
       </c>
       <c r="Z544" s="71">
         <v>1614614399</v>
@@ -46359,7 +46359,7 @@
         <v>9999999</v>
       </c>
       <c r="Y545" s="71">
-        <v>1614038400</v>
+        <v>1614009600</v>
       </c>
       <c r="Z545" s="71">
         <v>1614614399</v>
@@ -46424,7 +46424,7 @@
         <v>9999999</v>
       </c>
       <c r="Y546" s="71">
-        <v>1614038400</v>
+        <v>1614009600</v>
       </c>
       <c r="Z546" s="71">
         <v>1614614399</v>
@@ -46489,7 +46489,7 @@
         <v>9999999</v>
       </c>
       <c r="Y547" s="71">
-        <v>1614038400</v>
+        <v>1614009600</v>
       </c>
       <c r="Z547" s="71">
         <v>1614614399</v>
@@ -46554,7 +46554,7 @@
         <v>9999999</v>
       </c>
       <c r="Y548" s="71">
-        <v>1614038400</v>
+        <v>1614009600</v>
       </c>
       <c r="Z548" s="71">
         <v>1614614399</v>
@@ -47722,7 +47722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>

--- a/config_debug/shoping_config_cjj.xlsx
+++ b/config_debug/shoping_config_cjj.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -11702,11 +11702,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN565"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="X528" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="Q546" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y547" sqref="Y547"/>
+      <selection pane="bottomRight" activeCell="R560" sqref="R560"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -44736,7 +44736,7 @@
         <v>99999999</v>
       </c>
       <c r="Y521" s="67">
-        <v>1613404800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z521" s="67">
         <v>1614009599</v>
@@ -44804,7 +44804,7 @@
         <v>99999999</v>
       </c>
       <c r="Y522" s="67">
-        <v>1613404800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z522" s="67">
         <v>1614009599</v>
@@ -44872,7 +44872,7 @@
         <v>99999999</v>
       </c>
       <c r="Y523" s="67">
-        <v>1613404800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z523" s="67">
         <v>1614009599</v>
@@ -44940,7 +44940,7 @@
         <v>99999999</v>
       </c>
       <c r="Y524" s="67">
-        <v>1613404800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z524" s="67">
         <v>1614009599</v>
@@ -45008,7 +45008,7 @@
         <v>99999999</v>
       </c>
       <c r="Y525" s="67">
-        <v>1613404800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z525" s="67">
         <v>1614009599</v>
@@ -45076,7 +45076,7 @@
         <v>99999999</v>
       </c>
       <c r="Y526" s="67">
-        <v>1613404800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z526" s="67">
         <v>1614009599</v>
@@ -45144,7 +45144,7 @@
         <v>99999999</v>
       </c>
       <c r="Y527" s="67">
-        <v>1613404800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z527" s="67">
         <v>1614009599</v>
@@ -45212,7 +45212,7 @@
         <v>99999999</v>
       </c>
       <c r="Y528" s="67">
-        <v>1613404800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z528" s="67">
         <v>1614009599</v>
@@ -45280,7 +45280,7 @@
         <v>99999999</v>
       </c>
       <c r="Y529" s="67">
-        <v>1613404800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z529" s="67">
         <v>1614009599</v>
@@ -45348,7 +45348,7 @@
         <v>99999999</v>
       </c>
       <c r="Y530" s="67">
-        <v>1613404800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z530" s="67">
         <v>1614009599</v>
@@ -45416,7 +45416,7 @@
         <v>99999999</v>
       </c>
       <c r="Y531" s="67">
-        <v>1613404800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z531" s="67">
         <v>1614009599</v>
@@ -45484,7 +45484,7 @@
         <v>99999999</v>
       </c>
       <c r="Y532" s="67">
-        <v>1613404800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z532" s="67">
         <v>1614009599</v>
@@ -46164,7 +46164,7 @@
         <v>9999999</v>
       </c>
       <c r="Y542" s="71">
-        <v>1614009600</v>
+        <v>1614038400</v>
       </c>
       <c r="Z542" s="71">
         <v>1614614399</v>
@@ -46229,7 +46229,7 @@
         <v>9999999</v>
       </c>
       <c r="Y543" s="71">
-        <v>1614009600</v>
+        <v>1614038400</v>
       </c>
       <c r="Z543" s="71">
         <v>1614614399</v>
@@ -46294,7 +46294,7 @@
         <v>9999999</v>
       </c>
       <c r="Y544" s="71">
-        <v>1614009600</v>
+        <v>1614038400</v>
       </c>
       <c r="Z544" s="71">
         <v>1614614399</v>
@@ -46359,7 +46359,7 @@
         <v>9999999</v>
       </c>
       <c r="Y545" s="71">
-        <v>1614009600</v>
+        <v>1614038400</v>
       </c>
       <c r="Z545" s="71">
         <v>1614614399</v>
@@ -46424,7 +46424,7 @@
         <v>9999999</v>
       </c>
       <c r="Y546" s="71">
-        <v>1614009600</v>
+        <v>1614038400</v>
       </c>
       <c r="Z546" s="71">
         <v>1614614399</v>
@@ -46489,7 +46489,7 @@
         <v>9999999</v>
       </c>
       <c r="Y547" s="71">
-        <v>1614009600</v>
+        <v>1614038400</v>
       </c>
       <c r="Z547" s="71">
         <v>1614614399</v>
@@ -46554,7 +46554,7 @@
         <v>9999999</v>
       </c>
       <c r="Y548" s="71">
-        <v>1614009600</v>
+        <v>1614038400</v>
       </c>
       <c r="Z548" s="71">
         <v>1614614399</v>
@@ -47722,7 +47722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>

--- a/config_debug/shoping_config_cjj.xlsx
+++ b/config_debug/shoping_config_cjj.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4671" uniqueCount="2123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4678" uniqueCount="2129">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -9017,6 +9017,30 @@
   </si>
   <si>
     <t>{type="permission_class",class_value = "fclb_v8v12_002" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币周卡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币周卡"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_jbzk_special_item",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币周卡",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -9192,7 +9216,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9389,6 +9413,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11847,13 +11874,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN579"/>
+  <dimension ref="A1:AN580"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="Q524" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H560" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G530" sqref="G530"/>
+      <selection pane="bottomRight" activeCell="J580" sqref="J580"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -36009,615 +36036,615 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A386" s="5">
+    <row r="386" spans="1:39" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A386" s="21">
         <v>385</v>
       </c>
-      <c r="B386" s="5">
+      <c r="B386" s="21">
         <v>10302</v>
       </c>
-      <c r="F386" s="5">
-        <v>1</v>
-      </c>
-      <c r="G386" s="5" t="s">
+      <c r="F386" s="21">
+        <v>1</v>
+      </c>
+      <c r="G386" s="21" t="s">
         <v>1138</v>
       </c>
-      <c r="I386" s="5" t="s">
+      <c r="I386" s="21" t="s">
         <v>1142</v>
       </c>
-      <c r="J386" s="5" t="s">
+      <c r="J386" s="21" t="s">
         <v>1145</v>
       </c>
-      <c r="L386" s="5">
+      <c r="L386" s="21">
         <v>-31</v>
       </c>
-      <c r="M386" s="5">
-        <v>0</v>
-      </c>
-      <c r="N386" s="5">
-        <v>0</v>
-      </c>
-      <c r="O386" s="5" t="s">
+      <c r="M386" s="21">
+        <v>0</v>
+      </c>
+      <c r="N386" s="21">
+        <v>0</v>
+      </c>
+      <c r="O386" s="21" t="s">
         <v>1154</v>
       </c>
-      <c r="P386" s="5">
+      <c r="P386" s="21">
         <v>1800</v>
       </c>
-      <c r="Q386" s="5" t="s">
+      <c r="Q386" s="21" t="s">
         <v>1155</v>
       </c>
-      <c r="R386" s="10" t="s">
+      <c r="R386" s="39" t="s">
         <v>1773</v>
       </c>
-      <c r="W386" s="5" t="s">
+      <c r="W386" s="21" t="s">
         <v>1167</v>
       </c>
-      <c r="X386" s="5">
+      <c r="X386" s="21">
         <v>9999999</v>
       </c>
-      <c r="Y386" s="5">
-        <v>1608595200</v>
-      </c>
-      <c r="Z386" s="5">
-        <v>1609171199</v>
-      </c>
-      <c r="AA386" s="5">
+      <c r="Y386" s="21">
+        <v>1615248000</v>
+      </c>
+      <c r="Z386" s="21">
+        <v>1615823999</v>
+      </c>
+      <c r="AA386" s="21">
         <v>44</v>
       </c>
-      <c r="AH386" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI386" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL386" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM386" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="387" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A387" s="5">
+      <c r="AH386" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI386" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL386" s="21">
+        <v>1</v>
+      </c>
+      <c r="AM386" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:39" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A387" s="21">
         <v>386</v>
       </c>
-      <c r="B387" s="5">
+      <c r="B387" s="21">
         <v>10303</v>
       </c>
-      <c r="F387" s="5">
-        <v>1</v>
-      </c>
-      <c r="G387" s="5" t="s">
+      <c r="F387" s="21">
+        <v>1</v>
+      </c>
+      <c r="G387" s="21" t="s">
         <v>1139</v>
       </c>
-      <c r="I387" s="5" t="s">
+      <c r="I387" s="21" t="s">
         <v>1142</v>
       </c>
-      <c r="J387" s="5" t="s">
+      <c r="J387" s="21" t="s">
         <v>1146</v>
       </c>
-      <c r="L387" s="5">
+      <c r="L387" s="21">
         <v>-31</v>
       </c>
-      <c r="M387" s="5">
-        <v>0</v>
-      </c>
-      <c r="N387" s="5">
-        <v>0</v>
-      </c>
-      <c r="O387" s="5" t="s">
+      <c r="M387" s="21">
+        <v>0</v>
+      </c>
+      <c r="N387" s="21">
+        <v>0</v>
+      </c>
+      <c r="O387" s="21" t="s">
         <v>1154</v>
       </c>
-      <c r="P387" s="5">
+      <c r="P387" s="21">
         <v>3000</v>
       </c>
-      <c r="Q387" s="5" t="s">
+      <c r="Q387" s="21" t="s">
         <v>1157</v>
       </c>
-      <c r="R387" s="10" t="s">
+      <c r="R387" s="39" t="s">
         <v>1774</v>
       </c>
-      <c r="W387" s="5" t="s">
+      <c r="W387" s="21" t="s">
         <v>1167</v>
       </c>
-      <c r="X387" s="5">
+      <c r="X387" s="21">
         <v>9999999</v>
       </c>
-      <c r="Y387" s="5">
-        <v>1608595200</v>
-      </c>
-      <c r="Z387" s="5">
-        <v>1609171199</v>
-      </c>
-      <c r="AA387" s="5">
+      <c r="Y387" s="21">
+        <v>1615248000</v>
+      </c>
+      <c r="Z387" s="21">
+        <v>1615823999</v>
+      </c>
+      <c r="AA387" s="21">
         <v>44</v>
       </c>
-      <c r="AH387" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI387" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL387" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM387" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="388" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A388" s="5">
+      <c r="AH387" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI387" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL387" s="21">
+        <v>1</v>
+      </c>
+      <c r="AM387" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:39" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A388" s="21">
         <v>387</v>
       </c>
-      <c r="B388" s="5">
+      <c r="B388" s="21">
         <v>10304</v>
       </c>
-      <c r="F388" s="5">
-        <v>1</v>
-      </c>
-      <c r="G388" s="5" t="s">
+      <c r="F388" s="21">
+        <v>1</v>
+      </c>
+      <c r="G388" s="21" t="s">
         <v>1140</v>
       </c>
-      <c r="I388" s="5" t="s">
+      <c r="I388" s="21" t="s">
         <v>1142</v>
       </c>
-      <c r="J388" s="5" t="s">
+      <c r="J388" s="21" t="s">
         <v>1147</v>
       </c>
-      <c r="L388" s="5">
+      <c r="L388" s="21">
         <v>-31</v>
       </c>
-      <c r="M388" s="5">
-        <v>0</v>
-      </c>
-      <c r="N388" s="5">
-        <v>0</v>
-      </c>
-      <c r="O388" s="5" t="s">
+      <c r="M388" s="21">
+        <v>0</v>
+      </c>
+      <c r="N388" s="21">
+        <v>0</v>
+      </c>
+      <c r="O388" s="21" t="s">
         <v>1154</v>
       </c>
-      <c r="P388" s="5">
+      <c r="P388" s="21">
         <v>4800</v>
       </c>
-      <c r="Q388" s="5" t="s">
+      <c r="Q388" s="21" t="s">
         <v>1158</v>
       </c>
-      <c r="R388" s="10" t="s">
+      <c r="R388" s="39" t="s">
         <v>1164</v>
       </c>
-      <c r="W388" s="5" t="s">
+      <c r="W388" s="21" t="s">
         <v>1167</v>
       </c>
-      <c r="X388" s="5">
+      <c r="X388" s="21">
         <v>9999999</v>
       </c>
-      <c r="Y388" s="5">
-        <v>1608595200</v>
-      </c>
-      <c r="Z388" s="5">
-        <v>1609171199</v>
-      </c>
-      <c r="AA388" s="5">
+      <c r="Y388" s="21">
+        <v>1615248000</v>
+      </c>
+      <c r="Z388" s="21">
+        <v>1615823999</v>
+      </c>
+      <c r="AA388" s="21">
         <v>44</v>
       </c>
-      <c r="AH388" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI388" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL388" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM388" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="389" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A389" s="5">
+      <c r="AH388" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI388" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL388" s="21">
+        <v>1</v>
+      </c>
+      <c r="AM388" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:39" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A389" s="21">
         <v>388</v>
       </c>
-      <c r="B389" s="5">
+      <c r="B389" s="21">
         <v>10305</v>
       </c>
-      <c r="F389" s="5">
-        <v>1</v>
-      </c>
-      <c r="G389" s="5" t="s">
+      <c r="F389" s="21">
+        <v>1</v>
+      </c>
+      <c r="G389" s="21" t="s">
         <v>1138</v>
       </c>
-      <c r="I389" s="5" t="s">
+      <c r="I389" s="21" t="s">
         <v>1143</v>
       </c>
-      <c r="J389" s="5" t="s">
+      <c r="J389" s="21" t="s">
         <v>1148</v>
       </c>
-      <c r="L389" s="5">
+      <c r="L389" s="21">
         <v>-31</v>
       </c>
-      <c r="M389" s="5">
-        <v>0</v>
-      </c>
-      <c r="N389" s="5">
-        <v>0</v>
-      </c>
-      <c r="O389" s="5" t="s">
+      <c r="M389" s="21">
+        <v>0</v>
+      </c>
+      <c r="N389" s="21">
+        <v>0</v>
+      </c>
+      <c r="O389" s="21" t="s">
         <v>1154</v>
       </c>
-      <c r="P389" s="5">
+      <c r="P389" s="21">
         <v>4800</v>
       </c>
-      <c r="Q389" s="5" t="s">
+      <c r="Q389" s="21" t="s">
         <v>1159</v>
       </c>
-      <c r="R389" s="10" t="s">
+      <c r="R389" s="39" t="s">
         <v>1775</v>
       </c>
-      <c r="W389" s="5" t="s">
+      <c r="W389" s="21" t="s">
         <v>1167</v>
       </c>
-      <c r="X389" s="5">
+      <c r="X389" s="21">
         <v>9999999</v>
       </c>
-      <c r="Y389" s="5">
-        <v>1608595200</v>
-      </c>
-      <c r="Z389" s="5">
-        <v>1609171199</v>
-      </c>
-      <c r="AA389" s="5">
+      <c r="Y389" s="21">
+        <v>1615248000</v>
+      </c>
+      <c r="Z389" s="21">
+        <v>1615823999</v>
+      </c>
+      <c r="AA389" s="21">
         <v>45</v>
       </c>
-      <c r="AH389" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI389" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL389" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM389" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="390" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A390" s="5">
+      <c r="AH389" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI389" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL389" s="21">
+        <v>1</v>
+      </c>
+      <c r="AM389" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:39" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A390" s="21">
         <v>389</v>
       </c>
-      <c r="B390" s="5">
+      <c r="B390" s="21">
         <v>10306</v>
       </c>
-      <c r="F390" s="5">
-        <v>1</v>
-      </c>
-      <c r="G390" s="5" t="s">
+      <c r="F390" s="21">
+        <v>1</v>
+      </c>
+      <c r="G390" s="21" t="s">
         <v>1139</v>
       </c>
-      <c r="I390" s="5" t="s">
+      <c r="I390" s="21" t="s">
         <v>1143</v>
       </c>
-      <c r="J390" s="5" t="s">
+      <c r="J390" s="21" t="s">
         <v>1149</v>
       </c>
-      <c r="L390" s="5">
+      <c r="L390" s="21">
         <v>-31</v>
       </c>
-      <c r="M390" s="5">
-        <v>0</v>
-      </c>
-      <c r="N390" s="5">
-        <v>0</v>
-      </c>
-      <c r="O390" s="5" t="s">
+      <c r="M390" s="21">
+        <v>0</v>
+      </c>
+      <c r="N390" s="21">
+        <v>0</v>
+      </c>
+      <c r="O390" s="21" t="s">
         <v>1154</v>
       </c>
-      <c r="P390" s="5">
+      <c r="P390" s="21">
         <v>9800</v>
       </c>
-      <c r="Q390" s="5" t="s">
+      <c r="Q390" s="21" t="s">
         <v>1160</v>
       </c>
-      <c r="R390" s="10" t="s">
+      <c r="R390" s="39" t="s">
         <v>1776</v>
       </c>
-      <c r="W390" s="5" t="s">
+      <c r="W390" s="21" t="s">
         <v>1167</v>
       </c>
-      <c r="X390" s="5">
+      <c r="X390" s="21">
         <v>9999999</v>
       </c>
-      <c r="Y390" s="5">
-        <v>1608595200</v>
-      </c>
-      <c r="Z390" s="5">
-        <v>1609171199</v>
-      </c>
-      <c r="AA390" s="5">
+      <c r="Y390" s="21">
+        <v>1615248000</v>
+      </c>
+      <c r="Z390" s="21">
+        <v>1615823999</v>
+      </c>
+      <c r="AA390" s="21">
         <v>45</v>
       </c>
-      <c r="AH390" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI390" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL390" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM390" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="391" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A391" s="5">
+      <c r="AH390" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI390" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL390" s="21">
+        <v>1</v>
+      </c>
+      <c r="AM390" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:39" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A391" s="21">
         <v>390</v>
       </c>
-      <c r="B391" s="5">
+      <c r="B391" s="21">
         <v>10307</v>
       </c>
-      <c r="F391" s="5">
-        <v>1</v>
-      </c>
-      <c r="G391" s="5" t="s">
+      <c r="F391" s="21">
+        <v>1</v>
+      </c>
+      <c r="G391" s="21" t="s">
         <v>1140</v>
       </c>
-      <c r="I391" s="5" t="s">
+      <c r="I391" s="21" t="s">
         <v>1143</v>
       </c>
-      <c r="J391" s="5" t="s">
+      <c r="J391" s="21" t="s">
         <v>1150</v>
       </c>
-      <c r="L391" s="5">
+      <c r="L391" s="21">
         <v>-31</v>
       </c>
-      <c r="M391" s="5">
-        <v>0</v>
-      </c>
-      <c r="N391" s="5">
-        <v>0</v>
-      </c>
-      <c r="O391" s="5" t="s">
+      <c r="M391" s="21">
+        <v>0</v>
+      </c>
+      <c r="N391" s="21">
+        <v>0</v>
+      </c>
+      <c r="O391" s="21" t="s">
         <v>1154</v>
       </c>
-      <c r="P391" s="5">
+      <c r="P391" s="21">
         <v>19800</v>
       </c>
-      <c r="Q391" s="5" t="s">
+      <c r="Q391" s="21" t="s">
         <v>1161</v>
       </c>
-      <c r="R391" s="10" t="s">
+      <c r="R391" s="39" t="s">
         <v>1777</v>
       </c>
-      <c r="W391" s="5" t="s">
+      <c r="W391" s="21" t="s">
         <v>1167</v>
       </c>
-      <c r="X391" s="5">
+      <c r="X391" s="21">
         <v>9999999</v>
       </c>
-      <c r="Y391" s="5">
-        <v>1608595200</v>
-      </c>
-      <c r="Z391" s="5">
-        <v>1609171199</v>
-      </c>
-      <c r="AA391" s="5">
+      <c r="Y391" s="21">
+        <v>1615248000</v>
+      </c>
+      <c r="Z391" s="21">
+        <v>1615823999</v>
+      </c>
+      <c r="AA391" s="21">
         <v>45</v>
       </c>
-      <c r="AH391" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI391" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL391" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM391" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="392" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A392" s="5">
+      <c r="AH391" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI391" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL391" s="21">
+        <v>1</v>
+      </c>
+      <c r="AM391" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:39" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A392" s="21">
         <v>391</v>
       </c>
-      <c r="B392" s="5">
+      <c r="B392" s="21">
         <v>10308</v>
       </c>
-      <c r="F392" s="5">
-        <v>1</v>
-      </c>
-      <c r="G392" s="5" t="s">
+      <c r="F392" s="21">
+        <v>1</v>
+      </c>
+      <c r="G392" s="21" t="s">
         <v>1138</v>
       </c>
-      <c r="I392" s="5" t="s">
+      <c r="I392" s="21" t="s">
         <v>1144</v>
       </c>
-      <c r="J392" s="5" t="s">
+      <c r="J392" s="21" t="s">
         <v>1151</v>
       </c>
-      <c r="L392" s="5">
+      <c r="L392" s="21">
         <v>-31</v>
       </c>
-      <c r="M392" s="5">
-        <v>0</v>
-      </c>
-      <c r="N392" s="5">
-        <v>0</v>
-      </c>
-      <c r="O392" s="5" t="s">
+      <c r="M392" s="21">
+        <v>0</v>
+      </c>
+      <c r="N392" s="21">
+        <v>0</v>
+      </c>
+      <c r="O392" s="21" t="s">
         <v>1154</v>
       </c>
-      <c r="P392" s="5">
+      <c r="P392" s="21">
         <v>9800</v>
       </c>
-      <c r="Q392" s="5" t="s">
+      <c r="Q392" s="21" t="s">
         <v>1156</v>
       </c>
-      <c r="R392" s="10" t="s">
+      <c r="R392" s="39" t="s">
         <v>1776</v>
       </c>
-      <c r="W392" s="5" t="s">
+      <c r="W392" s="21" t="s">
         <v>1167</v>
       </c>
-      <c r="X392" s="5">
+      <c r="X392" s="21">
         <v>9999999</v>
       </c>
-      <c r="Y392" s="5">
-        <v>1608595200</v>
-      </c>
-      <c r="Z392" s="5">
-        <v>1609171199</v>
-      </c>
-      <c r="AA392" s="5">
+      <c r="Y392" s="21">
+        <v>1615248000</v>
+      </c>
+      <c r="Z392" s="21">
+        <v>1615823999</v>
+      </c>
+      <c r="AA392" s="21">
         <v>46</v>
       </c>
-      <c r="AH392" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI392" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL392" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM392" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="393" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A393" s="5">
+      <c r="AH392" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI392" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL392" s="21">
+        <v>1</v>
+      </c>
+      <c r="AM392" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:39" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A393" s="21">
         <v>392</v>
       </c>
-      <c r="B393" s="5">
+      <c r="B393" s="21">
         <v>10309</v>
       </c>
-      <c r="F393" s="5">
-        <v>1</v>
-      </c>
-      <c r="G393" s="5" t="s">
+      <c r="F393" s="21">
+        <v>1</v>
+      </c>
+      <c r="G393" s="21" t="s">
         <v>1139</v>
       </c>
-      <c r="I393" s="5" t="s">
+      <c r="I393" s="21" t="s">
         <v>1144</v>
       </c>
-      <c r="J393" s="5" t="s">
+      <c r="J393" s="21" t="s">
         <v>1152</v>
       </c>
-      <c r="L393" s="5">
+      <c r="L393" s="21">
         <v>-31</v>
       </c>
-      <c r="M393" s="5">
-        <v>0</v>
-      </c>
-      <c r="N393" s="5">
-        <v>0</v>
-      </c>
-      <c r="O393" s="5" t="s">
+      <c r="M393" s="21">
+        <v>0</v>
+      </c>
+      <c r="N393" s="21">
+        <v>0</v>
+      </c>
+      <c r="O393" s="21" t="s">
         <v>1154</v>
       </c>
-      <c r="P393" s="5">
+      <c r="P393" s="21">
         <v>19800</v>
       </c>
-      <c r="Q393" s="5" t="s">
+      <c r="Q393" s="21" t="s">
         <v>1162</v>
       </c>
-      <c r="R393" s="10" t="s">
+      <c r="R393" s="39" t="s">
         <v>1165</v>
       </c>
-      <c r="W393" s="5" t="s">
+      <c r="W393" s="21" t="s">
         <v>1167</v>
       </c>
-      <c r="X393" s="5">
+      <c r="X393" s="21">
         <v>9999999</v>
       </c>
-      <c r="Y393" s="5">
-        <v>1608595200</v>
-      </c>
-      <c r="Z393" s="5">
-        <v>1609171199</v>
-      </c>
-      <c r="AA393" s="5">
+      <c r="Y393" s="21">
+        <v>1615248000</v>
+      </c>
+      <c r="Z393" s="21">
+        <v>1615823999</v>
+      </c>
+      <c r="AA393" s="21">
         <v>46</v>
       </c>
-      <c r="AH393" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI393" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL393" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM393" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="394" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A394" s="5">
+      <c r="AH393" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI393" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL393" s="21">
+        <v>1</v>
+      </c>
+      <c r="AM393" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:39" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A394" s="21">
         <v>393</v>
       </c>
-      <c r="B394" s="5">
+      <c r="B394" s="21">
         <v>10310</v>
       </c>
-      <c r="F394" s="5">
-        <v>1</v>
-      </c>
-      <c r="G394" s="5" t="s">
+      <c r="F394" s="21">
+        <v>1</v>
+      </c>
+      <c r="G394" s="21" t="s">
         <v>1140</v>
       </c>
-      <c r="I394" s="5" t="s">
+      <c r="I394" s="21" t="s">
         <v>1144</v>
       </c>
-      <c r="J394" s="5" t="s">
+      <c r="J394" s="21" t="s">
         <v>1153</v>
       </c>
-      <c r="L394" s="5">
+      <c r="L394" s="21">
         <v>-31</v>
       </c>
-      <c r="M394" s="5">
-        <v>0</v>
-      </c>
-      <c r="N394" s="5">
-        <v>0</v>
-      </c>
-      <c r="O394" s="5" t="s">
+      <c r="M394" s="21">
+        <v>0</v>
+      </c>
+      <c r="N394" s="21">
+        <v>0</v>
+      </c>
+      <c r="O394" s="21" t="s">
         <v>1154</v>
       </c>
-      <c r="P394" s="5">
+      <c r="P394" s="21">
         <v>49800</v>
       </c>
-      <c r="Q394" s="5" t="s">
+      <c r="Q394" s="21" t="s">
         <v>1163</v>
       </c>
-      <c r="R394" s="10" t="s">
+      <c r="R394" s="39" t="s">
         <v>1778</v>
       </c>
-      <c r="W394" s="5" t="s">
+      <c r="W394" s="21" t="s">
         <v>1167</v>
       </c>
-      <c r="X394" s="5">
+      <c r="X394" s="21">
         <v>9999999</v>
       </c>
-      <c r="Y394" s="5">
-        <v>1608595200</v>
-      </c>
-      <c r="Z394" s="5">
-        <v>1609171199</v>
-      </c>
-      <c r="AA394" s="5">
+      <c r="Y394" s="21">
+        <v>1615248000</v>
+      </c>
+      <c r="Z394" s="21">
+        <v>1615823999</v>
+      </c>
+      <c r="AA394" s="21">
         <v>46</v>
       </c>
-      <c r="AH394" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI394" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL394" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM394" s="5">
+      <c r="AH394" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI394" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL394" s="21">
+        <v>1</v>
+      </c>
+      <c r="AM394" s="21">
         <v>1</v>
       </c>
     </row>
@@ -36629,7 +36656,7 @@
         <v>10311</v>
       </c>
       <c r="F395" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G395" s="5" t="s">
         <v>1171</v>
@@ -36691,7 +36718,7 @@
         <v>10312</v>
       </c>
       <c r="F396" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G396" s="5" t="s">
         <v>1172</v>
@@ -36753,7 +36780,7 @@
         <v>10313</v>
       </c>
       <c r="F397" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G397" s="5" t="s">
         <v>300</v>
@@ -36815,7 +36842,7 @@
         <v>10314</v>
       </c>
       <c r="F398" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G398" s="5" t="s">
         <v>303</v>
@@ -36877,7 +36904,7 @@
         <v>10315</v>
       </c>
       <c r="F399" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G399" s="5" t="s">
         <v>1173</v>
@@ -36939,7 +36966,7 @@
         <v>10316</v>
       </c>
       <c r="F400" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G400" s="5" t="s">
         <v>1174</v>
@@ -37001,7 +37028,7 @@
         <v>10317</v>
       </c>
       <c r="F401" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G401" s="5" t="s">
         <v>1189</v>
@@ -37066,7 +37093,7 @@
         <v>10318</v>
       </c>
       <c r="F402" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G402" s="5" t="s">
         <v>1193</v>
@@ -37131,7 +37158,7 @@
         <v>10319</v>
       </c>
       <c r="F403" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G403" s="5" t="s">
         <v>1194</v>
@@ -37196,7 +37223,7 @@
         <v>10320</v>
       </c>
       <c r="F404" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G404" s="5" t="s">
         <v>1197</v>
@@ -37261,7 +37288,7 @@
         <v>10321</v>
       </c>
       <c r="F405" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G405" s="5" t="s">
         <v>1199</v>
@@ -37326,7 +37353,7 @@
         <v>10322</v>
       </c>
       <c r="F406" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G406" s="5" t="s">
         <v>1200</v>
@@ -37391,7 +37418,7 @@
         <v>10323</v>
       </c>
       <c r="F407" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G407" s="5" t="s">
         <v>1202</v>
@@ -48830,6 +48857,65 @@
         <v>1</v>
       </c>
       <c r="AM579" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A580" s="5">
+        <v>579</v>
+      </c>
+      <c r="B580" s="6">
+        <v>10496</v>
+      </c>
+      <c r="F580" s="6">
+        <v>1</v>
+      </c>
+      <c r="G580" s="6" t="s">
+        <v>2123</v>
+      </c>
+      <c r="I580" s="6" t="s">
+        <v>2124</v>
+      </c>
+      <c r="J580" s="6" t="s">
+        <v>2128</v>
+      </c>
+      <c r="L580" s="6">
+        <v>-31</v>
+      </c>
+      <c r="M580" s="6">
+        <v>0</v>
+      </c>
+      <c r="N580" s="6">
+        <v>0</v>
+      </c>
+      <c r="O580" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="P580" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q580" s="5" t="s">
+        <v>2125</v>
+      </c>
+      <c r="R580" s="66" t="s">
+        <v>2126</v>
+      </c>
+      <c r="W580" s="6" t="s">
+        <v>2127</v>
+      </c>
+      <c r="X580" s="6">
+        <v>99999999</v>
+      </c>
+      <c r="Y580" s="6">
+        <v>1614643200</v>
+      </c>
+      <c r="Z580" s="6">
+        <v>2552233600</v>
+      </c>
+      <c r="AH580" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI580" s="6">
         <v>1</v>
       </c>
     </row>
@@ -48845,7 +48931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>

--- a/config_debug/shoping_config_cjj.xlsx
+++ b/config_debug/shoping_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.16\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4678" uniqueCount="2129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4720" uniqueCount="2153">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -9041,6 +9041,101 @@
   </si>
   <si>
     <t>"金币周卡",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>春暖花开·桃花礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花礼包498元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5080万金币","抽奖券*50","桃花*800",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,100,0</t>
+  </si>
+  <si>
+    <t>春暖花开·桃花礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花礼包198元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2000万金币","抽奖券*30","桃花*300",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花礼包98元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"990万金币","抽奖券*15","桃花*150",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花礼包48元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"485万金币","抽奖券*8","桃花*80",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花礼包20元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200万金币","抽奖券*4","桃花*30",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花礼包6元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币","抽奖券*1","桃花*20",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_qdlb_cjq","prop_fish_drop_act_0","_common_rank_cnhk_009_thphb_rank",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>50800000,50,800,800</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_qdlb_cjq","prop_fish_drop_act_0","_common_rank_cnhk_009_thphb_rank",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000,30,300,300</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9900000,15,150,150</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4850000,8,80,80</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,4,30,30</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,1,20,20</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -9409,13 +9504,13 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11874,13 +11969,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN580"/>
+  <dimension ref="A1:AN586"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H560" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="O560" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J580" sqref="J580"/>
+      <selection pane="bottomRight" activeCell="Q590" sqref="Q590"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -47884,547 +47979,547 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:39" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A566" s="5">
         <v>565</v>
       </c>
       <c r="B566" s="5">
         <v>10482</v>
       </c>
-      <c r="F566" s="21">
-        <v>1</v>
-      </c>
-      <c r="G566" s="21" t="s">
+      <c r="F566" s="5">
+        <v>0</v>
+      </c>
+      <c r="G566" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="I566" s="21" t="s">
+      <c r="I566" s="5" t="s">
         <v>2076</v>
       </c>
-      <c r="J566" s="21" t="s">
+      <c r="J566" s="5" t="s">
         <v>1885</v>
       </c>
-      <c r="L566" s="21">
+      <c r="L566" s="5">
         <v>-33</v>
       </c>
-      <c r="M566" s="21">
-        <v>0</v>
-      </c>
-      <c r="N566" s="21">
-        <v>0</v>
-      </c>
-      <c r="O566" s="21" t="s">
+      <c r="M566" s="5">
+        <v>0</v>
+      </c>
+      <c r="N566" s="5">
+        <v>0</v>
+      </c>
+      <c r="O566" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="P566" s="21">
+      <c r="P566" s="5">
         <v>49800</v>
       </c>
-      <c r="Q566" s="21" t="s">
+      <c r="Q566" s="5" t="s">
         <v>2077</v>
       </c>
-      <c r="R566" s="64" t="s">
+      <c r="R566" s="63" t="s">
         <v>1888</v>
       </c>
-      <c r="W566" s="21" t="s">
+      <c r="W566" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="X566" s="21">
+      <c r="X566" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y566" s="21">
+      <c r="Y566" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z566" s="21">
+      <c r="Z566" s="5">
         <v>1615219199</v>
       </c>
-      <c r="AA566" s="21">
+      <c r="AA566" s="5">
         <v>68</v>
       </c>
-      <c r="AH566" s="21">
-        <v>1</v>
-      </c>
-      <c r="AI566" s="21">
-        <v>1</v>
-      </c>
-      <c r="AL566" s="21">
-        <v>1</v>
-      </c>
-      <c r="AM566" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="567" spans="1:39" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH566" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI566" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL566" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM566" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A567" s="5">
         <v>566</v>
       </c>
       <c r="B567" s="5">
         <v>10483</v>
       </c>
-      <c r="F567" s="21">
-        <v>1</v>
-      </c>
-      <c r="G567" s="21" t="s">
+      <c r="F567" s="5">
+        <v>0</v>
+      </c>
+      <c r="G567" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="I567" s="21" t="s">
+      <c r="I567" s="5" t="s">
         <v>2076</v>
       </c>
-      <c r="J567" s="21" t="s">
+      <c r="J567" s="5" t="s">
         <v>1890</v>
       </c>
-      <c r="L567" s="21">
+      <c r="L567" s="5">
         <v>-33</v>
       </c>
-      <c r="M567" s="21">
-        <v>0</v>
-      </c>
-      <c r="N567" s="21">
-        <v>0</v>
-      </c>
-      <c r="O567" s="21" t="s">
+      <c r="M567" s="5">
+        <v>0</v>
+      </c>
+      <c r="N567" s="5">
+        <v>0</v>
+      </c>
+      <c r="O567" s="5" t="s">
         <v>2078</v>
       </c>
-      <c r="P567" s="21">
+      <c r="P567" s="5">
         <v>19800</v>
       </c>
-      <c r="Q567" s="21" t="s">
+      <c r="Q567" s="5" t="s">
         <v>2077</v>
       </c>
-      <c r="R567" s="64" t="s">
+      <c r="R567" s="63" t="s">
         <v>1891</v>
       </c>
-      <c r="W567" s="21" t="s">
+      <c r="W567" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="X567" s="21">
+      <c r="X567" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y567" s="21">
+      <c r="Y567" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z567" s="21">
+      <c r="Z567" s="5">
         <v>1615219199</v>
       </c>
-      <c r="AA567" s="21">
+      <c r="AA567" s="5">
         <v>68</v>
       </c>
-      <c r="AH567" s="21">
-        <v>1</v>
-      </c>
-      <c r="AI567" s="21">
-        <v>1</v>
-      </c>
-      <c r="AL567" s="21">
-        <v>1</v>
-      </c>
-      <c r="AM567" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="568" spans="1:39" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH567" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI567" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL567" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM567" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A568" s="5">
         <v>567</v>
       </c>
       <c r="B568" s="5">
         <v>10484</v>
       </c>
-      <c r="F568" s="21">
-        <v>1</v>
-      </c>
-      <c r="G568" s="21" t="s">
+      <c r="F568" s="5">
+        <v>0</v>
+      </c>
+      <c r="G568" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="I568" s="21" t="s">
+      <c r="I568" s="5" t="s">
         <v>2075</v>
       </c>
-      <c r="J568" s="21" t="s">
+      <c r="J568" s="5" t="s">
         <v>2079</v>
       </c>
-      <c r="L568" s="21">
+      <c r="L568" s="5">
         <v>-33</v>
       </c>
-      <c r="M568" s="21">
-        <v>0</v>
-      </c>
-      <c r="N568" s="21">
-        <v>0</v>
-      </c>
-      <c r="O568" s="21" t="s">
+      <c r="M568" s="5">
+        <v>0</v>
+      </c>
+      <c r="N568" s="5">
+        <v>0</v>
+      </c>
+      <c r="O568" s="5" t="s">
         <v>2080</v>
       </c>
-      <c r="P568" s="21">
+      <c r="P568" s="5">
         <v>9800</v>
       </c>
-      <c r="Q568" s="21" t="s">
+      <c r="Q568" s="5" t="s">
         <v>2081</v>
       </c>
-      <c r="R568" s="64" t="s">
+      <c r="R568" s="63" t="s">
         <v>1894</v>
       </c>
-      <c r="W568" s="21" t="s">
+      <c r="W568" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="X568" s="21">
+      <c r="X568" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y568" s="21">
+      <c r="Y568" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z568" s="21">
+      <c r="Z568" s="5">
         <v>1615219199</v>
       </c>
-      <c r="AA568" s="21">
+      <c r="AA568" s="5">
         <v>68</v>
       </c>
-      <c r="AH568" s="21">
-        <v>1</v>
-      </c>
-      <c r="AI568" s="21">
-        <v>1</v>
-      </c>
-      <c r="AL568" s="21">
-        <v>1</v>
-      </c>
-      <c r="AM568" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="569" spans="1:39" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH568" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI568" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL568" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM568" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A569" s="5">
         <v>568</v>
       </c>
       <c r="B569" s="5">
         <v>10485</v>
       </c>
-      <c r="F569" s="21">
-        <v>1</v>
-      </c>
-      <c r="G569" s="21" t="s">
+      <c r="F569" s="5">
+        <v>0</v>
+      </c>
+      <c r="G569" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="I569" s="21" t="s">
+      <c r="I569" s="5" t="s">
         <v>2075</v>
       </c>
-      <c r="J569" s="21" t="s">
+      <c r="J569" s="5" t="s">
         <v>2082</v>
       </c>
-      <c r="L569" s="21">
+      <c r="L569" s="5">
         <v>-33</v>
       </c>
-      <c r="M569" s="21">
-        <v>0</v>
-      </c>
-      <c r="N569" s="21">
-        <v>0</v>
-      </c>
-      <c r="O569" s="21" t="s">
+      <c r="M569" s="5">
+        <v>0</v>
+      </c>
+      <c r="N569" s="5">
+        <v>0</v>
+      </c>
+      <c r="O569" s="5" t="s">
         <v>2083</v>
       </c>
-      <c r="P569" s="21">
+      <c r="P569" s="5">
         <v>4800</v>
       </c>
-      <c r="Q569" s="21" t="s">
+      <c r="Q569" s="5" t="s">
         <v>2084</v>
       </c>
-      <c r="R569" s="64" t="s">
+      <c r="R569" s="63" t="s">
         <v>1897</v>
       </c>
-      <c r="W569" s="21" t="s">
+      <c r="W569" s="5" t="s">
         <v>2085</v>
       </c>
-      <c r="X569" s="21">
+      <c r="X569" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y569" s="21">
+      <c r="Y569" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z569" s="21">
+      <c r="Z569" s="5">
         <v>1615219199</v>
       </c>
-      <c r="AA569" s="21">
+      <c r="AA569" s="5">
         <v>68</v>
       </c>
-      <c r="AH569" s="21">
-        <v>1</v>
-      </c>
-      <c r="AI569" s="21">
-        <v>1</v>
-      </c>
-      <c r="AL569" s="21">
-        <v>1</v>
-      </c>
-      <c r="AM569" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="570" spans="1:39" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH569" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI569" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL569" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM569" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A570" s="5">
         <v>569</v>
       </c>
       <c r="B570" s="5">
         <v>10486</v>
       </c>
-      <c r="F570" s="21">
-        <v>1</v>
-      </c>
-      <c r="G570" s="21" t="s">
+      <c r="F570" s="5">
+        <v>0</v>
+      </c>
+      <c r="G570" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="I570" s="21" t="s">
+      <c r="I570" s="5" t="s">
         <v>2086</v>
       </c>
-      <c r="J570" s="21" t="s">
+      <c r="J570" s="5" t="s">
         <v>2087</v>
       </c>
-      <c r="L570" s="21">
+      <c r="L570" s="5">
         <v>-33</v>
       </c>
-      <c r="M570" s="21">
-        <v>0</v>
-      </c>
-      <c r="N570" s="21">
-        <v>0</v>
-      </c>
-      <c r="O570" s="21" t="s">
+      <c r="M570" s="5">
+        <v>0</v>
+      </c>
+      <c r="N570" s="5">
+        <v>0</v>
+      </c>
+      <c r="O570" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="P570" s="21">
+      <c r="P570" s="5">
         <v>49800</v>
       </c>
-      <c r="Q570" s="21" t="s">
+      <c r="Q570" s="5" t="s">
         <v>2088</v>
       </c>
-      <c r="R570" s="64" t="s">
+      <c r="R570" s="63" t="s">
         <v>2089</v>
       </c>
-      <c r="W570" s="21" t="s">
+      <c r="W570" s="5" t="s">
         <v>2085</v>
       </c>
-      <c r="X570" s="21">
+      <c r="X570" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y570" s="21">
+      <c r="Y570" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z570" s="21">
+      <c r="Z570" s="5">
         <v>1615219199</v>
       </c>
-      <c r="AA570" s="21">
+      <c r="AA570" s="5">
         <v>69</v>
       </c>
-      <c r="AH570" s="21">
-        <v>1</v>
-      </c>
-      <c r="AI570" s="21">
-        <v>1</v>
-      </c>
-      <c r="AL570" s="21">
-        <v>1</v>
-      </c>
-      <c r="AM570" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="571" spans="1:39" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH570" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI570" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL570" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM570" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A571" s="5">
         <v>570</v>
       </c>
       <c r="B571" s="5">
         <v>10487</v>
       </c>
-      <c r="F571" s="21">
-        <v>1</v>
-      </c>
-      <c r="G571" s="21" t="s">
+      <c r="F571" s="5">
+        <v>0</v>
+      </c>
+      <c r="G571" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="I571" s="21" t="s">
+      <c r="I571" s="5" t="s">
         <v>2086</v>
       </c>
-      <c r="J571" s="21" t="s">
+      <c r="J571" s="5" t="s">
         <v>1902</v>
       </c>
-      <c r="L571" s="21">
+      <c r="L571" s="5">
         <v>-33</v>
       </c>
-      <c r="M571" s="21">
-        <v>0</v>
-      </c>
-      <c r="N571" s="21">
-        <v>0</v>
-      </c>
-      <c r="O571" s="21" t="s">
+      <c r="M571" s="5">
+        <v>0</v>
+      </c>
+      <c r="N571" s="5">
+        <v>0</v>
+      </c>
+      <c r="O571" s="5" t="s">
         <v>2083</v>
       </c>
-      <c r="P571" s="21">
+      <c r="P571" s="5">
         <v>19800</v>
       </c>
-      <c r="Q571" s="21" t="s">
+      <c r="Q571" s="5" t="s">
         <v>2088</v>
       </c>
-      <c r="R571" s="64" t="s">
+      <c r="R571" s="63" t="s">
         <v>2090</v>
       </c>
-      <c r="W571" s="21" t="s">
+      <c r="W571" s="5" t="s">
         <v>2085</v>
       </c>
-      <c r="X571" s="21">
+      <c r="X571" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y571" s="21">
+      <c r="Y571" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z571" s="21">
+      <c r="Z571" s="5">
         <v>1615219199</v>
       </c>
-      <c r="AA571" s="21">
+      <c r="AA571" s="5">
         <v>69</v>
       </c>
-      <c r="AH571" s="21">
-        <v>1</v>
-      </c>
-      <c r="AI571" s="21">
-        <v>1</v>
-      </c>
-      <c r="AL571" s="21">
-        <v>1</v>
-      </c>
-      <c r="AM571" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="572" spans="1:39" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH571" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI571" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL571" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM571" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A572" s="5">
         <v>571</v>
       </c>
       <c r="B572" s="5">
         <v>10488</v>
       </c>
-      <c r="F572" s="21">
-        <v>1</v>
-      </c>
-      <c r="G572" s="21" t="s">
+      <c r="F572" s="5">
+        <v>0</v>
+      </c>
+      <c r="G572" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="I572" s="21" t="s">
+      <c r="I572" s="5" t="s">
         <v>2086</v>
       </c>
-      <c r="J572" s="21" t="s">
+      <c r="J572" s="5" t="s">
         <v>1904</v>
       </c>
-      <c r="L572" s="21">
+      <c r="L572" s="5">
         <v>-33</v>
       </c>
-      <c r="M572" s="21">
-        <v>0</v>
-      </c>
-      <c r="N572" s="21">
-        <v>0</v>
-      </c>
-      <c r="O572" s="21" t="s">
+      <c r="M572" s="5">
+        <v>0</v>
+      </c>
+      <c r="N572" s="5">
+        <v>0</v>
+      </c>
+      <c r="O572" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="P572" s="21">
+      <c r="P572" s="5">
         <v>9800</v>
       </c>
-      <c r="Q572" s="21" t="s">
+      <c r="Q572" s="5" t="s">
         <v>2091</v>
       </c>
-      <c r="R572" s="64" t="s">
+      <c r="R572" s="63" t="s">
         <v>2092</v>
       </c>
-      <c r="W572" s="21" t="s">
+      <c r="W572" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="X572" s="21">
+      <c r="X572" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y572" s="21">
+      <c r="Y572" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z572" s="21">
+      <c r="Z572" s="5">
         <v>1615219199</v>
       </c>
-      <c r="AA572" s="21">
+      <c r="AA572" s="5">
         <v>69</v>
       </c>
-      <c r="AH572" s="21">
-        <v>1</v>
-      </c>
-      <c r="AI572" s="21">
-        <v>1</v>
-      </c>
-      <c r="AL572" s="21">
-        <v>1</v>
-      </c>
-      <c r="AM572" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="573" spans="1:39" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH572" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI572" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL572" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM572" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A573" s="5">
         <v>572</v>
       </c>
       <c r="B573" s="5">
         <v>10489</v>
       </c>
-      <c r="F573" s="21">
-        <v>1</v>
-      </c>
-      <c r="G573" s="21" t="s">
+      <c r="F573" s="5">
+        <v>0</v>
+      </c>
+      <c r="G573" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="I573" s="21" t="s">
+      <c r="I573" s="5" t="s">
         <v>2086</v>
       </c>
-      <c r="J573" s="21" t="s">
+      <c r="J573" s="5" t="s">
         <v>1916</v>
       </c>
-      <c r="L573" s="21">
+      <c r="L573" s="5">
         <v>-33</v>
       </c>
-      <c r="M573" s="21">
-        <v>0</v>
-      </c>
-      <c r="N573" s="21">
-        <v>0</v>
-      </c>
-      <c r="O573" s="21" t="s">
+      <c r="M573" s="5">
+        <v>0</v>
+      </c>
+      <c r="N573" s="5">
+        <v>0</v>
+      </c>
+      <c r="O573" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="P573" s="21">
+      <c r="P573" s="5">
         <v>4800</v>
       </c>
-      <c r="Q573" s="21" t="s">
+      <c r="Q573" s="5" t="s">
         <v>2093</v>
       </c>
-      <c r="R573" s="64" t="s">
+      <c r="R573" s="63" t="s">
         <v>1908</v>
       </c>
-      <c r="W573" s="21" t="s">
+      <c r="W573" s="5" t="s">
         <v>2085</v>
       </c>
-      <c r="X573" s="21">
+      <c r="X573" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y573" s="21">
+      <c r="Y573" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z573" s="21">
+      <c r="Z573" s="5">
         <v>1615219199</v>
       </c>
-      <c r="AA573" s="21">
+      <c r="AA573" s="5">
         <v>69</v>
       </c>
-      <c r="AH573" s="21">
-        <v>1</v>
-      </c>
-      <c r="AI573" s="21">
-        <v>1</v>
-      </c>
-      <c r="AL573" s="21">
-        <v>1</v>
-      </c>
-      <c r="AM573" s="21">
+      <c r="AH573" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI573" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL573" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM573" s="5">
         <v>1</v>
       </c>
     </row>
@@ -48432,59 +48527,49 @@
       <c r="A574" s="5">
         <v>573</v>
       </c>
-      <c r="B574" s="21">
+      <c r="B574" s="5">
         <v>10490</v>
       </c>
-      <c r="C574" s="21"/>
-      <c r="D574" s="21"/>
-      <c r="E574" s="21"/>
-      <c r="F574" s="21">
-        <v>1</v>
-      </c>
-      <c r="G574" s="21" t="s">
+      <c r="F574" s="5">
+        <v>1</v>
+      </c>
+      <c r="G574" s="5" t="s">
         <v>2095</v>
       </c>
-      <c r="H574" s="21"/>
-      <c r="I574" s="21" t="s">
+      <c r="I574" s="5" t="s">
         <v>2096</v>
       </c>
-      <c r="J574" s="21"/>
-      <c r="K574" s="21"/>
-      <c r="L574" s="21">
+      <c r="L574" s="5">
         <v>-31</v>
       </c>
-      <c r="M574" s="21">
-        <v>0</v>
-      </c>
-      <c r="N574" s="21">
-        <v>0</v>
-      </c>
-      <c r="O574" s="21" t="s">
+      <c r="M574" s="5">
+        <v>0</v>
+      </c>
+      <c r="N574" s="5">
+        <v>0</v>
+      </c>
+      <c r="O574" s="5" t="s">
         <v>1190</v>
       </c>
-      <c r="P574" s="21">
+      <c r="P574" s="5">
         <v>4500</v>
       </c>
-      <c r="Q574" s="21" t="s">
+      <c r="Q574" s="5" t="s">
         <v>2097</v>
       </c>
-      <c r="R574" s="65" t="s">
+      <c r="R574" s="66" t="s">
         <v>2098</v>
       </c>
-      <c r="S574" s="21"/>
-      <c r="T574" s="21"/>
-      <c r="U574" s="21"/>
-      <c r="V574" s="21"/>
-      <c r="W574" s="21" t="s">
+      <c r="W574" s="5" t="s">
         <v>2099</v>
       </c>
-      <c r="X574" s="21">
+      <c r="X574" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y574" s="21">
+      <c r="Y574" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z574" s="21">
+      <c r="Z574" s="5">
         <v>2552233600</v>
       </c>
       <c r="AH574" s="5">
@@ -48504,59 +48589,49 @@
       <c r="A575" s="5">
         <v>574</v>
       </c>
-      <c r="B575" s="21">
+      <c r="B575" s="5">
         <v>10491</v>
       </c>
-      <c r="C575" s="21"/>
-      <c r="D575" s="21"/>
-      <c r="E575" s="21"/>
-      <c r="F575" s="21">
-        <v>1</v>
-      </c>
-      <c r="G575" s="21" t="s">
+      <c r="F575" s="5">
+        <v>1</v>
+      </c>
+      <c r="G575" s="5" t="s">
         <v>2100</v>
       </c>
-      <c r="H575" s="21"/>
-      <c r="I575" s="21" t="s">
+      <c r="I575" s="5" t="s">
         <v>2101</v>
       </c>
-      <c r="J575" s="21"/>
-      <c r="K575" s="21"/>
-      <c r="L575" s="21">
+      <c r="L575" s="5">
         <v>-31</v>
       </c>
-      <c r="M575" s="21">
-        <v>0</v>
-      </c>
-      <c r="N575" s="21">
-        <v>0</v>
-      </c>
-      <c r="O575" s="21" t="s">
+      <c r="M575" s="5">
+        <v>0</v>
+      </c>
+      <c r="N575" s="5">
+        <v>0</v>
+      </c>
+      <c r="O575" s="5" t="s">
         <v>1190</v>
       </c>
-      <c r="P575" s="21">
+      <c r="P575" s="5">
         <v>8800</v>
       </c>
-      <c r="Q575" s="21" t="s">
+      <c r="Q575" s="5" t="s">
         <v>2102</v>
       </c>
-      <c r="R575" s="65" t="s">
+      <c r="R575" s="66" t="s">
         <v>2103</v>
       </c>
-      <c r="S575" s="21"/>
-      <c r="T575" s="21"/>
-      <c r="U575" s="21"/>
-      <c r="V575" s="21"/>
-      <c r="W575" s="21" t="s">
+      <c r="W575" s="5" t="s">
         <v>2099</v>
       </c>
-      <c r="X575" s="21">
+      <c r="X575" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y575" s="21">
+      <c r="Y575" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z575" s="21">
+      <c r="Z575" s="5">
         <v>2552233600</v>
       </c>
       <c r="AH575" s="5">
@@ -48576,59 +48651,49 @@
       <c r="A576" s="5">
         <v>575</v>
       </c>
-      <c r="B576" s="21">
+      <c r="B576" s="5">
         <v>10492</v>
       </c>
-      <c r="C576" s="21"/>
-      <c r="D576" s="21"/>
-      <c r="E576" s="21"/>
-      <c r="F576" s="21">
-        <v>1</v>
-      </c>
-      <c r="G576" s="21" t="s">
+      <c r="F576" s="5">
+        <v>1</v>
+      </c>
+      <c r="G576" s="5" t="s">
         <v>2104</v>
       </c>
-      <c r="H576" s="21"/>
-      <c r="I576" s="21" t="s">
+      <c r="I576" s="5" t="s">
         <v>2105</v>
       </c>
-      <c r="J576" s="21"/>
-      <c r="K576" s="21"/>
-      <c r="L576" s="21">
+      <c r="L576" s="5">
         <v>-31</v>
       </c>
-      <c r="M576" s="21">
-        <v>0</v>
-      </c>
-      <c r="N576" s="21">
-        <v>0</v>
-      </c>
-      <c r="O576" s="21" t="s">
+      <c r="M576" s="5">
+        <v>0</v>
+      </c>
+      <c r="N576" s="5">
+        <v>0</v>
+      </c>
+      <c r="O576" s="5" t="s">
         <v>1190</v>
       </c>
-      <c r="P576" s="21">
+      <c r="P576" s="5">
         <v>17800</v>
       </c>
-      <c r="Q576" s="21" t="s">
+      <c r="Q576" s="5" t="s">
         <v>2106</v>
       </c>
-      <c r="R576" s="65" t="s">
+      <c r="R576" s="66" t="s">
         <v>2107</v>
       </c>
-      <c r="S576" s="21"/>
-      <c r="T576" s="21"/>
-      <c r="U576" s="21"/>
-      <c r="V576" s="21"/>
-      <c r="W576" s="21" t="s">
+      <c r="W576" s="5" t="s">
         <v>2099</v>
       </c>
-      <c r="X576" s="21">
+      <c r="X576" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y576" s="21">
+      <c r="Y576" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z576" s="21">
+      <c r="Z576" s="5">
         <v>2552233600</v>
       </c>
       <c r="AH576" s="5">
@@ -48648,59 +48713,49 @@
       <c r="A577" s="5">
         <v>576</v>
       </c>
-      <c r="B577" s="21">
+      <c r="B577" s="5">
         <v>10493</v>
       </c>
-      <c r="C577" s="21"/>
-      <c r="D577" s="21"/>
-      <c r="E577" s="21"/>
-      <c r="F577" s="21">
-        <v>1</v>
-      </c>
-      <c r="G577" s="21" t="s">
+      <c r="F577" s="5">
+        <v>1</v>
+      </c>
+      <c r="G577" s="5" t="s">
         <v>2108</v>
       </c>
-      <c r="H577" s="21"/>
-      <c r="I577" s="21" t="s">
+      <c r="I577" s="5" t="s">
         <v>2109</v>
       </c>
-      <c r="J577" s="21"/>
-      <c r="K577" s="21"/>
-      <c r="L577" s="21">
+      <c r="L577" s="5">
         <v>-31</v>
       </c>
-      <c r="M577" s="21">
-        <v>0</v>
-      </c>
-      <c r="N577" s="21">
-        <v>0</v>
-      </c>
-      <c r="O577" s="21" t="s">
+      <c r="M577" s="5">
+        <v>0</v>
+      </c>
+      <c r="N577" s="5">
+        <v>0</v>
+      </c>
+      <c r="O577" s="5" t="s">
         <v>1190</v>
       </c>
-      <c r="P577" s="21">
+      <c r="P577" s="5">
         <v>44800</v>
       </c>
-      <c r="Q577" s="21" t="s">
+      <c r="Q577" s="5" t="s">
         <v>2110</v>
       </c>
-      <c r="R577" s="65" t="s">
+      <c r="R577" s="66" t="s">
         <v>2111</v>
       </c>
-      <c r="S577" s="21"/>
-      <c r="T577" s="21"/>
-      <c r="U577" s="21"/>
-      <c r="V577" s="21"/>
-      <c r="W577" s="21" t="s">
+      <c r="W577" s="5" t="s">
         <v>613</v>
       </c>
-      <c r="X577" s="21">
+      <c r="X577" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y577" s="21">
+      <c r="Y577" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z577" s="21">
+      <c r="Z577" s="5">
         <v>2552233600</v>
       </c>
       <c r="AH577" s="5">
@@ -48720,59 +48775,49 @@
       <c r="A578" s="5">
         <v>577</v>
       </c>
-      <c r="B578" s="21">
+      <c r="B578" s="5">
         <v>10494</v>
       </c>
-      <c r="C578" s="21"/>
-      <c r="D578" s="21"/>
-      <c r="E578" s="21"/>
-      <c r="F578" s="21">
-        <v>1</v>
-      </c>
-      <c r="G578" s="21" t="s">
+      <c r="F578" s="5">
+        <v>1</v>
+      </c>
+      <c r="G578" s="5" t="s">
         <v>2112</v>
       </c>
-      <c r="H578" s="21"/>
-      <c r="I578" s="21" t="s">
+      <c r="I578" s="5" t="s">
         <v>2113</v>
       </c>
-      <c r="J578" s="21"/>
-      <c r="K578" s="21"/>
-      <c r="L578" s="21">
+      <c r="L578" s="5">
         <v>-31</v>
       </c>
-      <c r="M578" s="21">
-        <v>0</v>
-      </c>
-      <c r="N578" s="21">
-        <v>0</v>
-      </c>
-      <c r="O578" s="21" t="s">
+      <c r="M578" s="5">
+        <v>0</v>
+      </c>
+      <c r="N578" s="5">
+        <v>0</v>
+      </c>
+      <c r="O578" s="5" t="s">
         <v>1190</v>
       </c>
-      <c r="P578" s="21">
+      <c r="P578" s="5">
         <v>89800</v>
       </c>
-      <c r="Q578" s="21" t="s">
+      <c r="Q578" s="5" t="s">
         <v>2114</v>
       </c>
-      <c r="R578" s="65" t="s">
+      <c r="R578" s="66" t="s">
         <v>2115</v>
       </c>
-      <c r="S578" s="21"/>
-      <c r="T578" s="21"/>
-      <c r="U578" s="21"/>
-      <c r="V578" s="21"/>
-      <c r="W578" s="21" t="s">
+      <c r="W578" s="5" t="s">
         <v>613</v>
       </c>
-      <c r="X578" s="21">
+      <c r="X578" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y578" s="21">
+      <c r="Y578" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z578" s="21">
+      <c r="Z578" s="5">
         <v>2552233600</v>
       </c>
       <c r="AH578" s="5">
@@ -48792,59 +48837,49 @@
       <c r="A579" s="5">
         <v>578</v>
       </c>
-      <c r="B579" s="21">
+      <c r="B579" s="5">
         <v>10495</v>
       </c>
-      <c r="C579" s="21"/>
-      <c r="D579" s="21"/>
-      <c r="E579" s="21"/>
-      <c r="F579" s="21">
-        <v>1</v>
-      </c>
-      <c r="G579" s="21" t="s">
+      <c r="F579" s="5">
+        <v>1</v>
+      </c>
+      <c r="G579" s="5" t="s">
         <v>2116</v>
       </c>
-      <c r="H579" s="21"/>
-      <c r="I579" s="21" t="s">
+      <c r="I579" s="5" t="s">
         <v>2117</v>
       </c>
-      <c r="J579" s="21"/>
-      <c r="K579" s="21"/>
-      <c r="L579" s="21">
+      <c r="L579" s="5">
         <v>-31</v>
       </c>
-      <c r="M579" s="21">
-        <v>0</v>
-      </c>
-      <c r="N579" s="21">
-        <v>0</v>
-      </c>
-      <c r="O579" s="21" t="s">
+      <c r="M579" s="5">
+        <v>0</v>
+      </c>
+      <c r="N579" s="5">
+        <v>0</v>
+      </c>
+      <c r="O579" s="5" t="s">
         <v>1190</v>
       </c>
-      <c r="P579" s="21">
+      <c r="P579" s="5">
         <v>229800</v>
       </c>
-      <c r="Q579" s="21" t="s">
+      <c r="Q579" s="5" t="s">
         <v>2118</v>
       </c>
-      <c r="R579" s="65" t="s">
+      <c r="R579" s="66" t="s">
         <v>2119</v>
       </c>
-      <c r="S579" s="21"/>
-      <c r="T579" s="21"/>
-      <c r="U579" s="21"/>
-      <c r="V579" s="21"/>
-      <c r="W579" s="21" t="s">
+      <c r="W579" s="5" t="s">
         <v>613</v>
       </c>
-      <c r="X579" s="21">
+      <c r="X579" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y579" s="21">
+      <c r="Y579" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z579" s="21">
+      <c r="Z579" s="5">
         <v>2552233600</v>
       </c>
       <c r="AH579" s="5">
@@ -48897,7 +48932,7 @@
       <c r="Q580" s="5" t="s">
         <v>2125</v>
       </c>
-      <c r="R580" s="66" t="s">
+      <c r="R580" s="64" t="s">
         <v>2126</v>
       </c>
       <c r="W580" s="6" t="s">
@@ -48916,6 +48951,396 @@
         <v>1</v>
       </c>
       <c r="AI580" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:39" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A581" s="21">
+        <v>580</v>
+      </c>
+      <c r="B581" s="21">
+        <v>10497</v>
+      </c>
+      <c r="F581" s="21">
+        <v>1</v>
+      </c>
+      <c r="G581" s="21" t="s">
+        <v>2129</v>
+      </c>
+      <c r="I581" s="21" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J581" s="21" t="s">
+        <v>2131</v>
+      </c>
+      <c r="L581" s="21">
+        <v>-31</v>
+      </c>
+      <c r="M581" s="21">
+        <v>0</v>
+      </c>
+      <c r="N581" s="21">
+        <v>0</v>
+      </c>
+      <c r="O581" s="21" t="s">
+        <v>2132</v>
+      </c>
+      <c r="P581" s="21">
+        <v>49800</v>
+      </c>
+      <c r="Q581" s="21" t="s">
+        <v>2145</v>
+      </c>
+      <c r="R581" s="65" t="s">
+        <v>2146</v>
+      </c>
+      <c r="W581" s="21" t="s">
+        <v>2133</v>
+      </c>
+      <c r="X581" s="21">
+        <v>99999999</v>
+      </c>
+      <c r="Y581" s="21">
+        <v>1615852800</v>
+      </c>
+      <c r="Z581" s="21">
+        <v>1616428799</v>
+      </c>
+      <c r="AH581" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI581" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL581" s="21">
+        <v>1</v>
+      </c>
+      <c r="AM581" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:39" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A582" s="21">
+        <v>581</v>
+      </c>
+      <c r="B582" s="21">
+        <v>10498</v>
+      </c>
+      <c r="F582" s="21">
+        <v>1</v>
+      </c>
+      <c r="G582" s="21" t="s">
+        <v>2134</v>
+      </c>
+      <c r="I582" s="21" t="s">
+        <v>2135</v>
+      </c>
+      <c r="J582" s="21" t="s">
+        <v>2136</v>
+      </c>
+      <c r="L582" s="21">
+        <v>-31</v>
+      </c>
+      <c r="M582" s="21">
+        <v>0</v>
+      </c>
+      <c r="N582" s="21">
+        <v>0</v>
+      </c>
+      <c r="O582" s="21" t="s">
+        <v>2132</v>
+      </c>
+      <c r="P582" s="21">
+        <v>19800</v>
+      </c>
+      <c r="Q582" s="21" t="s">
+        <v>2147</v>
+      </c>
+      <c r="R582" s="65" t="s">
+        <v>2148</v>
+      </c>
+      <c r="W582" s="21" t="s">
+        <v>2133</v>
+      </c>
+      <c r="X582" s="21">
+        <v>99999999</v>
+      </c>
+      <c r="Y582" s="21">
+        <v>1615852800</v>
+      </c>
+      <c r="Z582" s="21">
+        <v>1616428799</v>
+      </c>
+      <c r="AH582" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI582" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL582" s="21">
+        <v>1</v>
+      </c>
+      <c r="AM582" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:39" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A583" s="21">
+        <v>582</v>
+      </c>
+      <c r="B583" s="21">
+        <v>10499</v>
+      </c>
+      <c r="F583" s="21">
+        <v>1</v>
+      </c>
+      <c r="G583" s="21" t="s">
+        <v>2129</v>
+      </c>
+      <c r="I583" s="21" t="s">
+        <v>2137</v>
+      </c>
+      <c r="J583" s="21" t="s">
+        <v>2138</v>
+      </c>
+      <c r="L583" s="21">
+        <v>-31</v>
+      </c>
+      <c r="M583" s="21">
+        <v>0</v>
+      </c>
+      <c r="N583" s="21">
+        <v>0</v>
+      </c>
+      <c r="O583" s="21" t="s">
+        <v>2132</v>
+      </c>
+      <c r="P583" s="21">
+        <v>9800</v>
+      </c>
+      <c r="Q583" s="21" t="s">
+        <v>2147</v>
+      </c>
+      <c r="R583" s="65" t="s">
+        <v>2149</v>
+      </c>
+      <c r="W583" s="21" t="s">
+        <v>2133</v>
+      </c>
+      <c r="X583" s="21">
+        <v>99999999</v>
+      </c>
+      <c r="Y583" s="21">
+        <v>1615852800</v>
+      </c>
+      <c r="Z583" s="21">
+        <v>1616428799</v>
+      </c>
+      <c r="AH583" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI583" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL583" s="21">
+        <v>1</v>
+      </c>
+      <c r="AM583" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" spans="1:39" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A584" s="21">
+        <v>583</v>
+      </c>
+      <c r="B584" s="21">
+        <v>10500</v>
+      </c>
+      <c r="F584" s="21">
+        <v>1</v>
+      </c>
+      <c r="G584" s="21" t="s">
+        <v>2129</v>
+      </c>
+      <c r="I584" s="21" t="s">
+        <v>2139</v>
+      </c>
+      <c r="J584" s="21" t="s">
+        <v>2140</v>
+      </c>
+      <c r="L584" s="21">
+        <v>-31</v>
+      </c>
+      <c r="M584" s="21">
+        <v>0</v>
+      </c>
+      <c r="N584" s="21">
+        <v>0</v>
+      </c>
+      <c r="O584" s="21" t="s">
+        <v>2132</v>
+      </c>
+      <c r="P584" s="21">
+        <v>4800</v>
+      </c>
+      <c r="Q584" s="21" t="s">
+        <v>2147</v>
+      </c>
+      <c r="R584" s="65" t="s">
+        <v>2150</v>
+      </c>
+      <c r="W584" s="21" t="s">
+        <v>2133</v>
+      </c>
+      <c r="X584" s="21">
+        <v>99999999</v>
+      </c>
+      <c r="Y584" s="21">
+        <v>1615852800</v>
+      </c>
+      <c r="Z584" s="21">
+        <v>1616428799</v>
+      </c>
+      <c r="AH584" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI584" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL584" s="21">
+        <v>1</v>
+      </c>
+      <c r="AM584" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:39" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A585" s="21">
+        <v>584</v>
+      </c>
+      <c r="B585" s="21">
+        <v>10501</v>
+      </c>
+      <c r="F585" s="21">
+        <v>1</v>
+      </c>
+      <c r="G585" s="21" t="s">
+        <v>2129</v>
+      </c>
+      <c r="I585" s="21" t="s">
+        <v>2141</v>
+      </c>
+      <c r="J585" s="21" t="s">
+        <v>2142</v>
+      </c>
+      <c r="L585" s="21">
+        <v>-31</v>
+      </c>
+      <c r="M585" s="21">
+        <v>0</v>
+      </c>
+      <c r="N585" s="21">
+        <v>0</v>
+      </c>
+      <c r="O585" s="21" t="s">
+        <v>501</v>
+      </c>
+      <c r="P585" s="21">
+        <v>2000</v>
+      </c>
+      <c r="Q585" s="21" t="s">
+        <v>2147</v>
+      </c>
+      <c r="R585" s="65" t="s">
+        <v>2151</v>
+      </c>
+      <c r="W585" s="21" t="s">
+        <v>2133</v>
+      </c>
+      <c r="X585" s="21">
+        <v>99999999</v>
+      </c>
+      <c r="Y585" s="21">
+        <v>1615852800</v>
+      </c>
+      <c r="Z585" s="21">
+        <v>1616428799</v>
+      </c>
+      <c r="AH585" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI585" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL585" s="21">
+        <v>1</v>
+      </c>
+      <c r="AM585" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="1:39" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A586" s="21">
+        <v>585</v>
+      </c>
+      <c r="B586" s="21">
+        <v>10502</v>
+      </c>
+      <c r="F586" s="21">
+        <v>1</v>
+      </c>
+      <c r="G586" s="21" t="s">
+        <v>2129</v>
+      </c>
+      <c r="I586" s="21" t="s">
+        <v>2143</v>
+      </c>
+      <c r="J586" s="21" t="s">
+        <v>2144</v>
+      </c>
+      <c r="L586" s="21">
+        <v>-31</v>
+      </c>
+      <c r="M586" s="21">
+        <v>0</v>
+      </c>
+      <c r="N586" s="21">
+        <v>0</v>
+      </c>
+      <c r="O586" s="21" t="s">
+        <v>2132</v>
+      </c>
+      <c r="P586" s="21">
+        <v>600</v>
+      </c>
+      <c r="Q586" s="21" t="s">
+        <v>2147</v>
+      </c>
+      <c r="R586" s="65" t="s">
+        <v>2152</v>
+      </c>
+      <c r="W586" s="21" t="s">
+        <v>2133</v>
+      </c>
+      <c r="X586" s="21">
+        <v>99999999</v>
+      </c>
+      <c r="Y586" s="21">
+        <v>1615852800</v>
+      </c>
+      <c r="Z586" s="21">
+        <v>1616428799</v>
+      </c>
+      <c r="AH586" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI586" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL586" s="21">
+        <v>1</v>
+      </c>
+      <c r="AM586" s="21">
         <v>1</v>
       </c>
     </row>

--- a/config_debug/shoping_config_cjj.xlsx
+++ b/config_debug/shoping_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.23\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -9311,7 +9311,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9507,11 +9507,14 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -11972,10 +11975,10 @@
   <dimension ref="A1:AN586"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="O560" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="W536" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q590" sqref="Q590"/>
+      <selection pane="bottomRight" activeCell="Z544" sqref="Z544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -46386,458 +46389,458 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A542" s="5">
+    <row r="542" spans="1:39" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A542" s="21">
         <v>541</v>
       </c>
-      <c r="B542" s="5">
+      <c r="B542" s="21">
         <v>10458</v>
       </c>
-      <c r="F542" s="5">
-        <v>0</v>
-      </c>
-      <c r="G542" s="5" t="s">
+      <c r="F542" s="21">
+        <v>1</v>
+      </c>
+      <c r="G542" s="21" t="s">
         <v>2003</v>
       </c>
-      <c r="I542" s="5" t="s">
+      <c r="I542" s="21" t="s">
         <v>2004</v>
       </c>
-      <c r="J542" s="5" t="s">
+      <c r="J542" s="21" t="s">
         <v>2005</v>
       </c>
-      <c r="L542" s="5">
+      <c r="L542" s="21">
         <v>-31</v>
       </c>
-      <c r="M542" s="5">
-        <v>0</v>
-      </c>
-      <c r="N542" s="5">
-        <v>0</v>
-      </c>
-      <c r="O542" s="5" t="s">
+      <c r="M542" s="21">
+        <v>0</v>
+      </c>
+      <c r="N542" s="21">
+        <v>0</v>
+      </c>
+      <c r="O542" s="21" t="s">
         <v>2006</v>
       </c>
-      <c r="P542" s="5">
+      <c r="P542" s="21">
         <v>99800</v>
       </c>
-      <c r="Q542" s="5" t="s">
+      <c r="Q542" s="21" t="s">
         <v>2007</v>
       </c>
-      <c r="R542" s="10" t="s">
+      <c r="R542" s="39" t="s">
         <v>2008</v>
       </c>
-      <c r="W542" s="5" t="s">
+      <c r="W542" s="21" t="s">
         <v>2009</v>
       </c>
-      <c r="X542" s="5">
+      <c r="X542" s="21">
         <v>9999999</v>
       </c>
-      <c r="Y542" s="11">
-        <v>1614038400</v>
-      </c>
-      <c r="Z542" s="11">
-        <v>1614614399</v>
-      </c>
-      <c r="AH542" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI542" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL542" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM542" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="543" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A543" s="5">
+      <c r="Y542" s="67">
+        <v>1616457600</v>
+      </c>
+      <c r="Z542" s="67">
+        <v>1617033599</v>
+      </c>
+      <c r="AH542" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI542" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL542" s="21">
+        <v>1</v>
+      </c>
+      <c r="AM542" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:39" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A543" s="21">
         <v>542</v>
       </c>
-      <c r="B543" s="5">
+      <c r="B543" s="21">
         <v>10459</v>
       </c>
-      <c r="F543" s="5">
-        <v>0</v>
-      </c>
-      <c r="G543" s="5" t="s">
+      <c r="F543" s="21">
+        <v>1</v>
+      </c>
+      <c r="G543" s="21" t="s">
         <v>2010</v>
       </c>
-      <c r="I543" s="5" t="s">
+      <c r="I543" s="21" t="s">
         <v>2004</v>
       </c>
-      <c r="J543" s="5" t="s">
+      <c r="J543" s="21" t="s">
         <v>1310</v>
       </c>
-      <c r="L543" s="5">
+      <c r="L543" s="21">
         <v>-31</v>
       </c>
-      <c r="M543" s="5">
-        <v>0</v>
-      </c>
-      <c r="N543" s="5">
-        <v>0</v>
-      </c>
-      <c r="O543" s="5" t="s">
+      <c r="M543" s="21">
+        <v>0</v>
+      </c>
+      <c r="N543" s="21">
+        <v>0</v>
+      </c>
+      <c r="O543" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="P543" s="5">
+      <c r="P543" s="21">
         <v>49800</v>
       </c>
-      <c r="Q543" s="5" t="s">
+      <c r="Q543" s="21" t="s">
         <v>1490</v>
       </c>
-      <c r="R543" s="10" t="s">
+      <c r="R543" s="39" t="s">
         <v>1213</v>
       </c>
-      <c r="W543" s="5" t="s">
+      <c r="W543" s="21" t="s">
         <v>543</v>
       </c>
-      <c r="X543" s="5">
+      <c r="X543" s="21">
         <v>9999999</v>
       </c>
-      <c r="Y543" s="11">
-        <v>1614038400</v>
-      </c>
-      <c r="Z543" s="11">
-        <v>1614614399</v>
-      </c>
-      <c r="AH543" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI543" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL543" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM543" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="544" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A544" s="5">
+      <c r="Y543" s="67">
+        <v>1616457600</v>
+      </c>
+      <c r="Z543" s="67">
+        <v>1617033599</v>
+      </c>
+      <c r="AH543" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI543" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL543" s="21">
+        <v>1</v>
+      </c>
+      <c r="AM543" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:39" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A544" s="21">
         <v>543</v>
       </c>
-      <c r="B544" s="5">
+      <c r="B544" s="21">
         <v>10460</v>
       </c>
-      <c r="F544" s="5">
-        <v>0</v>
-      </c>
-      <c r="G544" s="5" t="s">
+      <c r="F544" s="21">
+        <v>1</v>
+      </c>
+      <c r="G544" s="21" t="s">
         <v>2011</v>
       </c>
-      <c r="I544" s="5" t="s">
+      <c r="I544" s="21" t="s">
         <v>2012</v>
       </c>
-      <c r="J544" s="5" t="s">
+      <c r="J544" s="21" t="s">
         <v>1810</v>
       </c>
-      <c r="L544" s="5">
+      <c r="L544" s="21">
         <v>-31</v>
       </c>
-      <c r="M544" s="5">
-        <v>0</v>
-      </c>
-      <c r="N544" s="5">
-        <v>0</v>
-      </c>
-      <c r="O544" s="5" t="s">
+      <c r="M544" s="21">
+        <v>0</v>
+      </c>
+      <c r="N544" s="21">
+        <v>0</v>
+      </c>
+      <c r="O544" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="P544" s="5">
+      <c r="P544" s="21">
         <v>29800</v>
       </c>
-      <c r="Q544" s="5" t="s">
+      <c r="Q544" s="21" t="s">
         <v>1489</v>
       </c>
-      <c r="R544" s="10" t="s">
+      <c r="R544" s="39" t="s">
         <v>1217</v>
       </c>
-      <c r="W544" s="5" t="s">
+      <c r="W544" s="21" t="s">
         <v>543</v>
       </c>
-      <c r="X544" s="5">
+      <c r="X544" s="21">
         <v>9999999</v>
       </c>
-      <c r="Y544" s="11">
-        <v>1614038400</v>
-      </c>
-      <c r="Z544" s="11">
-        <v>1614614399</v>
-      </c>
-      <c r="AH544" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI544" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL544" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM544" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="545" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A545" s="5">
+      <c r="Y544" s="67">
+        <v>1616457600</v>
+      </c>
+      <c r="Z544" s="67">
+        <v>1617033599</v>
+      </c>
+      <c r="AH544" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI544" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL544" s="21">
+        <v>1</v>
+      </c>
+      <c r="AM544" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:39" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A545" s="21">
         <v>544</v>
       </c>
-      <c r="B545" s="5">
+      <c r="B545" s="21">
         <v>10461</v>
       </c>
-      <c r="F545" s="5">
-        <v>0</v>
-      </c>
-      <c r="G545" s="5" t="s">
+      <c r="F545" s="21">
+        <v>1</v>
+      </c>
+      <c r="G545" s="21" t="s">
         <v>2013</v>
       </c>
-      <c r="I545" s="5" t="s">
+      <c r="I545" s="21" t="s">
         <v>2004</v>
       </c>
-      <c r="J545" s="5" t="s">
+      <c r="J545" s="21" t="s">
         <v>1308</v>
       </c>
-      <c r="L545" s="5">
+      <c r="L545" s="21">
         <v>-31</v>
       </c>
-      <c r="M545" s="5">
-        <v>0</v>
-      </c>
-      <c r="N545" s="5">
-        <v>0</v>
-      </c>
-      <c r="O545" s="5" t="s">
+      <c r="M545" s="21">
+        <v>0</v>
+      </c>
+      <c r="N545" s="21">
+        <v>0</v>
+      </c>
+      <c r="O545" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="P545" s="5">
+      <c r="P545" s="21">
         <v>19800</v>
       </c>
-      <c r="Q545" s="5" t="s">
+      <c r="Q545" s="21" t="s">
         <v>2014</v>
       </c>
-      <c r="R545" s="10" t="s">
+      <c r="R545" s="39" t="s">
         <v>1211</v>
       </c>
-      <c r="W545" s="5" t="s">
+      <c r="W545" s="21" t="s">
         <v>543</v>
       </c>
-      <c r="X545" s="5">
+      <c r="X545" s="21">
         <v>9999999</v>
       </c>
-      <c r="Y545" s="11">
-        <v>1614038400</v>
-      </c>
-      <c r="Z545" s="11">
-        <v>1614614399</v>
-      </c>
-      <c r="AH545" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI545" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL545" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM545" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="546" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A546" s="5">
+      <c r="Y545" s="67">
+        <v>1616457600</v>
+      </c>
+      <c r="Z545" s="67">
+        <v>1617033599</v>
+      </c>
+      <c r="AH545" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI545" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL545" s="21">
+        <v>1</v>
+      </c>
+      <c r="AM545" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:39" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A546" s="21">
         <v>545</v>
       </c>
-      <c r="B546" s="5">
+      <c r="B546" s="21">
         <v>10462</v>
       </c>
-      <c r="F546" s="5">
-        <v>0</v>
-      </c>
-      <c r="G546" s="5" t="s">
+      <c r="F546" s="21">
+        <v>1</v>
+      </c>
+      <c r="G546" s="21" t="s">
         <v>2015</v>
       </c>
-      <c r="I546" s="5" t="s">
+      <c r="I546" s="21" t="s">
         <v>2012</v>
       </c>
-      <c r="J546" s="5" t="s">
+      <c r="J546" s="21" t="s">
         <v>2016</v>
       </c>
-      <c r="L546" s="5">
+      <c r="L546" s="21">
         <v>-31</v>
       </c>
-      <c r="M546" s="5">
-        <v>0</v>
-      </c>
-      <c r="N546" s="5">
-        <v>0</v>
-      </c>
-      <c r="O546" s="5" t="s">
+      <c r="M546" s="21">
+        <v>0</v>
+      </c>
+      <c r="N546" s="21">
+        <v>0</v>
+      </c>
+      <c r="O546" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="P546" s="5">
+      <c r="P546" s="21">
         <v>9800</v>
       </c>
-      <c r="Q546" s="5" t="s">
+      <c r="Q546" s="21" t="s">
         <v>1489</v>
       </c>
-      <c r="R546" s="10" t="s">
+      <c r="R546" s="39" t="s">
         <v>1307</v>
       </c>
-      <c r="W546" s="5" t="s">
+      <c r="W546" s="21" t="s">
         <v>543</v>
       </c>
-      <c r="X546" s="5">
+      <c r="X546" s="21">
         <v>9999999</v>
       </c>
-      <c r="Y546" s="11">
-        <v>1614038400</v>
-      </c>
-      <c r="Z546" s="11">
-        <v>1614614399</v>
-      </c>
-      <c r="AH546" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI546" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL546" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM546" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="547" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A547" s="5">
+      <c r="Y546" s="67">
+        <v>1616457600</v>
+      </c>
+      <c r="Z546" s="67">
+        <v>1617033599</v>
+      </c>
+      <c r="AH546" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI546" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL546" s="21">
+        <v>1</v>
+      </c>
+      <c r="AM546" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:39" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A547" s="21">
         <v>546</v>
       </c>
-      <c r="B547" s="5">
+      <c r="B547" s="21">
         <v>10463</v>
       </c>
-      <c r="F547" s="5">
-        <v>0</v>
-      </c>
-      <c r="G547" s="5" t="s">
+      <c r="F547" s="21">
+        <v>1</v>
+      </c>
+      <c r="G547" s="21" t="s">
         <v>2017</v>
       </c>
-      <c r="I547" s="5" t="s">
+      <c r="I547" s="21" t="s">
         <v>2004</v>
       </c>
-      <c r="J547" s="5" t="s">
+      <c r="J547" s="21" t="s">
         <v>2018</v>
       </c>
-      <c r="L547" s="5">
+      <c r="L547" s="21">
         <v>-31</v>
       </c>
-      <c r="M547" s="5">
-        <v>0</v>
-      </c>
-      <c r="N547" s="5">
-        <v>0</v>
-      </c>
-      <c r="O547" s="5" t="s">
+      <c r="M547" s="21">
+        <v>0</v>
+      </c>
+      <c r="N547" s="21">
+        <v>0</v>
+      </c>
+      <c r="O547" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="P547" s="5">
+      <c r="P547" s="21">
         <v>4800</v>
       </c>
-      <c r="Q547" s="5" t="s">
+      <c r="Q547" s="21" t="s">
         <v>2019</v>
       </c>
-      <c r="R547" s="10" t="s">
+      <c r="R547" s="39" t="s">
         <v>2020</v>
       </c>
-      <c r="W547" s="5" t="s">
+      <c r="W547" s="21" t="s">
         <v>543</v>
       </c>
-      <c r="X547" s="5">
+      <c r="X547" s="21">
         <v>9999999</v>
       </c>
-      <c r="Y547" s="11">
-        <v>1614038400</v>
-      </c>
-      <c r="Z547" s="11">
-        <v>1614614399</v>
-      </c>
-      <c r="AH547" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI547" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL547" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM547" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="548" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A548" s="5">
+      <c r="Y547" s="67">
+        <v>1616457600</v>
+      </c>
+      <c r="Z547" s="67">
+        <v>1617033599</v>
+      </c>
+      <c r="AH547" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI547" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL547" s="21">
+        <v>1</v>
+      </c>
+      <c r="AM547" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:39" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A548" s="21">
         <v>547</v>
       </c>
-      <c r="B548" s="5">
+      <c r="B548" s="21">
         <v>10464</v>
       </c>
-      <c r="F548" s="5">
-        <v>0</v>
-      </c>
-      <c r="G548" s="5" t="s">
+      <c r="F548" s="21">
+        <v>1</v>
+      </c>
+      <c r="G548" s="21" t="s">
         <v>2021</v>
       </c>
-      <c r="I548" s="5" t="s">
+      <c r="I548" s="21" t="s">
         <v>2004</v>
       </c>
-      <c r="J548" s="5" t="s">
+      <c r="J548" s="21" t="s">
         <v>1303</v>
       </c>
-      <c r="L548" s="5">
+      <c r="L548" s="21">
         <v>-31</v>
       </c>
-      <c r="M548" s="5">
-        <v>0</v>
-      </c>
-      <c r="N548" s="5">
-        <v>0</v>
-      </c>
-      <c r="O548" s="5" t="s">
+      <c r="M548" s="21">
+        <v>0</v>
+      </c>
+      <c r="N548" s="21">
+        <v>0</v>
+      </c>
+      <c r="O548" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="P548" s="5">
+      <c r="P548" s="21">
         <v>1800</v>
       </c>
-      <c r="Q548" s="5" t="s">
+      <c r="Q548" s="21" t="s">
         <v>2019</v>
       </c>
-      <c r="R548" s="10" t="s">
+      <c r="R548" s="39" t="s">
         <v>1785</v>
       </c>
-      <c r="W548" s="5" t="s">
+      <c r="W548" s="21" t="s">
         <v>543</v>
       </c>
-      <c r="X548" s="5">
+      <c r="X548" s="21">
         <v>9999999</v>
       </c>
-      <c r="Y548" s="11">
-        <v>1614038400</v>
-      </c>
-      <c r="Z548" s="11">
-        <v>1614614399</v>
-      </c>
-      <c r="AH548" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI548" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL548" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM548" s="5">
+      <c r="Y548" s="67">
+        <v>1616457600</v>
+      </c>
+      <c r="Z548" s="67">
+        <v>1617033599</v>
+      </c>
+      <c r="AH548" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI548" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL548" s="21">
+        <v>1</v>
+      </c>
+      <c r="AM548" s="21">
         <v>1</v>
       </c>
     </row>
@@ -48557,7 +48560,7 @@
       <c r="Q574" s="5" t="s">
         <v>2097</v>
       </c>
-      <c r="R574" s="66" t="s">
+      <c r="R574" s="65" t="s">
         <v>2098</v>
       </c>
       <c r="W574" s="5" t="s">
@@ -48619,7 +48622,7 @@
       <c r="Q575" s="5" t="s">
         <v>2102</v>
       </c>
-      <c r="R575" s="66" t="s">
+      <c r="R575" s="65" t="s">
         <v>2103</v>
       </c>
       <c r="W575" s="5" t="s">
@@ -48681,7 +48684,7 @@
       <c r="Q576" s="5" t="s">
         <v>2106</v>
       </c>
-      <c r="R576" s="66" t="s">
+      <c r="R576" s="65" t="s">
         <v>2107</v>
       </c>
       <c r="W576" s="5" t="s">
@@ -48743,7 +48746,7 @@
       <c r="Q577" s="5" t="s">
         <v>2110</v>
       </c>
-      <c r="R577" s="66" t="s">
+      <c r="R577" s="65" t="s">
         <v>2111</v>
       </c>
       <c r="W577" s="5" t="s">
@@ -48805,7 +48808,7 @@
       <c r="Q578" s="5" t="s">
         <v>2114</v>
       </c>
-      <c r="R578" s="66" t="s">
+      <c r="R578" s="65" t="s">
         <v>2115</v>
       </c>
       <c r="W578" s="5" t="s">
@@ -48867,7 +48870,7 @@
       <c r="Q579" s="5" t="s">
         <v>2118</v>
       </c>
-      <c r="R579" s="66" t="s">
+      <c r="R579" s="65" t="s">
         <v>2119</v>
       </c>
       <c r="W579" s="5" t="s">
@@ -48954,393 +48957,393 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:39" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A581" s="21">
+    <row r="581" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A581" s="5">
         <v>580</v>
       </c>
-      <c r="B581" s="21">
+      <c r="B581" s="5">
         <v>10497</v>
       </c>
-      <c r="F581" s="21">
-        <v>1</v>
-      </c>
-      <c r="G581" s="21" t="s">
+      <c r="F581" s="5">
+        <v>0</v>
+      </c>
+      <c r="G581" s="5" t="s">
         <v>2129</v>
       </c>
-      <c r="I581" s="21" t="s">
+      <c r="I581" s="5" t="s">
         <v>2130</v>
       </c>
-      <c r="J581" s="21" t="s">
+      <c r="J581" s="5" t="s">
         <v>2131</v>
       </c>
-      <c r="L581" s="21">
+      <c r="L581" s="5">
         <v>-31</v>
       </c>
-      <c r="M581" s="21">
-        <v>0</v>
-      </c>
-      <c r="N581" s="21">
-        <v>0</v>
-      </c>
-      <c r="O581" s="21" t="s">
+      <c r="M581" s="5">
+        <v>0</v>
+      </c>
+      <c r="N581" s="5">
+        <v>0</v>
+      </c>
+      <c r="O581" s="5" t="s">
         <v>2132</v>
       </c>
-      <c r="P581" s="21">
+      <c r="P581" s="5">
         <v>49800</v>
       </c>
-      <c r="Q581" s="21" t="s">
+      <c r="Q581" s="5" t="s">
         <v>2145</v>
       </c>
-      <c r="R581" s="65" t="s">
+      <c r="R581" s="66" t="s">
         <v>2146</v>
       </c>
-      <c r="W581" s="21" t="s">
+      <c r="W581" s="5" t="s">
         <v>2133</v>
       </c>
-      <c r="X581" s="21">
+      <c r="X581" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y581" s="21">
+      <c r="Y581" s="5">
         <v>1615852800</v>
       </c>
-      <c r="Z581" s="21">
+      <c r="Z581" s="5">
         <v>1616428799</v>
       </c>
-      <c r="AH581" s="21">
-        <v>1</v>
-      </c>
-      <c r="AI581" s="21">
-        <v>1</v>
-      </c>
-      <c r="AL581" s="21">
-        <v>1</v>
-      </c>
-      <c r="AM581" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="582" spans="1:39" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A582" s="21">
+      <c r="AH581" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI581" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL581" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM581" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A582" s="5">
         <v>581</v>
       </c>
-      <c r="B582" s="21">
+      <c r="B582" s="5">
         <v>10498</v>
       </c>
-      <c r="F582" s="21">
-        <v>1</v>
-      </c>
-      <c r="G582" s="21" t="s">
+      <c r="F582" s="5">
+        <v>0</v>
+      </c>
+      <c r="G582" s="5" t="s">
         <v>2134</v>
       </c>
-      <c r="I582" s="21" t="s">
+      <c r="I582" s="5" t="s">
         <v>2135</v>
       </c>
-      <c r="J582" s="21" t="s">
+      <c r="J582" s="5" t="s">
         <v>2136</v>
       </c>
-      <c r="L582" s="21">
+      <c r="L582" s="5">
         <v>-31</v>
       </c>
-      <c r="M582" s="21">
-        <v>0</v>
-      </c>
-      <c r="N582" s="21">
-        <v>0</v>
-      </c>
-      <c r="O582" s="21" t="s">
+      <c r="M582" s="5">
+        <v>0</v>
+      </c>
+      <c r="N582" s="5">
+        <v>0</v>
+      </c>
+      <c r="O582" s="5" t="s">
         <v>2132</v>
       </c>
-      <c r="P582" s="21">
+      <c r="P582" s="5">
         <v>19800</v>
       </c>
-      <c r="Q582" s="21" t="s">
+      <c r="Q582" s="5" t="s">
         <v>2147</v>
       </c>
-      <c r="R582" s="65" t="s">
+      <c r="R582" s="66" t="s">
         <v>2148</v>
       </c>
-      <c r="W582" s="21" t="s">
+      <c r="W582" s="5" t="s">
         <v>2133</v>
       </c>
-      <c r="X582" s="21">
+      <c r="X582" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y582" s="21">
+      <c r="Y582" s="5">
         <v>1615852800</v>
       </c>
-      <c r="Z582" s="21">
+      <c r="Z582" s="5">
         <v>1616428799</v>
       </c>
-      <c r="AH582" s="21">
-        <v>1</v>
-      </c>
-      <c r="AI582" s="21">
-        <v>1</v>
-      </c>
-      <c r="AL582" s="21">
-        <v>1</v>
-      </c>
-      <c r="AM582" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="583" spans="1:39" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A583" s="21">
+      <c r="AH582" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI582" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL582" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM582" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A583" s="5">
         <v>582</v>
       </c>
-      <c r="B583" s="21">
+      <c r="B583" s="5">
         <v>10499</v>
       </c>
-      <c r="F583" s="21">
-        <v>1</v>
-      </c>
-      <c r="G583" s="21" t="s">
+      <c r="F583" s="5">
+        <v>0</v>
+      </c>
+      <c r="G583" s="5" t="s">
         <v>2129</v>
       </c>
-      <c r="I583" s="21" t="s">
+      <c r="I583" s="5" t="s">
         <v>2137</v>
       </c>
-      <c r="J583" s="21" t="s">
+      <c r="J583" s="5" t="s">
         <v>2138</v>
       </c>
-      <c r="L583" s="21">
+      <c r="L583" s="5">
         <v>-31</v>
       </c>
-      <c r="M583" s="21">
-        <v>0</v>
-      </c>
-      <c r="N583" s="21">
-        <v>0</v>
-      </c>
-      <c r="O583" s="21" t="s">
+      <c r="M583" s="5">
+        <v>0</v>
+      </c>
+      <c r="N583" s="5">
+        <v>0</v>
+      </c>
+      <c r="O583" s="5" t="s">
         <v>2132</v>
       </c>
-      <c r="P583" s="21">
+      <c r="P583" s="5">
         <v>9800</v>
       </c>
-      <c r="Q583" s="21" t="s">
+      <c r="Q583" s="5" t="s">
         <v>2147</v>
       </c>
-      <c r="R583" s="65" t="s">
+      <c r="R583" s="66" t="s">
         <v>2149</v>
       </c>
-      <c r="W583" s="21" t="s">
+      <c r="W583" s="5" t="s">
         <v>2133</v>
       </c>
-      <c r="X583" s="21">
+      <c r="X583" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y583" s="21">
+      <c r="Y583" s="5">
         <v>1615852800</v>
       </c>
-      <c r="Z583" s="21">
+      <c r="Z583" s="5">
         <v>1616428799</v>
       </c>
-      <c r="AH583" s="21">
-        <v>1</v>
-      </c>
-      <c r="AI583" s="21">
-        <v>1</v>
-      </c>
-      <c r="AL583" s="21">
-        <v>1</v>
-      </c>
-      <c r="AM583" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="584" spans="1:39" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A584" s="21">
+      <c r="AH583" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI583" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL583" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM583" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A584" s="5">
         <v>583</v>
       </c>
-      <c r="B584" s="21">
+      <c r="B584" s="5">
         <v>10500</v>
       </c>
-      <c r="F584" s="21">
-        <v>1</v>
-      </c>
-      <c r="G584" s="21" t="s">
+      <c r="F584" s="5">
+        <v>0</v>
+      </c>
+      <c r="G584" s="5" t="s">
         <v>2129</v>
       </c>
-      <c r="I584" s="21" t="s">
+      <c r="I584" s="5" t="s">
         <v>2139</v>
       </c>
-      <c r="J584" s="21" t="s">
+      <c r="J584" s="5" t="s">
         <v>2140</v>
       </c>
-      <c r="L584" s="21">
+      <c r="L584" s="5">
         <v>-31</v>
       </c>
-      <c r="M584" s="21">
-        <v>0</v>
-      </c>
-      <c r="N584" s="21">
-        <v>0</v>
-      </c>
-      <c r="O584" s="21" t="s">
+      <c r="M584" s="5">
+        <v>0</v>
+      </c>
+      <c r="N584" s="5">
+        <v>0</v>
+      </c>
+      <c r="O584" s="5" t="s">
         <v>2132</v>
       </c>
-      <c r="P584" s="21">
+      <c r="P584" s="5">
         <v>4800</v>
       </c>
-      <c r="Q584" s="21" t="s">
+      <c r="Q584" s="5" t="s">
         <v>2147</v>
       </c>
-      <c r="R584" s="65" t="s">
+      <c r="R584" s="66" t="s">
         <v>2150</v>
       </c>
-      <c r="W584" s="21" t="s">
+      <c r="W584" s="5" t="s">
         <v>2133</v>
       </c>
-      <c r="X584" s="21">
+      <c r="X584" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y584" s="21">
+      <c r="Y584" s="5">
         <v>1615852800</v>
       </c>
-      <c r="Z584" s="21">
+      <c r="Z584" s="5">
         <v>1616428799</v>
       </c>
-      <c r="AH584" s="21">
-        <v>1</v>
-      </c>
-      <c r="AI584" s="21">
-        <v>1</v>
-      </c>
-      <c r="AL584" s="21">
-        <v>1</v>
-      </c>
-      <c r="AM584" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="585" spans="1:39" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A585" s="21">
+      <c r="AH584" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI584" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL584" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM584" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A585" s="5">
         <v>584</v>
       </c>
-      <c r="B585" s="21">
+      <c r="B585" s="5">
         <v>10501</v>
       </c>
-      <c r="F585" s="21">
-        <v>1</v>
-      </c>
-      <c r="G585" s="21" t="s">
+      <c r="F585" s="5">
+        <v>0</v>
+      </c>
+      <c r="G585" s="5" t="s">
         <v>2129</v>
       </c>
-      <c r="I585" s="21" t="s">
+      <c r="I585" s="5" t="s">
         <v>2141</v>
       </c>
-      <c r="J585" s="21" t="s">
+      <c r="J585" s="5" t="s">
         <v>2142</v>
       </c>
-      <c r="L585" s="21">
+      <c r="L585" s="5">
         <v>-31</v>
       </c>
-      <c r="M585" s="21">
-        <v>0</v>
-      </c>
-      <c r="N585" s="21">
-        <v>0</v>
-      </c>
-      <c r="O585" s="21" t="s">
+      <c r="M585" s="5">
+        <v>0</v>
+      </c>
+      <c r="N585" s="5">
+        <v>0</v>
+      </c>
+      <c r="O585" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="P585" s="21">
+      <c r="P585" s="5">
         <v>2000</v>
       </c>
-      <c r="Q585" s="21" t="s">
+      <c r="Q585" s="5" t="s">
         <v>2147</v>
       </c>
-      <c r="R585" s="65" t="s">
+      <c r="R585" s="66" t="s">
         <v>2151</v>
       </c>
-      <c r="W585" s="21" t="s">
+      <c r="W585" s="5" t="s">
         <v>2133</v>
       </c>
-      <c r="X585" s="21">
+      <c r="X585" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y585" s="21">
+      <c r="Y585" s="5">
         <v>1615852800</v>
       </c>
-      <c r="Z585" s="21">
+      <c r="Z585" s="5">
         <v>1616428799</v>
       </c>
-      <c r="AH585" s="21">
-        <v>1</v>
-      </c>
-      <c r="AI585" s="21">
-        <v>1</v>
-      </c>
-      <c r="AL585" s="21">
-        <v>1</v>
-      </c>
-      <c r="AM585" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="586" spans="1:39" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A586" s="21">
+      <c r="AH585" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI585" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL585" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM585" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A586" s="5">
         <v>585</v>
       </c>
-      <c r="B586" s="21">
+      <c r="B586" s="5">
         <v>10502</v>
       </c>
-      <c r="F586" s="21">
-        <v>1</v>
-      </c>
-      <c r="G586" s="21" t="s">
+      <c r="F586" s="5">
+        <v>0</v>
+      </c>
+      <c r="G586" s="5" t="s">
         <v>2129</v>
       </c>
-      <c r="I586" s="21" t="s">
+      <c r="I586" s="5" t="s">
         <v>2143</v>
       </c>
-      <c r="J586" s="21" t="s">
+      <c r="J586" s="5" t="s">
         <v>2144</v>
       </c>
-      <c r="L586" s="21">
+      <c r="L586" s="5">
         <v>-31</v>
       </c>
-      <c r="M586" s="21">
-        <v>0</v>
-      </c>
-      <c r="N586" s="21">
-        <v>0</v>
-      </c>
-      <c r="O586" s="21" t="s">
+      <c r="M586" s="5">
+        <v>0</v>
+      </c>
+      <c r="N586" s="5">
+        <v>0</v>
+      </c>
+      <c r="O586" s="5" t="s">
         <v>2132</v>
       </c>
-      <c r="P586" s="21">
+      <c r="P586" s="5">
         <v>600</v>
       </c>
-      <c r="Q586" s="21" t="s">
+      <c r="Q586" s="5" t="s">
         <v>2147</v>
       </c>
-      <c r="R586" s="65" t="s">
+      <c r="R586" s="66" t="s">
         <v>2152</v>
       </c>
-      <c r="W586" s="21" t="s">
+      <c r="W586" s="5" t="s">
         <v>2133</v>
       </c>
-      <c r="X586" s="21">
+      <c r="X586" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y586" s="21">
+      <c r="Y586" s="5">
         <v>1615852800</v>
       </c>
-      <c r="Z586" s="21">
+      <c r="Z586" s="5">
         <v>1616428799</v>
       </c>
-      <c r="AH586" s="21">
-        <v>1</v>
-      </c>
-      <c r="AI586" s="21">
-        <v>1</v>
-      </c>
-      <c r="AL586" s="21">
-        <v>1</v>
-      </c>
-      <c r="AM586" s="21">
+      <c r="AH586" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI586" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL586" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM586" s="5">
         <v>1</v>
       </c>
     </row>

--- a/config_debug/shoping_config_cjj.xlsx
+++ b/config_debug/shoping_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.13\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4808" uniqueCount="2188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4896" uniqueCount="2208">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -9276,6 +9276,76 @@
   </si>
   <si>
     <t>{type="permission_class",class_value = "buy_gift_shop_v8" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包</t>
+  </si>
+  <si>
+    <t>"60万金币","6万鱼币",</t>
+  </si>
+  <si>
+    <t>600000,60000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"100万金币","12万鱼币",</t>
+  </si>
+  <si>
+    <t>1000000,120000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","18万鱼币",</t>
+  </si>
+  <si>
+    <t>1800000,180000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","7万鱼币",</t>
+  </si>
+  <si>
+    <t>"300万金币","12万鱼币",</t>
+  </si>
+  <si>
+    <t>"480万金币","18万鱼币",</t>
+  </si>
+  <si>
+    <t>"980万金币","38万鱼币",</t>
+  </si>
+  <si>
+    <t>"1980万金币","80万鱼币",</t>
+  </si>
+  <si>
+    <t>"4980万金币","180万鱼币",</t>
+  </si>
+  <si>
+    <t>4800000,180000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>v4-v7</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>v8-v12</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "integral_gift_buy_nor" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "integral_gift_buy_v1" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "integral_gift_buy_v4" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "integral_gift_buy_v8" }</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -9347,7 +9417,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9414,6 +9484,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -9457,7 +9533,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9666,6 +9742,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12124,13 +12203,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN598"/>
+  <dimension ref="A1:AN610"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W575" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="W577" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F590" sqref="F590"/>
+      <selection pane="bottomRight" activeCell="A599" sqref="A599:XFD610"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -49499,819 +49578,1635 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:39" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A587" s="68">
+    <row r="587" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A587" s="5">
         <v>586</v>
       </c>
-      <c r="B587" s="68">
+      <c r="B587" s="5">
         <v>10503</v>
       </c>
-      <c r="F587" s="68">
-        <v>1</v>
-      </c>
-      <c r="G587" s="68" t="s">
+      <c r="F587" s="5">
+        <v>0</v>
+      </c>
+      <c r="G587" s="5" t="s">
         <v>2156</v>
       </c>
-      <c r="I587" s="68" t="s">
+      <c r="I587" s="5" t="s">
         <v>2170</v>
       </c>
-      <c r="J587" s="68" t="s">
+      <c r="J587" s="5" t="s">
         <v>2171</v>
       </c>
-      <c r="L587" s="68">
+      <c r="L587" s="5">
         <v>-31</v>
       </c>
-      <c r="M587" s="68">
-        <v>0</v>
-      </c>
-      <c r="N587" s="68">
-        <v>0</v>
-      </c>
-      <c r="O587" s="68" t="s">
+      <c r="M587" s="5">
+        <v>0</v>
+      </c>
+      <c r="N587" s="5">
+        <v>0</v>
+      </c>
+      <c r="O587" s="5" t="s">
         <v>951</v>
       </c>
-      <c r="P587" s="68">
+      <c r="P587" s="5">
         <v>600</v>
       </c>
-      <c r="Q587" s="68" t="s">
+      <c r="Q587" s="5" t="s">
         <v>2172</v>
       </c>
-      <c r="R587" s="69" t="s">
+      <c r="R587" s="66" t="s">
         <v>2173</v>
       </c>
-      <c r="W587" s="68" t="s">
+      <c r="W587" s="5" t="s">
         <v>2154</v>
       </c>
-      <c r="X587" s="68">
+      <c r="X587" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y587" s="68">
+      <c r="Y587" s="5">
         <v>1617667200</v>
       </c>
-      <c r="Z587" s="68">
+      <c r="Z587" s="5">
         <v>1618243199</v>
       </c>
-      <c r="AA587" s="68">
+      <c r="AA587" s="5">
         <v>76</v>
       </c>
-      <c r="AH587" s="68">
-        <v>1</v>
-      </c>
-      <c r="AI587" s="68">
-        <v>1</v>
-      </c>
-      <c r="AL587" s="68">
-        <v>1</v>
-      </c>
-      <c r="AM587" s="68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="588" spans="1:39" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A588" s="68">
+      <c r="AH587" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI587" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL587" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM587" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A588" s="5">
         <v>587</v>
       </c>
-      <c r="B588" s="68">
+      <c r="B588" s="5">
         <v>10504</v>
       </c>
-      <c r="F588" s="68">
-        <v>1</v>
-      </c>
-      <c r="G588" s="68" t="s">
+      <c r="F588" s="5">
+        <v>0</v>
+      </c>
+      <c r="G588" s="5" t="s">
         <v>2156</v>
       </c>
-      <c r="I588" s="68" t="s">
+      <c r="I588" s="5" t="s">
         <v>2170</v>
       </c>
-      <c r="J588" s="68" t="s">
+      <c r="J588" s="5" t="s">
         <v>2174</v>
       </c>
-      <c r="L588" s="68">
+      <c r="L588" s="5">
         <v>-31</v>
       </c>
-      <c r="M588" s="68">
-        <v>0</v>
-      </c>
-      <c r="N588" s="68">
-        <v>0</v>
-      </c>
-      <c r="O588" s="68" t="s">
+      <c r="M588" s="5">
+        <v>0</v>
+      </c>
+      <c r="N588" s="5">
+        <v>0</v>
+      </c>
+      <c r="O588" s="5" t="s">
         <v>951</v>
       </c>
-      <c r="P588" s="68">
+      <c r="P588" s="5">
         <v>1000</v>
       </c>
-      <c r="Q588" s="68" t="s">
+      <c r="Q588" s="5" t="s">
         <v>2153</v>
       </c>
-      <c r="R588" s="69" t="s">
+      <c r="R588" s="66" t="s">
         <v>2155</v>
       </c>
-      <c r="W588" s="68" t="s">
+      <c r="W588" s="5" t="s">
         <v>2154</v>
       </c>
-      <c r="X588" s="68">
+      <c r="X588" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y588" s="68">
+      <c r="Y588" s="5">
         <v>1617667200</v>
       </c>
-      <c r="Z588" s="68">
+      <c r="Z588" s="5">
         <v>1618243199</v>
       </c>
-      <c r="AA588" s="68">
+      <c r="AA588" s="5">
         <v>76</v>
       </c>
-      <c r="AH588" s="68">
-        <v>1</v>
-      </c>
-      <c r="AI588" s="68">
-        <v>1</v>
-      </c>
-      <c r="AL588" s="68">
-        <v>1</v>
-      </c>
-      <c r="AM588" s="68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="589" spans="1:39" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A589" s="68">
+      <c r="AH588" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI588" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL588" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM588" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A589" s="5">
         <v>588</v>
       </c>
-      <c r="B589" s="68">
+      <c r="B589" s="5">
         <v>10505</v>
       </c>
-      <c r="F589" s="68">
-        <v>1</v>
-      </c>
-      <c r="G589" s="68" t="s">
+      <c r="F589" s="5">
+        <v>0</v>
+      </c>
+      <c r="G589" s="5" t="s">
         <v>2156</v>
       </c>
-      <c r="I589" s="68" t="s">
+      <c r="I589" s="5" t="s">
         <v>2170</v>
       </c>
-      <c r="J589" s="68" t="s">
+      <c r="J589" s="5" t="s">
         <v>2175</v>
       </c>
-      <c r="L589" s="68">
+      <c r="L589" s="5">
         <v>-31</v>
       </c>
-      <c r="M589" s="68">
-        <v>0</v>
-      </c>
-      <c r="N589" s="68">
-        <v>0</v>
-      </c>
-      <c r="O589" s="68" t="s">
+      <c r="M589" s="5">
+        <v>0</v>
+      </c>
+      <c r="N589" s="5">
+        <v>0</v>
+      </c>
+      <c r="O589" s="5" t="s">
         <v>951</v>
       </c>
-      <c r="P589" s="68">
+      <c r="P589" s="5">
         <v>1800</v>
       </c>
-      <c r="Q589" s="68" t="s">
+      <c r="Q589" s="5" t="s">
         <v>2153</v>
       </c>
-      <c r="R589" s="69" t="s">
+      <c r="R589" s="66" t="s">
         <v>2176</v>
       </c>
-      <c r="W589" s="68" t="s">
+      <c r="W589" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="X589" s="68">
+      <c r="X589" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y589" s="68">
+      <c r="Y589" s="5">
         <v>1617667200</v>
       </c>
-      <c r="Z589" s="68">
+      <c r="Z589" s="5">
         <v>1618243199</v>
       </c>
-      <c r="AA589" s="68">
+      <c r="AA589" s="5">
         <v>76</v>
       </c>
-      <c r="AH589" s="68">
-        <v>1</v>
-      </c>
-      <c r="AI589" s="68">
-        <v>1</v>
-      </c>
-      <c r="AL589" s="68">
-        <v>1</v>
-      </c>
-      <c r="AM589" s="68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="590" spans="1:39" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A590" s="68">
+      <c r="AH589" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI589" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL589" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM589" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A590" s="5">
         <v>589</v>
       </c>
-      <c r="B590" s="68">
+      <c r="B590" s="5">
         <v>10506</v>
       </c>
-      <c r="F590" s="68">
-        <v>1</v>
-      </c>
-      <c r="G590" s="68" t="s">
+      <c r="F590" s="5">
+        <v>0</v>
+      </c>
+      <c r="G590" s="5" t="s">
         <v>2177</v>
       </c>
-      <c r="I590" s="68" t="s">
+      <c r="I590" s="5" t="s">
         <v>2157</v>
       </c>
-      <c r="J590" s="68" t="s">
+      <c r="J590" s="5" t="s">
         <v>2178</v>
       </c>
-      <c r="L590" s="68">
+      <c r="L590" s="5">
         <v>-31</v>
       </c>
-      <c r="M590" s="68">
-        <v>0</v>
-      </c>
-      <c r="N590" s="68">
-        <v>0</v>
-      </c>
-      <c r="O590" s="68" t="s">
+      <c r="M590" s="5">
+        <v>0</v>
+      </c>
+      <c r="N590" s="5">
+        <v>0</v>
+      </c>
+      <c r="O590" s="5" t="s">
         <v>951</v>
       </c>
-      <c r="P590" s="68">
+      <c r="P590" s="5">
         <v>1800</v>
       </c>
-      <c r="Q590" s="68" t="s">
+      <c r="Q590" s="5" t="s">
         <v>2153</v>
       </c>
-      <c r="R590" s="69" t="s">
+      <c r="R590" s="66" t="s">
         <v>2158</v>
       </c>
-      <c r="W590" s="68" t="s">
+      <c r="W590" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="X590" s="68">
+      <c r="X590" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y590" s="68">
+      <c r="Y590" s="5">
         <v>1617667200</v>
       </c>
-      <c r="Z590" s="68">
+      <c r="Z590" s="5">
         <v>1618243199</v>
       </c>
-      <c r="AA590" s="68">
+      <c r="AA590" s="5">
         <v>77</v>
       </c>
-      <c r="AH590" s="68">
-        <v>1</v>
-      </c>
-      <c r="AI590" s="68">
-        <v>1</v>
-      </c>
-      <c r="AL590" s="68">
-        <v>1</v>
-      </c>
-      <c r="AM590" s="68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="591" spans="1:39" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A591" s="68">
+      <c r="AH590" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI590" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL590" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM590" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A591" s="5">
         <v>590</v>
       </c>
-      <c r="B591" s="68">
+      <c r="B591" s="5">
         <v>10507</v>
       </c>
-      <c r="F591" s="68">
-        <v>1</v>
-      </c>
-      <c r="G591" s="68" t="s">
+      <c r="F591" s="5">
+        <v>0</v>
+      </c>
+      <c r="G591" s="5" t="s">
         <v>2156</v>
       </c>
-      <c r="I591" s="68" t="s">
+      <c r="I591" s="5" t="s">
         <v>2157</v>
       </c>
-      <c r="J591" s="68" t="s">
+      <c r="J591" s="5" t="s">
         <v>2159</v>
       </c>
-      <c r="L591" s="68">
+      <c r="L591" s="5">
         <v>-31</v>
       </c>
-      <c r="M591" s="68">
-        <v>0</v>
-      </c>
-      <c r="N591" s="68">
-        <v>0</v>
-      </c>
-      <c r="O591" s="68" t="s">
+      <c r="M591" s="5">
+        <v>0</v>
+      </c>
+      <c r="N591" s="5">
+        <v>0</v>
+      </c>
+      <c r="O591" s="5" t="s">
         <v>951</v>
       </c>
-      <c r="P591" s="68">
+      <c r="P591" s="5">
         <v>3000</v>
       </c>
-      <c r="Q591" s="68" t="s">
+      <c r="Q591" s="5" t="s">
         <v>2153</v>
       </c>
-      <c r="R591" s="69" t="s">
+      <c r="R591" s="66" t="s">
         <v>2160</v>
       </c>
-      <c r="W591" s="68" t="s">
+      <c r="W591" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="X591" s="68">
+      <c r="X591" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y591" s="68">
+      <c r="Y591" s="5">
         <v>1617667200</v>
       </c>
-      <c r="Z591" s="68">
+      <c r="Z591" s="5">
         <v>1618243199</v>
       </c>
-      <c r="AA591" s="68">
+      <c r="AA591" s="5">
         <v>77</v>
       </c>
-      <c r="AH591" s="68">
-        <v>1</v>
-      </c>
-      <c r="AI591" s="68">
-        <v>1</v>
-      </c>
-      <c r="AL591" s="68">
-        <v>1</v>
-      </c>
-      <c r="AM591" s="68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="592" spans="1:39" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A592" s="68">
+      <c r="AH591" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI591" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL591" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM591" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A592" s="5">
         <v>591</v>
       </c>
-      <c r="B592" s="68">
+      <c r="B592" s="5">
         <v>10508</v>
       </c>
-      <c r="F592" s="68">
-        <v>1</v>
-      </c>
-      <c r="G592" s="68" t="s">
+      <c r="F592" s="5">
+        <v>0</v>
+      </c>
+      <c r="G592" s="5" t="s">
         <v>2156</v>
       </c>
-      <c r="I592" s="68" t="s">
+      <c r="I592" s="5" t="s">
         <v>2179</v>
       </c>
-      <c r="J592" s="68" t="s">
+      <c r="J592" s="5" t="s">
         <v>2161</v>
       </c>
-      <c r="L592" s="68">
+      <c r="L592" s="5">
         <v>-31</v>
       </c>
-      <c r="M592" s="68">
-        <v>0</v>
-      </c>
-      <c r="N592" s="68">
-        <v>0</v>
-      </c>
-      <c r="O592" s="68" t="s">
+      <c r="M592" s="5">
+        <v>0</v>
+      </c>
+      <c r="N592" s="5">
+        <v>0</v>
+      </c>
+      <c r="O592" s="5" t="s">
         <v>951</v>
       </c>
-      <c r="P592" s="68">
+      <c r="P592" s="5">
         <v>4800</v>
       </c>
-      <c r="Q592" s="68" t="s">
+      <c r="Q592" s="5" t="s">
         <v>2153</v>
       </c>
-      <c r="R592" s="69" t="s">
+      <c r="R592" s="66" t="s">
         <v>2162</v>
       </c>
-      <c r="W592" s="68" t="s">
+      <c r="W592" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="X592" s="68">
+      <c r="X592" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y592" s="68">
+      <c r="Y592" s="5">
         <v>1617667200</v>
       </c>
-      <c r="Z592" s="68">
+      <c r="Z592" s="5">
         <v>1618243199</v>
       </c>
-      <c r="AA592" s="68">
+      <c r="AA592" s="5">
         <v>77</v>
       </c>
-      <c r="AH592" s="68">
-        <v>1</v>
-      </c>
-      <c r="AI592" s="68">
-        <v>1</v>
-      </c>
-      <c r="AL592" s="68">
-        <v>1</v>
-      </c>
-      <c r="AM592" s="68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="593" spans="1:39" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A593" s="68">
+      <c r="AH592" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI592" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL592" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM592" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A593" s="5">
         <v>592</v>
       </c>
-      <c r="B593" s="68">
+      <c r="B593" s="5">
         <v>10509</v>
       </c>
-      <c r="F593" s="68">
-        <v>1</v>
-      </c>
-      <c r="G593" s="68" t="s">
+      <c r="F593" s="5">
+        <v>0</v>
+      </c>
+      <c r="G593" s="5" t="s">
         <v>2156</v>
       </c>
-      <c r="I593" s="68" t="s">
+      <c r="I593" s="5" t="s">
         <v>2163</v>
       </c>
-      <c r="J593" s="68" t="s">
+      <c r="J593" s="5" t="s">
         <v>2161</v>
       </c>
-      <c r="L593" s="68">
+      <c r="L593" s="5">
         <v>-31</v>
       </c>
-      <c r="M593" s="68">
-        <v>0</v>
-      </c>
-      <c r="N593" s="68">
-        <v>0</v>
-      </c>
-      <c r="O593" s="68" t="s">
+      <c r="M593" s="5">
+        <v>0</v>
+      </c>
+      <c r="N593" s="5">
+        <v>0</v>
+      </c>
+      <c r="O593" s="5" t="s">
         <v>951</v>
       </c>
-      <c r="P593" s="68">
+      <c r="P593" s="5">
         <v>4800</v>
       </c>
-      <c r="Q593" s="68" t="s">
+      <c r="Q593" s="5" t="s">
         <v>2153</v>
       </c>
-      <c r="R593" s="69" t="s">
+      <c r="R593" s="66" t="s">
         <v>2162</v>
       </c>
-      <c r="W593" s="68" t="s">
+      <c r="W593" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="X593" s="68">
+      <c r="X593" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y593" s="68">
+      <c r="Y593" s="5">
         <v>1617667200</v>
       </c>
-      <c r="Z593" s="68">
+      <c r="Z593" s="5">
         <v>1618243199</v>
       </c>
-      <c r="AA593" s="68">
+      <c r="AA593" s="5">
         <v>78</v>
       </c>
-      <c r="AH593" s="68">
-        <v>1</v>
-      </c>
-      <c r="AI593" s="68">
-        <v>1</v>
-      </c>
-      <c r="AL593" s="68">
-        <v>1</v>
-      </c>
-      <c r="AM593" s="68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="594" spans="1:39" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A594" s="68">
+      <c r="AH593" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI593" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL593" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM593" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A594" s="5">
         <v>593</v>
       </c>
-      <c r="B594" s="68">
+      <c r="B594" s="5">
         <v>10510</v>
       </c>
-      <c r="F594" s="68">
-        <v>1</v>
-      </c>
-      <c r="G594" s="68" t="s">
+      <c r="F594" s="5">
+        <v>0</v>
+      </c>
+      <c r="G594" s="5" t="s">
         <v>2156</v>
       </c>
-      <c r="I594" s="68" t="s">
+      <c r="I594" s="5" t="s">
         <v>2180</v>
       </c>
-      <c r="J594" s="68" t="s">
+      <c r="J594" s="5" t="s">
         <v>2164</v>
       </c>
-      <c r="L594" s="68">
+      <c r="L594" s="5">
         <v>-31</v>
       </c>
-      <c r="M594" s="68">
-        <v>0</v>
-      </c>
-      <c r="N594" s="68">
-        <v>0</v>
-      </c>
-      <c r="O594" s="68" t="s">
+      <c r="M594" s="5">
+        <v>0</v>
+      </c>
+      <c r="N594" s="5">
+        <v>0</v>
+      </c>
+      <c r="O594" s="5" t="s">
         <v>951</v>
       </c>
-      <c r="P594" s="68">
+      <c r="P594" s="5">
         <v>9800</v>
       </c>
-      <c r="Q594" s="68" t="s">
+      <c r="Q594" s="5" t="s">
         <v>2153</v>
       </c>
-      <c r="R594" s="69" t="s">
+      <c r="R594" s="66" t="s">
         <v>2165</v>
       </c>
-      <c r="W594" s="68" t="s">
+      <c r="W594" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="X594" s="68">
+      <c r="X594" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y594" s="68">
+      <c r="Y594" s="5">
         <v>1617667200</v>
       </c>
-      <c r="Z594" s="68">
+      <c r="Z594" s="5">
         <v>1618243199</v>
       </c>
-      <c r="AA594" s="68">
+      <c r="AA594" s="5">
         <v>78</v>
       </c>
-      <c r="AH594" s="68">
-        <v>1</v>
-      </c>
-      <c r="AI594" s="68">
-        <v>1</v>
-      </c>
-      <c r="AL594" s="68">
-        <v>1</v>
-      </c>
-      <c r="AM594" s="68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="595" spans="1:39" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A595" s="68">
+      <c r="AH594" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI594" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL594" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM594" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A595" s="5">
         <v>594</v>
       </c>
-      <c r="B595" s="68">
+      <c r="B595" s="5">
         <v>10511</v>
       </c>
-      <c r="F595" s="68">
-        <v>1</v>
-      </c>
-      <c r="G595" s="68" t="s">
+      <c r="F595" s="5">
+        <v>0</v>
+      </c>
+      <c r="G595" s="5" t="s">
         <v>2156</v>
       </c>
-      <c r="I595" s="68" t="s">
+      <c r="I595" s="5" t="s">
         <v>2163</v>
       </c>
-      <c r="J595" s="68" t="s">
+      <c r="J595" s="5" t="s">
         <v>2166</v>
       </c>
-      <c r="L595" s="68">
+      <c r="L595" s="5">
         <v>-31</v>
       </c>
-      <c r="M595" s="68">
-        <v>0</v>
-      </c>
-      <c r="N595" s="68">
-        <v>0</v>
-      </c>
-      <c r="O595" s="68" t="s">
+      <c r="M595" s="5">
+        <v>0</v>
+      </c>
+      <c r="N595" s="5">
+        <v>0</v>
+      </c>
+      <c r="O595" s="5" t="s">
         <v>951</v>
       </c>
-      <c r="P595" s="68">
+      <c r="P595" s="5">
         <v>19800</v>
       </c>
-      <c r="Q595" s="68" t="s">
+      <c r="Q595" s="5" t="s">
         <v>2153</v>
       </c>
-      <c r="R595" s="69" t="s">
+      <c r="R595" s="66" t="s">
         <v>2167</v>
       </c>
-      <c r="W595" s="68" t="s">
+      <c r="W595" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="X595" s="68">
+      <c r="X595" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y595" s="68">
+      <c r="Y595" s="5">
         <v>1617667200</v>
       </c>
-      <c r="Z595" s="68">
+      <c r="Z595" s="5">
         <v>1618243199</v>
       </c>
-      <c r="AA595" s="68">
+      <c r="AA595" s="5">
         <v>78</v>
       </c>
-      <c r="AH595" s="68">
-        <v>1</v>
-      </c>
-      <c r="AI595" s="68">
-        <v>1</v>
-      </c>
-      <c r="AL595" s="68">
-        <v>1</v>
-      </c>
-      <c r="AM595" s="68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="596" spans="1:39" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A596" s="68">
+      <c r="AH595" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI595" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL595" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM595" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A596" s="5">
         <v>595</v>
       </c>
-      <c r="B596" s="68">
+      <c r="B596" s="5">
         <v>10512</v>
       </c>
-      <c r="F596" s="68">
-        <v>1</v>
-      </c>
-      <c r="G596" s="68" t="s">
+      <c r="F596" s="5">
+        <v>0</v>
+      </c>
+      <c r="G596" s="5" t="s">
         <v>2156</v>
       </c>
-      <c r="I596" s="68" t="s">
+      <c r="I596" s="5" t="s">
         <v>1951</v>
       </c>
-      <c r="J596" s="68" t="s">
+      <c r="J596" s="5" t="s">
         <v>2164</v>
       </c>
-      <c r="L596" s="68">
+      <c r="L596" s="5">
         <v>-31</v>
       </c>
-      <c r="M596" s="68">
-        <v>0</v>
-      </c>
-      <c r="N596" s="68">
-        <v>0</v>
-      </c>
-      <c r="O596" s="68" t="s">
+      <c r="M596" s="5">
+        <v>0</v>
+      </c>
+      <c r="N596" s="5">
+        <v>0</v>
+      </c>
+      <c r="O596" s="5" t="s">
         <v>2181</v>
       </c>
-      <c r="P596" s="68">
+      <c r="P596" s="5">
         <v>9800</v>
       </c>
-      <c r="Q596" s="68" t="s">
+      <c r="Q596" s="5" t="s">
         <v>2153</v>
       </c>
-      <c r="R596" s="69" t="s">
+      <c r="R596" s="66" t="s">
         <v>2165</v>
       </c>
-      <c r="W596" s="68" t="s">
+      <c r="W596" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="X596" s="68">
+      <c r="X596" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y596" s="68">
+      <c r="Y596" s="5">
         <v>1617667200</v>
       </c>
-      <c r="Z596" s="68">
+      <c r="Z596" s="5">
         <v>1618243199</v>
       </c>
-      <c r="AA596" s="68">
+      <c r="AA596" s="5">
         <v>79</v>
       </c>
-      <c r="AH596" s="68">
-        <v>1</v>
-      </c>
-      <c r="AI596" s="68">
-        <v>1</v>
-      </c>
-      <c r="AL596" s="68">
-        <v>1</v>
-      </c>
-      <c r="AM596" s="68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="597" spans="1:39" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A597" s="68">
+      <c r="AH596" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI596" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL596" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM596" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A597" s="5">
         <v>596</v>
       </c>
-      <c r="B597" s="68">
+      <c r="B597" s="5">
         <v>10513</v>
       </c>
-      <c r="F597" s="68">
-        <v>1</v>
-      </c>
-      <c r="G597" s="68" t="s">
+      <c r="F597" s="5">
+        <v>0</v>
+      </c>
+      <c r="G597" s="5" t="s">
         <v>2156</v>
       </c>
-      <c r="I597" s="68" t="s">
+      <c r="I597" s="5" t="s">
         <v>1951</v>
       </c>
-      <c r="J597" s="68" t="s">
+      <c r="J597" s="5" t="s">
         <v>2182</v>
       </c>
-      <c r="L597" s="68">
+      <c r="L597" s="5">
         <v>-31</v>
       </c>
-      <c r="M597" s="68">
-        <v>0</v>
-      </c>
-      <c r="N597" s="68">
-        <v>0</v>
-      </c>
-      <c r="O597" s="68" t="s">
+      <c r="M597" s="5">
+        <v>0</v>
+      </c>
+      <c r="N597" s="5">
+        <v>0</v>
+      </c>
+      <c r="O597" s="5" t="s">
         <v>951</v>
       </c>
-      <c r="P597" s="68">
+      <c r="P597" s="5">
         <v>19800</v>
       </c>
-      <c r="Q597" s="68" t="s">
+      <c r="Q597" s="5" t="s">
         <v>2153</v>
       </c>
-      <c r="R597" s="69" t="s">
+      <c r="R597" s="66" t="s">
         <v>2167</v>
       </c>
-      <c r="W597" s="68" t="s">
+      <c r="W597" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="X597" s="68">
+      <c r="X597" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y597" s="68">
+      <c r="Y597" s="5">
         <v>1617667200</v>
       </c>
-      <c r="Z597" s="68">
+      <c r="Z597" s="5">
         <v>1618243199</v>
       </c>
-      <c r="AA597" s="68">
+      <c r="AA597" s="5">
         <v>79</v>
       </c>
-      <c r="AH597" s="68">
-        <v>1</v>
-      </c>
-      <c r="AI597" s="68">
-        <v>1</v>
-      </c>
-      <c r="AL597" s="68">
-        <v>1</v>
-      </c>
-      <c r="AM597" s="68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="598" spans="1:39" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A598" s="68">
+      <c r="AH597" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI597" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL597" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM597" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A598" s="5">
         <v>597</v>
       </c>
-      <c r="B598" s="68">
+      <c r="B598" s="5">
         <v>10514</v>
       </c>
-      <c r="F598" s="68">
-        <v>1</v>
-      </c>
-      <c r="G598" s="68" t="s">
+      <c r="F598" s="5">
+        <v>0</v>
+      </c>
+      <c r="G598" s="5" t="s">
         <v>2156</v>
       </c>
-      <c r="I598" s="68" t="s">
+      <c r="I598" s="5" t="s">
         <v>2183</v>
       </c>
-      <c r="J598" s="68" t="s">
+      <c r="J598" s="5" t="s">
         <v>2168</v>
       </c>
-      <c r="L598" s="68">
+      <c r="L598" s="5">
         <v>-31</v>
       </c>
-      <c r="M598" s="68">
-        <v>0</v>
-      </c>
-      <c r="N598" s="68">
-        <v>0</v>
-      </c>
-      <c r="O598" s="68" t="s">
+      <c r="M598" s="5">
+        <v>0</v>
+      </c>
+      <c r="N598" s="5">
+        <v>0</v>
+      </c>
+      <c r="O598" s="5" t="s">
         <v>951</v>
       </c>
-      <c r="P598" s="68">
+      <c r="P598" s="5">
         <v>49800</v>
       </c>
-      <c r="Q598" s="68" t="s">
+      <c r="Q598" s="5" t="s">
         <v>2153</v>
       </c>
-      <c r="R598" s="69" t="s">
+      <c r="R598" s="66" t="s">
         <v>2169</v>
       </c>
-      <c r="W598" s="68" t="s">
+      <c r="W598" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="X598" s="68">
+      <c r="X598" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y598" s="68">
+      <c r="Y598" s="5">
         <v>1617667200</v>
       </c>
-      <c r="Z598" s="68">
+      <c r="Z598" s="5">
         <v>1618243199</v>
       </c>
-      <c r="AA598" s="68">
+      <c r="AA598" s="5">
         <v>79</v>
       </c>
-      <c r="AH598" s="68">
-        <v>1</v>
-      </c>
-      <c r="AI598" s="68">
-        <v>1</v>
-      </c>
-      <c r="AL598" s="68">
-        <v>1</v>
-      </c>
-      <c r="AM598" s="68">
+      <c r="AH598" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI598" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL598" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM598" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599" spans="1:39" s="68" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A599" s="68">
+        <v>598</v>
+      </c>
+      <c r="B599" s="68">
+        <v>10515</v>
+      </c>
+      <c r="F599" s="68">
+        <v>1</v>
+      </c>
+      <c r="G599" s="68" t="s">
+        <v>2188</v>
+      </c>
+      <c r="I599" s="68" t="s">
+        <v>2170</v>
+      </c>
+      <c r="J599" s="68" t="s">
+        <v>2189</v>
+      </c>
+      <c r="L599" s="68">
+        <v>-31</v>
+      </c>
+      <c r="M599" s="68">
+        <v>0</v>
+      </c>
+      <c r="N599" s="68">
+        <v>0</v>
+      </c>
+      <c r="O599" s="68" t="s">
+        <v>1190</v>
+      </c>
+      <c r="P599" s="68">
+        <v>600</v>
+      </c>
+      <c r="Q599" s="68" t="s">
+        <v>277</v>
+      </c>
+      <c r="R599" s="69" t="s">
+        <v>2190</v>
+      </c>
+      <c r="W599" s="68" t="s">
+        <v>1192</v>
+      </c>
+      <c r="X599" s="68">
+        <v>99999999</v>
+      </c>
+      <c r="Y599" s="68">
+        <v>1618272000</v>
+      </c>
+      <c r="Z599" s="68">
+        <v>1618847999</v>
+      </c>
+      <c r="AA599" s="68">
+        <v>80</v>
+      </c>
+      <c r="AH599" s="68">
+        <v>1</v>
+      </c>
+      <c r="AI599" s="68">
+        <v>1</v>
+      </c>
+      <c r="AL599" s="68">
+        <v>1</v>
+      </c>
+      <c r="AM599" s="68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600" spans="1:39" s="68" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A600" s="68">
+        <v>599</v>
+      </c>
+      <c r="B600" s="68">
+        <v>10516</v>
+      </c>
+      <c r="F600" s="68">
+        <v>1</v>
+      </c>
+      <c r="G600" s="68" t="s">
+        <v>2188</v>
+      </c>
+      <c r="I600" s="68" t="s">
+        <v>2170</v>
+      </c>
+      <c r="J600" s="68" t="s">
+        <v>2191</v>
+      </c>
+      <c r="L600" s="68">
+        <v>-31</v>
+      </c>
+      <c r="M600" s="68">
+        <v>0</v>
+      </c>
+      <c r="N600" s="68">
+        <v>0</v>
+      </c>
+      <c r="O600" s="68" t="s">
+        <v>1190</v>
+      </c>
+      <c r="P600" s="68">
+        <v>1000</v>
+      </c>
+      <c r="Q600" s="68" t="s">
+        <v>277</v>
+      </c>
+      <c r="R600" s="69" t="s">
+        <v>2192</v>
+      </c>
+      <c r="W600" s="68" t="s">
+        <v>1192</v>
+      </c>
+      <c r="X600" s="68">
+        <v>99999999</v>
+      </c>
+      <c r="Y600" s="68">
+        <v>1618272000</v>
+      </c>
+      <c r="Z600" s="68">
+        <v>1618847999</v>
+      </c>
+      <c r="AA600" s="68">
+        <v>80</v>
+      </c>
+      <c r="AH600" s="68">
+        <v>1</v>
+      </c>
+      <c r="AI600" s="68">
+        <v>1</v>
+      </c>
+      <c r="AL600" s="68">
+        <v>1</v>
+      </c>
+      <c r="AM600" s="68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601" spans="1:39" s="68" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A601" s="68">
+        <v>600</v>
+      </c>
+      <c r="B601" s="68">
+        <v>10517</v>
+      </c>
+      <c r="F601" s="68">
+        <v>1</v>
+      </c>
+      <c r="G601" s="68" t="s">
+        <v>2188</v>
+      </c>
+      <c r="I601" s="68" t="s">
+        <v>2170</v>
+      </c>
+      <c r="J601" s="68" t="s">
+        <v>2193</v>
+      </c>
+      <c r="L601" s="68">
+        <v>-31</v>
+      </c>
+      <c r="M601" s="68">
+        <v>0</v>
+      </c>
+      <c r="N601" s="68">
+        <v>0</v>
+      </c>
+      <c r="O601" s="68" t="s">
+        <v>1190</v>
+      </c>
+      <c r="P601" s="68">
+        <v>1800</v>
+      </c>
+      <c r="Q601" s="68" t="s">
+        <v>277</v>
+      </c>
+      <c r="R601" s="69" t="s">
+        <v>2194</v>
+      </c>
+      <c r="W601" s="68" t="s">
+        <v>543</v>
+      </c>
+      <c r="X601" s="68">
+        <v>99999999</v>
+      </c>
+      <c r="Y601" s="68">
+        <v>1618272000</v>
+      </c>
+      <c r="Z601" s="68">
+        <v>1618847999</v>
+      </c>
+      <c r="AA601" s="68">
+        <v>80</v>
+      </c>
+      <c r="AH601" s="68">
+        <v>1</v>
+      </c>
+      <c r="AI601" s="68">
+        <v>1</v>
+      </c>
+      <c r="AL601" s="68">
+        <v>1</v>
+      </c>
+      <c r="AM601" s="68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602" spans="1:39" s="68" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A602" s="68">
+        <v>601</v>
+      </c>
+      <c r="B602" s="68">
+        <v>10518</v>
+      </c>
+      <c r="F602" s="68">
+        <v>1</v>
+      </c>
+      <c r="G602" s="68" t="s">
+        <v>2188</v>
+      </c>
+      <c r="I602" s="68" t="s">
+        <v>2157</v>
+      </c>
+      <c r="J602" s="68" t="s">
+        <v>2195</v>
+      </c>
+      <c r="L602" s="68">
+        <v>-31</v>
+      </c>
+      <c r="M602" s="68">
+        <v>0</v>
+      </c>
+      <c r="N602" s="68">
+        <v>0</v>
+      </c>
+      <c r="O602" s="68" t="s">
+        <v>1190</v>
+      </c>
+      <c r="P602" s="68">
+        <v>1800</v>
+      </c>
+      <c r="Q602" s="68" t="s">
+        <v>277</v>
+      </c>
+      <c r="R602" s="69" t="s">
+        <v>2158</v>
+      </c>
+      <c r="W602" s="68" t="s">
+        <v>543</v>
+      </c>
+      <c r="X602" s="68">
+        <v>99999999</v>
+      </c>
+      <c r="Y602" s="68">
+        <v>1618272000</v>
+      </c>
+      <c r="Z602" s="68">
+        <v>1618847999</v>
+      </c>
+      <c r="AA602" s="68">
+        <v>81</v>
+      </c>
+      <c r="AH602" s="68">
+        <v>1</v>
+      </c>
+      <c r="AI602" s="68">
+        <v>1</v>
+      </c>
+      <c r="AL602" s="68">
+        <v>1</v>
+      </c>
+      <c r="AM602" s="68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603" spans="1:39" s="68" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A603" s="68">
+        <v>602</v>
+      </c>
+      <c r="B603" s="68">
+        <v>10519</v>
+      </c>
+      <c r="F603" s="68">
+        <v>1</v>
+      </c>
+      <c r="G603" s="68" t="s">
+        <v>2188</v>
+      </c>
+      <c r="I603" s="68" t="s">
+        <v>2157</v>
+      </c>
+      <c r="J603" s="68" t="s">
+        <v>2196</v>
+      </c>
+      <c r="L603" s="68">
+        <v>-31</v>
+      </c>
+      <c r="M603" s="68">
+        <v>0</v>
+      </c>
+      <c r="N603" s="68">
+        <v>0</v>
+      </c>
+      <c r="O603" s="68" t="s">
+        <v>1190</v>
+      </c>
+      <c r="P603" s="68">
+        <v>3000</v>
+      </c>
+      <c r="Q603" s="68" t="s">
+        <v>277</v>
+      </c>
+      <c r="R603" s="69" t="s">
+        <v>2160</v>
+      </c>
+      <c r="W603" s="68" t="s">
+        <v>543</v>
+      </c>
+      <c r="X603" s="68">
+        <v>99999999</v>
+      </c>
+      <c r="Y603" s="68">
+        <v>1618272000</v>
+      </c>
+      <c r="Z603" s="68">
+        <v>1618847999</v>
+      </c>
+      <c r="AA603" s="68">
+        <v>81</v>
+      </c>
+      <c r="AH603" s="68">
+        <v>1</v>
+      </c>
+      <c r="AI603" s="68">
+        <v>1</v>
+      </c>
+      <c r="AL603" s="68">
+        <v>1</v>
+      </c>
+      <c r="AM603" s="68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604" spans="1:39" s="68" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A604" s="68">
+        <v>603</v>
+      </c>
+      <c r="B604" s="68">
+        <v>10520</v>
+      </c>
+      <c r="F604" s="68">
+        <v>1</v>
+      </c>
+      <c r="G604" s="68" t="s">
+        <v>2188</v>
+      </c>
+      <c r="I604" s="68" t="s">
+        <v>2157</v>
+      </c>
+      <c r="J604" s="68" t="s">
+        <v>2197</v>
+      </c>
+      <c r="L604" s="68">
+        <v>-31</v>
+      </c>
+      <c r="M604" s="68">
+        <v>0</v>
+      </c>
+      <c r="N604" s="68">
+        <v>0</v>
+      </c>
+      <c r="O604" s="68" t="s">
+        <v>1190</v>
+      </c>
+      <c r="P604" s="68">
+        <v>4800</v>
+      </c>
+      <c r="Q604" s="68" t="s">
+        <v>277</v>
+      </c>
+      <c r="R604" s="69" t="s">
+        <v>2201</v>
+      </c>
+      <c r="W604" s="68" t="s">
+        <v>543</v>
+      </c>
+      <c r="X604" s="68">
+        <v>99999999</v>
+      </c>
+      <c r="Y604" s="68">
+        <v>1618272000</v>
+      </c>
+      <c r="Z604" s="68">
+        <v>1618847999</v>
+      </c>
+      <c r="AA604" s="68">
+        <v>81</v>
+      </c>
+      <c r="AH604" s="68">
+        <v>1</v>
+      </c>
+      <c r="AI604" s="68">
+        <v>1</v>
+      </c>
+      <c r="AL604" s="68">
+        <v>1</v>
+      </c>
+      <c r="AM604" s="68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605" spans="1:39" s="68" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A605" s="68">
+        <v>604</v>
+      </c>
+      <c r="B605" s="68">
+        <v>10521</v>
+      </c>
+      <c r="F605" s="68">
+        <v>1</v>
+      </c>
+      <c r="G605" s="68" t="s">
+        <v>2188</v>
+      </c>
+      <c r="I605" s="68" t="s">
+        <v>2163</v>
+      </c>
+      <c r="J605" s="68" t="s">
+        <v>2197</v>
+      </c>
+      <c r="L605" s="68">
+        <v>-31</v>
+      </c>
+      <c r="M605" s="68">
+        <v>0</v>
+      </c>
+      <c r="N605" s="68">
+        <v>0</v>
+      </c>
+      <c r="O605" s="68" t="s">
+        <v>1190</v>
+      </c>
+      <c r="P605" s="68">
+        <v>4800</v>
+      </c>
+      <c r="Q605" s="68" t="s">
+        <v>277</v>
+      </c>
+      <c r="R605" s="69" t="s">
+        <v>2162</v>
+      </c>
+      <c r="W605" s="68" t="s">
+        <v>543</v>
+      </c>
+      <c r="X605" s="68">
+        <v>99999999</v>
+      </c>
+      <c r="Y605" s="68">
+        <v>1618272000</v>
+      </c>
+      <c r="Z605" s="68">
+        <v>1618847999</v>
+      </c>
+      <c r="AA605" s="68">
+        <v>82</v>
+      </c>
+      <c r="AH605" s="68">
+        <v>1</v>
+      </c>
+      <c r="AI605" s="68">
+        <v>1</v>
+      </c>
+      <c r="AL605" s="68">
+        <v>1</v>
+      </c>
+      <c r="AM605" s="68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606" spans="1:39" s="68" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A606" s="68">
+        <v>605</v>
+      </c>
+      <c r="B606" s="68">
+        <v>10522</v>
+      </c>
+      <c r="F606" s="68">
+        <v>1</v>
+      </c>
+      <c r="G606" s="68" t="s">
+        <v>2188</v>
+      </c>
+      <c r="I606" s="68" t="s">
+        <v>2163</v>
+      </c>
+      <c r="J606" s="68" t="s">
+        <v>2198</v>
+      </c>
+      <c r="L606" s="68">
+        <v>-31</v>
+      </c>
+      <c r="M606" s="68">
+        <v>0</v>
+      </c>
+      <c r="N606" s="68">
+        <v>0</v>
+      </c>
+      <c r="O606" s="68" t="s">
+        <v>1190</v>
+      </c>
+      <c r="P606" s="68">
+        <v>9800</v>
+      </c>
+      <c r="Q606" s="68" t="s">
+        <v>277</v>
+      </c>
+      <c r="R606" s="69" t="s">
+        <v>2165</v>
+      </c>
+      <c r="W606" s="68" t="s">
+        <v>543</v>
+      </c>
+      <c r="X606" s="68">
+        <v>99999999</v>
+      </c>
+      <c r="Y606" s="68">
+        <v>1618272000</v>
+      </c>
+      <c r="Z606" s="68">
+        <v>1618847999</v>
+      </c>
+      <c r="AA606" s="68">
+        <v>82</v>
+      </c>
+      <c r="AH606" s="68">
+        <v>1</v>
+      </c>
+      <c r="AI606" s="68">
+        <v>1</v>
+      </c>
+      <c r="AL606" s="68">
+        <v>1</v>
+      </c>
+      <c r="AM606" s="68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607" spans="1:39" s="68" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A607" s="68">
+        <v>606</v>
+      </c>
+      <c r="B607" s="68">
+        <v>10523</v>
+      </c>
+      <c r="F607" s="68">
+        <v>1</v>
+      </c>
+      <c r="G607" s="68" t="s">
+        <v>2188</v>
+      </c>
+      <c r="I607" s="68" t="s">
+        <v>2202</v>
+      </c>
+      <c r="J607" s="68" t="s">
+        <v>2199</v>
+      </c>
+      <c r="L607" s="68">
+        <v>-31</v>
+      </c>
+      <c r="M607" s="68">
+        <v>0</v>
+      </c>
+      <c r="N607" s="68">
+        <v>0</v>
+      </c>
+      <c r="O607" s="68" t="s">
+        <v>1190</v>
+      </c>
+      <c r="P607" s="68">
+        <v>19800</v>
+      </c>
+      <c r="Q607" s="68" t="s">
+        <v>277</v>
+      </c>
+      <c r="R607" s="69" t="s">
+        <v>2167</v>
+      </c>
+      <c r="W607" s="68" t="s">
+        <v>543</v>
+      </c>
+      <c r="X607" s="68">
+        <v>99999999</v>
+      </c>
+      <c r="Y607" s="68">
+        <v>1618272000</v>
+      </c>
+      <c r="Z607" s="68">
+        <v>1618847999</v>
+      </c>
+      <c r="AA607" s="68">
+        <v>82</v>
+      </c>
+      <c r="AH607" s="68">
+        <v>1</v>
+      </c>
+      <c r="AI607" s="68">
+        <v>1</v>
+      </c>
+      <c r="AL607" s="68">
+        <v>1</v>
+      </c>
+      <c r="AM607" s="68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608" spans="1:39" s="68" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A608" s="68">
+        <v>607</v>
+      </c>
+      <c r="B608" s="68">
+        <v>10524</v>
+      </c>
+      <c r="F608" s="68">
+        <v>1</v>
+      </c>
+      <c r="G608" s="68" t="s">
+        <v>2188</v>
+      </c>
+      <c r="I608" s="68" t="s">
+        <v>1951</v>
+      </c>
+      <c r="J608" s="68" t="s">
+        <v>2198</v>
+      </c>
+      <c r="L608" s="68">
+        <v>-31</v>
+      </c>
+      <c r="M608" s="68">
+        <v>0</v>
+      </c>
+      <c r="N608" s="68">
+        <v>0</v>
+      </c>
+      <c r="O608" s="68" t="s">
+        <v>1190</v>
+      </c>
+      <c r="P608" s="68">
+        <v>9800</v>
+      </c>
+      <c r="Q608" s="68" t="s">
+        <v>277</v>
+      </c>
+      <c r="R608" s="69" t="s">
+        <v>2165</v>
+      </c>
+      <c r="W608" s="68" t="s">
+        <v>543</v>
+      </c>
+      <c r="X608" s="68">
+        <v>99999999</v>
+      </c>
+      <c r="Y608" s="68">
+        <v>1618272000</v>
+      </c>
+      <c r="Z608" s="68">
+        <v>1618847999</v>
+      </c>
+      <c r="AA608" s="68">
+        <v>83</v>
+      </c>
+      <c r="AH608" s="68">
+        <v>1</v>
+      </c>
+      <c r="AI608" s="68">
+        <v>1</v>
+      </c>
+      <c r="AL608" s="68">
+        <v>1</v>
+      </c>
+      <c r="AM608" s="68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609" spans="1:39" s="68" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A609" s="68">
+        <v>608</v>
+      </c>
+      <c r="B609" s="68">
+        <v>10525</v>
+      </c>
+      <c r="F609" s="68">
+        <v>1</v>
+      </c>
+      <c r="G609" s="68" t="s">
+        <v>2188</v>
+      </c>
+      <c r="I609" s="68" t="s">
+        <v>1951</v>
+      </c>
+      <c r="J609" s="68" t="s">
+        <v>2199</v>
+      </c>
+      <c r="L609" s="68">
+        <v>-31</v>
+      </c>
+      <c r="M609" s="68">
+        <v>0</v>
+      </c>
+      <c r="N609" s="68">
+        <v>0</v>
+      </c>
+      <c r="O609" s="68" t="s">
+        <v>1190</v>
+      </c>
+      <c r="P609" s="68">
+        <v>19800</v>
+      </c>
+      <c r="Q609" s="68" t="s">
+        <v>277</v>
+      </c>
+      <c r="R609" s="69" t="s">
+        <v>2167</v>
+      </c>
+      <c r="W609" s="68" t="s">
+        <v>543</v>
+      </c>
+      <c r="X609" s="68">
+        <v>99999999</v>
+      </c>
+      <c r="Y609" s="68">
+        <v>1618272000</v>
+      </c>
+      <c r="Z609" s="68">
+        <v>1618847999</v>
+      </c>
+      <c r="AA609" s="68">
+        <v>83</v>
+      </c>
+      <c r="AH609" s="68">
+        <v>1</v>
+      </c>
+      <c r="AI609" s="68">
+        <v>1</v>
+      </c>
+      <c r="AL609" s="68">
+        <v>1</v>
+      </c>
+      <c r="AM609" s="68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610" spans="1:39" s="68" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A610" s="68">
+        <v>609</v>
+      </c>
+      <c r="B610" s="68">
+        <v>10526</v>
+      </c>
+      <c r="F610" s="68">
+        <v>1</v>
+      </c>
+      <c r="G610" s="68" t="s">
+        <v>2188</v>
+      </c>
+      <c r="I610" s="68" t="s">
+        <v>2203</v>
+      </c>
+      <c r="J610" s="68" t="s">
+        <v>2200</v>
+      </c>
+      <c r="L610" s="68">
+        <v>-31</v>
+      </c>
+      <c r="M610" s="68">
+        <v>0</v>
+      </c>
+      <c r="N610" s="68">
+        <v>0</v>
+      </c>
+      <c r="O610" s="68" t="s">
+        <v>1190</v>
+      </c>
+      <c r="P610" s="68">
+        <v>49800</v>
+      </c>
+      <c r="Q610" s="68" t="s">
+        <v>277</v>
+      </c>
+      <c r="R610" s="69" t="s">
+        <v>2169</v>
+      </c>
+      <c r="W610" s="68" t="s">
+        <v>543</v>
+      </c>
+      <c r="X610" s="68">
+        <v>99999999</v>
+      </c>
+      <c r="Y610" s="68">
+        <v>1618272000</v>
+      </c>
+      <c r="Z610" s="68">
+        <v>1618847999</v>
+      </c>
+      <c r="AA610" s="68">
+        <v>83</v>
+      </c>
+      <c r="AH610" s="68">
+        <v>1</v>
+      </c>
+      <c r="AI610" s="68">
+        <v>1</v>
+      </c>
+      <c r="AL610" s="68">
+        <v>1</v>
+      </c>
+      <c r="AM610" s="68">
         <v>1</v>
       </c>
     </row>
@@ -50325,10 +51220,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77:D80"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81:D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -51473,6 +52368,62 @@
         <v>1</v>
       </c>
       <c r="D80" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="12">
+        <v>80</v>
+      </c>
+      <c r="B81" s="70" t="s">
+        <v>2204</v>
+      </c>
+      <c r="C81" s="12">
+        <v>1</v>
+      </c>
+      <c r="D81" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="12">
+        <v>81</v>
+      </c>
+      <c r="B82" s="70" t="s">
+        <v>2205</v>
+      </c>
+      <c r="C82" s="12">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="12">
+        <v>82</v>
+      </c>
+      <c r="B83" s="70" t="s">
+        <v>2206</v>
+      </c>
+      <c r="C83" s="12">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="12">
+        <v>83</v>
+      </c>
+      <c r="B84" s="70" t="s">
+        <v>2207</v>
+      </c>
+      <c r="C84" s="12">
+        <v>1</v>
+      </c>
+      <c r="D84">
         <v>0</v>
       </c>
     </row>

--- a/config_debug/shoping_config_cjj.xlsx
+++ b/config_debug/shoping_config_cjj.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="533" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4944" uniqueCount="1781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4945" uniqueCount="1782">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6074,6 +6074,9 @@
     <t>{type="permission_class",class_value = "integral_gift_buy_v8" }</t>
   </si>
   <si>
+    <t>{type="permission_class",class_value = "mslb_cps_nobuy" }</t>
+  </si>
+  <si>
     <t>line_id|行号，购买项的唯一编号，和客户端 ui 配置对应</t>
   </si>
   <si>
@@ -6540,10 +6543,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -6579,14 +6582,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6599,24 +6610,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6630,21 +6625,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -6659,19 +6647,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6683,24 +6670,31 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6714,10 +6708,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6807,7 +6810,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6825,108 +6948,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -6939,25 +6960,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6997,6 +7000,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -7008,30 +7022,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7056,10 +7046,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -7076,6 +7064,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7102,10 +7105,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7114,133 +7117,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -9952,12 +9955,12 @@
   <sheetPr/>
   <dimension ref="A1:AN618"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="W589" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X622" sqref="X622"/>
+      <selection pane="bottomRight" activeCell="AA617" sqref="AA617:AA618"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -49378,6 +49381,9 @@
       <c r="Z617" s="29">
         <v>1620662399</v>
       </c>
+      <c r="AA617" s="29">
+        <v>84</v>
+      </c>
       <c r="AH617" s="29">
         <v>1</v>
       </c>
@@ -49439,6 +49445,9 @@
       </c>
       <c r="Z618" s="29">
         <v>1620662399</v>
+      </c>
+      <c r="AA618" s="29">
+        <v>84</v>
       </c>
       <c r="AH618" s="29">
         <v>1</v>
@@ -49464,10 +49473,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81:D84"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -50668,6 +50677,20 @@
         <v>1</v>
       </c>
       <c r="D84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="23" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
         <v>0</v>
       </c>
     </row>
@@ -50716,7 +50739,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="90" customHeight="1" spans="1:30">
       <c r="A1" s="1" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
@@ -50731,19 +50754,19 @@
         <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>32</v>
@@ -50758,7 +50781,7 @@
         <v>39</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>40</v>
@@ -50803,7 +50826,7 @@
         <v>53</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="2" s="12" customFormat="1" spans="1:27">
@@ -50826,7 +50849,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="H2" s="12">
         <v>600</v>
@@ -50856,19 +50879,19 @@
         <v>131</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="T2" s="17" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="U2" s="12" t="s">
         <v>62</v>
       </c>
       <c r="V2" s="17" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="W2" s="12" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="Z2" s="12">
         <v>1</v>
@@ -50897,7 +50920,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="H3" s="12">
         <v>1500</v>
@@ -50924,22 +50947,22 @@
         <v>4</v>
       </c>
       <c r="Q3" s="17" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="T3" s="17" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="U3" s="12" t="s">
         <v>67</v>
       </c>
       <c r="V3" s="17" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="W3" s="12" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="Z3" s="12">
         <v>1</v>
@@ -50968,7 +50991,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="H4" s="12">
         <v>3000</v>
@@ -50995,22 +51018,22 @@
         <v>5</v>
       </c>
       <c r="Q4" s="17" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="R4" s="17" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="T4" s="17" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="U4" s="12" t="s">
         <v>71</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="W4" s="12" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="Z4" s="12">
         <v>1</v>
@@ -51039,7 +51062,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="H5" s="12">
         <v>5000</v>
@@ -51066,22 +51089,22 @@
         <v>6</v>
       </c>
       <c r="Q5" s="17" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="T5" s="17" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="U5" s="12" t="s">
         <v>75</v>
       </c>
       <c r="V5" s="17" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="W5" s="12" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="Z5" s="12">
         <v>1</v>
@@ -51110,7 +51133,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="H6" s="12">
         <v>9800</v>
@@ -51137,22 +51160,22 @@
         <v>7</v>
       </c>
       <c r="Q6" s="17" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="R6" s="17" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="T6" s="17" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="U6" s="12" t="s">
         <v>79</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="W6" s="12" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="Z6" s="12">
         <v>1</v>
@@ -51181,7 +51204,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="H7" s="12">
         <v>49800</v>
@@ -51208,22 +51231,22 @@
         <v>9</v>
       </c>
       <c r="Q7" s="17" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="R7" s="17" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="T7" s="17" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="U7" s="12" t="s">
         <v>83</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="W7" s="12" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="Z7" s="12">
         <v>1</v>
@@ -51247,7 +51270,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="H8" s="12">
         <v>100</v>
@@ -51274,22 +51297,22 @@
         <v>0</v>
       </c>
       <c r="Q8" s="17" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="R8" s="17" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="T8" s="17" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="U8" s="12" t="s">
         <v>62</v>
       </c>
       <c r="V8" s="17" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="W8" s="12" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="Z8" s="12">
         <v>1</v>
@@ -51313,7 +51336,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="H9" s="12">
         <v>5000</v>
@@ -51340,19 +51363,19 @@
         <v>2</v>
       </c>
       <c r="Q9" s="17" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="R9" s="17" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="U9" s="12">
         <v>5000</v>
       </c>
       <c r="V9" s="12" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="W9" s="12" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="Z9" s="12">
         <v>1</v>
@@ -51361,7 +51384,7 @@
         <v>1</v>
       </c>
       <c r="AD9" s="17" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="10" s="12" customFormat="1" spans="1:30">
@@ -51379,7 +51402,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="H10" s="12">
         <v>1000</v>
@@ -51409,16 +51432,16 @@
         <v>133</v>
       </c>
       <c r="R10" s="17" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="U10" s="12">
         <v>1000</v>
       </c>
       <c r="V10" s="12" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="W10" s="12" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="Z10" s="12">
         <v>1</v>
@@ -51427,7 +51450,7 @@
         <v>1</v>
       </c>
       <c r="AD10" s="17" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="11" s="12" customFormat="1" spans="1:27">
@@ -51445,7 +51468,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="H11" s="12">
         <v>1500</v>
@@ -51472,22 +51495,22 @@
         <v>0</v>
       </c>
       <c r="Q11" s="17" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="R11" s="17" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="T11" s="17" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="U11" s="17" t="s">
         <v>67</v>
       </c>
       <c r="V11" s="12" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="W11" s="12" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="Z11" s="12">
         <v>1</v>
@@ -51516,7 +51539,7 @@
         <v>107</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="H12" s="12">
         <v>100000</v>
@@ -51543,22 +51566,22 @@
         <v>9</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="R12" s="17" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="T12" s="17" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="U12" s="12" t="s">
         <v>87</v>
       </c>
       <c r="V12" s="12" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="W12" s="12" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="Z12" s="12">
         <v>1</v>
@@ -51587,7 +51610,7 @@
         <v>108</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="H13" s="12">
         <v>99800</v>
@@ -51614,22 +51637,22 @@
         <v>10</v>
       </c>
       <c r="Q13" s="17" t="s">
+        <v>1710</v>
+      </c>
+      <c r="R13" s="17" t="s">
+        <v>1711</v>
+      </c>
+      <c r="T13" s="17" t="s">
+        <v>1683</v>
+      </c>
+      <c r="U13" s="12" t="s">
+        <v>1712</v>
+      </c>
+      <c r="V13" s="12" t="s">
         <v>1709</v>
       </c>
-      <c r="R13" s="17" t="s">
-        <v>1710</v>
-      </c>
-      <c r="T13" s="17" t="s">
-        <v>1682</v>
-      </c>
-      <c r="U13" s="12" t="s">
-        <v>1711</v>
-      </c>
-      <c r="V13" s="12" t="s">
-        <v>1708</v>
-      </c>
       <c r="W13" s="12" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="Z13" s="12">
         <v>1</v>
@@ -51658,7 +51681,7 @@
         <v>110</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="H14" s="12">
         <v>249800</v>
@@ -51685,22 +51708,22 @@
         <v>11</v>
       </c>
       <c r="Q14" s="17" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="R14" s="17" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="T14" s="17" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="W14" s="12" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="Z14" s="12">
         <v>1</v>
@@ -51724,7 +51747,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="H15" s="12">
         <v>100</v>
@@ -51754,20 +51777,20 @@
         <v>0</v>
       </c>
       <c r="Q15" s="17" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="R15" s="17" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="T15" s="17"/>
       <c r="U15" s="12">
         <v>100</v>
       </c>
       <c r="V15" s="17" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="W15" s="12" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="Z15" s="12">
         <v>1</v>
@@ -51776,7 +51799,7 @@
         <v>1</v>
       </c>
       <c r="AD15" s="17" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="16" s="12" customFormat="1" spans="1:27">
@@ -51799,7 +51822,7 @@
         <v>101</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="H16" s="12">
         <v>400</v>
@@ -51826,22 +51849,22 @@
         <v>3</v>
       </c>
       <c r="Q16" s="17" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="R16" s="17" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="T16" s="17" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="U16" s="12" t="s">
         <v>101</v>
       </c>
       <c r="V16" s="17" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="W16" s="12" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="Z16" s="12">
         <v>1</v>
@@ -51865,7 +51888,7 @@
         <v>102</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="H17" s="12">
         <v>2000</v>
@@ -51892,22 +51915,22 @@
         <v>4</v>
       </c>
       <c r="Q17" s="17" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="R17" s="17" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="T17" s="17" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="U17" s="12" t="s">
         <v>105</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="W17" s="12" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="Z17" s="12">
         <v>1</v>
@@ -51931,7 +51954,7 @@
         <v>103</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="H18" s="12">
         <v>6700</v>
@@ -51958,22 +51981,22 @@
         <v>5</v>
       </c>
       <c r="Q18" s="17" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="R18" s="17" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="T18" s="17" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="U18" s="12" t="s">
         <v>109</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="W18" s="12" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="Z18" s="12">
         <v>1</v>
@@ -51997,7 +52020,7 @@
         <v>104</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="H19" s="12">
         <v>13200</v>
@@ -52024,22 +52047,22 @@
         <v>6</v>
       </c>
       <c r="Q19" s="17" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="R19" s="17" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="T19" s="17" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="U19" s="12" t="s">
         <v>114</v>
       </c>
       <c r="V19" s="17" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="W19" s="12" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="Z19" s="12">
         <v>1</v>
@@ -52063,7 +52086,7 @@
         <v>105</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="H20" s="12">
         <v>20400</v>
@@ -52090,22 +52113,22 @@
         <v>7</v>
       </c>
       <c r="Q20" s="17" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="R20" s="17" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="T20" s="17" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="U20" s="12" t="s">
         <v>120</v>
       </c>
       <c r="V20" s="12" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="W20" s="12" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="Z20" s="12">
         <v>1</v>
@@ -52129,7 +52152,7 @@
         <v>101</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="H21" s="13">
         <v>100</v>
@@ -52156,22 +52179,22 @@
         <v>0</v>
       </c>
       <c r="Q21" s="18" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="R21" s="18" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="T21" s="18" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="U21" s="13" t="s">
         <v>124</v>
       </c>
       <c r="V21" s="18" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="W21" s="13" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="Z21" s="13">
         <v>1</v>
@@ -52195,7 +52218,7 @@
         <v>104</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="H22" s="12">
         <v>5000</v>
@@ -52222,20 +52245,20 @@
         <v>2</v>
       </c>
       <c r="Q22" s="17" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="R22" s="17" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="T22" s="17"/>
       <c r="U22" s="12">
         <v>5000</v>
       </c>
       <c r="V22" s="17" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="W22" s="12" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="Z22" s="12">
         <v>1</v>
@@ -52259,7 +52282,7 @@
         <v>102</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="H23" s="12">
         <v>1000</v>
@@ -52289,17 +52312,17 @@
         <v>133</v>
       </c>
       <c r="R23" s="17" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="12">
         <v>1000</v>
       </c>
       <c r="V23" s="17" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="W23" s="12" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="Z23" s="12">
         <v>1</v>
@@ -52316,14 +52339,14 @@
         <v>109</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="D24" s="15"/>
       <c r="F24" s="12">
         <v>101</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="H24" s="12">
         <v>100</v>
@@ -52353,20 +52376,20 @@
         <v>0</v>
       </c>
       <c r="Q24" s="17" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="R24" s="17" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="T24" s="17"/>
       <c r="U24" s="12">
         <v>100</v>
       </c>
       <c r="V24" s="17" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="W24" s="12" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="Z24" s="12">
         <v>1</v>
@@ -52375,7 +52398,7 @@
         <v>1</v>
       </c>
       <c r="AD24" s="17" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="25" s="12" customFormat="1" spans="1:27">
@@ -52398,7 +52421,7 @@
         <v>111</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="H25" s="12">
         <v>19800</v>
@@ -52425,22 +52448,22 @@
         <v>8</v>
       </c>
       <c r="Q25" s="17" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="R25" s="17" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="T25" s="17" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="U25" s="17" t="s">
         <v>143</v>
       </c>
       <c r="V25" s="17" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="W25" s="12" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="Z25" s="12">
         <v>1</v>
@@ -52510,13 +52533,13 @@
         <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>32</v>
@@ -52528,16 +52551,16 @@
         <v>154</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>39</v>
@@ -52578,7 +52601,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -52590,7 +52613,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="L2" s="2">
         <v>54</v>
@@ -52599,7 +52622,7 @@
         <v>999999</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
@@ -52608,22 +52631,22 @@
         <v>1</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="T2" s="2">
         <v>60000</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:23">
@@ -52634,7 +52657,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -52646,7 +52669,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="L3" s="2">
         <v>54</v>
@@ -52655,7 +52678,7 @@
         <v>999999</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -52664,22 +52687,22 @@
         <v>2</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="T3" s="2">
         <v>500000</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="W3" s="2">
         <v>8.3</v>
@@ -52693,7 +52716,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -52718,19 +52741,19 @@
         <v>4</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="T4" s="2">
         <v>15000</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:22">
@@ -52741,7 +52764,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -52768,10 +52791,10 @@
         <v>100000</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:22">
@@ -52782,7 +52805,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
@@ -52809,10 +52832,10 @@
         <v>100000</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:23">
@@ -52823,7 +52846,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
@@ -52835,7 +52858,7 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="L7" s="2">
         <v>56</v>
@@ -52844,7 +52867,7 @@
         <v>999999</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="O7" s="6">
         <v>0</v>
@@ -52853,22 +52876,22 @@
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="T7" s="2">
         <v>500000</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="W7" s="2">
         <v>8.3</v>
@@ -52882,10 +52905,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="F8" s="2">
         <v>100</v>
@@ -52897,7 +52920,7 @@
         <v>125</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="L8" s="2">
         <v>57</v>
@@ -52912,22 +52935,22 @@
         <v>5</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="T8" s="2">
         <v>100</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:22">
@@ -52938,10 +52961,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="F9" s="2">
         <v>1000</v>
@@ -52956,16 +52979,16 @@
         <v>6</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="T9" s="2">
         <v>1000</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:22">
@@ -52976,10 +52999,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="F10" s="2">
         <v>5800</v>
@@ -52994,16 +53017,16 @@
         <v>7</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="T10" s="2">
         <v>5800</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:22">
@@ -53014,10 +53037,10 @@
         <v>17</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="F11" s="2">
         <v>8800</v>
@@ -53032,16 +53055,16 @@
         <v>8</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="T11" s="2">
         <v>8800</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:22">
@@ -53052,10 +53075,10 @@
         <v>18</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="F12" s="2">
         <v>18800</v>
@@ -53070,16 +53093,16 @@
         <v>9</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="T12" s="2">
         <v>18800</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:23">
@@ -53090,7 +53113,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
@@ -53114,16 +53137,16 @@
         <v>0</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="T13" s="2">
         <v>70000</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="W13" s="2">
         <v>7</v>
@@ -53137,7 +53160,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>14</v>
@@ -53161,16 +53184,16 @@
         <v>0</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="T14" s="2">
         <v>180000</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="W14" s="2">
         <v>6</v>
@@ -53184,10 +53207,10 @@
         <v>21</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="F15" s="2">
         <v>1500</v>
@@ -53208,16 +53231,16 @@
         <v>0</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="T15" s="2">
         <v>1500</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="W15" s="2">
         <v>3</v>
@@ -53231,10 +53254,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="F16" s="3">
         <v>200</v>
@@ -53250,13 +53273,13 @@
         <v>0</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="T16" s="3">
         <v>200</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" spans="1:22">
@@ -53267,10 +53290,10 @@
         <v>23</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="F17" s="3">
         <v>2000</v>
@@ -53286,13 +53309,13 @@
         <v>0</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="T17" s="3">
         <v>2000</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" spans="1:22">
@@ -53303,7 +53326,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>14</v>
@@ -53322,13 +53345,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="T18" s="3">
         <v>20000</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" spans="1:22">
@@ -53339,7 +53362,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>14</v>
@@ -53358,13 +53381,13 @@
         <v>0</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="T19" s="3">
         <v>200000</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" spans="1:22">
@@ -53375,7 +53398,7 @@
         <v>26</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>14</v>
@@ -53393,16 +53416,16 @@
         <v>0</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="T20" s="4">
         <v>300000</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" spans="1:22">
@@ -53413,7 +53436,7 @@
         <v>27</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>14</v>
@@ -53431,16 +53454,16 @@
         <v>0</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="T21" s="4">
         <v>300000</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/shoping_config_cjj.xlsx
+++ b/config_debug/shoping_config_cjj.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="533" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -5629,7 +5629,7 @@
     <t>"5000万金币","100万小游戏币","抽奖券*50",</t>
   </si>
   <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_mfcjq",</t>
+    <t>"jing_bi","prop_tiny_game_coin","prop_qdlb_cjq",</t>
   </si>
   <si>
     <t>50000000,1000000,50,</t>
@@ -6580,14 +6580,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -6604,14 +6596,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6625,17 +6641,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6654,16 +6662,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6677,14 +6692,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -6693,8 +6700,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6702,25 +6718,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6810,12 +6810,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -6828,7 +6822,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6840,7 +6846,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6852,13 +6918,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6871,96 +6961,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7000,17 +7000,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -7026,6 +7015,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -7037,17 +7065,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -7068,32 +7089,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7105,10 +7105,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7117,133 +7117,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -9955,12 +9955,12 @@
   <sheetPr/>
   <dimension ref="A1:AN618"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W589" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="Q589" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA617" sqref="AA617:AA618"/>
+      <selection pane="bottomRight" activeCell="Q620" sqref="Q620"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -49475,7 +49475,7 @@
   <sheetPr/>
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>

--- a/config_debug/shoping_config_cjj.xlsx
+++ b/config_debug/shoping_config_cjj.xlsx
@@ -6540,9 +6540,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -6577,8 +6577,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6592,8 +6593,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -6607,14 +6616,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -6630,23 +6639,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6660,11 +6653,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6677,31 +6700,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6813,7 +6813,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6825,7 +6825,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6837,13 +6861,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6855,25 +6885,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6885,13 +6897,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6903,43 +6909,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6957,7 +6945,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7000,8 +7000,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7010,7 +7010,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7030,17 +7030,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7060,37 +7080,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7102,10 +7102,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7114,133 +7114,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -9953,11 +9953,11 @@
   <dimension ref="A1:AN618"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="AN589" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="U589" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AN619" sqref="AN619"/>
+      <selection pane="bottomRight" activeCell="V618" sqref="V618"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -49370,7 +49370,7 @@
         <v>172</v>
       </c>
       <c r="X617" s="29">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="Y617" s="29">
         <v>1619481600</v>

--- a/config_debug/shoping_config_cjj.xlsx
+++ b/config_debug/shoping_config_cjj.xlsx
@@ -6577,14 +6577,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -6593,9 +6585,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6609,8 +6607,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6623,7 +6622,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -6633,21 +6631,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6670,14 +6653,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6688,6 +6672,29 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6702,13 +6709,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6813,7 +6813,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6825,7 +6843,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6837,7 +6873,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6849,55 +6891,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6909,19 +6903,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6939,25 +6939,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6997,24 +6997,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -7032,20 +7014,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7061,6 +7032,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7102,10 +7102,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7114,133 +7114,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -9953,11 +9953,11 @@
   <dimension ref="A1:AN618"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="U589" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="W589" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V618" sqref="V618"/>
+      <selection pane="bottomRight" activeCell="X622" sqref="X622"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -49370,7 +49370,7 @@
         <v>172</v>
       </c>
       <c r="X617" s="29">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="Y617" s="29">
         <v>1619481600</v>

--- a/config_debug/shoping_config_cjj.xlsx
+++ b/config_debug/shoping_config_cjj.xlsx
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5008" uniqueCount="1802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5050" uniqueCount="1812">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -5726,6 +5726,36 @@
   </si>
   <si>
     <t>"jing_bi","prop_gold_hammer_3"</t>
+  </si>
+  <si>
+    <t>"9980万金币","300万小游戏币","铁锹*5"</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_3"</t>
+  </si>
+  <si>
+    <t>"4980万金币","150万小游戏币","铁锹*2"</t>
+  </si>
+  <si>
+    <t>"2980万金币","90万小游戏币","阳光*12"</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_2"</t>
+  </si>
+  <si>
+    <t>"1980万金币","60万小游戏币","阳光*8"</t>
+  </si>
+  <si>
+    <t>"980万金币","30万小游戏币","阳光*5"</t>
+  </si>
+  <si>
+    <t>"480万金币","15万小游戏币","水滴*8"</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_1"</t>
+  </si>
+  <si>
+    <t>"180万金币","10万小游戏币","水滴*5"</t>
   </si>
   <si>
     <t>id|不能重复</t>
@@ -6603,10 +6633,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -6640,40 +6670,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6694,16 +6699,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6717,24 +6722,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6745,8 +6737,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6761,16 +6784,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6784,12 +6807,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -6870,13 +6900,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6900,7 +6942,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6912,13 +6960,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6930,7 +6972,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6948,7 +6996,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6960,7 +7026,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6972,7 +7038,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6984,43 +7050,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7057,54 +7087,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -7147,6 +7129,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -7154,6 +7166,24 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7165,10 +7195,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7177,133 +7207,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -10013,14 +10043,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AIF627"/>
+  <dimension ref="A1:AIF634"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="Z601" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H604" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB626" sqref="AB626"/>
+      <selection pane="bottomRight" activeCell="J636" sqref="J636:J637"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -58180,6 +58210,440 @@
       <c r="AIE627"/>
       <c r="AIF627"/>
     </row>
+    <row r="628" spans="1:39">
+      <c r="A628" s="21">
+        <v>627</v>
+      </c>
+      <c r="B628" s="29">
+        <v>10544</v>
+      </c>
+      <c r="F628" s="29">
+        <v>1</v>
+      </c>
+      <c r="G628" s="29" t="s">
+        <v>1112</v>
+      </c>
+      <c r="J628" s="29" t="s">
+        <v>1605</v>
+      </c>
+      <c r="L628" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M628" s="28">
+        <v>0</v>
+      </c>
+      <c r="N628" s="28">
+        <v>0</v>
+      </c>
+      <c r="O628" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P628" s="29">
+        <v>99800</v>
+      </c>
+      <c r="Q628" s="29" t="s">
+        <v>1606</v>
+      </c>
+      <c r="R628" s="51" t="s">
+        <v>1135</v>
+      </c>
+      <c r="W628" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="X628" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y628" s="29">
+        <v>1621296000</v>
+      </c>
+      <c r="Z628" s="29">
+        <v>1621871999</v>
+      </c>
+      <c r="AH628" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI628" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL628" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM628" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="629" spans="1:39">
+      <c r="A629" s="21">
+        <v>628</v>
+      </c>
+      <c r="B629" s="29">
+        <v>10545</v>
+      </c>
+      <c r="F629" s="29">
+        <v>1</v>
+      </c>
+      <c r="G629" s="29" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J629" s="29" t="s">
+        <v>1607</v>
+      </c>
+      <c r="L629" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M629" s="28">
+        <v>0</v>
+      </c>
+      <c r="N629" s="28">
+        <v>0</v>
+      </c>
+      <c r="O629" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P629" s="29">
+        <v>49800</v>
+      </c>
+      <c r="Q629" s="29" t="s">
+        <v>1606</v>
+      </c>
+      <c r="R629" s="51" t="s">
+        <v>1132</v>
+      </c>
+      <c r="W629" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="X629" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y629" s="29">
+        <v>1621296000</v>
+      </c>
+      <c r="Z629" s="29">
+        <v>1621871999</v>
+      </c>
+      <c r="AH629" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI629" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL629" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM629" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630" spans="1:39">
+      <c r="A630" s="21">
+        <v>629</v>
+      </c>
+      <c r="B630" s="29">
+        <v>10546</v>
+      </c>
+      <c r="F630" s="29">
+        <v>1</v>
+      </c>
+      <c r="G630" s="29" t="s">
+        <v>1119</v>
+      </c>
+      <c r="J630" s="29" t="s">
+        <v>1608</v>
+      </c>
+      <c r="L630" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M630" s="28">
+        <v>0</v>
+      </c>
+      <c r="N630" s="28">
+        <v>0</v>
+      </c>
+      <c r="O630" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P630" s="29">
+        <v>29800</v>
+      </c>
+      <c r="Q630" s="29" t="s">
+        <v>1609</v>
+      </c>
+      <c r="R630" s="51" t="s">
+        <v>1128</v>
+      </c>
+      <c r="W630" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="X630" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y630" s="29">
+        <v>1621296000</v>
+      </c>
+      <c r="Z630" s="29">
+        <v>1621871999</v>
+      </c>
+      <c r="AH630" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI630" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL630" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM630" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631" spans="1:39">
+      <c r="A631" s="21">
+        <v>630</v>
+      </c>
+      <c r="B631" s="29">
+        <v>10547</v>
+      </c>
+      <c r="F631" s="29">
+        <v>1</v>
+      </c>
+      <c r="G631" s="29" t="s">
+        <v>1123</v>
+      </c>
+      <c r="J631" s="29" t="s">
+        <v>1610</v>
+      </c>
+      <c r="L631" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M631" s="28">
+        <v>0</v>
+      </c>
+      <c r="N631" s="28">
+        <v>0</v>
+      </c>
+      <c r="O631" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P631" s="29">
+        <v>19800</v>
+      </c>
+      <c r="Q631" s="29" t="s">
+        <v>1609</v>
+      </c>
+      <c r="R631" s="51" t="s">
+        <v>1125</v>
+      </c>
+      <c r="W631" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="X631" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y631" s="29">
+        <v>1621296000</v>
+      </c>
+      <c r="Z631" s="29">
+        <v>1621871999</v>
+      </c>
+      <c r="AH631" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI631" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL631" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM631" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="632" spans="1:39">
+      <c r="A632" s="21">
+        <v>631</v>
+      </c>
+      <c r="B632" s="29">
+        <v>10548</v>
+      </c>
+      <c r="F632" s="29">
+        <v>1</v>
+      </c>
+      <c r="G632" s="29" t="s">
+        <v>1126</v>
+      </c>
+      <c r="J632" s="29" t="s">
+        <v>1611</v>
+      </c>
+      <c r="L632" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M632" s="28">
+        <v>0</v>
+      </c>
+      <c r="N632" s="28">
+        <v>0</v>
+      </c>
+      <c r="O632" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P632" s="29">
+        <v>9800</v>
+      </c>
+      <c r="Q632" s="29" t="s">
+        <v>1609</v>
+      </c>
+      <c r="R632" s="51" t="s">
+        <v>1122</v>
+      </c>
+      <c r="W632" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="X632" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y632" s="29">
+        <v>1621296000</v>
+      </c>
+      <c r="Z632" s="29">
+        <v>1621871999</v>
+      </c>
+      <c r="AH632" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI632" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL632" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM632" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633" spans="1:39">
+      <c r="A633" s="21">
+        <v>632</v>
+      </c>
+      <c r="B633" s="29">
+        <v>10549</v>
+      </c>
+      <c r="F633" s="29">
+        <v>1</v>
+      </c>
+      <c r="G633" s="29" t="s">
+        <v>1129</v>
+      </c>
+      <c r="J633" s="29" t="s">
+        <v>1612</v>
+      </c>
+      <c r="L633" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M633" s="28">
+        <v>0</v>
+      </c>
+      <c r="N633" s="28">
+        <v>0</v>
+      </c>
+      <c r="O633" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P633" s="29">
+        <v>4800</v>
+      </c>
+      <c r="Q633" s="29" t="s">
+        <v>1613</v>
+      </c>
+      <c r="R633" s="51" t="s">
+        <v>1118</v>
+      </c>
+      <c r="W633" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="X633" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y633" s="29">
+        <v>1621296000</v>
+      </c>
+      <c r="Z633" s="29">
+        <v>1621871999</v>
+      </c>
+      <c r="AH633" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI633" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL633" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM633" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634" spans="1:39">
+      <c r="A634" s="21">
+        <v>633</v>
+      </c>
+      <c r="B634" s="29">
+        <v>10550</v>
+      </c>
+      <c r="F634" s="29">
+        <v>1</v>
+      </c>
+      <c r="G634" s="29" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J634" s="29" t="s">
+        <v>1614</v>
+      </c>
+      <c r="L634" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M634" s="28">
+        <v>0</v>
+      </c>
+      <c r="N634" s="28">
+        <v>0</v>
+      </c>
+      <c r="O634" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P634" s="29">
+        <v>1800</v>
+      </c>
+      <c r="Q634" s="29" t="s">
+        <v>1613</v>
+      </c>
+      <c r="R634" s="51" t="s">
+        <v>1115</v>
+      </c>
+      <c r="W634" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="X634" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y634" s="29">
+        <v>1621296000</v>
+      </c>
+      <c r="Z634" s="29">
+        <v>1621871999</v>
+      </c>
+      <c r="AH634" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI634" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL634" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM634" s="29">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -58206,19 +58670,19 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="58.5" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>1605</v>
+        <v>1615</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1606</v>
+        <v>1616</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1607</v>
+        <v>1617</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1608</v>
+        <v>1618</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1609</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="2" ht="57.75" customHeight="1" spans="1:5">
@@ -58226,7 +58690,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1610</v>
+        <v>1620</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -58235,7 +58699,7 @@
         <v>3600</v>
       </c>
       <c r="E2" t="s">
-        <v>1611</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="3" ht="78.75" customHeight="1" spans="1:4">
@@ -58243,7 +58707,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>1612</v>
+        <v>1622</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -58257,7 +58721,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>1613</v>
+        <v>1623</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -58271,7 +58735,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>1614</v>
+        <v>1624</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -58285,7 +58749,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>1615</v>
+        <v>1625</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -58299,7 +58763,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1616</v>
+        <v>1626</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -58313,7 +58777,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1617</v>
+        <v>1627</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -58327,7 +58791,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1618</v>
+        <v>1628</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -58341,7 +58805,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1619</v>
+        <v>1629</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -58355,7 +58819,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1620</v>
+        <v>1630</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -58369,7 +58833,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>1615</v>
+        <v>1625</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -58383,7 +58847,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>1616</v>
+        <v>1626</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -58397,7 +58861,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>1621</v>
+        <v>1631</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -58411,7 +58875,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>1622</v>
+        <v>1632</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -58425,7 +58889,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>1623</v>
+        <v>1633</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -58439,7 +58903,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>1624</v>
+        <v>1634</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -58453,7 +58917,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>1625</v>
+        <v>1635</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -58467,7 +58931,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>1626</v>
+        <v>1636</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -58481,7 +58945,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>1627</v>
+        <v>1637</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -58495,7 +58959,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>1628</v>
+        <v>1638</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -58509,7 +58973,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>1629</v>
+        <v>1639</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
@@ -58523,7 +58987,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>1630</v>
+        <v>1640</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
@@ -58537,7 +59001,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>1631</v>
+        <v>1641</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
@@ -58551,7 +59015,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>1632</v>
+        <v>1642</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
@@ -58565,7 +59029,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>1633</v>
+        <v>1643</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
@@ -58579,7 +59043,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>1634</v>
+        <v>1644</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -58594,7 +59058,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>1635</v>
+        <v>1645</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
@@ -58609,7 +59073,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>1636</v>
+        <v>1646</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -58624,7 +59088,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>1637</v>
+        <v>1647</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -58639,7 +59103,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1638</v>
+        <v>1648</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -58654,7 +59118,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>1639</v>
+        <v>1649</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -58669,7 +59133,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>1640</v>
+        <v>1650</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -58684,7 +59148,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>1641</v>
+        <v>1651</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -58699,7 +59163,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>1642</v>
+        <v>1652</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -58714,7 +59178,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>1643</v>
+        <v>1653</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -58729,7 +59193,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>1644</v>
+        <v>1654</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -58744,7 +59208,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>1645</v>
+        <v>1655</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -58759,7 +59223,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>1646</v>
+        <v>1656</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
@@ -58773,7 +59237,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1647</v>
+        <v>1657</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
@@ -58787,7 +59251,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>1648</v>
+        <v>1658</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -58801,7 +59265,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>1649</v>
+        <v>1659</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
@@ -58815,7 +59279,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>1650</v>
+        <v>1660</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
@@ -58829,7 +59293,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>1651</v>
+        <v>1661</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -58843,7 +59307,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>1652</v>
+        <v>1662</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
@@ -58857,7 +59321,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>1653</v>
+        <v>1663</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
@@ -58871,7 +59335,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>1654</v>
+        <v>1664</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
@@ -58885,7 +59349,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>1655</v>
+        <v>1665</v>
       </c>
       <c r="C48" s="2">
         <v>1</v>
@@ -58899,7 +59363,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>1656</v>
+        <v>1666</v>
       </c>
       <c r="C49" s="2">
         <v>1</v>
@@ -58913,7 +59377,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
@@ -58927,7 +59391,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="C51" s="2">
         <v>1</v>
@@ -58941,7 +59405,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>1659</v>
+        <v>1669</v>
       </c>
       <c r="C52" s="2">
         <v>1</v>
@@ -58955,7 +59419,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>1660</v>
+        <v>1670</v>
       </c>
       <c r="C53" s="2">
         <v>1</v>
@@ -58969,7 +59433,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>1661</v>
+        <v>1671</v>
       </c>
       <c r="C54" s="2">
         <v>1</v>
@@ -58983,7 +59447,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>1662</v>
+        <v>1672</v>
       </c>
       <c r="C55" s="2">
         <v>1</v>
@@ -58997,7 +59461,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>1663</v>
+        <v>1673</v>
       </c>
       <c r="C56" s="2">
         <v>1</v>
@@ -59011,7 +59475,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>1664</v>
+        <v>1674</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
@@ -59025,7 +59489,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>1665</v>
+        <v>1675</v>
       </c>
       <c r="C58" s="2">
         <v>1</v>
@@ -59039,7 +59503,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>1666</v>
+        <v>1676</v>
       </c>
       <c r="C59" s="2">
         <v>1</v>
@@ -59053,7 +59517,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>1667</v>
+        <v>1677</v>
       </c>
       <c r="C60" s="2">
         <v>1</v>
@@ -59067,7 +59531,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>1668</v>
+        <v>1678</v>
       </c>
       <c r="C61" s="2">
         <v>1</v>
@@ -59081,7 +59545,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>1669</v>
+        <v>1679</v>
       </c>
       <c r="C62" s="2">
         <v>1</v>
@@ -59095,7 +59559,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>1670</v>
+        <v>1680</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
@@ -59109,7 +59573,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>1671</v>
+        <v>1681</v>
       </c>
       <c r="C64" s="2">
         <v>1</v>
@@ -59123,7 +59587,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>1672</v>
+        <v>1682</v>
       </c>
       <c r="C65" s="2">
         <v>1</v>
@@ -59137,7 +59601,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>1673</v>
+        <v>1683</v>
       </c>
       <c r="C66" s="2">
         <v>1</v>
@@ -59151,7 +59615,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>1674</v>
+        <v>1684</v>
       </c>
       <c r="C67" s="2">
         <v>1</v>
@@ -59165,7 +59629,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>1675</v>
+        <v>1685</v>
       </c>
       <c r="C68" s="2">
         <v>1</v>
@@ -59179,7 +59643,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>1676</v>
+        <v>1686</v>
       </c>
       <c r="C69" s="2">
         <v>1</v>
@@ -59193,7 +59657,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>1677</v>
+        <v>1687</v>
       </c>
       <c r="C70" s="2">
         <v>1</v>
@@ -59207,7 +59671,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>1678</v>
+        <v>1688</v>
       </c>
       <c r="C71" s="19">
         <v>1</v>
@@ -59221,7 +59685,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>1679</v>
+        <v>1689</v>
       </c>
       <c r="C72" s="19">
         <v>1</v>
@@ -59235,7 +59699,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>1680</v>
+        <v>1690</v>
       </c>
       <c r="C73" s="19">
         <v>1</v>
@@ -59249,7 +59713,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>1681</v>
+        <v>1691</v>
       </c>
       <c r="C74" s="19">
         <v>1</v>
@@ -59263,7 +59727,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>1682</v>
+        <v>1692</v>
       </c>
       <c r="C75" s="19">
         <v>1</v>
@@ -59277,7 +59741,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>1683</v>
+        <v>1693</v>
       </c>
       <c r="C76" s="19">
         <v>1</v>
@@ -59291,7 +59755,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>1684</v>
+        <v>1694</v>
       </c>
       <c r="C77" s="19">
         <v>1</v>
@@ -59305,7 +59769,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>1685</v>
+        <v>1695</v>
       </c>
       <c r="C78" s="19">
         <v>1</v>
@@ -59319,7 +59783,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="22" t="s">
-        <v>1686</v>
+        <v>1696</v>
       </c>
       <c r="C79" s="19">
         <v>1</v>
@@ -59333,7 +59797,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="22" t="s">
-        <v>1687</v>
+        <v>1697</v>
       </c>
       <c r="C80" s="19">
         <v>1</v>
@@ -59347,7 +59811,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>1688</v>
+        <v>1698</v>
       </c>
       <c r="C81" s="2">
         <v>1</v>
@@ -59361,7 +59825,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>1689</v>
+        <v>1699</v>
       </c>
       <c r="C82" s="2">
         <v>1</v>
@@ -59375,7 +59839,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>1690</v>
+        <v>1700</v>
       </c>
       <c r="C83" s="2">
         <v>1</v>
@@ -59389,7 +59853,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>1691</v>
+        <v>1701</v>
       </c>
       <c r="C84" s="2">
         <v>1</v>
@@ -59403,7 +59867,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>1692</v>
+        <v>1702</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -59457,7 +59921,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="90" customHeight="1" spans="1:30">
       <c r="A1" s="1" t="s">
-        <v>1693</v>
+        <v>1703</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
@@ -59472,19 +59936,19 @@
         <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1694</v>
+        <v>1704</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1695</v>
+        <v>1705</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1696</v>
+        <v>1706</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1697</v>
+        <v>1707</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1698</v>
+        <v>1708</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>32</v>
@@ -59499,7 +59963,7 @@
         <v>39</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1699</v>
+        <v>1709</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>40</v>
@@ -59544,7 +60008,7 @@
         <v>53</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>1700</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="2" s="12" customFormat="1" spans="1:27">
@@ -59567,7 +60031,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>1701</v>
+        <v>1711</v>
       </c>
       <c r="H2" s="12">
         <v>600</v>
@@ -59597,19 +60061,19 @@
         <v>131</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>1702</v>
+        <v>1712</v>
       </c>
       <c r="T2" s="17" t="s">
-        <v>1703</v>
+        <v>1713</v>
       </c>
       <c r="U2" s="12" t="s">
         <v>62</v>
       </c>
       <c r="V2" s="17" t="s">
-        <v>1704</v>
+        <v>1714</v>
       </c>
       <c r="W2" s="12" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
       <c r="Z2" s="12">
         <v>1</v>
@@ -59638,7 +60102,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>1701</v>
+        <v>1711</v>
       </c>
       <c r="H3" s="12">
         <v>1500</v>
@@ -59665,22 +60129,22 @@
         <v>4</v>
       </c>
       <c r="Q3" s="17" t="s">
-        <v>1706</v>
+        <v>1716</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>1707</v>
+        <v>1717</v>
       </c>
       <c r="T3" s="17" t="s">
-        <v>1703</v>
+        <v>1713</v>
       </c>
       <c r="U3" s="12" t="s">
         <v>67</v>
       </c>
       <c r="V3" s="17" t="s">
-        <v>1708</v>
+        <v>1718</v>
       </c>
       <c r="W3" s="12" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
       <c r="Z3" s="12">
         <v>1</v>
@@ -59709,7 +60173,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>1701</v>
+        <v>1711</v>
       </c>
       <c r="H4" s="12">
         <v>3000</v>
@@ -59736,22 +60200,22 @@
         <v>5</v>
       </c>
       <c r="Q4" s="17" t="s">
-        <v>1709</v>
+        <v>1719</v>
       </c>
       <c r="R4" s="17" t="s">
-        <v>1710</v>
+        <v>1720</v>
       </c>
       <c r="T4" s="17" t="s">
-        <v>1703</v>
+        <v>1713</v>
       </c>
       <c r="U4" s="12" t="s">
         <v>71</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>1711</v>
+        <v>1721</v>
       </c>
       <c r="W4" s="12" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
       <c r="Z4" s="12">
         <v>1</v>
@@ -59780,7 +60244,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>1701</v>
+        <v>1711</v>
       </c>
       <c r="H5" s="12">
         <v>5000</v>
@@ -59807,22 +60271,22 @@
         <v>6</v>
       </c>
       <c r="Q5" s="17" t="s">
-        <v>1712</v>
+        <v>1722</v>
       </c>
       <c r="R5" s="17" t="s">
+        <v>1723</v>
+      </c>
+      <c r="T5" s="17" t="s">
         <v>1713</v>
-      </c>
-      <c r="T5" s="17" t="s">
-        <v>1703</v>
       </c>
       <c r="U5" s="12" t="s">
         <v>75</v>
       </c>
       <c r="V5" s="17" t="s">
-        <v>1714</v>
+        <v>1724</v>
       </c>
       <c r="W5" s="12" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
       <c r="Z5" s="12">
         <v>1</v>
@@ -59851,7 +60315,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>1701</v>
+        <v>1711</v>
       </c>
       <c r="H6" s="12">
         <v>9800</v>
@@ -59878,22 +60342,22 @@
         <v>7</v>
       </c>
       <c r="Q6" s="17" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="R6" s="17" t="s">
-        <v>1716</v>
+        <v>1726</v>
       </c>
       <c r="T6" s="17" t="s">
-        <v>1703</v>
+        <v>1713</v>
       </c>
       <c r="U6" s="12" t="s">
         <v>79</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>1717</v>
+        <v>1727</v>
       </c>
       <c r="W6" s="12" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
       <c r="Z6" s="12">
         <v>1</v>
@@ -59922,7 +60386,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>1701</v>
+        <v>1711</v>
       </c>
       <c r="H7" s="12">
         <v>49800</v>
@@ -59949,22 +60413,22 @@
         <v>9</v>
       </c>
       <c r="Q7" s="17" t="s">
-        <v>1718</v>
+        <v>1728</v>
       </c>
       <c r="R7" s="17" t="s">
-        <v>1719</v>
+        <v>1729</v>
       </c>
       <c r="T7" s="17" t="s">
-        <v>1703</v>
+        <v>1713</v>
       </c>
       <c r="U7" s="12" t="s">
         <v>83</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>1720</v>
+        <v>1730</v>
       </c>
       <c r="W7" s="12" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
       <c r="Z7" s="12">
         <v>1</v>
@@ -59988,7 +60452,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>1701</v>
+        <v>1711</v>
       </c>
       <c r="H8" s="12">
         <v>100</v>
@@ -60015,22 +60479,22 @@
         <v>0</v>
       </c>
       <c r="Q8" s="17" t="s">
-        <v>1721</v>
+        <v>1731</v>
       </c>
       <c r="R8" s="17" t="s">
-        <v>1722</v>
+        <v>1732</v>
       </c>
       <c r="T8" s="17" t="s">
-        <v>1703</v>
+        <v>1713</v>
       </c>
       <c r="U8" s="12" t="s">
         <v>62</v>
       </c>
       <c r="V8" s="17" t="s">
-        <v>1704</v>
+        <v>1714</v>
       </c>
       <c r="W8" s="12" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
       <c r="Z8" s="12">
         <v>1</v>
@@ -60054,7 +60518,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>1723</v>
+        <v>1733</v>
       </c>
       <c r="H9" s="12">
         <v>5000</v>
@@ -60081,19 +60545,19 @@
         <v>2</v>
       </c>
       <c r="Q9" s="17" t="s">
-        <v>1712</v>
+        <v>1722</v>
       </c>
       <c r="R9" s="17" t="s">
-        <v>1713</v>
+        <v>1723</v>
       </c>
       <c r="U9" s="12">
         <v>5000</v>
       </c>
       <c r="V9" s="12" t="s">
-        <v>1714</v>
+        <v>1724</v>
       </c>
       <c r="W9" s="12" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
       <c r="Z9" s="12">
         <v>1</v>
@@ -60102,7 +60566,7 @@
         <v>1</v>
       </c>
       <c r="AD9" s="17" t="s">
-        <v>1724</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="10" s="12" customFormat="1" spans="1:30">
@@ -60120,7 +60584,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>1723</v>
+        <v>1733</v>
       </c>
       <c r="H10" s="12">
         <v>1000</v>
@@ -60150,16 +60614,16 @@
         <v>133</v>
       </c>
       <c r="R10" s="17" t="s">
-        <v>1725</v>
+        <v>1735</v>
       </c>
       <c r="U10" s="12">
         <v>1000</v>
       </c>
       <c r="V10" s="12" t="s">
-        <v>1708</v>
+        <v>1718</v>
       </c>
       <c r="W10" s="12" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
       <c r="Z10" s="12">
         <v>1</v>
@@ -60168,7 +60632,7 @@
         <v>1</v>
       </c>
       <c r="AD10" s="17" t="s">
-        <v>1726</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="11" s="12" customFormat="1" spans="1:27">
@@ -60186,7 +60650,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>1701</v>
+        <v>1711</v>
       </c>
       <c r="H11" s="12">
         <v>1500</v>
@@ -60213,22 +60677,22 @@
         <v>0</v>
       </c>
       <c r="Q11" s="17" t="s">
-        <v>1706</v>
+        <v>1716</v>
       </c>
       <c r="R11" s="17" t="s">
-        <v>1707</v>
+        <v>1717</v>
       </c>
       <c r="T11" s="17" t="s">
-        <v>1703</v>
+        <v>1713</v>
       </c>
       <c r="U11" s="17" t="s">
         <v>67</v>
       </c>
       <c r="V11" s="12" t="s">
-        <v>1708</v>
+        <v>1718</v>
       </c>
       <c r="W11" s="12" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
       <c r="Z11" s="12">
         <v>1</v>
@@ -60257,7 +60721,7 @@
         <v>107</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>1701</v>
+        <v>1711</v>
       </c>
       <c r="H12" s="12">
         <v>100000</v>
@@ -60284,22 +60748,22 @@
         <v>9</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>1727</v>
+        <v>1737</v>
       </c>
       <c r="R12" s="17" t="s">
-        <v>1728</v>
+        <v>1738</v>
       </c>
       <c r="T12" s="17" t="s">
-        <v>1703</v>
+        <v>1713</v>
       </c>
       <c r="U12" s="12" t="s">
         <v>87</v>
       </c>
       <c r="V12" s="12" t="s">
-        <v>1729</v>
+        <v>1739</v>
       </c>
       <c r="W12" s="12" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
       <c r="Z12" s="12">
         <v>1</v>
@@ -60328,7 +60792,7 @@
         <v>108</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>1701</v>
+        <v>1711</v>
       </c>
       <c r="H13" s="12">
         <v>99800</v>
@@ -60355,22 +60819,22 @@
         <v>10</v>
       </c>
       <c r="Q13" s="17" t="s">
-        <v>1730</v>
+        <v>1740</v>
       </c>
       <c r="R13" s="17" t="s">
-        <v>1731</v>
+        <v>1741</v>
       </c>
       <c r="T13" s="17" t="s">
-        <v>1703</v>
+        <v>1713</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>1732</v>
+        <v>1742</v>
       </c>
       <c r="V13" s="12" t="s">
-        <v>1729</v>
+        <v>1739</v>
       </c>
       <c r="W13" s="12" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
       <c r="Z13" s="12">
         <v>1</v>
@@ -60399,7 +60863,7 @@
         <v>110</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>1701</v>
+        <v>1711</v>
       </c>
       <c r="H14" s="12">
         <v>249800</v>
@@ -60426,22 +60890,22 @@
         <v>11</v>
       </c>
       <c r="Q14" s="17" t="s">
-        <v>1733</v>
+        <v>1743</v>
       </c>
       <c r="R14" s="17" t="s">
-        <v>1734</v>
+        <v>1744</v>
       </c>
       <c r="T14" s="17" t="s">
-        <v>1735</v>
+        <v>1745</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>1736</v>
+        <v>1746</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>1737</v>
+        <v>1747</v>
       </c>
       <c r="W14" s="12" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
       <c r="Z14" s="12">
         <v>1</v>
@@ -60465,7 +60929,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>1723</v>
+        <v>1733</v>
       </c>
       <c r="H15" s="12">
         <v>100</v>
@@ -60495,20 +60959,20 @@
         <v>0</v>
       </c>
       <c r="Q15" s="17" t="s">
-        <v>1721</v>
+        <v>1731</v>
       </c>
       <c r="R15" s="17" t="s">
-        <v>1722</v>
+        <v>1732</v>
       </c>
       <c r="T15" s="17"/>
       <c r="U15" s="12">
         <v>100</v>
       </c>
       <c r="V15" s="17" t="s">
-        <v>1704</v>
+        <v>1714</v>
       </c>
       <c r="W15" s="12" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
       <c r="Z15" s="12">
         <v>1</v>
@@ -60517,7 +60981,7 @@
         <v>1</v>
       </c>
       <c r="AD15" s="17" t="s">
-        <v>1738</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="16" s="12" customFormat="1" spans="1:27">
@@ -60540,7 +61004,7 @@
         <v>101</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>1701</v>
+        <v>1711</v>
       </c>
       <c r="H16" s="12">
         <v>400</v>
@@ -60567,22 +61031,22 @@
         <v>3</v>
       </c>
       <c r="Q16" s="17" t="s">
-        <v>1739</v>
+        <v>1749</v>
       </c>
       <c r="R16" s="17" t="s">
-        <v>1740</v>
+        <v>1750</v>
       </c>
       <c r="T16" s="17" t="s">
-        <v>1703</v>
+        <v>1713</v>
       </c>
       <c r="U16" s="12" t="s">
         <v>101</v>
       </c>
       <c r="V16" s="17" t="s">
-        <v>1704</v>
+        <v>1714</v>
       </c>
       <c r="W16" s="12" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
       <c r="Z16" s="12">
         <v>1</v>
@@ -60606,7 +61070,7 @@
         <v>102</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>1701</v>
+        <v>1711</v>
       </c>
       <c r="H17" s="12">
         <v>2000</v>
@@ -60633,22 +61097,22 @@
         <v>4</v>
       </c>
       <c r="Q17" s="17" t="s">
-        <v>1741</v>
+        <v>1751</v>
       </c>
       <c r="R17" s="17" t="s">
-        <v>1742</v>
+        <v>1752</v>
       </c>
       <c r="T17" s="17" t="s">
-        <v>1703</v>
+        <v>1713</v>
       </c>
       <c r="U17" s="12" t="s">
         <v>105</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>1711</v>
+        <v>1721</v>
       </c>
       <c r="W17" s="12" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
       <c r="Z17" s="12">
         <v>1</v>
@@ -60672,7 +61136,7 @@
         <v>103</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>1701</v>
+        <v>1711</v>
       </c>
       <c r="H18" s="12">
         <v>6700</v>
@@ -60699,22 +61163,22 @@
         <v>5</v>
       </c>
       <c r="Q18" s="17" t="s">
-        <v>1743</v>
+        <v>1753</v>
       </c>
       <c r="R18" s="17" t="s">
-        <v>1744</v>
+        <v>1754</v>
       </c>
       <c r="T18" s="17" t="s">
-        <v>1703</v>
+        <v>1713</v>
       </c>
       <c r="U18" s="12" t="s">
         <v>109</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>1717</v>
+        <v>1727</v>
       </c>
       <c r="W18" s="12" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
       <c r="Z18" s="12">
         <v>1</v>
@@ -60738,7 +61202,7 @@
         <v>104</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>1701</v>
+        <v>1711</v>
       </c>
       <c r="H19" s="12">
         <v>13200</v>
@@ -60765,22 +61229,22 @@
         <v>6</v>
       </c>
       <c r="Q19" s="17" t="s">
-        <v>1745</v>
+        <v>1755</v>
       </c>
       <c r="R19" s="17" t="s">
-        <v>1746</v>
+        <v>1756</v>
       </c>
       <c r="T19" s="17" t="s">
-        <v>1703</v>
+        <v>1713</v>
       </c>
       <c r="U19" s="12" t="s">
         <v>114</v>
       </c>
       <c r="V19" s="17" t="s">
-        <v>1747</v>
+        <v>1757</v>
       </c>
       <c r="W19" s="12" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
       <c r="Z19" s="12">
         <v>1</v>
@@ -60804,7 +61268,7 @@
         <v>105</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>1701</v>
+        <v>1711</v>
       </c>
       <c r="H20" s="12">
         <v>20400</v>
@@ -60831,22 +61295,22 @@
         <v>7</v>
       </c>
       <c r="Q20" s="17" t="s">
-        <v>1748</v>
+        <v>1758</v>
       </c>
       <c r="R20" s="17" t="s">
-        <v>1749</v>
+        <v>1759</v>
       </c>
       <c r="T20" s="17" t="s">
-        <v>1703</v>
+        <v>1713</v>
       </c>
       <c r="U20" s="12" t="s">
         <v>120</v>
       </c>
       <c r="V20" s="12" t="s">
-        <v>1747</v>
+        <v>1757</v>
       </c>
       <c r="W20" s="12" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
       <c r="Z20" s="12">
         <v>1</v>
@@ -60870,7 +61334,7 @@
         <v>101</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>1701</v>
+        <v>1711</v>
       </c>
       <c r="H21" s="13">
         <v>100</v>
@@ -60897,22 +61361,22 @@
         <v>0</v>
       </c>
       <c r="Q21" s="18" t="s">
-        <v>1721</v>
+        <v>1731</v>
       </c>
       <c r="R21" s="18" t="s">
-        <v>1722</v>
+        <v>1732</v>
       </c>
       <c r="T21" s="18" t="s">
-        <v>1703</v>
+        <v>1713</v>
       </c>
       <c r="U21" s="13" t="s">
         <v>124</v>
       </c>
       <c r="V21" s="18" t="s">
-        <v>1704</v>
+        <v>1714</v>
       </c>
       <c r="W21" s="13" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
       <c r="Z21" s="13">
         <v>1</v>
@@ -60936,7 +61400,7 @@
         <v>104</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>1723</v>
+        <v>1733</v>
       </c>
       <c r="H22" s="12">
         <v>5000</v>
@@ -60963,20 +61427,20 @@
         <v>2</v>
       </c>
       <c r="Q22" s="17" t="s">
-        <v>1712</v>
+        <v>1722</v>
       </c>
       <c r="R22" s="17" t="s">
-        <v>1713</v>
+        <v>1723</v>
       </c>
       <c r="T22" s="17"/>
       <c r="U22" s="12">
         <v>5000</v>
       </c>
       <c r="V22" s="17" t="s">
-        <v>1714</v>
+        <v>1724</v>
       </c>
       <c r="W22" s="12" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
       <c r="Z22" s="12">
         <v>1</v>
@@ -61000,7 +61464,7 @@
         <v>102</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>1723</v>
+        <v>1733</v>
       </c>
       <c r="H23" s="12">
         <v>1000</v>
@@ -61030,17 +61494,17 @@
         <v>133</v>
       </c>
       <c r="R23" s="17" t="s">
-        <v>1725</v>
+        <v>1735</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="12">
         <v>1000</v>
       </c>
       <c r="V23" s="17" t="s">
-        <v>1704</v>
+        <v>1714</v>
       </c>
       <c r="W23" s="12" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
       <c r="Z23" s="12">
         <v>1</v>
@@ -61057,14 +61521,14 @@
         <v>109</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>1750</v>
+        <v>1760</v>
       </c>
       <c r="D24" s="15"/>
       <c r="F24" s="12">
         <v>101</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>1723</v>
+        <v>1733</v>
       </c>
       <c r="H24" s="12">
         <v>100</v>
@@ -61094,20 +61558,20 @@
         <v>0</v>
       </c>
       <c r="Q24" s="17" t="s">
-        <v>1721</v>
+        <v>1731</v>
       </c>
       <c r="R24" s="17" t="s">
-        <v>1722</v>
+        <v>1732</v>
       </c>
       <c r="T24" s="17"/>
       <c r="U24" s="12">
         <v>100</v>
       </c>
       <c r="V24" s="17" t="s">
-        <v>1704</v>
+        <v>1714</v>
       </c>
       <c r="W24" s="12" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
       <c r="Z24" s="12">
         <v>1</v>
@@ -61116,7 +61580,7 @@
         <v>1</v>
       </c>
       <c r="AD24" s="17" t="s">
-        <v>1738</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="25" s="12" customFormat="1" spans="1:27">
@@ -61139,7 +61603,7 @@
         <v>111</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>1701</v>
+        <v>1711</v>
       </c>
       <c r="H25" s="12">
         <v>19800</v>
@@ -61166,22 +61630,22 @@
         <v>8</v>
       </c>
       <c r="Q25" s="17" t="s">
-        <v>1751</v>
+        <v>1761</v>
       </c>
       <c r="R25" s="17" t="s">
-        <v>1752</v>
+        <v>1762</v>
       </c>
       <c r="T25" s="17" t="s">
-        <v>1703</v>
+        <v>1713</v>
       </c>
       <c r="U25" s="17" t="s">
         <v>143</v>
       </c>
       <c r="V25" s="17" t="s">
-        <v>1747</v>
+        <v>1757</v>
       </c>
       <c r="W25" s="12" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
       <c r="Z25" s="12">
         <v>1</v>
@@ -61251,13 +61715,13 @@
         <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1695</v>
+        <v>1705</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1696</v>
+        <v>1706</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1753</v>
+        <v>1763</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>32</v>
@@ -61269,16 +61733,16 @@
         <v>154</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1755</v>
+        <v>1765</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1756</v>
+        <v>1766</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1757</v>
+        <v>1767</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>39</v>
@@ -61319,7 +61783,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1758</v>
+        <v>1768</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -61331,7 +61795,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1759</v>
+        <v>1769</v>
       </c>
       <c r="L2" s="2">
         <v>54</v>
@@ -61340,7 +61804,7 @@
         <v>999999</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1760</v>
+        <v>1770</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
@@ -61349,22 +61813,22 @@
         <v>1</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>1761</v>
+        <v>1771</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>1762</v>
+        <v>1772</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>1763</v>
+        <v>1773</v>
       </c>
       <c r="T2" s="2">
         <v>60000</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>1764</v>
+        <v>1774</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:23">
@@ -61375,7 +61839,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1758</v>
+        <v>1768</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -61387,7 +61851,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1759</v>
+        <v>1769</v>
       </c>
       <c r="L3" s="2">
         <v>54</v>
@@ -61396,7 +61860,7 @@
         <v>999999</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1765</v>
+        <v>1775</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -61405,22 +61869,22 @@
         <v>2</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>1761</v>
+        <v>1771</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>1766</v>
+        <v>1776</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>1763</v>
+        <v>1773</v>
       </c>
       <c r="T3" s="2">
         <v>500000</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>1764</v>
+        <v>1774</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
       <c r="W3" s="2">
         <v>8.3</v>
@@ -61434,7 +61898,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1767</v>
+        <v>1777</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -61459,19 +61923,19 @@
         <v>4</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>1768</v>
+        <v>1778</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>1769</v>
+        <v>1779</v>
       </c>
       <c r="T4" s="2">
         <v>15000</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>1770</v>
+        <v>1780</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:22">
@@ -61482,7 +61946,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1771</v>
+        <v>1781</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -61509,10 +61973,10 @@
         <v>100000</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>1772</v>
+        <v>1782</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:22">
@@ -61523,7 +61987,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1773</v>
+        <v>1783</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
@@ -61550,10 +62014,10 @@
         <v>100000</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>1772</v>
+        <v>1782</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:23">
@@ -61564,7 +62028,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1758</v>
+        <v>1768</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
@@ -61576,7 +62040,7 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>1774</v>
+        <v>1784</v>
       </c>
       <c r="L7" s="2">
         <v>56</v>
@@ -61585,7 +62049,7 @@
         <v>999999</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>1765</v>
+        <v>1775</v>
       </c>
       <c r="O7" s="6">
         <v>0</v>
@@ -61594,22 +62058,22 @@
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>1775</v>
+        <v>1785</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>1766</v>
+        <v>1776</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>1763</v>
+        <v>1773</v>
       </c>
       <c r="T7" s="2">
         <v>500000</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>1776</v>
+        <v>1786</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
       <c r="W7" s="2">
         <v>8.3</v>
@@ -61623,10 +62087,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1777</v>
+        <v>1787</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1701</v>
+        <v>1711</v>
       </c>
       <c r="F8" s="2">
         <v>100</v>
@@ -61638,7 +62102,7 @@
         <v>125</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>1778</v>
+        <v>1788</v>
       </c>
       <c r="L8" s="2">
         <v>57</v>
@@ -61653,22 +62117,22 @@
         <v>5</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>1779</v>
+        <v>1789</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>1780</v>
+        <v>1790</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>1763</v>
+        <v>1773</v>
       </c>
       <c r="T8" s="2">
         <v>100</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>1781</v>
+        <v>1791</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:22">
@@ -61679,10 +62143,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1782</v>
+        <v>1792</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1701</v>
+        <v>1711</v>
       </c>
       <c r="F9" s="2">
         <v>1000</v>
@@ -61697,16 +62161,16 @@
         <v>6</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>1783</v>
+        <v>1793</v>
       </c>
       <c r="T9" s="2">
         <v>1000</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>1784</v>
+        <v>1794</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:22">
@@ -61717,10 +62181,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1782</v>
+        <v>1792</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1701</v>
+        <v>1711</v>
       </c>
       <c r="F10" s="2">
         <v>5800</v>
@@ -61735,16 +62199,16 @@
         <v>7</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>1785</v>
+        <v>1795</v>
       </c>
       <c r="T10" s="2">
         <v>5800</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>1784</v>
+        <v>1794</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:22">
@@ -61755,10 +62219,10 @@
         <v>17</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1782</v>
+        <v>1792</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1701</v>
+        <v>1711</v>
       </c>
       <c r="F11" s="2">
         <v>8800</v>
@@ -61773,16 +62237,16 @@
         <v>8</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>1786</v>
+        <v>1796</v>
       </c>
       <c r="T11" s="2">
         <v>8800</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>1784</v>
+        <v>1794</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:22">
@@ -61793,10 +62257,10 @@
         <v>18</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1782</v>
+        <v>1792</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1701</v>
+        <v>1711</v>
       </c>
       <c r="F12" s="2">
         <v>18800</v>
@@ -61811,16 +62275,16 @@
         <v>9</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>1787</v>
+        <v>1797</v>
       </c>
       <c r="T12" s="2">
         <v>18800</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>1784</v>
+        <v>1794</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:23">
@@ -61831,7 +62295,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1788</v>
+        <v>1798</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
@@ -61855,16 +62319,16 @@
         <v>0</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>1789</v>
+        <v>1799</v>
       </c>
       <c r="T13" s="2">
         <v>70000</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>1790</v>
+        <v>1800</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
       <c r="W13" s="2">
         <v>7</v>
@@ -61878,7 +62342,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1788</v>
+        <v>1798</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>14</v>
@@ -61902,16 +62366,16 @@
         <v>0</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>1791</v>
+        <v>1801</v>
       </c>
       <c r="T14" s="2">
         <v>180000</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>1790</v>
+        <v>1800</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
       <c r="W14" s="2">
         <v>6</v>
@@ -61925,10 +62389,10 @@
         <v>21</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>1788</v>
+        <v>1798</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>1723</v>
+        <v>1733</v>
       </c>
       <c r="F15" s="2">
         <v>1500</v>
@@ -61949,16 +62413,16 @@
         <v>0</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>1792</v>
+        <v>1802</v>
       </c>
       <c r="T15" s="2">
         <v>1500</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>1790</v>
+        <v>1800</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
       <c r="W15" s="2">
         <v>3</v>
@@ -61972,10 +62436,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1793</v>
+        <v>1803</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>1723</v>
+        <v>1733</v>
       </c>
       <c r="F16" s="3">
         <v>200</v>
@@ -61991,13 +62455,13 @@
         <v>0</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>1794</v>
+        <v>1804</v>
       </c>
       <c r="T16" s="3">
         <v>200</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" spans="1:22">
@@ -62008,10 +62472,10 @@
         <v>23</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1793</v>
+        <v>1803</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>1723</v>
+        <v>1733</v>
       </c>
       <c r="F17" s="3">
         <v>2000</v>
@@ -62027,13 +62491,13 @@
         <v>0</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>1795</v>
+        <v>1805</v>
       </c>
       <c r="T17" s="3">
         <v>2000</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" spans="1:22">
@@ -62044,7 +62508,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1793</v>
+        <v>1803</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>14</v>
@@ -62063,13 +62527,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>1794</v>
+        <v>1804</v>
       </c>
       <c r="T18" s="3">
         <v>20000</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" spans="1:22">
@@ -62080,7 +62544,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1793</v>
+        <v>1803</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>14</v>
@@ -62099,13 +62563,13 @@
         <v>0</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>1795</v>
+        <v>1805</v>
       </c>
       <c r="T19" s="3">
         <v>200000</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" spans="1:22">
@@ -62116,7 +62580,7 @@
         <v>26</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>1796</v>
+        <v>1806</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>14</v>
@@ -62134,16 +62598,16 @@
         <v>0</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>1797</v>
+        <v>1807</v>
       </c>
       <c r="T20" s="4">
         <v>300000</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>1798</v>
+        <v>1808</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" spans="1:22">
@@ -62154,7 +62618,7 @@
         <v>27</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>1799</v>
+        <v>1809</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>14</v>
@@ -62172,16 +62636,16 @@
         <v>0</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>1800</v>
+        <v>1810</v>
       </c>
       <c r="T21" s="4">
         <v>300000</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>1801</v>
+        <v>1811</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/shoping_config_cjj.xlsx
+++ b/config_debug/shoping_config_cjj.xlsx
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5050" uniqueCount="1812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5134" uniqueCount="1832">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -5756,6 +5756,66 @@
   </si>
   <si>
     <t>"180万金币","10万小游戏币","水滴*5"</t>
+  </si>
+  <si>
+    <t>话费礼包</t>
+  </si>
+  <si>
+    <t>"60万金币","28话费碎片"</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_web_chip_huafei"</t>
+  </si>
+  <si>
+    <t>600000,28,</t>
+  </si>
+  <si>
+    <t>"100万金币","48话费碎片"</t>
+  </si>
+  <si>
+    <t>1000000,48,</t>
+  </si>
+  <si>
+    <t>"180万金币","98话费碎片"</t>
+  </si>
+  <si>
+    <t>1800000,98,</t>
+  </si>
+  <si>
+    <t>"180万金币","58话费碎片"</t>
+  </si>
+  <si>
+    <t>1800000,58,</t>
+  </si>
+  <si>
+    <t>"300万金币","98话费碎片"</t>
+  </si>
+  <si>
+    <t>3000000,98,</t>
+  </si>
+  <si>
+    <t>"480万金币","168话费碎片"</t>
+  </si>
+  <si>
+    <t>4800000,168,</t>
+  </si>
+  <si>
+    <t>"980万金币","338话费碎片"</t>
+  </si>
+  <si>
+    <t>9800000,338,</t>
+  </si>
+  <si>
+    <t>"1980万金币","688话费碎片"</t>
+  </si>
+  <si>
+    <t>19800000,688,</t>
+  </si>
+  <si>
+    <t>"4980万金币","1688话费碎片"</t>
+  </si>
+  <si>
+    <t>49800000,1688,</t>
   </si>
   <si>
     <t>id|不能重复</t>
@@ -6633,10 +6693,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -6671,22 +6731,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6699,14 +6758,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -6714,47 +6765,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6775,16 +6788,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -6800,15 +6821,54 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6900,7 +6960,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6912,7 +6972,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6930,7 +7002,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6942,7 +7020,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6954,7 +7032,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6966,13 +7044,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6984,73 +7104,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7091,6 +7151,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -7105,26 +7180,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7144,17 +7204,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7179,11 +7233,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7195,10 +7255,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7207,133 +7267,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -10043,14 +10103,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AIF634"/>
+  <dimension ref="A1:AIF646"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H604" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="AL622" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J636" sqref="J636:J637"/>
+      <selection pane="bottomRight" activeCell="AP646" sqref="AP646"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -58644,6 +58704,822 @@
         <v>1</v>
       </c>
     </row>
+    <row r="635" spans="1:39">
+      <c r="A635" s="21">
+        <v>634</v>
+      </c>
+      <c r="B635" s="29">
+        <v>10551</v>
+      </c>
+      <c r="F635" s="29">
+        <v>1</v>
+      </c>
+      <c r="G635" s="29" t="s">
+        <v>1615</v>
+      </c>
+      <c r="I635" s="28" t="s">
+        <v>1537</v>
+      </c>
+      <c r="J635" s="29" t="s">
+        <v>1616</v>
+      </c>
+      <c r="L635" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M635" s="28">
+        <v>0</v>
+      </c>
+      <c r="N635" s="28">
+        <v>0</v>
+      </c>
+      <c r="O635" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P635" s="29">
+        <v>600</v>
+      </c>
+      <c r="Q635" s="29" t="s">
+        <v>1617</v>
+      </c>
+      <c r="R635" s="51" t="s">
+        <v>1618</v>
+      </c>
+      <c r="W635" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="X635" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y635" s="29">
+        <v>1621900800</v>
+      </c>
+      <c r="Z635" s="29">
+        <v>1622476799</v>
+      </c>
+      <c r="AA635" s="29">
+        <v>80</v>
+      </c>
+      <c r="AH635" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI635" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL635" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM635" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636" spans="1:39">
+      <c r="A636" s="21">
+        <v>635</v>
+      </c>
+      <c r="B636" s="29">
+        <v>10552</v>
+      </c>
+      <c r="F636" s="29">
+        <v>1</v>
+      </c>
+      <c r="G636" s="29" t="s">
+        <v>1615</v>
+      </c>
+      <c r="I636" s="28" t="s">
+        <v>1537</v>
+      </c>
+      <c r="J636" s="29" t="s">
+        <v>1619</v>
+      </c>
+      <c r="L636" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M636" s="28">
+        <v>0</v>
+      </c>
+      <c r="N636" s="28">
+        <v>0</v>
+      </c>
+      <c r="O636" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P636" s="29">
+        <v>1000</v>
+      </c>
+      <c r="Q636" s="29" t="s">
+        <v>1617</v>
+      </c>
+      <c r="R636" s="51" t="s">
+        <v>1620</v>
+      </c>
+      <c r="W636" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="X636" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y636" s="29">
+        <v>1621900800</v>
+      </c>
+      <c r="Z636" s="29">
+        <v>1622476799</v>
+      </c>
+      <c r="AA636" s="29">
+        <v>80</v>
+      </c>
+      <c r="AH636" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI636" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL636" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM636" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637" spans="1:39">
+      <c r="A637" s="21">
+        <v>636</v>
+      </c>
+      <c r="B637" s="29">
+        <v>10553</v>
+      </c>
+      <c r="F637" s="29">
+        <v>1</v>
+      </c>
+      <c r="G637" s="29" t="s">
+        <v>1615</v>
+      </c>
+      <c r="I637" s="28" t="s">
+        <v>1537</v>
+      </c>
+      <c r="J637" s="29" t="s">
+        <v>1621</v>
+      </c>
+      <c r="L637" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M637" s="28">
+        <v>0</v>
+      </c>
+      <c r="N637" s="28">
+        <v>0</v>
+      </c>
+      <c r="O637" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P637" s="29">
+        <v>1800</v>
+      </c>
+      <c r="Q637" s="29" t="s">
+        <v>1617</v>
+      </c>
+      <c r="R637" s="51" t="s">
+        <v>1622</v>
+      </c>
+      <c r="W637" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="X637" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y637" s="29">
+        <v>1621900800</v>
+      </c>
+      <c r="Z637" s="29">
+        <v>1622476799</v>
+      </c>
+      <c r="AA637" s="29">
+        <v>80</v>
+      </c>
+      <c r="AH637" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI637" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL637" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM637" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638" spans="1:39">
+      <c r="A638" s="21">
+        <v>637</v>
+      </c>
+      <c r="B638" s="29">
+        <v>10554</v>
+      </c>
+      <c r="F638" s="29">
+        <v>1</v>
+      </c>
+      <c r="G638" s="29" t="s">
+        <v>1615</v>
+      </c>
+      <c r="I638" s="28" t="s">
+        <v>1544</v>
+      </c>
+      <c r="J638" s="29" t="s">
+        <v>1623</v>
+      </c>
+      <c r="L638" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M638" s="28">
+        <v>0</v>
+      </c>
+      <c r="N638" s="28">
+        <v>0</v>
+      </c>
+      <c r="O638" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P638" s="29">
+        <v>1800</v>
+      </c>
+      <c r="Q638" s="29" t="s">
+        <v>1617</v>
+      </c>
+      <c r="R638" s="51" t="s">
+        <v>1624</v>
+      </c>
+      <c r="W638" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="X638" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y638" s="29">
+        <v>1621900800</v>
+      </c>
+      <c r="Z638" s="29">
+        <v>1622476799</v>
+      </c>
+      <c r="AA638" s="29">
+        <v>81</v>
+      </c>
+      <c r="AH638" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI638" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL638" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM638" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639" spans="1:39">
+      <c r="A639" s="21">
+        <v>638</v>
+      </c>
+      <c r="B639" s="29">
+        <v>10555</v>
+      </c>
+      <c r="F639" s="29">
+        <v>1</v>
+      </c>
+      <c r="G639" s="29" t="s">
+        <v>1615</v>
+      </c>
+      <c r="I639" s="28" t="s">
+        <v>1544</v>
+      </c>
+      <c r="J639" s="29" t="s">
+        <v>1625</v>
+      </c>
+      <c r="L639" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M639" s="28">
+        <v>0</v>
+      </c>
+      <c r="N639" s="28">
+        <v>0</v>
+      </c>
+      <c r="O639" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P639" s="29">
+        <v>3000</v>
+      </c>
+      <c r="Q639" s="29" t="s">
+        <v>1617</v>
+      </c>
+      <c r="R639" s="51" t="s">
+        <v>1626</v>
+      </c>
+      <c r="W639" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="X639" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y639" s="29">
+        <v>1621900800</v>
+      </c>
+      <c r="Z639" s="29">
+        <v>1622476799</v>
+      </c>
+      <c r="AA639" s="29">
+        <v>81</v>
+      </c>
+      <c r="AH639" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI639" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL639" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM639" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="640" spans="1:39">
+      <c r="A640" s="21">
+        <v>639</v>
+      </c>
+      <c r="B640" s="29">
+        <v>10556</v>
+      </c>
+      <c r="F640" s="29">
+        <v>1</v>
+      </c>
+      <c r="G640" s="29" t="s">
+        <v>1615</v>
+      </c>
+      <c r="I640" s="28" t="s">
+        <v>1544</v>
+      </c>
+      <c r="J640" s="29" t="s">
+        <v>1627</v>
+      </c>
+      <c r="L640" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M640" s="28">
+        <v>0</v>
+      </c>
+      <c r="N640" s="28">
+        <v>0</v>
+      </c>
+      <c r="O640" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P640" s="29">
+        <v>4800</v>
+      </c>
+      <c r="Q640" s="29" t="s">
+        <v>1617</v>
+      </c>
+      <c r="R640" s="51" t="s">
+        <v>1628</v>
+      </c>
+      <c r="W640" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="X640" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y640" s="29">
+        <v>1621900800</v>
+      </c>
+      <c r="Z640" s="29">
+        <v>1622476799</v>
+      </c>
+      <c r="AA640" s="29">
+        <v>81</v>
+      </c>
+      <c r="AH640" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI640" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL640" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM640" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641" spans="1:39">
+      <c r="A641" s="21">
+        <v>640</v>
+      </c>
+      <c r="B641" s="29">
+        <v>10557</v>
+      </c>
+      <c r="F641" s="29">
+        <v>1</v>
+      </c>
+      <c r="G641" s="29" t="s">
+        <v>1615</v>
+      </c>
+      <c r="I641" s="28" t="s">
+        <v>1551</v>
+      </c>
+      <c r="J641" s="29" t="s">
+        <v>1627</v>
+      </c>
+      <c r="L641" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M641" s="28">
+        <v>0</v>
+      </c>
+      <c r="N641" s="28">
+        <v>0</v>
+      </c>
+      <c r="O641" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P641" s="29">
+        <v>4800</v>
+      </c>
+      <c r="Q641" s="29" t="s">
+        <v>1617</v>
+      </c>
+      <c r="R641" s="51" t="s">
+        <v>1628</v>
+      </c>
+      <c r="W641" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="X641" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y641" s="29">
+        <v>1621900800</v>
+      </c>
+      <c r="Z641" s="29">
+        <v>1622476799</v>
+      </c>
+      <c r="AA641" s="29">
+        <v>82</v>
+      </c>
+      <c r="AH641" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI641" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL641" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM641" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642" spans="1:39">
+      <c r="A642" s="21">
+        <v>641</v>
+      </c>
+      <c r="B642" s="29">
+        <v>10558</v>
+      </c>
+      <c r="F642" s="29">
+        <v>1</v>
+      </c>
+      <c r="G642" s="29" t="s">
+        <v>1615</v>
+      </c>
+      <c r="I642" s="28" t="s">
+        <v>1551</v>
+      </c>
+      <c r="J642" s="29" t="s">
+        <v>1629</v>
+      </c>
+      <c r="L642" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M642" s="28">
+        <v>0</v>
+      </c>
+      <c r="N642" s="28">
+        <v>0</v>
+      </c>
+      <c r="O642" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P642" s="29">
+        <v>9800</v>
+      </c>
+      <c r="Q642" s="29" t="s">
+        <v>1617</v>
+      </c>
+      <c r="R642" s="51" t="s">
+        <v>1630</v>
+      </c>
+      <c r="W642" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="X642" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y642" s="29">
+        <v>1621900800</v>
+      </c>
+      <c r="Z642" s="29">
+        <v>1622476799</v>
+      </c>
+      <c r="AA642" s="29">
+        <v>82</v>
+      </c>
+      <c r="AH642" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI642" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL642" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM642" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643" spans="1:39">
+      <c r="A643" s="21">
+        <v>642</v>
+      </c>
+      <c r="B643" s="29">
+        <v>10559</v>
+      </c>
+      <c r="F643" s="29">
+        <v>1</v>
+      </c>
+      <c r="G643" s="29" t="s">
+        <v>1615</v>
+      </c>
+      <c r="I643" s="28" t="s">
+        <v>1551</v>
+      </c>
+      <c r="J643" s="29" t="s">
+        <v>1631</v>
+      </c>
+      <c r="L643" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M643" s="28">
+        <v>0</v>
+      </c>
+      <c r="N643" s="28">
+        <v>0</v>
+      </c>
+      <c r="O643" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P643" s="29">
+        <v>19800</v>
+      </c>
+      <c r="Q643" s="29" t="s">
+        <v>1617</v>
+      </c>
+      <c r="R643" s="51" t="s">
+        <v>1632</v>
+      </c>
+      <c r="W643" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="X643" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y643" s="29">
+        <v>1621900800</v>
+      </c>
+      <c r="Z643" s="29">
+        <v>1622476799</v>
+      </c>
+      <c r="AA643" s="29">
+        <v>82</v>
+      </c>
+      <c r="AH643" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI643" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL643" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM643" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="644" spans="1:39">
+      <c r="A644" s="21">
+        <v>643</v>
+      </c>
+      <c r="B644" s="29">
+        <v>10560</v>
+      </c>
+      <c r="F644" s="29">
+        <v>1</v>
+      </c>
+      <c r="G644" s="29" t="s">
+        <v>1615</v>
+      </c>
+      <c r="I644" s="28" t="s">
+        <v>1440</v>
+      </c>
+      <c r="J644" s="29" t="s">
+        <v>1629</v>
+      </c>
+      <c r="L644" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M644" s="28">
+        <v>0</v>
+      </c>
+      <c r="N644" s="28">
+        <v>0</v>
+      </c>
+      <c r="O644" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P644" s="29">
+        <v>9800</v>
+      </c>
+      <c r="Q644" s="29" t="s">
+        <v>1617</v>
+      </c>
+      <c r="R644" s="51" t="s">
+        <v>1630</v>
+      </c>
+      <c r="W644" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="X644" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y644" s="29">
+        <v>1621900800</v>
+      </c>
+      <c r="Z644" s="29">
+        <v>1622476799</v>
+      </c>
+      <c r="AA644" s="29">
+        <v>83</v>
+      </c>
+      <c r="AH644" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI644" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL644" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM644" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645" spans="1:39">
+      <c r="A645" s="21">
+        <v>644</v>
+      </c>
+      <c r="B645" s="29">
+        <v>10561</v>
+      </c>
+      <c r="F645" s="29">
+        <v>1</v>
+      </c>
+      <c r="G645" s="29" t="s">
+        <v>1615</v>
+      </c>
+      <c r="I645" s="28" t="s">
+        <v>1440</v>
+      </c>
+      <c r="J645" s="29" t="s">
+        <v>1631</v>
+      </c>
+      <c r="L645" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M645" s="28">
+        <v>0</v>
+      </c>
+      <c r="N645" s="28">
+        <v>0</v>
+      </c>
+      <c r="O645" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P645" s="29">
+        <v>19800</v>
+      </c>
+      <c r="Q645" s="29" t="s">
+        <v>1617</v>
+      </c>
+      <c r="R645" s="51" t="s">
+        <v>1632</v>
+      </c>
+      <c r="W645" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="X645" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y645" s="29">
+        <v>1621900800</v>
+      </c>
+      <c r="Z645" s="29">
+        <v>1622476799</v>
+      </c>
+      <c r="AA645" s="29">
+        <v>83</v>
+      </c>
+      <c r="AH645" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI645" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL645" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM645" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646" spans="1:39">
+      <c r="A646" s="21">
+        <v>645</v>
+      </c>
+      <c r="B646" s="29">
+        <v>10562</v>
+      </c>
+      <c r="F646" s="29">
+        <v>1</v>
+      </c>
+      <c r="G646" s="29" t="s">
+        <v>1615</v>
+      </c>
+      <c r="I646" s="28" t="s">
+        <v>1440</v>
+      </c>
+      <c r="J646" s="29" t="s">
+        <v>1633</v>
+      </c>
+      <c r="L646" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M646" s="28">
+        <v>0</v>
+      </c>
+      <c r="N646" s="28">
+        <v>0</v>
+      </c>
+      <c r="O646" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P646" s="29">
+        <v>49800</v>
+      </c>
+      <c r="Q646" s="29" t="s">
+        <v>1617</v>
+      </c>
+      <c r="R646" s="51" t="s">
+        <v>1634</v>
+      </c>
+      <c r="W646" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="X646" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y646" s="29">
+        <v>1621900800</v>
+      </c>
+      <c r="Z646" s="29">
+        <v>1622476799</v>
+      </c>
+      <c r="AA646" s="29">
+        <v>83</v>
+      </c>
+      <c r="AH646" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI646" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL646" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM646" s="29">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -58670,19 +59546,19 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="58.5" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>1615</v>
+        <v>1635</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1616</v>
+        <v>1636</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1617</v>
+        <v>1637</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1618</v>
+        <v>1638</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1619</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="2" ht="57.75" customHeight="1" spans="1:5">
@@ -58690,7 +59566,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1620</v>
+        <v>1640</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -58699,7 +59575,7 @@
         <v>3600</v>
       </c>
       <c r="E2" t="s">
-        <v>1621</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="3" ht="78.75" customHeight="1" spans="1:4">
@@ -58707,7 +59583,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>1622</v>
+        <v>1642</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -58721,7 +59597,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>1623</v>
+        <v>1643</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -58735,7 +59611,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>1624</v>
+        <v>1644</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -58749,7 +59625,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>1625</v>
+        <v>1645</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -58763,7 +59639,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1626</v>
+        <v>1646</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -58777,7 +59653,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1627</v>
+        <v>1647</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -58791,7 +59667,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1628</v>
+        <v>1648</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -58805,7 +59681,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1629</v>
+        <v>1649</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -58819,7 +59695,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1630</v>
+        <v>1650</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -58833,7 +59709,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>1625</v>
+        <v>1645</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -58847,7 +59723,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>1626</v>
+        <v>1646</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -58861,7 +59737,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>1631</v>
+        <v>1651</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -58875,7 +59751,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>1632</v>
+        <v>1652</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -58889,7 +59765,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>1633</v>
+        <v>1653</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -58903,7 +59779,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>1634</v>
+        <v>1654</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -58917,7 +59793,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>1635</v>
+        <v>1655</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -58931,7 +59807,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>1636</v>
+        <v>1656</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -58945,7 +59821,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>1637</v>
+        <v>1657</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -58959,7 +59835,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>1638</v>
+        <v>1658</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -58973,7 +59849,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>1639</v>
+        <v>1659</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
@@ -58987,7 +59863,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>1640</v>
+        <v>1660</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
@@ -59001,7 +59877,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>1641</v>
+        <v>1661</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
@@ -59015,7 +59891,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>1642</v>
+        <v>1662</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
@@ -59029,7 +59905,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>1643</v>
+        <v>1663</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
@@ -59043,7 +59919,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>1644</v>
+        <v>1664</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -59058,7 +59934,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>1645</v>
+        <v>1665</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
@@ -59073,7 +59949,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>1646</v>
+        <v>1666</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -59088,7 +59964,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -59103,7 +59979,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1648</v>
+        <v>1668</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -59118,7 +59994,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -59133,7 +60009,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>1650</v>
+        <v>1670</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -59148,7 +60024,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>1651</v>
+        <v>1671</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -59163,7 +60039,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -59178,7 +60054,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>1653</v>
+        <v>1673</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -59193,7 +60069,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>1654</v>
+        <v>1674</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -59208,7 +60084,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>1655</v>
+        <v>1675</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -59223,7 +60099,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>1656</v>
+        <v>1676</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
@@ -59237,7 +60113,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1657</v>
+        <v>1677</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
@@ -59251,7 +60127,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>1658</v>
+        <v>1678</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -59265,7 +60141,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>1659</v>
+        <v>1679</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
@@ -59279,7 +60155,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>1660</v>
+        <v>1680</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
@@ -59293,7 +60169,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>1661</v>
+        <v>1681</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -59307,7 +60183,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>1662</v>
+        <v>1682</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
@@ -59321,7 +60197,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>1663</v>
+        <v>1683</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
@@ -59335,7 +60211,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>1664</v>
+        <v>1684</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
@@ -59349,7 +60225,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>1665</v>
+        <v>1685</v>
       </c>
       <c r="C48" s="2">
         <v>1</v>
@@ -59363,7 +60239,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>1666</v>
+        <v>1686</v>
       </c>
       <c r="C49" s="2">
         <v>1</v>
@@ -59377,7 +60253,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>1667</v>
+        <v>1687</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
@@ -59391,7 +60267,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>1668</v>
+        <v>1688</v>
       </c>
       <c r="C51" s="2">
         <v>1</v>
@@ -59405,7 +60281,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>1669</v>
+        <v>1689</v>
       </c>
       <c r="C52" s="2">
         <v>1</v>
@@ -59419,7 +60295,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>1670</v>
+        <v>1690</v>
       </c>
       <c r="C53" s="2">
         <v>1</v>
@@ -59433,7 +60309,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>1671</v>
+        <v>1691</v>
       </c>
       <c r="C54" s="2">
         <v>1</v>
@@ -59447,7 +60323,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>1672</v>
+        <v>1692</v>
       </c>
       <c r="C55" s="2">
         <v>1</v>
@@ -59461,7 +60337,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>1673</v>
+        <v>1693</v>
       </c>
       <c r="C56" s="2">
         <v>1</v>
@@ -59475,7 +60351,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>1674</v>
+        <v>1694</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
@@ -59489,7 +60365,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>1675</v>
+        <v>1695</v>
       </c>
       <c r="C58" s="2">
         <v>1</v>
@@ -59503,7 +60379,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>1676</v>
+        <v>1696</v>
       </c>
       <c r="C59" s="2">
         <v>1</v>
@@ -59517,7 +60393,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>1677</v>
+        <v>1697</v>
       </c>
       <c r="C60" s="2">
         <v>1</v>
@@ -59531,7 +60407,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>1678</v>
+        <v>1698</v>
       </c>
       <c r="C61" s="2">
         <v>1</v>
@@ -59545,7 +60421,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>1679</v>
+        <v>1699</v>
       </c>
       <c r="C62" s="2">
         <v>1</v>
@@ -59559,7 +60435,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>1680</v>
+        <v>1700</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
@@ -59573,7 +60449,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>1681</v>
+        <v>1701</v>
       </c>
       <c r="C64" s="2">
         <v>1</v>
@@ -59587,7 +60463,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>1682</v>
+        <v>1702</v>
       </c>
       <c r="C65" s="2">
         <v>1</v>
@@ -59601,7 +60477,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>1683</v>
+        <v>1703</v>
       </c>
       <c r="C66" s="2">
         <v>1</v>
@@ -59615,7 +60491,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>1684</v>
+        <v>1704</v>
       </c>
       <c r="C67" s="2">
         <v>1</v>
@@ -59629,7 +60505,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>1685</v>
+        <v>1705</v>
       </c>
       <c r="C68" s="2">
         <v>1</v>
@@ -59643,7 +60519,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>1686</v>
+        <v>1706</v>
       </c>
       <c r="C69" s="2">
         <v>1</v>
@@ -59657,7 +60533,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>1687</v>
+        <v>1707</v>
       </c>
       <c r="C70" s="2">
         <v>1</v>
@@ -59671,7 +60547,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>1688</v>
+        <v>1708</v>
       </c>
       <c r="C71" s="19">
         <v>1</v>
@@ -59685,7 +60561,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>1689</v>
+        <v>1709</v>
       </c>
       <c r="C72" s="19">
         <v>1</v>
@@ -59699,7 +60575,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>1690</v>
+        <v>1710</v>
       </c>
       <c r="C73" s="19">
         <v>1</v>
@@ -59713,7 +60589,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>1691</v>
+        <v>1711</v>
       </c>
       <c r="C74" s="19">
         <v>1</v>
@@ -59727,7 +60603,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>1692</v>
+        <v>1712</v>
       </c>
       <c r="C75" s="19">
         <v>1</v>
@@ -59741,7 +60617,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>1693</v>
+        <v>1713</v>
       </c>
       <c r="C76" s="19">
         <v>1</v>
@@ -59755,7 +60631,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>1694</v>
+        <v>1714</v>
       </c>
       <c r="C77" s="19">
         <v>1</v>
@@ -59769,7 +60645,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>1695</v>
+        <v>1715</v>
       </c>
       <c r="C78" s="19">
         <v>1</v>
@@ -59783,7 +60659,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="22" t="s">
-        <v>1696</v>
+        <v>1716</v>
       </c>
       <c r="C79" s="19">
         <v>1</v>
@@ -59797,7 +60673,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="22" t="s">
-        <v>1697</v>
+        <v>1717</v>
       </c>
       <c r="C80" s="19">
         <v>1</v>
@@ -59811,7 +60687,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>1698</v>
+        <v>1718</v>
       </c>
       <c r="C81" s="2">
         <v>1</v>
@@ -59825,7 +60701,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>1699</v>
+        <v>1719</v>
       </c>
       <c r="C82" s="2">
         <v>1</v>
@@ -59839,7 +60715,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>1700</v>
+        <v>1720</v>
       </c>
       <c r="C83" s="2">
         <v>1</v>
@@ -59853,7 +60729,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>1701</v>
+        <v>1721</v>
       </c>
       <c r="C84" s="2">
         <v>1</v>
@@ -59867,7 +60743,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>1702</v>
+        <v>1722</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -59921,7 +60797,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="90" customHeight="1" spans="1:30">
       <c r="A1" s="1" t="s">
-        <v>1703</v>
+        <v>1723</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
@@ -59936,19 +60812,19 @@
         <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1704</v>
+        <v>1724</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1705</v>
+        <v>1725</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1706</v>
+        <v>1726</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1707</v>
+        <v>1727</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1708</v>
+        <v>1728</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>32</v>
@@ -59963,7 +60839,7 @@
         <v>39</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1709</v>
+        <v>1729</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>40</v>
@@ -60008,7 +60884,7 @@
         <v>53</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>1710</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="2" s="12" customFormat="1" spans="1:27">
@@ -60031,7 +60907,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>1711</v>
+        <v>1731</v>
       </c>
       <c r="H2" s="12">
         <v>600</v>
@@ -60061,19 +60937,19 @@
         <v>131</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>1712</v>
+        <v>1732</v>
       </c>
       <c r="T2" s="17" t="s">
-        <v>1713</v>
+        <v>1733</v>
       </c>
       <c r="U2" s="12" t="s">
         <v>62</v>
       </c>
       <c r="V2" s="17" t="s">
-        <v>1714</v>
+        <v>1734</v>
       </c>
       <c r="W2" s="12" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
       <c r="Z2" s="12">
         <v>1</v>
@@ -60102,7 +60978,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>1711</v>
+        <v>1731</v>
       </c>
       <c r="H3" s="12">
         <v>1500</v>
@@ -60129,22 +61005,22 @@
         <v>4</v>
       </c>
       <c r="Q3" s="17" t="s">
-        <v>1716</v>
+        <v>1736</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>1717</v>
+        <v>1737</v>
       </c>
       <c r="T3" s="17" t="s">
-        <v>1713</v>
+        <v>1733</v>
       </c>
       <c r="U3" s="12" t="s">
         <v>67</v>
       </c>
       <c r="V3" s="17" t="s">
-        <v>1718</v>
+        <v>1738</v>
       </c>
       <c r="W3" s="12" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
       <c r="Z3" s="12">
         <v>1</v>
@@ -60173,7 +61049,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>1711</v>
+        <v>1731</v>
       </c>
       <c r="H4" s="12">
         <v>3000</v>
@@ -60200,22 +61076,22 @@
         <v>5</v>
       </c>
       <c r="Q4" s="17" t="s">
-        <v>1719</v>
+        <v>1739</v>
       </c>
       <c r="R4" s="17" t="s">
-        <v>1720</v>
+        <v>1740</v>
       </c>
       <c r="T4" s="17" t="s">
-        <v>1713</v>
+        <v>1733</v>
       </c>
       <c r="U4" s="12" t="s">
         <v>71</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>1721</v>
+        <v>1741</v>
       </c>
       <c r="W4" s="12" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
       <c r="Z4" s="12">
         <v>1</v>
@@ -60244,7 +61120,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>1711</v>
+        <v>1731</v>
       </c>
       <c r="H5" s="12">
         <v>5000</v>
@@ -60271,22 +61147,22 @@
         <v>6</v>
       </c>
       <c r="Q5" s="17" t="s">
-        <v>1722</v>
+        <v>1742</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>1723</v>
+        <v>1743</v>
       </c>
       <c r="T5" s="17" t="s">
-        <v>1713</v>
+        <v>1733</v>
       </c>
       <c r="U5" s="12" t="s">
         <v>75</v>
       </c>
       <c r="V5" s="17" t="s">
-        <v>1724</v>
+        <v>1744</v>
       </c>
       <c r="W5" s="12" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
       <c r="Z5" s="12">
         <v>1</v>
@@ -60315,7 +61191,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>1711</v>
+        <v>1731</v>
       </c>
       <c r="H6" s="12">
         <v>9800</v>
@@ -60342,22 +61218,22 @@
         <v>7</v>
       </c>
       <c r="Q6" s="17" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="R6" s="17" t="s">
-        <v>1726</v>
+        <v>1746</v>
       </c>
       <c r="T6" s="17" t="s">
-        <v>1713</v>
+        <v>1733</v>
       </c>
       <c r="U6" s="12" t="s">
         <v>79</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>1727</v>
+        <v>1747</v>
       </c>
       <c r="W6" s="12" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
       <c r="Z6" s="12">
         <v>1</v>
@@ -60386,7 +61262,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>1711</v>
+        <v>1731</v>
       </c>
       <c r="H7" s="12">
         <v>49800</v>
@@ -60413,22 +61289,22 @@
         <v>9</v>
       </c>
       <c r="Q7" s="17" t="s">
-        <v>1728</v>
+        <v>1748</v>
       </c>
       <c r="R7" s="17" t="s">
-        <v>1729</v>
+        <v>1749</v>
       </c>
       <c r="T7" s="17" t="s">
-        <v>1713</v>
+        <v>1733</v>
       </c>
       <c r="U7" s="12" t="s">
         <v>83</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>1730</v>
+        <v>1750</v>
       </c>
       <c r="W7" s="12" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
       <c r="Z7" s="12">
         <v>1</v>
@@ -60452,7 +61328,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>1711</v>
+        <v>1731</v>
       </c>
       <c r="H8" s="12">
         <v>100</v>
@@ -60479,22 +61355,22 @@
         <v>0</v>
       </c>
       <c r="Q8" s="17" t="s">
-        <v>1731</v>
+        <v>1751</v>
       </c>
       <c r="R8" s="17" t="s">
-        <v>1732</v>
+        <v>1752</v>
       </c>
       <c r="T8" s="17" t="s">
-        <v>1713</v>
+        <v>1733</v>
       </c>
       <c r="U8" s="12" t="s">
         <v>62</v>
       </c>
       <c r="V8" s="17" t="s">
-        <v>1714</v>
+        <v>1734</v>
       </c>
       <c r="W8" s="12" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
       <c r="Z8" s="12">
         <v>1</v>
@@ -60518,7 +61394,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>1733</v>
+        <v>1753</v>
       </c>
       <c r="H9" s="12">
         <v>5000</v>
@@ -60545,19 +61421,19 @@
         <v>2</v>
       </c>
       <c r="Q9" s="17" t="s">
-        <v>1722</v>
+        <v>1742</v>
       </c>
       <c r="R9" s="17" t="s">
-        <v>1723</v>
+        <v>1743</v>
       </c>
       <c r="U9" s="12">
         <v>5000</v>
       </c>
       <c r="V9" s="12" t="s">
-        <v>1724</v>
+        <v>1744</v>
       </c>
       <c r="W9" s="12" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
       <c r="Z9" s="12">
         <v>1</v>
@@ -60566,7 +61442,7 @@
         <v>1</v>
       </c>
       <c r="AD9" s="17" t="s">
-        <v>1734</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="10" s="12" customFormat="1" spans="1:30">
@@ -60584,7 +61460,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>1733</v>
+        <v>1753</v>
       </c>
       <c r="H10" s="12">
         <v>1000</v>
@@ -60614,16 +61490,16 @@
         <v>133</v>
       </c>
       <c r="R10" s="17" t="s">
-        <v>1735</v>
+        <v>1755</v>
       </c>
       <c r="U10" s="12">
         <v>1000</v>
       </c>
       <c r="V10" s="12" t="s">
-        <v>1718</v>
+        <v>1738</v>
       </c>
       <c r="W10" s="12" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
       <c r="Z10" s="12">
         <v>1</v>
@@ -60632,7 +61508,7 @@
         <v>1</v>
       </c>
       <c r="AD10" s="17" t="s">
-        <v>1736</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="11" s="12" customFormat="1" spans="1:27">
@@ -60650,7 +61526,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>1711</v>
+        <v>1731</v>
       </c>
       <c r="H11" s="12">
         <v>1500</v>
@@ -60677,22 +61553,22 @@
         <v>0</v>
       </c>
       <c r="Q11" s="17" t="s">
-        <v>1716</v>
+        <v>1736</v>
       </c>
       <c r="R11" s="17" t="s">
-        <v>1717</v>
+        <v>1737</v>
       </c>
       <c r="T11" s="17" t="s">
-        <v>1713</v>
+        <v>1733</v>
       </c>
       <c r="U11" s="17" t="s">
         <v>67</v>
       </c>
       <c r="V11" s="12" t="s">
-        <v>1718</v>
+        <v>1738</v>
       </c>
       <c r="W11" s="12" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
       <c r="Z11" s="12">
         <v>1</v>
@@ -60721,7 +61597,7 @@
         <v>107</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>1711</v>
+        <v>1731</v>
       </c>
       <c r="H12" s="12">
         <v>100000</v>
@@ -60748,22 +61624,22 @@
         <v>9</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>1737</v>
+        <v>1757</v>
       </c>
       <c r="R12" s="17" t="s">
-        <v>1738</v>
+        <v>1758</v>
       </c>
       <c r="T12" s="17" t="s">
-        <v>1713</v>
+        <v>1733</v>
       </c>
       <c r="U12" s="12" t="s">
         <v>87</v>
       </c>
       <c r="V12" s="12" t="s">
-        <v>1739</v>
+        <v>1759</v>
       </c>
       <c r="W12" s="12" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
       <c r="Z12" s="12">
         <v>1</v>
@@ -60792,7 +61668,7 @@
         <v>108</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>1711</v>
+        <v>1731</v>
       </c>
       <c r="H13" s="12">
         <v>99800</v>
@@ -60819,22 +61695,22 @@
         <v>10</v>
       </c>
       <c r="Q13" s="17" t="s">
-        <v>1740</v>
+        <v>1760</v>
       </c>
       <c r="R13" s="17" t="s">
-        <v>1741</v>
+        <v>1761</v>
       </c>
       <c r="T13" s="17" t="s">
-        <v>1713</v>
+        <v>1733</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>1742</v>
+        <v>1762</v>
       </c>
       <c r="V13" s="12" t="s">
-        <v>1739</v>
+        <v>1759</v>
       </c>
       <c r="W13" s="12" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
       <c r="Z13" s="12">
         <v>1</v>
@@ -60863,7 +61739,7 @@
         <v>110</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>1711</v>
+        <v>1731</v>
       </c>
       <c r="H14" s="12">
         <v>249800</v>
@@ -60890,22 +61766,22 @@
         <v>11</v>
       </c>
       <c r="Q14" s="17" t="s">
-        <v>1743</v>
+        <v>1763</v>
       </c>
       <c r="R14" s="17" t="s">
-        <v>1744</v>
+        <v>1764</v>
       </c>
       <c r="T14" s="17" t="s">
-        <v>1745</v>
+        <v>1765</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>1746</v>
+        <v>1766</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>1747</v>
+        <v>1767</v>
       </c>
       <c r="W14" s="12" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
       <c r="Z14" s="12">
         <v>1</v>
@@ -60929,7 +61805,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>1733</v>
+        <v>1753</v>
       </c>
       <c r="H15" s="12">
         <v>100</v>
@@ -60959,20 +61835,20 @@
         <v>0</v>
       </c>
       <c r="Q15" s="17" t="s">
-        <v>1731</v>
+        <v>1751</v>
       </c>
       <c r="R15" s="17" t="s">
-        <v>1732</v>
+        <v>1752</v>
       </c>
       <c r="T15" s="17"/>
       <c r="U15" s="12">
         <v>100</v>
       </c>
       <c r="V15" s="17" t="s">
-        <v>1714</v>
+        <v>1734</v>
       </c>
       <c r="W15" s="12" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
       <c r="Z15" s="12">
         <v>1</v>
@@ -60981,7 +61857,7 @@
         <v>1</v>
       </c>
       <c r="AD15" s="17" t="s">
-        <v>1748</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="16" s="12" customFormat="1" spans="1:27">
@@ -61004,7 +61880,7 @@
         <v>101</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>1711</v>
+        <v>1731</v>
       </c>
       <c r="H16" s="12">
         <v>400</v>
@@ -61031,22 +61907,22 @@
         <v>3</v>
       </c>
       <c r="Q16" s="17" t="s">
-        <v>1749</v>
+        <v>1769</v>
       </c>
       <c r="R16" s="17" t="s">
-        <v>1750</v>
+        <v>1770</v>
       </c>
       <c r="T16" s="17" t="s">
-        <v>1713</v>
+        <v>1733</v>
       </c>
       <c r="U16" s="12" t="s">
         <v>101</v>
       </c>
       <c r="V16" s="17" t="s">
-        <v>1714</v>
+        <v>1734</v>
       </c>
       <c r="W16" s="12" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
       <c r="Z16" s="12">
         <v>1</v>
@@ -61070,7 +61946,7 @@
         <v>102</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>1711</v>
+        <v>1731</v>
       </c>
       <c r="H17" s="12">
         <v>2000</v>
@@ -61097,22 +61973,22 @@
         <v>4</v>
       </c>
       <c r="Q17" s="17" t="s">
-        <v>1751</v>
+        <v>1771</v>
       </c>
       <c r="R17" s="17" t="s">
-        <v>1752</v>
+        <v>1772</v>
       </c>
       <c r="T17" s="17" t="s">
-        <v>1713</v>
+        <v>1733</v>
       </c>
       <c r="U17" s="12" t="s">
         <v>105</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>1721</v>
+        <v>1741</v>
       </c>
       <c r="W17" s="12" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
       <c r="Z17" s="12">
         <v>1</v>
@@ -61136,7 +62012,7 @@
         <v>103</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>1711</v>
+        <v>1731</v>
       </c>
       <c r="H18" s="12">
         <v>6700</v>
@@ -61163,22 +62039,22 @@
         <v>5</v>
       </c>
       <c r="Q18" s="17" t="s">
-        <v>1753</v>
+        <v>1773</v>
       </c>
       <c r="R18" s="17" t="s">
-        <v>1754</v>
+        <v>1774</v>
       </c>
       <c r="T18" s="17" t="s">
-        <v>1713</v>
+        <v>1733</v>
       </c>
       <c r="U18" s="12" t="s">
         <v>109</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>1727</v>
+        <v>1747</v>
       </c>
       <c r="W18" s="12" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
       <c r="Z18" s="12">
         <v>1</v>
@@ -61202,7 +62078,7 @@
         <v>104</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>1711</v>
+        <v>1731</v>
       </c>
       <c r="H19" s="12">
         <v>13200</v>
@@ -61229,22 +62105,22 @@
         <v>6</v>
       </c>
       <c r="Q19" s="17" t="s">
-        <v>1755</v>
+        <v>1775</v>
       </c>
       <c r="R19" s="17" t="s">
-        <v>1756</v>
+        <v>1776</v>
       </c>
       <c r="T19" s="17" t="s">
-        <v>1713</v>
+        <v>1733</v>
       </c>
       <c r="U19" s="12" t="s">
         <v>114</v>
       </c>
       <c r="V19" s="17" t="s">
-        <v>1757</v>
+        <v>1777</v>
       </c>
       <c r="W19" s="12" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
       <c r="Z19" s="12">
         <v>1</v>
@@ -61268,7 +62144,7 @@
         <v>105</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>1711</v>
+        <v>1731</v>
       </c>
       <c r="H20" s="12">
         <v>20400</v>
@@ -61295,22 +62171,22 @@
         <v>7</v>
       </c>
       <c r="Q20" s="17" t="s">
-        <v>1758</v>
+        <v>1778</v>
       </c>
       <c r="R20" s="17" t="s">
-        <v>1759</v>
+        <v>1779</v>
       </c>
       <c r="T20" s="17" t="s">
-        <v>1713</v>
+        <v>1733</v>
       </c>
       <c r="U20" s="12" t="s">
         <v>120</v>
       </c>
       <c r="V20" s="12" t="s">
-        <v>1757</v>
+        <v>1777</v>
       </c>
       <c r="W20" s="12" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
       <c r="Z20" s="12">
         <v>1</v>
@@ -61334,7 +62210,7 @@
         <v>101</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>1711</v>
+        <v>1731</v>
       </c>
       <c r="H21" s="13">
         <v>100</v>
@@ -61361,22 +62237,22 @@
         <v>0</v>
       </c>
       <c r="Q21" s="18" t="s">
-        <v>1731</v>
+        <v>1751</v>
       </c>
       <c r="R21" s="18" t="s">
-        <v>1732</v>
+        <v>1752</v>
       </c>
       <c r="T21" s="18" t="s">
-        <v>1713</v>
+        <v>1733</v>
       </c>
       <c r="U21" s="13" t="s">
         <v>124</v>
       </c>
       <c r="V21" s="18" t="s">
-        <v>1714</v>
+        <v>1734</v>
       </c>
       <c r="W21" s="13" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
       <c r="Z21" s="13">
         <v>1</v>
@@ -61400,7 +62276,7 @@
         <v>104</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>1733</v>
+        <v>1753</v>
       </c>
       <c r="H22" s="12">
         <v>5000</v>
@@ -61427,20 +62303,20 @@
         <v>2</v>
       </c>
       <c r="Q22" s="17" t="s">
-        <v>1722</v>
+        <v>1742</v>
       </c>
       <c r="R22" s="17" t="s">
-        <v>1723</v>
+        <v>1743</v>
       </c>
       <c r="T22" s="17"/>
       <c r="U22" s="12">
         <v>5000</v>
       </c>
       <c r="V22" s="17" t="s">
-        <v>1724</v>
+        <v>1744</v>
       </c>
       <c r="W22" s="12" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
       <c r="Z22" s="12">
         <v>1</v>
@@ -61464,7 +62340,7 @@
         <v>102</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>1733</v>
+        <v>1753</v>
       </c>
       <c r="H23" s="12">
         <v>1000</v>
@@ -61494,17 +62370,17 @@
         <v>133</v>
       </c>
       <c r="R23" s="17" t="s">
-        <v>1735</v>
+        <v>1755</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="12">
         <v>1000</v>
       </c>
       <c r="V23" s="17" t="s">
-        <v>1714</v>
+        <v>1734</v>
       </c>
       <c r="W23" s="12" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
       <c r="Z23" s="12">
         <v>1</v>
@@ -61521,14 +62397,14 @@
         <v>109</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>1760</v>
+        <v>1780</v>
       </c>
       <c r="D24" s="15"/>
       <c r="F24" s="12">
         <v>101</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>1733</v>
+        <v>1753</v>
       </c>
       <c r="H24" s="12">
         <v>100</v>
@@ -61558,20 +62434,20 @@
         <v>0</v>
       </c>
       <c r="Q24" s="17" t="s">
-        <v>1731</v>
+        <v>1751</v>
       </c>
       <c r="R24" s="17" t="s">
-        <v>1732</v>
+        <v>1752</v>
       </c>
       <c r="T24" s="17"/>
       <c r="U24" s="12">
         <v>100</v>
       </c>
       <c r="V24" s="17" t="s">
-        <v>1714</v>
+        <v>1734</v>
       </c>
       <c r="W24" s="12" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
       <c r="Z24" s="12">
         <v>1</v>
@@ -61580,7 +62456,7 @@
         <v>1</v>
       </c>
       <c r="AD24" s="17" t="s">
-        <v>1748</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="25" s="12" customFormat="1" spans="1:27">
@@ -61603,7 +62479,7 @@
         <v>111</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>1711</v>
+        <v>1731</v>
       </c>
       <c r="H25" s="12">
         <v>19800</v>
@@ -61630,22 +62506,22 @@
         <v>8</v>
       </c>
       <c r="Q25" s="17" t="s">
-        <v>1761</v>
+        <v>1781</v>
       </c>
       <c r="R25" s="17" t="s">
-        <v>1762</v>
+        <v>1782</v>
       </c>
       <c r="T25" s="17" t="s">
-        <v>1713</v>
+        <v>1733</v>
       </c>
       <c r="U25" s="17" t="s">
         <v>143</v>
       </c>
       <c r="V25" s="17" t="s">
-        <v>1757</v>
+        <v>1777</v>
       </c>
       <c r="W25" s="12" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
       <c r="Z25" s="12">
         <v>1</v>
@@ -61715,13 +62591,13 @@
         <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1705</v>
+        <v>1725</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1706</v>
+        <v>1726</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1763</v>
+        <v>1783</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>32</v>
@@ -61733,16 +62609,16 @@
         <v>154</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1764</v>
+        <v>1784</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1765</v>
+        <v>1785</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1766</v>
+        <v>1786</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1767</v>
+        <v>1787</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>39</v>
@@ -61783,7 +62659,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1768</v>
+        <v>1788</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -61795,7 +62671,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1769</v>
+        <v>1789</v>
       </c>
       <c r="L2" s="2">
         <v>54</v>
@@ -61804,7 +62680,7 @@
         <v>999999</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1770</v>
+        <v>1790</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
@@ -61813,22 +62689,22 @@
         <v>1</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>1771</v>
+        <v>1791</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>1772</v>
+        <v>1792</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>1773</v>
+        <v>1793</v>
       </c>
       <c r="T2" s="2">
         <v>60000</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>1774</v>
+        <v>1794</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:23">
@@ -61839,7 +62715,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1768</v>
+        <v>1788</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -61851,7 +62727,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1769</v>
+        <v>1789</v>
       </c>
       <c r="L3" s="2">
         <v>54</v>
@@ -61860,7 +62736,7 @@
         <v>999999</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1775</v>
+        <v>1795</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -61869,22 +62745,22 @@
         <v>2</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>1771</v>
+        <v>1791</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>1776</v>
+        <v>1796</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>1773</v>
+        <v>1793</v>
       </c>
       <c r="T3" s="2">
         <v>500000</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>1774</v>
+        <v>1794</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
       <c r="W3" s="2">
         <v>8.3</v>
@@ -61898,7 +62774,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1777</v>
+        <v>1797</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -61923,19 +62799,19 @@
         <v>4</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>1778</v>
+        <v>1798</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>1779</v>
+        <v>1799</v>
       </c>
       <c r="T4" s="2">
         <v>15000</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>1780</v>
+        <v>1800</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:22">
@@ -61946,7 +62822,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1781</v>
+        <v>1801</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -61973,10 +62849,10 @@
         <v>100000</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>1782</v>
+        <v>1802</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:22">
@@ -61987,7 +62863,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1783</v>
+        <v>1803</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
@@ -62014,10 +62890,10 @@
         <v>100000</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>1782</v>
+        <v>1802</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:23">
@@ -62028,7 +62904,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1768</v>
+        <v>1788</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
@@ -62040,7 +62916,7 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>1784</v>
+        <v>1804</v>
       </c>
       <c r="L7" s="2">
         <v>56</v>
@@ -62049,7 +62925,7 @@
         <v>999999</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>1775</v>
+        <v>1795</v>
       </c>
       <c r="O7" s="6">
         <v>0</v>
@@ -62058,22 +62934,22 @@
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>1785</v>
+        <v>1805</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>1776</v>
+        <v>1796</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>1773</v>
+        <v>1793</v>
       </c>
       <c r="T7" s="2">
         <v>500000</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>1786</v>
+        <v>1806</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
       <c r="W7" s="2">
         <v>8.3</v>
@@ -62087,10 +62963,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1787</v>
+        <v>1807</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1711</v>
+        <v>1731</v>
       </c>
       <c r="F8" s="2">
         <v>100</v>
@@ -62102,7 +62978,7 @@
         <v>125</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>1788</v>
+        <v>1808</v>
       </c>
       <c r="L8" s="2">
         <v>57</v>
@@ -62117,22 +62993,22 @@
         <v>5</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>1789</v>
+        <v>1809</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>1790</v>
+        <v>1810</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>1773</v>
+        <v>1793</v>
       </c>
       <c r="T8" s="2">
         <v>100</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>1791</v>
+        <v>1811</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:22">
@@ -62143,10 +63019,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1792</v>
+        <v>1812</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1711</v>
+        <v>1731</v>
       </c>
       <c r="F9" s="2">
         <v>1000</v>
@@ -62161,16 +63037,16 @@
         <v>6</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>1793</v>
+        <v>1813</v>
       </c>
       <c r="T9" s="2">
         <v>1000</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>1794</v>
+        <v>1814</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:22">
@@ -62181,10 +63057,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1792</v>
+        <v>1812</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1711</v>
+        <v>1731</v>
       </c>
       <c r="F10" s="2">
         <v>5800</v>
@@ -62199,16 +63075,16 @@
         <v>7</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>1795</v>
+        <v>1815</v>
       </c>
       <c r="T10" s="2">
         <v>5800</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>1794</v>
+        <v>1814</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:22">
@@ -62219,10 +63095,10 @@
         <v>17</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1792</v>
+        <v>1812</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1711</v>
+        <v>1731</v>
       </c>
       <c r="F11" s="2">
         <v>8800</v>
@@ -62237,16 +63113,16 @@
         <v>8</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>1796</v>
+        <v>1816</v>
       </c>
       <c r="T11" s="2">
         <v>8800</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>1794</v>
+        <v>1814</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:22">
@@ -62257,10 +63133,10 @@
         <v>18</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1792</v>
+        <v>1812</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1711</v>
+        <v>1731</v>
       </c>
       <c r="F12" s="2">
         <v>18800</v>
@@ -62275,16 +63151,16 @@
         <v>9</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>1797</v>
+        <v>1817</v>
       </c>
       <c r="T12" s="2">
         <v>18800</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>1794</v>
+        <v>1814</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:23">
@@ -62295,7 +63171,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1798</v>
+        <v>1818</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
@@ -62319,16 +63195,16 @@
         <v>0</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>1799</v>
+        <v>1819</v>
       </c>
       <c r="T13" s="2">
         <v>70000</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>1800</v>
+        <v>1820</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
       <c r="W13" s="2">
         <v>7</v>
@@ -62342,7 +63218,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1798</v>
+        <v>1818</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>14</v>
@@ -62366,16 +63242,16 @@
         <v>0</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>1801</v>
+        <v>1821</v>
       </c>
       <c r="T14" s="2">
         <v>180000</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>1800</v>
+        <v>1820</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
       <c r="W14" s="2">
         <v>6</v>
@@ -62389,10 +63265,10 @@
         <v>21</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>1798</v>
+        <v>1818</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>1733</v>
+        <v>1753</v>
       </c>
       <c r="F15" s="2">
         <v>1500</v>
@@ -62413,16 +63289,16 @@
         <v>0</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>1802</v>
+        <v>1822</v>
       </c>
       <c r="T15" s="2">
         <v>1500</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>1800</v>
+        <v>1820</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
       <c r="W15" s="2">
         <v>3</v>
@@ -62436,10 +63312,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1803</v>
+        <v>1823</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>1733</v>
+        <v>1753</v>
       </c>
       <c r="F16" s="3">
         <v>200</v>
@@ -62455,13 +63331,13 @@
         <v>0</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>1804</v>
+        <v>1824</v>
       </c>
       <c r="T16" s="3">
         <v>200</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" spans="1:22">
@@ -62472,10 +63348,10 @@
         <v>23</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1803</v>
+        <v>1823</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>1733</v>
+        <v>1753</v>
       </c>
       <c r="F17" s="3">
         <v>2000</v>
@@ -62491,13 +63367,13 @@
         <v>0</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>1805</v>
+        <v>1825</v>
       </c>
       <c r="T17" s="3">
         <v>2000</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" spans="1:22">
@@ -62508,7 +63384,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1803</v>
+        <v>1823</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>14</v>
@@ -62527,13 +63403,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>1804</v>
+        <v>1824</v>
       </c>
       <c r="T18" s="3">
         <v>20000</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" spans="1:22">
@@ -62544,7 +63420,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1803</v>
+        <v>1823</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>14</v>
@@ -62563,13 +63439,13 @@
         <v>0</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>1805</v>
+        <v>1825</v>
       </c>
       <c r="T19" s="3">
         <v>200000</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" spans="1:22">
@@ -62580,7 +63456,7 @@
         <v>26</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>1806</v>
+        <v>1826</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>14</v>
@@ -62598,16 +63474,16 @@
         <v>0</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>1807</v>
+        <v>1827</v>
       </c>
       <c r="T20" s="4">
         <v>300000</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>1808</v>
+        <v>1828</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" spans="1:22">
@@ -62618,7 +63494,7 @@
         <v>27</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>1809</v>
+        <v>1829</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>14</v>
@@ -62636,16 +63512,16 @@
         <v>0</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>1810</v>
+        <v>1830</v>
       </c>
       <c r="T21" s="4">
         <v>300000</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>1811</v>
+        <v>1831</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/shoping_config_cjj.xlsx
+++ b/config_debug/shoping_config_cjj.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5182" uniqueCount="1840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5224" uniqueCount="1840">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6717,9 +6717,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -6754,29 +6754,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -6784,23 +6761,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6814,15 +6776,46 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6838,17 +6831,16 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6868,13 +6860,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -6883,16 +6869,30 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6984,7 +6984,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6996,19 +7068,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7020,19 +7080,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7044,97 +7122,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7174,6 +7174,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -7185,6 +7205,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7207,67 +7266,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7279,10 +7279,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7291,133 +7291,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -10133,14 +10133,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AIF654"/>
+  <dimension ref="A1:AIF661"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="AL625" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="AL634" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AP649" sqref="AP649"/>
+      <selection pane="bottomRight" activeCell="G655" sqref="G655"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -48331,8 +48331,8 @@
       <c r="B599" s="28">
         <v>10515</v>
       </c>
-      <c r="F599" s="28">
-        <v>1</v>
+      <c r="F599" s="21">
+        <v>0</v>
       </c>
       <c r="G599" s="28" t="s">
         <v>1385</v>
@@ -48399,8 +48399,8 @@
       <c r="B600" s="28">
         <v>10516</v>
       </c>
-      <c r="F600" s="28">
-        <v>1</v>
+      <c r="F600" s="21">
+        <v>0</v>
       </c>
       <c r="G600" s="28" t="s">
         <v>1385</v>
@@ -48467,8 +48467,8 @@
       <c r="B601" s="28">
         <v>10517</v>
       </c>
-      <c r="F601" s="28">
-        <v>1</v>
+      <c r="F601" s="21">
+        <v>0</v>
       </c>
       <c r="G601" s="28" t="s">
         <v>1385</v>
@@ -48535,8 +48535,8 @@
       <c r="B602" s="28">
         <v>10518</v>
       </c>
-      <c r="F602" s="28">
-        <v>1</v>
+      <c r="F602" s="21">
+        <v>0</v>
       </c>
       <c r="G602" s="28" t="s">
         <v>1385</v>
@@ -48603,8 +48603,8 @@
       <c r="B603" s="28">
         <v>10519</v>
       </c>
-      <c r="F603" s="28">
-        <v>1</v>
+      <c r="F603" s="21">
+        <v>0</v>
       </c>
       <c r="G603" s="28" t="s">
         <v>1385</v>
@@ -48671,8 +48671,8 @@
       <c r="B604" s="28">
         <v>10520</v>
       </c>
-      <c r="F604" s="28">
-        <v>1</v>
+      <c r="F604" s="21">
+        <v>0</v>
       </c>
       <c r="G604" s="28" t="s">
         <v>1385</v>
@@ -48739,8 +48739,8 @@
       <c r="B605" s="28">
         <v>10521</v>
       </c>
-      <c r="F605" s="28">
-        <v>1</v>
+      <c r="F605" s="21">
+        <v>0</v>
       </c>
       <c r="G605" s="28" t="s">
         <v>1385</v>
@@ -48807,8 +48807,8 @@
       <c r="B606" s="28">
         <v>10522</v>
       </c>
-      <c r="F606" s="28">
-        <v>1</v>
+      <c r="F606" s="21">
+        <v>0</v>
       </c>
       <c r="G606" s="28" t="s">
         <v>1385</v>
@@ -48875,8 +48875,8 @@
       <c r="B607" s="28">
         <v>10523</v>
       </c>
-      <c r="F607" s="28">
-        <v>1</v>
+      <c r="F607" s="21">
+        <v>0</v>
       </c>
       <c r="G607" s="28" t="s">
         <v>1385</v>
@@ -48943,8 +48943,8 @@
       <c r="B608" s="28">
         <v>10524</v>
       </c>
-      <c r="F608" s="28">
-        <v>1</v>
+      <c r="F608" s="21">
+        <v>0</v>
       </c>
       <c r="G608" s="28" t="s">
         <v>1385</v>
@@ -49011,8 +49011,8 @@
       <c r="B609" s="28">
         <v>10525</v>
       </c>
-      <c r="F609" s="28">
-        <v>1</v>
+      <c r="F609" s="21">
+        <v>0</v>
       </c>
       <c r="G609" s="28" t="s">
         <v>1385</v>
@@ -49079,8 +49079,8 @@
       <c r="B610" s="28">
         <v>10526</v>
       </c>
-      <c r="F610" s="28">
-        <v>1</v>
+      <c r="F610" s="21">
+        <v>0</v>
       </c>
       <c r="G610" s="28" t="s">
         <v>1385</v>
@@ -49147,8 +49147,8 @@
       <c r="B611" s="30">
         <v>10527</v>
       </c>
-      <c r="F611" s="30">
-        <v>1</v>
+      <c r="F611" s="21">
+        <v>0</v>
       </c>
       <c r="G611" s="30" t="s">
         <v>1570</v>
@@ -49209,8 +49209,8 @@
       <c r="B612" s="30">
         <v>10528</v>
       </c>
-      <c r="F612" s="30">
-        <v>1</v>
+      <c r="F612" s="21">
+        <v>0</v>
       </c>
       <c r="G612" s="30" t="s">
         <v>1570</v>
@@ -49271,8 +49271,8 @@
       <c r="B613" s="30">
         <v>10529</v>
       </c>
-      <c r="F613" s="30">
-        <v>1</v>
+      <c r="F613" s="21">
+        <v>0</v>
       </c>
       <c r="G613" s="30" t="s">
         <v>1570</v>
@@ -49333,8 +49333,8 @@
       <c r="B614" s="30">
         <v>10530</v>
       </c>
-      <c r="F614" s="30">
-        <v>1</v>
+      <c r="F614" s="21">
+        <v>0</v>
       </c>
       <c r="G614" s="30" t="s">
         <v>1570</v>
@@ -49395,8 +49395,8 @@
       <c r="B615" s="30">
         <v>10531</v>
       </c>
-      <c r="F615" s="30">
-        <v>1</v>
+      <c r="F615" s="21">
+        <v>0</v>
       </c>
       <c r="G615" s="30" t="s">
         <v>1570</v>
@@ -49457,8 +49457,8 @@
       <c r="B616" s="30">
         <v>10532</v>
       </c>
-      <c r="F616" s="30">
-        <v>1</v>
+      <c r="F616" s="21">
+        <v>0</v>
       </c>
       <c r="G616" s="30" t="s">
         <v>1570</v>
@@ -49519,8 +49519,8 @@
       <c r="B617" s="30">
         <v>10533</v>
       </c>
-      <c r="F617" s="30">
-        <v>1</v>
+      <c r="F617" s="21">
+        <v>0</v>
       </c>
       <c r="G617" s="30" t="s">
         <v>1584</v>
@@ -49584,8 +49584,8 @@
       <c r="B618" s="30">
         <v>10534</v>
       </c>
-      <c r="F618" s="30">
-        <v>1</v>
+      <c r="F618" s="21">
+        <v>0</v>
       </c>
       <c r="G618" s="30" t="s">
         <v>1584</v>
@@ -49652,8 +49652,8 @@
       <c r="C619"/>
       <c r="D619"/>
       <c r="E619"/>
-      <c r="F619" s="30">
-        <v>1</v>
+      <c r="F619" s="21">
+        <v>0</v>
       </c>
       <c r="G619" s="30" t="s">
         <v>1585</v>
@@ -50614,8 +50614,8 @@
       <c r="C620"/>
       <c r="D620"/>
       <c r="E620"/>
-      <c r="F620" s="30">
-        <v>1</v>
+      <c r="F620" s="21">
+        <v>0</v>
       </c>
       <c r="G620" s="30" t="s">
         <v>1585</v>
@@ -51576,8 +51576,8 @@
       <c r="C621"/>
       <c r="D621"/>
       <c r="E621"/>
-      <c r="F621" s="30">
-        <v>1</v>
+      <c r="F621" s="21">
+        <v>0</v>
       </c>
       <c r="G621" s="30" t="s">
         <v>1585</v>
@@ -52538,8 +52538,8 @@
       <c r="C622"/>
       <c r="D622"/>
       <c r="E622"/>
-      <c r="F622" s="30">
-        <v>1</v>
+      <c r="F622" s="21">
+        <v>0</v>
       </c>
       <c r="G622" s="30" t="s">
         <v>1585</v>
@@ -53500,8 +53500,8 @@
       <c r="C623"/>
       <c r="D623"/>
       <c r="E623"/>
-      <c r="F623" s="30">
-        <v>1</v>
+      <c r="F623" s="21">
+        <v>0</v>
       </c>
       <c r="G623" s="30" t="s">
         <v>1585</v>
@@ -54462,8 +54462,8 @@
       <c r="C624"/>
       <c r="D624"/>
       <c r="E624"/>
-      <c r="F624" s="30">
-        <v>1</v>
+      <c r="F624" s="21">
+        <v>0</v>
       </c>
       <c r="G624" s="30" t="s">
         <v>1585</v>
@@ -55424,8 +55424,8 @@
       <c r="C625"/>
       <c r="D625"/>
       <c r="E625"/>
-      <c r="F625" s="30">
-        <v>1</v>
+      <c r="F625" s="21">
+        <v>0</v>
       </c>
       <c r="G625" s="30" t="s">
         <v>1585</v>
@@ -56386,8 +56386,8 @@
       <c r="C626"/>
       <c r="D626"/>
       <c r="E626"/>
-      <c r="F626" s="30">
-        <v>1</v>
+      <c r="F626" s="21">
+        <v>0</v>
       </c>
       <c r="G626" s="30" t="s">
         <v>1585</v>
@@ -57348,8 +57348,8 @@
       <c r="C627"/>
       <c r="D627"/>
       <c r="E627"/>
-      <c r="F627" s="30">
-        <v>1</v>
+      <c r="F627" s="21">
+        <v>0</v>
       </c>
       <c r="G627" s="30" t="s">
         <v>1585</v>
@@ -58307,8 +58307,8 @@
       <c r="B628" s="30">
         <v>10544</v>
       </c>
-      <c r="F628" s="30">
-        <v>1</v>
+      <c r="F628" s="21">
+        <v>0</v>
       </c>
       <c r="G628" s="30" t="s">
         <v>1112</v>
@@ -58369,8 +58369,8 @@
       <c r="B629" s="30">
         <v>10545</v>
       </c>
-      <c r="F629" s="30">
-        <v>1</v>
+      <c r="F629" s="21">
+        <v>0</v>
       </c>
       <c r="G629" s="30" t="s">
         <v>1116</v>
@@ -58431,8 +58431,8 @@
       <c r="B630" s="30">
         <v>10546</v>
       </c>
-      <c r="F630" s="30">
-        <v>1</v>
+      <c r="F630" s="21">
+        <v>0</v>
       </c>
       <c r="G630" s="30" t="s">
         <v>1119</v>
@@ -58493,8 +58493,8 @@
       <c r="B631" s="30">
         <v>10547</v>
       </c>
-      <c r="F631" s="30">
-        <v>1</v>
+      <c r="F631" s="21">
+        <v>0</v>
       </c>
       <c r="G631" s="30" t="s">
         <v>1123</v>
@@ -58555,8 +58555,8 @@
       <c r="B632" s="30">
         <v>10548</v>
       </c>
-      <c r="F632" s="30">
-        <v>1</v>
+      <c r="F632" s="21">
+        <v>0</v>
       </c>
       <c r="G632" s="30" t="s">
         <v>1126</v>
@@ -58617,8 +58617,8 @@
       <c r="B633" s="30">
         <v>10549</v>
       </c>
-      <c r="F633" s="30">
-        <v>1</v>
+      <c r="F633" s="21">
+        <v>0</v>
       </c>
       <c r="G633" s="30" t="s">
         <v>1129</v>
@@ -58679,8 +58679,8 @@
       <c r="B634" s="30">
         <v>10550</v>
       </c>
-      <c r="F634" s="30">
-        <v>1</v>
+      <c r="F634" s="21">
+        <v>0</v>
       </c>
       <c r="G634" s="30" t="s">
         <v>1133</v>
@@ -58741,8 +58741,8 @@
       <c r="B635" s="30">
         <v>10551</v>
       </c>
-      <c r="F635" s="30">
-        <v>1</v>
+      <c r="F635" s="21">
+        <v>0</v>
       </c>
       <c r="G635" s="30" t="s">
         <v>1615</v>
@@ -58809,8 +58809,8 @@
       <c r="B636" s="30">
         <v>10552</v>
       </c>
-      <c r="F636" s="30">
-        <v>1</v>
+      <c r="F636" s="21">
+        <v>0</v>
       </c>
       <c r="G636" s="30" t="s">
         <v>1615</v>
@@ -58877,8 +58877,8 @@
       <c r="B637" s="30">
         <v>10553</v>
       </c>
-      <c r="F637" s="30">
-        <v>1</v>
+      <c r="F637" s="21">
+        <v>0</v>
       </c>
       <c r="G637" s="30" t="s">
         <v>1615</v>
@@ -58945,8 +58945,8 @@
       <c r="B638" s="30">
         <v>10554</v>
       </c>
-      <c r="F638" s="30">
-        <v>1</v>
+      <c r="F638" s="21">
+        <v>0</v>
       </c>
       <c r="G638" s="30" t="s">
         <v>1615</v>
@@ -59013,8 +59013,8 @@
       <c r="B639" s="30">
         <v>10555</v>
       </c>
-      <c r="F639" s="30">
-        <v>1</v>
+      <c r="F639" s="21">
+        <v>0</v>
       </c>
       <c r="G639" s="30" t="s">
         <v>1615</v>
@@ -59081,8 +59081,8 @@
       <c r="B640" s="30">
         <v>10556</v>
       </c>
-      <c r="F640" s="30">
-        <v>1</v>
+      <c r="F640" s="21">
+        <v>0</v>
       </c>
       <c r="G640" s="30" t="s">
         <v>1615</v>
@@ -59149,8 +59149,8 @@
       <c r="B641" s="30">
         <v>10557</v>
       </c>
-      <c r="F641" s="30">
-        <v>1</v>
+      <c r="F641" s="21">
+        <v>0</v>
       </c>
       <c r="G641" s="30" t="s">
         <v>1615</v>
@@ -59217,8 +59217,8 @@
       <c r="B642" s="30">
         <v>10558</v>
       </c>
-      <c r="F642" s="30">
-        <v>1</v>
+      <c r="F642" s="21">
+        <v>0</v>
       </c>
       <c r="G642" s="30" t="s">
         <v>1615</v>
@@ -59285,8 +59285,8 @@
       <c r="B643" s="30">
         <v>10559</v>
       </c>
-      <c r="F643" s="30">
-        <v>1</v>
+      <c r="F643" s="21">
+        <v>0</v>
       </c>
       <c r="G643" s="30" t="s">
         <v>1615</v>
@@ -59353,8 +59353,8 @@
       <c r="B644" s="30">
         <v>10560</v>
       </c>
-      <c r="F644" s="30">
-        <v>1</v>
+      <c r="F644" s="21">
+        <v>0</v>
       </c>
       <c r="G644" s="30" t="s">
         <v>1615</v>
@@ -59421,8 +59421,8 @@
       <c r="B645" s="30">
         <v>10561</v>
       </c>
-      <c r="F645" s="30">
-        <v>1</v>
+      <c r="F645" s="21">
+        <v>0</v>
       </c>
       <c r="G645" s="30" t="s">
         <v>1615</v>
@@ -59489,8 +59489,8 @@
       <c r="B646" s="30">
         <v>10562</v>
       </c>
-      <c r="F646" s="30">
-        <v>1</v>
+      <c r="F646" s="21">
+        <v>0</v>
       </c>
       <c r="G646" s="30" t="s">
         <v>1615</v>
@@ -59681,8 +59681,8 @@
       <c r="B649" s="30">
         <v>10565</v>
       </c>
-      <c r="F649" s="30">
-        <v>1</v>
+      <c r="F649" s="21">
+        <v>0</v>
       </c>
       <c r="G649" s="30" t="s">
         <v>1385</v>
@@ -59743,8 +59743,8 @@
       <c r="B650" s="30">
         <v>10566</v>
       </c>
-      <c r="F650" s="30">
-        <v>1</v>
+      <c r="F650" s="21">
+        <v>0</v>
       </c>
       <c r="G650" s="30" t="s">
         <v>1385</v>
@@ -59805,8 +59805,8 @@
       <c r="B651" s="30">
         <v>10567</v>
       </c>
-      <c r="F651" s="30">
-        <v>1</v>
+      <c r="F651" s="21">
+        <v>0</v>
       </c>
       <c r="G651" s="30" t="s">
         <v>1385</v>
@@ -59867,8 +59867,8 @@
       <c r="B652" s="30">
         <v>10568</v>
       </c>
-      <c r="F652" s="30">
-        <v>1</v>
+      <c r="F652" s="21">
+        <v>0</v>
       </c>
       <c r="G652" s="30" t="s">
         <v>1385</v>
@@ -59929,8 +59929,8 @@
       <c r="B653" s="30">
         <v>10569</v>
       </c>
-      <c r="F653" s="30">
-        <v>1</v>
+      <c r="F653" s="21">
+        <v>0</v>
       </c>
       <c r="G653" s="30" t="s">
         <v>1385</v>
@@ -59991,8 +59991,8 @@
       <c r="B654" s="30">
         <v>10570</v>
       </c>
-      <c r="F654" s="30">
-        <v>1</v>
+      <c r="F654" s="21">
+        <v>0</v>
       </c>
       <c r="G654" s="30" t="s">
         <v>1385</v>
@@ -60043,6 +60043,440 @@
         <v>1</v>
       </c>
       <c r="AM654" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="655" spans="1:39">
+      <c r="A655" s="21">
+        <v>654</v>
+      </c>
+      <c r="B655" s="30">
+        <v>10571</v>
+      </c>
+      <c r="F655" s="30">
+        <v>1</v>
+      </c>
+      <c r="G655" s="30" t="s">
+        <v>1112</v>
+      </c>
+      <c r="J655" s="30" t="s">
+        <v>1605</v>
+      </c>
+      <c r="L655" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M655" s="28">
+        <v>0</v>
+      </c>
+      <c r="N655" s="28">
+        <v>0</v>
+      </c>
+      <c r="O655" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P655" s="30">
+        <v>99800</v>
+      </c>
+      <c r="Q655" s="30" t="s">
+        <v>1606</v>
+      </c>
+      <c r="R655" s="52" t="s">
+        <v>1135</v>
+      </c>
+      <c r="W655" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="X655" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y655" s="30">
+        <v>1623110400</v>
+      </c>
+      <c r="Z655" s="30">
+        <v>1623686399</v>
+      </c>
+      <c r="AH655" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI655" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL655" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM655" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="656" spans="1:39">
+      <c r="A656" s="21">
+        <v>655</v>
+      </c>
+      <c r="B656" s="30">
+        <v>10572</v>
+      </c>
+      <c r="F656" s="30">
+        <v>1</v>
+      </c>
+      <c r="G656" s="30" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J656" s="30" t="s">
+        <v>1607</v>
+      </c>
+      <c r="L656" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M656" s="28">
+        <v>0</v>
+      </c>
+      <c r="N656" s="28">
+        <v>0</v>
+      </c>
+      <c r="O656" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P656" s="30">
+        <v>49800</v>
+      </c>
+      <c r="Q656" s="30" t="s">
+        <v>1606</v>
+      </c>
+      <c r="R656" s="52" t="s">
+        <v>1132</v>
+      </c>
+      <c r="W656" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="X656" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y656" s="30">
+        <v>1623110400</v>
+      </c>
+      <c r="Z656" s="30">
+        <v>1623686399</v>
+      </c>
+      <c r="AH656" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI656" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL656" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM656" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="657" spans="1:39">
+      <c r="A657" s="21">
+        <v>656</v>
+      </c>
+      <c r="B657" s="30">
+        <v>10573</v>
+      </c>
+      <c r="F657" s="30">
+        <v>1</v>
+      </c>
+      <c r="G657" s="30" t="s">
+        <v>1119</v>
+      </c>
+      <c r="J657" s="30" t="s">
+        <v>1608</v>
+      </c>
+      <c r="L657" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M657" s="28">
+        <v>0</v>
+      </c>
+      <c r="N657" s="28">
+        <v>0</v>
+      </c>
+      <c r="O657" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P657" s="30">
+        <v>29800</v>
+      </c>
+      <c r="Q657" s="30" t="s">
+        <v>1609</v>
+      </c>
+      <c r="R657" s="52" t="s">
+        <v>1128</v>
+      </c>
+      <c r="W657" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="X657" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y657" s="30">
+        <v>1623110400</v>
+      </c>
+      <c r="Z657" s="30">
+        <v>1623686399</v>
+      </c>
+      <c r="AH657" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI657" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL657" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM657" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="658" spans="1:39">
+      <c r="A658" s="21">
+        <v>657</v>
+      </c>
+      <c r="B658" s="30">
+        <v>10574</v>
+      </c>
+      <c r="F658" s="30">
+        <v>1</v>
+      </c>
+      <c r="G658" s="30" t="s">
+        <v>1123</v>
+      </c>
+      <c r="J658" s="30" t="s">
+        <v>1610</v>
+      </c>
+      <c r="L658" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M658" s="28">
+        <v>0</v>
+      </c>
+      <c r="N658" s="28">
+        <v>0</v>
+      </c>
+      <c r="O658" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P658" s="30">
+        <v>19800</v>
+      </c>
+      <c r="Q658" s="30" t="s">
+        <v>1609</v>
+      </c>
+      <c r="R658" s="52" t="s">
+        <v>1125</v>
+      </c>
+      <c r="W658" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="X658" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y658" s="30">
+        <v>1623110400</v>
+      </c>
+      <c r="Z658" s="30">
+        <v>1623686399</v>
+      </c>
+      <c r="AH658" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI658" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL658" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM658" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659" spans="1:39">
+      <c r="A659" s="21">
+        <v>658</v>
+      </c>
+      <c r="B659" s="30">
+        <v>10575</v>
+      </c>
+      <c r="F659" s="30">
+        <v>1</v>
+      </c>
+      <c r="G659" s="30" t="s">
+        <v>1126</v>
+      </c>
+      <c r="J659" s="30" t="s">
+        <v>1611</v>
+      </c>
+      <c r="L659" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M659" s="28">
+        <v>0</v>
+      </c>
+      <c r="N659" s="28">
+        <v>0</v>
+      </c>
+      <c r="O659" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P659" s="30">
+        <v>9800</v>
+      </c>
+      <c r="Q659" s="30" t="s">
+        <v>1609</v>
+      </c>
+      <c r="R659" s="52" t="s">
+        <v>1122</v>
+      </c>
+      <c r="W659" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="X659" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y659" s="30">
+        <v>1623110400</v>
+      </c>
+      <c r="Z659" s="30">
+        <v>1623686399</v>
+      </c>
+      <c r="AH659" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI659" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL659" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM659" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660" spans="1:39">
+      <c r="A660" s="21">
+        <v>659</v>
+      </c>
+      <c r="B660" s="30">
+        <v>10576</v>
+      </c>
+      <c r="F660" s="30">
+        <v>1</v>
+      </c>
+      <c r="G660" s="30" t="s">
+        <v>1129</v>
+      </c>
+      <c r="J660" s="30" t="s">
+        <v>1612</v>
+      </c>
+      <c r="L660" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M660" s="28">
+        <v>0</v>
+      </c>
+      <c r="N660" s="28">
+        <v>0</v>
+      </c>
+      <c r="O660" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P660" s="30">
+        <v>4800</v>
+      </c>
+      <c r="Q660" s="30" t="s">
+        <v>1613</v>
+      </c>
+      <c r="R660" s="52" t="s">
+        <v>1118</v>
+      </c>
+      <c r="W660" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="X660" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y660" s="30">
+        <v>1623110400</v>
+      </c>
+      <c r="Z660" s="30">
+        <v>1623686399</v>
+      </c>
+      <c r="AH660" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI660" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL660" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM660" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="661" spans="1:39">
+      <c r="A661" s="21">
+        <v>660</v>
+      </c>
+      <c r="B661" s="30">
+        <v>10577</v>
+      </c>
+      <c r="F661" s="30">
+        <v>1</v>
+      </c>
+      <c r="G661" s="30" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J661" s="30" t="s">
+        <v>1614</v>
+      </c>
+      <c r="L661" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M661" s="28">
+        <v>0</v>
+      </c>
+      <c r="N661" s="28">
+        <v>0</v>
+      </c>
+      <c r="O661" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P661" s="30">
+        <v>1800</v>
+      </c>
+      <c r="Q661" s="30" t="s">
+        <v>1613</v>
+      </c>
+      <c r="R661" s="52" t="s">
+        <v>1115</v>
+      </c>
+      <c r="W661" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="X661" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y661" s="30">
+        <v>1623110400</v>
+      </c>
+      <c r="Z661" s="30">
+        <v>1623686399</v>
+      </c>
+      <c r="AH661" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI661" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL661" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM661" s="30">
         <v>1</v>
       </c>
     </row>

--- a/config_debug/shoping_config_cjj.xlsx
+++ b/config_debug/shoping_config_cjj.xlsx
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5224" uniqueCount="1840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5287" uniqueCount="1840">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6717,10 +6717,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -6762,7 +6762,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6775,19 +6775,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6798,47 +6797,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6861,6 +6821,46 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -6869,22 +6869,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -6893,6 +6878,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6990,7 +6990,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7002,19 +7008,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7026,13 +7032,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7050,73 +7086,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7134,7 +7104,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7174,21 +7174,25 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -7209,6 +7213,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -7220,6 +7244,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7238,39 +7271,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -7282,7 +7282,7 @@
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7291,109 +7291,109 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7402,22 +7402,22 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -10133,14 +10133,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AIF661"/>
+  <dimension ref="A1:AIF670"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="AL634" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G655" sqref="G655"/>
+      <selection pane="bottomRight" activeCell="A662" sqref="$A662:$XFD670"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -60480,6 +60480,618 @@
         <v>1</v>
       </c>
     </row>
+    <row r="662" spans="1:39">
+      <c r="A662" s="21">
+        <v>661</v>
+      </c>
+      <c r="B662" s="30">
+        <v>10578</v>
+      </c>
+      <c r="F662" s="30">
+        <v>1</v>
+      </c>
+      <c r="G662" s="30" t="s">
+        <v>1585</v>
+      </c>
+      <c r="I662" s="28" t="s">
+        <v>1586</v>
+      </c>
+      <c r="J662" s="30" t="s">
+        <v>1587</v>
+      </c>
+      <c r="L662" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M662" s="28">
+        <v>0</v>
+      </c>
+      <c r="N662" s="28">
+        <v>0</v>
+      </c>
+      <c r="O662" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P662" s="30">
+        <v>1800</v>
+      </c>
+      <c r="Q662" s="30" t="s">
+        <v>1588</v>
+      </c>
+      <c r="R662" s="52" t="s">
+        <v>1071</v>
+      </c>
+      <c r="W662" s="28" t="s">
+        <v>792</v>
+      </c>
+      <c r="X662" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y662" s="30">
+        <v>1623715200</v>
+      </c>
+      <c r="Z662" s="30">
+        <v>1624291199</v>
+      </c>
+      <c r="AA662" s="30">
+        <v>44</v>
+      </c>
+      <c r="AH662" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI662" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL662" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM662" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="663" spans="1:39">
+      <c r="A663" s="21">
+        <v>662</v>
+      </c>
+      <c r="B663" s="30">
+        <v>10579</v>
+      </c>
+      <c r="F663" s="30">
+        <v>1</v>
+      </c>
+      <c r="G663" s="30" t="s">
+        <v>1585</v>
+      </c>
+      <c r="I663" s="28" t="s">
+        <v>1586</v>
+      </c>
+      <c r="J663" s="30" t="s">
+        <v>1589</v>
+      </c>
+      <c r="L663" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M663" s="28">
+        <v>0</v>
+      </c>
+      <c r="N663" s="28">
+        <v>0</v>
+      </c>
+      <c r="O663" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P663" s="30">
+        <v>3000</v>
+      </c>
+      <c r="Q663" s="30" t="s">
+        <v>1590</v>
+      </c>
+      <c r="R663" s="52" t="s">
+        <v>1075</v>
+      </c>
+      <c r="W663" s="28" t="s">
+        <v>792</v>
+      </c>
+      <c r="X663" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y663" s="30">
+        <v>1623715200</v>
+      </c>
+      <c r="Z663" s="30">
+        <v>1624291199</v>
+      </c>
+      <c r="AA663" s="30">
+        <v>44</v>
+      </c>
+      <c r="AH663" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI663" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL663" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM663" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="664" spans="1:39">
+      <c r="A664" s="21">
+        <v>663</v>
+      </c>
+      <c r="B664" s="30">
+        <v>10580</v>
+      </c>
+      <c r="F664" s="30">
+        <v>1</v>
+      </c>
+      <c r="G664" s="30" t="s">
+        <v>1585</v>
+      </c>
+      <c r="I664" s="28" t="s">
+        <v>1586</v>
+      </c>
+      <c r="J664" s="30" t="s">
+        <v>1591</v>
+      </c>
+      <c r="L664" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M664" s="28">
+        <v>0</v>
+      </c>
+      <c r="N664" s="28">
+        <v>0</v>
+      </c>
+      <c r="O664" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P664" s="30">
+        <v>4800</v>
+      </c>
+      <c r="Q664" s="30" t="s">
+        <v>1592</v>
+      </c>
+      <c r="R664" s="52" t="s">
+        <v>1079</v>
+      </c>
+      <c r="W664" s="28" t="s">
+        <v>792</v>
+      </c>
+      <c r="X664" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y664" s="30">
+        <v>1623715200</v>
+      </c>
+      <c r="Z664" s="30">
+        <v>1624291199</v>
+      </c>
+      <c r="AA664" s="30">
+        <v>44</v>
+      </c>
+      <c r="AH664" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI664" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL664" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM664" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="665" spans="1:39">
+      <c r="A665" s="21">
+        <v>664</v>
+      </c>
+      <c r="B665" s="30">
+        <v>10581</v>
+      </c>
+      <c r="F665" s="30">
+        <v>1</v>
+      </c>
+      <c r="G665" s="30" t="s">
+        <v>1585</v>
+      </c>
+      <c r="I665" s="28" t="s">
+        <v>1551</v>
+      </c>
+      <c r="J665" s="30" t="s">
+        <v>1593</v>
+      </c>
+      <c r="L665" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M665" s="28">
+        <v>0</v>
+      </c>
+      <c r="N665" s="28">
+        <v>0</v>
+      </c>
+      <c r="O665" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P665" s="30">
+        <v>4800</v>
+      </c>
+      <c r="Q665" s="30" t="s">
+        <v>1594</v>
+      </c>
+      <c r="R665" s="52" t="s">
+        <v>1079</v>
+      </c>
+      <c r="W665" s="28" t="s">
+        <v>792</v>
+      </c>
+      <c r="X665" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y665" s="30">
+        <v>1623715200</v>
+      </c>
+      <c r="Z665" s="30">
+        <v>1624291199</v>
+      </c>
+      <c r="AA665" s="30">
+        <v>45</v>
+      </c>
+      <c r="AH665" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI665" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL665" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM665" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="666" spans="1:39">
+      <c r="A666" s="21">
+        <v>665</v>
+      </c>
+      <c r="B666" s="30">
+        <v>10582</v>
+      </c>
+      <c r="F666" s="30">
+        <v>1</v>
+      </c>
+      <c r="G666" s="30" t="s">
+        <v>1585</v>
+      </c>
+      <c r="I666" s="28" t="s">
+        <v>1551</v>
+      </c>
+      <c r="J666" s="30" t="s">
+        <v>1595</v>
+      </c>
+      <c r="L666" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M666" s="28">
+        <v>0</v>
+      </c>
+      <c r="N666" s="28">
+        <v>0</v>
+      </c>
+      <c r="O666" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P666" s="30">
+        <v>9800</v>
+      </c>
+      <c r="Q666" s="30" t="s">
+        <v>1596</v>
+      </c>
+      <c r="R666" s="52" t="s">
+        <v>1084</v>
+      </c>
+      <c r="W666" s="28" t="s">
+        <v>792</v>
+      </c>
+      <c r="X666" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y666" s="30">
+        <v>1623715200</v>
+      </c>
+      <c r="Z666" s="30">
+        <v>1624291199</v>
+      </c>
+      <c r="AA666" s="30">
+        <v>45</v>
+      </c>
+      <c r="AH666" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI666" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL666" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM666" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="667" spans="1:39">
+      <c r="A667" s="21">
+        <v>666</v>
+      </c>
+      <c r="B667" s="30">
+        <v>10583</v>
+      </c>
+      <c r="F667" s="30">
+        <v>1</v>
+      </c>
+      <c r="G667" s="30" t="s">
+        <v>1585</v>
+      </c>
+      <c r="I667" s="28" t="s">
+        <v>1551</v>
+      </c>
+      <c r="J667" s="30" t="s">
+        <v>1597</v>
+      </c>
+      <c r="L667" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M667" s="28">
+        <v>0</v>
+      </c>
+      <c r="N667" s="28">
+        <v>0</v>
+      </c>
+      <c r="O667" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P667" s="30">
+        <v>19800</v>
+      </c>
+      <c r="Q667" s="30" t="s">
+        <v>1598</v>
+      </c>
+      <c r="R667" s="52" t="s">
+        <v>1087</v>
+      </c>
+      <c r="W667" s="28" t="s">
+        <v>792</v>
+      </c>
+      <c r="X667" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y667" s="30">
+        <v>1623715200</v>
+      </c>
+      <c r="Z667" s="30">
+        <v>1624291199</v>
+      </c>
+      <c r="AA667" s="30">
+        <v>45</v>
+      </c>
+      <c r="AH667" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI667" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL667" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM667" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="668" spans="1:39">
+      <c r="A668" s="21">
+        <v>667</v>
+      </c>
+      <c r="B668" s="30">
+        <v>10584</v>
+      </c>
+      <c r="F668" s="30">
+        <v>1</v>
+      </c>
+      <c r="G668" s="30" t="s">
+        <v>1585</v>
+      </c>
+      <c r="I668" s="28" t="s">
+        <v>1440</v>
+      </c>
+      <c r="J668" s="30" t="s">
+        <v>1599</v>
+      </c>
+      <c r="L668" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M668" s="28">
+        <v>0</v>
+      </c>
+      <c r="N668" s="28">
+        <v>0</v>
+      </c>
+      <c r="O668" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P668" s="30">
+        <v>9800</v>
+      </c>
+      <c r="Q668" s="30" t="s">
+        <v>1600</v>
+      </c>
+      <c r="R668" s="52" t="s">
+        <v>1084</v>
+      </c>
+      <c r="W668" s="28" t="s">
+        <v>792</v>
+      </c>
+      <c r="X668" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y668" s="30">
+        <v>1623715200</v>
+      </c>
+      <c r="Z668" s="30">
+        <v>1624291199</v>
+      </c>
+      <c r="AA668" s="30">
+        <v>46</v>
+      </c>
+      <c r="AH668" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI668" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL668" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM668" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="669" spans="1:39">
+      <c r="A669" s="21">
+        <v>668</v>
+      </c>
+      <c r="B669" s="30">
+        <v>10585</v>
+      </c>
+      <c r="F669" s="30">
+        <v>1</v>
+      </c>
+      <c r="G669" s="30" t="s">
+        <v>1585</v>
+      </c>
+      <c r="I669" s="28" t="s">
+        <v>1440</v>
+      </c>
+      <c r="J669" s="30" t="s">
+        <v>1601</v>
+      </c>
+      <c r="L669" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M669" s="28">
+        <v>0</v>
+      </c>
+      <c r="N669" s="28">
+        <v>0</v>
+      </c>
+      <c r="O669" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P669" s="30">
+        <v>19800</v>
+      </c>
+      <c r="Q669" s="30" t="s">
+        <v>1602</v>
+      </c>
+      <c r="R669" s="52" t="s">
+        <v>1087</v>
+      </c>
+      <c r="W669" s="28" t="s">
+        <v>792</v>
+      </c>
+      <c r="X669" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y669" s="30">
+        <v>1623715200</v>
+      </c>
+      <c r="Z669" s="30">
+        <v>1624291199</v>
+      </c>
+      <c r="AA669" s="30">
+        <v>46</v>
+      </c>
+      <c r="AH669" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI669" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL669" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM669" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="670" spans="1:39">
+      <c r="A670" s="21">
+        <v>669</v>
+      </c>
+      <c r="B670" s="30">
+        <v>10586</v>
+      </c>
+      <c r="F670" s="30">
+        <v>1</v>
+      </c>
+      <c r="G670" s="30" t="s">
+        <v>1585</v>
+      </c>
+      <c r="I670" s="28" t="s">
+        <v>1440</v>
+      </c>
+      <c r="J670" s="30" t="s">
+        <v>1603</v>
+      </c>
+      <c r="L670" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M670" s="28">
+        <v>0</v>
+      </c>
+      <c r="N670" s="28">
+        <v>0</v>
+      </c>
+      <c r="O670" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P670" s="30">
+        <v>49800</v>
+      </c>
+      <c r="Q670" s="30" t="s">
+        <v>1604</v>
+      </c>
+      <c r="R670" s="52" t="s">
+        <v>1094</v>
+      </c>
+      <c r="W670" s="28" t="s">
+        <v>792</v>
+      </c>
+      <c r="X670" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y670" s="30">
+        <v>1623715200</v>
+      </c>
+      <c r="Z670" s="30">
+        <v>1624291199</v>
+      </c>
+      <c r="AA670" s="30">
+        <v>46</v>
+      </c>
+      <c r="AH670" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI670" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL670" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM670" s="30">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/config_debug/shoping_config_cjj.xlsx
+++ b/config_debug/shoping_config_cjj.xlsx
@@ -6717,9 +6717,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -6754,39 +6754,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6804,33 +6784,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6844,9 +6806,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6855,6 +6838,37 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6876,23 +6890,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6984,6 +6984,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -6996,19 +7044,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7026,55 +7068,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7092,7 +7092,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7104,13 +7110,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7122,19 +7122,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7175,6 +7175,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -7191,24 +7206,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7216,19 +7218,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7251,8 +7242,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7279,10 +7279,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7291,133 +7291,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -10136,11 +10136,11 @@
   <dimension ref="A1:AIF670"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="AL634" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="W622" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A662" sqref="$A662:$XFD670"/>
+      <selection pane="bottomRight" activeCell="Y635" sqref="Y635:Z646"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -58742,7 +58742,7 @@
         <v>10551</v>
       </c>
       <c r="F635" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G635" s="30" t="s">
         <v>1615</v>
@@ -58781,10 +58781,10 @@
         <v>99999999</v>
       </c>
       <c r="Y635" s="30">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z635" s="30">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA635" s="30">
         <v>80</v>
@@ -58810,7 +58810,7 @@
         <v>10552</v>
       </c>
       <c r="F636" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G636" s="30" t="s">
         <v>1615</v>
@@ -58849,10 +58849,10 @@
         <v>99999999</v>
       </c>
       <c r="Y636" s="30">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z636" s="30">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA636" s="30">
         <v>80</v>
@@ -58878,7 +58878,7 @@
         <v>10553</v>
       </c>
       <c r="F637" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G637" s="30" t="s">
         <v>1615</v>
@@ -58917,10 +58917,10 @@
         <v>99999999</v>
       </c>
       <c r="Y637" s="30">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z637" s="30">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA637" s="30">
         <v>80</v>
@@ -58946,7 +58946,7 @@
         <v>10554</v>
       </c>
       <c r="F638" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G638" s="30" t="s">
         <v>1615</v>
@@ -58985,10 +58985,10 @@
         <v>99999999</v>
       </c>
       <c r="Y638" s="30">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z638" s="30">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA638" s="30">
         <v>81</v>
@@ -59014,7 +59014,7 @@
         <v>10555</v>
       </c>
       <c r="F639" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G639" s="30" t="s">
         <v>1615</v>
@@ -59053,10 +59053,10 @@
         <v>99999999</v>
       </c>
       <c r="Y639" s="30">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z639" s="30">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA639" s="30">
         <v>81</v>
@@ -59082,7 +59082,7 @@
         <v>10556</v>
       </c>
       <c r="F640" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G640" s="30" t="s">
         <v>1615</v>
@@ -59121,10 +59121,10 @@
         <v>99999999</v>
       </c>
       <c r="Y640" s="30">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z640" s="30">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA640" s="30">
         <v>81</v>
@@ -59150,7 +59150,7 @@
         <v>10557</v>
       </c>
       <c r="F641" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G641" s="30" t="s">
         <v>1615</v>
@@ -59189,10 +59189,10 @@
         <v>99999999</v>
       </c>
       <c r="Y641" s="30">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z641" s="30">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA641" s="30">
         <v>82</v>
@@ -59218,7 +59218,7 @@
         <v>10558</v>
       </c>
       <c r="F642" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G642" s="30" t="s">
         <v>1615</v>
@@ -59257,10 +59257,10 @@
         <v>99999999</v>
       </c>
       <c r="Y642" s="30">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z642" s="30">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA642" s="30">
         <v>82</v>
@@ -59286,7 +59286,7 @@
         <v>10559</v>
       </c>
       <c r="F643" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G643" s="30" t="s">
         <v>1615</v>
@@ -59325,10 +59325,10 @@
         <v>99999999</v>
       </c>
       <c r="Y643" s="30">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z643" s="30">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA643" s="30">
         <v>82</v>
@@ -59354,7 +59354,7 @@
         <v>10560</v>
       </c>
       <c r="F644" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G644" s="30" t="s">
         <v>1615</v>
@@ -59393,10 +59393,10 @@
         <v>99999999</v>
       </c>
       <c r="Y644" s="30">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z644" s="30">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA644" s="30">
         <v>83</v>
@@ -59422,7 +59422,7 @@
         <v>10561</v>
       </c>
       <c r="F645" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G645" s="30" t="s">
         <v>1615</v>
@@ -59461,10 +59461,10 @@
         <v>99999999</v>
       </c>
       <c r="Y645" s="30">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z645" s="30">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA645" s="30">
         <v>83</v>
@@ -59490,7 +59490,7 @@
         <v>10562</v>
       </c>
       <c r="F646" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G646" s="30" t="s">
         <v>1615</v>
@@ -59529,10 +59529,10 @@
         <v>99999999</v>
       </c>
       <c r="Y646" s="30">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z646" s="30">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA646" s="30">
         <v>83</v>

--- a/config_debug/shoping_config_cjj.xlsx
+++ b/config_debug/shoping_config_cjj.xlsx
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5287" uniqueCount="1840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5407" uniqueCount="1843">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -5840,6 +5840,15 @@
   </si>
   <si>
     <t>9800000,2592000</t>
+  </si>
+  <si>
+    <t>盛夏礼包</t>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin"</t>
+  </si>
+  <si>
+    <t>消暑礼包</t>
   </si>
   <si>
     <t>id|不能重复</t>
@@ -6717,10 +6726,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -6755,7 +6764,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6763,6 +6772,28 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6777,60 +6808,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6845,16 +6831,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6871,6 +6858,14 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6898,12 +6893,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -6984,13 +6993,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7002,37 +7023,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7050,7 +7065,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7062,79 +7137,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7174,6 +7183,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -7185,24 +7203,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7222,15 +7222,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -7242,6 +7233,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7271,6 +7271,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -7279,10 +7288,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7291,109 +7300,109 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7402,22 +7411,22 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -10133,14 +10142,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AIF670"/>
+  <dimension ref="A1:AIF688"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W610" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="W664" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G675" sqref="G675"/>
+      <selection pane="bottomRight" activeCell="A683" sqref="$A683:$XFD688"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -60053,8 +60062,8 @@
       <c r="B655" s="30">
         <v>10571</v>
       </c>
-      <c r="F655" s="21">
-        <v>0</v>
+      <c r="F655" s="30">
+        <v>1</v>
       </c>
       <c r="G655" s="30" t="s">
         <v>1112</v>
@@ -60115,8 +60124,8 @@
       <c r="B656" s="30">
         <v>10572</v>
       </c>
-      <c r="F656" s="21">
-        <v>0</v>
+      <c r="F656" s="30">
+        <v>1</v>
       </c>
       <c r="G656" s="30" t="s">
         <v>1116</v>
@@ -60177,8 +60186,8 @@
       <c r="B657" s="30">
         <v>10573</v>
       </c>
-      <c r="F657" s="21">
-        <v>0</v>
+      <c r="F657" s="30">
+        <v>1</v>
       </c>
       <c r="G657" s="30" t="s">
         <v>1119</v>
@@ -60239,8 +60248,8 @@
       <c r="B658" s="30">
         <v>10574</v>
       </c>
-      <c r="F658" s="21">
-        <v>0</v>
+      <c r="F658" s="30">
+        <v>1</v>
       </c>
       <c r="G658" s="30" t="s">
         <v>1123</v>
@@ -60301,8 +60310,8 @@
       <c r="B659" s="30">
         <v>10575</v>
       </c>
-      <c r="F659" s="21">
-        <v>0</v>
+      <c r="F659" s="30">
+        <v>1</v>
       </c>
       <c r="G659" s="30" t="s">
         <v>1126</v>
@@ -60363,8 +60372,8 @@
       <c r="B660" s="30">
         <v>10576</v>
       </c>
-      <c r="F660" s="21">
-        <v>0</v>
+      <c r="F660" s="30">
+        <v>1</v>
       </c>
       <c r="G660" s="30" t="s">
         <v>1129</v>
@@ -60425,8 +60434,8 @@
       <c r="B661" s="30">
         <v>10577</v>
       </c>
-      <c r="F661" s="21">
-        <v>0</v>
+      <c r="F661" s="30">
+        <v>1</v>
       </c>
       <c r="G661" s="30" t="s">
         <v>1133</v>
@@ -60487,8 +60496,8 @@
       <c r="B662" s="30">
         <v>10578</v>
       </c>
-      <c r="F662" s="21">
-        <v>0</v>
+      <c r="F662" s="30">
+        <v>1</v>
       </c>
       <c r="G662" s="30" t="s">
         <v>1585</v>
@@ -60555,8 +60564,8 @@
       <c r="B663" s="30">
         <v>10579</v>
       </c>
-      <c r="F663" s="21">
-        <v>0</v>
+      <c r="F663" s="30">
+        <v>1</v>
       </c>
       <c r="G663" s="30" t="s">
         <v>1585</v>
@@ -60623,8 +60632,8 @@
       <c r="B664" s="30">
         <v>10580</v>
       </c>
-      <c r="F664" s="21">
-        <v>0</v>
+      <c r="F664" s="30">
+        <v>1</v>
       </c>
       <c r="G664" s="30" t="s">
         <v>1585</v>
@@ -60691,8 +60700,8 @@
       <c r="B665" s="30">
         <v>10581</v>
       </c>
-      <c r="F665" s="21">
-        <v>0</v>
+      <c r="F665" s="30">
+        <v>1</v>
       </c>
       <c r="G665" s="30" t="s">
         <v>1585</v>
@@ -60759,8 +60768,8 @@
       <c r="B666" s="30">
         <v>10582</v>
       </c>
-      <c r="F666" s="21">
-        <v>0</v>
+      <c r="F666" s="30">
+        <v>1</v>
       </c>
       <c r="G666" s="30" t="s">
         <v>1585</v>
@@ -60827,8 +60836,8 @@
       <c r="B667" s="30">
         <v>10583</v>
       </c>
-      <c r="F667" s="21">
-        <v>0</v>
+      <c r="F667" s="30">
+        <v>1</v>
       </c>
       <c r="G667" s="30" t="s">
         <v>1585</v>
@@ -60895,8 +60904,8 @@
       <c r="B668" s="30">
         <v>10584</v>
       </c>
-      <c r="F668" s="21">
-        <v>0</v>
+      <c r="F668" s="30">
+        <v>1</v>
       </c>
       <c r="G668" s="30" t="s">
         <v>1585</v>
@@ -60963,8 +60972,8 @@
       <c r="B669" s="30">
         <v>10585</v>
       </c>
-      <c r="F669" s="21">
-        <v>0</v>
+      <c r="F669" s="30">
+        <v>1</v>
       </c>
       <c r="G669" s="30" t="s">
         <v>1585</v>
@@ -61031,8 +61040,8 @@
       <c r="B670" s="30">
         <v>10586</v>
       </c>
-      <c r="F670" s="21">
-        <v>0</v>
+      <c r="F670" s="30">
+        <v>1</v>
       </c>
       <c r="G670" s="30" t="s">
         <v>1585</v>
@@ -61089,6 +61098,1212 @@
         <v>1</v>
       </c>
       <c r="AM670" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="671" spans="1:39">
+      <c r="A671" s="21">
+        <v>670</v>
+      </c>
+      <c r="B671" s="30">
+        <v>10587</v>
+      </c>
+      <c r="F671" s="21">
+        <v>1</v>
+      </c>
+      <c r="G671" s="30" t="s">
+        <v>1643</v>
+      </c>
+      <c r="I671" s="28" t="s">
+        <v>1537</v>
+      </c>
+      <c r="J671" s="28" t="s">
+        <v>1558</v>
+      </c>
+      <c r="L671" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M671" s="28">
+        <v>0</v>
+      </c>
+      <c r="N671" s="28">
+        <v>0</v>
+      </c>
+      <c r="O671" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P671" s="30">
+        <v>600</v>
+      </c>
+      <c r="Q671" s="30" t="s">
+        <v>1644</v>
+      </c>
+      <c r="R671" s="52" t="s">
+        <v>1559</v>
+      </c>
+      <c r="W671" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="X671" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y671" s="30">
+        <v>1624924800</v>
+      </c>
+      <c r="Z671" s="30">
+        <v>1625500799</v>
+      </c>
+      <c r="AA671" s="28">
+        <v>80</v>
+      </c>
+      <c r="AH671" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI671" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL671" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM671" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672" spans="1:39">
+      <c r="A672" s="21">
+        <v>671</v>
+      </c>
+      <c r="B672" s="30">
+        <v>10588</v>
+      </c>
+      <c r="F672" s="21">
+        <v>1</v>
+      </c>
+      <c r="G672" s="30" t="s">
+        <v>1643</v>
+      </c>
+      <c r="I672" s="28" t="s">
+        <v>1537</v>
+      </c>
+      <c r="J672" s="28" t="s">
+        <v>1560</v>
+      </c>
+      <c r="L672" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M672" s="28">
+        <v>0</v>
+      </c>
+      <c r="N672" s="28">
+        <v>0</v>
+      </c>
+      <c r="O672" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P672" s="30">
+        <v>1000</v>
+      </c>
+      <c r="Q672" s="30" t="s">
+        <v>1644</v>
+      </c>
+      <c r="R672" s="52" t="s">
+        <v>1561</v>
+      </c>
+      <c r="W672" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="X672" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y672" s="30">
+        <v>1624924800</v>
+      </c>
+      <c r="Z672" s="30">
+        <v>1625500799</v>
+      </c>
+      <c r="AA672" s="28">
+        <v>80</v>
+      </c>
+      <c r="AH672" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI672" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL672" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM672" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="673" spans="1:39">
+      <c r="A673" s="21">
+        <v>672</v>
+      </c>
+      <c r="B673" s="30">
+        <v>10589</v>
+      </c>
+      <c r="F673" s="21">
+        <v>1</v>
+      </c>
+      <c r="G673" s="30" t="s">
+        <v>1643</v>
+      </c>
+      <c r="I673" s="28" t="s">
+        <v>1537</v>
+      </c>
+      <c r="J673" s="28" t="s">
+        <v>1562</v>
+      </c>
+      <c r="L673" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M673" s="28">
+        <v>0</v>
+      </c>
+      <c r="N673" s="28">
+        <v>0</v>
+      </c>
+      <c r="O673" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P673" s="30">
+        <v>1800</v>
+      </c>
+      <c r="Q673" s="30" t="s">
+        <v>1644</v>
+      </c>
+      <c r="R673" s="52" t="s">
+        <v>1563</v>
+      </c>
+      <c r="W673" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="X673" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y673" s="30">
+        <v>1624924800</v>
+      </c>
+      <c r="Z673" s="30">
+        <v>1625500799</v>
+      </c>
+      <c r="AA673" s="28">
+        <v>80</v>
+      </c>
+      <c r="AH673" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI673" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL673" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM673" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674" spans="1:39">
+      <c r="A674" s="21">
+        <v>673</v>
+      </c>
+      <c r="B674" s="30">
+        <v>10590</v>
+      </c>
+      <c r="F674" s="21">
+        <v>1</v>
+      </c>
+      <c r="G674" s="30" t="s">
+        <v>1643</v>
+      </c>
+      <c r="I674" s="28" t="s">
+        <v>1544</v>
+      </c>
+      <c r="J674" s="28" t="s">
+        <v>1564</v>
+      </c>
+      <c r="L674" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M674" s="28">
+        <v>0</v>
+      </c>
+      <c r="N674" s="28">
+        <v>0</v>
+      </c>
+      <c r="O674" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P674" s="30">
+        <v>1800</v>
+      </c>
+      <c r="Q674" s="30" t="s">
+        <v>1644</v>
+      </c>
+      <c r="R674" s="52" t="s">
+        <v>1546</v>
+      </c>
+      <c r="W674" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="X674" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y674" s="30">
+        <v>1624924800</v>
+      </c>
+      <c r="Z674" s="30">
+        <v>1625500799</v>
+      </c>
+      <c r="AA674" s="28">
+        <v>81</v>
+      </c>
+      <c r="AH674" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI674" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL674" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM674" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="675" spans="1:39">
+      <c r="A675" s="21">
+        <v>674</v>
+      </c>
+      <c r="B675" s="30">
+        <v>10591</v>
+      </c>
+      <c r="F675" s="21">
+        <v>1</v>
+      </c>
+      <c r="G675" s="30" t="s">
+        <v>1643</v>
+      </c>
+      <c r="I675" s="28" t="s">
+        <v>1544</v>
+      </c>
+      <c r="J675" s="28" t="s">
+        <v>1565</v>
+      </c>
+      <c r="L675" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M675" s="28">
+        <v>0</v>
+      </c>
+      <c r="N675" s="28">
+        <v>0</v>
+      </c>
+      <c r="O675" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P675" s="30">
+        <v>3000</v>
+      </c>
+      <c r="Q675" s="30" t="s">
+        <v>1644</v>
+      </c>
+      <c r="R675" s="52" t="s">
+        <v>1548</v>
+      </c>
+      <c r="W675" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="X675" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y675" s="30">
+        <v>1624924800</v>
+      </c>
+      <c r="Z675" s="30">
+        <v>1625500799</v>
+      </c>
+      <c r="AA675" s="28">
+        <v>81</v>
+      </c>
+      <c r="AH675" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI675" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL675" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM675" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676" spans="1:39">
+      <c r="A676" s="21">
+        <v>675</v>
+      </c>
+      <c r="B676" s="30">
+        <v>10592</v>
+      </c>
+      <c r="F676" s="21">
+        <v>1</v>
+      </c>
+      <c r="G676" s="30" t="s">
+        <v>1643</v>
+      </c>
+      <c r="I676" s="28" t="s">
+        <v>1544</v>
+      </c>
+      <c r="J676" s="28" t="s">
+        <v>1566</v>
+      </c>
+      <c r="L676" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M676" s="28">
+        <v>0</v>
+      </c>
+      <c r="N676" s="28">
+        <v>0</v>
+      </c>
+      <c r="O676" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P676" s="30">
+        <v>4800</v>
+      </c>
+      <c r="Q676" s="30" t="s">
+        <v>1644</v>
+      </c>
+      <c r="R676" s="52" t="s">
+        <v>1550</v>
+      </c>
+      <c r="W676" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="X676" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y676" s="30">
+        <v>1624924800</v>
+      </c>
+      <c r="Z676" s="30">
+        <v>1625500799</v>
+      </c>
+      <c r="AA676" s="28">
+        <v>81</v>
+      </c>
+      <c r="AH676" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI676" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL676" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM676" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="677" spans="1:39">
+      <c r="A677" s="21">
+        <v>676</v>
+      </c>
+      <c r="B677" s="30">
+        <v>10593</v>
+      </c>
+      <c r="F677" s="21">
+        <v>1</v>
+      </c>
+      <c r="G677" s="30" t="s">
+        <v>1643</v>
+      </c>
+      <c r="I677" s="28" t="s">
+        <v>1551</v>
+      </c>
+      <c r="J677" s="28" t="s">
+        <v>1566</v>
+      </c>
+      <c r="L677" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M677" s="28">
+        <v>0</v>
+      </c>
+      <c r="N677" s="28">
+        <v>0</v>
+      </c>
+      <c r="O677" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P677" s="30">
+        <v>4800</v>
+      </c>
+      <c r="Q677" s="30" t="s">
+        <v>1644</v>
+      </c>
+      <c r="R677" s="52" t="s">
+        <v>1550</v>
+      </c>
+      <c r="W677" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="X677" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y677" s="30">
+        <v>1624924800</v>
+      </c>
+      <c r="Z677" s="30">
+        <v>1625500799</v>
+      </c>
+      <c r="AA677" s="28">
+        <v>82</v>
+      </c>
+      <c r="AH677" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI677" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL677" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM677" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678" spans="1:39">
+      <c r="A678" s="21">
+        <v>677</v>
+      </c>
+      <c r="B678" s="30">
+        <v>10594</v>
+      </c>
+      <c r="F678" s="21">
+        <v>1</v>
+      </c>
+      <c r="G678" s="30" t="s">
+        <v>1643</v>
+      </c>
+      <c r="I678" s="28" t="s">
+        <v>1551</v>
+      </c>
+      <c r="J678" s="28" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L678" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M678" s="28">
+        <v>0</v>
+      </c>
+      <c r="N678" s="28">
+        <v>0</v>
+      </c>
+      <c r="O678" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P678" s="30">
+        <v>9800</v>
+      </c>
+      <c r="Q678" s="30" t="s">
+        <v>1644</v>
+      </c>
+      <c r="R678" s="52" t="s">
+        <v>1553</v>
+      </c>
+      <c r="W678" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="X678" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y678" s="30">
+        <v>1624924800</v>
+      </c>
+      <c r="Z678" s="30">
+        <v>1625500799</v>
+      </c>
+      <c r="AA678" s="28">
+        <v>82</v>
+      </c>
+      <c r="AH678" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI678" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL678" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM678" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679" spans="1:39">
+      <c r="A679" s="21">
+        <v>678</v>
+      </c>
+      <c r="B679" s="30">
+        <v>10595</v>
+      </c>
+      <c r="F679" s="21">
+        <v>1</v>
+      </c>
+      <c r="G679" s="30" t="s">
+        <v>1643</v>
+      </c>
+      <c r="I679" s="28" t="s">
+        <v>1551</v>
+      </c>
+      <c r="J679" s="28" t="s">
+        <v>1568</v>
+      </c>
+      <c r="L679" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M679" s="28">
+        <v>0</v>
+      </c>
+      <c r="N679" s="28">
+        <v>0</v>
+      </c>
+      <c r="O679" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P679" s="30">
+        <v>19800</v>
+      </c>
+      <c r="Q679" s="30" t="s">
+        <v>1644</v>
+      </c>
+      <c r="R679" s="52" t="s">
+        <v>1555</v>
+      </c>
+      <c r="W679" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="X679" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y679" s="30">
+        <v>1624924800</v>
+      </c>
+      <c r="Z679" s="30">
+        <v>1625500799</v>
+      </c>
+      <c r="AA679" s="28">
+        <v>82</v>
+      </c>
+      <c r="AH679" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI679" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL679" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM679" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="680" spans="1:39">
+      <c r="A680" s="21">
+        <v>679</v>
+      </c>
+      <c r="B680" s="30">
+        <v>10596</v>
+      </c>
+      <c r="F680" s="21">
+        <v>1</v>
+      </c>
+      <c r="G680" s="30" t="s">
+        <v>1643</v>
+      </c>
+      <c r="I680" s="28" t="s">
+        <v>1440</v>
+      </c>
+      <c r="J680" s="28" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L680" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M680" s="28">
+        <v>0</v>
+      </c>
+      <c r="N680" s="28">
+        <v>0</v>
+      </c>
+      <c r="O680" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P680" s="30">
+        <v>9800</v>
+      </c>
+      <c r="Q680" s="30" t="s">
+        <v>1644</v>
+      </c>
+      <c r="R680" s="52" t="s">
+        <v>1553</v>
+      </c>
+      <c r="W680" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="X680" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y680" s="30">
+        <v>1624924800</v>
+      </c>
+      <c r="Z680" s="30">
+        <v>1625500799</v>
+      </c>
+      <c r="AA680" s="28">
+        <v>83</v>
+      </c>
+      <c r="AH680" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI680" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL680" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM680" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681" spans="1:39">
+      <c r="A681" s="21">
+        <v>680</v>
+      </c>
+      <c r="B681" s="30">
+        <v>10597</v>
+      </c>
+      <c r="F681" s="21">
+        <v>1</v>
+      </c>
+      <c r="G681" s="30" t="s">
+        <v>1643</v>
+      </c>
+      <c r="I681" s="28" t="s">
+        <v>1440</v>
+      </c>
+      <c r="J681" s="28" t="s">
+        <v>1568</v>
+      </c>
+      <c r="L681" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M681" s="28">
+        <v>0</v>
+      </c>
+      <c r="N681" s="28">
+        <v>0</v>
+      </c>
+      <c r="O681" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P681" s="30">
+        <v>19800</v>
+      </c>
+      <c r="Q681" s="30" t="s">
+        <v>1644</v>
+      </c>
+      <c r="R681" s="52" t="s">
+        <v>1555</v>
+      </c>
+      <c r="W681" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="X681" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y681" s="30">
+        <v>1624924800</v>
+      </c>
+      <c r="Z681" s="30">
+        <v>1625500799</v>
+      </c>
+      <c r="AA681" s="28">
+        <v>83</v>
+      </c>
+      <c r="AH681" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI681" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL681" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM681" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="682" spans="1:39">
+      <c r="A682" s="21">
+        <v>681</v>
+      </c>
+      <c r="B682" s="30">
+        <v>10598</v>
+      </c>
+      <c r="F682" s="21">
+        <v>1</v>
+      </c>
+      <c r="G682" s="30" t="s">
+        <v>1643</v>
+      </c>
+      <c r="I682" s="28" t="s">
+        <v>1440</v>
+      </c>
+      <c r="J682" s="28" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L682" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M682" s="28">
+        <v>0</v>
+      </c>
+      <c r="N682" s="28">
+        <v>0</v>
+      </c>
+      <c r="O682" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P682" s="30">
+        <v>49800</v>
+      </c>
+      <c r="Q682" s="30" t="s">
+        <v>1644</v>
+      </c>
+      <c r="R682" s="52" t="s">
+        <v>1557</v>
+      </c>
+      <c r="W682" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="X682" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y682" s="30">
+        <v>1624924800</v>
+      </c>
+      <c r="Z682" s="30">
+        <v>1625500799</v>
+      </c>
+      <c r="AA682" s="28">
+        <v>83</v>
+      </c>
+      <c r="AH682" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI682" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL682" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM682" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="683" spans="1:39">
+      <c r="A683" s="21">
+        <v>682</v>
+      </c>
+      <c r="B683" s="30">
+        <v>10599</v>
+      </c>
+      <c r="F683" s="21">
+        <v>1</v>
+      </c>
+      <c r="G683" s="30" t="s">
+        <v>1645</v>
+      </c>
+      <c r="J683" s="28" t="s">
+        <v>1571</v>
+      </c>
+      <c r="L683" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M683" s="28">
+        <v>0</v>
+      </c>
+      <c r="N683" s="28">
+        <v>0</v>
+      </c>
+      <c r="O683" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P683" s="30">
+        <v>49800</v>
+      </c>
+      <c r="Q683" s="28" t="s">
+        <v>1572</v>
+      </c>
+      <c r="R683" s="52" t="s">
+        <v>1573</v>
+      </c>
+      <c r="W683" s="21" t="s">
+        <v>1301</v>
+      </c>
+      <c r="X683" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y683" s="30">
+        <v>1624924800</v>
+      </c>
+      <c r="Z683" s="30">
+        <v>1627315199</v>
+      </c>
+      <c r="AA683" s="30">
+        <v>69</v>
+      </c>
+      <c r="AH683" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI683" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL683" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM683" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684" spans="1:39">
+      <c r="A684" s="21">
+        <v>683</v>
+      </c>
+      <c r="B684" s="30">
+        <v>10600</v>
+      </c>
+      <c r="F684" s="21">
+        <v>1</v>
+      </c>
+      <c r="G684" s="30" t="s">
+        <v>1645</v>
+      </c>
+      <c r="J684" s="28" t="s">
+        <v>1574</v>
+      </c>
+      <c r="L684" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M684" s="28">
+        <v>0</v>
+      </c>
+      <c r="N684" s="28">
+        <v>0</v>
+      </c>
+      <c r="O684" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P684" s="30">
+        <v>19800</v>
+      </c>
+      <c r="Q684" s="28" t="s">
+        <v>1572</v>
+      </c>
+      <c r="R684" s="52" t="s">
+        <v>1575</v>
+      </c>
+      <c r="W684" s="21" t="s">
+        <v>1301</v>
+      </c>
+      <c r="X684" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y684" s="30">
+        <v>1624924800</v>
+      </c>
+      <c r="Z684" s="30">
+        <v>1627315199</v>
+      </c>
+      <c r="AA684" s="30">
+        <v>69</v>
+      </c>
+      <c r="AH684" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI684" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL684" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM684" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685" spans="1:39">
+      <c r="A685" s="21">
+        <v>684</v>
+      </c>
+      <c r="B685" s="30">
+        <v>10601</v>
+      </c>
+      <c r="F685" s="21">
+        <v>1</v>
+      </c>
+      <c r="G685" s="30" t="s">
+        <v>1645</v>
+      </c>
+      <c r="J685" s="28" t="s">
+        <v>1576</v>
+      </c>
+      <c r="L685" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M685" s="28">
+        <v>0</v>
+      </c>
+      <c r="N685" s="28">
+        <v>0</v>
+      </c>
+      <c r="O685" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P685" s="30">
+        <v>9800</v>
+      </c>
+      <c r="Q685" s="28" t="s">
+        <v>1572</v>
+      </c>
+      <c r="R685" s="52" t="s">
+        <v>1577</v>
+      </c>
+      <c r="W685" s="21" t="s">
+        <v>1301</v>
+      </c>
+      <c r="X685" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y685" s="30">
+        <v>1624924800</v>
+      </c>
+      <c r="Z685" s="30">
+        <v>1627315199</v>
+      </c>
+      <c r="AA685" s="30">
+        <v>69</v>
+      </c>
+      <c r="AH685" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI685" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL685" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM685" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="686" spans="1:39">
+      <c r="A686" s="21">
+        <v>685</v>
+      </c>
+      <c r="B686" s="30">
+        <v>10602</v>
+      </c>
+      <c r="F686" s="21">
+        <v>1</v>
+      </c>
+      <c r="G686" s="30" t="s">
+        <v>1645</v>
+      </c>
+      <c r="J686" s="28" t="s">
+        <v>1578</v>
+      </c>
+      <c r="L686" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M686" s="28">
+        <v>0</v>
+      </c>
+      <c r="N686" s="28">
+        <v>0</v>
+      </c>
+      <c r="O686" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P686" s="30">
+        <v>4800</v>
+      </c>
+      <c r="Q686" s="28" t="s">
+        <v>1572</v>
+      </c>
+      <c r="R686" s="52" t="s">
+        <v>1579</v>
+      </c>
+      <c r="W686" s="21" t="s">
+        <v>1301</v>
+      </c>
+      <c r="X686" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y686" s="30">
+        <v>1624924800</v>
+      </c>
+      <c r="Z686" s="30">
+        <v>1627315199</v>
+      </c>
+      <c r="AA686" s="30">
+        <v>69</v>
+      </c>
+      <c r="AH686" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI686" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL686" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM686" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="687" spans="1:39">
+      <c r="A687" s="21">
+        <v>686</v>
+      </c>
+      <c r="B687" s="30">
+        <v>10603</v>
+      </c>
+      <c r="F687" s="21">
+        <v>1</v>
+      </c>
+      <c r="G687" s="30" t="s">
+        <v>1645</v>
+      </c>
+      <c r="J687" s="28" t="s">
+        <v>1580</v>
+      </c>
+      <c r="L687" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M687" s="28">
+        <v>0</v>
+      </c>
+      <c r="N687" s="28">
+        <v>0</v>
+      </c>
+      <c r="O687" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P687" s="30">
+        <v>2000</v>
+      </c>
+      <c r="Q687" s="28" t="s">
+        <v>1572</v>
+      </c>
+      <c r="R687" s="52" t="s">
+        <v>1581</v>
+      </c>
+      <c r="W687" s="21" t="s">
+        <v>1301</v>
+      </c>
+      <c r="X687" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y687" s="30">
+        <v>1624924800</v>
+      </c>
+      <c r="Z687" s="30">
+        <v>1627315199</v>
+      </c>
+      <c r="AA687" s="30">
+        <v>69</v>
+      </c>
+      <c r="AH687" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI687" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL687" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM687" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688" spans="1:39">
+      <c r="A688" s="21">
+        <v>687</v>
+      </c>
+      <c r="B688" s="30">
+        <v>10604</v>
+      </c>
+      <c r="F688" s="21">
+        <v>1</v>
+      </c>
+      <c r="G688" s="30" t="s">
+        <v>1645</v>
+      </c>
+      <c r="J688" s="28" t="s">
+        <v>1582</v>
+      </c>
+      <c r="L688" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M688" s="28">
+        <v>0</v>
+      </c>
+      <c r="N688" s="28">
+        <v>0</v>
+      </c>
+      <c r="O688" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P688" s="30">
+        <v>600</v>
+      </c>
+      <c r="Q688" s="28" t="s">
+        <v>1572</v>
+      </c>
+      <c r="R688" s="52" t="s">
+        <v>1583</v>
+      </c>
+      <c r="W688" s="21" t="s">
+        <v>1301</v>
+      </c>
+      <c r="X688" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y688" s="30">
+        <v>1624924800</v>
+      </c>
+      <c r="Z688" s="30">
+        <v>1627315199</v>
+      </c>
+      <c r="AA688" s="30">
+        <v>69</v>
+      </c>
+      <c r="AH688" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI688" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL688" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM688" s="30">
         <v>1</v>
       </c>
     </row>
@@ -61118,19 +62333,19 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="58.5" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>1643</v>
+        <v>1646</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1644</v>
+        <v>1647</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1645</v>
+        <v>1648</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1646</v>
+        <v>1649</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1647</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="2" ht="57.75" customHeight="1" spans="1:5">
@@ -61138,7 +62353,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1648</v>
+        <v>1651</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -61147,7 +62362,7 @@
         <v>3600</v>
       </c>
       <c r="E2" t="s">
-        <v>1649</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="3" ht="78.75" customHeight="1" spans="1:4">
@@ -61155,7 +62370,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>1650</v>
+        <v>1653</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -61169,7 +62384,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>1651</v>
+        <v>1654</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -61183,7 +62398,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>1652</v>
+        <v>1655</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -61197,7 +62412,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>1653</v>
+        <v>1656</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -61211,7 +62426,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1654</v>
+        <v>1657</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -61225,7 +62440,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1655</v>
+        <v>1658</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -61239,7 +62454,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1656</v>
+        <v>1659</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -61253,7 +62468,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1657</v>
+        <v>1660</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -61267,7 +62482,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1658</v>
+        <v>1661</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -61281,7 +62496,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>1653</v>
+        <v>1656</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -61295,7 +62510,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>1654</v>
+        <v>1657</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -61309,7 +62524,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>1659</v>
+        <v>1662</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -61323,7 +62538,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>1660</v>
+        <v>1663</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -61337,7 +62552,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>1661</v>
+        <v>1664</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -61351,7 +62566,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>1662</v>
+        <v>1665</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -61365,7 +62580,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>1663</v>
+        <v>1666</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -61379,7 +62594,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>1664</v>
+        <v>1667</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -61393,7 +62608,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>1665</v>
+        <v>1668</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -61407,7 +62622,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>1666</v>
+        <v>1669</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -61421,7 +62636,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>1667</v>
+        <v>1670</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
@@ -61435,7 +62650,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>1668</v>
+        <v>1671</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
@@ -61449,7 +62664,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>1669</v>
+        <v>1672</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
@@ -61463,7 +62678,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>1670</v>
+        <v>1673</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
@@ -61477,7 +62692,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>1671</v>
+        <v>1674</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
@@ -61491,7 +62706,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>1672</v>
+        <v>1675</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -61506,7 +62721,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>1673</v>
+        <v>1676</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
@@ -61521,7 +62736,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>1674</v>
+        <v>1677</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -61536,7 +62751,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>1675</v>
+        <v>1678</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -61551,7 +62766,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1676</v>
+        <v>1679</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -61566,7 +62781,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>1677</v>
+        <v>1680</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -61581,7 +62796,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>1678</v>
+        <v>1681</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -61596,7 +62811,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>1679</v>
+        <v>1682</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -61611,7 +62826,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>1680</v>
+        <v>1683</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -61626,7 +62841,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>1681</v>
+        <v>1684</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -61641,7 +62856,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>1682</v>
+        <v>1685</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -61656,7 +62871,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>1683</v>
+        <v>1686</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -61671,7 +62886,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>1684</v>
+        <v>1687</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
@@ -61685,7 +62900,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1685</v>
+        <v>1688</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
@@ -61699,7 +62914,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>1686</v>
+        <v>1689</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -61713,7 +62928,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>1687</v>
+        <v>1690</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
@@ -61727,7 +62942,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>1688</v>
+        <v>1691</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
@@ -61741,7 +62956,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>1689</v>
+        <v>1692</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -61755,7 +62970,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>1690</v>
+        <v>1693</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
@@ -61769,7 +62984,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>1691</v>
+        <v>1694</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
@@ -61783,7 +62998,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>1692</v>
+        <v>1695</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
@@ -61797,7 +63012,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>1693</v>
+        <v>1696</v>
       </c>
       <c r="C48" s="2">
         <v>1</v>
@@ -61811,7 +63026,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>1694</v>
+        <v>1697</v>
       </c>
       <c r="C49" s="2">
         <v>1</v>
@@ -61825,7 +63040,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>1695</v>
+        <v>1698</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
@@ -61839,7 +63054,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>1696</v>
+        <v>1699</v>
       </c>
       <c r="C51" s="2">
         <v>1</v>
@@ -61853,7 +63068,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>1697</v>
+        <v>1700</v>
       </c>
       <c r="C52" s="2">
         <v>1</v>
@@ -61867,7 +63082,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>1698</v>
+        <v>1701</v>
       </c>
       <c r="C53" s="2">
         <v>1</v>
@@ -61881,7 +63096,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>1699</v>
+        <v>1702</v>
       </c>
       <c r="C54" s="2">
         <v>1</v>
@@ -61895,7 +63110,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>1700</v>
+        <v>1703</v>
       </c>
       <c r="C55" s="2">
         <v>1</v>
@@ -61909,7 +63124,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>1701</v>
+        <v>1704</v>
       </c>
       <c r="C56" s="2">
         <v>1</v>
@@ -61923,7 +63138,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>1702</v>
+        <v>1705</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
@@ -61937,7 +63152,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>1703</v>
+        <v>1706</v>
       </c>
       <c r="C58" s="2">
         <v>1</v>
@@ -61951,7 +63166,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>1704</v>
+        <v>1707</v>
       </c>
       <c r="C59" s="2">
         <v>1</v>
@@ -61965,7 +63180,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>1705</v>
+        <v>1708</v>
       </c>
       <c r="C60" s="2">
         <v>1</v>
@@ -61979,7 +63194,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>1706</v>
+        <v>1709</v>
       </c>
       <c r="C61" s="2">
         <v>1</v>
@@ -61993,7 +63208,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>1707</v>
+        <v>1710</v>
       </c>
       <c r="C62" s="2">
         <v>1</v>
@@ -62007,7 +63222,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>1708</v>
+        <v>1711</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
@@ -62021,7 +63236,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>1709</v>
+        <v>1712</v>
       </c>
       <c r="C64" s="2">
         <v>1</v>
@@ -62035,7 +63250,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>1710</v>
+        <v>1713</v>
       </c>
       <c r="C65" s="2">
         <v>1</v>
@@ -62049,7 +63264,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>1711</v>
+        <v>1714</v>
       </c>
       <c r="C66" s="2">
         <v>1</v>
@@ -62063,7 +63278,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>1712</v>
+        <v>1715</v>
       </c>
       <c r="C67" s="2">
         <v>1</v>
@@ -62077,7 +63292,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>1713</v>
+        <v>1716</v>
       </c>
       <c r="C68" s="2">
         <v>1</v>
@@ -62091,7 +63306,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>1714</v>
+        <v>1717</v>
       </c>
       <c r="C69" s="2">
         <v>1</v>
@@ -62105,7 +63320,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>1715</v>
+        <v>1718</v>
       </c>
       <c r="C70" s="2">
         <v>1</v>
@@ -62119,7 +63334,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>1716</v>
+        <v>1719</v>
       </c>
       <c r="C71" s="19">
         <v>1</v>
@@ -62133,7 +63348,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="C72" s="19">
         <v>1</v>
@@ -62147,7 +63362,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>1718</v>
+        <v>1721</v>
       </c>
       <c r="C73" s="19">
         <v>1</v>
@@ -62161,7 +63376,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>1719</v>
+        <v>1722</v>
       </c>
       <c r="C74" s="19">
         <v>1</v>
@@ -62175,7 +63390,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>1720</v>
+        <v>1723</v>
       </c>
       <c r="C75" s="19">
         <v>1</v>
@@ -62189,7 +63404,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>1721</v>
+        <v>1724</v>
       </c>
       <c r="C76" s="19">
         <v>1</v>
@@ -62203,7 +63418,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>1722</v>
+        <v>1725</v>
       </c>
       <c r="C77" s="19">
         <v>1</v>
@@ -62217,7 +63432,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>1723</v>
+        <v>1726</v>
       </c>
       <c r="C78" s="19">
         <v>1</v>
@@ -62231,7 +63446,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="22" t="s">
-        <v>1724</v>
+        <v>1727</v>
       </c>
       <c r="C79" s="19">
         <v>1</v>
@@ -62245,7 +63460,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="22" t="s">
-        <v>1725</v>
+        <v>1728</v>
       </c>
       <c r="C80" s="19">
         <v>1</v>
@@ -62259,7 +63474,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>1726</v>
+        <v>1729</v>
       </c>
       <c r="C81" s="2">
         <v>1</v>
@@ -62273,7 +63488,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>1727</v>
+        <v>1730</v>
       </c>
       <c r="C82" s="2">
         <v>1</v>
@@ -62287,7 +63502,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>1728</v>
+        <v>1731</v>
       </c>
       <c r="C83" s="2">
         <v>1</v>
@@ -62301,7 +63516,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>1729</v>
+        <v>1732</v>
       </c>
       <c r="C84" s="2">
         <v>1</v>
@@ -62315,7 +63530,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>1730</v>
+        <v>1733</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -62369,7 +63584,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="90" customHeight="1" spans="1:30">
       <c r="A1" s="1" t="s">
-        <v>1731</v>
+        <v>1734</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
@@ -62384,19 +63599,19 @@
         <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1732</v>
+        <v>1735</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1733</v>
+        <v>1736</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1734</v>
+        <v>1737</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1735</v>
+        <v>1738</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1736</v>
+        <v>1739</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>32</v>
@@ -62411,7 +63626,7 @@
         <v>39</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1737</v>
+        <v>1740</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>40</v>
@@ -62456,7 +63671,7 @@
         <v>53</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>1738</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="2" s="12" customFormat="1" spans="1:27">
@@ -62479,7 +63694,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>1739</v>
+        <v>1742</v>
       </c>
       <c r="H2" s="12">
         <v>600</v>
@@ -62509,19 +63724,19 @@
         <v>131</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="T2" s="17" t="s">
-        <v>1741</v>
+        <v>1744</v>
       </c>
       <c r="U2" s="12" t="s">
         <v>62</v>
       </c>
       <c r="V2" s="17" t="s">
-        <v>1742</v>
+        <v>1745</v>
       </c>
       <c r="W2" s="12" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="Z2" s="12">
         <v>1</v>
@@ -62550,7 +63765,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>1739</v>
+        <v>1742</v>
       </c>
       <c r="H3" s="12">
         <v>1500</v>
@@ -62577,22 +63792,22 @@
         <v>4</v>
       </c>
       <c r="Q3" s="17" t="s">
+        <v>1747</v>
+      </c>
+      <c r="R3" s="17" t="s">
+        <v>1748</v>
+      </c>
+      <c r="T3" s="17" t="s">
         <v>1744</v>
-      </c>
-      <c r="R3" s="17" t="s">
-        <v>1745</v>
-      </c>
-      <c r="T3" s="17" t="s">
-        <v>1741</v>
       </c>
       <c r="U3" s="12" t="s">
         <v>67</v>
       </c>
       <c r="V3" s="17" t="s">
+        <v>1749</v>
+      </c>
+      <c r="W3" s="12" t="s">
         <v>1746</v>
-      </c>
-      <c r="W3" s="12" t="s">
-        <v>1743</v>
       </c>
       <c r="Z3" s="12">
         <v>1</v>
@@ -62621,7 +63836,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>1739</v>
+        <v>1742</v>
       </c>
       <c r="H4" s="12">
         <v>3000</v>
@@ -62648,22 +63863,22 @@
         <v>5</v>
       </c>
       <c r="Q4" s="17" t="s">
-        <v>1747</v>
+        <v>1750</v>
       </c>
       <c r="R4" s="17" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="T4" s="17" t="s">
-        <v>1741</v>
+        <v>1744</v>
       </c>
       <c r="U4" s="12" t="s">
         <v>71</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>1749</v>
+        <v>1752</v>
       </c>
       <c r="W4" s="12" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="Z4" s="12">
         <v>1</v>
@@ -62692,7 +63907,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>1739</v>
+        <v>1742</v>
       </c>
       <c r="H5" s="12">
         <v>5000</v>
@@ -62719,22 +63934,22 @@
         <v>6</v>
       </c>
       <c r="Q5" s="17" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
       <c r="T5" s="17" t="s">
-        <v>1741</v>
+        <v>1744</v>
       </c>
       <c r="U5" s="12" t="s">
         <v>75</v>
       </c>
       <c r="V5" s="17" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
       <c r="W5" s="12" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="Z5" s="12">
         <v>1</v>
@@ -62763,7 +63978,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>1739</v>
+        <v>1742</v>
       </c>
       <c r="H6" s="12">
         <v>9800</v>
@@ -62790,22 +64005,22 @@
         <v>7</v>
       </c>
       <c r="Q6" s="17" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="R6" s="17" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
       <c r="T6" s="17" t="s">
-        <v>1741</v>
+        <v>1744</v>
       </c>
       <c r="U6" s="12" t="s">
         <v>79</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
       <c r="W6" s="12" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="Z6" s="12">
         <v>1</v>
@@ -62834,7 +64049,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>1739</v>
+        <v>1742</v>
       </c>
       <c r="H7" s="12">
         <v>49800</v>
@@ -62861,22 +64076,22 @@
         <v>9</v>
       </c>
       <c r="Q7" s="17" t="s">
-        <v>1756</v>
+        <v>1759</v>
       </c>
       <c r="R7" s="17" t="s">
-        <v>1757</v>
+        <v>1760</v>
       </c>
       <c r="T7" s="17" t="s">
-        <v>1741</v>
+        <v>1744</v>
       </c>
       <c r="U7" s="12" t="s">
         <v>83</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>1758</v>
+        <v>1761</v>
       </c>
       <c r="W7" s="12" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="Z7" s="12">
         <v>1</v>
@@ -62900,7 +64115,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>1739</v>
+        <v>1742</v>
       </c>
       <c r="H8" s="12">
         <v>100</v>
@@ -62927,22 +64142,22 @@
         <v>0</v>
       </c>
       <c r="Q8" s="17" t="s">
-        <v>1759</v>
+        <v>1762</v>
       </c>
       <c r="R8" s="17" t="s">
-        <v>1760</v>
+        <v>1763</v>
       </c>
       <c r="T8" s="17" t="s">
-        <v>1741</v>
+        <v>1744</v>
       </c>
       <c r="U8" s="12" t="s">
         <v>62</v>
       </c>
       <c r="V8" s="17" t="s">
-        <v>1742</v>
+        <v>1745</v>
       </c>
       <c r="W8" s="12" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="Z8" s="12">
         <v>1</v>
@@ -62966,7 +64181,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>1761</v>
+        <v>1764</v>
       </c>
       <c r="H9" s="12">
         <v>5000</v>
@@ -62993,19 +64208,19 @@
         <v>2</v>
       </c>
       <c r="Q9" s="17" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
       <c r="R9" s="17" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
       <c r="U9" s="12">
         <v>5000</v>
       </c>
       <c r="V9" s="12" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
       <c r="W9" s="12" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="Z9" s="12">
         <v>1</v>
@@ -63014,7 +64229,7 @@
         <v>1</v>
       </c>
       <c r="AD9" s="17" t="s">
-        <v>1762</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="10" s="12" customFormat="1" spans="1:30">
@@ -63032,7 +64247,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>1761</v>
+        <v>1764</v>
       </c>
       <c r="H10" s="12">
         <v>1000</v>
@@ -63062,17 +64277,17 @@
         <v>133</v>
       </c>
       <c r="R10" s="17" t="s">
-        <v>1763</v>
+        <v>1766</v>
       </c>
       <c r="U10" s="12">
         <v>1000</v>
       </c>
       <c r="V10" s="12" t="s">
+        <v>1749</v>
+      </c>
+      <c r="W10" s="12" t="s">
         <v>1746</v>
       </c>
-      <c r="W10" s="12" t="s">
-        <v>1743</v>
-      </c>
       <c r="Z10" s="12">
         <v>1</v>
       </c>
@@ -63080,7 +64295,7 @@
         <v>1</v>
       </c>
       <c r="AD10" s="17" t="s">
-        <v>1764</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="11" s="12" customFormat="1" spans="1:27">
@@ -63098,7 +64313,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>1739</v>
+        <v>1742</v>
       </c>
       <c r="H11" s="12">
         <v>1500</v>
@@ -63125,22 +64340,22 @@
         <v>0</v>
       </c>
       <c r="Q11" s="17" t="s">
+        <v>1747</v>
+      </c>
+      <c r="R11" s="17" t="s">
+        <v>1748</v>
+      </c>
+      <c r="T11" s="17" t="s">
         <v>1744</v>
-      </c>
-      <c r="R11" s="17" t="s">
-        <v>1745</v>
-      </c>
-      <c r="T11" s="17" t="s">
-        <v>1741</v>
       </c>
       <c r="U11" s="17" t="s">
         <v>67</v>
       </c>
       <c r="V11" s="12" t="s">
+        <v>1749</v>
+      </c>
+      <c r="W11" s="12" t="s">
         <v>1746</v>
-      </c>
-      <c r="W11" s="12" t="s">
-        <v>1743</v>
       </c>
       <c r="Z11" s="12">
         <v>1</v>
@@ -63169,7 +64384,7 @@
         <v>107</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>1739</v>
+        <v>1742</v>
       </c>
       <c r="H12" s="12">
         <v>100000</v>
@@ -63196,22 +64411,22 @@
         <v>9</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>1765</v>
+        <v>1768</v>
       </c>
       <c r="R12" s="17" t="s">
-        <v>1766</v>
+        <v>1769</v>
       </c>
       <c r="T12" s="17" t="s">
-        <v>1741</v>
+        <v>1744</v>
       </c>
       <c r="U12" s="12" t="s">
         <v>87</v>
       </c>
       <c r="V12" s="12" t="s">
-        <v>1767</v>
+        <v>1770</v>
       </c>
       <c r="W12" s="12" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="Z12" s="12">
         <v>1</v>
@@ -63240,7 +64455,7 @@
         <v>108</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>1739</v>
+        <v>1742</v>
       </c>
       <c r="H13" s="12">
         <v>99800</v>
@@ -63267,22 +64482,22 @@
         <v>10</v>
       </c>
       <c r="Q13" s="17" t="s">
-        <v>1768</v>
+        <v>1771</v>
       </c>
       <c r="R13" s="17" t="s">
-        <v>1769</v>
+        <v>1772</v>
       </c>
       <c r="T13" s="17" t="s">
-        <v>1741</v>
+        <v>1744</v>
       </c>
       <c r="U13" s="12" t="s">
+        <v>1773</v>
+      </c>
+      <c r="V13" s="12" t="s">
         <v>1770</v>
       </c>
-      <c r="V13" s="12" t="s">
-        <v>1767</v>
-      </c>
       <c r="W13" s="12" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="Z13" s="12">
         <v>1</v>
@@ -63311,7 +64526,7 @@
         <v>110</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>1739</v>
+        <v>1742</v>
       </c>
       <c r="H14" s="12">
         <v>249800</v>
@@ -63338,22 +64553,22 @@
         <v>11</v>
       </c>
       <c r="Q14" s="17" t="s">
-        <v>1771</v>
+        <v>1774</v>
       </c>
       <c r="R14" s="17" t="s">
-        <v>1772</v>
+        <v>1775</v>
       </c>
       <c r="T14" s="17" t="s">
-        <v>1773</v>
+        <v>1776</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>1774</v>
+        <v>1777</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>1775</v>
+        <v>1778</v>
       </c>
       <c r="W14" s="12" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="Z14" s="12">
         <v>1</v>
@@ -63377,7 +64592,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>1761</v>
+        <v>1764</v>
       </c>
       <c r="H15" s="12">
         <v>100</v>
@@ -63407,20 +64622,20 @@
         <v>0</v>
       </c>
       <c r="Q15" s="17" t="s">
-        <v>1759</v>
+        <v>1762</v>
       </c>
       <c r="R15" s="17" t="s">
-        <v>1760</v>
+        <v>1763</v>
       </c>
       <c r="T15" s="17"/>
       <c r="U15" s="12">
         <v>100</v>
       </c>
       <c r="V15" s="17" t="s">
-        <v>1742</v>
+        <v>1745</v>
       </c>
       <c r="W15" s="12" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="Z15" s="12">
         <v>1</v>
@@ -63429,7 +64644,7 @@
         <v>1</v>
       </c>
       <c r="AD15" s="17" t="s">
-        <v>1776</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="16" s="12" customFormat="1" spans="1:27">
@@ -63452,7 +64667,7 @@
         <v>101</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>1739</v>
+        <v>1742</v>
       </c>
       <c r="H16" s="12">
         <v>400</v>
@@ -63479,22 +64694,22 @@
         <v>3</v>
       </c>
       <c r="Q16" s="17" t="s">
-        <v>1777</v>
+        <v>1780</v>
       </c>
       <c r="R16" s="17" t="s">
-        <v>1778</v>
+        <v>1781</v>
       </c>
       <c r="T16" s="17" t="s">
-        <v>1741</v>
+        <v>1744</v>
       </c>
       <c r="U16" s="12" t="s">
         <v>101</v>
       </c>
       <c r="V16" s="17" t="s">
-        <v>1742</v>
+        <v>1745</v>
       </c>
       <c r="W16" s="12" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="Z16" s="12">
         <v>1</v>
@@ -63518,7 +64733,7 @@
         <v>102</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>1739</v>
+        <v>1742</v>
       </c>
       <c r="H17" s="12">
         <v>2000</v>
@@ -63545,22 +64760,22 @@
         <v>4</v>
       </c>
       <c r="Q17" s="17" t="s">
-        <v>1779</v>
+        <v>1782</v>
       </c>
       <c r="R17" s="17" t="s">
-        <v>1780</v>
+        <v>1783</v>
       </c>
       <c r="T17" s="17" t="s">
-        <v>1741</v>
+        <v>1744</v>
       </c>
       <c r="U17" s="12" t="s">
         <v>105</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>1749</v>
+        <v>1752</v>
       </c>
       <c r="W17" s="12" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="Z17" s="12">
         <v>1</v>
@@ -63584,7 +64799,7 @@
         <v>103</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>1739</v>
+        <v>1742</v>
       </c>
       <c r="H18" s="12">
         <v>6700</v>
@@ -63611,22 +64826,22 @@
         <v>5</v>
       </c>
       <c r="Q18" s="17" t="s">
-        <v>1781</v>
+        <v>1784</v>
       </c>
       <c r="R18" s="17" t="s">
-        <v>1782</v>
+        <v>1785</v>
       </c>
       <c r="T18" s="17" t="s">
-        <v>1741</v>
+        <v>1744</v>
       </c>
       <c r="U18" s="12" t="s">
         <v>109</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
       <c r="W18" s="12" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="Z18" s="12">
         <v>1</v>
@@ -63650,7 +64865,7 @@
         <v>104</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>1739</v>
+        <v>1742</v>
       </c>
       <c r="H19" s="12">
         <v>13200</v>
@@ -63677,22 +64892,22 @@
         <v>6</v>
       </c>
       <c r="Q19" s="17" t="s">
-        <v>1783</v>
+        <v>1786</v>
       </c>
       <c r="R19" s="17" t="s">
-        <v>1784</v>
+        <v>1787</v>
       </c>
       <c r="T19" s="17" t="s">
-        <v>1741</v>
+        <v>1744</v>
       </c>
       <c r="U19" s="12" t="s">
         <v>114</v>
       </c>
       <c r="V19" s="17" t="s">
-        <v>1785</v>
+        <v>1788</v>
       </c>
       <c r="W19" s="12" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="Z19" s="12">
         <v>1</v>
@@ -63716,7 +64931,7 @@
         <v>105</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>1739</v>
+        <v>1742</v>
       </c>
       <c r="H20" s="12">
         <v>20400</v>
@@ -63743,22 +64958,22 @@
         <v>7</v>
       </c>
       <c r="Q20" s="17" t="s">
-        <v>1786</v>
+        <v>1789</v>
       </c>
       <c r="R20" s="17" t="s">
-        <v>1787</v>
+        <v>1790</v>
       </c>
       <c r="T20" s="17" t="s">
-        <v>1741</v>
+        <v>1744</v>
       </c>
       <c r="U20" s="12" t="s">
         <v>120</v>
       </c>
       <c r="V20" s="12" t="s">
-        <v>1785</v>
+        <v>1788</v>
       </c>
       <c r="W20" s="12" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="Z20" s="12">
         <v>1</v>
@@ -63782,7 +64997,7 @@
         <v>101</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>1739</v>
+        <v>1742</v>
       </c>
       <c r="H21" s="13">
         <v>100</v>
@@ -63809,22 +65024,22 @@
         <v>0</v>
       </c>
       <c r="Q21" s="18" t="s">
-        <v>1759</v>
+        <v>1762</v>
       </c>
       <c r="R21" s="18" t="s">
-        <v>1760</v>
+        <v>1763</v>
       </c>
       <c r="T21" s="18" t="s">
-        <v>1741</v>
+        <v>1744</v>
       </c>
       <c r="U21" s="13" t="s">
         <v>124</v>
       </c>
       <c r="V21" s="18" t="s">
-        <v>1742</v>
+        <v>1745</v>
       </c>
       <c r="W21" s="13" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="Z21" s="13">
         <v>1</v>
@@ -63848,7 +65063,7 @@
         <v>104</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>1761</v>
+        <v>1764</v>
       </c>
       <c r="H22" s="12">
         <v>5000</v>
@@ -63875,20 +65090,20 @@
         <v>2</v>
       </c>
       <c r="Q22" s="17" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
       <c r="R22" s="17" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
       <c r="T22" s="17"/>
       <c r="U22" s="12">
         <v>5000</v>
       </c>
       <c r="V22" s="17" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
       <c r="W22" s="12" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="Z22" s="12">
         <v>1</v>
@@ -63912,7 +65127,7 @@
         <v>102</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>1761</v>
+        <v>1764</v>
       </c>
       <c r="H23" s="12">
         <v>1000</v>
@@ -63942,17 +65157,17 @@
         <v>133</v>
       </c>
       <c r="R23" s="17" t="s">
-        <v>1763</v>
+        <v>1766</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="12">
         <v>1000</v>
       </c>
       <c r="V23" s="17" t="s">
-        <v>1742</v>
+        <v>1745</v>
       </c>
       <c r="W23" s="12" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="Z23" s="12">
         <v>1</v>
@@ -63969,14 +65184,14 @@
         <v>109</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>1788</v>
+        <v>1791</v>
       </c>
       <c r="D24" s="15"/>
       <c r="F24" s="12">
         <v>101</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>1761</v>
+        <v>1764</v>
       </c>
       <c r="H24" s="12">
         <v>100</v>
@@ -64006,20 +65221,20 @@
         <v>0</v>
       </c>
       <c r="Q24" s="17" t="s">
-        <v>1759</v>
+        <v>1762</v>
       </c>
       <c r="R24" s="17" t="s">
-        <v>1760</v>
+        <v>1763</v>
       </c>
       <c r="T24" s="17"/>
       <c r="U24" s="12">
         <v>100</v>
       </c>
       <c r="V24" s="17" t="s">
-        <v>1742</v>
+        <v>1745</v>
       </c>
       <c r="W24" s="12" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="Z24" s="12">
         <v>1</v>
@@ -64028,7 +65243,7 @@
         <v>1</v>
       </c>
       <c r="AD24" s="17" t="s">
-        <v>1776</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="25" s="12" customFormat="1" spans="1:27">
@@ -64051,7 +65266,7 @@
         <v>111</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>1739</v>
+        <v>1742</v>
       </c>
       <c r="H25" s="12">
         <v>19800</v>
@@ -64078,22 +65293,22 @@
         <v>8</v>
       </c>
       <c r="Q25" s="17" t="s">
-        <v>1789</v>
+        <v>1792</v>
       </c>
       <c r="R25" s="17" t="s">
-        <v>1790</v>
+        <v>1793</v>
       </c>
       <c r="T25" s="17" t="s">
-        <v>1741</v>
+        <v>1744</v>
       </c>
       <c r="U25" s="17" t="s">
         <v>143</v>
       </c>
       <c r="V25" s="17" t="s">
-        <v>1785</v>
+        <v>1788</v>
       </c>
       <c r="W25" s="12" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="Z25" s="12">
         <v>1</v>
@@ -64163,13 +65378,13 @@
         <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1733</v>
+        <v>1736</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1734</v>
+        <v>1737</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1791</v>
+        <v>1794</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>32</v>
@@ -64181,16 +65396,16 @@
         <v>154</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1792</v>
+        <v>1795</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1793</v>
+        <v>1796</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1794</v>
+        <v>1797</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1795</v>
+        <v>1798</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>39</v>
@@ -64231,7 +65446,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -64243,7 +65458,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
       <c r="L2" s="2">
         <v>54</v>
@@ -64252,7 +65467,7 @@
         <v>999999</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
@@ -64261,22 +65476,22 @@
         <v>1</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>1800</v>
+        <v>1803</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>1801</v>
+        <v>1804</v>
       </c>
       <c r="T2" s="2">
         <v>60000</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:23">
@@ -64287,7 +65502,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -64299,7 +65514,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
       <c r="L3" s="2">
         <v>54</v>
@@ -64308,7 +65523,7 @@
         <v>999999</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1803</v>
+        <v>1806</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -64317,22 +65532,22 @@
         <v>2</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
       <c r="R3" s="2" t="s">
+        <v>1807</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>1804</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>1801</v>
       </c>
       <c r="T3" s="2">
         <v>500000</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="W3" s="2">
         <v>8.3</v>
@@ -64346,7 +65561,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1805</v>
+        <v>1808</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -64371,19 +65586,19 @@
         <v>4</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>1806</v>
+        <v>1809</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>1807</v>
+        <v>1810</v>
       </c>
       <c r="T4" s="2">
         <v>15000</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>1808</v>
+        <v>1811</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:22">
@@ -64394,7 +65609,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1809</v>
+        <v>1812</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -64421,10 +65636,10 @@
         <v>100000</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>1810</v>
+        <v>1813</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:22">
@@ -64435,7 +65650,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1811</v>
+        <v>1814</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
@@ -64462,10 +65677,10 @@
         <v>100000</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>1810</v>
+        <v>1813</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:23">
@@ -64476,7 +65691,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
@@ -64488,7 +65703,7 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>1812</v>
+        <v>1815</v>
       </c>
       <c r="L7" s="2">
         <v>56</v>
@@ -64497,7 +65712,7 @@
         <v>999999</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>1803</v>
+        <v>1806</v>
       </c>
       <c r="O7" s="6">
         <v>0</v>
@@ -64506,22 +65721,22 @@
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>1813</v>
+        <v>1816</v>
       </c>
       <c r="R7" s="2" t="s">
+        <v>1807</v>
+      </c>
+      <c r="S7" s="2" t="s">
         <v>1804</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>1801</v>
       </c>
       <c r="T7" s="2">
         <v>500000</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>1814</v>
+        <v>1817</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="W7" s="2">
         <v>8.3</v>
@@ -64535,10 +65750,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1815</v>
+        <v>1818</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1739</v>
+        <v>1742</v>
       </c>
       <c r="F8" s="2">
         <v>100</v>
@@ -64550,7 +65765,7 @@
         <v>125</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>1816</v>
+        <v>1819</v>
       </c>
       <c r="L8" s="2">
         <v>57</v>
@@ -64565,22 +65780,22 @@
         <v>5</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>1817</v>
+        <v>1820</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>1818</v>
+        <v>1821</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>1801</v>
+        <v>1804</v>
       </c>
       <c r="T8" s="2">
         <v>100</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>1819</v>
+        <v>1822</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:22">
@@ -64591,10 +65806,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1820</v>
+        <v>1823</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1739</v>
+        <v>1742</v>
       </c>
       <c r="F9" s="2">
         <v>1000</v>
@@ -64609,16 +65824,16 @@
         <v>6</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>1821</v>
+        <v>1824</v>
       </c>
       <c r="T9" s="2">
         <v>1000</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>1822</v>
+        <v>1825</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:22">
@@ -64629,10 +65844,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1820</v>
+        <v>1823</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1739</v>
+        <v>1742</v>
       </c>
       <c r="F10" s="2">
         <v>5800</v>
@@ -64647,16 +65862,16 @@
         <v>7</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>1823</v>
+        <v>1826</v>
       </c>
       <c r="T10" s="2">
         <v>5800</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>1822</v>
+        <v>1825</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:22">
@@ -64667,10 +65882,10 @@
         <v>17</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1820</v>
+        <v>1823</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1739</v>
+        <v>1742</v>
       </c>
       <c r="F11" s="2">
         <v>8800</v>
@@ -64685,16 +65900,16 @@
         <v>8</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>1824</v>
+        <v>1827</v>
       </c>
       <c r="T11" s="2">
         <v>8800</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>1822</v>
+        <v>1825</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:22">
@@ -64705,10 +65920,10 @@
         <v>18</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1820</v>
+        <v>1823</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1739</v>
+        <v>1742</v>
       </c>
       <c r="F12" s="2">
         <v>18800</v>
@@ -64723,16 +65938,16 @@
         <v>9</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>1825</v>
+        <v>1828</v>
       </c>
       <c r="T12" s="2">
         <v>18800</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>1822</v>
+        <v>1825</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:23">
@@ -64743,7 +65958,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1826</v>
+        <v>1829</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
@@ -64767,16 +65982,16 @@
         <v>0</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>1827</v>
+        <v>1830</v>
       </c>
       <c r="T13" s="2">
         <v>70000</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>1828</v>
+        <v>1831</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="W13" s="2">
         <v>7</v>
@@ -64790,7 +66005,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1826</v>
+        <v>1829</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>14</v>
@@ -64814,16 +66029,16 @@
         <v>0</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>1829</v>
+        <v>1832</v>
       </c>
       <c r="T14" s="2">
         <v>180000</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>1828</v>
+        <v>1831</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="W14" s="2">
         <v>6</v>
@@ -64837,10 +66052,10 @@
         <v>21</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>1826</v>
+        <v>1829</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>1761</v>
+        <v>1764</v>
       </c>
       <c r="F15" s="2">
         <v>1500</v>
@@ -64861,16 +66076,16 @@
         <v>0</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>1830</v>
+        <v>1833</v>
       </c>
       <c r="T15" s="2">
         <v>1500</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>1828</v>
+        <v>1831</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="W15" s="2">
         <v>3</v>
@@ -64884,10 +66099,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1831</v>
+        <v>1834</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>1761</v>
+        <v>1764</v>
       </c>
       <c r="F16" s="3">
         <v>200</v>
@@ -64903,13 +66118,13 @@
         <v>0</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>1832</v>
+        <v>1835</v>
       </c>
       <c r="T16" s="3">
         <v>200</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" spans="1:22">
@@ -64920,10 +66135,10 @@
         <v>23</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1831</v>
+        <v>1834</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>1761</v>
+        <v>1764</v>
       </c>
       <c r="F17" s="3">
         <v>2000</v>
@@ -64939,13 +66154,13 @@
         <v>0</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>1833</v>
+        <v>1836</v>
       </c>
       <c r="T17" s="3">
         <v>2000</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" spans="1:22">
@@ -64956,7 +66171,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1831</v>
+        <v>1834</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>14</v>
@@ -64975,13 +66190,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>1832</v>
+        <v>1835</v>
       </c>
       <c r="T18" s="3">
         <v>20000</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" spans="1:22">
@@ -64992,7 +66207,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1831</v>
+        <v>1834</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>14</v>
@@ -65011,13 +66226,13 @@
         <v>0</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>1833</v>
+        <v>1836</v>
       </c>
       <c r="T19" s="3">
         <v>200000</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" spans="1:22">
@@ -65028,7 +66243,7 @@
         <v>26</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>1834</v>
+        <v>1837</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>14</v>
@@ -65046,16 +66261,16 @@
         <v>0</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>1835</v>
+        <v>1838</v>
       </c>
       <c r="T20" s="4">
         <v>300000</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>1836</v>
+        <v>1839</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" spans="1:22">
@@ -65066,7 +66281,7 @@
         <v>27</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>1837</v>
+        <v>1840</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>14</v>
@@ -65084,16 +66299,16 @@
         <v>0</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>1838</v>
+        <v>1841</v>
       </c>
       <c r="T21" s="4">
         <v>300000</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>1839</v>
+        <v>1842</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/shoping_config_cjj.xlsx
+++ b/config_debug/shoping_config_cjj.xlsx
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5407" uniqueCount="1843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5443" uniqueCount="1850">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -5849,6 +5849,27 @@
   </si>
   <si>
     <t>消暑礼包</t>
+  </si>
+  <si>
+    <t>抽奖礼包</t>
+  </si>
+  <si>
+    <t>"5000万金币","100万小游戏币","啤酒盖*50",</t>
+  </si>
+  <si>
+    <t>"1980万金币","40万小游戏币","啤酒盖*30",</t>
+  </si>
+  <si>
+    <t>"980万金币","18万小游戏币","啤酒盖*15",</t>
+  </si>
+  <si>
+    <t>"480万金币","8万小游戏币","啤酒盖*8",</t>
+  </si>
+  <si>
+    <t>"200万金币","2万小游戏币","啤酒盖*4",</t>
+  </si>
+  <si>
+    <t>"60万金币","5000小游戏币","啤酒盖*1",</t>
   </si>
   <si>
     <t>id|不能重复</t>
@@ -6726,10 +6747,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -6763,8 +6784,32 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6784,11 +6829,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6799,39 +6850,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6846,6 +6875,14 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -6853,17 +6890,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6879,7 +6907,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6887,14 +6915,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6907,12 +6928,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -6993,7 +7014,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7005,85 +7128,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7095,49 +7158,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7192,6 +7213,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -7222,6 +7252,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -7233,15 +7283,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7260,26 +7301,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -7288,10 +7309,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7300,133 +7321,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillI